--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="普通怪属性" sheetId="1" r:id="rId1"/>
     <sheet name="BOSS怪属性" sheetId="2" r:id="rId2"/>
     <sheet name="分布" sheetId="3" r:id="rId3"/>
-    <sheet name="未采用" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="221">
   <si>
     <t>ID</t>
   </si>
@@ -278,7 +276,6 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="38"/>
-        <charset val="0"/>
       </rPr>
       <t>祖玛教主</t>
     </r>
@@ -367,9 +364,6 @@
     <t>020</t>
   </si>
   <si>
-    <t>10204-10208</t>
-  </si>
-  <si>
     <t>毒蛇山谷</t>
   </si>
   <si>
@@ -385,9 +379,6 @@
     <t>022</t>
   </si>
   <si>
-    <t>10209-10213</t>
-  </si>
-  <si>
     <t>20202-20203</t>
   </si>
   <si>
@@ -397,9 +388,6 @@
     <t>023</t>
   </si>
   <si>
-    <t>10214-10217</t>
-  </si>
-  <si>
     <t>20204-20205</t>
   </si>
   <si>
@@ -409,9 +397,6 @@
     <t>024</t>
   </si>
   <si>
-    <t>10218-10222</t>
-  </si>
-  <si>
     <t>苍月岛</t>
   </si>
   <si>
@@ -490,9 +475,6 @@
     <t>魔龙血域</t>
   </si>
   <si>
-    <t>血量</t>
-  </si>
-  <si>
     <t>月魔蜘蛛</t>
   </si>
   <si>
@@ -559,22 +541,6 @@
     <t>牛魔战士</t>
   </si>
   <si>
-    <r>
-      <t>牛魔</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color indexed="0"/>
-        <rFont val="宋体"/>
-        <family val="7"/>
-        <charset val="134"/>
-      </rPr>
-      <t>法师</t>
-    </r>
-  </si>
-  <si>
     <t>牛魔祭司</t>
   </si>
   <si>
@@ -632,41 +598,155 @@
     <t>血僵尸</t>
   </si>
   <si>
-    <t>火焰沃马</t>
-  </si>
-  <si>
     <t>魔龙树妖</t>
+  </si>
+  <si>
+    <t>牛魔法师</t>
+  </si>
+  <si>
+    <t>10204-10209</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10210-10214</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10215-10218</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10219-10223</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10301-10302</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10303-10306</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10307-10314</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401-10405</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401-10407</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401-10409</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10116-10120</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10215-10223</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10601-10603</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10601-10606</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10604-10606</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10107-10108,10113-10120</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10106-10108,10401-10403</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20501,20505</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20502</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20503</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20502-20503</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20504</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20205</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20601</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20602</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20603</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20604-20605</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特色地图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>重装上阵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者禁地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃源仙镜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20101，20401</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔龙斧兵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="7"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="0"/>
-      <name val="宋体"/>
-      <family val="7"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color indexed="0"/>
       <name val="宋体"/>
       <family val="7"/>
       <charset val="134"/>
@@ -695,7 +775,32 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="38"/>
-      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="7"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -706,7 +811,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -714,38 +819,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -757,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -772,14 +929,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -793,7 +947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -805,15 +959,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1112,6 +1394,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1144,23 +1427,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:R52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="6" customWidth="1"/>
     <col min="4" max="4" width="5.375" customWidth="1"/>
-    <col min="5" max="5" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.375" customWidth="1"/>
     <col min="7" max="7" width="3.375" customWidth="1"/>
     <col min="8" max="8" width="5.375" customWidth="1"/>
@@ -1171,70 +1452,70 @@
     <col min="18" max="18" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:18">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="12">
         <v>10001</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="14">
         <v>1</v>
       </c>
       <c r="D2">
@@ -1243,7 +1524,7 @@
       <c r="E2">
         <v>5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2">
@@ -1283,14 +1564,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="12">
         <v>10002</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="14">
         <v>1</v>
       </c>
       <c r="D3">
@@ -1299,7 +1580,7 @@
       <c r="E3">
         <v>15</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3">
@@ -1339,14 +1620,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
         <v>10003</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="14">
         <v>1</v>
       </c>
       <c r="D4">
@@ -1355,7 +1636,7 @@
       <c r="E4">
         <v>20</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
       <c r="G4">
@@ -1395,14 +1676,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
         <v>10101</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="14">
         <v>1</v>
       </c>
       <c r="D5">
@@ -1411,7 +1692,7 @@
       <c r="E5">
         <v>15</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5">
@@ -1451,14 +1732,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
         <v>10102</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="14">
         <v>1</v>
       </c>
       <c r="D6">
@@ -1467,7 +1748,7 @@
       <c r="E6">
         <v>22</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6">
@@ -1507,14 +1788,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
         <v>10103</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>1</v>
       </c>
       <c r="D7">
@@ -1523,7 +1804,7 @@
       <c r="E7">
         <v>23</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>1</v>
       </c>
       <c r="G7">
@@ -1563,14 +1844,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
         <v>10104</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <v>1</v>
       </c>
       <c r="D8">
@@ -1579,7 +1860,7 @@
       <c r="E8">
         <v>20</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8">
@@ -1619,14 +1900,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
         <v>10105</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <v>1</v>
       </c>
       <c r="D9">
@@ -1635,7 +1916,7 @@
       <c r="E9">
         <v>28</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
       <c r="G9">
@@ -1675,14 +1956,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
         <v>10106</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="14">
         <v>1</v>
       </c>
       <c r="D10">
@@ -1691,7 +1972,7 @@
       <c r="E10">
         <v>36</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="G10">
@@ -1731,14 +2012,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" s="12">
         <v>10107</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="14">
         <v>1</v>
       </c>
       <c r="D11">
@@ -1747,7 +2028,7 @@
       <c r="E11">
         <v>30</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11">
@@ -1787,14 +2068,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A12" s="12">
         <v>10108</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="14">
         <v>1</v>
       </c>
       <c r="D12">
@@ -1803,7 +2084,7 @@
       <c r="E12">
         <v>100</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12">
@@ -1843,14 +2124,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" s="12">
         <v>10109</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="14">
         <v>1</v>
       </c>
       <c r="D13">
@@ -1859,7 +2140,7 @@
       <c r="E13">
         <v>25</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13">
@@ -1899,14 +2180,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14" s="12">
         <v>10110</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="14">
         <v>1</v>
       </c>
       <c r="D14">
@@ -1915,7 +2196,7 @@
       <c r="E14">
         <v>45</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14">
@@ -1955,14 +2236,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15" s="12">
         <v>10111</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="14">
         <v>1</v>
       </c>
       <c r="D15">
@@ -1971,7 +2252,7 @@
       <c r="E15">
         <v>65</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15">
@@ -2011,14 +2292,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="12">
         <v>10112</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="14">
         <v>1</v>
       </c>
       <c r="D16">
@@ -2027,7 +2308,7 @@
       <c r="E16">
         <v>90</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>1</v>
       </c>
       <c r="G16">
@@ -2067,14 +2348,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17" s="12">
         <v>10113</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="14">
         <v>1</v>
       </c>
       <c r="D17">
@@ -2083,7 +2364,7 @@
       <c r="E17">
         <v>100</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17">
@@ -2123,14 +2404,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18" s="12">
         <v>10114</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="14">
         <v>1</v>
       </c>
       <c r="D18">
@@ -2139,7 +2420,7 @@
       <c r="E18">
         <v>105</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>1</v>
       </c>
       <c r="G18">
@@ -2179,14 +2460,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A19" s="12">
         <v>10115</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="14">
         <v>1</v>
       </c>
       <c r="D19">
@@ -2195,7 +2476,7 @@
       <c r="E19">
         <v>110</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19">
@@ -2235,14 +2516,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A20" s="12">
         <v>10116</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="14">
         <v>1</v>
       </c>
       <c r="D20">
@@ -2251,7 +2532,7 @@
       <c r="E20">
         <v>155</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="G20">
@@ -2291,14 +2572,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A21" s="12">
         <v>10117</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="14">
         <v>1</v>
       </c>
       <c r="D21">
@@ -2307,7 +2588,7 @@
       <c r="E21">
         <v>155</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21">
@@ -2347,14 +2628,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A22" s="12">
         <v>10118</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="14">
         <v>1</v>
       </c>
       <c r="D22">
@@ -2363,7 +2644,7 @@
       <c r="E22">
         <v>155</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>1</v>
       </c>
       <c r="G22">
@@ -2403,14 +2684,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A23" s="12">
         <v>10119</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="14">
         <v>1</v>
       </c>
       <c r="D23">
@@ -2419,7 +2700,7 @@
       <c r="E23">
         <v>155</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>1</v>
       </c>
       <c r="G23">
@@ -2459,14 +2740,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A24" s="12">
         <v>10120</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="14">
         <v>1</v>
       </c>
       <c r="D24">
@@ -2475,7 +2756,7 @@
       <c r="E24">
         <v>155</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>1</v>
       </c>
       <c r="G24">
@@ -2515,14 +2796,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A25" s="12">
         <v>10121</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="14">
         <v>1</v>
       </c>
       <c r="D25">
@@ -2531,7 +2812,7 @@
       <c r="E25">
         <v>155</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>1</v>
       </c>
       <c r="G25">
@@ -2571,14 +2852,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A26" s="12">
         <v>10122</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="14">
         <v>1</v>
       </c>
       <c r="D26">
@@ -2587,7 +2868,7 @@
       <c r="E26">
         <v>165</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>1</v>
       </c>
       <c r="G26">
@@ -2627,14 +2908,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A27" s="12">
         <v>10123</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="14">
         <v>1</v>
       </c>
       <c r="D27">
@@ -2643,7 +2924,7 @@
       <c r="E27">
         <v>265</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <v>1</v>
       </c>
       <c r="G27">
@@ -2683,14 +2964,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A28" s="12">
         <v>10124</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="14">
         <v>1</v>
       </c>
       <c r="D28">
@@ -2699,7 +2980,7 @@
       <c r="E28">
         <v>285</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>1</v>
       </c>
       <c r="G28">
@@ -2739,14 +3020,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A29" s="12">
         <v>10125</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="14">
         <v>1</v>
       </c>
       <c r="D29">
@@ -2755,7 +3036,7 @@
       <c r="E29">
         <v>285</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>1</v>
       </c>
       <c r="G29">
@@ -2795,14 +3076,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A30" s="12">
         <v>10126</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="14">
         <v>1</v>
       </c>
       <c r="D30">
@@ -2811,7 +3092,7 @@
       <c r="E30">
         <v>300</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="2">
         <v>1</v>
       </c>
       <c r="G30">
@@ -2851,14 +3132,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A31" s="12">
         <v>10201</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="14">
         <v>1</v>
       </c>
       <c r="D31">
@@ -2867,7 +3148,7 @@
       <c r="E31">
         <v>42</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="2">
         <v>1</v>
       </c>
       <c r="G31">
@@ -2907,14 +3188,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A32" s="12">
         <v>10202</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="14">
         <v>1</v>
       </c>
       <c r="D32">
@@ -2923,7 +3204,7 @@
       <c r="E32">
         <v>50</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="2">
         <v>1</v>
       </c>
       <c r="G32">
@@ -2963,14 +3244,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A33" s="12">
         <v>10203</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="14">
         <v>1</v>
       </c>
       <c r="D33">
@@ -2979,7 +3260,7 @@
       <c r="E33">
         <v>53</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="2">
         <v>1</v>
       </c>
       <c r="G33">
@@ -3019,14 +3300,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="15">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A34" s="12">
         <v>10204</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="14">
         <v>1</v>
       </c>
       <c r="D34">
@@ -3035,7 +3316,7 @@
       <c r="E34">
         <v>50</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="2">
         <v>1</v>
       </c>
       <c r="G34">
@@ -3075,14 +3356,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="15">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A35" s="12">
         <v>10205</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="14">
         <v>1</v>
       </c>
       <c r="D35">
@@ -3091,7 +3372,7 @@
       <c r="E35">
         <v>48</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="2">
         <v>1</v>
       </c>
       <c r="G35">
@@ -3131,14 +3412,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="15">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A36" s="12">
         <v>10206</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="14">
         <v>1</v>
       </c>
       <c r="D36">
@@ -3147,7 +3428,7 @@
       <c r="E36">
         <v>50</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="2">
         <v>1</v>
       </c>
       <c r="G36">
@@ -3187,14 +3468,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="15">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A37" s="12">
         <v>10207</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="14">
         <v>1</v>
       </c>
       <c r="D37">
@@ -3203,7 +3484,7 @@
       <c r="E37">
         <v>38</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="2">
         <v>1</v>
       </c>
       <c r="G37">
@@ -3243,14 +3524,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="15">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A38" s="12">
         <v>10208</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="14">
         <v>1</v>
       </c>
       <c r="D38">
@@ -3259,7 +3540,7 @@
       <c r="E38">
         <v>50</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="2">
         <v>1</v>
       </c>
       <c r="G38">
@@ -3299,23 +3580,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="15">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A39" s="12">
         <v>10209</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="17">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>230</v>
-      </c>
-      <c r="E39">
-        <v>230</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="B39" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="14">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>54</v>
+      </c>
+      <c r="E39" s="1">
+        <v>54</v>
+      </c>
+      <c r="F39" s="20">
         <v>1</v>
       </c>
       <c r="G39">
@@ -3328,7 +3609,7 @@
         <v>10</v>
       </c>
       <c r="J39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3355,23 +3636,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="15">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A40" s="12">
         <v>10210</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="17">
+      <c r="B40" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="14">
         <v>1</v>
       </c>
       <c r="D40">
         <v>230</v>
       </c>
       <c r="E40">
-        <v>200</v>
-      </c>
-      <c r="F40" s="4">
+        <v>230</v>
+      </c>
+      <c r="F40" s="20">
         <v>1</v>
       </c>
       <c r="G40">
@@ -3384,7 +3665,7 @@
         <v>10</v>
       </c>
       <c r="J40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3411,23 +3692,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="15">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A41" s="12">
         <v>10211</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="17">
+      <c r="B41" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="14">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="E41">
         <v>200</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="20">
         <v>1</v>
       </c>
       <c r="G41">
@@ -3440,7 +3721,7 @@
         <v>10</v>
       </c>
       <c r="J41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3467,23 +3748,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="15">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A42" s="12">
         <v>10212</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="17">
+      <c r="B42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="14">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="E42">
-        <v>230</v>
-      </c>
-      <c r="F42" s="4">
+        <v>200</v>
+      </c>
+      <c r="F42" s="20">
         <v>1</v>
       </c>
       <c r="G42">
@@ -3496,7 +3777,7 @@
         <v>10</v>
       </c>
       <c r="J42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -3523,23 +3804,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="15">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A43" s="12">
         <v>10213</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="17">
+      <c r="B43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="14">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="E43">
-        <v>270</v>
-      </c>
-      <c r="F43" s="4">
+        <v>230</v>
+      </c>
+      <c r="F43" s="20">
         <v>1</v>
       </c>
       <c r="G43">
@@ -3552,7 +3833,7 @@
         <v>10</v>
       </c>
       <c r="J43">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3579,23 +3860,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="15">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A44" s="12">
         <v>10214</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="17">
+      <c r="B44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="14">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="E44">
-        <v>330</v>
-      </c>
-      <c r="F44" s="4">
+        <v>270</v>
+      </c>
+      <c r="F44" s="20">
         <v>1</v>
       </c>
       <c r="G44">
@@ -3608,7 +3889,7 @@
         <v>10</v>
       </c>
       <c r="J44">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3635,23 +3916,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="15">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A45" s="12">
         <v>10215</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="17">
+      <c r="B45" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="14">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="E45">
-        <v>310</v>
-      </c>
-      <c r="F45" s="4">
+        <v>330</v>
+      </c>
+      <c r="F45" s="20">
         <v>1</v>
       </c>
       <c r="G45">
@@ -3664,7 +3945,7 @@
         <v>10</v>
       </c>
       <c r="J45">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3691,23 +3972,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="15">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A46" s="12">
         <v>10216</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="17">
+      <c r="B46" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="14">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="E46">
-        <v>330</v>
-      </c>
-      <c r="F46" s="4">
+        <v>310</v>
+      </c>
+      <c r="F46" s="20">
         <v>1</v>
       </c>
       <c r="G46">
@@ -3720,7 +4001,7 @@
         <v>10</v>
       </c>
       <c r="J46">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3747,23 +4028,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="15">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A47" s="12">
         <v>10217</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="17">
+      <c r="B47" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="14">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="E47">
-        <v>200</v>
-      </c>
-      <c r="F47" s="4">
+        <v>330</v>
+      </c>
+      <c r="F47" s="20">
         <v>1</v>
       </c>
       <c r="G47">
@@ -3776,7 +4057,7 @@
         <v>10</v>
       </c>
       <c r="J47">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3803,23 +4084,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="15">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A48" s="12">
         <v>10218</v>
       </c>
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="17">
+      <c r="B48" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="14">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="E48">
-        <v>220</v>
-      </c>
-      <c r="F48" s="4">
+        <v>200</v>
+      </c>
+      <c r="F48" s="20">
         <v>1</v>
       </c>
       <c r="G48">
@@ -3832,7 +4113,7 @@
         <v>10</v>
       </c>
       <c r="J48">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3859,23 +4140,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="15">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A49" s="12">
         <v>10219</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="17">
+        <v>64</v>
+      </c>
+      <c r="C49" s="14">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="E49">
-        <v>365</v>
-      </c>
-      <c r="F49" s="4">
+        <v>220</v>
+      </c>
+      <c r="F49" s="20">
         <v>1</v>
       </c>
       <c r="G49">
@@ -3888,7 +4169,7 @@
         <v>10</v>
       </c>
       <c r="J49">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3915,23 +4196,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="15">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A50" s="12">
         <v>10220</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="17">
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="14">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="E50">
-        <v>385</v>
-      </c>
-      <c r="F50" s="4">
+        <v>365</v>
+      </c>
+      <c r="F50" s="20">
         <v>1</v>
       </c>
       <c r="G50">
@@ -3944,7 +4225,7 @@
         <v>10</v>
       </c>
       <c r="J50">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3971,23 +4252,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
-      <c r="A51" s="15">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A51" s="12">
         <v>10221</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="17">
+      <c r="B51" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="14">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>450</v>
+        <v>370</v>
       </c>
       <c r="E51">
-        <v>495</v>
-      </c>
-      <c r="F51" s="4">
+        <v>385</v>
+      </c>
+      <c r="F51" s="20">
         <v>1</v>
       </c>
       <c r="G51">
@@ -4000,7 +4281,7 @@
         <v>10</v>
       </c>
       <c r="J51">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -4027,23 +4308,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="15">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A52" s="12">
         <v>10222</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="17">
+      <c r="B52" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="14">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="E52">
         <v>495</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="20">
         <v>1</v>
       </c>
       <c r="G52">
@@ -4056,7 +4337,7 @@
         <v>10</v>
       </c>
       <c r="J52">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -4083,30 +4364,1704 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A53" s="12">
+        <v>10223</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="14">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>480</v>
+      </c>
+      <c r="E53">
+        <v>495</v>
+      </c>
+      <c r="F53" s="20">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>10</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>100</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A54" s="12">
+        <v>10301</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="14">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>190</v>
+      </c>
+      <c r="E54" s="1">
+        <v>180</v>
+      </c>
+      <c r="F54" s="20">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>10</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>10</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>100</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A55" s="12">
+        <v>10302</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="14">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>460</v>
+      </c>
+      <c r="E55" s="1">
+        <v>500</v>
+      </c>
+      <c r="F55" s="20">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>10</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>100</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A56" s="12">
+        <v>10303</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="14">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>380</v>
+      </c>
+      <c r="E56" s="1">
+        <v>390</v>
+      </c>
+      <c r="F56" s="20">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>10</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>100</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A57" s="12">
+        <v>10304</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="14">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>450</v>
+      </c>
+      <c r="E57" s="1">
+        <v>500</v>
+      </c>
+      <c r="F57" s="20">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>100</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A58" s="12">
+        <v>10305</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="14">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>420</v>
+      </c>
+      <c r="E58" s="1">
+        <v>440</v>
+      </c>
+      <c r="F58" s="20">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>10</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>100</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A59" s="12">
+        <v>10306</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="14">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>240</v>
+      </c>
+      <c r="E59" s="1">
+        <v>190</v>
+      </c>
+      <c r="F59" s="20">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>10</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>100</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A60" s="12">
+        <v>10307</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="14">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>400</v>
+      </c>
+      <c r="E60" s="1">
+        <v>420</v>
+      </c>
+      <c r="F60" s="20">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>10</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>10</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>100</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A61" s="12">
+        <v>10308</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="14">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>440</v>
+      </c>
+      <c r="E61" s="1">
+        <v>360</v>
+      </c>
+      <c r="F61" s="20">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>10</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>100</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A62" s="12">
+        <v>10309</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="14">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>750</v>
+      </c>
+      <c r="E62" s="1">
+        <v>750</v>
+      </c>
+      <c r="F62" s="20">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>10</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>10</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>100</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A63" s="12">
+        <v>10310</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="14">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>780</v>
+      </c>
+      <c r="E63" s="1">
+        <v>750</v>
+      </c>
+      <c r="F63" s="20">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>10</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>100</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A64" s="12">
+        <v>10311</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="14">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>580</v>
+      </c>
+      <c r="E64" s="1">
+        <v>500</v>
+      </c>
+      <c r="F64" s="20">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>10</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>100</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A65" s="12">
+        <v>10312</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="14">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>480</v>
+      </c>
+      <c r="E65" s="1">
+        <v>460</v>
+      </c>
+      <c r="F65" s="20">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>10</v>
+      </c>
+      <c r="J65">
+        <v>5</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>100</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A66" s="12">
+        <v>10313</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="14">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>360</v>
+      </c>
+      <c r="E66" s="1">
+        <v>330</v>
+      </c>
+      <c r="F66" s="20">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>10</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>10</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>100</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A67" s="12">
+        <v>10314</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="14">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>300</v>
+      </c>
+      <c r="F67" s="20">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>10</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>100</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A68" s="12">
+        <v>10401</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="14">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>700</v>
+      </c>
+      <c r="E68" s="1">
+        <v>800</v>
+      </c>
+      <c r="F68" s="20">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>10</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>10</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>100</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A69" s="12">
+        <v>10402</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="14">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>500</v>
+      </c>
+      <c r="E69" s="1">
+        <v>500</v>
+      </c>
+      <c r="F69" s="20">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>10</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>10</v>
+      </c>
+      <c r="J69">
+        <v>5</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>100</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A70" s="12">
+        <v>10403</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="14">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>680</v>
+      </c>
+      <c r="E70" s="1">
+        <v>750</v>
+      </c>
+      <c r="F70" s="20">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>10</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>10</v>
+      </c>
+      <c r="J70">
+        <v>5</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>100</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A71" s="12">
+        <v>10404</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="14">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>900</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F71" s="20">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>10</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>10</v>
+      </c>
+      <c r="J71">
+        <v>5</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>100</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A72" s="12">
+        <v>10405</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="14">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>900</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F72" s="20">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>10</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>10</v>
+      </c>
+      <c r="J72">
+        <v>5</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>100</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A73" s="12">
+        <v>10406</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" s="14">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <v>400</v>
+      </c>
+      <c r="E73" s="1">
+        <v>500</v>
+      </c>
+      <c r="F73" s="20">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>10</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>10</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>100</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A74" s="12">
+        <v>10407</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="14">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>700</v>
+      </c>
+      <c r="E74" s="1">
+        <v>850</v>
+      </c>
+      <c r="F74" s="20">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>10</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>10</v>
+      </c>
+      <c r="J74">
+        <v>5</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>100</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A75" s="12">
+        <v>10408</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="14">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F75" s="20">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>10</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>10</v>
+      </c>
+      <c r="J75">
+        <v>5</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>100</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A76" s="12">
+        <v>10409</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="14">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>800</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F76" s="20">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>10</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>10</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>100</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A77" s="12">
+        <v>10601</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="14">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E77" s="1">
+        <v>800</v>
+      </c>
+      <c r="F77" s="20">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>10</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>10</v>
+      </c>
+      <c r="J77">
+        <v>5</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>100</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A78" s="12">
+        <v>10602</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="14">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>800</v>
+      </c>
+      <c r="E78" s="1">
+        <v>800</v>
+      </c>
+      <c r="F78" s="20">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>10</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>10</v>
+      </c>
+      <c r="J78">
+        <v>5</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>100</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A79" s="12">
+        <v>10603</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="14">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E79" s="1">
+        <v>800</v>
+      </c>
+      <c r="F79" s="20">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>10</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
+      <c r="J79">
+        <v>5</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>100</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A80" s="12">
+        <v>10604</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" s="14">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F80" s="20">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>10</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>10</v>
+      </c>
+      <c r="J80">
+        <v>5</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>100</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A81" s="12">
+        <v>10605</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="20">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>10</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>10</v>
+      </c>
+      <c r="J81">
+        <v>5</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>100</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A82" s="12">
+        <v>10606</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="14">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F82" s="20">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>10</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>10</v>
+      </c>
+      <c r="J82">
+        <v>5</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>100</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:R12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="8" customWidth="1"/>
-    <col min="4" max="6" width="5.375" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="6" customWidth="1"/>
+    <col min="4" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.375" customWidth="1"/>
     <col min="8" max="8" width="5.375" customWidth="1"/>
     <col min="9" max="9" width="3.375" customWidth="1"/>
@@ -4119,70 +6074,70 @@
     <col min="19" max="19" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:18">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="12">
         <v>20101</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="14">
         <v>100</v>
       </c>
       <c r="D2">
@@ -4192,6 +6147,7 @@
         <v>300</v>
       </c>
       <c r="F2">
+        <f>INT((E2/1000))*10+10</f>
         <v>10</v>
       </c>
       <c r="G2">
@@ -4206,7 +6162,7 @@
       <c r="J2">
         <v>20</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>0</v>
       </c>
       <c r="L2">
@@ -4231,14 +6187,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="12">
         <v>20102</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="14">
         <v>100</v>
       </c>
       <c r="D3">
@@ -4248,6 +6204,7 @@
         <v>500</v>
       </c>
       <c r="F3">
+        <f t="shared" ref="F3:F28" si="0">INT((E3/1000))*10+10</f>
         <v>10</v>
       </c>
       <c r="G3">
@@ -4262,7 +6219,7 @@
       <c r="J3">
         <v>30</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3">
@@ -4287,14 +6244,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
         <v>20103</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="14">
         <v>100</v>
       </c>
       <c r="D4">
@@ -4304,6 +6261,7 @@
         <v>500</v>
       </c>
       <c r="F4">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G4">
@@ -4318,7 +6276,7 @@
       <c r="J4">
         <v>40</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="2">
         <v>0</v>
       </c>
       <c r="L4">
@@ -4343,14 +6301,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
         <v>20104</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="14">
         <v>100</v>
       </c>
       <c r="D5">
@@ -4360,7 +6318,8 @@
         <v>1000</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -4374,7 +6333,7 @@
       <c r="J5">
         <v>50</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <v>0</v>
       </c>
       <c r="L5">
@@ -4399,14 +6358,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
         <v>20105</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="14">
         <v>100</v>
       </c>
       <c r="D6">
@@ -4416,7 +6375,8 @@
         <v>2200</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>100</v>
@@ -4430,7 +6390,7 @@
       <c r="J6">
         <v>100</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <v>0</v>
       </c>
       <c r="L6">
@@ -4455,14 +6415,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
         <v>20201</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>100</v>
       </c>
       <c r="D7">
@@ -4472,6 +6432,7 @@
         <v>250</v>
       </c>
       <c r="F7">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G7">
@@ -4486,7 +6447,7 @@
       <c r="J7">
         <v>20</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <v>0</v>
       </c>
       <c r="L7">
@@ -4511,14 +6472,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
         <v>20202</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <v>100</v>
       </c>
       <c r="D8">
@@ -4528,7 +6489,8 @@
         <v>1000</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="G8">
         <v>100</v>
@@ -4542,7 +6504,7 @@
       <c r="J8">
         <v>50</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8">
@@ -4567,14 +6529,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
         <v>20203</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <v>100</v>
       </c>
       <c r="D9">
@@ -4584,7 +6546,8 @@
         <v>1000</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>100</v>
@@ -4598,7 +6561,7 @@
       <c r="J9">
         <v>150</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
         <v>0</v>
       </c>
       <c r="L9">
@@ -4623,14 +6586,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
         <v>20204</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="14">
         <v>100</v>
       </c>
       <c r="D10">
@@ -4640,7 +6603,8 @@
         <v>1100</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="G10">
         <v>100</v>
@@ -4654,7 +6618,7 @@
       <c r="J10">
         <v>140</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10">
@@ -4679,14 +6643,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" s="12">
         <v>20205</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="14">
         <v>100</v>
       </c>
       <c r="D11">
@@ -4696,7 +6660,8 @@
         <v>1000</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>100</v>
@@ -4710,7 +6675,7 @@
       <c r="J11">
         <v>150</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11">
@@ -4735,14 +6700,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="15">
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="12">
         <v>20206</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="14">
         <v>100</v>
       </c>
       <c r="D12">
@@ -4752,7 +6717,8 @@
         <v>3000</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>100</v>
@@ -4766,7 +6732,7 @@
       <c r="J12">
         <v>200</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="2">
         <v>0</v>
       </c>
       <c r="L12">
@@ -4791,475 +6757,1608 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" s="12">
+        <v>20301</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="14">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>200</v>
+      </c>
+      <c r="K13" s="20">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>100</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14" s="12">
+        <v>20302</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="14">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>200</v>
+      </c>
+      <c r="K14" s="20">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>100</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15" s="12">
+        <v>20401</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="14">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>350</v>
+      </c>
+      <c r="E15">
+        <v>900</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="K15" s="20">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>100</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="12">
+        <v>20402</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="14">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>200</v>
+      </c>
+      <c r="K16" s="20">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>100</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17" s="12">
+        <v>20403</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="14">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>200</v>
+      </c>
+      <c r="K17" s="20">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>100</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18" s="12">
+        <v>20404</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="14">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>200</v>
+      </c>
+      <c r="K18" s="20">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>100</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A19" s="12">
+        <v>20501</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="14">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1">
+        <v>300</v>
+      </c>
+      <c r="E19" s="1">
+        <v>900</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>200</v>
+      </c>
+      <c r="K19" s="20">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A20" s="12">
+        <v>20502</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="14">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>200</v>
+      </c>
+      <c r="K20" s="20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>100</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A21" s="12">
+        <v>20503</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="14">
+        <v>100</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>200</v>
+      </c>
+      <c r="K21" s="20">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>100</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A22" s="12">
+        <v>20504</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="14">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F22">
+        <f>INT((E22/1000))*10+10</f>
+        <v>60</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>200</v>
+      </c>
+      <c r="K22" s="20">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>100</v>
+      </c>
+      <c r="Q22">
+        <v>10</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A23" s="12">
+        <v>20505</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="14">
+        <v>100</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>200</v>
+      </c>
+      <c r="K23" s="20">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>100</v>
+      </c>
+      <c r="Q23">
+        <v>10</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A24" s="12">
+        <v>20601</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="14">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>200</v>
+      </c>
+      <c r="K24" s="20">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>100</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A25" s="12">
+        <v>20602</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="14">
+        <v>100</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>200</v>
+      </c>
+      <c r="K25" s="20">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>100</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A26" s="12">
+        <v>20603</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="14">
+        <v>100</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>200</v>
+      </c>
+      <c r="K26" s="20">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>100</v>
+      </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A27" s="12">
+        <v>20604</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="14">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1">
+        <v>32000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>32000</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>200</v>
+      </c>
+      <c r="K27" s="20">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>100</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A28" s="12">
+        <v>20605</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="14">
+        <v>100</v>
+      </c>
+      <c r="D28" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>32000</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>200</v>
+      </c>
+      <c r="K28" s="20">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>100</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="7" customWidth="1"/>
-    <col min="6" max="7" width="12.625" style="8" customWidth="1"/>
+    <col min="1" max="2" width="10.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="28.5" spans="1:7">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="29">
+        <v>0</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="G2" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="37">
+        <v>0</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="41">
         <v>20101</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="14"/>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13" t="s">
+    <row r="4" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45">
+        <v>1</v>
+      </c>
+      <c r="D4" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="49">
         <v>20102</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="14"/>
-      <c r="C5" s="5">
+    <row r="5" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45">
         <v>2</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="49">
         <v>20103</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="14"/>
-      <c r="C6" s="5">
+    <row r="6" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53">
         <v>3</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="57" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4">
+    <row r="7" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="35">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="37">
+        <v>0</v>
+      </c>
+      <c r="D7" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="41">
+        <v>20201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="43"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="45">
+        <v>1</v>
+      </c>
+      <c r="D8" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="8">
-        <v>20201</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="43"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="45">
+        <v>2</v>
+      </c>
+      <c r="D9" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7">
-      <c r="C9" s="5">
+      <c r="E9" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="43"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="45">
+        <v>3</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="51"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="53">
+        <v>4</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="57">
+        <v>20206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="35">
+        <v>3</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="37">
+        <v>0</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="41">
+        <v>20301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="43"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="45">
+        <v>1</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="49">
+        <v>20301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="51"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="53">
         <v>2</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="5">
+      <c r="D14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" s="57">
+        <v>20302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="21">
+        <v>4</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="C11" s="5">
+      <c r="D18" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="26">
+        <v>20401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" s="8">
-        <v>20206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4">
+      <c r="D19" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" s="26">
+        <v>20402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="26">
+        <v>20403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="35">
+        <v>5</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="37">
+        <v>0</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="43"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="45">
+        <v>1</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" s="49">
+        <v>20103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="43"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="45">
+        <v>2</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="43"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="45">
         <v>3</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="5">
+      <c r="D24" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="43"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="45">
+        <v>4</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="43"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="45">
+        <v>5</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="51"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="53">
+        <v>6</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="21">
+        <v>6</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="3">
         <v>2</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4">
+      <c r="D30" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="3">
         <v>4</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="5">
+      <c r="D32" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="3">
+        <v>5</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="35">
+        <v>7</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="37">
+        <v>0</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41"/>
+    </row>
+    <row r="35" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="43"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="45">
+        <v>1</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="49"/>
+    </row>
+    <row r="36" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="51"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="53">
         <v>2</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="5">
-        <v>3</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="5">
-        <v>4</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="5">
-        <v>5</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>5</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="5">
-        <v>2</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="5">
-        <v>3</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="5">
-        <v>4</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="5">
-        <v>5</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="5">
-        <v>6</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="4">
-        <v>6</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="5">
-        <v>2</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="3:5">
-      <c r="C31" s="5">
-        <v>3</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="3:5">
-      <c r="C32" s="5">
-        <v>4</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="5">
-        <v>5</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" s="12"/>
+      <c r="D36" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="E36" s="55"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A27"/>
+  <mergeCells count="14">
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B11"/>
@@ -5267,536 +8366,15 @@
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="B21:B27"/>
     <mergeCell ref="B28:B33"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A27"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="3">
-        <v>700</v>
-      </c>
-      <c r="C2" s="3">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="3">
-        <v>700</v>
-      </c>
-      <c r="C3" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="3">
-        <v>500</v>
-      </c>
-      <c r="C4" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="3">
-        <v>900</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="3">
-        <v>900</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="3">
-        <v>680</v>
-      </c>
-      <c r="C7" s="3">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C11" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C12" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2500</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" s="3">
-        <v>190</v>
-      </c>
-      <c r="C16" s="3">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="3">
-        <v>460</v>
-      </c>
-      <c r="C17" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" s="3">
-        <v>380</v>
-      </c>
-      <c r="C18" s="3">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" s="3">
-        <v>450</v>
-      </c>
-      <c r="C19" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="3">
-        <v>420</v>
-      </c>
-      <c r="C20" s="3">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="3">
-        <v>240</v>
-      </c>
-      <c r="C21" s="3">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="3">
-        <v>400</v>
-      </c>
-      <c r="C23" s="3">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="3">
-        <v>440</v>
-      </c>
-      <c r="C24" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B25" s="3">
-        <v>750</v>
-      </c>
-      <c r="C25" s="3">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B26" s="3">
-        <v>780</v>
-      </c>
-      <c r="C26" s="3">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="3">
-        <v>580</v>
-      </c>
-      <c r="C27" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" s="3">
-        <v>480</v>
-      </c>
-      <c r="C28" s="3">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="3">
-        <v>360</v>
-      </c>
-      <c r="C29" s="3">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C30" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C32" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B33" s="3">
-        <v>800</v>
-      </c>
-      <c r="C33" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C34" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1500</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B36" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B37" s="3">
-        <v>8000</v>
-      </c>
-      <c r="C37" s="3">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B38" s="3">
-        <v>8000</v>
-      </c>
-      <c r="C38" s="3">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B39" s="3">
-        <v>8000</v>
-      </c>
-      <c r="C39" s="3">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B40" s="3">
-        <v>20000</v>
-      </c>
-      <c r="C40" s="3">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" s="3">
-        <v>54</v>
-      </c>
-      <c r="C41" s="3">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B42" s="3">
-        <v>400</v>
-      </c>
-      <c r="C42" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" s="3">
-        <v>800</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B44" s="3">
-        <v>280</v>
-      </c>
-      <c r="C44" s="3">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B46" s="3">
-        <v>32000</v>
-      </c>
-      <c r="C46" s="3">
-        <v>32000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="90" windowWidth="10275" windowHeight="9435" activeTab="2"/>
+    <workbookView xWindow="5805" yWindow="90" windowWidth="10275" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="普通怪属性" sheetId="1" r:id="rId1"/>
@@ -599,10 +599,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>邪恶巨人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>恶灵教主</t>
   </si>
   <si>
@@ -739,391 +735,396 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>蜜蜂</t>
-  </si>
-  <si>
     <t>神鹰</t>
   </si>
   <si>
+    <t>神兽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10219-10226</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10106-10108,10303-10305</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10107-10108,10112-10120</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10215-10226</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701-10703</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重装上阵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>特色地图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>特权地图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者禁地</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣域幻镜3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣域幻镜9</t>
+  </si>
+  <si>
+    <t>圣域幻镜1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣域幻镜4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣域幻镜5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣域幻镜7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣域幻镜8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣域幻镜10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣域幻镜2</t>
+  </si>
+  <si>
+    <t>10401-10402</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10215-10218</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10121-10126</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10210-10214</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10403-10406</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10704-10711</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10219-10226</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10215-10226</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10301-10309</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10407-10414</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>古墓石王</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20032-20037</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20004</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20005-20006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20007</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20010-20011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20012-20014</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20015</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001-20002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20016</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20017</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20018</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20019</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20020</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20021</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20012-20013</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20022</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20023</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20024</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20027</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20028</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20029</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20031</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20030</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Photo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Photo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_speed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>030</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>031</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>032</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>033</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>034</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>035</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>042</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>050</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>040</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>041</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>051</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>052</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>053</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>054</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>055</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>056</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>060</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>061</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>062</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>063</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>064</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>065</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>070</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>080</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>081</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>082</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>083</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>084</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>085</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>086</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>087</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>088</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>089</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪恶巨人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>变异骷髅</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神兽</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10219-10226</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10106-10108,10303-10305</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10107-10108,10112-10120</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10215-10226</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10701-10703</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>重装上阵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>特色地图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>特权地图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>王者禁地</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣域幻镜3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣域幻镜9</t>
-  </si>
-  <si>
-    <t>圣域幻镜1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣域幻镜4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣域幻镜5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣域幻镜7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣域幻镜8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣域幻镜10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣域幻镜2</t>
-  </si>
-  <si>
-    <t>10401-10402</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10215-10218</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10121-10126</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10210-10214</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10403-10406</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10704-10711</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10219-10226</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10215-10226</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10301-10309</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10407-10414</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>古墓石王</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20032-20037</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20004</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20005-20006</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20007</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20010-20011</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20012-20014</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20015</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001-20002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20016</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20017</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20018</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20019</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20020</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20021</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20012-20013</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20022</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20023</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20024</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20027</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20028</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20029</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20031</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20030</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Photo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Photo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack_speed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>030</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>031</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>032</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>033</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>034</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>035</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>042</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>050</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>040</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>041</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>051</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>052</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>053</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>054</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>055</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>056</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>060</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>061</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>062</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>063</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>064</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>065</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>070</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>080</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>081</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>082</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>083</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>084</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>085</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>086</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>087</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>088</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>089</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1833,8 +1834,8 @@
   <dimension ref="A1:N96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R90" sqref="R90"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1856,13 +1857,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>173</v>
@@ -1880,10 +1881,10 @@
         <v>178</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="46" t="s">
         <v>215</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>216</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>176</v>
@@ -1892,7 +1893,7 @@
         <v>177</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -3568,7 +3569,7 @@
         <v>157</v>
       </c>
       <c r="C39" s="16">
-        <v>0</v>
+        <v>10206</v>
       </c>
       <c r="D39">
         <v>16</v>
@@ -3583,16 +3584,16 @@
         <v>10</v>
       </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>6</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>9</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
       </c>
       <c r="L39">
         <v>2</v>
@@ -4149,7 +4150,7 @@
         <v>10222</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C52" s="16">
         <f>C51</f>
@@ -4377,7 +4378,8 @@
         <v>121</v>
       </c>
       <c r="C57" s="16">
-        <v>0</v>
+        <f>A57</f>
+        <v>10301</v>
       </c>
       <c r="D57">
         <v>45</v>
@@ -4421,7 +4423,8 @@
         <v>158</v>
       </c>
       <c r="C58" s="16">
-        <v>0</v>
+        <f t="shared" ref="C58:C59" si="2">A58</f>
+        <v>10302</v>
       </c>
       <c r="D58">
         <v>50</v>
@@ -4465,7 +4468,8 @@
         <v>122</v>
       </c>
       <c r="C59" s="16">
-        <v>0</v>
+        <f>C58</f>
+        <v>10302</v>
       </c>
       <c r="D59">
         <v>53</v>
@@ -4509,7 +4513,8 @@
         <v>123</v>
       </c>
       <c r="C60" s="16">
-        <v>0</v>
+        <f>A60</f>
+        <v>10304</v>
       </c>
       <c r="D60">
         <v>40</v>
@@ -4553,7 +4558,8 @@
         <v>125</v>
       </c>
       <c r="C61" s="16">
-        <v>0</v>
+        <f>A61</f>
+        <v>10305</v>
       </c>
       <c r="D61">
         <v>53</v>
@@ -4597,7 +4603,8 @@
         <v>124</v>
       </c>
       <c r="C62" s="16">
-        <v>0</v>
+        <f>A62</f>
+        <v>10306</v>
       </c>
       <c r="D62">
         <v>53</v>
@@ -4641,7 +4648,8 @@
         <v>126</v>
       </c>
       <c r="C63" s="16">
-        <v>0</v>
+        <f>C61</f>
+        <v>10305</v>
       </c>
       <c r="D63">
         <v>54</v>
@@ -4682,10 +4690,11 @@
         <v>10308</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="C64" s="16">
-        <v>0</v>
+        <f>A64</f>
+        <v>10308</v>
       </c>
       <c r="D64">
         <v>56</v>
@@ -4729,7 +4738,8 @@
         <v>159</v>
       </c>
       <c r="C65" s="16">
-        <v>0</v>
+        <f>C64</f>
+        <v>10308</v>
       </c>
       <c r="D65">
         <v>55</v>
@@ -4773,7 +4783,7 @@
         <v>133</v>
       </c>
       <c r="C66" s="16">
-        <f t="shared" ref="C66:C78" si="2">A66</f>
+        <f t="shared" ref="C66:C88" si="3">A66</f>
         <v>10401</v>
       </c>
       <c r="D66">
@@ -4818,7 +4828,7 @@
         <v>134</v>
       </c>
       <c r="C67" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10402</v>
       </c>
       <c r="D67">
@@ -4863,7 +4873,7 @@
         <v>135</v>
       </c>
       <c r="C68" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10403</v>
       </c>
       <c r="D68">
@@ -4908,7 +4918,7 @@
         <v>136</v>
       </c>
       <c r="C69" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10404</v>
       </c>
       <c r="D69">
@@ -4953,7 +4963,7 @@
         <v>137</v>
       </c>
       <c r="C70" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10405</v>
       </c>
       <c r="D70">
@@ -4998,7 +5008,7 @@
         <v>138</v>
       </c>
       <c r="C71" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10406</v>
       </c>
       <c r="D71">
@@ -5043,7 +5053,7 @@
         <v>145</v>
       </c>
       <c r="C72" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10407</v>
       </c>
       <c r="D72">
@@ -5088,7 +5098,7 @@
         <v>144</v>
       </c>
       <c r="C73" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10408</v>
       </c>
       <c r="D73">
@@ -5133,7 +5143,7 @@
         <v>140</v>
       </c>
       <c r="C74" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10409</v>
       </c>
       <c r="D74">
@@ -5178,7 +5188,7 @@
         <v>143</v>
       </c>
       <c r="C75" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10410</v>
       </c>
       <c r="D75">
@@ -5223,7 +5233,7 @@
         <v>142</v>
       </c>
       <c r="C76" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10411</v>
       </c>
       <c r="D76">
@@ -5268,7 +5278,7 @@
         <v>161</v>
       </c>
       <c r="C77" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10412</v>
       </c>
       <c r="D77">
@@ -5313,7 +5323,7 @@
         <v>141</v>
       </c>
       <c r="C78" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10413</v>
       </c>
       <c r="D78">
@@ -5358,7 +5368,8 @@
         <v>147</v>
       </c>
       <c r="C79" s="16">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10414</v>
       </c>
       <c r="D79">
         <v>16</v>
@@ -5402,7 +5413,8 @@
         <v>148</v>
       </c>
       <c r="C80" s="16">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10601</v>
       </c>
       <c r="D80">
         <v>60</v>
@@ -5446,7 +5458,8 @@
         <v>149</v>
       </c>
       <c r="C81" s="16">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10602</v>
       </c>
       <c r="D81">
         <v>60</v>
@@ -5490,7 +5503,8 @@
         <v>150</v>
       </c>
       <c r="C82" s="16">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10603</v>
       </c>
       <c r="D82">
         <v>60</v>
@@ -5534,7 +5548,8 @@
         <v>151</v>
       </c>
       <c r="C83" s="16">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10604</v>
       </c>
       <c r="D83">
         <v>60</v>
@@ -5575,10 +5590,11 @@
         <v>10605</v>
       </c>
       <c r="B84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C84" s="16">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10605</v>
       </c>
       <c r="D84">
         <v>60</v>
@@ -5622,7 +5638,8 @@
         <v>152</v>
       </c>
       <c r="C85" s="16">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10606</v>
       </c>
       <c r="D85">
         <v>60</v>
@@ -5663,10 +5680,11 @@
         <v>10701</v>
       </c>
       <c r="B86" t="s">
-        <v>223</v>
+        <v>317</v>
       </c>
       <c r="C86" s="16">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10701</v>
       </c>
       <c r="D86">
         <v>99</v>
@@ -5707,10 +5725,10 @@
         <v>10702</v>
       </c>
       <c r="B87" t="s">
-        <v>221</v>
+        <v>318</v>
       </c>
       <c r="C87" s="16">
-        <v>0</v>
+        <v>10702</v>
       </c>
       <c r="D87">
         <v>99</v>
@@ -5751,10 +5769,11 @@
         <v>10703</v>
       </c>
       <c r="B88" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C88" s="16">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10703</v>
       </c>
       <c r="D88">
         <v>46</v>
@@ -5795,7 +5814,7 @@
         <v>10704</v>
       </c>
       <c r="B89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C89" s="16">
         <f>C32</f>
@@ -5840,7 +5859,7 @@
         <v>10705</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C90" s="16">
         <f>C33</f>
@@ -5885,7 +5904,7 @@
         <v>10706</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C91" s="16">
         <f>C40</f>
@@ -5930,7 +5949,7 @@
         <v>10707</v>
       </c>
       <c r="B92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C92" s="16">
         <f>C14</f>
@@ -5975,7 +5994,7 @@
         <v>10708</v>
       </c>
       <c r="B93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C93" s="16">
         <f>C15</f>
@@ -6020,7 +6039,7 @@
         <v>10709</v>
       </c>
       <c r="B94" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C94" s="16">
         <f>C8</f>
@@ -6065,7 +6084,7 @@
         <v>10710</v>
       </c>
       <c r="B95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C95" s="16">
         <f>C24</f>
@@ -6110,7 +6129,7 @@
         <v>10711</v>
       </c>
       <c r="B96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C96" s="16">
         <f>C49</f>
@@ -6162,9 +6181,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6187,13 +6206,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E1" s="46" t="s">
         <v>173</v>
@@ -6211,10 +6230,10 @@
         <v>178</v>
       </c>
       <c r="J1" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" s="46" t="s">
         <v>218</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>219</v>
       </c>
       <c r="L1" s="46" t="s">
         <v>176</v>
@@ -6223,7 +6242,7 @@
         <v>177</v>
       </c>
       <c r="N1" s="47" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -6324,7 +6343,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="11">
-        <f t="shared" ref="C4:C25" si="0">A4</f>
+        <f t="shared" ref="C4:C32" si="0">A4</f>
         <v>20003</v>
       </c>
       <c r="D4">
@@ -6411,7 +6430,7 @@
         <v>20005</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" s="11">
         <f t="shared" si="0"/>
@@ -6591,7 +6610,7 @@
         <v>20009</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C10" s="11">
         <f t="shared" si="0"/>
@@ -6816,7 +6835,7 @@
         <v>20014</v>
       </c>
       <c r="B15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C15" s="11">
         <f t="shared" si="0"/>
@@ -6909,7 +6928,8 @@
         <v>128</v>
       </c>
       <c r="C17" s="11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>20016</v>
       </c>
       <c r="D17">
         <v>60</v>
@@ -6953,7 +6973,8 @@
         <v>127</v>
       </c>
       <c r="C18" s="11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>20017</v>
       </c>
       <c r="D18">
         <v>60</v>
@@ -6997,7 +7018,8 @@
         <v>129</v>
       </c>
       <c r="C19" s="11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>20018</v>
       </c>
       <c r="D19">
         <v>70</v>
@@ -7083,10 +7105,11 @@
         <v>20020</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" s="11">
-        <v>0</v>
+        <f>C20</f>
+        <v>20019</v>
       </c>
       <c r="D21">
         <v>60</v>
@@ -7307,10 +7330,11 @@
         <v>20025</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C26" s="11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>20025</v>
       </c>
       <c r="D26">
         <v>60</v>
@@ -7351,11 +7375,11 @@
         <v>20026</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C27" s="11">
         <f>C26</f>
-        <v>0</v>
+        <v>20025</v>
       </c>
       <c r="D27">
         <v>70</v>
@@ -7399,7 +7423,8 @@
         <v>153</v>
       </c>
       <c r="C28" s="11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>20027</v>
       </c>
       <c r="D28">
         <v>60</v>
@@ -7443,7 +7468,8 @@
         <v>154</v>
       </c>
       <c r="C29" s="11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>20028</v>
       </c>
       <c r="D29">
         <v>60</v>
@@ -7487,7 +7513,8 @@
         <v>155</v>
       </c>
       <c r="C30" s="11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>20029</v>
       </c>
       <c r="D30">
         <v>60</v>
@@ -7531,7 +7558,8 @@
         <v>156</v>
       </c>
       <c r="C31" s="11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>20030</v>
       </c>
       <c r="D31">
         <v>60</v>
@@ -7575,7 +7603,8 @@
         <v>160</v>
       </c>
       <c r="C32" s="11">
-        <v>0</v>
+        <f>C26</f>
+        <v>20025</v>
       </c>
       <c r="D32">
         <v>60</v>
@@ -7616,11 +7645,11 @@
         <v>20032</v>
       </c>
       <c r="B33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C33" s="11">
         <f>C17</f>
-        <v>0</v>
+        <v>20016</v>
       </c>
       <c r="D33">
         <v>60</v>
@@ -7661,7 +7690,7 @@
         <v>20033</v>
       </c>
       <c r="B34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C34" s="11">
         <f>C4</f>
@@ -7706,11 +7735,11 @@
         <v>20034</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C35" s="11">
         <f>C18</f>
-        <v>0</v>
+        <v>20017</v>
       </c>
       <c r="D35">
         <v>50</v>
@@ -7751,7 +7780,7 @@
         <v>20035</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C36" s="11">
         <f>C7</f>
@@ -7796,7 +7825,7 @@
         <v>20036</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C37" s="11">
         <f>C20</f>
@@ -7841,7 +7870,7 @@
         <v>20037</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C38" s="11">
         <f>C25</f>
@@ -7886,7 +7915,7 @@
         <v>20038</v>
       </c>
       <c r="B39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C39" s="11">
         <f>C7</f>
@@ -7931,11 +7960,11 @@
         <v>20039</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C40" s="11">
         <f>C19</f>
-        <v>0</v>
+        <v>20018</v>
       </c>
       <c r="D40">
         <v>70</v>
@@ -7976,7 +8005,7 @@
         <v>20040</v>
       </c>
       <c r="B41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C41" s="11">
         <f>C12</f>
@@ -8021,11 +8050,11 @@
         <v>20041</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C42" s="11">
         <f>C31</f>
-        <v>0</v>
+        <v>20030</v>
       </c>
       <c r="D42">
         <v>100</v>
@@ -8066,11 +8095,11 @@
         <v>20042</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C43" s="11">
         <f>C28</f>
-        <v>0</v>
+        <v>20027</v>
       </c>
       <c r="D43">
         <v>70</v>
@@ -8111,11 +8140,11 @@
         <v>20043</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C44" s="11">
         <f>C29</f>
-        <v>0</v>
+        <v>20028</v>
       </c>
       <c r="D44">
         <v>70</v>
@@ -8156,7 +8185,7 @@
         <v>20044</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C45" s="11">
         <f>C22</f>
@@ -8201,7 +8230,7 @@
         <v>20045</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C46" s="11">
         <f>C16</f>
@@ -8253,9 +8282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -8286,7 +8315,7 @@
         <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G1" s="49" t="s">
         <v>66</v>
@@ -8335,7 +8364,7 @@
         <v>73</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8354,7 +8383,7 @@
         <v>76</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8373,7 +8402,7 @@
         <v>79</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.15">
@@ -8392,7 +8421,7 @@
         <v>82</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -8415,7 +8444,7 @@
         <v>162</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8453,7 +8482,7 @@
         <v>163</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8472,7 +8501,7 @@
         <v>164</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.15">
@@ -8488,10 +8517,10 @@
         <v>94</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -8508,13 +8537,13 @@
         <v>100</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -8527,10 +8556,10 @@
         <v>101</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>169</v>
@@ -8546,10 +8575,10 @@
         <v>102</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>169</v>
@@ -8565,13 +8594,13 @@
         <v>103</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -8584,13 +8613,13 @@
         <v>104</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G16" s="54" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -8603,13 +8632,13 @@
         <v>105</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G17" s="54" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -8626,13 +8655,13 @@
         <v>96</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8645,13 +8674,13 @@
         <v>97</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.15">
@@ -8664,13 +8693,13 @@
         <v>98</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -8687,13 +8716,13 @@
         <v>107</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8706,13 +8735,13 @@
         <v>108</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>165</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8725,13 +8754,13 @@
         <v>109</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F23" s="36" t="s">
         <v>164</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8744,13 +8773,13 @@
         <v>110</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F24" s="36" t="s">
         <v>164</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8763,13 +8792,13 @@
         <v>111</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8782,13 +8811,13 @@
         <v>112</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.15">
@@ -8801,13 +8830,13 @@
         <v>113</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G27" s="53" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -8824,7 +8853,7 @@
         <v>115</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>166</v>
@@ -8843,13 +8872,13 @@
         <v>116</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>167</v>
       </c>
       <c r="G29" s="54" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -8862,13 +8891,13 @@
         <v>117</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>167</v>
       </c>
       <c r="G30" s="54" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -8881,13 +8910,13 @@
         <v>118</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>168</v>
       </c>
       <c r="G31" s="54" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -8900,13 +8929,13 @@
         <v>119</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>168</v>
       </c>
       <c r="G32" s="54" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -8919,13 +8948,13 @@
         <v>120</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>167</v>
       </c>
       <c r="G33" s="54" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -8933,22 +8962,22 @@
         <v>7</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C34" s="28">
         <v>0</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G34" s="51" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -8956,19 +8985,19 @@
         <v>8</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C35" s="28">
         <v>0</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G35" s="51" t="str">
         <f>CONCATENATE(G19,",20033")</f>
@@ -8982,13 +9011,13 @@
         <v>1</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G36" s="52" t="str">
         <f>CONCATENATE(G10,"")</f>
@@ -9003,13 +9032,13 @@
         <v>2</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G37" s="52" t="str">
         <f>CONCATENATE(G6,",20035")</f>
@@ -9023,13 +9052,13 @@
         <v>3</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G38" s="52" t="str">
         <f>CONCATENATE(G9,",20040")</f>
@@ -9043,13 +9072,13 @@
         <v>4</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G39" s="52" t="str">
         <f>CONCATENATE(G18,",20036")</f>
@@ -9063,13 +9092,13 @@
         <v>5</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G40" s="52" t="str">
         <f>CONCATENATE(G34,"")</f>
@@ -9084,13 +9113,13 @@
         <v>6</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G41" s="52" t="str">
         <f>CONCATENATE(G11,",20045")</f>
@@ -9104,13 +9133,13 @@
         <v>7</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G42" s="52" t="str">
         <f>CONCATENATE(G27,",20037")</f>
@@ -9124,13 +9153,13 @@
         <v>8</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G43" s="52" t="str">
         <f>CONCATENATE(G17,",20032,20034,20039")</f>
@@ -9144,13 +9173,13 @@
         <v>9</v>
       </c>
       <c r="D44" s="56" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G44" s="53" t="str">
         <f>CONCATENATE(G20,",20041")</f>

--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="90" windowWidth="10275" windowHeight="9435" activeTab="1"/>
+    <workbookView xWindow="5805" yWindow="90" windowWidth="10275" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="普通怪属性" sheetId="1" r:id="rId1"/>
@@ -1833,9 +1833,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2046,10 +2046,10 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -4423,7 +4423,7 @@
         <v>158</v>
       </c>
       <c r="C58" s="16">
-        <f t="shared" ref="C58:C59" si="2">A58</f>
+        <f t="shared" ref="C58" si="2">A58</f>
         <v>10302</v>
       </c>
       <c r="D58">
@@ -6181,7 +6181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
@@ -6343,7 +6343,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="11">
-        <f t="shared" ref="C4:C32" si="0">A4</f>
+        <f t="shared" ref="C4:C31" si="0">A4</f>
         <v>20003</v>
       </c>
       <c r="D4">

--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="90" windowWidth="10275" windowHeight="9435"/>
+    <workbookView xWindow="5805" yWindow="90" windowWidth="10275" windowHeight="9435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="普通怪属性" sheetId="1" r:id="rId1"/>
@@ -373,28 +373,7 @@
     <t>疾风殿</t>
   </si>
   <si>
-    <t>烈焰殿</t>
-  </si>
-  <si>
-    <t>魔魂殿</t>
-  </si>
-  <si>
-    <t>封魔殿</t>
-  </si>
-  <si>
-    <t>霸者大厅</t>
-  </si>
-  <si>
     <t>魔龙城</t>
-  </si>
-  <si>
-    <t>魔龙东郊</t>
-  </si>
-  <si>
-    <t>魔龙旧寨</t>
-  </si>
-  <si>
-    <t>魔龙祭坛</t>
   </si>
   <si>
     <t>魔龙岭</t>
@@ -1124,7 +1103,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>神兽</t>
+    <t>魔魂殿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰殿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸者大厅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>封魔殿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔龙祭坛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔龙郊外</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔龙谷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜蜂</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1833,9 +1840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1857,43 +1864,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K1" s="46" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -2396,7 +2403,7 @@
         <v>10109</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C13" s="16">
         <f t="shared" si="0"/>
@@ -3566,7 +3573,7 @@
         <v>10209</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C39" s="16">
         <v>10206</v>
@@ -4150,7 +4157,7 @@
         <v>10222</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C52" s="16">
         <f>C51</f>
@@ -4240,7 +4247,7 @@
         <v>10224</v>
       </c>
       <c r="B54" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C54" s="16">
         <f>C53</f>
@@ -4330,7 +4337,7 @@
         <v>10226</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C56" s="16">
         <f>C55</f>
@@ -4375,7 +4382,7 @@
         <v>10301</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C57" s="16">
         <f>A57</f>
@@ -4420,7 +4427,7 @@
         <v>10302</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C58" s="16">
         <f t="shared" ref="C58" si="2">A58</f>
@@ -4465,7 +4472,7 @@
         <v>10303</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C59" s="16">
         <f>C58</f>
@@ -4510,7 +4517,7 @@
         <v>10304</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C60" s="16">
         <f>A60</f>
@@ -4555,7 +4562,7 @@
         <v>10305</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C61" s="16">
         <f>A61</f>
@@ -4600,7 +4607,7 @@
         <v>10306</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C62" s="16">
         <f>A62</f>
@@ -4645,7 +4652,7 @@
         <v>10307</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C63" s="16">
         <f>C61</f>
@@ -4690,7 +4697,7 @@
         <v>10308</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C64" s="16">
         <f>A64</f>
@@ -4735,7 +4742,7 @@
         <v>10309</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C65" s="16">
         <f>C64</f>
@@ -4780,7 +4787,7 @@
         <v>10401</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C66" s="16">
         <f t="shared" ref="C66:C88" si="3">A66</f>
@@ -4825,7 +4832,7 @@
         <v>10402</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C67" s="16">
         <f t="shared" si="3"/>
@@ -4870,7 +4877,7 @@
         <v>10403</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C68" s="16">
         <f t="shared" si="3"/>
@@ -4915,7 +4922,7 @@
         <v>10404</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C69" s="16">
         <f t="shared" si="3"/>
@@ -4960,7 +4967,7 @@
         <v>10405</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C70" s="16">
         <f t="shared" si="3"/>
@@ -5005,7 +5012,7 @@
         <v>10406</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C71" s="16">
         <f t="shared" si="3"/>
@@ -5050,7 +5057,7 @@
         <v>10407</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C72" s="16">
         <f t="shared" si="3"/>
@@ -5095,7 +5102,7 @@
         <v>10408</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C73" s="16">
         <f t="shared" si="3"/>
@@ -5140,7 +5147,7 @@
         <v>10409</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C74" s="16">
         <f t="shared" si="3"/>
@@ -5185,7 +5192,7 @@
         <v>10410</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C75" s="16">
         <f t="shared" si="3"/>
@@ -5230,7 +5237,7 @@
         <v>10411</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C76" s="16">
         <f t="shared" si="3"/>
@@ -5275,7 +5282,7 @@
         <v>10412</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C77" s="16">
         <f t="shared" si="3"/>
@@ -5320,7 +5327,7 @@
         <v>10413</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C78" s="16">
         <f t="shared" si="3"/>
@@ -5365,7 +5372,7 @@
         <v>10414</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C79" s="16">
         <f t="shared" si="3"/>
@@ -5410,7 +5417,7 @@
         <v>10601</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C80" s="16">
         <f t="shared" si="3"/>
@@ -5455,7 +5462,7 @@
         <v>10602</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C81" s="16">
         <f t="shared" si="3"/>
@@ -5500,7 +5507,7 @@
         <v>10603</v>
       </c>
       <c r="B82" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C82" s="16">
         <f t="shared" si="3"/>
@@ -5545,7 +5552,7 @@
         <v>10604</v>
       </c>
       <c r="B83" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C83" s="16">
         <f t="shared" si="3"/>
@@ -5590,7 +5597,7 @@
         <v>10605</v>
       </c>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C84" s="16">
         <f t="shared" si="3"/>
@@ -5635,7 +5642,7 @@
         <v>10606</v>
       </c>
       <c r="B85" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C85" s="16">
         <f t="shared" si="3"/>
@@ -5680,7 +5687,7 @@
         <v>10701</v>
       </c>
       <c r="B86" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C86" s="16">
         <f t="shared" si="3"/>
@@ -5699,16 +5706,16 @@
         <v>10</v>
       </c>
       <c r="H86">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I86">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J86">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L86">
         <v>15</v>
@@ -5769,7 +5776,7 @@
         <v>10703</v>
       </c>
       <c r="B88" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C88" s="16">
         <f t="shared" si="3"/>
@@ -5814,7 +5821,7 @@
         <v>10704</v>
       </c>
       <c r="B89" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C89" s="16">
         <f>C32</f>
@@ -5859,7 +5866,7 @@
         <v>10705</v>
       </c>
       <c r="B90" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C90" s="16">
         <f>C33</f>
@@ -5904,7 +5911,7 @@
         <v>10706</v>
       </c>
       <c r="B91" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C91" s="16">
         <f>C40</f>
@@ -5949,7 +5956,7 @@
         <v>10707</v>
       </c>
       <c r="B92" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C92" s="16">
         <f>C14</f>
@@ -5994,7 +6001,7 @@
         <v>10708</v>
       </c>
       <c r="B93" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C93" s="16">
         <f>C15</f>
@@ -6039,7 +6046,7 @@
         <v>10709</v>
       </c>
       <c r="B94" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C94" s="16">
         <f>C8</f>
@@ -6084,7 +6091,7 @@
         <v>10710</v>
       </c>
       <c r="B95" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C95" s="16">
         <f>C24</f>
@@ -6129,7 +6136,7 @@
         <v>10711</v>
       </c>
       <c r="B96" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C96" s="16">
         <f>C49</f>
@@ -6206,43 +6213,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H1" s="46" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J1" s="46" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="K1" s="46" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="L1" s="46" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M1" s="46" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="N1" s="47" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -6430,7 +6437,7 @@
         <v>20005</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C6" s="11">
         <f t="shared" si="0"/>
@@ -6610,7 +6617,7 @@
         <v>20009</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C10" s="11">
         <f t="shared" si="0"/>
@@ -6835,7 +6842,7 @@
         <v>20014</v>
       </c>
       <c r="B15" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C15" s="11">
         <f t="shared" si="0"/>
@@ -6925,7 +6932,7 @@
         <v>20016</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C17" s="11">
         <f t="shared" si="0"/>
@@ -6970,7 +6977,7 @@
         <v>20017</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C18" s="11">
         <f t="shared" si="0"/>
@@ -7015,7 +7022,7 @@
         <v>20018</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C19" s="11">
         <f t="shared" si="0"/>
@@ -7060,7 +7067,7 @@
         <v>20019</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C20" s="11">
         <f t="shared" si="0"/>
@@ -7105,7 +7112,7 @@
         <v>20020</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C21" s="11">
         <f>C20</f>
@@ -7150,7 +7157,7 @@
         <v>20021</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C22" s="11">
         <f t="shared" si="0"/>
@@ -7195,7 +7202,7 @@
         <v>20022</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C23" s="11">
         <f t="shared" si="0"/>
@@ -7240,7 +7247,7 @@
         <v>20023</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C24" s="11">
         <f t="shared" si="0"/>
@@ -7285,7 +7292,7 @@
         <v>20024</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C25" s="11">
         <f t="shared" si="0"/>
@@ -7330,7 +7337,7 @@
         <v>20025</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C26" s="11">
         <f t="shared" si="0"/>
@@ -7375,7 +7382,7 @@
         <v>20026</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C27" s="11">
         <f>C26</f>
@@ -7420,7 +7427,7 @@
         <v>20027</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C28" s="11">
         <f t="shared" si="0"/>
@@ -7465,7 +7472,7 @@
         <v>20028</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C29" s="11">
         <f t="shared" si="0"/>
@@ -7510,7 +7517,7 @@
         <v>20029</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C30" s="11">
         <f t="shared" si="0"/>
@@ -7555,7 +7562,7 @@
         <v>20030</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C31" s="11">
         <f t="shared" si="0"/>
@@ -7600,7 +7607,7 @@
         <v>20031</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C32" s="11">
         <f>C26</f>
@@ -7645,7 +7652,7 @@
         <v>20032</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C33" s="11">
         <f>C17</f>
@@ -7690,7 +7697,7 @@
         <v>20033</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C34" s="11">
         <f>C4</f>
@@ -7735,7 +7742,7 @@
         <v>20034</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C35" s="11">
         <f>C18</f>
@@ -7780,7 +7787,7 @@
         <v>20035</v>
       </c>
       <c r="B36" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C36" s="11">
         <f>C7</f>
@@ -7825,7 +7832,7 @@
         <v>20036</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C37" s="11">
         <f>C20</f>
@@ -7870,7 +7877,7 @@
         <v>20037</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C38" s="11">
         <f>C25</f>
@@ -7915,7 +7922,7 @@
         <v>20038</v>
       </c>
       <c r="B39" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C39" s="11">
         <f>C7</f>
@@ -7960,7 +7967,7 @@
         <v>20039</v>
       </c>
       <c r="B40" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C40" s="11">
         <f>C19</f>
@@ -8005,7 +8012,7 @@
         <v>20040</v>
       </c>
       <c r="B41" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C41" s="11">
         <f>C12</f>
@@ -8050,7 +8057,7 @@
         <v>20041</v>
       </c>
       <c r="B42" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C42" s="11">
         <f>C31</f>
@@ -8095,7 +8102,7 @@
         <v>20042</v>
       </c>
       <c r="B43" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C43" s="11">
         <f>C28</f>
@@ -8140,7 +8147,7 @@
         <v>20043</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C44" s="11">
         <f>C29</f>
@@ -8185,7 +8192,7 @@
         <v>20044</v>
       </c>
       <c r="B45" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C45" s="11">
         <f>C22</f>
@@ -8230,7 +8237,7 @@
         <v>20045</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C46" s="11">
         <f>C16</f>
@@ -8282,9 +8289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -8315,7 +8322,7 @@
         <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G1" s="49" t="s">
         <v>66</v>
@@ -8364,7 +8371,7 @@
         <v>73</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8383,7 +8390,7 @@
         <v>76</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8402,7 +8409,7 @@
         <v>79</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.15">
@@ -8421,7 +8428,7 @@
         <v>82</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -8441,10 +8448,10 @@
         <v>85</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8479,10 +8486,10 @@
         <v>90</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8498,10 +8505,10 @@
         <v>92</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.15">
@@ -8517,10 +8524,10 @@
         <v>94</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -8537,13 +8544,13 @@
         <v>100</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -8556,13 +8563,13 @@
         <v>101</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -8575,13 +8582,13 @@
         <v>102</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -8594,13 +8601,13 @@
         <v>103</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -8613,13 +8620,13 @@
         <v>104</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G16" s="54" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -8632,13 +8639,13 @@
         <v>105</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G17" s="54" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -8655,13 +8662,13 @@
         <v>96</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8674,13 +8681,13 @@
         <v>97</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.15">
@@ -8693,13 +8700,13 @@
         <v>98</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -8716,13 +8723,13 @@
         <v>107</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8735,13 +8742,13 @@
         <v>108</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8754,13 +8761,13 @@
         <v>109</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8770,16 +8777,16 @@
         <v>3</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>110</v>
+        <v>311</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8789,16 +8796,16 @@
         <v>4</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>111</v>
+        <v>312</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -8808,16 +8815,16 @@
         <v>5</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>112</v>
+        <v>313</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.15">
@@ -8827,16 +8834,16 @@
         <v>6</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>113</v>
+        <v>314</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G27" s="53" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -8844,22 +8851,22 @@
         <v>6</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>115</v>
+        <v>316</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G28" s="54" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -8869,16 +8876,16 @@
         <v>1</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>116</v>
+        <v>317</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G29" s="54" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -8888,16 +8895,16 @@
         <v>2</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G30" s="54" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -8907,16 +8914,16 @@
         <v>3</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G31" s="54" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -8926,16 +8933,16 @@
         <v>4</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G32" s="54" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -8945,16 +8952,16 @@
         <v>5</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G33" s="54" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -8962,22 +8969,22 @@
         <v>7</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C34" s="28">
         <v>0</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G34" s="51" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -8985,19 +8992,19 @@
         <v>8</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C35" s="28">
         <v>0</v>
       </c>
       <c r="D35" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F35" s="31" t="s">
         <v>233</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>240</v>
       </c>
       <c r="G35" s="51" t="str">
         <f>CONCATENATE(G19,",20033")</f>
@@ -9011,13 +9018,13 @@
         <v>1</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G36" s="52" t="str">
         <f>CONCATENATE(G10,"")</f>
@@ -9032,13 +9039,13 @@
         <v>2</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G37" s="52" t="str">
         <f>CONCATENATE(G6,",20035")</f>
@@ -9052,13 +9059,13 @@
         <v>3</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G38" s="52" t="str">
         <f>CONCATENATE(G9,",20040")</f>
@@ -9072,13 +9079,13 @@
         <v>4</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G39" s="52" t="str">
         <f>CONCATENATE(G18,",20036")</f>
@@ -9092,13 +9099,13 @@
         <v>5</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G40" s="52" t="str">
         <f>CONCATENATE(G34,"")</f>
@@ -9113,13 +9120,13 @@
         <v>6</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G41" s="52" t="str">
         <f>CONCATENATE(G11,",20045")</f>
@@ -9133,13 +9140,13 @@
         <v>7</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G42" s="52" t="str">
         <f>CONCATENATE(G27,",20037")</f>
@@ -9153,13 +9160,13 @@
         <v>8</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G43" s="52" t="str">
         <f>CONCATENATE(G17,",20032,20034,20039")</f>
@@ -9173,13 +9180,13 @@
         <v>9</v>
       </c>
       <c r="D44" s="56" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G44" s="53" t="str">
         <f>CONCATENATE(G20,",20041")</f>

--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="90" windowWidth="10275" windowHeight="9435" activeTab="2"/>
+    <workbookView xWindow="5805" yWindow="90" windowWidth="10275" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="普通怪属性" sheetId="1" r:id="rId1"/>
     <sheet name="BOSS怪属性" sheetId="2" r:id="rId2"/>
-    <sheet name="分布" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="156">
   <si>
     <t>ID</t>
   </si>
@@ -224,167 +223,6 @@
     </r>
   </si>
   <si>
-    <t>地图号_主
-2位</t>
-  </si>
-  <si>
-    <t>地图名_主</t>
-  </si>
-  <si>
-    <t>地图号_次
-1位</t>
-  </si>
-  <si>
-    <t>地图名_次</t>
-  </si>
-  <si>
-    <t>mapID</t>
-  </si>
-  <si>
-    <t>BOSS</t>
-  </si>
-  <si>
-    <t>新手村</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>10001-10003</t>
-  </si>
-  <si>
-    <t>比奇</t>
-  </si>
-  <si>
-    <t>比奇城外</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>10101-10108</t>
-  </si>
-  <si>
-    <t>半兽人古墓</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>10109-10115</t>
-  </si>
-  <si>
-    <t>矿洞</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>10116-10120</t>
-  </si>
-  <si>
-    <t>沃玛神殿</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>10121-10126</t>
-  </si>
-  <si>
-    <t>盟重</t>
-  </si>
-  <si>
-    <t>盟重城外</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>毒蛇山谷</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>10201-10203</t>
-  </si>
-  <si>
-    <t>蜈蚣洞</t>
-  </si>
-  <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>猪洞</t>
-  </si>
-  <si>
-    <t>023</t>
-  </si>
-  <si>
-    <t>祖玛神殿</t>
-  </si>
-  <si>
-    <t>024</t>
-  </si>
-  <si>
-    <t>苍月岛</t>
-  </si>
-  <si>
-    <t>骨魔洞</t>
-  </si>
-  <si>
-    <t>尸魔洞</t>
-  </si>
-  <si>
-    <t>牛魔寺庙</t>
-  </si>
-  <si>
-    <t>白日门</t>
-  </si>
-  <si>
-    <t>白日门城外</t>
-  </si>
-  <si>
-    <t>丛林迷宫</t>
-  </si>
-  <si>
-    <t>赤月峡谷</t>
-  </si>
-  <si>
-    <t>峡谷广场</t>
-  </si>
-  <si>
-    <t>抉择之地</t>
-  </si>
-  <si>
-    <t>恶魔巢穴</t>
-  </si>
-  <si>
-    <t>封魔谷</t>
-  </si>
-  <si>
-    <t>封魔城外</t>
-  </si>
-  <si>
-    <t>封魔矿区</t>
-  </si>
-  <si>
-    <t>疾风殿</t>
-  </si>
-  <si>
-    <t>魔龙城</t>
-  </si>
-  <si>
-    <t>魔龙岭</t>
-  </si>
-  <si>
-    <t>魔龙沼泽</t>
-  </si>
-  <si>
-    <t>魔龙血域</t>
-  </si>
-  <si>
     <t>月魔蜘蛛</t>
   </si>
   <si>
@@ -508,40 +346,8 @@
     <t>牛魔法师</t>
   </si>
   <si>
-    <t>10204-10209</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10210-10214</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10215-10218</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10116-10120</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10601-10603</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10601-10606</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10604-10606</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>山洞蝙蝠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>祖玛雕像3</t>
@@ -551,31 +357,31 @@
   </si>
   <si>
     <t>Exp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Hp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Mp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MAC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DCMax</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DCMin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>恶灵教主</t>
@@ -621,7 +427,7 @@
   </si>
   <si>
     <t>暗之触龙神</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>红蛇王</t>
@@ -651,510 +457,91 @@
     <t>魔龙破甲兵</t>
   </si>
   <si>
-    <t>10301-10305</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10301-10307</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10301-10309</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10301-10309</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401-10402</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10403-10406</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10407-10414</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>沃玛卫士</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>万年树妖</t>
   </si>
   <si>
     <t>千年树妖</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MCMin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MCMax</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>祖玛弓箭手3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MCMin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MCMax</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Lvl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>神鹰</t>
   </si>
   <si>
     <t>神兽</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10219-10226</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10106-10108,10303-10305</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10107-10108,10112-10120</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10215-10226</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10701-10703</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>重装上阵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>特色地图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>特权地图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>王者禁地</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣域幻镜3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣域幻镜9</t>
-  </si>
-  <si>
-    <t>圣域幻镜1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣域幻镜4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣域幻镜5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣域幻镜7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣域幻镜8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣域幻镜10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣域幻镜2</t>
-  </si>
-  <si>
-    <t>10401-10402</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10215-10218</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10121-10126</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10210-10214</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10403-10406</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10704-10711</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10219-10226</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10215-10226</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10301-10309</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10407-10414</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>古墓石王</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20032-20037</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20004</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20005-20006</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20007</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20010-20011</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20012-20014</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20015</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001-20002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20016</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20017</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20018</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20019</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20020</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20021</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20012-20013</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20022</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20023</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20024</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20027</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20028</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20029</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20031</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20030</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Photo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Photo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>attack_speed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>030</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>031</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>032</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>033</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>034</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>035</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>042</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>050</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>040</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>041</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>051</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>052</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>053</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>054</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>055</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>056</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>060</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>061</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>062</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>063</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>064</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>065</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>070</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>080</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>081</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>082</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>083</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>084</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>085</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>086</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>087</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>088</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>089</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>邪恶巨人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>变异骷髅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔魂殿</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰殿</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>霸者大厅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>封魔殿</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔龙祭坛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔龙郊外</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔龙谷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>蜜蜂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="7"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="22"/>
-      <name val="宋体"/>
-      <family val="7"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <name val="宋体"/>
       <family val="7"/>
       <charset val="134"/>
@@ -1206,85 +593,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1293,35 +607,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1336,7 +632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1348,151 +644,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1842,15 +1006,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O75" sqref="O75"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.375" customWidth="1"/>
     <col min="6" max="6" width="5.5" customWidth="1"/>
     <col min="7" max="7" width="3.375" customWidth="1"/>
@@ -1860,57 +1024,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>272</v>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>171</v>
+        <v>111</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>208</v>
+        <v>139</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>274</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
+      <c r="A2" s="5">
         <v>10001</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="10">
         <f>A2</f>
         <v>10001</v>
       </c>
@@ -1949,13 +1113,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+      <c r="A3" s="5">
         <v>10002</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="10">
         <f t="shared" ref="C3:C38" si="0">A3</f>
         <v>10002</v>
       </c>
@@ -1994,13 +1158,13 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>10003</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="10">
         <f t="shared" si="0"/>
         <v>10003</v>
       </c>
@@ -2039,13 +1203,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>10101</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="10">
         <f t="shared" si="0"/>
         <v>10101</v>
       </c>
@@ -2084,13 +1248,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
+      <c r="A6" s="5">
         <v>10102</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
         <v>10102</v>
       </c>
@@ -2129,13 +1293,13 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>10103</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
         <v>10103</v>
       </c>
@@ -2174,13 +1338,13 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>10104</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
         <v>10104</v>
       </c>
@@ -2219,13 +1383,13 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>10105</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
         <v>10105</v>
       </c>
@@ -2264,13 +1428,13 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>10106</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
         <v>10106</v>
       </c>
@@ -2309,13 +1473,13 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
+      <c r="A11" s="5">
         <v>10107</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="16">
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
         <v>10107</v>
       </c>
@@ -2354,13 +1518,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="11">
+      <c r="A12" s="5">
         <v>10108</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="10">
         <f t="shared" si="0"/>
         <v>10108</v>
       </c>
@@ -2399,13 +1563,13 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
+      <c r="A13" s="5">
         <v>10109</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="16">
+      <c r="B13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="10">
         <f t="shared" si="0"/>
         <v>10109</v>
       </c>
@@ -2444,13 +1608,13 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="11">
+      <c r="A14" s="5">
         <v>10110</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="10">
         <f t="shared" si="0"/>
         <v>10110</v>
       </c>
@@ -2489,13 +1653,13 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="11">
+      <c r="A15" s="5">
         <v>10111</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="10">
         <f t="shared" si="0"/>
         <v>10111</v>
       </c>
@@ -2534,13 +1698,13 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
+      <c r="A16" s="5">
         <v>10112</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="10">
         <f t="shared" si="0"/>
         <v>10112</v>
       </c>
@@ -2579,13 +1743,13 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="11">
+      <c r="A17" s="5">
         <v>10113</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="10">
         <f t="shared" si="0"/>
         <v>10113</v>
       </c>
@@ -2624,13 +1788,13 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="11">
+      <c r="A18" s="5">
         <v>10114</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="10">
         <f t="shared" si="0"/>
         <v>10114</v>
       </c>
@@ -2669,13 +1833,13 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="11">
+      <c r="A19" s="5">
         <v>10115</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="10">
         <f t="shared" si="0"/>
         <v>10115</v>
       </c>
@@ -2714,13 +1878,13 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="11">
+      <c r="A20" s="5">
         <v>10116</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="10">
         <f t="shared" si="0"/>
         <v>10116</v>
       </c>
@@ -2759,13 +1923,13 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="11">
+      <c r="A21" s="5">
         <v>10117</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="10">
         <f t="shared" si="0"/>
         <v>10117</v>
       </c>
@@ -2804,13 +1968,13 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="11">
+      <c r="A22" s="5">
         <v>10118</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="10">
         <f t="shared" si="0"/>
         <v>10118</v>
       </c>
@@ -2849,13 +2013,13 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
+      <c r="A23" s="5">
         <v>10119</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="10">
         <f t="shared" si="0"/>
         <v>10119</v>
       </c>
@@ -2894,13 +2058,13 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="11">
+      <c r="A24" s="5">
         <v>10120</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="10">
         <f t="shared" si="0"/>
         <v>10120</v>
       </c>
@@ -2939,13 +2103,13 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="11">
+      <c r="A25" s="5">
         <v>10121</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="10">
         <f t="shared" si="0"/>
         <v>10121</v>
       </c>
@@ -2984,13 +2148,13 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="11">
+      <c r="A26" s="5">
         <v>10122</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="10">
         <f t="shared" si="0"/>
         <v>10122</v>
       </c>
@@ -3029,13 +2193,13 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="11">
+      <c r="A27" s="5">
         <v>10123</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="10">
         <f t="shared" si="0"/>
         <v>10123</v>
       </c>
@@ -3074,13 +2238,13 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="11">
+      <c r="A28" s="5">
         <v>10124</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="10">
         <f t="shared" si="0"/>
         <v>10124</v>
       </c>
@@ -3119,13 +2283,13 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="11">
+      <c r="A29" s="5">
         <v>10125</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="10">
         <f t="shared" si="0"/>
         <v>10125</v>
       </c>
@@ -3164,13 +2328,13 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="11">
+      <c r="A30" s="5">
         <v>10126</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="10">
         <f t="shared" si="0"/>
         <v>10126</v>
       </c>
@@ -3209,13 +2373,13 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="11">
+      <c r="A31" s="5">
         <v>10201</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="10">
         <f t="shared" si="0"/>
         <v>10201</v>
       </c>
@@ -3254,13 +2418,13 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="11">
+      <c r="A32" s="5">
         <v>10202</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="10">
         <f t="shared" si="0"/>
         <v>10202</v>
       </c>
@@ -3299,13 +2463,13 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="11">
+      <c r="A33" s="5">
         <v>10203</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="10">
         <f t="shared" si="0"/>
         <v>10203</v>
       </c>
@@ -3344,13 +2508,13 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="11">
+      <c r="A34" s="5">
         <v>10204</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="10">
         <f t="shared" si="0"/>
         <v>10204</v>
       </c>
@@ -3389,13 +2553,13 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="11">
+      <c r="A35" s="5">
         <v>10205</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="10">
         <f t="shared" si="0"/>
         <v>10205</v>
       </c>
@@ -3434,13 +2598,13 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="11">
+      <c r="A36" s="5">
         <v>10206</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="10">
         <f t="shared" si="0"/>
         <v>10206</v>
       </c>
@@ -3479,13 +2643,13 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="11">
+      <c r="A37" s="5">
         <v>10207</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="10">
         <f t="shared" si="0"/>
         <v>10207</v>
       </c>
@@ -3524,13 +2688,13 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="11">
+      <c r="A38" s="5">
         <v>10208</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="10">
         <f t="shared" si="0"/>
         <v>10208</v>
       </c>
@@ -3569,13 +2733,13 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="11">
+      <c r="A39" s="5">
         <v>10209</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="16">
+      <c r="B39" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="10">
         <v>10206</v>
       </c>
       <c r="D39">
@@ -3613,13 +2777,13 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="11">
+      <c r="A40" s="5">
         <v>10210</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="10">
         <f>A40</f>
         <v>10210</v>
       </c>
@@ -3658,13 +2822,13 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="11">
+      <c r="A41" s="5">
         <v>10211</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="10">
         <f t="shared" ref="C41:C51" si="1">A41</f>
         <v>10211</v>
       </c>
@@ -3703,13 +2867,13 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="11">
+      <c r="A42" s="5">
         <v>10212</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="10">
         <f t="shared" si="1"/>
         <v>10212</v>
       </c>
@@ -3748,13 +2912,13 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="11">
+      <c r="A43" s="5">
         <v>10213</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="10">
         <f t="shared" si="1"/>
         <v>10213</v>
       </c>
@@ -3793,13 +2957,13 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="11">
+      <c r="A44" s="5">
         <v>10214</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="10">
         <f t="shared" si="1"/>
         <v>10214</v>
       </c>
@@ -3838,13 +3002,13 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="11">
+      <c r="A45" s="5">
         <v>10215</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="10">
         <f t="shared" si="1"/>
         <v>10215</v>
       </c>
@@ -3883,13 +3047,13 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A46" s="11">
+      <c r="A46" s="5">
         <v>10216</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="10">
         <f t="shared" si="1"/>
         <v>10216</v>
       </c>
@@ -3928,13 +3092,13 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A47" s="11">
+      <c r="A47" s="5">
         <v>10217</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="10">
         <f t="shared" si="1"/>
         <v>10217</v>
       </c>
@@ -3973,13 +3137,13 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A48" s="11">
+      <c r="A48" s="5">
         <v>10218</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="10">
         <f t="shared" si="1"/>
         <v>10218</v>
       </c>
@@ -4018,13 +3182,13 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A49" s="11">
+      <c r="A49" s="5">
         <v>10219</v>
       </c>
       <c r="B49" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="10">
         <f t="shared" si="1"/>
         <v>10219</v>
       </c>
@@ -4063,13 +3227,13 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A50" s="11">
+      <c r="A50" s="5">
         <v>10220</v>
       </c>
       <c r="B50" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="10">
         <f t="shared" si="1"/>
         <v>10220</v>
       </c>
@@ -4108,13 +3272,13 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A51" s="11">
+      <c r="A51" s="5">
         <v>10221</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="10">
         <f t="shared" si="1"/>
         <v>10221</v>
       </c>
@@ -4153,13 +3317,13 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A52" s="11">
+      <c r="A52" s="5">
         <v>10222</v>
       </c>
       <c r="B52" t="s">
-        <v>209</v>
-      </c>
-      <c r="C52" s="16">
+        <v>141</v>
+      </c>
+      <c r="C52" s="10">
         <f>C51</f>
         <v>10221</v>
       </c>
@@ -4198,13 +3362,13 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A53" s="11">
+      <c r="A53" s="5">
         <v>10223</v>
       </c>
       <c r="B53" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="10">
         <f>A53</f>
         <v>10223</v>
       </c>
@@ -4243,13 +3407,13 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A54" s="11">
+      <c r="A54" s="5">
         <v>10224</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
-      </c>
-      <c r="C54" s="16">
+        <v>103</v>
+      </c>
+      <c r="C54" s="10">
         <f>C53</f>
         <v>10223</v>
       </c>
@@ -4288,13 +3452,13 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A55" s="11">
+      <c r="A55" s="5">
         <v>10225</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="10">
         <f>A55</f>
         <v>10225</v>
       </c>
@@ -4333,13 +3497,13 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A56" s="11">
+      <c r="A56" s="5">
         <v>10226</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="16">
+        <v>104</v>
+      </c>
+      <c r="C56" s="10">
         <f>C55</f>
         <v>10225</v>
       </c>
@@ -4378,13 +3542,13 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57" s="11">
+      <c r="A57" s="5">
         <v>10301</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="16">
+        <v>61</v>
+      </c>
+      <c r="C57" s="10">
         <f>A57</f>
         <v>10301</v>
       </c>
@@ -4423,13 +3587,13 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A58" s="11">
+      <c r="A58" s="5">
         <v>10302</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="16">
+        <v>98</v>
+      </c>
+      <c r="C58" s="10">
         <f t="shared" ref="C58" si="2">A58</f>
         <v>10302</v>
       </c>
@@ -4468,13 +3632,13 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A59" s="11">
+      <c r="A59" s="5">
         <v>10303</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="16">
+        <v>62</v>
+      </c>
+      <c r="C59" s="10">
         <f>C58</f>
         <v>10302</v>
       </c>
@@ -4513,13 +3677,13 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A60" s="11">
+      <c r="A60" s="5">
         <v>10304</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
-      </c>
-      <c r="C60" s="16">
+        <v>63</v>
+      </c>
+      <c r="C60" s="10">
         <f>A60</f>
         <v>10304</v>
       </c>
@@ -4558,13 +3722,13 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A61" s="11">
+      <c r="A61" s="5">
         <v>10305</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="16">
+        <v>65</v>
+      </c>
+      <c r="C61" s="10">
         <f>A61</f>
         <v>10305</v>
       </c>
@@ -4603,13 +3767,13 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A62" s="11">
+      <c r="A62" s="5">
         <v>10306</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
-      </c>
-      <c r="C62" s="16">
+        <v>64</v>
+      </c>
+      <c r="C62" s="10">
         <f>A62</f>
         <v>10306</v>
       </c>
@@ -4648,13 +3812,13 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A63" s="11">
+      <c r="A63" s="5">
         <v>10307</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="16">
+        <v>66</v>
+      </c>
+      <c r="C63" s="10">
         <f>C61</f>
         <v>10305</v>
       </c>
@@ -4693,13 +3857,13 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A64" s="11">
+      <c r="A64" s="5">
         <v>10308</v>
       </c>
-      <c r="B64" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="C64" s="16">
+      <c r="B64" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="10">
         <f>A64</f>
         <v>10308</v>
       </c>
@@ -4738,13 +3902,13 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A65" s="11">
+      <c r="A65" s="5">
         <v>10309</v>
       </c>
-      <c r="B65" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C65" s="16">
+      <c r="B65" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="10">
         <f>C64</f>
         <v>10308</v>
       </c>
@@ -4783,13 +3947,13 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A66" s="11">
+      <c r="A66" s="5">
         <v>10401</v>
       </c>
-      <c r="B66" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="16">
+      <c r="B66" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="10">
         <f t="shared" ref="C66:C88" si="3">A66</f>
         <v>10401</v>
       </c>
@@ -4828,13 +3992,13 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A67" s="11">
+      <c r="A67" s="5">
         <v>10402</v>
       </c>
-      <c r="B67" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="16">
+      <c r="B67" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="10">
         <f t="shared" si="3"/>
         <v>10402</v>
       </c>
@@ -4873,13 +4037,13 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A68" s="11">
+      <c r="A68" s="5">
         <v>10403</v>
       </c>
-      <c r="B68" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="16">
+      <c r="B68" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="10">
         <f t="shared" si="3"/>
         <v>10403</v>
       </c>
@@ -4918,13 +4082,13 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A69" s="11">
+      <c r="A69" s="5">
         <v>10404</v>
       </c>
-      <c r="B69" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C69" s="16">
+      <c r="B69" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="10">
         <f t="shared" si="3"/>
         <v>10404</v>
       </c>
@@ -4963,13 +4127,13 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A70" s="11">
+      <c r="A70" s="5">
         <v>10405</v>
       </c>
-      <c r="B70" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C70" s="16">
+      <c r="B70" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="10">
         <f t="shared" si="3"/>
         <v>10405</v>
       </c>
@@ -5008,13 +4172,13 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A71" s="11">
+      <c r="A71" s="5">
         <v>10406</v>
       </c>
-      <c r="B71" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" s="16">
+      <c r="B71" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="10">
         <f t="shared" si="3"/>
         <v>10406</v>
       </c>
@@ -5053,13 +4217,13 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A72" s="11">
+      <c r="A72" s="5">
         <v>10407</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" s="16">
+        <v>85</v>
+      </c>
+      <c r="C72" s="10">
         <f t="shared" si="3"/>
         <v>10407</v>
       </c>
@@ -5098,13 +4262,13 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A73" s="11">
+      <c r="A73" s="5">
         <v>10408</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
-      </c>
-      <c r="C73" s="16">
+        <v>84</v>
+      </c>
+      <c r="C73" s="10">
         <f t="shared" si="3"/>
         <v>10408</v>
       </c>
@@ -5143,13 +4307,13 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A74" s="11">
+      <c r="A74" s="5">
         <v>10409</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" s="16">
+        <v>80</v>
+      </c>
+      <c r="C74" s="10">
         <f t="shared" si="3"/>
         <v>10409</v>
       </c>
@@ -5188,13 +4352,13 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A75" s="11">
+      <c r="A75" s="5">
         <v>10410</v>
       </c>
       <c r="B75" t="s">
-        <v>136</v>
-      </c>
-      <c r="C75" s="16">
+        <v>83</v>
+      </c>
+      <c r="C75" s="10">
         <f t="shared" si="3"/>
         <v>10410</v>
       </c>
@@ -5233,13 +4397,13 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A76" s="11">
+      <c r="A76" s="5">
         <v>10411</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="16">
+        <v>82</v>
+      </c>
+      <c r="C76" s="10">
         <f t="shared" si="3"/>
         <v>10411</v>
       </c>
@@ -5278,13 +4442,13 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A77" s="11">
+      <c r="A77" s="5">
         <v>10412</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
-      </c>
-      <c r="C77" s="16">
+        <v>101</v>
+      </c>
+      <c r="C77" s="10">
         <f t="shared" si="3"/>
         <v>10412</v>
       </c>
@@ -5323,13 +4487,13 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A78" s="11">
+      <c r="A78" s="5">
         <v>10413</v>
       </c>
       <c r="B78" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" s="16">
+        <v>81</v>
+      </c>
+      <c r="C78" s="10">
         <f t="shared" si="3"/>
         <v>10413</v>
       </c>
@@ -5368,13 +4532,13 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A79" s="11">
+      <c r="A79" s="5">
         <v>10414</v>
       </c>
-      <c r="B79" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" s="16">
+      <c r="B79" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="10">
         <f t="shared" si="3"/>
         <v>10414</v>
       </c>
@@ -5413,13 +4577,13 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A80" s="11">
+      <c r="A80" s="5">
         <v>10601</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" s="16">
+        <v>88</v>
+      </c>
+      <c r="C80" s="10">
         <f t="shared" si="3"/>
         <v>10601</v>
       </c>
@@ -5458,13 +4622,13 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A81" s="11">
+      <c r="A81" s="5">
         <v>10602</v>
       </c>
       <c r="B81" t="s">
-        <v>142</v>
-      </c>
-      <c r="C81" s="16">
+        <v>89</v>
+      </c>
+      <c r="C81" s="10">
         <f t="shared" si="3"/>
         <v>10602</v>
       </c>
@@ -5503,13 +4667,13 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A82" s="11">
+      <c r="A82" s="5">
         <v>10603</v>
       </c>
       <c r="B82" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" s="16">
+        <v>90</v>
+      </c>
+      <c r="C82" s="10">
         <f t="shared" si="3"/>
         <v>10603</v>
       </c>
@@ -5548,13 +4712,13 @@
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A83" s="11">
+      <c r="A83" s="5">
         <v>10604</v>
       </c>
       <c r="B83" t="s">
-        <v>144</v>
-      </c>
-      <c r="C83" s="16">
+        <v>91</v>
+      </c>
+      <c r="C83" s="10">
         <f t="shared" si="3"/>
         <v>10604</v>
       </c>
@@ -5593,13 +4757,13 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A84" s="11">
+      <c r="A84" s="5">
         <v>10605</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
-      </c>
-      <c r="C84" s="16">
+        <v>135</v>
+      </c>
+      <c r="C84" s="10">
         <f t="shared" si="3"/>
         <v>10605</v>
       </c>
@@ -5638,13 +4802,13 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A85" s="11">
+      <c r="A85" s="5">
         <v>10606</v>
       </c>
       <c r="B85" t="s">
-        <v>145</v>
-      </c>
-      <c r="C85" s="16">
+        <v>92</v>
+      </c>
+      <c r="C85" s="10">
         <f t="shared" si="3"/>
         <v>10606</v>
       </c>
@@ -5683,13 +4847,13 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A86" s="11">
+      <c r="A86" s="5">
         <v>10701</v>
       </c>
       <c r="B86" t="s">
-        <v>310</v>
-      </c>
-      <c r="C86" s="16">
+        <v>154</v>
+      </c>
+      <c r="C86" s="10">
         <f t="shared" si="3"/>
         <v>10701</v>
       </c>
@@ -5728,13 +4892,13 @@
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A87" s="11">
+      <c r="A87" s="5">
         <v>10702</v>
       </c>
       <c r="B87" t="s">
-        <v>318</v>
-      </c>
-      <c r="C87" s="16">
+        <v>155</v>
+      </c>
+      <c r="C87" s="10">
         <v>10702</v>
       </c>
       <c r="D87">
@@ -5772,13 +4936,13 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A88" s="11">
+      <c r="A88" s="5">
         <v>10703</v>
       </c>
       <c r="B88" t="s">
-        <v>214</v>
-      </c>
-      <c r="C88" s="16">
+        <v>146</v>
+      </c>
+      <c r="C88" s="10">
         <f t="shared" si="3"/>
         <v>10703</v>
       </c>
@@ -5817,13 +4981,13 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A89" s="11">
+      <c r="A89" s="5">
         <v>10704</v>
       </c>
       <c r="B89" t="s">
-        <v>188</v>
-      </c>
-      <c r="C89" s="16">
+        <v>127</v>
+      </c>
+      <c r="C89" s="10">
         <f>C32</f>
         <v>10202</v>
       </c>
@@ -5862,13 +5026,13 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A90" s="11">
+      <c r="A90" s="5">
         <v>10705</v>
       </c>
       <c r="B90" t="s">
-        <v>189</v>
-      </c>
-      <c r="C90" s="16">
+        <v>128</v>
+      </c>
+      <c r="C90" s="10">
         <f>C33</f>
         <v>10203</v>
       </c>
@@ -5907,13 +5071,13 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A91" s="11">
+      <c r="A91" s="5">
         <v>10706</v>
       </c>
       <c r="B91" t="s">
-        <v>190</v>
-      </c>
-      <c r="C91" s="16">
+        <v>129</v>
+      </c>
+      <c r="C91" s="10">
         <f>C40</f>
         <v>10210</v>
       </c>
@@ -5952,13 +5116,13 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A92" s="11">
+      <c r="A92" s="5">
         <v>10707</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
-      </c>
-      <c r="C92" s="16">
+        <v>130</v>
+      </c>
+      <c r="C92" s="10">
         <f>C14</f>
         <v>10110</v>
       </c>
@@ -5997,13 +5161,13 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A93" s="11">
+      <c r="A93" s="5">
         <v>10708</v>
       </c>
       <c r="B93" t="s">
-        <v>192</v>
-      </c>
-      <c r="C93" s="16">
+        <v>131</v>
+      </c>
+      <c r="C93" s="10">
         <f>C15</f>
         <v>10111</v>
       </c>
@@ -6042,13 +5206,13 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A94" s="11">
+      <c r="A94" s="5">
         <v>10709</v>
       </c>
       <c r="B94" t="s">
-        <v>193</v>
-      </c>
-      <c r="C94" s="16">
+        <v>132</v>
+      </c>
+      <c r="C94" s="10">
         <f>C8</f>
         <v>10104</v>
       </c>
@@ -6087,13 +5251,13 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A95" s="11">
+      <c r="A95" s="5">
         <v>10710</v>
       </c>
       <c r="B95" t="s">
-        <v>194</v>
-      </c>
-      <c r="C95" s="16">
+        <v>133</v>
+      </c>
+      <c r="C95" s="10">
         <f>C24</f>
         <v>10120</v>
       </c>
@@ -6132,13 +5296,13 @@
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A96" s="11">
+      <c r="A96" s="5">
         <v>10711</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
-      </c>
-      <c r="C96" s="16">
+        <v>134</v>
+      </c>
+      <c r="C96" s="10">
         <f>C49</f>
         <v>10219</v>
       </c>
@@ -6177,7 +5341,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -6188,17 +5352,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="2" customWidth="1"/>
     <col min="5" max="6" width="6.5" customWidth="1"/>
     <col min="7" max="7" width="4.5" customWidth="1"/>
     <col min="8" max="11" width="6.5" customWidth="1"/>
@@ -6208,58 +5372,58 @@
     <col min="15" max="15" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="M1" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="N1" s="47" t="s">
-        <v>274</v>
+    <row r="1" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
+      <c r="A2" s="5">
         <v>20001</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="5">
         <f>A2</f>
         <v>20001</v>
       </c>
@@ -6298,13 +5462,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+      <c r="A3" s="5">
         <v>20002</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="5">
         <f>C2</f>
         <v>20001</v>
       </c>
@@ -6343,13 +5507,13 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>20003</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="5">
         <f t="shared" ref="C4:C31" si="0">A4</f>
         <v>20003</v>
       </c>
@@ -6388,13 +5552,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>20004</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="5">
         <f t="shared" si="0"/>
         <v>20004</v>
       </c>
@@ -6433,13 +5597,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
+      <c r="A6" s="5">
         <v>20005</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>20005</v>
       </c>
@@ -6478,13 +5642,13 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>20006</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>20006</v>
       </c>
@@ -6523,13 +5687,13 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>20007</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>20007</v>
       </c>
@@ -6568,13 +5732,13 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>20008</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="5">
         <f>C8</f>
         <v>20007</v>
       </c>
@@ -6613,13 +5777,13 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>20009</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="11">
+        <v>145</v>
+      </c>
+      <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>20009</v>
       </c>
@@ -6658,13 +5822,13 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
+      <c r="A11" s="5">
         <v>20010</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="5">
         <f t="shared" si="0"/>
         <v>20010</v>
       </c>
@@ -6703,13 +5867,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="11">
+      <c r="A12" s="5">
         <v>20011</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="5">
         <f t="shared" si="0"/>
         <v>20011</v>
       </c>
@@ -6748,13 +5912,13 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
+      <c r="A13" s="5">
         <v>20012</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="5">
         <f t="shared" si="0"/>
         <v>20012</v>
       </c>
@@ -6793,13 +5957,13 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="11">
+      <c r="A14" s="5">
         <v>20013</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="5">
         <f t="shared" si="0"/>
         <v>20013</v>
       </c>
@@ -6838,13 +6002,13 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="11">
+      <c r="A15" s="5">
         <v>20014</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="11">
+        <v>147</v>
+      </c>
+      <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>20014</v>
       </c>
@@ -6883,13 +6047,13 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
+      <c r="A16" s="5">
         <v>20015</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="5">
         <f t="shared" si="0"/>
         <v>20015</v>
       </c>
@@ -6928,13 +6092,13 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="11">
+      <c r="A17" s="5">
         <v>20016</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="11">
+        <v>68</v>
+      </c>
+      <c r="C17" s="5">
         <f t="shared" si="0"/>
         <v>20016</v>
       </c>
@@ -6973,13 +6137,13 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="11">
+      <c r="A18" s="5">
         <v>20017</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="11">
+        <v>67</v>
+      </c>
+      <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>20017</v>
       </c>
@@ -7018,13 +6182,13 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="11">
+      <c r="A19" s="5">
         <v>20018</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="11">
+        <v>69</v>
+      </c>
+      <c r="C19" s="5">
         <f t="shared" si="0"/>
         <v>20018</v>
       </c>
@@ -7063,13 +6227,13 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="11">
+      <c r="A20" s="5">
         <v>20019</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="11">
+        <v>79</v>
+      </c>
+      <c r="C20" s="5">
         <f t="shared" si="0"/>
         <v>20019</v>
       </c>
@@ -7108,13 +6272,13 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="11">
+      <c r="A21" s="5">
         <v>20020</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="11">
+        <v>112</v>
+      </c>
+      <c r="C21" s="5">
         <f>C20</f>
         <v>20019</v>
       </c>
@@ -7153,13 +6317,13 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="11">
+      <c r="A22" s="5">
         <v>20021</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="11">
+        <v>86</v>
+      </c>
+      <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>20021</v>
       </c>
@@ -7198,13 +6362,13 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
+      <c r="A23" s="5">
         <v>20022</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="11">
+        <v>72</v>
+      </c>
+      <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>20022</v>
       </c>
@@ -7243,13 +6407,13 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="11">
+      <c r="A24" s="5">
         <v>20023</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="11">
+        <v>71</v>
+      </c>
+      <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>20023</v>
       </c>
@@ -7288,13 +6452,13 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="11">
+      <c r="A25" s="5">
         <v>20024</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="11">
+        <v>70</v>
+      </c>
+      <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>20024</v>
       </c>
@@ -7333,13 +6497,13 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="11">
+      <c r="A26" s="5">
         <v>20025</v>
       </c>
       <c r="B26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="11">
+        <v>138</v>
+      </c>
+      <c r="C26" s="5">
         <f t="shared" si="0"/>
         <v>20025</v>
       </c>
@@ -7378,13 +6542,13 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="11">
+      <c r="A27" s="5">
         <v>20026</v>
       </c>
       <c r="B27" t="s">
-        <v>205</v>
-      </c>
-      <c r="C27" s="11">
+        <v>137</v>
+      </c>
+      <c r="C27" s="5">
         <f>C26</f>
         <v>20025</v>
       </c>
@@ -7423,13 +6587,13 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="11">
+      <c r="A28" s="5">
         <v>20027</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="11">
+        <v>93</v>
+      </c>
+      <c r="C28" s="5">
         <f t="shared" si="0"/>
         <v>20027</v>
       </c>
@@ -7468,13 +6632,13 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="11">
+      <c r="A29" s="5">
         <v>20028</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="11">
+        <v>94</v>
+      </c>
+      <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>20028</v>
       </c>
@@ -7513,13 +6677,13 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="11">
+      <c r="A30" s="5">
         <v>20029</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="11">
+        <v>95</v>
+      </c>
+      <c r="C30" s="5">
         <f t="shared" si="0"/>
         <v>20029</v>
       </c>
@@ -7558,13 +6722,13 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="11">
+      <c r="A31" s="5">
         <v>20030</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" s="11">
+        <v>96</v>
+      </c>
+      <c r="C31" s="5">
         <f t="shared" si="0"/>
         <v>20030</v>
       </c>
@@ -7603,13 +6767,13 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="11">
+      <c r="A32" s="5">
         <v>20031</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" s="11">
+        <v>100</v>
+      </c>
+      <c r="C32" s="5">
         <f>C26</f>
         <v>20025</v>
       </c>
@@ -7648,13 +6812,13 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="11">
+      <c r="A33" s="5">
         <v>20032</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
-      </c>
-      <c r="C33" s="11">
+        <v>123</v>
+      </c>
+      <c r="C33" s="5">
         <f>C17</f>
         <v>20016</v>
       </c>
@@ -7693,13 +6857,13 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="11">
+      <c r="A34" s="5">
         <v>20033</v>
       </c>
       <c r="B34" t="s">
-        <v>178</v>
-      </c>
-      <c r="C34" s="11">
+        <v>117</v>
+      </c>
+      <c r="C34" s="5">
         <f>C4</f>
         <v>20003</v>
       </c>
@@ -7738,13 +6902,13 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="11">
+      <c r="A35" s="5">
         <v>20034</v>
       </c>
       <c r="B35" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" s="11">
+        <v>122</v>
+      </c>
+      <c r="C35" s="5">
         <f>C18</f>
         <v>20017</v>
       </c>
@@ -7783,13 +6947,13 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="11">
+      <c r="A36" s="5">
         <v>20035</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" s="11">
+        <v>124</v>
+      </c>
+      <c r="C36" s="5">
         <f>C7</f>
         <v>20006</v>
       </c>
@@ -7828,13 +6992,13 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="11">
+      <c r="A37" s="5">
         <v>20036</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" s="11">
+        <v>116</v>
+      </c>
+      <c r="C37" s="5">
         <f>C20</f>
         <v>20019</v>
       </c>
@@ -7873,13 +7037,13 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="11">
+      <c r="A38" s="5">
         <v>20037</v>
       </c>
       <c r="B38" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="11">
+        <v>115</v>
+      </c>
+      <c r="C38" s="5">
         <f>C25</f>
         <v>20024</v>
       </c>
@@ -7918,13 +7082,13 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="11">
+      <c r="A39" s="5">
         <v>20038</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
-      </c>
-      <c r="C39" s="11">
+        <v>113</v>
+      </c>
+      <c r="C39" s="5">
         <f>C7</f>
         <v>20006</v>
       </c>
@@ -7963,13 +7127,13 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="11">
+      <c r="A40" s="5">
         <v>20039</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="11">
+        <v>114</v>
+      </c>
+      <c r="C40" s="5">
         <f>C19</f>
         <v>20018</v>
       </c>
@@ -8008,13 +7172,13 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="11">
+      <c r="A41" s="5">
         <v>20040</v>
       </c>
       <c r="B41" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" s="11">
+        <v>126</v>
+      </c>
+      <c r="C41" s="5">
         <f>C12</f>
         <v>20011</v>
       </c>
@@ -8053,13 +7217,13 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="11">
+      <c r="A42" s="5">
         <v>20041</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
-      </c>
-      <c r="C42" s="11">
+        <v>118</v>
+      </c>
+      <c r="C42" s="5">
         <f>C31</f>
         <v>20030</v>
       </c>
@@ -8098,13 +7262,13 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="11">
+      <c r="A43" s="5">
         <v>20042</v>
       </c>
       <c r="B43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" s="11">
+        <v>119</v>
+      </c>
+      <c r="C43" s="5">
         <f>C28</f>
         <v>20027</v>
       </c>
@@ -8143,13 +7307,13 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="11">
+      <c r="A44" s="5">
         <v>20043</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
-      </c>
-      <c r="C44" s="11">
+        <v>120</v>
+      </c>
+      <c r="C44" s="5">
         <f>C29</f>
         <v>20028</v>
       </c>
@@ -8188,13 +7352,13 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="11">
+      <c r="A45" s="5">
         <v>20044</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" s="11">
+        <v>121</v>
+      </c>
+      <c r="C45" s="5">
         <f>C22</f>
         <v>20021</v>
       </c>
@@ -8233,13 +7397,13 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A46" s="11">
+      <c r="A46" s="5">
         <v>20045</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C46" s="11">
+        <v>125</v>
+      </c>
+      <c r="C46" s="5">
         <f>C16</f>
         <v>20015</v>
       </c>
@@ -8278,939 +7442,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="10.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21">
-        <v>0</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="23">
-        <v>0</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57">
-        <v>1</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="28">
-        <v>0</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="58"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="33">
-        <v>1</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="58"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="33">
-        <v>2</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="59"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="39">
-        <v>3</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="57">
-        <v>2</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="28">
-        <v>0</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="58"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="33">
-        <v>1</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="58"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="33">
-        <v>2</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="52" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="58"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="33">
-        <v>3</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="59"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="39">
-        <v>4</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="63">
-        <v>3</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="54" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="2">
-        <v>3</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G15" s="54" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="2">
-        <v>4</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G17" s="54" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="57">
-        <v>4</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="28">
-        <v>0</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="33">
-        <v>1</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="39">
-        <v>2</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="53" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="57">
-        <v>5</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="28">
-        <v>0</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="58"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="33">
-        <v>1</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="58"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="33">
-        <v>2</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="58"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="33">
-        <v>3</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="58"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="33">
-        <v>4</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="G25" s="52" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="58"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="33">
-        <v>5</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="59"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="39">
-        <v>6</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>290</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="63">
-        <v>6</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G28" s="54" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G29" s="54" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="2">
-        <v>2</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G30" s="54" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="2">
-        <v>3</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="2">
-        <v>4</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32" s="54" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="2">
-        <v>5</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" s="54" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="44">
-        <v>7</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="C34" s="28">
-        <v>0</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="G34" s="51" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="57">
-        <v>8</v>
-      </c>
-      <c r="B35" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="C35" s="28">
-        <v>0</v>
-      </c>
-      <c r="D35" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="G35" s="51" t="str">
-        <f>CONCATENATE(G19,",20033")</f>
-        <v>20020,20033</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="58"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="33">
-        <v>1</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="G36" s="52" t="str">
-        <f>CONCATENATE(G10,"")</f>
-        <v>20012-20014</v>
-      </c>
-      <c r="H36" s="37"/>
-    </row>
-    <row r="37" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="58"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="33">
-        <v>2</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="G37" s="52" t="str">
-        <f>CONCATENATE(G6,",20035")</f>
-        <v>20005-20006,20035</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="58"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="33">
-        <v>3</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="G38" s="52" t="str">
-        <f>CONCATENATE(G9,",20040")</f>
-        <v>20010-20011,20040</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="58"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="33">
-        <v>4</v>
-      </c>
-      <c r="D39" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="G39" s="52" t="str">
-        <f>CONCATENATE(G18,",20036")</f>
-        <v>20019,20036</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="58"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="33">
-        <v>5</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="F40" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="G40" s="52" t="str">
-        <f>CONCATENATE(G34,"")</f>
-        <v>20032-20037</v>
-      </c>
-      <c r="H40" s="37"/>
-    </row>
-    <row r="41" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="58"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="33">
-        <v>6</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="G41" s="52" t="str">
-        <f>CONCATENATE(G11,",20045")</f>
-        <v>20015,20045</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="58"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="33">
-        <v>7</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="G42" s="52" t="str">
-        <f>CONCATENATE(G27,",20037")</f>
-        <v>20024,20037</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="58"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="33">
-        <v>8</v>
-      </c>
-      <c r="D43" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="G43" s="52" t="str">
-        <f>CONCATENATE(G17,",20032,20034,20039")</f>
-        <v>20018,20032,20034,20039</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="59"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="39">
-        <v>9</v>
-      </c>
-      <c r="D44" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>307</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="G44" s="53" t="str">
-        <f>CONCATENATE(G20,",20041")</f>
-        <v>20021,20041</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B35:B44"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A21:A27"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -11,6 +11,7 @@
     <sheet name="BOSS怪属性" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -539,6 +540,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -607,7 +613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,6 +664,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,11 +1026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P85" sqref="P85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1018,12 +1042,15 @@
     <col min="5" max="5" width="5.375" customWidth="1"/>
     <col min="6" max="6" width="5.5" customWidth="1"/>
     <col min="7" max="7" width="3.375" customWidth="1"/>
-    <col min="8" max="11" width="6.5" customWidth="1"/>
-    <col min="12" max="13" width="5.375" customWidth="1"/>
+    <col min="8" max="9" width="7.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="22" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.375" style="18" customWidth="1"/>
     <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1045,29 +1072,30 @@
       <c r="G1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="17" t="s">
         <v>109</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>10001</v>
       </c>
@@ -1090,29 +1118,29 @@
       <c r="G2">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="22">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="22">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="J2" s="22">
+        <v>0</v>
+      </c>
+      <c r="K2" s="22">
+        <v>0</v>
+      </c>
+      <c r="L2" s="18">
+        <v>0</v>
+      </c>
+      <c r="M2" s="18">
         <v>0</v>
       </c>
       <c r="N2">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>10002</v>
       </c>
@@ -1135,29 +1163,29 @@
       <c r="G3">
         <v>10</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="22">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="22">
         <v>4</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0</v>
+      </c>
+      <c r="M3" s="18">
         <v>0</v>
       </c>
       <c r="N3">
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>10003</v>
       </c>
@@ -1180,29 +1208,29 @@
       <c r="G4">
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="22">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="22">
         <v>3</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="18">
+        <v>0</v>
+      </c>
+      <c r="M4" s="18">
         <v>0</v>
       </c>
       <c r="N4">
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>10101</v>
       </c>
@@ -1225,29 +1253,29 @@
       <c r="G5">
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="22">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="22">
         <v>2</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="J5" s="22">
+        <v>0</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18">
+        <v>0</v>
+      </c>
+      <c r="M5" s="18">
         <v>0</v>
       </c>
       <c r="N5">
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>10102</v>
       </c>
@@ -1270,29 +1298,29 @@
       <c r="G6">
         <v>10</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="22">
         <v>2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="22">
         <v>4</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+      <c r="M6" s="18">
         <v>0</v>
       </c>
       <c r="N6">
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>10103</v>
       </c>
@@ -1315,29 +1343,29 @@
       <c r="G7">
         <v>10</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="22">
         <v>2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="22">
         <v>4</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="18">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18">
         <v>0</v>
       </c>
       <c r="N7">
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>10104</v>
       </c>
@@ -1360,29 +1388,29 @@
       <c r="G8">
         <v>10</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
         <v>5</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0</v>
+      </c>
+      <c r="M8" s="18">
         <v>0</v>
       </c>
       <c r="N8">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>10105</v>
       </c>
@@ -1405,29 +1433,29 @@
       <c r="G9">
         <v>10</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="22">
+        <v>2</v>
+      </c>
+      <c r="I9" s="22">
+        <v>4</v>
+      </c>
+      <c r="J9" s="22">
         <v>6</v>
       </c>
-      <c r="I9">
+      <c r="K9" s="22">
         <v>9</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="L9" s="18">
         <v>2</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="18">
         <v>0</v>
       </c>
       <c r="N9">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>10106</v>
       </c>
@@ -1450,29 +1478,29 @@
       <c r="G10">
         <v>10</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="22">
         <v>7</v>
       </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="I10" s="22">
+        <v>10</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="18">
         <v>2</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="18">
         <v>0</v>
       </c>
       <c r="N10">
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10107</v>
       </c>
@@ -1495,29 +1523,29 @@
       <c r="G11">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="22">
         <v>4</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="22">
         <v>9</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="J11" s="22">
+        <v>0</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="18">
         <v>1</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="18">
         <v>0</v>
       </c>
       <c r="N11">
         <v>2500</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>10108</v>
       </c>
@@ -1540,29 +1568,29 @@
       <c r="G12">
         <v>10</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="22">
         <v>5</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="22">
         <v>12</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
+      <c r="J12" s="22">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="18">
         <v>3</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="18">
         <v>1</v>
       </c>
       <c r="N12">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10109</v>
       </c>
@@ -1585,29 +1613,29 @@
       <c r="G13">
         <v>10</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="22">
         <v>4</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="22">
         <v>6</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="J13" s="22">
+        <v>0</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="18">
         <v>2</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="18">
         <v>0</v>
       </c>
       <c r="N13">
         <v>2500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>10110</v>
       </c>
@@ -1630,29 +1658,29 @@
       <c r="G14">
         <v>10</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="22">
         <v>7</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="22">
         <v>16</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="J14" s="22">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="18">
         <v>2</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="18">
         <v>0</v>
       </c>
       <c r="N14">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>10111</v>
       </c>
@@ -1675,29 +1703,29 @@
       <c r="G15">
         <v>10</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15">
-        <v>8</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
+      <c r="H15" s="22">
+        <v>0</v>
+      </c>
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="22">
+        <v>10</v>
+      </c>
+      <c r="K15" s="22">
+        <v>16</v>
+      </c>
+      <c r="L15" s="18">
+        <v>0</v>
+      </c>
+      <c r="M15" s="18">
         <v>0</v>
       </c>
       <c r="N15">
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>10112</v>
       </c>
@@ -1720,22 +1748,22 @@
       <c r="G16">
         <v>10</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="22">
         <v>7</v>
       </c>
-      <c r="I16">
-        <v>10</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
+      <c r="I16" s="22">
+        <v>10</v>
+      </c>
+      <c r="J16" s="22">
+        <v>0</v>
+      </c>
+      <c r="K16" s="22">
+        <v>0</v>
+      </c>
+      <c r="L16" s="18">
+        <v>0</v>
+      </c>
+      <c r="M16" s="18">
         <v>0</v>
       </c>
       <c r="N16">
@@ -1765,22 +1793,22 @@
       <c r="G17">
         <v>10</v>
       </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <v>9</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="H17" s="22">
+        <v>2</v>
+      </c>
+      <c r="I17" s="22">
+        <v>5</v>
+      </c>
+      <c r="J17" s="22">
+        <v>5</v>
+      </c>
+      <c r="K17" s="22">
+        <v>10</v>
+      </c>
+      <c r="L17" s="18">
+        <v>0</v>
+      </c>
+      <c r="M17" s="18">
         <v>0</v>
       </c>
       <c r="N17">
@@ -1810,22 +1838,22 @@
       <c r="G18">
         <v>10</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="22">
         <v>2</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="22">
         <v>15</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="J18" s="22">
+        <v>0</v>
+      </c>
+      <c r="K18" s="22">
+        <v>0</v>
+      </c>
+      <c r="L18" s="18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="18">
         <v>0</v>
       </c>
       <c r="N18">
@@ -1855,22 +1883,22 @@
       <c r="G19">
         <v>10</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="22">
         <v>7</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="22">
         <v>13</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
+      <c r="J19" s="22">
+        <v>0</v>
+      </c>
+      <c r="K19" s="22">
+        <v>0</v>
+      </c>
+      <c r="L19" s="18">
         <v>2</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="18">
         <v>1</v>
       </c>
       <c r="N19">
@@ -1900,22 +1928,22 @@
       <c r="G20">
         <v>10</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="22">
         <v>12</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="22">
         <v>16</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="J20" s="22">
+        <v>0</v>
+      </c>
+      <c r="K20" s="22">
+        <v>0</v>
+      </c>
+      <c r="L20" s="18">
         <v>2</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="18">
         <v>1</v>
       </c>
       <c r="N20">
@@ -1945,22 +1973,22 @@
       <c r="G21">
         <v>10</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="22">
         <v>8</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="22">
         <v>17</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="J21" s="22">
+        <v>0</v>
+      </c>
+      <c r="K21" s="22">
+        <v>0</v>
+      </c>
+      <c r="L21" s="18">
         <v>2</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="18">
         <v>1</v>
       </c>
       <c r="N21">
@@ -1990,22 +2018,22 @@
       <c r="G22">
         <v>10</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="22">
         <v>6</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="22">
         <v>17</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="J22" s="22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="18">
+        <v>0</v>
+      </c>
+      <c r="M22" s="18">
         <v>0</v>
       </c>
       <c r="N22">
@@ -2035,22 +2063,22 @@
       <c r="G23">
         <v>10</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="22">
         <v>6</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="22">
         <v>17</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="J23" s="22">
+        <v>0</v>
+      </c>
+      <c r="K23" s="22">
+        <v>0</v>
+      </c>
+      <c r="L23" s="18">
         <v>2</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="18">
         <v>1</v>
       </c>
       <c r="N23">
@@ -2080,22 +2108,22 @@
       <c r="G24">
         <v>10</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>6</v>
-      </c>
-      <c r="K24">
-        <v>17</v>
-      </c>
-      <c r="L24">
+      <c r="H24" s="22">
+        <v>0</v>
+      </c>
+      <c r="I24" s="22">
+        <v>0</v>
+      </c>
+      <c r="J24" s="22">
+        <v>12</v>
+      </c>
+      <c r="K24" s="22">
+        <v>20</v>
+      </c>
+      <c r="L24" s="18">
         <v>2</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="18">
         <v>1</v>
       </c>
       <c r="N24">
@@ -2125,22 +2153,22 @@
       <c r="G25">
         <v>10</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>9</v>
-      </c>
-      <c r="K25">
-        <v>17</v>
-      </c>
-      <c r="L25">
+      <c r="H25" s="22">
+        <v>0</v>
+      </c>
+      <c r="I25" s="22">
+        <v>0</v>
+      </c>
+      <c r="J25" s="22">
+        <v>18</v>
+      </c>
+      <c r="K25" s="22">
+        <v>34</v>
+      </c>
+      <c r="L25" s="18">
         <v>3</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="18">
         <v>2</v>
       </c>
       <c r="N25">
@@ -2170,22 +2198,22 @@
       <c r="G26">
         <v>10</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="22">
         <v>9</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="22">
         <v>16</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
+      <c r="J26" s="22">
+        <v>0</v>
+      </c>
+      <c r="K26" s="22">
+        <v>0</v>
+      </c>
+      <c r="L26" s="18">
         <v>3</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="18">
         <v>2</v>
       </c>
       <c r="N26">
@@ -2215,22 +2243,22 @@
       <c r="G27">
         <v>10</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="22">
         <v>14</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="22">
         <v>28</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="J27" s="22">
+        <v>0</v>
+      </c>
+      <c r="K27" s="22">
+        <v>0</v>
+      </c>
+      <c r="L27" s="18">
         <v>3</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="18">
         <v>2</v>
       </c>
       <c r="N27">
@@ -2260,22 +2288,22 @@
       <c r="G28">
         <v>10</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="22">
         <v>16</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="22">
         <v>28</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="J28" s="22">
+        <v>0</v>
+      </c>
+      <c r="K28" s="22">
+        <v>0</v>
+      </c>
+      <c r="L28" s="18">
         <v>3</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="18">
         <v>2</v>
       </c>
       <c r="N28">
@@ -2305,22 +2333,22 @@
       <c r="G29">
         <v>10</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="22">
         <v>15</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="22">
         <v>29</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
+      <c r="J29" s="22">
+        <v>0</v>
+      </c>
+      <c r="K29" s="22">
+        <v>0</v>
+      </c>
+      <c r="L29" s="18">
         <v>3</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="18">
         <v>2</v>
       </c>
       <c r="N29">
@@ -2350,22 +2378,22 @@
       <c r="G30">
         <v>10</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>14</v>
-      </c>
-      <c r="K30">
-        <v>26</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="H30" s="22">
+        <v>0</v>
+      </c>
+      <c r="I30" s="22">
+        <v>0</v>
+      </c>
+      <c r="J30" s="22">
+        <v>22</v>
+      </c>
+      <c r="K30" s="22">
+        <v>30</v>
+      </c>
+      <c r="L30" s="18">
+        <v>0</v>
+      </c>
+      <c r="M30" s="18">
         <v>0</v>
       </c>
       <c r="N30">
@@ -2395,22 +2423,22 @@
       <c r="G31">
         <v>10</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
+      <c r="H31" s="22">
+        <v>0</v>
+      </c>
+      <c r="I31" s="22">
+        <v>0</v>
+      </c>
+      <c r="J31" s="22">
         <v>6</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="22">
         <v>9</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="18">
         <v>2</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="18">
         <v>1</v>
       </c>
       <c r="N31">
@@ -2440,22 +2468,22 @@
       <c r="G32">
         <v>10</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="22">
         <v>7</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="22">
         <v>12</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="J32" s="22">
+        <v>0</v>
+      </c>
+      <c r="K32" s="22">
+        <v>0</v>
+      </c>
+      <c r="L32" s="18">
+        <v>0</v>
+      </c>
+      <c r="M32" s="18">
         <v>2</v>
       </c>
       <c r="N32">
@@ -2485,22 +2513,22 @@
       <c r="G33">
         <v>10</v>
       </c>
-      <c r="H33">
-        <v>10</v>
-      </c>
-      <c r="I33">
+      <c r="H33" s="22">
+        <v>10</v>
+      </c>
+      <c r="I33" s="22">
         <v>11</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="J33" s="22">
+        <v>0</v>
+      </c>
+      <c r="K33" s="22">
+        <v>0</v>
+      </c>
+      <c r="L33" s="18">
+        <v>0</v>
+      </c>
+      <c r="M33" s="18">
         <v>2</v>
       </c>
       <c r="N33">
@@ -2530,22 +2558,22 @@
       <c r="G34">
         <v>10</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="22">
         <v>4</v>
       </c>
-      <c r="I34">
-        <v>10</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="I34" s="22">
+        <v>10</v>
+      </c>
+      <c r="J34" s="22">
+        <v>0</v>
+      </c>
+      <c r="K34" s="22">
+        <v>0</v>
+      </c>
+      <c r="L34" s="18">
+        <v>0</v>
+      </c>
+      <c r="M34" s="18">
         <v>0</v>
       </c>
       <c r="N34">
@@ -2575,22 +2603,22 @@
       <c r="G35">
         <v>10</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="22">
         <v>6</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="22">
         <v>8</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
+      <c r="J35" s="22">
+        <v>0</v>
+      </c>
+      <c r="K35" s="22">
+        <v>0</v>
+      </c>
+      <c r="L35" s="18">
+        <v>0</v>
+      </c>
+      <c r="M35" s="18">
         <v>0</v>
       </c>
       <c r="N35">
@@ -2620,22 +2648,22 @@
       <c r="G36">
         <v>10</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
+      <c r="H36" s="22">
+        <v>0</v>
+      </c>
+      <c r="I36" s="22">
+        <v>0</v>
+      </c>
+      <c r="J36" s="22">
         <v>8</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="22">
         <v>11</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
+      <c r="L36" s="18">
+        <v>0</v>
+      </c>
+      <c r="M36" s="18">
         <v>0</v>
       </c>
       <c r="N36">
@@ -2665,22 +2693,22 @@
       <c r="G37">
         <v>10</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="22">
         <v>7</v>
       </c>
-      <c r="I37">
-        <v>10</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
+      <c r="I37" s="22">
+        <v>10</v>
+      </c>
+      <c r="J37" s="22">
+        <v>0</v>
+      </c>
+      <c r="K37" s="22">
+        <v>0</v>
+      </c>
+      <c r="L37" s="18">
+        <v>0</v>
+      </c>
+      <c r="M37" s="18">
         <v>0</v>
       </c>
       <c r="N37">
@@ -2710,22 +2738,22 @@
       <c r="G38">
         <v>10</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="22">
         <v>7</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="22">
         <v>8</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
+      <c r="J38" s="22">
+        <v>0</v>
+      </c>
+      <c r="K38" s="22">
+        <v>0</v>
+      </c>
+      <c r="L38" s="18">
+        <v>0</v>
+      </c>
+      <c r="M38" s="18">
         <v>0</v>
       </c>
       <c r="N38">
@@ -2754,22 +2782,22 @@
       <c r="G39">
         <v>10</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
+      <c r="H39" s="22">
+        <v>0</v>
+      </c>
+      <c r="I39" s="22">
+        <v>0</v>
+      </c>
+      <c r="J39" s="22">
         <v>6</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="22">
         <v>9</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="18">
         <v>2</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="18">
         <v>1</v>
       </c>
       <c r="N39">
@@ -2799,22 +2827,22 @@
       <c r="G40">
         <v>10</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="22">
         <v>12</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="22">
         <v>17</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
+      <c r="J40" s="22">
+        <v>0</v>
+      </c>
+      <c r="K40" s="22">
+        <v>0</v>
+      </c>
+      <c r="L40" s="18">
+        <v>0</v>
+      </c>
+      <c r="M40" s="18">
         <v>5</v>
       </c>
       <c r="N40">
@@ -2844,22 +2872,22 @@
       <c r="G41">
         <v>10</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="22">
+        <v>7</v>
+      </c>
+      <c r="I41" s="22">
+        <v>10</v>
+      </c>
+      <c r="J41" s="22">
         <v>15</v>
       </c>
-      <c r="I41">
-        <v>18</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="K41" s="22">
+        <v>20</v>
+      </c>
+      <c r="L41" s="18">
         <v>3</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="18">
         <v>3</v>
       </c>
       <c r="N41">
@@ -2889,22 +2917,22 @@
       <c r="G42">
         <v>10</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="22">
         <v>12</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="22">
         <v>18</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
+      <c r="J42" s="22">
+        <v>0</v>
+      </c>
+      <c r="K42" s="22">
+        <v>0</v>
+      </c>
+      <c r="L42" s="18">
         <v>3</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="18">
         <v>3</v>
       </c>
       <c r="N42">
@@ -2934,22 +2962,22 @@
       <c r="G43">
         <v>10</v>
       </c>
-      <c r="H43">
-        <v>10</v>
-      </c>
-      <c r="I43">
+      <c r="H43" s="22">
+        <v>10</v>
+      </c>
+      <c r="I43" s="22">
         <v>14</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
+      <c r="J43" s="22">
+        <v>0</v>
+      </c>
+      <c r="K43" s="22">
+        <v>0</v>
+      </c>
+      <c r="L43" s="18">
         <v>5</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="18">
         <v>0</v>
       </c>
       <c r="N43">
@@ -2979,22 +3007,22 @@
       <c r="G44">
         <v>10</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="22">
         <v>15</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="22">
         <v>25</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
+      <c r="J44" s="22">
+        <v>0</v>
+      </c>
+      <c r="K44" s="22">
+        <v>0</v>
+      </c>
+      <c r="L44" s="18">
         <v>5</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="18">
         <v>7</v>
       </c>
       <c r="N44">
@@ -3024,22 +3052,22 @@
       <c r="G45">
         <v>10</v>
       </c>
-      <c r="H45">
-        <v>18</v>
-      </c>
-      <c r="I45">
-        <v>25</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
+      <c r="H45" s="22">
+        <v>0</v>
+      </c>
+      <c r="I45" s="22">
+        <v>0</v>
+      </c>
+      <c r="J45" s="22">
+        <v>15</v>
+      </c>
+      <c r="K45" s="22">
+        <v>28</v>
+      </c>
+      <c r="L45" s="18">
+        <v>0</v>
+      </c>
+      <c r="M45" s="18">
         <v>8</v>
       </c>
       <c r="N45">
@@ -3069,22 +3097,22 @@
       <c r="G46">
         <v>10</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="22">
         <v>20</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="22">
         <v>26</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>10</v>
-      </c>
-      <c r="M46">
+      <c r="J46" s="22">
+        <v>0</v>
+      </c>
+      <c r="K46" s="22">
+        <v>0</v>
+      </c>
+      <c r="L46" s="18">
+        <v>10</v>
+      </c>
+      <c r="M46" s="18">
         <v>0</v>
       </c>
       <c r="N46">
@@ -3114,22 +3142,22 @@
       <c r="G47">
         <v>10</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="22">
         <v>22</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="22">
         <v>28</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
+      <c r="J47" s="22">
+        <v>0</v>
+      </c>
+      <c r="K47" s="22">
+        <v>0</v>
+      </c>
+      <c r="L47" s="18">
         <v>5</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="18">
         <v>3</v>
       </c>
       <c r="N47">
@@ -3159,29 +3187,29 @@
       <c r="G48">
         <v>10</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="22">
         <v>13</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="22">
         <v>18</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
+      <c r="J48" s="22">
+        <v>0</v>
+      </c>
+      <c r="K48" s="22">
+        <v>0</v>
+      </c>
+      <c r="L48" s="18">
+        <v>0</v>
+      </c>
+      <c r="M48" s="18">
         <v>6</v>
       </c>
       <c r="N48">
         <v>2000</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>10219</v>
       </c>
@@ -3204,29 +3232,29 @@
       <c r="G49">
         <v>10</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>13</v>
-      </c>
-      <c r="K49">
-        <v>18</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
+      <c r="H49" s="22">
+        <v>0</v>
+      </c>
+      <c r="I49" s="22">
+        <v>0</v>
+      </c>
+      <c r="J49" s="22">
+        <v>15.6</v>
+      </c>
+      <c r="K49" s="22">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="L49" s="18">
+        <v>0</v>
+      </c>
+      <c r="M49" s="18">
         <v>5</v>
       </c>
       <c r="N49">
         <v>2500</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>10220</v>
       </c>
@@ -3249,29 +3277,29 @@
       <c r="G50">
         <v>10</v>
       </c>
-      <c r="H50">
-        <v>12</v>
-      </c>
-      <c r="I50">
-        <v>23</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
+      <c r="H50" s="22">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="I50" s="22">
+        <v>27.599999999999998</v>
+      </c>
+      <c r="J50" s="22">
+        <v>0</v>
+      </c>
+      <c r="K50" s="22">
+        <v>0</v>
+      </c>
+      <c r="L50" s="18">
         <v>3</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="18">
         <v>5</v>
       </c>
       <c r="N50">
         <v>2500</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>10221</v>
       </c>
@@ -3294,29 +3322,29 @@
       <c r="G51">
         <v>10</v>
       </c>
-      <c r="H51">
-        <v>12</v>
-      </c>
-      <c r="I51">
-        <v>18</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>10</v>
-      </c>
-      <c r="M51">
+      <c r="H51" s="22">
+        <v>0</v>
+      </c>
+      <c r="I51" s="22">
+        <v>0</v>
+      </c>
+      <c r="J51" s="22">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="K51" s="22">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="L51" s="18">
+        <v>10</v>
+      </c>
+      <c r="M51" s="18">
         <v>10</v>
       </c>
       <c r="N51">
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>10222</v>
       </c>
@@ -3339,29 +3367,32 @@
       <c r="G52">
         <v>10</v>
       </c>
-      <c r="H52">
-        <v>26</v>
-      </c>
-      <c r="I52">
-        <v>35</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
+      <c r="H52" s="22">
+        <v>0</v>
+      </c>
+      <c r="I52" s="22">
+        <v>0</v>
+      </c>
+      <c r="J52" s="22">
+        <v>31.2</v>
+      </c>
+      <c r="K52" s="22">
+        <v>42</v>
+      </c>
+      <c r="L52" s="18">
         <v>15</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="18">
         <v>15</v>
       </c>
       <c r="N52">
         <v>1600</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P52" s="20">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>10223</v>
       </c>
@@ -3384,29 +3415,29 @@
       <c r="G53">
         <v>10</v>
       </c>
-      <c r="H53">
-        <v>20</v>
-      </c>
-      <c r="I53">
-        <v>32</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
+      <c r="H53" s="22">
+        <v>24</v>
+      </c>
+      <c r="I53" s="22">
+        <v>38.4</v>
+      </c>
+      <c r="J53" s="22">
+        <v>0</v>
+      </c>
+      <c r="K53" s="22">
+        <v>0</v>
+      </c>
+      <c r="L53" s="18">
         <v>12</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="18">
         <v>12</v>
       </c>
       <c r="N53">
         <v>2000</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>10224</v>
       </c>
@@ -3429,29 +3460,29 @@
       <c r="G54">
         <v>10</v>
       </c>
-      <c r="H54">
-        <v>30</v>
-      </c>
-      <c r="I54">
-        <v>48</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
+      <c r="H54" s="22">
+        <v>36</v>
+      </c>
+      <c r="I54" s="22">
+        <v>57.599999999999994</v>
+      </c>
+      <c r="J54" s="22">
+        <v>0</v>
+      </c>
+      <c r="K54" s="22">
+        <v>0</v>
+      </c>
+      <c r="L54" s="18">
         <v>18</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="18">
         <v>18</v>
       </c>
       <c r="N54">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>10225</v>
       </c>
@@ -3474,29 +3505,29 @@
       <c r="G55">
         <v>10</v>
       </c>
-      <c r="H55">
-        <v>22</v>
-      </c>
-      <c r="I55">
-        <v>34</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
+      <c r="H55" s="22">
+        <v>26.4</v>
+      </c>
+      <c r="I55" s="22">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="J55" s="22">
+        <v>0</v>
+      </c>
+      <c r="K55" s="22">
+        <v>0</v>
+      </c>
+      <c r="L55" s="18">
         <v>15</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="18">
         <v>15</v>
       </c>
       <c r="N55">
         <v>2000</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>10226</v>
       </c>
@@ -3519,29 +3550,29 @@
       <c r="G56">
         <v>10</v>
       </c>
-      <c r="H56">
-        <v>33</v>
-      </c>
-      <c r="I56">
-        <v>51</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
+      <c r="H56" s="22">
+        <v>39.6</v>
+      </c>
+      <c r="I56" s="22">
+        <v>61.199999999999996</v>
+      </c>
+      <c r="J56" s="22">
+        <v>0</v>
+      </c>
+      <c r="K56" s="22">
+        <v>0</v>
+      </c>
+      <c r="L56" s="18">
         <v>20</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="18">
         <v>20</v>
       </c>
       <c r="N56">
         <v>1500</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>10301</v>
       </c>
@@ -3564,29 +3595,29 @@
       <c r="G57">
         <v>10</v>
       </c>
-      <c r="H57">
-        <v>25</v>
-      </c>
-      <c r="I57">
-        <v>40</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>10</v>
-      </c>
-      <c r="M57">
+      <c r="H57" s="22">
+        <v>0</v>
+      </c>
+      <c r="I57" s="22">
+        <v>0</v>
+      </c>
+      <c r="J57" s="22">
+        <v>37.5</v>
+      </c>
+      <c r="K57" s="22">
+        <v>60</v>
+      </c>
+      <c r="L57" s="18">
+        <v>10</v>
+      </c>
+      <c r="M57" s="18">
         <v>25</v>
       </c>
       <c r="N57">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>10302</v>
       </c>
@@ -3609,29 +3640,29 @@
       <c r="G58">
         <v>10</v>
       </c>
-      <c r="H58">
-        <v>15</v>
-      </c>
-      <c r="I58">
-        <v>20</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
+      <c r="H58" s="22">
+        <v>22.5</v>
+      </c>
+      <c r="I58" s="22">
+        <v>30</v>
+      </c>
+      <c r="J58" s="22">
+        <v>0</v>
+      </c>
+      <c r="K58" s="22">
+        <v>0</v>
+      </c>
+      <c r="L58" s="18">
         <v>5</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="18">
         <v>5</v>
       </c>
       <c r="N58">
         <v>1600</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>10303</v>
       </c>
@@ -3654,29 +3685,29 @@
       <c r="G59">
         <v>10</v>
       </c>
-      <c r="H59">
-        <v>16</v>
-      </c>
-      <c r="I59">
-        <v>30</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>10</v>
-      </c>
-      <c r="M59">
+      <c r="H59" s="22">
+        <v>24</v>
+      </c>
+      <c r="I59" s="22">
+        <v>45</v>
+      </c>
+      <c r="J59" s="22">
+        <v>0</v>
+      </c>
+      <c r="K59" s="22">
+        <v>0</v>
+      </c>
+      <c r="L59" s="18">
+        <v>10</v>
+      </c>
+      <c r="M59" s="18">
         <v>20</v>
       </c>
       <c r="N59">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>10304</v>
       </c>
@@ -3699,29 +3730,29 @@
       <c r="G60">
         <v>10</v>
       </c>
-      <c r="H60">
-        <v>26</v>
-      </c>
-      <c r="I60">
-        <v>35</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
+      <c r="H60" s="22">
+        <v>39</v>
+      </c>
+      <c r="I60" s="22">
+        <v>52.5</v>
+      </c>
+      <c r="J60" s="22">
+        <v>0</v>
+      </c>
+      <c r="K60" s="22">
+        <v>0</v>
+      </c>
+      <c r="L60" s="18">
         <v>9</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="18">
         <v>19</v>
       </c>
       <c r="N60">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <v>10305</v>
       </c>
@@ -3744,29 +3775,32 @@
       <c r="G61">
         <v>10</v>
       </c>
-      <c r="H61">
-        <v>20</v>
-      </c>
-      <c r="I61">
-        <v>36</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>10</v>
-      </c>
-      <c r="M61">
+      <c r="H61" s="22">
+        <v>30</v>
+      </c>
+      <c r="I61" s="22">
+        <v>54</v>
+      </c>
+      <c r="J61" s="22">
+        <v>0</v>
+      </c>
+      <c r="K61" s="22">
+        <v>0</v>
+      </c>
+      <c r="L61" s="18">
+        <v>10</v>
+      </c>
+      <c r="M61" s="18">
         <v>20</v>
       </c>
       <c r="N61">
         <v>2000</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P61" s="20">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
         <v>10306</v>
       </c>
@@ -3789,29 +3823,29 @@
       <c r="G62">
         <v>10</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
+      <c r="H62" s="22">
+        <v>0</v>
+      </c>
+      <c r="I62" s="22">
+        <v>0</v>
+      </c>
+      <c r="J62" s="22">
+        <v>0</v>
+      </c>
+      <c r="K62" s="22">
+        <v>0</v>
+      </c>
+      <c r="L62" s="18">
         <v>3</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="18">
         <v>10</v>
       </c>
       <c r="N62">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>10307</v>
       </c>
@@ -3834,29 +3868,29 @@
       <c r="G63">
         <v>10</v>
       </c>
-      <c r="H63">
-        <v>18</v>
-      </c>
-      <c r="I63">
-        <v>34</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
+      <c r="H63" s="22">
+        <v>27</v>
+      </c>
+      <c r="I63" s="22">
+        <v>51</v>
+      </c>
+      <c r="J63" s="22">
+        <v>0</v>
+      </c>
+      <c r="K63" s="22">
+        <v>0</v>
+      </c>
+      <c r="L63" s="18">
         <v>8</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="18">
         <v>11</v>
       </c>
       <c r="N63">
         <v>1800</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
         <v>10308</v>
       </c>
@@ -3879,29 +3913,29 @@
       <c r="G64">
         <v>10</v>
       </c>
-      <c r="H64">
-        <v>29</v>
-      </c>
-      <c r="I64">
-        <v>52</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
+      <c r="H64" s="22">
+        <v>43.5</v>
+      </c>
+      <c r="I64" s="22">
+        <v>78</v>
+      </c>
+      <c r="J64" s="22">
+        <v>0</v>
+      </c>
+      <c r="K64" s="22">
+        <v>0</v>
+      </c>
+      <c r="L64" s="18">
         <v>14</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="18">
         <v>16</v>
       </c>
       <c r="N64">
         <v>1500</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>10309</v>
       </c>
@@ -3924,29 +3958,29 @@
       <c r="G65">
         <v>10</v>
       </c>
-      <c r="H65">
-        <v>26</v>
-      </c>
-      <c r="I65">
-        <v>44</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>10</v>
-      </c>
-      <c r="M65">
+      <c r="H65" s="22">
+        <v>0</v>
+      </c>
+      <c r="I65" s="22">
+        <v>0</v>
+      </c>
+      <c r="J65" s="22">
+        <v>39</v>
+      </c>
+      <c r="K65" s="22">
+        <v>66</v>
+      </c>
+      <c r="L65" s="18">
+        <v>10</v>
+      </c>
+      <c r="M65" s="18">
         <v>12</v>
       </c>
       <c r="N65">
         <v>2000</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <v>10401</v>
       </c>
@@ -3969,29 +4003,29 @@
       <c r="G66">
         <v>10</v>
       </c>
-      <c r="H66">
-        <v>15</v>
-      </c>
-      <c r="I66">
-        <v>25</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
+      <c r="H66" s="22">
+        <v>22.5</v>
+      </c>
+      <c r="I66" s="22">
+        <v>37.5</v>
+      </c>
+      <c r="J66" s="22">
+        <v>0</v>
+      </c>
+      <c r="K66" s="22">
+        <v>0</v>
+      </c>
+      <c r="L66" s="18">
         <v>3</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="18">
         <v>3</v>
       </c>
       <c r="N66">
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <v>10402</v>
       </c>
@@ -4014,29 +4048,32 @@
       <c r="G67">
         <v>10</v>
       </c>
-      <c r="H67">
-        <v>20</v>
-      </c>
-      <c r="I67">
-        <v>38</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
+      <c r="H67" s="22">
+        <v>30</v>
+      </c>
+      <c r="I67" s="22">
+        <v>57</v>
+      </c>
+      <c r="J67" s="22">
+        <v>0</v>
+      </c>
+      <c r="K67" s="22">
+        <v>0</v>
+      </c>
+      <c r="L67" s="18">
         <v>3</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="18">
         <v>5</v>
       </c>
       <c r="N67">
         <v>2000</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P67" s="20">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>10403</v>
       </c>
@@ -4059,29 +4096,29 @@
       <c r="G68">
         <v>10</v>
       </c>
-      <c r="H68">
-        <v>20</v>
-      </c>
-      <c r="I68">
-        <v>42</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
+      <c r="H68" s="22">
+        <v>30</v>
+      </c>
+      <c r="I68" s="22">
+        <v>63</v>
+      </c>
+      <c r="J68" s="22">
+        <v>0</v>
+      </c>
+      <c r="K68" s="22">
+        <v>0</v>
+      </c>
+      <c r="L68" s="18">
         <v>3</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="18">
         <v>6</v>
       </c>
       <c r="N68">
         <v>2000</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>10404</v>
       </c>
@@ -4104,29 +4141,29 @@
       <c r="G69">
         <v>10</v>
       </c>
-      <c r="H69">
-        <v>20</v>
-      </c>
-      <c r="I69">
-        <v>42</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
+      <c r="H69" s="22">
+        <v>30</v>
+      </c>
+      <c r="I69" s="22">
+        <v>63</v>
+      </c>
+      <c r="J69" s="22">
+        <v>0</v>
+      </c>
+      <c r="K69" s="22">
+        <v>0</v>
+      </c>
+      <c r="L69" s="18">
         <v>3</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="18">
         <v>5</v>
       </c>
       <c r="N69">
         <v>2000</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <v>10405</v>
       </c>
@@ -4149,29 +4186,29 @@
       <c r="G70">
         <v>10</v>
       </c>
-      <c r="H70">
-        <v>22</v>
-      </c>
-      <c r="I70">
-        <v>45</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
+      <c r="H70" s="22">
+        <v>33</v>
+      </c>
+      <c r="I70" s="22">
+        <v>67.5</v>
+      </c>
+      <c r="J70" s="22">
+        <v>0</v>
+      </c>
+      <c r="K70" s="22">
+        <v>0</v>
+      </c>
+      <c r="L70" s="18">
         <v>5</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="18">
         <v>5</v>
       </c>
       <c r="N70">
         <v>2000</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A71" s="5">
         <v>10406</v>
       </c>
@@ -4194,29 +4231,29 @@
       <c r="G71">
         <v>10</v>
       </c>
-      <c r="H71">
-        <v>12</v>
-      </c>
-      <c r="I71">
-        <v>30</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
+      <c r="H71" s="22">
+        <v>18</v>
+      </c>
+      <c r="I71" s="22">
+        <v>45</v>
+      </c>
+      <c r="J71" s="22">
+        <v>0</v>
+      </c>
+      <c r="K71" s="22">
+        <v>0</v>
+      </c>
+      <c r="L71" s="18">
         <v>20</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="18">
         <v>10</v>
       </c>
       <c r="N71">
         <v>1500</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <v>10407</v>
       </c>
@@ -4239,29 +4276,29 @@
       <c r="G72">
         <v>10</v>
       </c>
-      <c r="H72">
-        <v>25</v>
-      </c>
-      <c r="I72">
-        <v>35</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
+      <c r="H72" s="22">
+        <v>37.5</v>
+      </c>
+      <c r="I72" s="22">
+        <v>52.5</v>
+      </c>
+      <c r="J72" s="22">
+        <v>0</v>
+      </c>
+      <c r="K72" s="22">
+        <v>0</v>
+      </c>
+      <c r="L72" s="18">
         <v>5</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="18">
         <v>5</v>
       </c>
       <c r="N72">
         <v>2000</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73" s="5">
         <v>10408</v>
       </c>
@@ -4284,29 +4321,29 @@
       <c r="G73">
         <v>10</v>
       </c>
-      <c r="H73">
-        <v>25</v>
-      </c>
-      <c r="I73">
-        <v>45</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
+      <c r="H73" s="22">
+        <v>37.5</v>
+      </c>
+      <c r="I73" s="22">
+        <v>67.5</v>
+      </c>
+      <c r="J73" s="22">
+        <v>0</v>
+      </c>
+      <c r="K73" s="22">
+        <v>0</v>
+      </c>
+      <c r="L73" s="18">
         <v>8</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="18">
         <v>10</v>
       </c>
       <c r="N73">
         <v>2000</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <v>10409</v>
       </c>
@@ -4329,29 +4366,29 @@
       <c r="G74">
         <v>10</v>
       </c>
-      <c r="H74">
-        <v>20</v>
-      </c>
-      <c r="I74">
-        <v>45</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
+      <c r="H74" s="22">
+        <v>30</v>
+      </c>
+      <c r="I74" s="22">
+        <v>67.5</v>
+      </c>
+      <c r="J74" s="22">
+        <v>0</v>
+      </c>
+      <c r="K74" s="22">
+        <v>0</v>
+      </c>
+      <c r="L74" s="18">
         <v>8</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="18">
         <v>7</v>
       </c>
       <c r="N74">
         <v>2000</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>10410</v>
       </c>
@@ -4374,29 +4411,29 @@
       <c r="G75">
         <v>10</v>
       </c>
-      <c r="H75">
-        <v>22</v>
-      </c>
-      <c r="I75">
-        <v>45</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>10</v>
-      </c>
-      <c r="M75">
+      <c r="H75" s="22">
+        <v>33</v>
+      </c>
+      <c r="I75" s="22">
+        <v>67.5</v>
+      </c>
+      <c r="J75" s="22">
+        <v>0</v>
+      </c>
+      <c r="K75" s="22">
+        <v>0</v>
+      </c>
+      <c r="L75" s="18">
+        <v>10</v>
+      </c>
+      <c r="M75" s="18">
         <v>10</v>
       </c>
       <c r="N75">
         <v>2000</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <v>10411</v>
       </c>
@@ -4419,29 +4456,29 @@
       <c r="G76">
         <v>10</v>
       </c>
-      <c r="H76">
-        <v>30</v>
-      </c>
-      <c r="I76">
-        <v>50</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
+      <c r="H76" s="22">
+        <v>45</v>
+      </c>
+      <c r="I76" s="22">
+        <v>75</v>
+      </c>
+      <c r="J76" s="22">
+        <v>0</v>
+      </c>
+      <c r="K76" s="22">
+        <v>0</v>
+      </c>
+      <c r="L76" s="18">
         <v>12</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="18">
         <v>15</v>
       </c>
       <c r="N76">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A77" s="5">
         <v>10412</v>
       </c>
@@ -4464,29 +4501,29 @@
       <c r="G77">
         <v>10</v>
       </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>20</v>
-      </c>
-      <c r="K77">
-        <v>75</v>
-      </c>
-      <c r="L77">
+      <c r="H77" s="22">
+        <v>0</v>
+      </c>
+      <c r="I77" s="22">
+        <v>0</v>
+      </c>
+      <c r="J77" s="22">
+        <v>30</v>
+      </c>
+      <c r="K77" s="22">
+        <v>112.5</v>
+      </c>
+      <c r="L77" s="18">
         <v>9</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="18">
         <v>12</v>
       </c>
       <c r="N77">
         <v>2000</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A78" s="5">
         <v>10413</v>
       </c>
@@ -4509,29 +4546,29 @@
       <c r="G78">
         <v>10</v>
       </c>
-      <c r="H78">
-        <v>40</v>
-      </c>
-      <c r="I78">
-        <v>65</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>10</v>
-      </c>
-      <c r="M78">
+      <c r="H78" s="22">
+        <v>60</v>
+      </c>
+      <c r="I78" s="22">
+        <v>97.5</v>
+      </c>
+      <c r="J78" s="22">
+        <v>0</v>
+      </c>
+      <c r="K78" s="22">
+        <v>0</v>
+      </c>
+      <c r="L78" s="18">
+        <v>10</v>
+      </c>
+      <c r="M78" s="18">
         <v>13</v>
       </c>
       <c r="N78">
         <v>2000</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A79" s="5">
         <v>10414</v>
       </c>
@@ -4554,29 +4591,29 @@
       <c r="G79">
         <v>10</v>
       </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>30</v>
-      </c>
-      <c r="K79">
-        <v>60</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
+      <c r="H79" s="22">
+        <v>0</v>
+      </c>
+      <c r="I79" s="22">
+        <v>0</v>
+      </c>
+      <c r="J79" s="22">
+        <v>45</v>
+      </c>
+      <c r="K79" s="22">
+        <v>90</v>
+      </c>
+      <c r="L79" s="18">
+        <v>0</v>
+      </c>
+      <c r="M79" s="18">
         <v>0</v>
       </c>
       <c r="N79">
         <v>2000</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A80" s="5">
         <v>10601</v>
       </c>
@@ -4599,29 +4636,29 @@
       <c r="G80">
         <v>10</v>
       </c>
-      <c r="H80">
-        <v>30</v>
-      </c>
-      <c r="I80">
-        <v>50</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
+      <c r="H80" s="22">
+        <v>0</v>
+      </c>
+      <c r="I80" s="22">
+        <v>0</v>
+      </c>
+      <c r="J80" s="22">
+        <v>60</v>
+      </c>
+      <c r="K80" s="22">
+        <v>100</v>
+      </c>
+      <c r="L80" s="18">
         <v>12</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="18">
         <v>12</v>
       </c>
       <c r="N80">
         <v>2000</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <v>10602</v>
       </c>
@@ -4644,29 +4681,29 @@
       <c r="G81">
         <v>10</v>
       </c>
-      <c r="H81">
-        <v>33</v>
-      </c>
-      <c r="I81">
-        <v>60</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
+      <c r="H81" s="22">
+        <v>0</v>
+      </c>
+      <c r="I81" s="22">
+        <v>0</v>
+      </c>
+      <c r="J81" s="22">
+        <v>66</v>
+      </c>
+      <c r="K81" s="22">
+        <v>120</v>
+      </c>
+      <c r="L81" s="18">
         <v>12</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="18">
         <v>12</v>
       </c>
       <c r="N81">
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A82" s="5">
         <v>10603</v>
       </c>
@@ -4689,29 +4726,32 @@
       <c r="G82">
         <v>10</v>
       </c>
-      <c r="H82">
-        <v>33</v>
-      </c>
-      <c r="I82">
-        <v>60</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
+      <c r="H82" s="22">
+        <v>66</v>
+      </c>
+      <c r="I82" s="22">
+        <v>120</v>
+      </c>
+      <c r="J82" s="22">
+        <v>0</v>
+      </c>
+      <c r="K82" s="22">
+        <v>0</v>
+      </c>
+      <c r="L82" s="18">
         <v>12</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="18">
         <v>12</v>
       </c>
       <c r="N82">
         <v>2000</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P82" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A83" s="5">
         <v>10604</v>
       </c>
@@ -4734,29 +4774,29 @@
       <c r="G83">
         <v>10</v>
       </c>
-      <c r="H83">
-        <v>40</v>
-      </c>
-      <c r="I83">
-        <v>62</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
+      <c r="H83" s="22">
+        <v>80</v>
+      </c>
+      <c r="I83" s="22">
+        <v>124</v>
+      </c>
+      <c r="J83" s="22">
+        <v>0</v>
+      </c>
+      <c r="K83" s="22">
+        <v>0</v>
+      </c>
+      <c r="L83" s="18">
         <v>12</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="18">
         <v>12</v>
       </c>
       <c r="N83">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A84" s="5">
         <v>10605</v>
       </c>
@@ -4779,29 +4819,29 @@
       <c r="G84">
         <v>10</v>
       </c>
-      <c r="H84">
-        <v>40</v>
-      </c>
-      <c r="I84">
-        <v>65</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
+      <c r="H84" s="22">
+        <v>80</v>
+      </c>
+      <c r="I84" s="22">
+        <v>130</v>
+      </c>
+      <c r="J84" s="22">
+        <v>0</v>
+      </c>
+      <c r="K84" s="22">
+        <v>0</v>
+      </c>
+      <c r="L84" s="18">
         <v>12</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="18">
         <v>12</v>
       </c>
       <c r="N84">
         <v>2000</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
         <v>10606</v>
       </c>
@@ -4824,29 +4864,29 @@
       <c r="G85">
         <v>10</v>
       </c>
-      <c r="H85">
-        <v>50</v>
-      </c>
-      <c r="I85">
-        <v>65</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
+      <c r="H85" s="22">
+        <v>100</v>
+      </c>
+      <c r="I85" s="22">
+        <v>130</v>
+      </c>
+      <c r="J85" s="22">
+        <v>0</v>
+      </c>
+      <c r="K85" s="22">
+        <v>0</v>
+      </c>
+      <c r="L85" s="18">
         <v>12</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="18">
         <v>12</v>
       </c>
       <c r="N85">
         <v>2000</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A86" s="5">
         <v>10701</v>
       </c>
@@ -4869,29 +4909,29 @@
       <c r="G86">
         <v>10</v>
       </c>
-      <c r="H86">
-        <v>20</v>
-      </c>
-      <c r="I86">
-        <v>35</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
+      <c r="H86" s="22">
+        <v>50</v>
+      </c>
+      <c r="I86" s="22">
+        <v>87.5</v>
+      </c>
+      <c r="J86" s="22">
+        <v>0</v>
+      </c>
+      <c r="K86" s="22">
+        <v>0</v>
+      </c>
+      <c r="L86" s="18">
         <v>15</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="18">
         <v>15</v>
       </c>
       <c r="N86">
         <v>1200</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
         <v>10702</v>
       </c>
@@ -4913,29 +4953,29 @@
       <c r="G87">
         <v>10</v>
       </c>
-      <c r="H87">
-        <v>8</v>
-      </c>
-      <c r="I87">
-        <v>10</v>
-      </c>
-      <c r="J87">
+      <c r="H87" s="22">
+        <v>20</v>
+      </c>
+      <c r="I87" s="22">
+        <v>25</v>
+      </c>
+      <c r="J87" s="22">
+        <v>37.5</v>
+      </c>
+      <c r="K87" s="22">
+        <v>75</v>
+      </c>
+      <c r="L87" s="18">
         <v>15</v>
       </c>
-      <c r="K87">
-        <v>30</v>
-      </c>
-      <c r="L87">
-        <v>15</v>
-      </c>
-      <c r="M87">
+      <c r="M87" s="18">
         <v>18</v>
       </c>
       <c r="N87">
         <v>1200</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A88" s="5">
         <v>10703</v>
       </c>
@@ -4958,29 +4998,29 @@
       <c r="G88">
         <v>10</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="22">
+        <v>37.5</v>
+      </c>
+      <c r="I88" s="22">
+        <v>37.5</v>
+      </c>
+      <c r="J88" s="22">
+        <v>37.5</v>
+      </c>
+      <c r="K88" s="22">
+        <v>62.5</v>
+      </c>
+      <c r="L88" s="18">
         <v>15</v>
       </c>
-      <c r="I88">
-        <v>15</v>
-      </c>
-      <c r="J88">
-        <v>15</v>
-      </c>
-      <c r="K88">
-        <v>25</v>
-      </c>
-      <c r="L88">
-        <v>15</v>
-      </c>
-      <c r="M88">
+      <c r="M88" s="18">
         <v>15</v>
       </c>
       <c r="N88">
         <v>1200</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A89" s="5">
         <v>10704</v>
       </c>
@@ -5003,29 +5043,29 @@
       <c r="G89">
         <v>10</v>
       </c>
-      <c r="H89">
-        <v>60</v>
-      </c>
-      <c r="I89">
-        <v>60</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
+      <c r="H89" s="22">
+        <v>150</v>
+      </c>
+      <c r="I89" s="22">
+        <v>150</v>
+      </c>
+      <c r="J89" s="22">
+        <v>0</v>
+      </c>
+      <c r="K89" s="22">
+        <v>0</v>
+      </c>
+      <c r="L89" s="18">
         <v>15</v>
       </c>
-      <c r="M89">
+      <c r="M89" s="18">
         <v>15</v>
       </c>
       <c r="N89">
         <v>2000</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A90" s="5">
         <v>10705</v>
       </c>
@@ -5048,29 +5088,32 @@
       <c r="G90">
         <v>10</v>
       </c>
-      <c r="H90">
-        <v>60</v>
-      </c>
-      <c r="I90">
-        <v>60</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
+      <c r="H90" s="22">
+        <v>150</v>
+      </c>
+      <c r="I90" s="22">
+        <v>150</v>
+      </c>
+      <c r="J90" s="22">
+        <v>0</v>
+      </c>
+      <c r="K90" s="22">
+        <v>0</v>
+      </c>
+      <c r="L90" s="18">
         <v>15</v>
       </c>
-      <c r="M90">
+      <c r="M90" s="18">
         <v>15</v>
       </c>
       <c r="N90">
         <v>2000</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P90" s="20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A91" s="5">
         <v>10706</v>
       </c>
@@ -5093,29 +5136,29 @@
       <c r="G91">
         <v>10</v>
       </c>
-      <c r="H91">
-        <v>40</v>
-      </c>
-      <c r="I91">
-        <v>80</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
+      <c r="H91" s="22">
+        <v>100</v>
+      </c>
+      <c r="I91" s="22">
+        <v>200</v>
+      </c>
+      <c r="J91" s="22">
+        <v>0</v>
+      </c>
+      <c r="K91" s="22">
+        <v>0</v>
+      </c>
+      <c r="L91" s="18">
         <v>15</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="18">
         <v>25</v>
       </c>
       <c r="N91">
         <v>2000</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A92" s="5">
         <v>10707</v>
       </c>
@@ -5138,29 +5181,29 @@
       <c r="G92">
         <v>10</v>
       </c>
-      <c r="H92">
-        <v>25</v>
-      </c>
-      <c r="I92">
-        <v>50</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
+      <c r="H92" s="22">
+        <v>62.5</v>
+      </c>
+      <c r="I92" s="22">
+        <v>125</v>
+      </c>
+      <c r="J92" s="22">
+        <v>0</v>
+      </c>
+      <c r="K92" s="22">
+        <v>0</v>
+      </c>
+      <c r="L92" s="18">
         <v>45</v>
       </c>
-      <c r="M92">
+      <c r="M92" s="18">
         <v>10</v>
       </c>
       <c r="N92">
         <v>2100</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>10708</v>
       </c>
@@ -5183,29 +5226,29 @@
       <c r="G93">
         <v>10</v>
       </c>
-      <c r="H93">
-        <v>40</v>
-      </c>
-      <c r="I93">
-        <v>40</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93">
+      <c r="H93" s="22">
+        <v>100</v>
+      </c>
+      <c r="I93" s="22">
+        <v>100</v>
+      </c>
+      <c r="J93" s="22">
+        <v>0</v>
+      </c>
+      <c r="K93" s="22">
+        <v>0</v>
+      </c>
+      <c r="L93" s="18">
         <v>15</v>
       </c>
-      <c r="M93">
+      <c r="M93" s="18">
         <v>15</v>
       </c>
       <c r="N93">
         <v>2300</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
         <v>10709</v>
       </c>
@@ -5228,29 +5271,29 @@
       <c r="G94">
         <v>10</v>
       </c>
-      <c r="H94">
-        <v>50</v>
-      </c>
-      <c r="I94">
-        <v>120</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
+      <c r="H94" s="22">
+        <v>125</v>
+      </c>
+      <c r="I94" s="22">
+        <v>300</v>
+      </c>
+      <c r="J94" s="22">
+        <v>0</v>
+      </c>
+      <c r="K94" s="22">
+        <v>0</v>
+      </c>
+      <c r="L94" s="18">
         <v>20</v>
       </c>
-      <c r="M94">
+      <c r="M94" s="18">
         <v>25</v>
       </c>
       <c r="N94">
         <v>1900</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A95" s="5">
         <v>10710</v>
       </c>
@@ -5273,29 +5316,29 @@
       <c r="G95">
         <v>10</v>
       </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>20</v>
-      </c>
-      <c r="K95">
-        <v>140</v>
-      </c>
-      <c r="L95">
-        <v>10</v>
-      </c>
-      <c r="M95">
+      <c r="H95" s="22">
+        <v>0</v>
+      </c>
+      <c r="I95" s="22">
+        <v>0</v>
+      </c>
+      <c r="J95" s="22">
+        <v>50</v>
+      </c>
+      <c r="K95" s="22">
+        <v>350</v>
+      </c>
+      <c r="L95" s="18">
+        <v>10</v>
+      </c>
+      <c r="M95" s="18">
         <v>15</v>
       </c>
       <c r="N95">
         <v>2000</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A96" s="5">
         <v>10711</v>
       </c>
@@ -5318,22 +5361,22 @@
       <c r="G96">
         <v>10</v>
       </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>30</v>
-      </c>
-      <c r="K96">
-        <v>80</v>
-      </c>
-      <c r="L96">
-        <v>10</v>
-      </c>
-      <c r="M96">
+      <c r="H96" s="22">
+        <v>0</v>
+      </c>
+      <c r="I96" s="22">
+        <v>0</v>
+      </c>
+      <c r="J96" s="22">
+        <v>75</v>
+      </c>
+      <c r="K96" s="22">
+        <v>200</v>
+      </c>
+      <c r="L96" s="18">
+        <v>10</v>
+      </c>
+      <c r="M96" s="18">
         <v>20</v>
       </c>
       <c r="N96">
@@ -5354,7 +5397,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5671,10 +5714,10 @@
         <v>30</v>
       </c>
       <c r="J7">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L7">
         <v>17</v>
@@ -5806,10 +5849,10 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L10">
         <v>20</v>
@@ -5896,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -6031,10 +6074,10 @@
         <v>20</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K15">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L15">
         <v>10</v>
@@ -6076,10 +6119,10 @@
         <v>35</v>
       </c>
       <c r="J16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L16">
         <v>20</v>
@@ -6121,10 +6164,10 @@
         <v>23</v>
       </c>
       <c r="J17">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="L17">
         <v>20</v>
@@ -6166,10 +6209,10 @@
         <v>23</v>
       </c>
       <c r="J18">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="L18">
         <v>20</v>
@@ -6211,10 +6254,10 @@
         <v>35</v>
       </c>
       <c r="J19">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K19">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L19">
         <v>18</v>
@@ -6256,10 +6299,10 @@
         <v>35</v>
       </c>
       <c r="J20">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L20">
         <v>20</v>
@@ -6301,10 +6344,10 @@
         <v>35</v>
       </c>
       <c r="J21">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L21">
         <v>17</v>
@@ -6346,10 +6389,10 @@
         <v>35</v>
       </c>
       <c r="J22">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L22">
         <v>20</v>
@@ -6481,10 +6524,10 @@
         <v>35</v>
       </c>
       <c r="J25">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="K25">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="L25">
         <v>15</v>
@@ -6571,10 +6614,10 @@
         <v>50</v>
       </c>
       <c r="J27">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="K27">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L27">
         <v>10</v>
@@ -6616,10 +6659,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K28">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="L28">
         <v>12</v>
@@ -6751,10 +6794,10 @@
         <v>100</v>
       </c>
       <c r="J31">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K31">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L31">
         <v>25</v>
@@ -6796,10 +6839,10 @@
         <v>40</v>
       </c>
       <c r="J32">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K32">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L32">
         <v>50</v>
@@ -6841,10 +6884,10 @@
         <v>28</v>
       </c>
       <c r="J33">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K33">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="L33">
         <v>12</v>
@@ -6886,10 +6929,10 @@
         <v>28</v>
       </c>
       <c r="J34">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K34">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="L34">
         <v>12</v>
@@ -6931,10 +6974,10 @@
         <v>28</v>
       </c>
       <c r="J35">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K35">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="L35">
         <v>12</v>
@@ -6976,10 +7019,10 @@
         <v>28</v>
       </c>
       <c r="J36">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K36">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="L36">
         <v>12</v>
@@ -7021,10 +7064,10 @@
         <v>28</v>
       </c>
       <c r="J37">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K37">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="L37">
         <v>12</v>
@@ -7066,10 +7109,10 @@
         <v>28</v>
       </c>
       <c r="J38">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K38">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="L38">
         <v>12</v>
@@ -7111,10 +7154,10 @@
         <v>37</v>
       </c>
       <c r="J39">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="K39">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="L39">
         <v>30</v>
@@ -7156,10 +7199,10 @@
         <v>50</v>
       </c>
       <c r="J40">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="K40">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L40">
         <v>25</v>
@@ -7201,10 +7244,10 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -7246,10 +7289,10 @@
         <v>125</v>
       </c>
       <c r="J42">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K42">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="L42">
         <v>50</v>
@@ -7381,10 +7424,10 @@
         <v>35</v>
       </c>
       <c r="J45">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="K45">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L45">
         <v>20</v>
@@ -7426,10 +7469,10 @@
         <v>50</v>
       </c>
       <c r="J46">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K46">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L46">
         <v>100</v>

--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -11,7 +11,6 @@
     <sheet name="BOSS怪属性" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -5396,8 +5395,8 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6833,16 +6832,16 @@
         <v>100</v>
       </c>
       <c r="H32">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I32">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J32">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K32">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L32">
         <v>50</v>

--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -5395,8 +5395,8 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5710,13 +5710,13 @@
         <v>17</v>
       </c>
       <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>17</v>
+      </c>
+      <c r="K7">
         <v>30</v>
-      </c>
-      <c r="J7">
-        <v>34</v>
-      </c>
-      <c r="K7">
-        <v>60</v>
       </c>
       <c r="L7">
         <v>17</v>
@@ -5848,10 +5848,10 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L10">
         <v>20</v>

--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="90" windowWidth="10275" windowHeight="9435" activeTab="1"/>
+    <workbookView xWindow="7995" yWindow="405" windowWidth="16110" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="普通怪属性" sheetId="1" r:id="rId1"/>
-    <sheet name="BOSS怪属性" sheetId="2" r:id="rId2"/>
+    <sheet name="怪物属性表" sheetId="1" r:id="rId1"/>
+    <sheet name="Monster_boss" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -468,6 +468,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>祖玛弓箭手3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>MCMin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -476,18 +480,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>祖玛弓箭手3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCMin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCMax</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Lvl</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -499,10 +491,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>古墓石王</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -519,10 +507,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attack_speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>邪恶巨人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -533,6 +517,34 @@
   <si>
     <t>蜜蜂</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石墓尸王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCMin</t>
+  </si>
+  <si>
+    <t>DCMax</t>
+  </si>
+  <si>
+    <t>MCMin</t>
+  </si>
+  <si>
+    <t>MCMax</t>
   </si>
 </sst>
 </file>
@@ -544,7 +556,7 @@
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -589,6 +601,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -612,12 +630,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -630,9 +645,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -664,29 +676,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1025,4365 +1048,4643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P96"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P85" sqref="P85"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.375" customWidth="1"/>
-    <col min="6" max="6" width="5.5" customWidth="1"/>
-    <col min="7" max="7" width="3.375" customWidth="1"/>
-    <col min="8" max="9" width="7.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="22" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.375" style="18" customWidth="1"/>
-    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="20"/>
+    <col min="1" max="1" width="6.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="17" customWidth="1"/>
+    <col min="7" max="7" width="3.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="18" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="L1" s="17" t="s">
+      <c r="H1" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="P1" s="19"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+      <c r="O1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" s="15"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>10001</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <f>A2</f>
         <v>10001</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="17">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="17">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="17">
         <v>5</v>
       </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2" s="22">
+      <c r="G2" s="17">
+        <v>10</v>
+      </c>
+      <c r="H2" s="18">
         <v>1</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="18">
         <v>1</v>
       </c>
-      <c r="J2" s="22">
-        <v>0</v>
-      </c>
-      <c r="K2" s="22">
-        <v>0</v>
-      </c>
-      <c r="L2" s="18">
-        <v>0</v>
-      </c>
-      <c r="M2" s="18">
-        <v>0</v>
-      </c>
-      <c r="N2">
+      <c r="J2" s="18">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0</v>
+      </c>
+      <c r="L2" s="19">
+        <v>0</v>
+      </c>
+      <c r="M2" s="19">
+        <v>0</v>
+      </c>
+      <c r="N2" s="19">
+        <v>3</v>
+      </c>
+      <c r="O2" s="17">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>10002</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <f t="shared" ref="C3:C38" si="0">A3</f>
         <v>10002</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="17">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="17">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="17">
         <v>25</v>
       </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="G3" s="17">
+        <v>10</v>
+      </c>
+      <c r="H3" s="18">
         <v>2</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="18">
         <v>4</v>
       </c>
-      <c r="J3" s="22">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22">
-        <v>0</v>
-      </c>
-      <c r="L3" s="18">
-        <v>0</v>
-      </c>
-      <c r="M3" s="18">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19">
+        <v>0</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0</v>
+      </c>
+      <c r="N3" s="19">
+        <v>4</v>
+      </c>
+      <c r="O3" s="17">
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>10003</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <f t="shared" si="0"/>
         <v>10003</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="17">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="17">
         <v>20</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="17">
         <v>20</v>
       </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4" s="22">
+      <c r="G4" s="17">
+        <v>10</v>
+      </c>
+      <c r="H4" s="17">
         <v>1</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="20">
         <v>3</v>
       </c>
-      <c r="J4" s="22">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22">
-        <v>0</v>
-      </c>
-      <c r="L4" s="18">
-        <v>0</v>
-      </c>
-      <c r="M4" s="18">
-        <v>0</v>
-      </c>
-      <c r="N4">
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0</v>
+      </c>
+      <c r="N4" s="17">
+        <v>7</v>
+      </c>
+      <c r="O4" s="17">
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
         <v>10101</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>10101</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>27</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5" s="22">
+      <c r="D5" s="17">
+        <v>10</v>
+      </c>
+      <c r="E5" s="17">
+        <v>100</v>
+      </c>
+      <c r="F5" s="17">
+        <v>5</v>
+      </c>
+      <c r="G5" s="17">
+        <v>10</v>
+      </c>
+      <c r="H5" s="17">
         <v>1</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="20">
         <v>2</v>
       </c>
-      <c r="J5" s="22">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18">
-        <v>0</v>
-      </c>
-      <c r="M5" s="18">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0</v>
+      </c>
+      <c r="N5" s="17">
+        <v>5</v>
+      </c>
+      <c r="O5" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
         <v>10102</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>10102</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="17">
         <v>13</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="17">
         <v>17</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="17">
         <v>30</v>
       </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6" s="22">
+      <c r="G6" s="17">
+        <v>10</v>
+      </c>
+      <c r="H6" s="17">
         <v>2</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="20">
         <v>4</v>
       </c>
-      <c r="J6" s="22">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22">
-        <v>0</v>
-      </c>
-      <c r="L6" s="18">
-        <v>0</v>
-      </c>
-      <c r="M6" s="18">
-        <v>0</v>
-      </c>
-      <c r="N6">
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="N6" s="17">
+        <v>5</v>
+      </c>
+      <c r="O6" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
         <v>10103</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>10103</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="17">
         <v>13</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="17">
         <v>18</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="17">
         <v>32</v>
       </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7" s="22">
+      <c r="G7" s="17">
+        <v>10</v>
+      </c>
+      <c r="H7" s="17">
         <v>2</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="20">
         <v>4</v>
       </c>
-      <c r="J7" s="22">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22">
-        <v>0</v>
-      </c>
-      <c r="L7" s="18">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0</v>
+      </c>
+      <c r="N7" s="17">
+        <v>5</v>
+      </c>
+      <c r="O7" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
         <v>10104</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>10104</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="17">
         <v>12</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="17">
         <v>15</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="17">
         <v>20</v>
       </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8" s="22">
-        <v>0</v>
-      </c>
-      <c r="I8" s="22">
+      <c r="G8" s="17">
+        <v>10</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
         <v>5</v>
       </c>
-      <c r="J8" s="22">
-        <v>0</v>
-      </c>
-      <c r="K8" s="22">
-        <v>0</v>
-      </c>
-      <c r="L8" s="18">
-        <v>0</v>
-      </c>
-      <c r="M8" s="18">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+      <c r="N8" s="17">
+        <v>6</v>
+      </c>
+      <c r="O8" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
         <v>10105</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <f t="shared" si="0"/>
         <v>10105</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="17">
         <v>20</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="17">
         <v>28</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="17">
         <v>28</v>
       </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="H9" s="22">
+      <c r="G9" s="17">
+        <v>10</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>6</v>
+      </c>
+      <c r="K9" s="20">
+        <v>9</v>
+      </c>
+      <c r="L9" s="17">
         <v>2</v>
       </c>
-      <c r="I9" s="22">
-        <v>4</v>
-      </c>
-      <c r="J9" s="22">
-        <v>6</v>
-      </c>
-      <c r="K9" s="22">
+      <c r="M9" s="17">
+        <v>0</v>
+      </c>
+      <c r="N9" s="17">
         <v>9</v>
       </c>
-      <c r="L9" s="18">
-        <v>2</v>
-      </c>
-      <c r="M9" s="18">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="O9" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
         <v>10106</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <f t="shared" si="0"/>
         <v>10106</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="17">
         <v>16</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="17">
         <v>30</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="17">
         <v>36</v>
       </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="H10" s="22">
+      <c r="G10" s="17">
+        <v>10</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
         <v>7</v>
       </c>
-      <c r="I10" s="22">
-        <v>10</v>
-      </c>
-      <c r="J10" s="22">
-        <v>0</v>
-      </c>
-      <c r="K10" s="22">
-        <v>0</v>
-      </c>
-      <c r="L10" s="18">
+      <c r="K10" s="20">
+        <v>10</v>
+      </c>
+      <c r="L10" s="17">
         <v>2</v>
       </c>
-      <c r="M10" s="18">
-        <v>0</v>
-      </c>
-      <c r="N10">
+      <c r="M10" s="17">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17">
+        <v>6</v>
+      </c>
+      <c r="O10" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
         <v>10107</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
         <f t="shared" si="0"/>
         <v>10107</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="17">
         <v>15</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="17">
         <v>25</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="17">
         <v>30</v>
       </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="G11" s="17">
+        <v>10</v>
+      </c>
+      <c r="H11" s="17">
         <v>4</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="20">
         <v>9</v>
       </c>
-      <c r="J11" s="22">
-        <v>0</v>
-      </c>
-      <c r="K11" s="22">
-        <v>0</v>
-      </c>
-      <c r="L11" s="18">
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
         <v>1</v>
       </c>
-      <c r="M11" s="18">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="M11" s="17">
+        <v>0</v>
+      </c>
+      <c r="N11" s="17">
+        <v>6</v>
+      </c>
+      <c r="O11" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
         <v>10108</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <f t="shared" si="0"/>
         <v>10108</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="17">
         <v>22</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="17">
         <v>90</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="17">
         <v>100</v>
       </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12" s="22">
+      <c r="G12" s="17">
+        <v>10</v>
+      </c>
+      <c r="H12" s="17">
         <v>5</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="17">
         <v>12</v>
       </c>
-      <c r="J12" s="22">
-        <v>0</v>
-      </c>
-      <c r="K12" s="22">
-        <v>0</v>
-      </c>
-      <c r="L12" s="18">
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="L12" s="17">
         <v>3</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="17">
         <v>1</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="17">
+        <v>9</v>
+      </c>
+      <c r="O12" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
         <v>10109</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <f t="shared" si="0"/>
         <v>10109</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="17">
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="17">
         <v>25</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="17">
         <v>25</v>
       </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="H13" s="22">
+      <c r="G13" s="17">
+        <v>10</v>
+      </c>
+      <c r="H13" s="17">
         <v>4</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="17">
         <v>6</v>
       </c>
-      <c r="J13" s="22">
-        <v>0</v>
-      </c>
-      <c r="K13" s="22">
-        <v>0</v>
-      </c>
-      <c r="L13" s="18">
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
         <v>2</v>
       </c>
-      <c r="M13" s="18">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="M13" s="17">
+        <v>0</v>
+      </c>
+      <c r="N13" s="17">
+        <v>10</v>
+      </c>
+      <c r="O13" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
         <v>10110</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <f t="shared" si="0"/>
         <v>10110</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="17">
         <v>18</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="17">
         <v>45</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="17">
         <v>45</v>
       </c>
-      <c r="G14">
-        <v>10</v>
-      </c>
-      <c r="H14" s="22">
+      <c r="G14" s="17">
+        <v>10</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
         <v>7</v>
       </c>
-      <c r="I14" s="22">
+      <c r="K14" s="17">
         <v>16</v>
       </c>
-      <c r="J14" s="22">
-        <v>0</v>
-      </c>
-      <c r="K14" s="22">
-        <v>0</v>
-      </c>
-      <c r="L14" s="18">
+      <c r="L14" s="17">
         <v>2</v>
       </c>
-      <c r="M14" s="18">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="M14" s="17">
+        <v>0</v>
+      </c>
+      <c r="N14" s="17">
+        <v>9</v>
+      </c>
+      <c r="O14" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
         <v>10111</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <f t="shared" si="0"/>
         <v>10111</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="17">
         <v>21</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="17">
         <v>60</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="17">
         <v>65</v>
       </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15" s="22">
-        <v>0</v>
-      </c>
-      <c r="I15" s="22">
-        <v>0</v>
-      </c>
-      <c r="J15" s="22">
-        <v>10</v>
-      </c>
-      <c r="K15" s="22">
-        <v>16</v>
-      </c>
-      <c r="L15" s="18">
-        <v>0</v>
-      </c>
-      <c r="M15" s="18">
-        <v>0</v>
-      </c>
-      <c r="N15">
+      <c r="G15" s="17">
+        <v>10</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
+        <v>6</v>
+      </c>
+      <c r="K15" s="17">
+        <v>8</v>
+      </c>
+      <c r="L15" s="17">
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>0</v>
+      </c>
+      <c r="N15" s="17">
+        <v>10</v>
+      </c>
+      <c r="O15" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
         <v>10112</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <f t="shared" si="0"/>
         <v>10112</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="17">
         <v>18</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="17">
         <v>85</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="17">
         <v>90</v>
       </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-      <c r="H16" s="22">
+      <c r="G16" s="17">
+        <v>10</v>
+      </c>
+      <c r="H16" s="17">
         <v>7</v>
       </c>
-      <c r="I16" s="22">
-        <v>10</v>
-      </c>
-      <c r="J16" s="22">
-        <v>0</v>
-      </c>
-      <c r="K16" s="22">
-        <v>0</v>
-      </c>
-      <c r="L16" s="18">
-        <v>0</v>
-      </c>
-      <c r="M16" s="18">
-        <v>0</v>
-      </c>
-      <c r="N16">
+      <c r="I16" s="17">
+        <v>10</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18">
+        <v>0</v>
+      </c>
+      <c r="L16" s="17">
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>0</v>
+      </c>
+      <c r="N16" s="17">
+        <v>8</v>
+      </c>
+      <c r="O16" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
         <v>10113</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <f t="shared" si="0"/>
         <v>10113</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="17">
         <v>18</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="17">
         <v>90</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="17">
         <v>100</v>
       </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="H17" s="22">
-        <v>2</v>
-      </c>
-      <c r="I17" s="22">
-        <v>5</v>
-      </c>
-      <c r="J17" s="22">
-        <v>5</v>
-      </c>
-      <c r="K17" s="22">
-        <v>10</v>
-      </c>
-      <c r="L17" s="18">
-        <v>0</v>
-      </c>
-      <c r="M17" s="18">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="G17" s="17">
+        <v>10</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <v>4</v>
+      </c>
+      <c r="K17" s="17">
+        <v>9</v>
+      </c>
+      <c r="L17" s="17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="17">
+        <v>9</v>
+      </c>
+      <c r="O17" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="5">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
         <v>10114</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <f t="shared" si="0"/>
         <v>10114</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="17">
         <v>19</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="17">
         <v>95</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="17">
         <v>105</v>
       </c>
-      <c r="G18">
-        <v>10</v>
-      </c>
-      <c r="H18" s="22">
+      <c r="G18" s="17">
+        <v>10</v>
+      </c>
+      <c r="H18" s="17">
         <v>2</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="17">
         <v>15</v>
       </c>
-      <c r="J18" s="22">
-        <v>0</v>
-      </c>
-      <c r="K18" s="22">
-        <v>0</v>
-      </c>
-      <c r="L18" s="18">
-        <v>0</v>
-      </c>
-      <c r="M18" s="18">
-        <v>0</v>
-      </c>
-      <c r="N18">
+      <c r="J18" s="17">
+        <v>0</v>
+      </c>
+      <c r="K18" s="18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="17">
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <v>0</v>
+      </c>
+      <c r="N18" s="17">
+        <v>9</v>
+      </c>
+      <c r="O18" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
         <v>10115</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="8">
         <f t="shared" si="0"/>
         <v>10115</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="17">
         <v>20</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="17">
         <v>100</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="17">
         <v>110</v>
       </c>
-      <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="H19" s="22">
+      <c r="G19" s="17">
+        <v>10</v>
+      </c>
+      <c r="H19" s="17">
         <v>7</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="17">
         <v>13</v>
       </c>
-      <c r="J19" s="22">
-        <v>0</v>
-      </c>
-      <c r="K19" s="22">
-        <v>0</v>
-      </c>
-      <c r="L19" s="18">
+      <c r="J19" s="17">
+        <v>0</v>
+      </c>
+      <c r="K19" s="18">
+        <v>0</v>
+      </c>
+      <c r="L19" s="17">
         <v>2</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="17">
         <v>1</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="17">
+        <v>9</v>
+      </c>
+      <c r="O19" s="17">
         <v>2300</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="5">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
         <v>10116</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <f t="shared" si="0"/>
         <v>10116</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="17">
         <v>25</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="17">
         <v>160</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="17">
         <v>155</v>
       </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
-      <c r="H20" s="22">
+      <c r="G20" s="17">
+        <v>10</v>
+      </c>
+      <c r="H20" s="17">
         <v>12</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="17">
         <v>16</v>
       </c>
-      <c r="J20" s="22">
-        <v>0</v>
-      </c>
-      <c r="K20" s="22">
-        <v>0</v>
-      </c>
-      <c r="L20" s="18">
-        <v>2</v>
-      </c>
-      <c r="M20" s="18">
-        <v>1</v>
-      </c>
-      <c r="N20">
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="18">
+        <v>0</v>
+      </c>
+      <c r="L20" s="17">
+        <v>0</v>
+      </c>
+      <c r="M20" s="17">
+        <v>0</v>
+      </c>
+      <c r="N20" s="17">
+        <v>11</v>
+      </c>
+      <c r="O20" s="17">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="5">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
         <v>10117</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8">
         <f t="shared" si="0"/>
         <v>10117</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="17">
         <v>25</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="17">
         <v>160</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="17">
         <v>155</v>
       </c>
-      <c r="G21">
-        <v>10</v>
-      </c>
-      <c r="H21" s="22">
+      <c r="G21" s="17">
+        <v>10</v>
+      </c>
+      <c r="H21" s="17">
         <v>8</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="17">
         <v>17</v>
       </c>
-      <c r="J21" s="22">
-        <v>0</v>
-      </c>
-      <c r="K21" s="22">
-        <v>0</v>
-      </c>
-      <c r="L21" s="18">
+      <c r="J21" s="17">
+        <v>0</v>
+      </c>
+      <c r="K21" s="18">
+        <v>0</v>
+      </c>
+      <c r="L21" s="17">
         <v>2</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="17">
         <v>1</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="17">
+        <v>11</v>
+      </c>
+      <c r="O21" s="17">
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
         <v>10118</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <f t="shared" si="0"/>
         <v>10118</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="17">
         <v>25</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="17">
         <v>160</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="17">
         <v>155</v>
       </c>
-      <c r="G22">
-        <v>10</v>
-      </c>
-      <c r="H22" s="22">
+      <c r="G22" s="17">
+        <v>10</v>
+      </c>
+      <c r="H22" s="17">
         <v>6</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="17">
         <v>17</v>
       </c>
-      <c r="J22" s="22">
-        <v>0</v>
-      </c>
-      <c r="K22" s="22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="18">
-        <v>0</v>
-      </c>
-      <c r="M22" s="18">
-        <v>0</v>
-      </c>
-      <c r="N22">
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="18">
+        <v>0</v>
+      </c>
+      <c r="L22" s="17">
+        <v>2</v>
+      </c>
+      <c r="M22" s="17">
+        <v>1</v>
+      </c>
+      <c r="N22" s="17">
+        <v>11</v>
+      </c>
+      <c r="O22" s="17">
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="5">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
         <v>10119</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <f t="shared" si="0"/>
         <v>10119</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="17">
         <v>25</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="17">
         <v>160</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="17">
         <v>155</v>
       </c>
-      <c r="G23">
-        <v>10</v>
-      </c>
-      <c r="H23" s="22">
+      <c r="G23" s="17">
+        <v>10</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
         <v>6</v>
       </c>
-      <c r="I23" s="22">
+      <c r="K23" s="17">
         <v>17</v>
       </c>
-      <c r="J23" s="22">
-        <v>0</v>
-      </c>
-      <c r="K23" s="22">
-        <v>0</v>
-      </c>
-      <c r="L23" s="18">
+      <c r="L23" s="17">
         <v>2</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="17">
         <v>1</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="17">
+        <v>11</v>
+      </c>
+      <c r="O23" s="17">
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="5">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
         <v>10120</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="8">
         <f t="shared" si="0"/>
         <v>10120</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="17">
         <v>25</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="17">
         <v>160</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="17">
         <v>155</v>
       </c>
-      <c r="G24">
-        <v>10</v>
-      </c>
-      <c r="H24" s="22">
-        <v>0</v>
-      </c>
-      <c r="I24" s="22">
-        <v>0</v>
-      </c>
-      <c r="J24" s="22">
-        <v>12</v>
-      </c>
-      <c r="K24" s="22">
-        <v>20</v>
-      </c>
-      <c r="L24" s="18">
+      <c r="G24" s="17">
+        <v>10</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <v>6</v>
+      </c>
+      <c r="K24" s="17">
+        <v>17</v>
+      </c>
+      <c r="L24" s="17">
         <v>2</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="17">
         <v>1</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="17">
+        <v>11</v>
+      </c>
+      <c r="O24" s="17">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="5">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
         <v>10121</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <f t="shared" si="0"/>
         <v>10121</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="17">
         <v>26</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="17">
         <v>180</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="17">
         <v>155</v>
       </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25" s="22">
-        <v>0</v>
-      </c>
-      <c r="I25" s="22">
-        <v>0</v>
-      </c>
-      <c r="J25" s="22">
-        <v>18</v>
-      </c>
-      <c r="K25" s="22">
-        <v>34</v>
-      </c>
-      <c r="L25" s="18">
+      <c r="G25" s="17">
+        <v>10</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25" s="18">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
+        <v>9</v>
+      </c>
+      <c r="K25" s="17">
+        <v>17</v>
+      </c>
+      <c r="L25" s="17">
         <v>3</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="17">
         <v>2</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="17">
+        <v>11</v>
+      </c>
+      <c r="O25" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="5">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
         <v>10122</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <f t="shared" si="0"/>
         <v>10122</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="17">
         <v>26</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="17">
         <v>200</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="17">
         <v>165</v>
       </c>
-      <c r="G26">
-        <v>10</v>
-      </c>
-      <c r="H26" s="22">
+      <c r="G26" s="17">
+        <v>10</v>
+      </c>
+      <c r="H26" s="17">
         <v>9</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="17">
         <v>16</v>
       </c>
-      <c r="J26" s="22">
-        <v>0</v>
-      </c>
-      <c r="K26" s="22">
-        <v>0</v>
-      </c>
-      <c r="L26" s="18">
+      <c r="J26" s="17">
+        <v>0</v>
+      </c>
+      <c r="K26" s="18">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17">
         <v>3</v>
       </c>
-      <c r="M26" s="18">
+      <c r="M26" s="17">
         <v>2</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="17">
+        <v>13</v>
+      </c>
+      <c r="O26" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="5">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="4">
         <v>10123</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <f t="shared" si="0"/>
         <v>10123</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="17">
         <v>30</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="17">
         <v>260</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="17">
         <v>265</v>
       </c>
-      <c r="G27">
-        <v>10</v>
-      </c>
-      <c r="H27" s="22">
+      <c r="G27" s="17">
+        <v>10</v>
+      </c>
+      <c r="H27" s="17">
         <v>14</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="17">
         <v>28</v>
       </c>
-      <c r="J27" s="22">
-        <v>0</v>
-      </c>
-      <c r="K27" s="22">
-        <v>0</v>
-      </c>
-      <c r="L27" s="18">
+      <c r="J27" s="17">
+        <v>0</v>
+      </c>
+      <c r="K27" s="18">
+        <v>0</v>
+      </c>
+      <c r="L27" s="17">
         <v>3</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="17">
         <v>2</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="17">
+        <v>12</v>
+      </c>
+      <c r="O27" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="5">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
         <v>10124</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="8">
         <f t="shared" si="0"/>
         <v>10124</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="17">
         <v>30</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="17">
         <v>280</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="17">
         <v>285</v>
       </c>
-      <c r="G28">
-        <v>10</v>
-      </c>
-      <c r="H28" s="22">
+      <c r="G28" s="17">
+        <v>10</v>
+      </c>
+      <c r="H28" s="17">
         <v>16</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="17">
         <v>28</v>
       </c>
-      <c r="J28" s="22">
-        <v>0</v>
-      </c>
-      <c r="K28" s="22">
-        <v>0</v>
-      </c>
-      <c r="L28" s="18">
+      <c r="J28" s="17">
+        <v>0</v>
+      </c>
+      <c r="K28" s="18">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17">
         <v>3</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="17">
         <v>2</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="17">
+        <v>12</v>
+      </c>
+      <c r="O28" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="5">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
         <v>10125</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="8">
         <f t="shared" si="0"/>
         <v>10125</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="17">
         <v>30</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="17">
         <v>280</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="17">
         <v>285</v>
       </c>
-      <c r="G29">
-        <v>10</v>
-      </c>
-      <c r="H29" s="22">
+      <c r="G29" s="17">
+        <v>10</v>
+      </c>
+      <c r="H29" s="17">
         <v>15</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="17">
         <v>29</v>
       </c>
-      <c r="J29" s="22">
-        <v>0</v>
-      </c>
-      <c r="K29" s="22">
-        <v>0</v>
-      </c>
-      <c r="L29" s="18">
+      <c r="J29" s="17">
+        <v>0</v>
+      </c>
+      <c r="K29" s="18">
+        <v>0</v>
+      </c>
+      <c r="L29" s="17">
         <v>3</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M29" s="17">
         <v>2</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="17">
+        <v>12</v>
+      </c>
+      <c r="O29" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="5">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
         <v>10126</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="8">
         <f t="shared" si="0"/>
         <v>10126</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="17">
         <v>31</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="17">
         <v>290</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="17">
         <v>340</v>
       </c>
-      <c r="G30">
-        <v>10</v>
-      </c>
-      <c r="H30" s="22">
-        <v>0</v>
-      </c>
-      <c r="I30" s="22">
-        <v>0</v>
-      </c>
-      <c r="J30" s="22">
-        <v>22</v>
-      </c>
-      <c r="K30" s="22">
-        <v>30</v>
-      </c>
-      <c r="L30" s="18">
-        <v>0</v>
-      </c>
-      <c r="M30" s="18">
-        <v>0</v>
-      </c>
-      <c r="N30">
+      <c r="G30" s="17">
+        <v>10</v>
+      </c>
+      <c r="H30" s="17">
+        <v>0</v>
+      </c>
+      <c r="I30" s="18">
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
+        <v>14</v>
+      </c>
+      <c r="K30" s="17">
+        <v>26</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="17">
+        <v>0</v>
+      </c>
+      <c r="N30" s="17">
+        <v>13</v>
+      </c>
+      <c r="O30" s="17">
         <v>1700</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="5">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="4">
         <v>10201</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="8">
         <f t="shared" si="0"/>
         <v>10201</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="17">
         <v>16</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="17">
         <v>42</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="17">
         <v>42</v>
       </c>
-      <c r="G31">
-        <v>10</v>
-      </c>
-      <c r="H31" s="22">
-        <v>0</v>
-      </c>
-      <c r="I31" s="22">
-        <v>0</v>
-      </c>
-      <c r="J31" s="22">
+      <c r="G31" s="17">
+        <v>10</v>
+      </c>
+      <c r="H31" s="17">
+        <v>0</v>
+      </c>
+      <c r="I31" s="18">
+        <v>0</v>
+      </c>
+      <c r="J31" s="17">
         <v>6</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="17">
         <v>9</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="17">
         <v>2</v>
       </c>
-      <c r="M31" s="18">
+      <c r="M31" s="17">
         <v>1</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="17">
+        <v>5</v>
+      </c>
+      <c r="O31" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="5">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
         <v>10202</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="8">
         <f t="shared" si="0"/>
         <v>10202</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="17">
         <v>17</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="17">
         <v>50</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="17">
         <v>50</v>
       </c>
-      <c r="G32">
-        <v>10</v>
-      </c>
-      <c r="H32" s="22">
+      <c r="G32" s="17">
+        <v>10</v>
+      </c>
+      <c r="H32" s="17">
         <v>7</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="17">
         <v>12</v>
       </c>
-      <c r="J32" s="22">
-        <v>0</v>
-      </c>
-      <c r="K32" s="22">
-        <v>0</v>
-      </c>
-      <c r="L32" s="18">
-        <v>0</v>
-      </c>
-      <c r="M32" s="18">
+      <c r="J32" s="17">
+        <v>0</v>
+      </c>
+      <c r="K32" s="18">
+        <v>0</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" s="17">
         <v>2</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="17">
+        <v>11</v>
+      </c>
+      <c r="O32" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="5">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="4">
         <v>10203</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="8">
         <f t="shared" si="0"/>
         <v>10203</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="17">
         <v>18</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="17">
         <v>53</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="17">
         <v>53</v>
       </c>
-      <c r="G33">
-        <v>10</v>
-      </c>
-      <c r="H33" s="22">
-        <v>10</v>
-      </c>
-      <c r="I33" s="22">
+      <c r="G33" s="17">
+        <v>10</v>
+      </c>
+      <c r="H33" s="17">
+        <v>10</v>
+      </c>
+      <c r="I33" s="17">
         <v>11</v>
       </c>
-      <c r="J33" s="22">
-        <v>0</v>
-      </c>
-      <c r="K33" s="22">
-        <v>0</v>
-      </c>
-      <c r="L33" s="18">
-        <v>0</v>
-      </c>
-      <c r="M33" s="18">
+      <c r="J33" s="17">
+        <v>0</v>
+      </c>
+      <c r="K33" s="18">
+        <v>0</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
         <v>2</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="17">
+        <v>11</v>
+      </c>
+      <c r="O33" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="5">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="4">
         <v>10204</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="8">
         <f t="shared" si="0"/>
         <v>10204</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="17">
         <v>16</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="17">
         <v>37</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="17">
         <v>50</v>
       </c>
-      <c r="G34">
-        <v>10</v>
-      </c>
-      <c r="H34" s="22">
+      <c r="G34" s="17">
+        <v>10</v>
+      </c>
+      <c r="H34" s="17">
         <v>4</v>
       </c>
-      <c r="I34" s="22">
-        <v>10</v>
-      </c>
-      <c r="J34" s="22">
-        <v>0</v>
-      </c>
-      <c r="K34" s="22">
-        <v>0</v>
-      </c>
-      <c r="L34" s="18">
-        <v>0</v>
-      </c>
-      <c r="M34" s="18">
-        <v>0</v>
-      </c>
-      <c r="N34">
+      <c r="I34" s="17">
+        <v>10</v>
+      </c>
+      <c r="J34" s="17">
+        <v>0</v>
+      </c>
+      <c r="K34" s="18">
+        <v>0</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>0</v>
+      </c>
+      <c r="N34" s="17">
+        <v>7</v>
+      </c>
+      <c r="O34" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="5">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="4">
         <v>10205</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="8">
         <f t="shared" si="0"/>
         <v>10205</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="17">
         <v>16</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="17">
         <v>35</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="17">
         <v>48</v>
       </c>
-      <c r="G35">
-        <v>10</v>
-      </c>
-      <c r="H35" s="22">
+      <c r="G35" s="17">
+        <v>10</v>
+      </c>
+      <c r="H35" s="17">
         <v>6</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="17">
         <v>8</v>
       </c>
-      <c r="J35" s="22">
-        <v>0</v>
-      </c>
-      <c r="K35" s="22">
-        <v>0</v>
-      </c>
-      <c r="L35" s="18">
-        <v>0</v>
-      </c>
-      <c r="M35" s="18">
-        <v>0</v>
-      </c>
-      <c r="N35">
+      <c r="J35" s="17">
+        <v>0</v>
+      </c>
+      <c r="K35" s="18">
+        <v>0</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>0</v>
+      </c>
+      <c r="N35" s="17">
+        <v>10</v>
+      </c>
+      <c r="O35" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="5">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="4">
         <v>10206</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="8">
         <f t="shared" si="0"/>
         <v>10206</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="17">
         <v>17</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="17">
         <v>51</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="17">
         <v>54</v>
       </c>
-      <c r="G36">
-        <v>10</v>
-      </c>
-      <c r="H36" s="22">
-        <v>0</v>
-      </c>
-      <c r="I36" s="22">
-        <v>0</v>
-      </c>
-      <c r="J36" s="22">
+      <c r="G36" s="17">
+        <v>10</v>
+      </c>
+      <c r="H36" s="17">
+        <v>0</v>
+      </c>
+      <c r="I36" s="18">
+        <v>0</v>
+      </c>
+      <c r="J36" s="17">
         <v>8</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="17">
         <v>11</v>
       </c>
-      <c r="L36" s="18">
-        <v>0</v>
-      </c>
-      <c r="M36" s="18">
-        <v>0</v>
-      </c>
-      <c r="N36">
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
+        <v>0</v>
+      </c>
+      <c r="N36" s="17">
+        <v>13</v>
+      </c>
+      <c r="O36" s="17">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="5">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="4">
         <v>10207</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="8">
         <f t="shared" si="0"/>
         <v>10207</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="17">
         <v>16</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="17">
         <v>38</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="17">
         <v>38</v>
       </c>
-      <c r="G37">
-        <v>10</v>
-      </c>
-      <c r="H37" s="22">
+      <c r="G37" s="17">
+        <v>10</v>
+      </c>
+      <c r="H37" s="17">
         <v>7</v>
       </c>
-      <c r="I37" s="22">
-        <v>10</v>
-      </c>
-      <c r="J37" s="22">
-        <v>0</v>
-      </c>
-      <c r="K37" s="22">
-        <v>0</v>
-      </c>
-      <c r="L37" s="18">
-        <v>0</v>
-      </c>
-      <c r="M37" s="18">
-        <v>0</v>
-      </c>
-      <c r="N37">
+      <c r="I37" s="17">
+        <v>10</v>
+      </c>
+      <c r="J37" s="17">
+        <v>0</v>
+      </c>
+      <c r="K37" s="18">
+        <v>0</v>
+      </c>
+      <c r="L37" s="17">
+        <v>0</v>
+      </c>
+      <c r="M37" s="17">
+        <v>0</v>
+      </c>
+      <c r="N37" s="17">
+        <v>13</v>
+      </c>
+      <c r="O37" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="5">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="4">
         <v>10208</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="8">
         <f t="shared" si="0"/>
         <v>10208</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="17">
         <v>16</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="17">
         <v>32</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="17">
         <v>52</v>
       </c>
-      <c r="G38">
-        <v>10</v>
-      </c>
-      <c r="H38" s="22">
+      <c r="G38" s="17">
+        <v>10</v>
+      </c>
+      <c r="H38" s="17">
         <v>7</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="17">
         <v>8</v>
       </c>
-      <c r="J38" s="22">
-        <v>0</v>
-      </c>
-      <c r="K38" s="22">
-        <v>0</v>
-      </c>
-      <c r="L38" s="18">
-        <v>0</v>
-      </c>
-      <c r="M38" s="18">
-        <v>0</v>
-      </c>
-      <c r="N38">
+      <c r="J38" s="17">
+        <v>0</v>
+      </c>
+      <c r="K38" s="18">
+        <v>0</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>0</v>
+      </c>
+      <c r="N38" s="17">
+        <v>10</v>
+      </c>
+      <c r="O38" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="5">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="4">
         <v>10209</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="8">
         <v>10206</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="17">
         <v>16</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="17">
         <v>42</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="17">
         <v>50</v>
       </c>
-      <c r="G39">
-        <v>10</v>
-      </c>
-      <c r="H39" s="22">
-        <v>0</v>
-      </c>
-      <c r="I39" s="22">
-        <v>0</v>
-      </c>
-      <c r="J39" s="22">
+      <c r="G39" s="17">
+        <v>10</v>
+      </c>
+      <c r="H39" s="17">
+        <v>0</v>
+      </c>
+      <c r="I39" s="18">
+        <v>0</v>
+      </c>
+      <c r="J39" s="17">
         <v>6</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K39" s="17">
         <v>9</v>
       </c>
-      <c r="L39" s="18">
+      <c r="L39" s="17">
         <v>2</v>
       </c>
-      <c r="M39" s="18">
+      <c r="M39" s="17">
         <v>1</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="17">
+        <v>12</v>
+      </c>
+      <c r="O39" s="17">
         <v>2300</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="5">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="4">
         <v>10210</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="8">
         <f>A40</f>
         <v>10210</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="17">
         <v>26</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="17">
         <v>230</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="17">
         <v>230</v>
       </c>
-      <c r="G40">
-        <v>10</v>
-      </c>
-      <c r="H40" s="22">
+      <c r="G40" s="17">
+        <v>10</v>
+      </c>
+      <c r="H40" s="17">
+        <v>0</v>
+      </c>
+      <c r="I40" s="18">
+        <v>0</v>
+      </c>
+      <c r="J40" s="17">
         <v>12</v>
       </c>
-      <c r="I40" s="22">
+      <c r="K40" s="17">
         <v>17</v>
       </c>
-      <c r="J40" s="22">
-        <v>0</v>
-      </c>
-      <c r="K40" s="22">
-        <v>0</v>
-      </c>
-      <c r="L40" s="18">
-        <v>0</v>
-      </c>
-      <c r="M40" s="18">
+      <c r="L40" s="17">
+        <v>0</v>
+      </c>
+      <c r="M40" s="17">
         <v>5</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="17">
+        <v>12</v>
+      </c>
+      <c r="O40" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="5">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" s="4">
         <v>10211</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="8">
         <f t="shared" ref="C41:C51" si="1">A41</f>
         <v>10211</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="17">
         <v>26</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="17">
         <v>230</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="17">
         <v>200</v>
       </c>
-      <c r="G41">
-        <v>10</v>
-      </c>
-      <c r="H41" s="22">
-        <v>7</v>
-      </c>
-      <c r="I41" s="22">
-        <v>10</v>
-      </c>
-      <c r="J41" s="22">
+      <c r="G41" s="17">
+        <v>10</v>
+      </c>
+      <c r="H41" s="17">
+        <v>0</v>
+      </c>
+      <c r="I41" s="18">
+        <v>0</v>
+      </c>
+      <c r="J41" s="17">
         <v>15</v>
       </c>
-      <c r="K41" s="22">
-        <v>20</v>
-      </c>
-      <c r="L41" s="18">
+      <c r="K41" s="17">
+        <v>18</v>
+      </c>
+      <c r="L41" s="17">
         <v>3</v>
       </c>
-      <c r="M41" s="18">
+      <c r="M41" s="17">
         <v>3</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="17">
+        <v>12</v>
+      </c>
+      <c r="O41" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="5">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="4">
         <v>10212</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="8">
         <f t="shared" si="1"/>
         <v>10212</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="17">
         <v>26</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="17">
         <v>210</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="17">
         <v>200</v>
       </c>
-      <c r="G42">
-        <v>10</v>
-      </c>
-      <c r="H42" s="22">
+      <c r="G42" s="17">
+        <v>10</v>
+      </c>
+      <c r="H42" s="17">
         <v>12</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="17">
         <v>18</v>
       </c>
-      <c r="J42" s="22">
-        <v>0</v>
-      </c>
-      <c r="K42" s="22">
-        <v>0</v>
-      </c>
-      <c r="L42" s="18">
+      <c r="J42" s="17">
+        <v>0</v>
+      </c>
+      <c r="K42" s="18">
+        <v>0</v>
+      </c>
+      <c r="L42" s="17">
         <v>3</v>
       </c>
-      <c r="M42" s="18">
+      <c r="M42" s="17">
         <v>3</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="17">
+        <v>12</v>
+      </c>
+      <c r="O42" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="5">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="4">
         <v>10213</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="8">
         <f t="shared" si="1"/>
         <v>10213</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="17">
         <v>28</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="17">
         <v>180</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="17">
         <v>230</v>
       </c>
-      <c r="G43">
-        <v>10</v>
-      </c>
-      <c r="H43" s="22">
-        <v>10</v>
-      </c>
-      <c r="I43" s="22">
+      <c r="G43" s="17">
+        <v>10</v>
+      </c>
+      <c r="H43" s="17">
+        <v>10</v>
+      </c>
+      <c r="I43" s="17">
         <v>14</v>
       </c>
-      <c r="J43" s="22">
-        <v>0</v>
-      </c>
-      <c r="K43" s="22">
-        <v>0</v>
-      </c>
-      <c r="L43" s="18">
+      <c r="J43" s="17">
+        <v>0</v>
+      </c>
+      <c r="K43" s="18">
+        <v>0</v>
+      </c>
+      <c r="L43" s="17">
         <v>5</v>
       </c>
-      <c r="M43" s="18">
-        <v>0</v>
-      </c>
-      <c r="N43">
+      <c r="M43" s="17">
+        <v>0</v>
+      </c>
+      <c r="N43" s="17">
+        <v>12</v>
+      </c>
+      <c r="O43" s="17">
         <v>1500</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="5">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="4">
         <v>10214</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="8">
         <f t="shared" si="1"/>
         <v>10214</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="17">
         <v>31</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="17">
         <v>250</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="17">
         <v>270</v>
       </c>
-      <c r="G44">
-        <v>10</v>
-      </c>
-      <c r="H44" s="22">
+      <c r="G44" s="17">
+        <v>10</v>
+      </c>
+      <c r="H44" s="17">
         <v>15</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I44" s="17">
         <v>25</v>
       </c>
-      <c r="J44" s="22">
-        <v>0</v>
-      </c>
-      <c r="K44" s="22">
-        <v>0</v>
-      </c>
-      <c r="L44" s="18">
+      <c r="J44" s="17">
+        <v>0</v>
+      </c>
+      <c r="K44" s="18">
+        <v>0</v>
+      </c>
+      <c r="L44" s="17">
         <v>5</v>
       </c>
-      <c r="M44" s="18">
+      <c r="M44" s="17">
         <v>7</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="17">
+        <v>13</v>
+      </c>
+      <c r="O44" s="17">
         <v>1800</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="5">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="4">
         <v>10215</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="8">
         <f t="shared" si="1"/>
         <v>10215</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="17">
         <v>32</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="17">
         <v>320</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="17">
         <v>330</v>
       </c>
-      <c r="G45">
-        <v>10</v>
-      </c>
-      <c r="H45" s="22">
-        <v>0</v>
-      </c>
-      <c r="I45" s="22">
-        <v>0</v>
-      </c>
-      <c r="J45" s="22">
-        <v>15</v>
-      </c>
-      <c r="K45" s="22">
-        <v>28</v>
-      </c>
-      <c r="L45" s="18">
-        <v>0</v>
-      </c>
-      <c r="M45" s="18">
+      <c r="G45" s="17">
+        <v>10</v>
+      </c>
+      <c r="H45" s="17">
+        <v>0</v>
+      </c>
+      <c r="I45" s="18">
+        <v>0</v>
+      </c>
+      <c r="J45" s="17">
+        <v>18</v>
+      </c>
+      <c r="K45" s="17">
+        <v>25</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+      <c r="M45" s="17">
         <v>8</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="17">
+        <v>13</v>
+      </c>
+      <c r="O45" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A46" s="5">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" s="4">
         <v>10216</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="8">
         <f t="shared" si="1"/>
         <v>10216</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="17">
         <v>35</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="17">
         <v>380</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="17">
         <v>310</v>
       </c>
-      <c r="G46">
-        <v>10</v>
-      </c>
-      <c r="H46" s="22">
+      <c r="G46" s="17">
+        <v>10</v>
+      </c>
+      <c r="H46" s="17">
         <v>20</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I46" s="17">
         <v>26</v>
       </c>
-      <c r="J46" s="22">
-        <v>0</v>
-      </c>
-      <c r="K46" s="22">
-        <v>0</v>
-      </c>
-      <c r="L46" s="18">
-        <v>10</v>
-      </c>
-      <c r="M46" s="18">
-        <v>0</v>
-      </c>
-      <c r="N46">
+      <c r="J46" s="17">
+        <v>0</v>
+      </c>
+      <c r="K46" s="18">
+        <v>0</v>
+      </c>
+      <c r="L46" s="17">
+        <v>10</v>
+      </c>
+      <c r="M46" s="17">
+        <v>0</v>
+      </c>
+      <c r="N46" s="17">
+        <v>13</v>
+      </c>
+      <c r="O46" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A47" s="5">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" s="4">
         <v>10217</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="8">
         <f t="shared" si="1"/>
         <v>10217</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="17">
         <v>35</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="17">
         <v>360</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="17">
         <v>330</v>
       </c>
-      <c r="G47">
-        <v>10</v>
-      </c>
-      <c r="H47" s="22">
+      <c r="G47" s="17">
+        <v>10</v>
+      </c>
+      <c r="H47" s="17">
         <v>22</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I47" s="17">
         <v>28</v>
       </c>
-      <c r="J47" s="22">
-        <v>0</v>
-      </c>
-      <c r="K47" s="22">
-        <v>0</v>
-      </c>
-      <c r="L47" s="18">
+      <c r="J47" s="17">
+        <v>0</v>
+      </c>
+      <c r="K47" s="18">
+        <v>0</v>
+      </c>
+      <c r="L47" s="17">
         <v>5</v>
       </c>
-      <c r="M47" s="18">
+      <c r="M47" s="17">
         <v>3</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="17">
+        <v>13</v>
+      </c>
+      <c r="O47" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A48" s="5">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48" s="4">
         <v>10218</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="8">
         <f t="shared" si="1"/>
         <v>10218</v>
       </c>
-      <c r="D48">
-        <v>30</v>
-      </c>
-      <c r="E48">
+      <c r="D48" s="17">
+        <v>35</v>
+      </c>
+      <c r="E48" s="17">
         <v>300</v>
       </c>
-      <c r="F48">
-        <v>200</v>
-      </c>
-      <c r="G48">
-        <v>10</v>
-      </c>
-      <c r="H48" s="22">
-        <v>13</v>
-      </c>
-      <c r="I48" s="22">
+      <c r="F48" s="17">
+        <v>300</v>
+      </c>
+      <c r="G48" s="17">
+        <v>10</v>
+      </c>
+      <c r="H48" s="17">
+        <v>0</v>
+      </c>
+      <c r="I48" s="18">
+        <v>0</v>
+      </c>
+      <c r="J48" s="17">
+        <v>20</v>
+      </c>
+      <c r="K48" s="17">
+        <v>25</v>
+      </c>
+      <c r="L48" s="17">
+        <v>5</v>
+      </c>
+      <c r="M48" s="17">
+        <v>5</v>
+      </c>
+      <c r="N48" s="17">
         <v>18</v>
       </c>
-      <c r="J48" s="22">
-        <v>0</v>
-      </c>
-      <c r="K48" s="22">
-        <v>0</v>
-      </c>
-      <c r="L48" s="18">
-        <v>0</v>
-      </c>
-      <c r="M48" s="18">
-        <v>6</v>
-      </c>
-      <c r="N48">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A49" s="5">
+      <c r="O48" s="17">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49" s="4">
         <v>10219</v>
       </c>
       <c r="B49" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="8">
         <f t="shared" si="1"/>
         <v>10219</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="17">
         <v>32</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="17">
         <v>350</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="17">
         <v>220</v>
       </c>
-      <c r="G49">
-        <v>10</v>
-      </c>
-      <c r="H49" s="22">
-        <v>0</v>
-      </c>
-      <c r="I49" s="22">
-        <v>0</v>
-      </c>
-      <c r="J49" s="22">
-        <v>15.6</v>
-      </c>
-      <c r="K49" s="22">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="L49" s="18">
-        <v>0</v>
-      </c>
-      <c r="M49" s="18">
+      <c r="G49" s="17">
+        <v>10</v>
+      </c>
+      <c r="H49" s="17">
+        <v>0</v>
+      </c>
+      <c r="I49" s="18">
+        <v>0</v>
+      </c>
+      <c r="J49" s="17">
+        <v>26</v>
+      </c>
+      <c r="K49" s="17">
+        <v>36</v>
+      </c>
+      <c r="L49" s="17">
+        <v>0</v>
+      </c>
+      <c r="M49" s="17">
         <v>5</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="17">
+        <v>12</v>
+      </c>
+      <c r="O49" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50" s="5">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50" s="4">
         <v>10220</v>
       </c>
       <c r="B50" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="8">
         <f t="shared" si="1"/>
         <v>10220</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="17">
         <v>24</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="17">
         <v>330</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="17">
         <v>385</v>
       </c>
-      <c r="G50">
-        <v>10</v>
-      </c>
-      <c r="H50" s="22">
-        <v>14.399999999999999</v>
-      </c>
-      <c r="I50" s="22">
-        <v>27.599999999999998</v>
-      </c>
-      <c r="J50" s="22">
-        <v>0</v>
-      </c>
-      <c r="K50" s="22">
-        <v>0</v>
-      </c>
-      <c r="L50" s="18">
+      <c r="G50" s="17">
+        <v>10</v>
+      </c>
+      <c r="H50" s="17">
+        <v>0</v>
+      </c>
+      <c r="I50" s="18">
+        <v>0</v>
+      </c>
+      <c r="J50" s="17">
+        <v>24</v>
+      </c>
+      <c r="K50" s="17">
+        <v>46</v>
+      </c>
+      <c r="L50" s="17">
         <v>3</v>
       </c>
-      <c r="M50" s="18">
+      <c r="M50" s="17">
         <v>5</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="17">
+        <v>12</v>
+      </c>
+      <c r="O50" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A51" s="5">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51" s="4">
         <v>10221</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="8">
         <f t="shared" si="1"/>
         <v>10221</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="17">
         <v>40</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="17">
         <v>420</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="17">
         <v>385</v>
       </c>
-      <c r="G51">
-        <v>10</v>
-      </c>
-      <c r="H51" s="22">
-        <v>0</v>
-      </c>
-      <c r="I51" s="22">
-        <v>0</v>
-      </c>
-      <c r="J51" s="22">
-        <v>14.399999999999999</v>
-      </c>
-      <c r="K51" s="22">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="L51" s="18">
-        <v>10</v>
-      </c>
-      <c r="M51" s="18">
-        <v>10</v>
-      </c>
-      <c r="N51">
+      <c r="G51" s="17">
+        <v>10</v>
+      </c>
+      <c r="H51" s="17">
+        <v>0</v>
+      </c>
+      <c r="I51" s="18">
+        <v>0</v>
+      </c>
+      <c r="J51" s="17">
+        <v>18</v>
+      </c>
+      <c r="K51" s="17">
+        <v>27</v>
+      </c>
+      <c r="L51" s="17">
+        <v>10</v>
+      </c>
+      <c r="M51" s="17">
+        <v>10</v>
+      </c>
+      <c r="N51" s="17">
+        <v>13</v>
+      </c>
+      <c r="O51" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A52" s="5">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52" s="4">
         <v>10222</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="10">
+        <v>139</v>
+      </c>
+      <c r="C52" s="8">
         <f>C51</f>
         <v>10221</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="17">
         <v>40</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="17">
         <v>600</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="17">
         <v>800</v>
       </c>
-      <c r="G52">
-        <v>10</v>
-      </c>
-      <c r="H52" s="22">
-        <v>0</v>
-      </c>
-      <c r="I52" s="22">
-        <v>0</v>
-      </c>
-      <c r="J52" s="22">
-        <v>31.2</v>
-      </c>
-      <c r="K52" s="22">
-        <v>42</v>
-      </c>
-      <c r="L52" s="18">
+      <c r="G52" s="17">
+        <v>10</v>
+      </c>
+      <c r="H52" s="17">
+        <v>0</v>
+      </c>
+      <c r="I52" s="18">
+        <v>0</v>
+      </c>
+      <c r="J52" s="17">
+        <v>39</v>
+      </c>
+      <c r="K52" s="17">
+        <v>52</v>
+      </c>
+      <c r="L52" s="17">
         <v>15</v>
       </c>
-      <c r="M52" s="18">
+      <c r="M52" s="17">
         <v>15</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="17">
+        <v>17</v>
+      </c>
+      <c r="O52" s="17">
         <v>1600</v>
       </c>
-      <c r="P52" s="20">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A53" s="5">
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" s="4">
         <v>10223</v>
       </c>
       <c r="B53" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="8">
         <f>A53</f>
         <v>10223</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="17">
         <v>42</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="17">
         <v>450</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="17">
         <v>495</v>
       </c>
-      <c r="G53">
-        <v>10</v>
-      </c>
-      <c r="H53" s="22">
-        <v>24</v>
-      </c>
-      <c r="I53" s="22">
-        <v>38.4</v>
-      </c>
-      <c r="J53" s="22">
-        <v>0</v>
-      </c>
-      <c r="K53" s="22">
-        <v>0</v>
-      </c>
-      <c r="L53" s="18">
+      <c r="G53" s="17">
+        <v>10</v>
+      </c>
+      <c r="H53" s="17">
+        <v>30</v>
+      </c>
+      <c r="I53" s="17">
+        <v>48</v>
+      </c>
+      <c r="J53" s="17">
+        <v>0</v>
+      </c>
+      <c r="K53" s="18">
+        <v>0</v>
+      </c>
+      <c r="L53" s="17">
         <v>12</v>
       </c>
-      <c r="M53" s="18">
+      <c r="M53" s="17">
         <v>12</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="17">
+        <v>13</v>
+      </c>
+      <c r="O53" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A54" s="5">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" s="4">
         <v>10224</v>
       </c>
       <c r="B54" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="8">
         <f>C53</f>
         <v>10223</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="17">
         <v>42</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="17">
         <v>800</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="17">
         <v>900</v>
       </c>
-      <c r="G54">
-        <v>10</v>
-      </c>
-      <c r="H54" s="22">
-        <v>36</v>
-      </c>
-      <c r="I54" s="22">
-        <v>57.599999999999994</v>
-      </c>
-      <c r="J54" s="22">
-        <v>0</v>
-      </c>
-      <c r="K54" s="22">
-        <v>0</v>
-      </c>
-      <c r="L54" s="18">
+      <c r="G54" s="17">
+        <v>10</v>
+      </c>
+      <c r="H54" s="17">
+        <v>45</v>
+      </c>
+      <c r="I54" s="17">
+        <v>72</v>
+      </c>
+      <c r="J54" s="17">
+        <v>0</v>
+      </c>
+      <c r="K54" s="18">
+        <v>0</v>
+      </c>
+      <c r="L54" s="17">
         <v>18</v>
       </c>
-      <c r="M54" s="18">
+      <c r="M54" s="17">
         <v>18</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="17">
+        <v>17</v>
+      </c>
+      <c r="O54" s="17">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A55" s="5">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="4">
         <v>10225</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="8">
         <f>A55</f>
         <v>10225</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="17">
         <v>43</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="17">
         <v>480</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="17">
         <v>495</v>
       </c>
-      <c r="G55">
-        <v>10</v>
-      </c>
-      <c r="H55" s="22">
-        <v>26.4</v>
-      </c>
-      <c r="I55" s="22">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="J55" s="22">
-        <v>0</v>
-      </c>
-      <c r="K55" s="22">
-        <v>0</v>
-      </c>
-      <c r="L55" s="18">
+      <c r="G55" s="17">
+        <v>10</v>
+      </c>
+      <c r="H55" s="17">
+        <v>33</v>
+      </c>
+      <c r="I55" s="17">
+        <v>51</v>
+      </c>
+      <c r="J55" s="17">
+        <v>0</v>
+      </c>
+      <c r="K55" s="18">
+        <v>0</v>
+      </c>
+      <c r="L55" s="17">
         <v>15</v>
       </c>
-      <c r="M55" s="18">
+      <c r="M55" s="17">
         <v>15</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="17">
+        <v>13</v>
+      </c>
+      <c r="O55" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A56" s="5">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="4">
         <v>10226</v>
       </c>
       <c r="B56" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="8">
         <f>C55</f>
         <v>10225</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="17">
         <v>46</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="17">
         <v>1000</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="17">
         <v>1000</v>
       </c>
-      <c r="G56">
-        <v>10</v>
-      </c>
-      <c r="H56" s="22">
-        <v>39.6</v>
-      </c>
-      <c r="I56" s="22">
-        <v>61.199999999999996</v>
-      </c>
-      <c r="J56" s="22">
-        <v>0</v>
-      </c>
-      <c r="K56" s="22">
-        <v>0</v>
-      </c>
-      <c r="L56" s="18">
+      <c r="G56" s="17">
+        <v>10</v>
+      </c>
+      <c r="H56" s="17">
+        <v>49</v>
+      </c>
+      <c r="I56" s="17">
+        <v>76</v>
+      </c>
+      <c r="J56" s="17">
+        <v>0</v>
+      </c>
+      <c r="K56" s="18">
+        <v>0</v>
+      </c>
+      <c r="L56" s="17">
         <v>20</v>
       </c>
-      <c r="M56" s="18">
+      <c r="M56" s="17">
         <v>20</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="17">
+        <v>17</v>
+      </c>
+      <c r="O56" s="17">
         <v>1500</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A57" s="5">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="4">
         <v>10301</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="8">
         <f>A57</f>
         <v>10301</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="17">
         <v>45</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="17">
         <v>500</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="17">
         <v>800</v>
       </c>
-      <c r="G57">
-        <v>10</v>
-      </c>
-      <c r="H57" s="22">
-        <v>0</v>
-      </c>
-      <c r="I57" s="22">
-        <v>0</v>
-      </c>
-      <c r="J57" s="22">
-        <v>37.5</v>
-      </c>
-      <c r="K57" s="22">
-        <v>60</v>
-      </c>
-      <c r="L57" s="18">
-        <v>10</v>
-      </c>
-      <c r="M57" s="18">
+      <c r="G57" s="17">
+        <v>10</v>
+      </c>
+      <c r="H57" s="17">
+        <v>0</v>
+      </c>
+      <c r="I57" s="18">
+        <v>0</v>
+      </c>
+      <c r="J57" s="17">
+        <v>50</v>
+      </c>
+      <c r="K57" s="17">
+        <v>80</v>
+      </c>
+      <c r="L57" s="17">
+        <v>10</v>
+      </c>
+      <c r="M57" s="17">
         <v>25</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="17">
+        <v>17</v>
+      </c>
+      <c r="O57" s="17">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A58" s="5">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58" s="4">
         <v>10302</v>
       </c>
       <c r="B58" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="8">
         <f t="shared" ref="C58" si="2">A58</f>
         <v>10302</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="17">
         <v>50</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="17">
         <v>450</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="17">
         <v>500</v>
       </c>
-      <c r="G58">
-        <v>10</v>
-      </c>
-      <c r="H58" s="22">
-        <v>22.5</v>
-      </c>
-      <c r="I58" s="22">
+      <c r="G58" s="17">
+        <v>10</v>
+      </c>
+      <c r="H58" s="17">
         <v>30</v>
       </c>
-      <c r="J58" s="22">
-        <v>0</v>
-      </c>
-      <c r="K58" s="22">
-        <v>0</v>
-      </c>
-      <c r="L58" s="18">
+      <c r="I58" s="17">
+        <v>40</v>
+      </c>
+      <c r="J58" s="17">
+        <v>0</v>
+      </c>
+      <c r="K58" s="18">
+        <v>0</v>
+      </c>
+      <c r="L58" s="17">
         <v>5</v>
       </c>
-      <c r="M58" s="18">
+      <c r="M58" s="17">
         <v>5</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="17">
+        <v>17</v>
+      </c>
+      <c r="O58" s="17">
         <v>1600</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A59" s="5">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59" s="4">
         <v>10303</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="8">
         <f>C58</f>
         <v>10302</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="17">
         <v>53</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="17">
         <v>550</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="17">
         <v>800</v>
       </c>
-      <c r="G59">
-        <v>10</v>
-      </c>
-      <c r="H59" s="22">
-        <v>24</v>
-      </c>
-      <c r="I59" s="22">
-        <v>45</v>
-      </c>
-      <c r="J59" s="22">
-        <v>0</v>
-      </c>
-      <c r="K59" s="22">
-        <v>0</v>
-      </c>
-      <c r="L59" s="18">
-        <v>10</v>
-      </c>
-      <c r="M59" s="18">
+      <c r="G59" s="17">
+        <v>10</v>
+      </c>
+      <c r="H59" s="17">
+        <v>32</v>
+      </c>
+      <c r="I59" s="17">
+        <v>60</v>
+      </c>
+      <c r="J59" s="17">
+        <v>0</v>
+      </c>
+      <c r="K59" s="18">
+        <v>0</v>
+      </c>
+      <c r="L59" s="17">
+        <v>10</v>
+      </c>
+      <c r="M59" s="17">
         <v>20</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="17">
+        <v>17</v>
+      </c>
+      <c r="O59" s="17">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A60" s="5">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60" s="4">
         <v>10304</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="8">
         <f>A60</f>
         <v>10304</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="17">
         <v>40</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="17">
         <v>480</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="17">
         <v>500</v>
       </c>
-      <c r="G60">
-        <v>10</v>
-      </c>
-      <c r="H60" s="22">
-        <v>39</v>
-      </c>
-      <c r="I60" s="22">
-        <v>52.5</v>
-      </c>
-      <c r="J60" s="22">
-        <v>0</v>
-      </c>
-      <c r="K60" s="22">
-        <v>0</v>
-      </c>
-      <c r="L60" s="18">
+      <c r="G60" s="17">
+        <v>10</v>
+      </c>
+      <c r="H60" s="17">
+        <v>0</v>
+      </c>
+      <c r="I60" s="18">
+        <v>0</v>
+      </c>
+      <c r="J60" s="17">
+        <v>52</v>
+      </c>
+      <c r="K60" s="17">
+        <v>70</v>
+      </c>
+      <c r="L60" s="17">
         <v>9</v>
       </c>
-      <c r="M60" s="18">
+      <c r="M60" s="17">
         <v>19</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="17">
+        <v>17</v>
+      </c>
+      <c r="O60" s="17">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A61" s="5">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="4">
         <v>10305</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="8">
         <f>A61</f>
         <v>10305</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="17">
         <v>53</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="17">
         <v>550</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="17">
         <v>800</v>
       </c>
-      <c r="G61">
-        <v>10</v>
-      </c>
-      <c r="H61" s="22">
-        <v>30</v>
-      </c>
-      <c r="I61" s="22">
-        <v>54</v>
-      </c>
-      <c r="J61" s="22">
-        <v>0</v>
-      </c>
-      <c r="K61" s="22">
-        <v>0</v>
-      </c>
-      <c r="L61" s="18">
-        <v>10</v>
-      </c>
-      <c r="M61" s="18">
+      <c r="G61" s="17">
+        <v>10</v>
+      </c>
+      <c r="H61" s="17">
+        <v>40</v>
+      </c>
+      <c r="I61" s="17">
+        <v>72</v>
+      </c>
+      <c r="J61" s="17">
+        <v>0</v>
+      </c>
+      <c r="K61" s="18">
+        <v>0</v>
+      </c>
+      <c r="L61" s="17">
+        <v>10</v>
+      </c>
+      <c r="M61" s="17">
         <v>20</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="17">
+        <v>17</v>
+      </c>
+      <c r="O61" s="17">
         <v>2000</v>
       </c>
-      <c r="P61" s="20">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A62" s="5">
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="4">
         <v>10306</v>
       </c>
       <c r="B62" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="8">
         <f>A62</f>
         <v>10306</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="17">
         <v>53</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="17">
         <v>350</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="17">
         <v>300</v>
       </c>
-      <c r="G62">
-        <v>10</v>
-      </c>
-      <c r="H62" s="22">
-        <v>0</v>
-      </c>
-      <c r="I62" s="22">
-        <v>0</v>
-      </c>
-      <c r="J62" s="22">
-        <v>0</v>
-      </c>
-      <c r="K62" s="22">
-        <v>0</v>
-      </c>
-      <c r="L62" s="18">
-        <v>3</v>
-      </c>
-      <c r="M62" s="18">
-        <v>10</v>
-      </c>
-      <c r="N62">
+      <c r="G62" s="17">
+        <v>10</v>
+      </c>
+      <c r="H62" s="17">
+        <v>0</v>
+      </c>
+      <c r="I62" s="17">
+        <v>0</v>
+      </c>
+      <c r="J62" s="17">
+        <v>60</v>
+      </c>
+      <c r="K62" s="18">
+        <v>70</v>
+      </c>
+      <c r="L62" s="17">
+        <v>9</v>
+      </c>
+      <c r="M62" s="17">
+        <v>10</v>
+      </c>
+      <c r="N62" s="17">
+        <v>1</v>
+      </c>
+      <c r="O62" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A63" s="5">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="4">
         <v>10307</v>
       </c>
       <c r="B63" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="8">
         <f>C61</f>
         <v>10305</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="17">
         <v>54</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="17">
         <v>550</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="17">
         <v>800</v>
       </c>
-      <c r="G63">
-        <v>10</v>
-      </c>
-      <c r="H63" s="22">
-        <v>27</v>
-      </c>
-      <c r="I63" s="22">
-        <v>51</v>
-      </c>
-      <c r="J63" s="22">
-        <v>0</v>
-      </c>
-      <c r="K63" s="22">
-        <v>0</v>
-      </c>
-      <c r="L63" s="18">
+      <c r="G63" s="17">
+        <v>10</v>
+      </c>
+      <c r="H63" s="17">
+        <v>36</v>
+      </c>
+      <c r="I63" s="17">
+        <v>68</v>
+      </c>
+      <c r="J63" s="17">
+        <v>0</v>
+      </c>
+      <c r="K63" s="18">
+        <v>0</v>
+      </c>
+      <c r="L63" s="17">
         <v>8</v>
       </c>
-      <c r="M63" s="18">
+      <c r="M63" s="17">
         <v>11</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="17">
+        <v>17</v>
+      </c>
+      <c r="O63" s="17">
         <v>1800</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A64" s="5">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="4">
         <v>10308</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C64" s="10">
+      <c r="B64" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="8">
         <f>A64</f>
         <v>10308</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="17">
         <v>56</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="17">
         <v>1000</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="17">
         <v>2000</v>
       </c>
-      <c r="G64">
-        <v>10</v>
-      </c>
-      <c r="H64" s="22">
-        <v>43.5</v>
-      </c>
-      <c r="I64" s="22">
-        <v>78</v>
-      </c>
-      <c r="J64" s="22">
-        <v>0</v>
-      </c>
-      <c r="K64" s="22">
-        <v>0</v>
-      </c>
-      <c r="L64" s="18">
+      <c r="G64" s="17">
+        <v>10</v>
+      </c>
+      <c r="H64" s="17">
+        <v>58</v>
+      </c>
+      <c r="I64" s="17">
+        <v>104</v>
+      </c>
+      <c r="J64" s="17">
+        <v>0</v>
+      </c>
+      <c r="K64" s="18">
+        <v>0</v>
+      </c>
+      <c r="L64" s="17">
         <v>14</v>
       </c>
-      <c r="M64" s="18">
+      <c r="M64" s="17">
         <v>16</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="17">
+        <v>18</v>
+      </c>
+      <c r="O64" s="17">
         <v>1500</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A65" s="5">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="4">
         <v>10309</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="8">
         <f>C64</f>
         <v>10308</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="17">
         <v>55</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="17">
         <v>550</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="17">
         <v>1200</v>
       </c>
-      <c r="G65">
-        <v>10</v>
-      </c>
-      <c r="H65" s="22">
-        <v>0</v>
-      </c>
-      <c r="I65" s="22">
-        <v>0</v>
-      </c>
-      <c r="J65" s="22">
-        <v>39</v>
-      </c>
-      <c r="K65" s="22">
-        <v>66</v>
-      </c>
-      <c r="L65" s="18">
-        <v>10</v>
-      </c>
-      <c r="M65" s="18">
+      <c r="G65" s="17">
+        <v>10</v>
+      </c>
+      <c r="H65" s="17">
+        <v>0</v>
+      </c>
+      <c r="I65" s="18">
+        <v>0</v>
+      </c>
+      <c r="J65" s="17">
+        <v>52</v>
+      </c>
+      <c r="K65" s="17">
+        <v>88</v>
+      </c>
+      <c r="L65" s="17">
+        <v>10</v>
+      </c>
+      <c r="M65" s="17">
         <v>12</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="17">
+        <v>17</v>
+      </c>
+      <c r="O65" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A66" s="5">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="4">
         <v>10401</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="8">
         <f t="shared" ref="C66:C88" si="3">A66</f>
         <v>10401</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="17">
         <v>35</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="17">
         <v>190</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="17">
         <v>180</v>
       </c>
-      <c r="G66">
-        <v>10</v>
-      </c>
-      <c r="H66" s="22">
-        <v>22.5</v>
-      </c>
-      <c r="I66" s="22">
-        <v>37.5</v>
-      </c>
-      <c r="J66" s="22">
-        <v>0</v>
-      </c>
-      <c r="K66" s="22">
-        <v>0</v>
-      </c>
-      <c r="L66" s="18">
+      <c r="G66" s="17">
+        <v>10</v>
+      </c>
+      <c r="H66" s="17">
+        <v>22</v>
+      </c>
+      <c r="I66" s="17">
+        <v>37</v>
+      </c>
+      <c r="J66" s="17">
+        <v>0</v>
+      </c>
+      <c r="K66" s="18">
+        <v>0</v>
+      </c>
+      <c r="L66" s="17">
         <v>3</v>
       </c>
-      <c r="M66" s="18">
+      <c r="M66" s="17">
         <v>3</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="17">
+        <v>18</v>
+      </c>
+      <c r="O66" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A67" s="5">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="4">
         <v>10402</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="8">
         <f t="shared" si="3"/>
         <v>10402</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="17">
         <v>35</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="17">
         <v>500</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="17">
         <v>500</v>
       </c>
-      <c r="G67">
-        <v>10</v>
-      </c>
-      <c r="H67" s="22">
+      <c r="G67" s="17">
+        <v>10</v>
+      </c>
+      <c r="H67" s="17">
+        <v>0</v>
+      </c>
+      <c r="I67" s="18">
+        <v>0</v>
+      </c>
+      <c r="J67" s="17">
         <v>30</v>
       </c>
-      <c r="I67" s="22">
+      <c r="K67" s="17">
         <v>57</v>
       </c>
-      <c r="J67" s="22">
-        <v>0</v>
-      </c>
-      <c r="K67" s="22">
-        <v>0</v>
-      </c>
-      <c r="L67" s="18">
+      <c r="L67" s="17">
         <v>3</v>
       </c>
-      <c r="M67" s="18">
+      <c r="M67" s="17">
         <v>5</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="17">
+        <v>18</v>
+      </c>
+      <c r="O67" s="17">
         <v>2000</v>
       </c>
-      <c r="P67" s="20">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A68" s="5">
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="4">
         <v>10403</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="8">
         <f t="shared" si="3"/>
         <v>10403</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="17">
         <v>35</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="17">
         <v>380</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="17">
         <v>390</v>
       </c>
-      <c r="G68">
-        <v>10</v>
-      </c>
-      <c r="H68" s="22">
+      <c r="G68" s="17">
+        <v>10</v>
+      </c>
+      <c r="H68" s="17">
         <v>30</v>
       </c>
-      <c r="I68" s="22">
+      <c r="I68" s="17">
         <v>63</v>
       </c>
-      <c r="J68" s="22">
-        <v>0</v>
-      </c>
-      <c r="K68" s="22">
-        <v>0</v>
-      </c>
-      <c r="L68" s="18">
+      <c r="J68" s="17">
+        <v>0</v>
+      </c>
+      <c r="K68" s="18">
+        <v>0</v>
+      </c>
+      <c r="L68" s="17">
         <v>3</v>
       </c>
-      <c r="M68" s="18">
+      <c r="M68" s="17">
         <v>6</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="17">
+        <v>18</v>
+      </c>
+      <c r="O68" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A69" s="5">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="4">
         <v>10404</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="8">
         <f t="shared" si="3"/>
         <v>10404</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="17">
         <v>35</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="17">
         <v>450</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="17">
         <v>390</v>
       </c>
-      <c r="G69">
-        <v>10</v>
-      </c>
-      <c r="H69" s="22">
+      <c r="G69" s="17">
+        <v>10</v>
+      </c>
+      <c r="H69" s="17">
         <v>30</v>
       </c>
-      <c r="I69" s="22">
+      <c r="I69" s="17">
         <v>63</v>
       </c>
-      <c r="J69" s="22">
-        <v>0</v>
-      </c>
-      <c r="K69" s="22">
-        <v>0</v>
-      </c>
-      <c r="L69" s="18">
+      <c r="J69" s="17">
+        <v>0</v>
+      </c>
+      <c r="K69" s="18">
+        <v>0</v>
+      </c>
+      <c r="L69" s="17">
         <v>3</v>
       </c>
-      <c r="M69" s="18">
+      <c r="M69" s="17">
         <v>5</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="17">
+        <v>18</v>
+      </c>
+      <c r="O69" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A70" s="5">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="4">
         <v>10405</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="8">
         <f t="shared" si="3"/>
         <v>10405</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="17">
         <v>35</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="17">
         <v>420</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="17">
         <v>440</v>
       </c>
-      <c r="G70">
-        <v>10</v>
-      </c>
-      <c r="H70" s="22">
+      <c r="G70" s="17">
+        <v>10</v>
+      </c>
+      <c r="H70" s="17">
         <v>33</v>
       </c>
-      <c r="I70" s="22">
-        <v>67.5</v>
-      </c>
-      <c r="J70" s="22">
-        <v>0</v>
-      </c>
-      <c r="K70" s="22">
-        <v>0</v>
-      </c>
-      <c r="L70" s="18">
+      <c r="I70" s="17">
+        <v>67</v>
+      </c>
+      <c r="J70" s="17">
+        <v>0</v>
+      </c>
+      <c r="K70" s="18">
+        <v>0</v>
+      </c>
+      <c r="L70" s="17">
         <v>5</v>
       </c>
-      <c r="M70" s="18">
+      <c r="M70" s="17">
         <v>5</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="17">
+        <v>18</v>
+      </c>
+      <c r="O70" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A71" s="5">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="4">
         <v>10406</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="8">
         <f t="shared" si="3"/>
         <v>10406</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="17">
         <v>70</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="17">
         <v>530</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="17">
         <v>550</v>
       </c>
-      <c r="G71">
-        <v>10</v>
-      </c>
-      <c r="H71" s="22">
+      <c r="G71" s="17">
+        <v>10</v>
+      </c>
+      <c r="H71" s="17">
+        <v>0</v>
+      </c>
+      <c r="I71" s="18">
+        <v>0</v>
+      </c>
+      <c r="J71" s="17">
         <v>18</v>
       </c>
-      <c r="I71" s="22">
+      <c r="K71" s="17">
         <v>45</v>
       </c>
-      <c r="J71" s="22">
-        <v>0</v>
-      </c>
-      <c r="K71" s="22">
-        <v>0</v>
-      </c>
-      <c r="L71" s="18">
+      <c r="L71" s="17">
         <v>20</v>
       </c>
-      <c r="M71" s="18">
-        <v>10</v>
-      </c>
-      <c r="N71">
+      <c r="M71" s="17">
+        <v>10</v>
+      </c>
+      <c r="N71" s="17">
+        <v>30</v>
+      </c>
+      <c r="O71" s="17">
         <v>1500</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A72" s="5">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="4">
         <v>10407</v>
       </c>
       <c r="B72" t="s">
         <v>85</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="8">
         <f t="shared" si="3"/>
         <v>10407</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="17">
         <v>30</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="17">
         <v>360</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="17">
         <v>330</v>
       </c>
-      <c r="G72">
-        <v>10</v>
-      </c>
-      <c r="H72" s="22">
-        <v>37.5</v>
-      </c>
-      <c r="I72" s="22">
-        <v>52.5</v>
-      </c>
-      <c r="J72" s="22">
-        <v>0</v>
-      </c>
-      <c r="K72" s="22">
-        <v>0</v>
-      </c>
-      <c r="L72" s="18">
+      <c r="G72" s="17">
+        <v>10</v>
+      </c>
+      <c r="H72" s="17">
+        <v>37</v>
+      </c>
+      <c r="I72" s="17">
+        <v>52</v>
+      </c>
+      <c r="J72" s="17">
+        <v>0</v>
+      </c>
+      <c r="K72" s="18">
+        <v>0</v>
+      </c>
+      <c r="L72" s="17">
         <v>5</v>
       </c>
-      <c r="M72" s="18">
+      <c r="M72" s="17">
         <v>5</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="17">
+        <v>18</v>
+      </c>
+      <c r="O72" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A73" s="5">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="4">
         <v>10408</v>
       </c>
       <c r="B73" t="s">
         <v>84</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="8">
         <f t="shared" si="3"/>
         <v>10408</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="17">
         <v>45</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="17">
         <v>480</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="17">
         <v>460</v>
       </c>
-      <c r="G73">
-        <v>10</v>
-      </c>
-      <c r="H73" s="22">
-        <v>37.5</v>
-      </c>
-      <c r="I73" s="22">
-        <v>67.5</v>
-      </c>
-      <c r="J73" s="22">
-        <v>0</v>
-      </c>
-      <c r="K73" s="22">
-        <v>0</v>
-      </c>
-      <c r="L73" s="18">
+      <c r="G73" s="17">
+        <v>10</v>
+      </c>
+      <c r="H73" s="17">
+        <v>37</v>
+      </c>
+      <c r="I73" s="17">
+        <v>67</v>
+      </c>
+      <c r="J73" s="17">
+        <v>0</v>
+      </c>
+      <c r="K73" s="18">
+        <v>0</v>
+      </c>
+      <c r="L73" s="17">
         <v>8</v>
       </c>
-      <c r="M73" s="18">
-        <v>10</v>
-      </c>
-      <c r="N73">
+      <c r="M73" s="17">
+        <v>10</v>
+      </c>
+      <c r="N73" s="17">
+        <v>18</v>
+      </c>
+      <c r="O73" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A74" s="5">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="4">
         <v>10409</v>
       </c>
       <c r="B74" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="8">
         <f t="shared" si="3"/>
         <v>10409</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="17">
         <v>45</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="17">
         <v>400</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="17">
         <v>420</v>
       </c>
-      <c r="G74">
-        <v>10</v>
-      </c>
-      <c r="H74" s="22">
+      <c r="G74" s="17">
+        <v>10</v>
+      </c>
+      <c r="H74" s="17">
         <v>30</v>
       </c>
-      <c r="I74" s="22">
-        <v>67.5</v>
-      </c>
-      <c r="J74" s="22">
-        <v>0</v>
-      </c>
-      <c r="K74" s="22">
-        <v>0</v>
-      </c>
-      <c r="L74" s="18">
+      <c r="I74" s="17">
+        <v>67</v>
+      </c>
+      <c r="J74" s="17">
+        <v>0</v>
+      </c>
+      <c r="K74" s="18">
+        <v>0</v>
+      </c>
+      <c r="L74" s="17">
         <v>8</v>
       </c>
-      <c r="M74" s="18">
+      <c r="M74" s="17">
         <v>7</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="17">
+        <v>18</v>
+      </c>
+      <c r="O74" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A75" s="5">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75" s="4">
         <v>10410</v>
       </c>
       <c r="B75" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="8">
         <f t="shared" si="3"/>
         <v>10410</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="17">
         <v>45</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="17">
         <v>580</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="17">
         <v>500</v>
       </c>
-      <c r="G75">
-        <v>10</v>
-      </c>
-      <c r="H75" s="22">
+      <c r="G75" s="17">
+        <v>10</v>
+      </c>
+      <c r="H75" s="17">
         <v>33</v>
       </c>
-      <c r="I75" s="22">
-        <v>67.5</v>
-      </c>
-      <c r="J75" s="22">
-        <v>0</v>
-      </c>
-      <c r="K75" s="22">
-        <v>0</v>
-      </c>
-      <c r="L75" s="18">
-        <v>10</v>
-      </c>
-      <c r="M75" s="18">
-        <v>10</v>
-      </c>
-      <c r="N75">
+      <c r="I75" s="17">
+        <v>67</v>
+      </c>
+      <c r="J75" s="17">
+        <v>0</v>
+      </c>
+      <c r="K75" s="18">
+        <v>0</v>
+      </c>
+      <c r="L75" s="17">
+        <v>10</v>
+      </c>
+      <c r="M75" s="17">
+        <v>10</v>
+      </c>
+      <c r="N75" s="17">
+        <v>18</v>
+      </c>
+      <c r="O75" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A76" s="5">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" s="4">
         <v>10411</v>
       </c>
       <c r="B76" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="8">
         <f t="shared" si="3"/>
         <v>10411</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="17">
         <v>45</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="17">
         <v>780</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="17">
         <v>750</v>
       </c>
-      <c r="G76">
-        <v>10</v>
-      </c>
-      <c r="H76" s="22">
+      <c r="G76" s="17">
+        <v>10</v>
+      </c>
+      <c r="H76" s="17">
         <v>45</v>
       </c>
-      <c r="I76" s="22">
+      <c r="I76" s="17">
         <v>75</v>
       </c>
-      <c r="J76" s="22">
-        <v>0</v>
-      </c>
-      <c r="K76" s="22">
-        <v>0</v>
-      </c>
-      <c r="L76" s="18">
+      <c r="J76" s="17">
+        <v>0</v>
+      </c>
+      <c r="K76" s="18">
+        <v>0</v>
+      </c>
+      <c r="L76" s="17">
         <v>12</v>
       </c>
-      <c r="M76" s="18">
+      <c r="M76" s="17">
         <v>15</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="17">
+        <v>18</v>
+      </c>
+      <c r="O76" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A77" s="5">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77" s="4">
         <v>10412</v>
       </c>
       <c r="B77" t="s">
         <v>101</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="8">
         <f t="shared" si="3"/>
         <v>10412</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="17">
         <v>45</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="17">
         <v>440</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="17">
         <v>360</v>
       </c>
-      <c r="G77">
-        <v>10</v>
-      </c>
-      <c r="H77" s="22">
-        <v>0</v>
-      </c>
-      <c r="I77" s="22">
-        <v>0</v>
-      </c>
-      <c r="J77" s="22">
+      <c r="G77" s="17">
+        <v>10</v>
+      </c>
+      <c r="H77" s="18">
+        <v>0</v>
+      </c>
+      <c r="I77" s="18">
+        <v>0</v>
+      </c>
+      <c r="J77" s="17">
         <v>30</v>
       </c>
-      <c r="K77" s="22">
-        <v>112.5</v>
-      </c>
-      <c r="L77" s="18">
+      <c r="K77" s="17">
+        <v>112</v>
+      </c>
+      <c r="L77" s="17">
         <v>9</v>
       </c>
-      <c r="M77" s="18">
+      <c r="M77" s="17">
         <v>12</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="17">
+        <v>18</v>
+      </c>
+      <c r="O77" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A78" s="5">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A78" s="4">
         <v>10413</v>
       </c>
       <c r="B78" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="8">
         <f t="shared" si="3"/>
         <v>10413</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="17">
         <v>45</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="17">
         <v>750</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="17">
         <v>750</v>
       </c>
-      <c r="G78">
-        <v>10</v>
-      </c>
-      <c r="H78" s="22">
+      <c r="G78" s="17">
+        <v>10</v>
+      </c>
+      <c r="H78" s="18">
+        <v>0</v>
+      </c>
+      <c r="I78" s="18">
+        <v>0</v>
+      </c>
+      <c r="J78" s="17">
         <v>60</v>
       </c>
-      <c r="I78" s="22">
-        <v>97.5</v>
-      </c>
-      <c r="J78" s="22">
-        <v>0</v>
-      </c>
-      <c r="K78" s="22">
-        <v>0</v>
-      </c>
-      <c r="L78" s="18">
-        <v>10</v>
-      </c>
-      <c r="M78" s="18">
+      <c r="K78" s="17">
+        <v>97</v>
+      </c>
+      <c r="L78" s="17">
+        <v>10</v>
+      </c>
+      <c r="M78" s="17">
         <v>13</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="17">
+        <v>18</v>
+      </c>
+      <c r="O78" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A79" s="5">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A79" s="4">
         <v>10414</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="8">
         <f t="shared" si="3"/>
         <v>10414</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="17">
         <v>16</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="17">
         <v>25</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="17">
         <v>300</v>
       </c>
-      <c r="G79">
-        <v>10</v>
-      </c>
-      <c r="H79" s="22">
-        <v>0</v>
-      </c>
-      <c r="I79" s="22">
-        <v>0</v>
-      </c>
-      <c r="J79" s="22">
+      <c r="G79" s="17">
+        <v>10</v>
+      </c>
+      <c r="H79" s="18">
+        <v>0</v>
+      </c>
+      <c r="I79" s="18">
+        <v>0</v>
+      </c>
+      <c r="J79" s="17">
         <v>45</v>
       </c>
-      <c r="K79" s="22">
+      <c r="K79" s="17">
         <v>90</v>
       </c>
-      <c r="L79" s="18">
-        <v>0</v>
-      </c>
-      <c r="M79" s="18">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A80" s="5">
+      <c r="L79" s="17">
+        <v>0</v>
+      </c>
+      <c r="M79" s="17">
+        <v>0</v>
+      </c>
+      <c r="N79" s="17">
+        <v>8</v>
+      </c>
+      <c r="O79" s="17">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A80" s="4">
         <v>10601</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="8">
         <f t="shared" si="3"/>
         <v>10601</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="17">
         <v>60</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="17">
         <v>1000</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="17">
         <v>1000</v>
       </c>
-      <c r="G80">
-        <v>10</v>
-      </c>
-      <c r="H80" s="22">
-        <v>0</v>
-      </c>
-      <c r="I80" s="22">
-        <v>0</v>
-      </c>
-      <c r="J80" s="22">
+      <c r="G80" s="17">
+        <v>10</v>
+      </c>
+      <c r="H80" s="18">
+        <v>0</v>
+      </c>
+      <c r="I80" s="18">
+        <v>0</v>
+      </c>
+      <c r="J80" s="17">
         <v>60</v>
       </c>
-      <c r="K80" s="22">
+      <c r="K80" s="17">
         <v>100</v>
       </c>
-      <c r="L80" s="18">
+      <c r="L80" s="17">
         <v>12</v>
       </c>
-      <c r="M80" s="18">
+      <c r="M80" s="17">
         <v>12</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="17">
+        <v>15</v>
+      </c>
+      <c r="O80" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A81" s="5">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A81" s="4">
         <v>10602</v>
       </c>
       <c r="B81" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="8">
         <f t="shared" si="3"/>
         <v>10602</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="17">
         <v>60</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="17">
         <v>1000</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="17">
         <v>1000</v>
       </c>
-      <c r="G81">
-        <v>10</v>
-      </c>
-      <c r="H81" s="22">
-        <v>0</v>
-      </c>
-      <c r="I81" s="22">
-        <v>0</v>
-      </c>
-      <c r="J81" s="22">
+      <c r="G81" s="17">
+        <v>10</v>
+      </c>
+      <c r="H81" s="18">
+        <v>0</v>
+      </c>
+      <c r="I81" s="18">
+        <v>0</v>
+      </c>
+      <c r="J81" s="17">
         <v>66</v>
       </c>
-      <c r="K81" s="22">
+      <c r="K81" s="17">
         <v>120</v>
       </c>
-      <c r="L81" s="18">
+      <c r="L81" s="17">
         <v>12</v>
       </c>
-      <c r="M81" s="18">
+      <c r="M81" s="17">
         <v>12</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="17">
+        <v>15</v>
+      </c>
+      <c r="O81" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A82" s="5">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A82" s="4">
         <v>10603</v>
       </c>
       <c r="B82" t="s">
         <v>90</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="8">
         <f t="shared" si="3"/>
         <v>10603</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="17">
         <v>60</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="17">
         <v>1200</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="17">
         <v>1000</v>
       </c>
-      <c r="G82">
-        <v>10</v>
-      </c>
-      <c r="H82" s="22">
+      <c r="G82" s="17">
+        <v>10</v>
+      </c>
+      <c r="H82" s="18">
+        <v>0</v>
+      </c>
+      <c r="I82" s="18">
+        <v>0</v>
+      </c>
+      <c r="J82" s="17">
         <v>66</v>
       </c>
-      <c r="I82" s="22">
+      <c r="K82" s="17">
         <v>120</v>
       </c>
-      <c r="J82" s="22">
-        <v>0</v>
-      </c>
-      <c r="K82" s="22">
-        <v>0</v>
-      </c>
-      <c r="L82" s="18">
+      <c r="L82" s="17">
         <v>12</v>
       </c>
-      <c r="M82" s="18">
+      <c r="M82" s="17">
         <v>12</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="17">
+        <v>15</v>
+      </c>
+      <c r="O82" s="17">
         <v>2000</v>
       </c>
-      <c r="P82" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A83" s="5">
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A83" s="4">
         <v>10604</v>
       </c>
       <c r="B83" t="s">
         <v>91</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="8">
         <f t="shared" si="3"/>
         <v>10604</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="17">
         <v>60</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="17">
         <v>1300</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="17">
         <v>1200</v>
       </c>
-      <c r="G83">
-        <v>10</v>
-      </c>
-      <c r="H83" s="22">
+      <c r="G83" s="17">
+        <v>10</v>
+      </c>
+      <c r="H83" s="17">
         <v>80</v>
       </c>
-      <c r="I83" s="22">
+      <c r="I83" s="17">
         <v>124</v>
       </c>
-      <c r="J83" s="22">
-        <v>0</v>
-      </c>
-      <c r="K83" s="22">
-        <v>0</v>
-      </c>
-      <c r="L83" s="18">
+      <c r="J83" s="17">
+        <v>0</v>
+      </c>
+      <c r="K83" s="18">
+        <v>0</v>
+      </c>
+      <c r="L83" s="17">
         <v>12</v>
       </c>
-      <c r="M83" s="18">
+      <c r="M83" s="17">
         <v>12</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="17">
+        <v>15</v>
+      </c>
+      <c r="O83" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A84" s="5">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A84" s="4">
         <v>10605</v>
       </c>
       <c r="B84" t="s">
         <v>135</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="8">
         <f t="shared" si="3"/>
         <v>10605</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="17">
         <v>60</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="17">
         <v>1500</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="17">
         <v>1200</v>
       </c>
-      <c r="G84">
-        <v>10</v>
-      </c>
-      <c r="H84" s="22">
+      <c r="G84" s="17">
+        <v>10</v>
+      </c>
+      <c r="H84" s="17">
         <v>80</v>
       </c>
-      <c r="I84" s="22">
+      <c r="I84" s="17">
         <v>130</v>
       </c>
-      <c r="J84" s="22">
-        <v>0</v>
-      </c>
-      <c r="K84" s="22">
-        <v>0</v>
-      </c>
-      <c r="L84" s="18">
+      <c r="J84" s="17">
+        <v>0</v>
+      </c>
+      <c r="K84" s="18">
+        <v>0</v>
+      </c>
+      <c r="L84" s="17">
         <v>12</v>
       </c>
-      <c r="M84" s="18">
+      <c r="M84" s="17">
         <v>12</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="17">
+        <v>15</v>
+      </c>
+      <c r="O84" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A85" s="5">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A85" s="4">
         <v>10606</v>
       </c>
       <c r="B85" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="8">
         <f t="shared" si="3"/>
         <v>10606</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="17">
         <v>60</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="17">
         <v>1600</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="17">
         <v>1000</v>
       </c>
-      <c r="G85">
-        <v>10</v>
-      </c>
-      <c r="H85" s="22">
+      <c r="G85" s="17">
+        <v>10</v>
+      </c>
+      <c r="H85" s="18">
+        <v>0</v>
+      </c>
+      <c r="I85" s="18">
+        <v>0</v>
+      </c>
+      <c r="J85" s="17">
         <v>100</v>
       </c>
-      <c r="I85" s="22">
+      <c r="K85" s="17">
         <v>130</v>
       </c>
-      <c r="J85" s="22">
-        <v>0</v>
-      </c>
-      <c r="K85" s="22">
-        <v>0</v>
-      </c>
-      <c r="L85" s="18">
+      <c r="L85" s="17">
         <v>12</v>
       </c>
-      <c r="M85" s="18">
+      <c r="M85" s="17">
         <v>12</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="17">
+        <v>15</v>
+      </c>
+      <c r="O85" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A86" s="5">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A86" s="4">
         <v>10701</v>
       </c>
       <c r="B86" t="s">
-        <v>154</v>
-      </c>
-      <c r="C86" s="10">
+        <v>150</v>
+      </c>
+      <c r="C86" s="8">
         <f t="shared" si="3"/>
         <v>10701</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="17">
+        <v>44</v>
+      </c>
+      <c r="E86" s="17">
+        <v>250</v>
+      </c>
+      <c r="F86" s="17">
+        <v>500</v>
+      </c>
+      <c r="G86" s="17">
+        <v>10</v>
+      </c>
+      <c r="H86" s="18">
+        <v>150</v>
+      </c>
+      <c r="I86" s="18">
+        <v>262</v>
+      </c>
+      <c r="J86" s="18">
+        <v>0</v>
+      </c>
+      <c r="K86" s="18">
+        <v>0</v>
+      </c>
+      <c r="L86" s="19">
+        <v>15</v>
+      </c>
+      <c r="M86" s="19">
+        <v>15</v>
+      </c>
+      <c r="N86" s="19">
+        <v>16</v>
+      </c>
+      <c r="O86" s="17">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A87" s="4">
+        <v>10702</v>
+      </c>
+      <c r="B87" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="8">
+        <v>10702</v>
+      </c>
+      <c r="D87" s="17">
         <v>99</v>
       </c>
-      <c r="E86">
-        <v>250</v>
-      </c>
-      <c r="F86">
-        <v>500</v>
-      </c>
-      <c r="G86">
-        <v>10</v>
-      </c>
-      <c r="H86" s="22">
-        <v>50</v>
-      </c>
-      <c r="I86" s="22">
-        <v>87.5</v>
-      </c>
-      <c r="J86" s="22">
-        <v>0</v>
-      </c>
-      <c r="K86" s="22">
-        <v>0</v>
-      </c>
-      <c r="L86" s="18">
-        <v>15</v>
-      </c>
-      <c r="M86" s="18">
-        <v>15</v>
-      </c>
-      <c r="N86">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A87" s="5">
-        <v>10702</v>
-      </c>
-      <c r="B87" t="s">
-        <v>155</v>
-      </c>
-      <c r="C87" s="10">
-        <v>10702</v>
-      </c>
-      <c r="D87">
-        <v>99</v>
-      </c>
-      <c r="E87">
+      <c r="E87" s="17">
         <v>100</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="17">
         <v>100</v>
       </c>
-      <c r="G87">
-        <v>10</v>
-      </c>
-      <c r="H87" s="22">
-        <v>20</v>
-      </c>
-      <c r="I87" s="22">
-        <v>25</v>
-      </c>
-      <c r="J87" s="22">
-        <v>37.5</v>
-      </c>
-      <c r="K87" s="22">
-        <v>75</v>
-      </c>
-      <c r="L87" s="18">
-        <v>15</v>
-      </c>
-      <c r="M87" s="18">
+      <c r="G87" s="17">
+        <v>10</v>
+      </c>
+      <c r="H87" s="17">
+        <v>0</v>
+      </c>
+      <c r="I87" s="17">
+        <v>0</v>
+      </c>
+      <c r="J87" s="17">
+        <v>45</v>
+      </c>
+      <c r="K87" s="17">
+        <v>81</v>
+      </c>
+      <c r="L87" s="17">
+        <v>8</v>
+      </c>
+      <c r="M87" s="17">
+        <v>10</v>
+      </c>
+      <c r="N87" s="17">
         <v>18</v>
       </c>
-      <c r="N87">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A88" s="5">
+      <c r="O87" s="17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A88" s="4">
         <v>10703</v>
       </c>
       <c r="B88" t="s">
-        <v>146</v>
-      </c>
-      <c r="C88" s="10">
+        <v>144</v>
+      </c>
+      <c r="C88" s="8">
         <f t="shared" si="3"/>
         <v>10703</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="17">
         <v>46</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="17">
         <v>100</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="17">
         <v>160</v>
       </c>
-      <c r="G88">
-        <v>10</v>
-      </c>
-      <c r="H88" s="22">
-        <v>37.5</v>
-      </c>
-      <c r="I88" s="22">
-        <v>37.5</v>
-      </c>
-      <c r="J88" s="22">
-        <v>37.5</v>
-      </c>
-      <c r="K88" s="22">
-        <v>62.5</v>
-      </c>
-      <c r="L88" s="18">
+      <c r="G88" s="17">
+        <v>10</v>
+      </c>
+      <c r="H88" s="18">
+        <v>0</v>
+      </c>
+      <c r="I88" s="18">
+        <v>0</v>
+      </c>
+      <c r="J88" s="18">
+        <v>57</v>
+      </c>
+      <c r="K88" s="18">
+        <v>90</v>
+      </c>
+      <c r="L88" s="19">
         <v>15</v>
       </c>
-      <c r="M88" s="18">
+      <c r="M88" s="19">
         <v>15</v>
       </c>
-      <c r="N88">
+      <c r="N88" s="19">
+        <v>20</v>
+      </c>
+      <c r="O88" s="17">
         <v>1200</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A89" s="5">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A89" s="4">
         <v>10704</v>
       </c>
       <c r="B89" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89" s="8">
         <f>C32</f>
         <v>10202</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="17">
         <v>50</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="17">
         <v>2500</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="17">
         <v>1500</v>
       </c>
-      <c r="G89">
-        <v>10</v>
-      </c>
-      <c r="H89" s="22">
-        <v>150</v>
-      </c>
-      <c r="I89" s="22">
-        <v>150</v>
-      </c>
-      <c r="J89" s="22">
-        <v>0</v>
-      </c>
-      <c r="K89" s="22">
-        <v>0</v>
-      </c>
-      <c r="L89" s="18">
+      <c r="G89" s="17">
+        <v>10</v>
+      </c>
+      <c r="H89" s="17">
+        <v>180</v>
+      </c>
+      <c r="I89" s="17">
+        <v>230</v>
+      </c>
+      <c r="J89" s="17">
+        <v>0</v>
+      </c>
+      <c r="K89" s="17">
+        <v>0</v>
+      </c>
+      <c r="L89" s="17">
         <v>15</v>
       </c>
-      <c r="M89" s="18">
+      <c r="M89" s="17">
         <v>15</v>
       </c>
-      <c r="N89">
+      <c r="N89" s="17">
+        <v>35</v>
+      </c>
+      <c r="O89" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A90" s="5">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A90" s="4">
         <v>10705</v>
       </c>
       <c r="B90" t="s">
         <v>128</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="8">
         <f>C33</f>
         <v>10203</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="17">
         <v>50</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="17">
         <v>2500</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="17">
         <v>1500</v>
       </c>
-      <c r="G90">
-        <v>10</v>
-      </c>
-      <c r="H90" s="22">
-        <v>150</v>
-      </c>
-      <c r="I90" s="22">
-        <v>150</v>
-      </c>
-      <c r="J90" s="22">
-        <v>0</v>
-      </c>
-      <c r="K90" s="22">
-        <v>0</v>
-      </c>
-      <c r="L90" s="18">
+      <c r="G90" s="17">
+        <v>10</v>
+      </c>
+      <c r="H90" s="17">
+        <v>180</v>
+      </c>
+      <c r="I90" s="17">
+        <v>230</v>
+      </c>
+      <c r="J90" s="17">
+        <v>0</v>
+      </c>
+      <c r="K90" s="17">
+        <v>0</v>
+      </c>
+      <c r="L90" s="17">
         <v>15</v>
       </c>
-      <c r="M90" s="18">
+      <c r="M90" s="17">
         <v>15</v>
       </c>
-      <c r="N90">
+      <c r="N90" s="17">
+        <v>35</v>
+      </c>
+      <c r="O90" s="17">
         <v>2000</v>
       </c>
-      <c r="P90" s="20">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A91" s="5">
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A91" s="4">
         <v>10706</v>
       </c>
       <c r="B91" t="s">
         <v>129</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="8">
         <f>C40</f>
         <v>10210</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="17">
         <v>50</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="17">
         <v>3000</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="17">
         <v>1300</v>
       </c>
-      <c r="G91">
-        <v>10</v>
-      </c>
-      <c r="H91" s="22">
-        <v>100</v>
-      </c>
-      <c r="I91" s="22">
-        <v>200</v>
-      </c>
-      <c r="J91" s="22">
-        <v>0</v>
-      </c>
-      <c r="K91" s="22">
-        <v>0</v>
-      </c>
-      <c r="L91" s="18">
+      <c r="G91" s="17">
+        <v>10</v>
+      </c>
+      <c r="H91" s="17">
+        <v>0</v>
+      </c>
+      <c r="I91" s="17">
+        <v>0</v>
+      </c>
+      <c r="J91" s="17">
+        <v>120</v>
+      </c>
+      <c r="K91" s="17">
+        <v>240</v>
+      </c>
+      <c r="L91" s="17">
         <v>15</v>
       </c>
-      <c r="M91" s="18">
+      <c r="M91" s="17">
         <v>25</v>
       </c>
-      <c r="N91">
+      <c r="N91" s="17">
+        <v>60</v>
+      </c>
+      <c r="O91" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A92" s="5">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A92" s="4">
         <v>10707</v>
       </c>
       <c r="B92" t="s">
         <v>130</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="8">
         <f>C14</f>
         <v>10110</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="17">
         <v>50</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="17">
         <v>1500</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="17">
         <v>800</v>
       </c>
-      <c r="G92">
-        <v>10</v>
-      </c>
-      <c r="H92" s="22">
-        <v>62.5</v>
-      </c>
-      <c r="I92" s="22">
-        <v>125</v>
-      </c>
-      <c r="J92" s="22">
-        <v>0</v>
-      </c>
-      <c r="K92" s="22">
-        <v>0</v>
-      </c>
-      <c r="L92" s="18">
+      <c r="G92" s="17">
+        <v>10</v>
+      </c>
+      <c r="H92" s="17">
+        <v>0</v>
+      </c>
+      <c r="I92" s="17">
+        <v>0</v>
+      </c>
+      <c r="J92" s="17">
+        <v>75</v>
+      </c>
+      <c r="K92" s="17">
+        <v>150</v>
+      </c>
+      <c r="L92" s="17">
         <v>45</v>
       </c>
-      <c r="M92" s="18">
-        <v>10</v>
-      </c>
-      <c r="N92">
+      <c r="M92" s="17">
+        <v>10</v>
+      </c>
+      <c r="N92" s="17">
+        <v>30</v>
+      </c>
+      <c r="O92" s="17">
         <v>2100</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A93" s="5">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A93" s="4">
         <v>10708</v>
       </c>
       <c r="B93" t="s">
         <v>131</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C93" s="8">
         <f>C15</f>
         <v>10111</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="17">
         <v>50</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="17">
         <v>3200</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="17">
         <v>1800</v>
       </c>
-      <c r="G93">
-        <v>10</v>
-      </c>
-      <c r="H93" s="22">
-        <v>100</v>
-      </c>
-      <c r="I93" s="22">
-        <v>100</v>
-      </c>
-      <c r="J93" s="22">
-        <v>0</v>
-      </c>
-      <c r="K93" s="22">
-        <v>0</v>
-      </c>
-      <c r="L93" s="18">
+      <c r="G93" s="17">
+        <v>10</v>
+      </c>
+      <c r="H93" s="17">
+        <v>120</v>
+      </c>
+      <c r="I93" s="17">
+        <v>170</v>
+      </c>
+      <c r="J93" s="17">
+        <v>0</v>
+      </c>
+      <c r="K93" s="17">
+        <v>0</v>
+      </c>
+      <c r="L93" s="17">
         <v>15</v>
       </c>
-      <c r="M93" s="18">
+      <c r="M93" s="17">
         <v>15</v>
       </c>
-      <c r="N93">
+      <c r="N93" s="17">
+        <v>38</v>
+      </c>
+      <c r="O93" s="17">
         <v>2300</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A94" s="5">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A94" s="4">
         <v>10709</v>
       </c>
       <c r="B94" t="s">
         <v>132</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="8">
         <f>C8</f>
         <v>10104</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="17">
         <v>50</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="17">
         <v>4000</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="17">
         <v>2300</v>
       </c>
-      <c r="G94">
-        <v>10</v>
-      </c>
-      <c r="H94" s="22">
-        <v>125</v>
-      </c>
-      <c r="I94" s="22">
-        <v>300</v>
-      </c>
-      <c r="J94" s="22">
-        <v>0</v>
-      </c>
-      <c r="K94" s="22">
-        <v>0</v>
-      </c>
-      <c r="L94" s="18">
+      <c r="G94" s="17">
+        <v>10</v>
+      </c>
+      <c r="H94" s="17">
+        <v>150</v>
+      </c>
+      <c r="I94" s="17">
+        <v>260</v>
+      </c>
+      <c r="J94" s="17">
+        <v>0</v>
+      </c>
+      <c r="K94" s="17">
+        <v>0</v>
+      </c>
+      <c r="L94" s="17">
         <v>20</v>
       </c>
-      <c r="M94" s="18">
+      <c r="M94" s="17">
         <v>25</v>
       </c>
-      <c r="N94">
+      <c r="N94" s="17">
+        <v>70</v>
+      </c>
+      <c r="O94" s="17">
         <v>1900</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A95" s="5">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A95" s="4">
         <v>10710</v>
       </c>
       <c r="B95" t="s">
         <v>133</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95" s="8">
         <f>C24</f>
         <v>10120</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="17">
         <v>50</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="17">
         <v>4500</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="17">
         <v>3000</v>
       </c>
-      <c r="G95">
-        <v>10</v>
-      </c>
-      <c r="H95" s="22">
-        <v>0</v>
-      </c>
-      <c r="I95" s="22">
-        <v>0</v>
-      </c>
-      <c r="J95" s="22">
+      <c r="G95" s="17">
+        <v>10</v>
+      </c>
+      <c r="H95" s="17">
+        <v>0</v>
+      </c>
+      <c r="I95" s="17">
+        <v>0</v>
+      </c>
+      <c r="J95" s="17">
+        <v>60</v>
+      </c>
+      <c r="K95" s="17">
+        <v>420</v>
+      </c>
+      <c r="L95" s="17">
+        <v>10</v>
+      </c>
+      <c r="M95" s="17">
+        <v>15</v>
+      </c>
+      <c r="N95" s="17">
         <v>50</v>
       </c>
-      <c r="K95" s="22">
-        <v>350</v>
-      </c>
-      <c r="L95" s="18">
-        <v>10</v>
-      </c>
-      <c r="M95" s="18">
-        <v>15</v>
-      </c>
-      <c r="N95">
+      <c r="O95" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A96" s="5">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A96" s="4">
         <v>10711</v>
       </c>
       <c r="B96" t="s">
         <v>134</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="8">
         <f>C49</f>
         <v>10219</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="17">
         <v>50</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="17">
         <v>6000</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="17">
         <v>3000</v>
       </c>
-      <c r="G96">
-        <v>10</v>
-      </c>
-      <c r="H96" s="22">
-        <v>0</v>
-      </c>
-      <c r="I96" s="22">
-        <v>0</v>
-      </c>
-      <c r="J96" s="22">
-        <v>75</v>
-      </c>
-      <c r="K96" s="22">
-        <v>200</v>
-      </c>
-      <c r="L96" s="18">
-        <v>10</v>
-      </c>
-      <c r="M96" s="18">
+      <c r="G96" s="17">
+        <v>10</v>
+      </c>
+      <c r="H96" s="17">
+        <v>0</v>
+      </c>
+      <c r="I96" s="17">
+        <v>0</v>
+      </c>
+      <c r="J96" s="17">
+        <v>90</v>
+      </c>
+      <c r="K96" s="17">
+        <v>240</v>
+      </c>
+      <c r="L96" s="17">
+        <v>10</v>
+      </c>
+      <c r="M96" s="17">
         <v>20</v>
       </c>
-      <c r="N96">
+      <c r="N96" s="17">
+        <v>50</v>
+      </c>
+      <c r="O96" s="17">
         <v>2000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="H1:M1048576">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>H1=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -5392,7 +5693,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5401,71 +5702,75 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" customWidth="1"/>
     <col min="5" max="6" width="6.5" customWidth="1"/>
     <col min="7" max="7" width="4.5" customWidth="1"/>
     <col min="8" max="11" width="6.5" customWidth="1"/>
     <col min="12" max="12" width="4.5" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.375" customWidth="1"/>
+    <col min="14" max="14" width="5.5" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="15" t="s">
+    <row r="1" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L1" s="15" t="s">
+      <c r="J1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+      <c r="N1" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>20001</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <f>A2</f>
         <v>20001</v>
       </c>
@@ -5482,16 +5787,16 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -5500,17 +5805,20 @@
         <v>0</v>
       </c>
       <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>20002</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <f>C2</f>
         <v>20001</v>
       </c>
@@ -5530,32 +5838,35 @@
         <v>0</v>
       </c>
       <c r="I3">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>80</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
         <v>1800</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>20003</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f t="shared" ref="C4:C31" si="0">A4</f>
         <v>20003</v>
       </c>
@@ -5572,16 +5883,16 @@
         <v>100</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
         <v>7</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>24</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -5590,17 +5901,20 @@
         <v>4</v>
       </c>
       <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4">
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
         <v>20004</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>20004</v>
       </c>
@@ -5617,16 +5931,16 @@
         <v>100</v>
       </c>
       <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
         <v>18</v>
       </c>
-      <c r="I5">
+      <c r="J5">
+        <v>18</v>
+      </c>
+      <c r="K5">
         <v>36</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -5635,17 +5949,20 @@
         <v>3</v>
       </c>
       <c r="N5">
+        <v>15</v>
+      </c>
+      <c r="O5">
         <v>2800</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
         <v>20005</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>20005</v>
       </c>
@@ -5680,17 +5997,20 @@
         <v>8</v>
       </c>
       <c r="N6">
+        <v>17</v>
+      </c>
+      <c r="O6">
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
         <v>20006</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>20006</v>
       </c>
@@ -5710,7 +6030,7 @@
         <v>17</v>
       </c>
       <c r="I7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J7">
         <v>17</v>
@@ -5725,17 +6045,20 @@
         <v>17</v>
       </c>
       <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7">
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
         <v>20007</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>20007</v>
       </c>
@@ -5752,16 +6075,16 @@
         <v>100</v>
       </c>
       <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
         <v>7</v>
       </c>
-      <c r="I8">
-        <v>15</v>
-      </c>
       <c r="J8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -5770,17 +6093,20 @@
         <v>0</v>
       </c>
       <c r="N8">
+        <v>12</v>
+      </c>
+      <c r="O8">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
         <v>20008</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <f>C8</f>
         <v>20007</v>
       </c>
@@ -5800,32 +6126,35 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N9">
+        <v>20</v>
+      </c>
+      <c r="O9">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
         <v>20009</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="5">
+        <v>143</v>
+      </c>
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>20009</v>
       </c>
@@ -5842,35 +6171,38 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J10">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
         <v>17</v>
       </c>
-      <c r="N10">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
+      <c r="O10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
         <v>20010</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>20010</v>
       </c>
@@ -5887,16 +6219,16 @@
         <v>100</v>
       </c>
       <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
         <v>22</v>
       </c>
-      <c r="I11">
+      <c r="J11">
+        <v>22</v>
+      </c>
+      <c r="K11">
         <v>45</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
       </c>
       <c r="L11">
         <v>20</v>
@@ -5905,17 +6237,20 @@
         <v>10</v>
       </c>
       <c r="N11">
+        <v>17</v>
+      </c>
+      <c r="O11">
         <v>1800</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
         <v>20011</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>20011</v>
       </c>
@@ -5932,35 +6267,38 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J12">
         <v>30</v>
       </c>
       <c r="K12">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="N12">
+        <v>15</v>
+      </c>
+      <c r="O12">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
         <v>20012</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>20012</v>
       </c>
@@ -5977,16 +6315,16 @@
         <v>100</v>
       </c>
       <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>32</v>
+      </c>
+      <c r="J13">
         <v>30</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>65</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
       </c>
       <c r="L13">
         <v>20</v>
@@ -5995,17 +6333,20 @@
         <v>30</v>
       </c>
       <c r="N13">
+        <v>17</v>
+      </c>
+      <c r="O13">
         <v>1800</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
         <v>20013</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>20013</v>
       </c>
@@ -6022,16 +6363,16 @@
         <v>100</v>
       </c>
       <c r="H14">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>27</v>
+      </c>
+      <c r="J14">
         <v>30</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>55</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
       </c>
       <c r="L14">
         <v>15</v>
@@ -6040,22 +6381,25 @@
         <v>15</v>
       </c>
       <c r="N14">
+        <v>17</v>
+      </c>
+      <c r="O14">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
         <v>20014</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="5">
+        <v>155</v>
+      </c>
+      <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>20014</v>
       </c>
       <c r="D15">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <v>2000</v>
@@ -6085,17 +6429,20 @@
         <v>10</v>
       </c>
       <c r="N15">
+        <v>15</v>
+      </c>
+      <c r="O15">
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
         <v>20015</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>20015</v>
       </c>
@@ -6115,13 +6462,13 @@
         <v>20</v>
       </c>
       <c r="I16">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J16">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="L16">
         <v>20</v>
@@ -6130,17 +6477,20 @@
         <v>20</v>
       </c>
       <c r="N16">
+        <v>30</v>
+      </c>
+      <c r="O16">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
         <v>20016</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>20016</v>
       </c>
@@ -6157,16 +6507,16 @@
         <v>100</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I17">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J17">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="L17">
         <v>20</v>
@@ -6175,17 +6525,20 @@
         <v>20</v>
       </c>
       <c r="N17">
+        <v>18</v>
+      </c>
+      <c r="O17">
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="5">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
         <v>20017</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>20017</v>
       </c>
@@ -6205,13 +6558,13 @@
         <v>15</v>
       </c>
       <c r="I18">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J18">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="L18">
         <v>20</v>
@@ -6220,17 +6573,20 @@
         <v>20</v>
       </c>
       <c r="N18">
+        <v>18</v>
+      </c>
+      <c r="O18">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
         <v>20018</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>20018</v>
       </c>
@@ -6247,16 +6603,16 @@
         <v>100</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I19">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="J19">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="L19">
         <v>18</v>
@@ -6265,17 +6621,20 @@
         <v>18</v>
       </c>
       <c r="N19">
+        <v>25</v>
+      </c>
+      <c r="O19">
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="5">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
         <v>20019</v>
       </c>
       <c r="B20" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <f t="shared" si="0"/>
         <v>20019</v>
       </c>
@@ -6292,16 +6651,16 @@
         <v>100</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20">
         <v>35</v>
       </c>
       <c r="J20">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="K20">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="L20">
         <v>20</v>
@@ -6310,17 +6669,20 @@
         <v>24</v>
       </c>
       <c r="N20">
+        <v>18</v>
+      </c>
+      <c r="O20">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="5">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
         <v>20020</v>
       </c>
       <c r="B21" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <f>C20</f>
         <v>20019</v>
       </c>
@@ -6337,16 +6699,16 @@
         <v>100</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21">
         <v>35</v>
       </c>
       <c r="J21">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="K21">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="L21">
         <v>17</v>
@@ -6355,17 +6717,20 @@
         <v>24</v>
       </c>
       <c r="N21">
+        <v>18</v>
+      </c>
+      <c r="O21">
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
         <v>20021</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <f t="shared" si="0"/>
         <v>20021</v>
       </c>
@@ -6382,16 +6747,16 @@
         <v>100</v>
       </c>
       <c r="H22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22">
         <v>35</v>
       </c>
       <c r="J22">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="K22">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="L22">
         <v>20</v>
@@ -6400,17 +6765,20 @@
         <v>24</v>
       </c>
       <c r="N22">
+        <v>18</v>
+      </c>
+      <c r="O22">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="5">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
         <v>20022</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <f t="shared" si="0"/>
         <v>20022</v>
       </c>
@@ -6427,16 +6795,16 @@
         <v>100</v>
       </c>
       <c r="H23">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L23">
         <v>26</v>
@@ -6445,17 +6813,20 @@
         <v>3</v>
       </c>
       <c r="N23">
+        <v>25</v>
+      </c>
+      <c r="O23">
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="5">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
         <v>20023</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <f t="shared" si="0"/>
         <v>20023</v>
       </c>
@@ -6472,16 +6843,16 @@
         <v>100</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I24">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L24">
         <v>15</v>
@@ -6490,17 +6861,20 @@
         <v>10</v>
       </c>
       <c r="N24">
+        <v>18</v>
+      </c>
+      <c r="O24">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="5">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
         <v>20024</v>
       </c>
       <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <f t="shared" si="0"/>
         <v>20024</v>
       </c>
@@ -6523,10 +6897,10 @@
         <v>35</v>
       </c>
       <c r="J25">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="L25">
         <v>15</v>
@@ -6535,17 +6909,20 @@
         <v>20</v>
       </c>
       <c r="N25">
+        <v>50</v>
+      </c>
+      <c r="O25">
         <v>1400</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="5">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
         <v>20025</v>
       </c>
       <c r="B26" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>20025</v>
       </c>
@@ -6562,35 +6939,38 @@
         <v>100</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I26">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L26">
         <v>20</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N26">
+        <v>35</v>
+      </c>
+      <c r="O26">
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="5">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="4">
         <v>20026</v>
       </c>
       <c r="B27" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <f>C26</f>
         <v>20025</v>
       </c>
@@ -6613,10 +6993,10 @@
         <v>50</v>
       </c>
       <c r="J27">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K27">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L27">
         <v>10</v>
@@ -6625,17 +7005,20 @@
         <v>30</v>
       </c>
       <c r="N27">
+        <v>35</v>
+      </c>
+      <c r="O27">
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="5">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
         <v>20027</v>
       </c>
       <c r="B28" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>20027</v>
       </c>
@@ -6670,17 +7053,20 @@
         <v>12</v>
       </c>
       <c r="N28">
+        <v>15</v>
+      </c>
+      <c r="O28">
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="5">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
         <v>20028</v>
       </c>
       <c r="B29" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>20028</v>
       </c>
@@ -6697,16 +7083,16 @@
         <v>100</v>
       </c>
       <c r="H29">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I29">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L29">
         <v>12</v>
@@ -6715,17 +7101,20 @@
         <v>12</v>
       </c>
       <c r="N29">
+        <v>15</v>
+      </c>
+      <c r="O29">
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="5">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
         <v>20029</v>
       </c>
       <c r="B30" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <f t="shared" si="0"/>
         <v>20029</v>
       </c>
@@ -6742,16 +7131,16 @@
         <v>100</v>
       </c>
       <c r="H30">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I30">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="L30">
         <v>12</v>
@@ -6760,17 +7149,20 @@
         <v>12</v>
       </c>
       <c r="N30">
+        <v>15</v>
+      </c>
+      <c r="O30">
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="5">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="4">
         <v>20030</v>
       </c>
       <c r="B31" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <f t="shared" si="0"/>
         <v>20030</v>
       </c>
@@ -6778,7 +7170,7 @@
         <v>60</v>
       </c>
       <c r="E31">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F31">
         <v>12000</v>
@@ -6805,17 +7197,20 @@
         <v>30</v>
       </c>
       <c r="N31">
+        <v>15</v>
+      </c>
+      <c r="O31">
         <v>1600</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="5">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
         <v>20031</v>
       </c>
       <c r="B32" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <f>C26</f>
         <v>20025</v>
       </c>
@@ -6832,16 +7227,16 @@
         <v>100</v>
       </c>
       <c r="H32">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I32">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J32">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="L32">
         <v>50</v>
@@ -6850,17 +7245,20 @@
         <v>80</v>
       </c>
       <c r="N32">
+        <v>35</v>
+      </c>
+      <c r="O32">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="5">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="4">
         <v>20032</v>
       </c>
       <c r="B33" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <f>C17</f>
         <v>20016</v>
       </c>
@@ -6880,13 +7278,13 @@
         <v>17</v>
       </c>
       <c r="I33">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J33">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="L33">
         <v>12</v>
@@ -6895,17 +7293,20 @@
         <v>14</v>
       </c>
       <c r="N33">
+        <v>20</v>
+      </c>
+      <c r="O33">
         <v>1800</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="5">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="4">
         <v>20033</v>
       </c>
       <c r="B34" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <f>C4</f>
         <v>20003</v>
       </c>
@@ -6925,13 +7326,13 @@
         <v>17</v>
       </c>
       <c r="I34">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J34">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="L34">
         <v>12</v>
@@ -6940,17 +7341,20 @@
         <v>14</v>
       </c>
       <c r="N34">
+        <v>20</v>
+      </c>
+      <c r="O34">
         <v>1800</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="5">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="4">
         <v>20034</v>
       </c>
       <c r="B35" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <f>C18</f>
         <v>20017</v>
       </c>
@@ -6970,13 +7374,13 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J35">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="L35">
         <v>12</v>
@@ -6985,17 +7389,20 @@
         <v>14</v>
       </c>
       <c r="N35">
+        <v>20</v>
+      </c>
+      <c r="O35">
         <v>1800</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="5">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="4">
         <v>20035</v>
       </c>
       <c r="B36" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <f>C7</f>
         <v>20006</v>
       </c>
@@ -7015,13 +7422,13 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J36">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="L36">
         <v>12</v>
@@ -7030,17 +7437,20 @@
         <v>14</v>
       </c>
       <c r="N36">
+        <v>20</v>
+      </c>
+      <c r="O36">
         <v>1800</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="5">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="4">
         <v>20036</v>
       </c>
       <c r="B37" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <f>C20</f>
         <v>20019</v>
       </c>
@@ -7060,13 +7470,13 @@
         <v>17</v>
       </c>
       <c r="I37">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J37">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="L37">
         <v>12</v>
@@ -7075,17 +7485,20 @@
         <v>14</v>
       </c>
       <c r="N37">
+        <v>20</v>
+      </c>
+      <c r="O37">
         <v>1800</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="5">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="4">
         <v>20037</v>
       </c>
       <c r="B38" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <f>C25</f>
         <v>20024</v>
       </c>
@@ -7105,13 +7518,13 @@
         <v>17</v>
       </c>
       <c r="I38">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J38">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="L38">
         <v>12</v>
@@ -7120,17 +7533,20 @@
         <v>14</v>
       </c>
       <c r="N38">
+        <v>20</v>
+      </c>
+      <c r="O38">
         <v>1400</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="5">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="4">
         <v>20038</v>
       </c>
       <c r="B39" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <f>C7</f>
         <v>20006</v>
       </c>
@@ -7147,16 +7563,16 @@
         <v>100</v>
       </c>
       <c r="H39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I39">
         <v>37</v>
       </c>
       <c r="J39">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="L39">
         <v>30</v>
@@ -7165,17 +7581,20 @@
         <v>30</v>
       </c>
       <c r="N39">
+        <v>20</v>
+      </c>
+      <c r="O39">
         <v>1500</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="5">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="4">
         <v>20039</v>
       </c>
       <c r="B40" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <f>C19</f>
         <v>20018</v>
       </c>
@@ -7192,16 +7611,16 @@
         <v>100</v>
       </c>
       <c r="H40">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I40">
         <v>50</v>
       </c>
       <c r="J40">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="K40">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L40">
         <v>25</v>
@@ -7210,17 +7629,20 @@
         <v>25</v>
       </c>
       <c r="N40">
+        <v>25</v>
+      </c>
+      <c r="O40">
         <v>2000</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="5">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" s="4">
         <v>20040</v>
       </c>
       <c r="B41" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <f>C12</f>
         <v>20011</v>
       </c>
@@ -7228,7 +7650,7 @@
         <v>55</v>
       </c>
       <c r="E41">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F41">
         <v>1000</v>
@@ -7237,16 +7659,16 @@
         <v>100</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J41">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -7255,17 +7677,20 @@
         <v>2000</v>
       </c>
       <c r="N41">
+        <v>30</v>
+      </c>
+      <c r="O41">
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="5">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="4">
         <v>20041</v>
       </c>
       <c r="B42" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <f>C31</f>
         <v>20030</v>
       </c>
@@ -7288,10 +7713,10 @@
         <v>125</v>
       </c>
       <c r="J42">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K42">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="L42">
         <v>50</v>
@@ -7300,17 +7725,20 @@
         <v>50</v>
       </c>
       <c r="N42">
+        <v>25</v>
+      </c>
+      <c r="O42">
         <v>1500</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="5">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="4">
         <v>20042</v>
       </c>
       <c r="B43" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <f>C28</f>
         <v>20027</v>
       </c>
@@ -7327,16 +7755,16 @@
         <v>100</v>
       </c>
       <c r="H43">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I43">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="L43">
         <v>30</v>
@@ -7345,17 +7773,20 @@
         <v>70</v>
       </c>
       <c r="N43">
+        <v>20</v>
+      </c>
+      <c r="O43">
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="5">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="4">
         <v>20043</v>
       </c>
       <c r="B44" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <f>C29</f>
         <v>20028</v>
       </c>
@@ -7372,16 +7803,16 @@
         <v>100</v>
       </c>
       <c r="H44">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I44">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L44">
         <v>40</v>
@@ -7390,17 +7821,20 @@
         <v>60</v>
       </c>
       <c r="N44">
+        <v>20</v>
+      </c>
+      <c r="O44">
         <v>2000</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="5">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="4">
         <v>20044</v>
       </c>
       <c r="B45" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <f>C22</f>
         <v>20021</v>
       </c>
@@ -7417,16 +7851,16 @@
         <v>100</v>
       </c>
       <c r="H45">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I45">
         <v>35</v>
       </c>
       <c r="J45">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="K45">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="L45">
         <v>20</v>
@@ -7435,17 +7869,20 @@
         <v>80</v>
       </c>
       <c r="N45">
+        <v>18</v>
+      </c>
+      <c r="O45">
         <v>2000</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A46" s="5">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" s="4">
         <v>20045</v>
       </c>
       <c r="B46" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <f>C16</f>
         <v>20015</v>
       </c>
@@ -7468,23 +7905,31 @@
         <v>50</v>
       </c>
       <c r="J46">
+        <v>90</v>
+      </c>
+      <c r="K46">
+        <v>150</v>
+      </c>
+      <c r="L46">
+        <v>40</v>
+      </c>
+      <c r="M46">
         <v>60</v>
       </c>
-      <c r="K46">
-        <v>100</v>
-      </c>
-      <c r="L46">
-        <v>100</v>
-      </c>
-      <c r="M46">
-        <v>100</v>
-      </c>
       <c r="N46">
+        <v>35</v>
+      </c>
+      <c r="O46">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="H1:M1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>H1=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="-45" windowWidth="5865" windowHeight="9450"/>
+    <workbookView xWindow="5610" yWindow="-105" windowWidth="13185" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="1" r:id="rId1"/>
@@ -1025,192 +1025,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -1587,27 +1402,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O137" sqref="A1:O137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="3.5" style="16" customWidth="1"/>
     <col min="8" max="9" width="6.5" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" style="17" customWidth="1"/>
     <col min="11" max="11" width="6.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" style="18" customWidth="1"/>
+    <col min="13" max="13" width="5.5" style="18" customWidth="1"/>
+    <col min="14" max="14" width="4.5" style="18" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="16" customWidth="1"/>
     <col min="17" max="17" width="5.5" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3848,11 +3663,11 @@
       <c r="I47" s="17">
         <v>0</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J47">
+        <v>12</v>
+      </c>
+      <c r="K47">
         <v>18</v>
-      </c>
-      <c r="K47" s="16">
-        <v>27</v>
       </c>
       <c r="L47" s="16">
         <v>10</v>
@@ -3897,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="J48" s="16">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K48" s="16">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L48" s="16">
         <v>15</v>
@@ -3938,11 +3753,11 @@
       <c r="G49" s="16">
         <v>10</v>
       </c>
-      <c r="H49" s="16">
-        <v>30</v>
-      </c>
-      <c r="I49" s="16">
-        <v>48</v>
+      <c r="H49">
+        <v>20</v>
+      </c>
+      <c r="I49">
+        <v>32</v>
       </c>
       <c r="J49" s="16">
         <v>0</v>
@@ -3987,10 +3802,10 @@
         <v>10</v>
       </c>
       <c r="H50" s="16">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I50" s="16">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J50" s="16">
         <v>0</v>
@@ -4034,11 +3849,11 @@
       <c r="G51" s="16">
         <v>10</v>
       </c>
-      <c r="H51" s="16">
-        <v>33</v>
-      </c>
-      <c r="I51" s="16">
-        <v>51</v>
+      <c r="H51">
+        <v>22</v>
+      </c>
+      <c r="I51">
+        <v>34</v>
       </c>
       <c r="J51" s="16">
         <v>0</v>
@@ -4083,10 +3898,10 @@
         <v>10</v>
       </c>
       <c r="H52" s="16">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I52" s="16">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J52" s="16">
         <v>0</v>
@@ -4136,11 +3951,11 @@
       <c r="I53" s="17">
         <v>0</v>
       </c>
-      <c r="J53" s="16">
-        <v>50</v>
-      </c>
-      <c r="K53" s="16">
-        <v>80</v>
+      <c r="J53">
+        <v>54</v>
+      </c>
+      <c r="K53">
+        <v>108</v>
       </c>
       <c r="L53" s="16">
         <v>10</v>
@@ -4178,11 +3993,11 @@
       <c r="G54" s="16">
         <v>10</v>
       </c>
-      <c r="H54" s="16">
-        <v>30</v>
-      </c>
-      <c r="I54" s="16">
-        <v>40</v>
+      <c r="H54">
+        <v>44</v>
+      </c>
+      <c r="I54">
+        <v>68</v>
       </c>
       <c r="J54" s="16">
         <v>0</v>
@@ -4226,11 +4041,11 @@
       <c r="G55" s="16">
         <v>10</v>
       </c>
-      <c r="H55" s="16">
-        <v>32</v>
-      </c>
-      <c r="I55" s="16">
-        <v>60</v>
+      <c r="H55">
+        <v>70</v>
+      </c>
+      <c r="I55">
+        <v>100</v>
       </c>
       <c r="J55" s="16">
         <v>0</v>
@@ -4280,11 +4095,11 @@
       <c r="I56" s="17">
         <v>0</v>
       </c>
-      <c r="J56" s="16">
-        <v>52</v>
-      </c>
-      <c r="K56" s="16">
-        <v>70</v>
+      <c r="J56">
+        <v>44</v>
+      </c>
+      <c r="K56">
+        <v>68</v>
       </c>
       <c r="L56" s="16">
         <v>9</v>
@@ -4322,11 +4137,11 @@
       <c r="G57" s="16">
         <v>10</v>
       </c>
-      <c r="H57" s="16">
-        <v>40</v>
-      </c>
-      <c r="I57" s="16">
-        <v>72</v>
+      <c r="H57">
+        <v>30</v>
+      </c>
+      <c r="I57">
+        <v>150</v>
       </c>
       <c r="J57" s="16">
         <v>0</v>
@@ -4377,10 +4192,10 @@
         <v>0</v>
       </c>
       <c r="J58" s="16">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K58" s="17">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="L58" s="16">
         <v>9</v>
@@ -4418,11 +4233,11 @@
       <c r="G59" s="16">
         <v>10</v>
       </c>
-      <c r="H59" s="16">
-        <v>36</v>
-      </c>
-      <c r="I59" s="16">
-        <v>68</v>
+      <c r="H59">
+        <v>40</v>
+      </c>
+      <c r="I59">
+        <v>120</v>
       </c>
       <c r="J59" s="16">
         <v>0</v>
@@ -4466,11 +4281,11 @@
       <c r="G60" s="16">
         <v>10</v>
       </c>
-      <c r="H60" s="16">
-        <v>58</v>
-      </c>
-      <c r="I60" s="16">
-        <v>104</v>
+      <c r="H60">
+        <v>70</v>
+      </c>
+      <c r="I60">
+        <v>100</v>
       </c>
       <c r="J60" s="16">
         <v>0</v>
@@ -4520,11 +4335,11 @@
       <c r="I61" s="17">
         <v>0</v>
       </c>
-      <c r="J61" s="16">
-        <v>52</v>
-      </c>
-      <c r="K61" s="16">
-        <v>88</v>
+      <c r="J61">
+        <v>70</v>
+      </c>
+      <c r="K61">
+        <v>100</v>
       </c>
       <c r="L61" s="16">
         <v>10</v>
@@ -4562,11 +4377,11 @@
       <c r="G62" s="16">
         <v>10</v>
       </c>
-      <c r="H62" s="16">
-        <v>22</v>
-      </c>
-      <c r="I62" s="16">
-        <v>37</v>
+      <c r="H62">
+        <v>20</v>
+      </c>
+      <c r="I62">
+        <v>40</v>
       </c>
       <c r="J62" s="16">
         <v>0</v>
@@ -4616,11 +4431,11 @@
       <c r="I63" s="17">
         <v>0</v>
       </c>
-      <c r="J63" s="16">
-        <v>30</v>
-      </c>
-      <c r="K63" s="16">
-        <v>57</v>
+      <c r="J63">
+        <v>34</v>
+      </c>
+      <c r="K63">
+        <v>90</v>
       </c>
       <c r="L63" s="16">
         <v>3</v>
@@ -4658,11 +4473,11 @@
       <c r="G64" s="16">
         <v>10</v>
       </c>
-      <c r="H64" s="16">
-        <v>30</v>
-      </c>
-      <c r="I64" s="16">
-        <v>63</v>
+      <c r="H64">
+        <v>40</v>
+      </c>
+      <c r="I64">
+        <v>80</v>
       </c>
       <c r="J64" s="16">
         <v>0</v>
@@ -4706,11 +4521,11 @@
       <c r="G65" s="16">
         <v>10</v>
       </c>
-      <c r="H65" s="16">
-        <v>30</v>
-      </c>
-      <c r="I65" s="16">
-        <v>63</v>
+      <c r="H65">
+        <v>48</v>
+      </c>
+      <c r="I65">
+        <v>70</v>
       </c>
       <c r="J65" s="16">
         <v>0</v>
@@ -4754,11 +4569,11 @@
       <c r="G66" s="16">
         <v>10</v>
       </c>
-      <c r="H66" s="16">
-        <v>33</v>
-      </c>
-      <c r="I66" s="16">
-        <v>67</v>
+      <c r="H66">
+        <v>48</v>
+      </c>
+      <c r="I66">
+        <v>62</v>
       </c>
       <c r="J66" s="16">
         <v>0</v>
@@ -4808,11 +4623,11 @@
       <c r="I67" s="17">
         <v>0</v>
       </c>
-      <c r="J67" s="16">
-        <v>18</v>
-      </c>
-      <c r="K67" s="16">
-        <v>45</v>
+      <c r="J67">
+        <v>24</v>
+      </c>
+      <c r="K67">
+        <v>56</v>
       </c>
       <c r="L67" s="16">
         <v>20</v>
@@ -4850,11 +4665,11 @@
       <c r="G68" s="16">
         <v>10</v>
       </c>
-      <c r="H68" s="16">
-        <v>37</v>
-      </c>
-      <c r="I68" s="16">
-        <v>52</v>
+      <c r="H68">
+        <v>30</v>
+      </c>
+      <c r="I68">
+        <v>50</v>
       </c>
       <c r="J68" s="16">
         <v>0</v>
@@ -4898,11 +4713,11 @@
       <c r="G69" s="16">
         <v>10</v>
       </c>
-      <c r="H69" s="16">
-        <v>37</v>
-      </c>
-      <c r="I69" s="16">
-        <v>67</v>
+      <c r="H69">
+        <v>40</v>
+      </c>
+      <c r="I69">
+        <v>76</v>
       </c>
       <c r="J69" s="16">
         <v>0</v>
@@ -4946,11 +4761,11 @@
       <c r="G70" s="16">
         <v>10</v>
       </c>
-      <c r="H70" s="16">
+      <c r="H70">
         <v>30</v>
       </c>
-      <c r="I70" s="16">
-        <v>67</v>
+      <c r="I70">
+        <v>60</v>
       </c>
       <c r="J70" s="16">
         <v>0</v>
@@ -4994,11 +4809,11 @@
       <c r="G71" s="16">
         <v>10</v>
       </c>
-      <c r="H71" s="16">
-        <v>33</v>
-      </c>
-      <c r="I71" s="16">
-        <v>67</v>
+      <c r="H71">
+        <v>52</v>
+      </c>
+      <c r="I71">
+        <v>88</v>
       </c>
       <c r="J71" s="16">
         <v>0</v>
@@ -5042,11 +4857,11 @@
       <c r="G72" s="16">
         <v>10</v>
       </c>
-      <c r="H72" s="16">
-        <v>45</v>
-      </c>
-      <c r="I72" s="16">
-        <v>75</v>
+      <c r="H72">
+        <v>64</v>
+      </c>
+      <c r="I72">
+        <v>100</v>
       </c>
       <c r="J72" s="16">
         <v>0</v>
@@ -5096,11 +4911,11 @@
       <c r="I73" s="17">
         <v>0</v>
       </c>
-      <c r="J73" s="16">
-        <v>30</v>
-      </c>
-      <c r="K73" s="16">
-        <v>112</v>
+      <c r="J73">
+        <v>28</v>
+      </c>
+      <c r="K73">
+        <v>56</v>
       </c>
       <c r="L73" s="16">
         <v>9</v>
@@ -5144,11 +4959,11 @@
       <c r="I74" s="17">
         <v>0</v>
       </c>
-      <c r="J74" s="16">
-        <v>60</v>
-      </c>
-      <c r="K74" s="16">
-        <v>97</v>
+      <c r="J74">
+        <v>50</v>
+      </c>
+      <c r="K74">
+        <v>84</v>
       </c>
       <c r="L74" s="16">
         <v>10</v>
@@ -5193,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="J75" s="16">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K75" s="16">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="L75" s="16">
         <v>0</v>
@@ -5241,10 +5056,10 @@
         <v>0</v>
       </c>
       <c r="J76" s="16">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K76" s="16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L76" s="16">
         <v>12</v>
@@ -5289,10 +5104,10 @@
         <v>0</v>
       </c>
       <c r="J77" s="16">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="K77" s="16">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="L77" s="16">
         <v>12</v>
@@ -5337,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="J78" s="16">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="K78" s="16">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="L78" s="16">
         <v>12</v>
@@ -5481,10 +5296,10 @@
         <v>0</v>
       </c>
       <c r="J81" s="16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K81" s="16">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="L81" s="16">
         <v>12</v>
@@ -5666,11 +5481,11 @@
       <c r="G85" s="16">
         <v>10</v>
       </c>
-      <c r="H85" s="16">
-        <v>180</v>
-      </c>
-      <c r="I85" s="16">
-        <v>230</v>
+      <c r="H85">
+        <v>60</v>
+      </c>
+      <c r="I85">
+        <v>60</v>
       </c>
       <c r="J85" s="16">
         <v>0</v>
@@ -5714,11 +5529,11 @@
       <c r="G86" s="16">
         <v>10</v>
       </c>
-      <c r="H86" s="16">
-        <v>180</v>
-      </c>
-      <c r="I86" s="16">
-        <v>230</v>
+      <c r="H86">
+        <v>60</v>
+      </c>
+      <c r="I86">
+        <v>60</v>
       </c>
       <c r="J86" s="16">
         <v>0</v>
@@ -5768,11 +5583,11 @@
       <c r="I87" s="16">
         <v>0</v>
       </c>
-      <c r="J87" s="16">
-        <v>120</v>
-      </c>
-      <c r="K87" s="16">
-        <v>240</v>
+      <c r="J87">
+        <v>40</v>
+      </c>
+      <c r="K87">
+        <v>80</v>
       </c>
       <c r="L87" s="16">
         <v>15</v>
@@ -5816,11 +5631,11 @@
       <c r="I88" s="16">
         <v>0</v>
       </c>
-      <c r="J88" s="16">
-        <v>75</v>
-      </c>
-      <c r="K88" s="16">
-        <v>150</v>
+      <c r="J88">
+        <v>25</v>
+      </c>
+      <c r="K88">
+        <v>50</v>
       </c>
       <c r="L88" s="16">
         <v>45</v>
@@ -5858,11 +5673,11 @@
       <c r="G89" s="16">
         <v>10</v>
       </c>
-      <c r="H89" s="16">
-        <v>120</v>
-      </c>
-      <c r="I89" s="16">
-        <v>170</v>
+      <c r="H89">
+        <v>40</v>
+      </c>
+      <c r="I89">
+        <v>40</v>
       </c>
       <c r="J89" s="16">
         <v>0</v>
@@ -5906,11 +5721,11 @@
       <c r="G90" s="16">
         <v>10</v>
       </c>
-      <c r="H90" s="16">
-        <v>150</v>
-      </c>
-      <c r="I90" s="16">
-        <v>260</v>
+      <c r="H90">
+        <v>50</v>
+      </c>
+      <c r="I90">
+        <v>120</v>
       </c>
       <c r="J90" s="16">
         <v>0</v>
@@ -5960,11 +5775,11 @@
       <c r="I91" s="16">
         <v>0</v>
       </c>
-      <c r="J91" s="16">
-        <v>60</v>
-      </c>
-      <c r="K91" s="16">
-        <v>420</v>
+      <c r="J91">
+        <v>20</v>
+      </c>
+      <c r="K91">
+        <v>140</v>
       </c>
       <c r="L91" s="16">
         <v>10</v>
@@ -6008,11 +5823,11 @@
       <c r="I92" s="16">
         <v>0</v>
       </c>
-      <c r="J92" s="16">
-        <v>90</v>
-      </c>
-      <c r="K92" s="16">
-        <v>240</v>
+      <c r="J92">
+        <v>30</v>
+      </c>
+      <c r="K92">
+        <v>80</v>
       </c>
       <c r="L92" s="16">
         <v>10</v>
@@ -6058,12 +5873,10 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <f>INT($D93*2.5)</f>
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K93">
-        <f>INT($D93*3.8)</f>
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="L93">
         <f>INT(D93/2)</f>
@@ -6107,25 +5920,27 @@
         <v>10</v>
       </c>
       <c r="H94">
-        <f t="shared" ref="H94:J137" si="6">INT($D94*2.5)</f>
-        <v>150</v>
+        <f>INT($D94*1.6)</f>
+        <v>96</v>
       </c>
       <c r="I94">
-        <f t="shared" ref="I94:K137" si="7">INT($D94*3.8)</f>
-        <v>228</v>
+        <f>INT($D94*2.2)</f>
+        <v>132</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <f>INT($D94*1.6)</f>
+        <v>96</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <f>INT($D94*2.2)</f>
+        <v>132</v>
       </c>
       <c r="L94">
-        <f t="shared" ref="L94:L96" si="8">INT(D94/2)</f>
+        <f t="shared" ref="L94:L96" si="6">INT(D94/2)</f>
         <v>30</v>
       </c>
       <c r="M94">
-        <f t="shared" ref="M94:M96" si="9">INT(D94/2)</f>
+        <f t="shared" ref="M94:M96" si="7">INT(D94/2)</f>
         <v>30</v>
       </c>
       <c r="N94">
@@ -6162,25 +5977,27 @@
         <v>10</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <f t="shared" ref="H95:H137" si="8">INT($D95*1.6)</f>
+        <v>110</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <f t="shared" ref="I95:I137" si="9">INT($D95*2.2)</f>
+        <v>151</v>
       </c>
       <c r="J95">
+        <f t="shared" ref="J95:J137" si="10">INT($D95*1.6)</f>
+        <v>110</v>
+      </c>
+      <c r="K95">
+        <f t="shared" ref="K95:K137" si="11">INT($D95*2.2)</f>
+        <v>151</v>
+      </c>
+      <c r="L95">
         <f t="shared" si="6"/>
-        <v>172</v>
-      </c>
-      <c r="K95">
+        <v>34</v>
+      </c>
+      <c r="M95">
         <f t="shared" si="7"/>
-        <v>262</v>
-      </c>
-      <c r="L95">
-        <f t="shared" si="8"/>
-        <v>34</v>
-      </c>
-      <c r="M95">
-        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="N95">
@@ -6216,25 +6033,27 @@
         <v>10</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>108</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>149</v>
       </c>
       <c r="J96">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="11"/>
+        <v>149</v>
+      </c>
+      <c r="L96">
         <f t="shared" si="6"/>
-        <v>170</v>
-      </c>
-      <c r="K96">
+        <v>34</v>
+      </c>
+      <c r="M96">
         <f t="shared" si="7"/>
-        <v>258</v>
-      </c>
-      <c r="L96">
-        <f t="shared" si="8"/>
-        <v>34</v>
-      </c>
-      <c r="M96">
-        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="N96">
@@ -6270,25 +6089,27 @@
         <v>10</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>107</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>147</v>
       </c>
       <c r="J97">
-        <f t="shared" si="6"/>
-        <v>167</v>
+        <f t="shared" si="10"/>
+        <v>107</v>
       </c>
       <c r="K97">
-        <f t="shared" si="7"/>
-        <v>254</v>
+        <f t="shared" si="11"/>
+        <v>147</v>
       </c>
       <c r="L97">
-        <f t="shared" ref="L97:L137" si="10">INT(D97/2)</f>
+        <f t="shared" ref="L97:L137" si="12">INT(D97/2)</f>
         <v>33</v>
       </c>
       <c r="M97">
-        <f t="shared" ref="M97:M137" si="11">INT(D97/2)</f>
+        <f t="shared" ref="M97:M137" si="13">INT(D97/2)</f>
         <v>33</v>
       </c>
       <c r="N97">
@@ -6324,25 +6145,27 @@
         <v>10</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>96</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>132</v>
       </c>
       <c r="J98">
-        <f t="shared" si="6"/>
-        <v>150</v>
+        <f t="shared" si="10"/>
+        <v>96</v>
       </c>
       <c r="K98">
-        <f t="shared" si="7"/>
-        <v>228</v>
+        <f t="shared" si="11"/>
+        <v>132</v>
       </c>
       <c r="L98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="M98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="N98">
@@ -6379,25 +6202,27 @@
         <v>10</v>
       </c>
       <c r="H99">
-        <f t="shared" si="6"/>
-        <v>162</v>
+        <f t="shared" si="8"/>
+        <v>104</v>
       </c>
       <c r="I99">
-        <f t="shared" si="7"/>
-        <v>247</v>
+        <f t="shared" si="9"/>
+        <v>143</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>143</v>
       </c>
       <c r="L99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="M99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="N99">
@@ -6433,25 +6258,27 @@
         <v>10</v>
       </c>
       <c r="H100">
-        <f t="shared" si="6"/>
-        <v>160</v>
+        <f t="shared" si="8"/>
+        <v>102</v>
       </c>
       <c r="I100">
-        <f t="shared" si="7"/>
-        <v>243</v>
+        <f t="shared" si="9"/>
+        <v>140</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>102</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>140</v>
       </c>
       <c r="L100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="M100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="N100">
@@ -6488,25 +6315,27 @@
         <v>10</v>
       </c>
       <c r="H101">
-        <f t="shared" si="6"/>
-        <v>160</v>
+        <f t="shared" si="8"/>
+        <v>102</v>
       </c>
       <c r="I101">
-        <f t="shared" si="7"/>
-        <v>243</v>
+        <f t="shared" si="9"/>
+        <v>140</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>102</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>140</v>
       </c>
       <c r="L101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="M101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="N101">
@@ -6542,25 +6371,27 @@
         <v>10</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>110</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>151</v>
       </c>
       <c r="J102">
-        <f t="shared" si="6"/>
-        <v>172</v>
+        <f t="shared" si="10"/>
+        <v>110</v>
       </c>
       <c r="K102">
-        <f t="shared" si="7"/>
-        <v>262</v>
+        <f t="shared" si="11"/>
+        <v>151</v>
       </c>
       <c r="L102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>34</v>
       </c>
       <c r="M102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="N102">
@@ -6596,25 +6427,27 @@
         <v>10</v>
       </c>
       <c r="H103">
-        <f t="shared" si="6"/>
-        <v>177</v>
+        <f t="shared" si="8"/>
+        <v>113</v>
       </c>
       <c r="I103">
-        <f t="shared" si="7"/>
-        <v>269</v>
+        <f t="shared" si="9"/>
+        <v>156</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>113</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>156</v>
       </c>
       <c r="L103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="M103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="N103">
@@ -6650,25 +6483,27 @@
         <v>10</v>
       </c>
       <c r="H104">
-        <f t="shared" si="6"/>
-        <v>177</v>
+        <f t="shared" si="8"/>
+        <v>113</v>
       </c>
       <c r="I104">
-        <f t="shared" si="7"/>
-        <v>269</v>
+        <f t="shared" si="9"/>
+        <v>156</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>113</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>156</v>
       </c>
       <c r="L104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="M104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="N104">
@@ -6704,25 +6539,27 @@
         <v>10</v>
       </c>
       <c r="H105">
-        <f t="shared" si="6"/>
-        <v>182</v>
+        <f t="shared" si="8"/>
+        <v>116</v>
       </c>
       <c r="I105">
-        <f t="shared" si="7"/>
-        <v>277</v>
+        <f t="shared" si="9"/>
+        <v>160</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>116</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>160</v>
       </c>
       <c r="L105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="M105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="N105">
@@ -6758,25 +6595,27 @@
         <v>10</v>
       </c>
       <c r="H106">
-        <f t="shared" si="6"/>
-        <v>177</v>
+        <f t="shared" si="8"/>
+        <v>113</v>
       </c>
       <c r="I106">
-        <f t="shared" si="7"/>
-        <v>269</v>
+        <f t="shared" si="9"/>
+        <v>156</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>113</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>156</v>
       </c>
       <c r="L106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="M106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="N106">
@@ -6812,25 +6651,27 @@
         <v>10</v>
       </c>
       <c r="H107">
-        <f t="shared" si="6"/>
-        <v>185</v>
+        <f t="shared" si="8"/>
+        <v>118</v>
       </c>
       <c r="I107">
-        <f t="shared" si="7"/>
-        <v>281</v>
+        <f t="shared" si="9"/>
+        <v>162</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>118</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>162</v>
       </c>
       <c r="L107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="M107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="N107">
@@ -6866,25 +6707,27 @@
         <v>10</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>126</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>173</v>
       </c>
       <c r="J108">
-        <f t="shared" si="6"/>
-        <v>197</v>
+        <f t="shared" si="10"/>
+        <v>126</v>
       </c>
       <c r="K108">
-        <f t="shared" si="7"/>
-        <v>300</v>
+        <f t="shared" si="11"/>
+        <v>173</v>
       </c>
       <c r="L108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
       <c r="M108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
       <c r="N108">
@@ -6920,25 +6763,27 @@
         <v>10</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>124</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>171</v>
       </c>
       <c r="J109">
-        <f t="shared" si="6"/>
-        <v>195</v>
+        <f t="shared" si="10"/>
+        <v>124</v>
       </c>
       <c r="K109">
-        <f t="shared" si="7"/>
-        <v>296</v>
+        <f t="shared" si="11"/>
+        <v>171</v>
       </c>
       <c r="L109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
       <c r="M109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
       <c r="N109">
@@ -6974,25 +6819,27 @@
         <v>10</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>124</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>171</v>
       </c>
       <c r="J110">
-        <f t="shared" si="6"/>
-        <v>195</v>
+        <f t="shared" si="10"/>
+        <v>124</v>
       </c>
       <c r="K110">
-        <f t="shared" si="7"/>
-        <v>296</v>
+        <f t="shared" si="11"/>
+        <v>171</v>
       </c>
       <c r="L110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
       <c r="M110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
       <c r="N110">
@@ -7028,25 +6875,27 @@
         <v>10</v>
       </c>
       <c r="H111">
-        <f t="shared" si="6"/>
-        <v>187</v>
+        <f t="shared" si="8"/>
+        <v>120</v>
       </c>
       <c r="I111">
-        <f t="shared" si="7"/>
-        <v>285</v>
+        <f t="shared" si="9"/>
+        <v>165</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>120</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>165</v>
       </c>
       <c r="L111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="M111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="N111">
@@ -7082,25 +6931,27 @@
         <v>10</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>113</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>156</v>
       </c>
       <c r="J112">
-        <f t="shared" si="6"/>
-        <v>177</v>
+        <f t="shared" si="10"/>
+        <v>113</v>
       </c>
       <c r="K112">
-        <f t="shared" si="7"/>
-        <v>269</v>
+        <f t="shared" si="11"/>
+        <v>156</v>
       </c>
       <c r="L112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="M112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="N112">
@@ -7136,25 +6987,27 @@
         <v>10</v>
       </c>
       <c r="H113">
-        <f t="shared" si="6"/>
-        <v>182</v>
+        <f t="shared" si="8"/>
+        <v>116</v>
       </c>
       <c r="I113">
-        <f t="shared" si="7"/>
-        <v>277</v>
+        <f t="shared" si="9"/>
+        <v>160</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>116</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>160</v>
       </c>
       <c r="L113">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="M113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="N113">
@@ -7190,25 +7043,27 @@
         <v>10</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>121</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>167</v>
       </c>
       <c r="J114">
-        <f t="shared" si="6"/>
-        <v>190</v>
+        <f t="shared" si="10"/>
+        <v>121</v>
       </c>
       <c r="K114">
-        <f t="shared" si="7"/>
-        <v>288</v>
+        <f t="shared" si="11"/>
+        <v>167</v>
       </c>
       <c r="L114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>38</v>
       </c>
       <c r="M114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="N114">
@@ -7244,25 +7099,27 @@
         <v>10</v>
       </c>
       <c r="H115">
-        <f t="shared" si="6"/>
-        <v>222</v>
+        <f t="shared" si="8"/>
+        <v>142</v>
       </c>
       <c r="I115">
-        <f t="shared" si="7"/>
-        <v>338</v>
+        <f t="shared" si="9"/>
+        <v>195</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>142</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>195</v>
       </c>
       <c r="L115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="M115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="N115">
@@ -7298,25 +7155,27 @@
         <v>10</v>
       </c>
       <c r="H116">
-        <f t="shared" si="6"/>
-        <v>212</v>
+        <f t="shared" si="8"/>
+        <v>136</v>
       </c>
       <c r="I116">
-        <f t="shared" si="7"/>
-        <v>323</v>
+        <f t="shared" si="9"/>
+        <v>187</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>136</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>187</v>
       </c>
       <c r="L116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="M116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="N116">
@@ -7352,25 +7211,27 @@
         <v>10</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>139</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>191</v>
       </c>
       <c r="J117">
-        <f t="shared" si="6"/>
-        <v>217</v>
+        <f t="shared" si="10"/>
+        <v>139</v>
       </c>
       <c r="K117">
-        <f t="shared" si="7"/>
-        <v>330</v>
+        <f t="shared" si="11"/>
+        <v>191</v>
       </c>
       <c r="L117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="M117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="N117">
@@ -7406,25 +7267,27 @@
         <v>10</v>
       </c>
       <c r="H118">
-        <f t="shared" si="6"/>
-        <v>202</v>
+        <f t="shared" si="8"/>
+        <v>129</v>
       </c>
       <c r="I118">
-        <f t="shared" si="7"/>
-        <v>307</v>
+        <f t="shared" si="9"/>
+        <v>178</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>129</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>178</v>
       </c>
       <c r="L118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="M118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="N118">
@@ -7460,25 +7323,27 @@
         <v>10</v>
       </c>
       <c r="H119">
-        <f t="shared" si="6"/>
-        <v>222</v>
+        <f t="shared" si="8"/>
+        <v>142</v>
       </c>
       <c r="I119">
-        <f t="shared" si="7"/>
-        <v>338</v>
+        <f t="shared" si="9"/>
+        <v>195</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>142</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>195</v>
       </c>
       <c r="L119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="M119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="N119">
@@ -7514,25 +7379,27 @@
         <v>10</v>
       </c>
       <c r="H120">
-        <f t="shared" si="6"/>
-        <v>205</v>
+        <f t="shared" si="8"/>
+        <v>131</v>
       </c>
       <c r="I120">
-        <f t="shared" si="7"/>
-        <v>311</v>
+        <f t="shared" si="9"/>
+        <v>180</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>131</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>180</v>
       </c>
       <c r="L120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="M120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="N120">
@@ -7568,25 +7435,27 @@
         <v>10</v>
       </c>
       <c r="H121">
-        <f t="shared" si="6"/>
-        <v>200</v>
+        <f t="shared" si="8"/>
+        <v>128</v>
       </c>
       <c r="I121">
-        <f t="shared" si="7"/>
-        <v>304</v>
+        <f t="shared" si="9"/>
+        <v>176</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>128</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>176</v>
       </c>
       <c r="L121">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="M121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="N121">
@@ -7622,25 +7491,27 @@
         <v>10</v>
       </c>
       <c r="H122">
-        <f t="shared" si="6"/>
-        <v>212</v>
+        <f t="shared" si="8"/>
+        <v>136</v>
       </c>
       <c r="I122">
-        <f t="shared" si="7"/>
-        <v>323</v>
+        <f t="shared" si="9"/>
+        <v>187</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>136</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>187</v>
       </c>
       <c r="L122">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="M122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="N122">
@@ -7676,25 +7547,27 @@
         <v>10</v>
       </c>
       <c r="H123">
-        <f t="shared" si="6"/>
-        <v>207</v>
+        <f t="shared" si="8"/>
+        <v>132</v>
       </c>
       <c r="I123">
-        <f t="shared" si="7"/>
-        <v>315</v>
+        <f t="shared" si="9"/>
+        <v>182</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>132</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>182</v>
       </c>
       <c r="L123">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="M123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="N123">
@@ -7730,25 +7603,27 @@
         <v>10</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>129</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>178</v>
       </c>
       <c r="J124">
-        <f t="shared" si="6"/>
-        <v>202</v>
+        <f t="shared" si="10"/>
+        <v>129</v>
       </c>
       <c r="K124">
-        <f t="shared" si="7"/>
-        <v>307</v>
+        <f t="shared" si="11"/>
+        <v>178</v>
       </c>
       <c r="L124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="M124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="N124">
@@ -7784,25 +7659,27 @@
         <v>10</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>139</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>191</v>
       </c>
       <c r="J125">
-        <f t="shared" si="6"/>
-        <v>217</v>
+        <f t="shared" si="10"/>
+        <v>139</v>
       </c>
       <c r="K125">
-        <f t="shared" si="7"/>
-        <v>330</v>
+        <f t="shared" si="11"/>
+        <v>191</v>
       </c>
       <c r="L125">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="M125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="N125">
@@ -7838,25 +7715,27 @@
         <v>10</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>134</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>184</v>
       </c>
       <c r="J126">
-        <f t="shared" si="6"/>
-        <v>210</v>
+        <f t="shared" si="10"/>
+        <v>134</v>
       </c>
       <c r="K126">
-        <f t="shared" si="7"/>
-        <v>319</v>
+        <f t="shared" si="11"/>
+        <v>184</v>
       </c>
       <c r="L126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="M126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="N126">
@@ -7892,25 +7771,27 @@
         <v>10</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>142</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>195</v>
       </c>
       <c r="J127">
-        <f t="shared" si="6"/>
-        <v>222</v>
+        <f t="shared" si="10"/>
+        <v>142</v>
       </c>
       <c r="K127">
-        <f t="shared" si="7"/>
-        <v>338</v>
+        <f t="shared" si="11"/>
+        <v>195</v>
       </c>
       <c r="L127">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="M127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="N127">
@@ -7946,25 +7827,27 @@
         <v>10</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>148</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>204</v>
       </c>
       <c r="J128">
-        <f t="shared" si="6"/>
-        <v>232</v>
+        <f t="shared" si="10"/>
+        <v>148</v>
       </c>
       <c r="K128">
-        <f t="shared" si="7"/>
-        <v>353</v>
+        <f t="shared" si="11"/>
+        <v>204</v>
       </c>
       <c r="L128">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>46</v>
       </c>
       <c r="M128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>46</v>
       </c>
       <c r="N128">
@@ -8000,25 +7883,27 @@
         <v>10</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>155</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>213</v>
       </c>
       <c r="J129">
-        <f t="shared" si="6"/>
-        <v>242</v>
+        <f t="shared" si="10"/>
+        <v>155</v>
       </c>
       <c r="K129">
-        <f t="shared" si="7"/>
-        <v>368</v>
+        <f t="shared" si="11"/>
+        <v>213</v>
       </c>
       <c r="L129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
       <c r="M129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>48</v>
       </c>
       <c r="N129">
@@ -8054,25 +7939,27 @@
         <v>10</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>144</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>198</v>
       </c>
       <c r="J130">
-        <f t="shared" si="6"/>
-        <v>225</v>
+        <f t="shared" si="10"/>
+        <v>144</v>
       </c>
       <c r="K130">
-        <f t="shared" si="7"/>
-        <v>342</v>
+        <f t="shared" si="11"/>
+        <v>198</v>
       </c>
       <c r="L130">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="M130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="N130">
@@ -8108,25 +7995,27 @@
         <v>10</v>
       </c>
       <c r="H131">
-        <f t="shared" si="6"/>
-        <v>225</v>
+        <f t="shared" si="8"/>
+        <v>144</v>
       </c>
       <c r="I131">
-        <f t="shared" si="7"/>
-        <v>342</v>
+        <f t="shared" si="9"/>
+        <v>198</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>144</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>198</v>
       </c>
       <c r="L131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="M131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="N131">
@@ -8162,25 +8051,27 @@
         <v>10</v>
       </c>
       <c r="H132">
-        <f t="shared" si="6"/>
-        <v>240</v>
+        <f t="shared" si="8"/>
+        <v>153</v>
       </c>
       <c r="I132">
-        <f t="shared" si="7"/>
-        <v>364</v>
+        <f t="shared" si="9"/>
+        <v>211</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>153</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>211</v>
       </c>
       <c r="L132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
       <c r="M132">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>48</v>
       </c>
       <c r="N132">
@@ -8216,25 +8107,27 @@
         <v>10</v>
       </c>
       <c r="H133">
-        <f t="shared" si="6"/>
-        <v>235</v>
+        <f t="shared" si="8"/>
+        <v>150</v>
       </c>
       <c r="I133">
-        <f t="shared" si="7"/>
-        <v>357</v>
+        <f t="shared" si="9"/>
+        <v>206</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>150</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>206</v>
       </c>
       <c r="L133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
       <c r="M133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>47</v>
       </c>
       <c r="N133">
@@ -8270,25 +8163,27 @@
         <v>10</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>153</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>211</v>
       </c>
       <c r="J134">
-        <f t="shared" si="6"/>
-        <v>240</v>
+        <f t="shared" si="10"/>
+        <v>153</v>
       </c>
       <c r="K134">
-        <f t="shared" si="7"/>
-        <v>364</v>
+        <f t="shared" si="11"/>
+        <v>211</v>
       </c>
       <c r="L134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
       <c r="M134">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>48</v>
       </c>
       <c r="N134">
@@ -8324,25 +8219,27 @@
         <v>10</v>
       </c>
       <c r="H135">
-        <f t="shared" si="6"/>
-        <v>237</v>
+        <f t="shared" si="8"/>
+        <v>152</v>
       </c>
       <c r="I135">
-        <f t="shared" si="7"/>
-        <v>361</v>
+        <f t="shared" si="9"/>
+        <v>209</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>152</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>209</v>
       </c>
       <c r="L135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
       <c r="M135">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>47</v>
       </c>
       <c r="N135">
@@ -8378,25 +8275,27 @@
         <v>10</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>156</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>215</v>
       </c>
       <c r="J136">
-        <f t="shared" si="6"/>
-        <v>245</v>
+        <f t="shared" si="10"/>
+        <v>156</v>
       </c>
       <c r="K136">
-        <f t="shared" si="7"/>
-        <v>372</v>
+        <f t="shared" si="11"/>
+        <v>215</v>
       </c>
       <c r="L136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="M136">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="N136">
@@ -8432,25 +8331,27 @@
         <v>10</v>
       </c>
       <c r="H137">
-        <f t="shared" si="6"/>
-        <v>232</v>
+        <f t="shared" si="8"/>
+        <v>148</v>
       </c>
       <c r="I137">
-        <f t="shared" si="7"/>
-        <v>353</v>
+        <f t="shared" si="9"/>
+        <v>204</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>148</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>204</v>
       </c>
       <c r="L137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>46</v>
       </c>
       <c r="M137">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>46</v>
       </c>
       <c r="N137">
@@ -11348,218 +11249,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H143:M1048576 H1:M92 J138:O142 J135:K135 J133:K133 J137:K137 L93:N137">
-    <cfRule type="expression" dxfId="43" priority="49">
+  <conditionalFormatting sqref="H143:M1048576 H1:M92 J138:O142 L93:N137">
+    <cfRule type="expression" dxfId="6" priority="49">
       <formula>H1=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H136:I136">
-    <cfRule type="expression" dxfId="42" priority="42">
-      <formula>H136=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H134:I134">
-    <cfRule type="expression" dxfId="41" priority="41">
-      <formula>H134=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J131:K131">
-    <cfRule type="expression" dxfId="40" priority="40">
-      <formula>J131=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J132:K132">
-    <cfRule type="expression" dxfId="39" priority="39">
-      <formula>J132=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H130:I130">
-    <cfRule type="expression" dxfId="38" priority="38">
-      <formula>H130=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H129:I129">
-    <cfRule type="expression" dxfId="37" priority="37">
-      <formula>H129=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H128:I128">
-    <cfRule type="expression" dxfId="36" priority="36">
-      <formula>H128=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H127:I127">
-    <cfRule type="expression" dxfId="35" priority="35">
-      <formula>H127=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H126:I126">
-    <cfRule type="expression" dxfId="34" priority="34">
-      <formula>H126=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H125:I125">
-    <cfRule type="expression" dxfId="33" priority="33">
-      <formula>H125=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H124:I124">
-    <cfRule type="expression" dxfId="32" priority="32">
-      <formula>H124=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J123:K123">
-    <cfRule type="expression" dxfId="31" priority="31">
-      <formula>J123=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J122:K122">
-    <cfRule type="expression" dxfId="30" priority="30">
-      <formula>J122=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J121:K121">
-    <cfRule type="expression" dxfId="29" priority="29">
-      <formula>J121=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J120:K120">
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>J120=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J119:K119">
-    <cfRule type="expression" dxfId="27" priority="27">
-      <formula>J119=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J118:K118">
-    <cfRule type="expression" dxfId="26" priority="26">
-      <formula>J118=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H117:I117">
-    <cfRule type="expression" dxfId="25" priority="25">
-      <formula>H117=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J116:K116">
-    <cfRule type="expression" dxfId="24" priority="24">
-      <formula>J116=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J115:K115">
-    <cfRule type="expression" dxfId="23" priority="23">
-      <formula>J115=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H114:I114">
-    <cfRule type="expression" dxfId="22" priority="22">
-      <formula>H114=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J113:K113">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>J113=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H112:I112">
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>H112=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J111:K111">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>J111=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H110:I110">
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>H110=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H109:I109">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>H109=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H108:I108">
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>H108=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J107:K107">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>J107=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J106:K106">
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>J106=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J105:K105">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>J105=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J104:K104">
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>J104=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J103:K103">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>J103=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H102:I102">
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>H102=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J101:K101">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>J101=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J100:K100">
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>J100=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J99:K99">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>J99=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H98:I98">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>H98=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H97:I97">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>H97=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H96:I96">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>H96=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H95:I95">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>H95=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J94:K94">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>J94=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H93:I93">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>H93=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11573,14 +11269,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="5.375" style="1" customWidth="1"/>
@@ -11588,9 +11284,8 @@
     <col min="7" max="7" width="4.5" customWidth="1"/>
     <col min="8" max="11" width="6.5" customWidth="1"/>
     <col min="12" max="12" width="4.5" customWidth="1"/>
-    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.5" customWidth="1"/>
+    <col min="15" max="15" width="9.5" customWidth="1"/>
     <col min="16" max="16" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11665,16 +11360,16 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -11713,16 +11408,16 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I3">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="L3">
         <v>300</v>
@@ -11761,16 +11456,16 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -11809,13 +11504,13 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K5">
         <v>36</v>
@@ -11863,10 +11558,10 @@
         <v>42</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L6">
         <v>8</v>
@@ -11905,16 +11600,16 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
         <v>30</v>
       </c>
-      <c r="J7">
-        <v>17</v>
-      </c>
       <c r="K7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L7">
         <v>17</v>
@@ -11953,16 +11648,16 @@
         <v>100</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -12001,16 +11696,16 @@
         <v>100</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K9">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -12049,16 +11744,16 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>22</v>
       </c>
       <c r="K10">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -12097,16 +11792,16 @@
         <v>100</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I11">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J11">
         <v>22</v>
       </c>
       <c r="K11">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L11">
         <v>20</v>
@@ -12145,16 +11840,16 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I12">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J12">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -12193,16 +11888,16 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I13">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="J13">
         <v>30</v>
       </c>
       <c r="K13">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="L13">
         <v>20</v>
@@ -12241,16 +11936,16 @@
         <v>100</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I14">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="J14">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L14">
         <v>15</v>
@@ -12289,16 +11984,16 @@
         <v>100</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I15">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L15">
         <v>10</v>
@@ -12337,13 +12032,13 @@
         <v>100</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I16">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="J16">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K16">
         <v>65</v>
@@ -12385,16 +12080,16 @@
         <v>100</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I17">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="J17">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L17">
         <v>20</v>
@@ -12433,16 +12128,16 @@
         <v>100</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="I18">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="J18">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L18">
         <v>20</v>
@@ -12481,16 +12176,16 @@
         <v>100</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I19">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J19">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="K19">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L19">
         <v>18</v>
@@ -12502,7 +12197,7 @@
         <v>25</v>
       </c>
       <c r="O19">
-        <v>2000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
@@ -12529,16 +12224,16 @@
         <v>100</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I20">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="J20">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K20">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L20">
         <v>20</v>
@@ -12577,16 +12272,16 @@
         <v>100</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I21">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="J21">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="L21">
         <v>17</v>
@@ -12625,16 +12320,16 @@
         <v>100</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I22">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="J22">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K22">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="L22">
         <v>20</v>
@@ -12673,16 +12368,16 @@
         <v>100</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J23">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L23">
         <v>26</v>
@@ -12721,16 +12416,16 @@
         <v>100</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="I24">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J24">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L24">
         <v>15</v>
@@ -12769,16 +12464,16 @@
         <v>100</v>
       </c>
       <c r="H25">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="I25">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="J25">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K25">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="L25">
         <v>15</v>
@@ -12790,7 +12485,7 @@
         <v>50</v>
       </c>
       <c r="O25">
-        <v>1400</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
@@ -12817,16 +12512,16 @@
         <v>100</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="I26">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J26">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L26">
         <v>20</v>
@@ -12865,16 +12560,16 @@
         <v>100</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I27">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="J27">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K27">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="L27">
         <v>10</v>
@@ -12913,16 +12608,16 @@
         <v>100</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="J28">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K28">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L28">
         <v>12</v>
@@ -12961,16 +12656,16 @@
         <v>100</v>
       </c>
       <c r="H29">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I29">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="J29">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="K29">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="L29">
         <v>12</v>
@@ -13009,16 +12704,16 @@
         <v>100</v>
       </c>
       <c r="H30">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="I30">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="J30">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K30">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L30">
         <v>12</v>
@@ -13057,16 +12752,16 @@
         <v>100</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I31">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J31">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K31">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L31">
         <v>25</v>
@@ -13105,13 +12800,13 @@
         <v>100</v>
       </c>
       <c r="H32">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="I32">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="J32">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K32">
         <v>120</v>
@@ -13153,16 +12848,16 @@
         <v>100</v>
       </c>
       <c r="H33">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I33">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="J33">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="L33">
         <v>12</v>
@@ -13201,16 +12896,16 @@
         <v>100</v>
       </c>
       <c r="H34">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I34">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="J34">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="L34">
         <v>12</v>
@@ -13249,16 +12944,16 @@
         <v>100</v>
       </c>
       <c r="H35">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I35">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="J35">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="L35">
         <v>12</v>
@@ -13297,16 +12992,16 @@
         <v>100</v>
       </c>
       <c r="H36">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I36">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="J36">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="L36">
         <v>12</v>
@@ -13345,16 +13040,16 @@
         <v>100</v>
       </c>
       <c r="H37">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I37">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="J37">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="L37">
         <v>12</v>
@@ -13393,16 +13088,16 @@
         <v>100</v>
       </c>
       <c r="H38">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I38">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="J38">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="L38">
         <v>12</v>
@@ -13441,16 +13136,16 @@
         <v>100</v>
       </c>
       <c r="H39">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I39">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="J39">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L39">
         <v>30</v>
@@ -13489,16 +13184,16 @@
         <v>100</v>
       </c>
       <c r="H40">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="I40">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="J40">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="K40">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="L40">
         <v>18</v>
@@ -13536,16 +13231,16 @@
         <v>100</v>
       </c>
       <c r="H41">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="I41">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="J41">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K41">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="L41">
         <v>50</v>
@@ -13583,16 +13278,16 @@
         <v>100</v>
       </c>
       <c r="H42" s="20">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I42" s="20">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="J42" s="20">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K42" s="20">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="L42" s="20">
         <v>22</v>
@@ -13630,16 +13325,16 @@
         <v>100</v>
       </c>
       <c r="H43" s="20">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="I43" s="20">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="J43" s="20">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="K43" s="20">
-        <v>440</v>
+        <v>245</v>
       </c>
       <c r="L43" s="20">
         <v>28</v>
@@ -13680,13 +13375,13 @@
         <v>200</v>
       </c>
       <c r="I44" s="20">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="J44" s="20">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K44" s="20">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="L44" s="20">
         <v>30</v>
@@ -13730,10 +13425,10 @@
         <v>300</v>
       </c>
       <c r="J45" s="20">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="K45" s="20">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L45" s="20">
         <v>30</v>
@@ -13750,9 +13445,29 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H1:M39 I40:N41 H42:M1048576 H41 O41 N42:O45">
+  <conditionalFormatting sqref="I40:I41 H46:M1048576 H41 O41 H33:I39 L33:M39 H42:I45 L42:O45 L40:N41 H1:M32">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>H1=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:K45 J33:K39">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>J33=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>K40=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:K41">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>J41=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42:K43">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>H1=0</formula>
+      <formula>J42=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>

--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="264">
   <si>
     <t>ID</t>
   </si>
@@ -603,16 +603,7 @@
     <t>狂热火蜥蜴</t>
   </si>
   <si>
-    <t>剧毒骷髅</t>
-  </si>
-  <si>
-    <t>蓝背蜘蛛</t>
-  </si>
-  <si>
     <t>铁翼巨蛾</t>
-  </si>
-  <si>
-    <t>角虫</t>
   </si>
   <si>
     <t>虎虫</t>
@@ -873,6 +864,26 @@
   </si>
   <si>
     <t>巨型多角虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝背蜘蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧毒蜘蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔龙邪眼9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔龙刺蛙9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1025,7 +1036,127 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -1403,8 +1534,8 @@
   <dimension ref="A1:Q202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O137" sqref="A1:O137"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1482,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <f>A2</f>
+        <f t="shared" ref="C2:C47" si="0">A2</f>
         <v>10001</v>
       </c>
       <c r="D2" s="16">
@@ -1530,7 +1661,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7">
-        <f t="shared" ref="C3:C35" si="0">A3</f>
+        <f t="shared" si="0"/>
         <v>10002</v>
       </c>
       <c r="D3" s="16">
@@ -1633,10 +1764,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="16">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F5" s="16">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G5" s="16">
         <v>10</v>
@@ -3114,7 +3245,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="7">
-        <f>A36</f>
+        <f t="shared" si="0"/>
         <v>10035</v>
       </c>
       <c r="D36" s="16">
@@ -3162,7 +3293,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="7">
-        <f t="shared" ref="C37:C47" si="1">A37</f>
+        <f t="shared" si="0"/>
         <v>10036</v>
       </c>
       <c r="D37" s="16">
@@ -3210,7 +3341,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10037</v>
       </c>
       <c r="D38" s="16">
@@ -3258,7 +3389,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10038</v>
       </c>
       <c r="D39" s="16">
@@ -3306,7 +3437,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10039</v>
       </c>
       <c r="D40" s="16">
@@ -3354,7 +3485,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10040</v>
       </c>
       <c r="D41" s="16">
@@ -3402,7 +3533,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10041</v>
       </c>
       <c r="D42" s="16">
@@ -3450,7 +3581,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10042</v>
       </c>
       <c r="D43" s="16">
@@ -3498,7 +3629,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10043</v>
       </c>
       <c r="D44" s="16">
@@ -3546,7 +3677,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10044</v>
       </c>
       <c r="D45" s="16">
@@ -3594,7 +3725,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10045</v>
       </c>
       <c r="D46" s="16">
@@ -3642,7 +3773,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10046</v>
       </c>
       <c r="D47" s="16">
@@ -3930,7 +4061,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="7">
-        <f>A53</f>
+        <f t="shared" ref="C53:C58" si="1">A53</f>
         <v>10052</v>
       </c>
       <c r="D53" s="16">
@@ -3978,7 +4109,7 @@
         <v>75</v>
       </c>
       <c r="C54" s="7">
-        <f t="shared" ref="C54" si="2">A54</f>
+        <f t="shared" si="1"/>
         <v>10053</v>
       </c>
       <c r="D54" s="16">
@@ -4026,8 +4157,8 @@
         <v>52</v>
       </c>
       <c r="C55" s="7">
-        <f>C54</f>
-        <v>10053</v>
+        <f t="shared" si="1"/>
+        <v>10054</v>
       </c>
       <c r="D55" s="16">
         <v>53</v>
@@ -4074,7 +4205,7 @@
         <v>53</v>
       </c>
       <c r="C56" s="7">
-        <f>A56</f>
+        <f t="shared" si="1"/>
         <v>10055</v>
       </c>
       <c r="D56" s="16">
@@ -4122,7 +4253,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="7">
-        <f>A57</f>
+        <f t="shared" si="1"/>
         <v>10056</v>
       </c>
       <c r="D57" s="16">
@@ -4170,7 +4301,7 @@
         <v>54</v>
       </c>
       <c r="C58" s="7">
-        <f>A58</f>
+        <f t="shared" si="1"/>
         <v>10057</v>
       </c>
       <c r="D58" s="16">
@@ -4362,7 +4493,7 @@
         <v>57</v>
       </c>
       <c r="C62" s="7">
-        <f t="shared" ref="C62:C84" si="3">A62</f>
+        <f t="shared" ref="C62:C84" si="2">A62</f>
         <v>10061</v>
       </c>
       <c r="D62" s="16">
@@ -4410,7 +4541,7 @@
         <v>58</v>
       </c>
       <c r="C63" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10062</v>
       </c>
       <c r="D63" s="16">
@@ -4458,7 +4589,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10063</v>
       </c>
       <c r="D64" s="16">
@@ -4506,7 +4637,7 @@
         <v>60</v>
       </c>
       <c r="C65" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10064</v>
       </c>
       <c r="D65" s="16">
@@ -4554,7 +4685,7 @@
         <v>61</v>
       </c>
       <c r="C66" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10065</v>
       </c>
       <c r="D66" s="16">
@@ -4602,7 +4733,7 @@
         <v>62</v>
       </c>
       <c r="C67" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10066</v>
       </c>
       <c r="D67" s="16">
@@ -4650,7 +4781,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10067</v>
       </c>
       <c r="D68" s="16">
@@ -4698,7 +4829,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10068</v>
       </c>
       <c r="D69" s="16">
@@ -4746,7 +4877,7 @@
         <v>63</v>
       </c>
       <c r="C70" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10069</v>
       </c>
       <c r="D70" s="16">
@@ -4794,7 +4925,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10070</v>
       </c>
       <c r="D71" s="16">
@@ -4842,7 +4973,7 @@
         <v>65</v>
       </c>
       <c r="C72" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10071</v>
       </c>
       <c r="D72" s="16">
@@ -4890,7 +5021,7 @@
         <v>77</v>
       </c>
       <c r="C73" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10072</v>
       </c>
       <c r="D73" s="16">
@@ -4938,7 +5069,7 @@
         <v>64</v>
       </c>
       <c r="C74" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10073</v>
       </c>
       <c r="D74" s="16">
@@ -4986,7 +5117,7 @@
         <v>69</v>
       </c>
       <c r="C75" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10074</v>
       </c>
       <c r="D75" s="16">
@@ -5034,7 +5165,7 @@
         <v>70</v>
       </c>
       <c r="C76" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10075</v>
       </c>
       <c r="D76" s="16">
@@ -5082,7 +5213,7 @@
         <v>71</v>
       </c>
       <c r="C77" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10076</v>
       </c>
       <c r="D77" s="16">
@@ -5130,7 +5261,7 @@
         <v>72</v>
       </c>
       <c r="C78" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10077</v>
       </c>
       <c r="D78" s="16">
@@ -5178,7 +5309,7 @@
         <v>73</v>
       </c>
       <c r="C79" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10078</v>
       </c>
       <c r="D79" s="16">
@@ -5226,7 +5357,7 @@
         <v>96</v>
       </c>
       <c r="C80" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10079</v>
       </c>
       <c r="D80" s="16">
@@ -5274,7 +5405,7 @@
         <v>74</v>
       </c>
       <c r="C81" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10080</v>
       </c>
       <c r="D81" s="16">
@@ -5322,7 +5453,7 @@
         <v>108</v>
       </c>
       <c r="C82" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10081</v>
       </c>
       <c r="D82" s="16">
@@ -5370,7 +5501,7 @@
         <v>109</v>
       </c>
       <c r="C83" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10082</v>
       </c>
       <c r="D83" s="16">
@@ -5418,7 +5549,7 @@
         <v>102</v>
       </c>
       <c r="C84" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10083</v>
       </c>
       <c r="D84" s="16">
@@ -5850,17 +5981,18 @@
         <v>178</v>
       </c>
       <c r="C93" s="7">
-        <v>0</v>
+        <f t="shared" ref="C93:C103" si="3">A93</f>
+        <v>10092</v>
       </c>
       <c r="D93">
         <v>64</v>
       </c>
       <c r="E93">
-        <f>D93*40</f>
+        <f t="shared" ref="E93:E137" si="4">D93*40</f>
         <v>2560</v>
       </c>
       <c r="F93">
-        <f>D93*32</f>
+        <f t="shared" ref="F93:F137" si="5">D93*32</f>
         <v>2048</v>
       </c>
       <c r="G93" s="16">
@@ -5879,11 +6011,11 @@
         <v>110</v>
       </c>
       <c r="L93">
-        <f>INT(D93/2)</f>
+        <f t="shared" ref="L93:L137" si="6">INT(D93/2)</f>
         <v>32</v>
       </c>
       <c r="M93">
-        <f>INT(D93/2)</f>
+        <f t="shared" ref="M93:M137" si="7">INT(D93/2)</f>
         <v>32</v>
       </c>
       <c r="N93">
@@ -5902,18 +6034,18 @@
         <v>179</v>
       </c>
       <c r="C94" s="7">
-        <f>A94</f>
+        <f t="shared" si="3"/>
         <v>10093</v>
       </c>
       <c r="D94">
         <v>60</v>
       </c>
       <c r="E94">
-        <f t="shared" ref="E94:E137" si="4">D94*40</f>
+        <f t="shared" si="4"/>
         <v>2400</v>
       </c>
       <c r="F94">
-        <f t="shared" ref="F94:F137" si="5">D94*32</f>
+        <f t="shared" si="5"/>
         <v>1920</v>
       </c>
       <c r="G94" s="16">
@@ -5936,11 +6068,11 @@
         <v>132</v>
       </c>
       <c r="L94">
-        <f t="shared" ref="L94:L96" si="6">INT(D94/2)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="M94">
-        <f t="shared" ref="M94:M96" si="7">INT(D94/2)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="N94">
@@ -5959,7 +6091,7 @@
         <v>180</v>
       </c>
       <c r="C95" s="7">
-        <f>A95</f>
+        <f t="shared" si="3"/>
         <v>10094</v>
       </c>
       <c r="D95">
@@ -5976,20 +6108,18 @@
       <c r="G95" s="16">
         <v>10</v>
       </c>
-      <c r="H95">
-        <f t="shared" ref="H95:H137" si="8">INT($D95*1.6)</f>
+      <c r="H95" s="16">
+        <v>0</v>
+      </c>
+      <c r="I95" s="16">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <f>INT($D95*1.6)</f>
         <v>110</v>
       </c>
-      <c r="I95">
-        <f t="shared" ref="I95:I137" si="9">INT($D95*2.2)</f>
-        <v>151</v>
-      </c>
-      <c r="J95">
-        <f t="shared" ref="J95:J137" si="10">INT($D95*1.6)</f>
-        <v>110</v>
-      </c>
       <c r="K95">
-        <f t="shared" ref="K95:K137" si="11">INT($D95*2.2)</f>
+        <f>INT($D95*2.2)</f>
         <v>151</v>
       </c>
       <c r="L95">
@@ -6013,10 +6143,11 @@
         <v>10095</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="C96" s="7">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10095</v>
       </c>
       <c r="D96">
         <v>68</v>
@@ -6032,20 +6163,18 @@
       <c r="G96" s="16">
         <v>10</v>
       </c>
-      <c r="H96">
-        <f t="shared" si="8"/>
+      <c r="H96" s="16">
+        <v>0</v>
+      </c>
+      <c r="I96" s="16">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <f>INT($D96*1.6)</f>
         <v>108</v>
       </c>
-      <c r="I96">
-        <f t="shared" si="9"/>
-        <v>149</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="10"/>
-        <v>108</v>
-      </c>
       <c r="K96">
-        <f t="shared" si="11"/>
+        <f>INT($D96*2.2)</f>
         <v>149</v>
       </c>
       <c r="L96">
@@ -6069,10 +6198,11 @@
         <v>10096</v>
       </c>
       <c r="B97" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="C97" s="7">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10096</v>
       </c>
       <c r="D97">
         <v>67</v>
@@ -6089,27 +6219,25 @@
         <v>10</v>
       </c>
       <c r="H97">
-        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <f>INT($D97*1.6)</f>
         <v>107</v>
       </c>
-      <c r="I97">
-        <f t="shared" si="9"/>
+      <c r="K97">
+        <f>INT($D97*2.2)</f>
         <v>147</v>
       </c>
-      <c r="J97">
-        <f t="shared" si="10"/>
-        <v>107</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="11"/>
-        <v>147</v>
-      </c>
       <c r="L97">
-        <f t="shared" ref="L97:L137" si="12">INT(D97/2)</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="M97">
-        <f t="shared" ref="M97:M137" si="13">INT(D97/2)</f>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="N97">
@@ -6128,7 +6256,8 @@
         <v>182</v>
       </c>
       <c r="C98" s="7">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10097</v>
       </c>
       <c r="D98">
         <v>60</v>
@@ -6145,27 +6274,25 @@
         <v>10</v>
       </c>
       <c r="H98">
-        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <f>INT($D98*1.6)</f>
         <v>96</v>
       </c>
-      <c r="I98">
-        <f t="shared" si="9"/>
+      <c r="K98">
+        <f>INT($D98*2.2)</f>
         <v>132</v>
       </c>
-      <c r="J98">
-        <f t="shared" si="10"/>
-        <v>96</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="11"/>
-        <v>132</v>
-      </c>
       <c r="L98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="M98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="N98">
@@ -6184,7 +6311,7 @@
         <v>183</v>
       </c>
       <c r="C99" s="7">
-        <f>A99</f>
+        <f t="shared" si="3"/>
         <v>10098</v>
       </c>
       <c r="D99">
@@ -6202,27 +6329,25 @@
         <v>10</v>
       </c>
       <c r="H99">
-        <f t="shared" si="8"/>
+        <f>INT($D99*1.6)</f>
         <v>104</v>
       </c>
       <c r="I99">
-        <f t="shared" si="9"/>
+        <f>INT($D99*2.2)</f>
         <v>143</v>
       </c>
       <c r="J99">
-        <f t="shared" si="10"/>
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <f t="shared" si="11"/>
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="M99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="N99">
@@ -6238,10 +6363,11 @@
         <v>10099</v>
       </c>
       <c r="B100" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C100" s="7">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10099</v>
       </c>
       <c r="D100">
         <v>64</v>
@@ -6258,27 +6384,25 @@
         <v>10</v>
       </c>
       <c r="H100">
-        <f t="shared" si="8"/>
+        <f>INT($D100*1.6)</f>
         <v>102</v>
       </c>
       <c r="I100">
-        <f t="shared" si="9"/>
+        <f>INT($D100*2.2)</f>
         <v>140</v>
       </c>
       <c r="J100">
-        <f t="shared" si="10"/>
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <f t="shared" si="11"/>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="M100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="N100">
@@ -6297,7 +6421,7 @@
         <v>181</v>
       </c>
       <c r="C101" s="7">
-        <f>A101</f>
+        <f t="shared" si="3"/>
         <v>10100</v>
       </c>
       <c r="D101">
@@ -6315,27 +6439,25 @@
         <v>10</v>
       </c>
       <c r="H101">
-        <f t="shared" si="8"/>
+        <f>INT($D101*1.6)</f>
         <v>102</v>
       </c>
       <c r="I101">
-        <f t="shared" si="9"/>
+        <f>INT($D101*2.2)</f>
         <v>140</v>
       </c>
       <c r="J101">
-        <f t="shared" si="10"/>
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <f t="shared" si="11"/>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="M101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="N101">
@@ -6351,10 +6473,11 @@
         <v>10101</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C102" s="7">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10101</v>
       </c>
       <c r="D102">
         <v>69</v>
@@ -6371,27 +6494,25 @@
         <v>10</v>
       </c>
       <c r="H102">
-        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <f>INT($D102*1.6)</f>
         <v>110</v>
       </c>
-      <c r="I102">
-        <f t="shared" si="9"/>
+      <c r="K102">
+        <f>INT($D102*2.2)</f>
         <v>151</v>
       </c>
-      <c r="J102">
-        <f t="shared" si="10"/>
-        <v>110</v>
-      </c>
-      <c r="K102">
-        <f t="shared" si="11"/>
-        <v>151</v>
-      </c>
       <c r="L102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="M102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="N102">
@@ -6407,10 +6528,11 @@
         <v>10102</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="C103" s="7">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10102</v>
       </c>
       <c r="D103">
         <v>71</v>
@@ -6427,27 +6549,25 @@
         <v>10</v>
       </c>
       <c r="H103">
-        <f t="shared" si="8"/>
+        <f>INT($D103*1.6)</f>
         <v>113</v>
       </c>
       <c r="I103">
-        <f t="shared" si="9"/>
+        <f>INT($D103*2.2)</f>
         <v>156</v>
       </c>
       <c r="J103">
-        <f t="shared" si="10"/>
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="K103">
-        <f t="shared" si="11"/>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="L103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="M103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="N103">
@@ -6463,10 +6583,11 @@
         <v>10103</v>
       </c>
       <c r="B104" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C104" s="7">
-        <v>0</v>
+        <f>C99</f>
+        <v>10098</v>
       </c>
       <c r="D104">
         <v>71</v>
@@ -6483,27 +6604,25 @@
         <v>10</v>
       </c>
       <c r="H104">
-        <f t="shared" si="8"/>
+        <f>INT($D104*1.6)</f>
         <v>113</v>
       </c>
       <c r="I104">
-        <f t="shared" si="9"/>
+        <f>INT($D104*2.2)</f>
         <v>156</v>
       </c>
       <c r="J104">
-        <f t="shared" si="10"/>
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="K104">
-        <f t="shared" si="11"/>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="M104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="N104">
@@ -6519,10 +6638,11 @@
         <v>10104</v>
       </c>
       <c r="B105" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C105" s="7">
-        <v>0</v>
+        <f>A105</f>
+        <v>10104</v>
       </c>
       <c r="D105">
         <v>73</v>
@@ -6539,27 +6659,25 @@
         <v>10</v>
       </c>
       <c r="H105">
-        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <f>INT($D105*1.6)</f>
         <v>116</v>
       </c>
-      <c r="I105">
-        <f t="shared" si="9"/>
+      <c r="K105">
+        <f>INT($D105*2.2)</f>
         <v>160</v>
       </c>
-      <c r="J105">
-        <f t="shared" si="10"/>
-        <v>116</v>
-      </c>
-      <c r="K105">
-        <f t="shared" si="11"/>
-        <v>160</v>
-      </c>
       <c r="L105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="M105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="N105">
@@ -6575,10 +6693,11 @@
         <v>10105</v>
       </c>
       <c r="B106" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C106" s="7">
-        <v>0</v>
+        <f>A106</f>
+        <v>10105</v>
       </c>
       <c r="D106">
         <v>71</v>
@@ -6595,27 +6714,25 @@
         <v>10</v>
       </c>
       <c r="H106">
-        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <f>INT($D106*1.6)</f>
         <v>113</v>
       </c>
-      <c r="I106">
-        <f t="shared" si="9"/>
+      <c r="K106">
+        <f>INT($D106*2.2)</f>
         <v>156</v>
       </c>
-      <c r="J106">
-        <f t="shared" si="10"/>
-        <v>113</v>
-      </c>
-      <c r="K106">
-        <f t="shared" si="11"/>
-        <v>156</v>
-      </c>
       <c r="L106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="M106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="N106">
@@ -6631,10 +6748,11 @@
         <v>10106</v>
       </c>
       <c r="B107" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C107" s="7">
-        <v>0</v>
+        <f>A107</f>
+        <v>10106</v>
       </c>
       <c r="D107">
         <v>74</v>
@@ -6651,27 +6769,25 @@
         <v>10</v>
       </c>
       <c r="H107">
-        <f t="shared" si="8"/>
+        <f>INT($D107*1.6)</f>
         <v>118</v>
       </c>
       <c r="I107">
-        <f t="shared" si="9"/>
+        <f>INT($D107*2.2)</f>
         <v>162</v>
       </c>
       <c r="J107">
-        <f t="shared" si="10"/>
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="K107">
-        <f t="shared" si="11"/>
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="M107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="N107">
@@ -6687,10 +6803,11 @@
         <v>10107</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C108" s="7">
-        <v>0</v>
+        <f>C105</f>
+        <v>10104</v>
       </c>
       <c r="D108">
         <v>79</v>
@@ -6707,27 +6824,25 @@
         <v>10</v>
       </c>
       <c r="H108">
-        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <f>INT($D108*1.6)</f>
         <v>126</v>
       </c>
-      <c r="I108">
-        <f t="shared" si="9"/>
+      <c r="K108">
+        <f>INT($D108*2.2)</f>
         <v>173</v>
       </c>
-      <c r="J108">
-        <f t="shared" si="10"/>
-        <v>126</v>
-      </c>
-      <c r="K108">
-        <f t="shared" si="11"/>
-        <v>173</v>
-      </c>
       <c r="L108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="M108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="N108">
@@ -6743,10 +6858,11 @@
         <v>10108</v>
       </c>
       <c r="B109" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C109" s="7">
-        <v>0</v>
+        <f>C106</f>
+        <v>10105</v>
       </c>
       <c r="D109">
         <v>78</v>
@@ -6763,27 +6879,25 @@
         <v>10</v>
       </c>
       <c r="H109">
-        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <f>INT($D109*1.6)</f>
         <v>124</v>
       </c>
-      <c r="I109">
-        <f t="shared" si="9"/>
+      <c r="K109">
+        <f>INT($D109*2.2)</f>
         <v>171</v>
       </c>
-      <c r="J109">
-        <f t="shared" si="10"/>
-        <v>124</v>
-      </c>
-      <c r="K109">
-        <f t="shared" si="11"/>
-        <v>171</v>
-      </c>
       <c r="L109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="M109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="N109">
@@ -6799,10 +6913,11 @@
         <v>10109</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C110" s="7">
-        <v>0</v>
+        <f>C107</f>
+        <v>10106</v>
       </c>
       <c r="D110">
         <v>78</v>
@@ -6819,27 +6934,25 @@
         <v>10</v>
       </c>
       <c r="H110">
-        <f t="shared" si="8"/>
+        <f>INT($D110*1.6)</f>
         <v>124</v>
       </c>
       <c r="I110">
-        <f t="shared" si="9"/>
+        <f>INT($D110*2.2)</f>
         <v>171</v>
       </c>
       <c r="J110">
-        <f t="shared" si="10"/>
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="K110">
-        <f t="shared" si="11"/>
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="L110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="M110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="N110">
@@ -6855,10 +6968,11 @@
         <v>10110</v>
       </c>
       <c r="B111" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C111" s="7">
-        <v>0</v>
+        <f t="shared" ref="C111:C130" si="8">A111</f>
+        <v>10110</v>
       </c>
       <c r="D111">
         <v>75</v>
@@ -6875,27 +6989,25 @@
         <v>10</v>
       </c>
       <c r="H111">
-        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <f>INT($D111*1.6)</f>
         <v>120</v>
       </c>
-      <c r="I111">
-        <f t="shared" si="9"/>
+      <c r="K111">
+        <f>INT($D111*2.2)</f>
         <v>165</v>
       </c>
-      <c r="J111">
-        <f t="shared" si="10"/>
-        <v>120</v>
-      </c>
-      <c r="K111">
-        <f t="shared" si="11"/>
-        <v>165</v>
-      </c>
       <c r="L111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="M111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="N111">
@@ -6911,10 +7023,11 @@
         <v>10111</v>
       </c>
       <c r="B112" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C112" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10111</v>
       </c>
       <c r="D112">
         <v>71</v>
@@ -6931,27 +7044,25 @@
         <v>10</v>
       </c>
       <c r="H112">
-        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <f>INT($D112*1.6)</f>
         <v>113</v>
       </c>
-      <c r="I112">
-        <f t="shared" si="9"/>
+      <c r="K112">
+        <f>INT($D112*2.2)</f>
         <v>156</v>
       </c>
-      <c r="J112">
-        <f t="shared" si="10"/>
-        <v>113</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="11"/>
-        <v>156</v>
-      </c>
       <c r="L112">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="M112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="N112">
@@ -6967,10 +7078,11 @@
         <v>10112</v>
       </c>
       <c r="B113" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C113" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10112</v>
       </c>
       <c r="D113">
         <v>73</v>
@@ -6987,27 +7099,25 @@
         <v>10</v>
       </c>
       <c r="H113">
-        <f t="shared" si="8"/>
+        <f>INT($D113*1.6)</f>
         <v>116</v>
       </c>
       <c r="I113">
-        <f t="shared" si="9"/>
+        <f>INT($D113*2.2)</f>
         <v>160</v>
       </c>
       <c r="J113">
-        <f t="shared" si="10"/>
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <f t="shared" si="11"/>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="M113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="N113">
@@ -7023,10 +7133,11 @@
         <v>10113</v>
       </c>
       <c r="B114" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C114" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10113</v>
       </c>
       <c r="D114">
         <v>76</v>
@@ -7043,27 +7154,25 @@
         <v>10</v>
       </c>
       <c r="H114">
-        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <f t="shared" ref="J114:J123" si="9">INT($D114*1.6)</f>
         <v>121</v>
       </c>
-      <c r="I114">
-        <f t="shared" si="9"/>
+      <c r="K114">
+        <f t="shared" ref="K114:K137" si="10">INT($D114*2.2)</f>
         <v>167</v>
       </c>
-      <c r="J114">
-        <f t="shared" si="10"/>
-        <v>121</v>
-      </c>
-      <c r="K114">
-        <f t="shared" si="11"/>
-        <v>167</v>
-      </c>
       <c r="L114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="M114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="N114">
@@ -7079,10 +7188,11 @@
         <v>10114</v>
       </c>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C115" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10114</v>
       </c>
       <c r="D115">
         <v>89</v>
@@ -7099,27 +7209,27 @@
         <v>10</v>
       </c>
       <c r="H115">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H115:H137" si="11">INT($D115*1.6)</f>
         <v>142</v>
       </c>
       <c r="I115">
+        <f t="shared" ref="I115:I123" si="12">INT($D115*2.2)</f>
+        <v>195</v>
+      </c>
+      <c r="J115">
         <f t="shared" si="9"/>
+        <v>142</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="10"/>
         <v>195</v>
       </c>
-      <c r="J115">
-        <f t="shared" si="10"/>
-        <v>142</v>
-      </c>
-      <c r="K115">
-        <f t="shared" si="11"/>
-        <v>195</v>
-      </c>
       <c r="L115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="M115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="N115">
@@ -7135,10 +7245,11 @@
         <v>10115</v>
       </c>
       <c r="B116" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C116" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10115</v>
       </c>
       <c r="D116">
         <v>85</v>
@@ -7155,27 +7266,27 @@
         <v>10</v>
       </c>
       <c r="H116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>136</v>
       </c>
       <c r="I116">
+        <f t="shared" si="12"/>
+        <v>187</v>
+      </c>
+      <c r="J116">
         <f t="shared" si="9"/>
+        <v>136</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="10"/>
         <v>187</v>
       </c>
-      <c r="J116">
-        <f t="shared" si="10"/>
-        <v>136</v>
-      </c>
-      <c r="K116">
-        <f t="shared" si="11"/>
-        <v>187</v>
-      </c>
       <c r="L116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="M116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="N116">
@@ -7191,10 +7302,11 @@
         <v>10116</v>
       </c>
       <c r="B117" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C117" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10116</v>
       </c>
       <c r="D117">
         <v>87</v>
@@ -7211,27 +7323,27 @@
         <v>10</v>
       </c>
       <c r="H117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>139</v>
       </c>
       <c r="I117">
+        <f t="shared" si="12"/>
+        <v>191</v>
+      </c>
+      <c r="J117">
         <f t="shared" si="9"/>
+        <v>139</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="10"/>
         <v>191</v>
       </c>
-      <c r="J117">
-        <f t="shared" si="10"/>
-        <v>139</v>
-      </c>
-      <c r="K117">
-        <f t="shared" si="11"/>
-        <v>191</v>
-      </c>
       <c r="L117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="M117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="N117">
@@ -7247,10 +7359,11 @@
         <v>10117</v>
       </c>
       <c r="B118" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C118" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10117</v>
       </c>
       <c r="D118">
         <v>81</v>
@@ -7267,27 +7380,27 @@
         <v>10</v>
       </c>
       <c r="H118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>129</v>
       </c>
       <c r="I118">
+        <f t="shared" si="12"/>
+        <v>178</v>
+      </c>
+      <c r="J118">
         <f t="shared" si="9"/>
+        <v>129</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="10"/>
         <v>178</v>
       </c>
-      <c r="J118">
-        <f t="shared" si="10"/>
-        <v>129</v>
-      </c>
-      <c r="K118">
-        <f t="shared" si="11"/>
-        <v>178</v>
-      </c>
       <c r="L118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="M118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="N118">
@@ -7303,16 +7416,17 @@
         <v>10118</v>
       </c>
       <c r="B119" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C119" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10118</v>
       </c>
       <c r="D119">
         <v>89</v>
       </c>
       <c r="E119">
-        <f>D119*40</f>
+        <f t="shared" si="4"/>
         <v>3560</v>
       </c>
       <c r="F119">
@@ -7323,27 +7437,27 @@
         <v>10</v>
       </c>
       <c r="H119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>142</v>
       </c>
       <c r="I119">
+        <f t="shared" si="12"/>
+        <v>195</v>
+      </c>
+      <c r="J119">
         <f t="shared" si="9"/>
+        <v>142</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="10"/>
         <v>195</v>
       </c>
-      <c r="J119">
-        <f t="shared" si="10"/>
-        <v>142</v>
-      </c>
-      <c r="K119">
-        <f t="shared" si="11"/>
-        <v>195</v>
-      </c>
       <c r="L119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="M119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="N119">
@@ -7359,10 +7473,11 @@
         <v>10119</v>
       </c>
       <c r="B120" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C120" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10119</v>
       </c>
       <c r="D120">
         <v>82</v>
@@ -7379,27 +7494,27 @@
         <v>10</v>
       </c>
       <c r="H120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>131</v>
       </c>
       <c r="I120">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="J120">
         <f t="shared" si="9"/>
+        <v>131</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
-      <c r="J120">
-        <f t="shared" si="10"/>
-        <v>131</v>
-      </c>
-      <c r="K120">
-        <f t="shared" si="11"/>
-        <v>180</v>
-      </c>
       <c r="L120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="M120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="N120">
@@ -7415,10 +7530,11 @@
         <v>10120</v>
       </c>
       <c r="B121" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C121" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10120</v>
       </c>
       <c r="D121">
         <v>80</v>
@@ -7435,27 +7551,27 @@
         <v>10</v>
       </c>
       <c r="H121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>128</v>
       </c>
       <c r="I121">
+        <f t="shared" si="12"/>
+        <v>176</v>
+      </c>
+      <c r="J121">
         <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="10"/>
         <v>176</v>
       </c>
-      <c r="J121">
-        <f t="shared" si="10"/>
-        <v>128</v>
-      </c>
-      <c r="K121">
-        <f t="shared" si="11"/>
-        <v>176</v>
-      </c>
       <c r="L121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="M121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="N121">
@@ -7471,10 +7587,11 @@
         <v>10121</v>
       </c>
       <c r="B122" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C122" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10121</v>
       </c>
       <c r="D122">
         <v>85</v>
@@ -7491,27 +7608,27 @@
         <v>10</v>
       </c>
       <c r="H122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>136</v>
       </c>
       <c r="I122">
+        <f t="shared" si="12"/>
+        <v>187</v>
+      </c>
+      <c r="J122">
         <f t="shared" si="9"/>
+        <v>136</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="10"/>
         <v>187</v>
       </c>
-      <c r="J122">
-        <f t="shared" si="10"/>
-        <v>136</v>
-      </c>
-      <c r="K122">
-        <f t="shared" si="11"/>
-        <v>187</v>
-      </c>
       <c r="L122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="M122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="N122">
@@ -7527,10 +7644,11 @@
         <v>10122</v>
       </c>
       <c r="B123" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C123" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10122</v>
       </c>
       <c r="D123">
         <v>83</v>
@@ -7547,27 +7665,27 @@
         <v>10</v>
       </c>
       <c r="H123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>132</v>
       </c>
       <c r="I123">
+        <f t="shared" si="12"/>
+        <v>182</v>
+      </c>
+      <c r="J123">
         <f t="shared" si="9"/>
+        <v>132</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="10"/>
         <v>182</v>
       </c>
-      <c r="J123">
-        <f t="shared" si="10"/>
-        <v>132</v>
-      </c>
-      <c r="K123">
-        <f t="shared" si="11"/>
-        <v>182</v>
-      </c>
       <c r="L123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="M123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="N123">
@@ -7583,10 +7701,11 @@
         <v>10123</v>
       </c>
       <c r="B124" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C124" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10123</v>
       </c>
       <c r="D124">
         <v>81</v>
@@ -7603,27 +7722,25 @@
         <v>10</v>
       </c>
       <c r="H124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>129</v>
       </c>
       <c r="I124">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="10"/>
         <v>178</v>
       </c>
-      <c r="J124">
-        <f t="shared" si="10"/>
-        <v>129</v>
-      </c>
-      <c r="K124">
-        <f t="shared" si="11"/>
-        <v>178</v>
-      </c>
       <c r="L124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="M124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="N124">
@@ -7639,10 +7756,11 @@
         <v>10124</v>
       </c>
       <c r="B125" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C125" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10124</v>
       </c>
       <c r="D125">
         <v>87</v>
@@ -7659,27 +7777,25 @@
         <v>10</v>
       </c>
       <c r="H125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>139</v>
       </c>
       <c r="I125">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="10"/>
         <v>191</v>
       </c>
-      <c r="J125">
-        <f t="shared" si="10"/>
-        <v>139</v>
-      </c>
-      <c r="K125">
-        <f t="shared" si="11"/>
-        <v>191</v>
-      </c>
       <c r="L125">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="M125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="N125">
@@ -7695,10 +7811,11 @@
         <v>10125</v>
       </c>
       <c r="B126" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C126" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10125</v>
       </c>
       <c r="D126">
         <v>84</v>
@@ -7715,27 +7832,25 @@
         <v>10</v>
       </c>
       <c r="H126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>134</v>
       </c>
       <c r="I126">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="10"/>
         <v>184</v>
       </c>
-      <c r="J126">
-        <f t="shared" si="10"/>
-        <v>134</v>
-      </c>
-      <c r="K126">
-        <f t="shared" si="11"/>
-        <v>184</v>
-      </c>
       <c r="L126">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="M126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="N126">
@@ -7751,10 +7866,11 @@
         <v>10126</v>
       </c>
       <c r="B127" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C127" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10126</v>
       </c>
       <c r="D127">
         <v>89</v>
@@ -7771,27 +7887,25 @@
         <v>10</v>
       </c>
       <c r="H127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>142</v>
       </c>
       <c r="I127">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="10"/>
         <v>195</v>
       </c>
-      <c r="J127">
-        <f t="shared" si="10"/>
-        <v>142</v>
-      </c>
-      <c r="K127">
-        <f t="shared" si="11"/>
-        <v>195</v>
-      </c>
       <c r="L127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="M127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="N127">
@@ -7807,10 +7921,11 @@
         <v>10127</v>
       </c>
       <c r="B128" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C128" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10127</v>
       </c>
       <c r="D128">
         <v>93</v>
@@ -7827,27 +7942,27 @@
         <v>10</v>
       </c>
       <c r="H128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>148</v>
       </c>
       <c r="I128">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="I128:I137" si="13">INT($D128*2.2)</f>
         <v>204</v>
       </c>
       <c r="J128">
+        <f t="shared" ref="J128:J137" si="14">INT($D128*1.6)</f>
+        <v>148</v>
+      </c>
+      <c r="K128">
         <f t="shared" si="10"/>
-        <v>148</v>
-      </c>
-      <c r="K128">
-        <f t="shared" si="11"/>
         <v>204</v>
       </c>
       <c r="L128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="M128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="N128">
@@ -7863,10 +7978,11 @@
         <v>10128</v>
       </c>
       <c r="B129" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C129" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10128</v>
       </c>
       <c r="D129">
         <v>97</v>
@@ -7883,27 +7999,27 @@
         <v>10</v>
       </c>
       <c r="H129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>155</v>
       </c>
       <c r="I129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>213</v>
       </c>
       <c r="J129">
+        <f t="shared" si="14"/>
+        <v>155</v>
+      </c>
+      <c r="K129">
         <f t="shared" si="10"/>
-        <v>155</v>
-      </c>
-      <c r="K129">
-        <f t="shared" si="11"/>
         <v>213</v>
       </c>
       <c r="L129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="M129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="N129">
@@ -7919,10 +8035,11 @@
         <v>10129</v>
       </c>
       <c r="B130" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C130" s="7">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10129</v>
       </c>
       <c r="D130">
         <v>90</v>
@@ -7939,27 +8056,27 @@
         <v>10</v>
       </c>
       <c r="H130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>144</v>
       </c>
       <c r="I130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>198</v>
       </c>
       <c r="J130">
+        <f t="shared" si="14"/>
+        <v>144</v>
+      </c>
+      <c r="K130">
         <f t="shared" si="10"/>
-        <v>144</v>
-      </c>
-      <c r="K130">
-        <f t="shared" si="11"/>
         <v>198</v>
       </c>
       <c r="L130">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="M130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="N130">
@@ -7975,10 +8092,11 @@
         <v>10130</v>
       </c>
       <c r="B131" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C131" s="7">
-        <v>0</v>
+        <f>C32</f>
+        <v>10031</v>
       </c>
       <c r="D131">
         <v>90</v>
@@ -7995,27 +8113,27 @@
         <v>10</v>
       </c>
       <c r="H131">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>144</v>
       </c>
       <c r="I131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>198</v>
       </c>
       <c r="J131">
+        <f t="shared" si="14"/>
+        <v>144</v>
+      </c>
+      <c r="K131">
         <f t="shared" si="10"/>
-        <v>144</v>
-      </c>
-      <c r="K131">
-        <f t="shared" si="11"/>
         <v>198</v>
       </c>
       <c r="L131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="M131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="N131">
@@ -8031,10 +8149,11 @@
         <v>10131</v>
       </c>
       <c r="B132" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C132" s="7">
-        <v>0</v>
+        <f>C33</f>
+        <v>10032</v>
       </c>
       <c r="D132">
         <v>96</v>
@@ -8051,27 +8170,27 @@
         <v>10</v>
       </c>
       <c r="H132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>153</v>
       </c>
       <c r="I132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>211</v>
       </c>
       <c r="J132">
+        <f t="shared" si="14"/>
+        <v>153</v>
+      </c>
+      <c r="K132">
         <f t="shared" si="10"/>
-        <v>153</v>
-      </c>
-      <c r="K132">
-        <f t="shared" si="11"/>
         <v>211</v>
       </c>
       <c r="L132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="M132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="N132">
@@ -8087,10 +8206,11 @@
         <v>10132</v>
       </c>
       <c r="B133" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C133" s="7">
-        <v>0</v>
+        <f>C103</f>
+        <v>10102</v>
       </c>
       <c r="D133">
         <v>94</v>
@@ -8107,27 +8227,27 @@
         <v>10</v>
       </c>
       <c r="H133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>150</v>
       </c>
       <c r="I133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>206</v>
       </c>
       <c r="J133">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="K133">
         <f t="shared" si="10"/>
-        <v>150</v>
-      </c>
-      <c r="K133">
-        <f t="shared" si="11"/>
         <v>206</v>
       </c>
       <c r="L133">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="M133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="N133">
@@ -8143,10 +8263,11 @@
         <v>10133</v>
       </c>
       <c r="B134" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C134" s="7">
-        <v>0</v>
+        <f>A134</f>
+        <v>10133</v>
       </c>
       <c r="D134">
         <v>96</v>
@@ -8163,27 +8284,27 @@
         <v>10</v>
       </c>
       <c r="H134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>153</v>
       </c>
       <c r="I134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>211</v>
       </c>
       <c r="J134">
+        <f t="shared" si="14"/>
+        <v>153</v>
+      </c>
+      <c r="K134">
         <f t="shared" si="10"/>
-        <v>153</v>
-      </c>
-      <c r="K134">
-        <f t="shared" si="11"/>
         <v>211</v>
       </c>
       <c r="L134">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="M134">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="N134">
@@ -8199,10 +8320,11 @@
         <v>10134</v>
       </c>
       <c r="B135" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C135" s="7">
-        <v>0</v>
+        <f>C99</f>
+        <v>10098</v>
       </c>
       <c r="D135">
         <v>95</v>
@@ -8219,27 +8341,27 @@
         <v>10</v>
       </c>
       <c r="H135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>152</v>
       </c>
       <c r="I135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>209</v>
       </c>
       <c r="J135">
+        <f t="shared" si="14"/>
+        <v>152</v>
+      </c>
+      <c r="K135">
         <f t="shared" si="10"/>
-        <v>152</v>
-      </c>
-      <c r="K135">
-        <f t="shared" si="11"/>
         <v>209</v>
       </c>
       <c r="L135">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="M135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="N135">
@@ -8255,10 +8377,11 @@
         <v>10135</v>
       </c>
       <c r="B136" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C136" s="7">
-        <v>0</v>
+        <f>A136</f>
+        <v>10135</v>
       </c>
       <c r="D136">
         <v>98</v>
@@ -8275,27 +8398,27 @@
         <v>10</v>
       </c>
       <c r="H136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>156</v>
       </c>
       <c r="I136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>215</v>
       </c>
       <c r="J136">
+        <f t="shared" si="14"/>
+        <v>156</v>
+      </c>
+      <c r="K136">
         <f t="shared" si="10"/>
-        <v>156</v>
-      </c>
-      <c r="K136">
-        <f t="shared" si="11"/>
         <v>215</v>
       </c>
       <c r="L136">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="M136">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="N136">
@@ -8311,10 +8434,11 @@
         <v>10136</v>
       </c>
       <c r="B137" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C137" s="7">
-        <v>0</v>
+        <f>A137</f>
+        <v>10136</v>
       </c>
       <c r="D137">
         <v>93</v>
@@ -8331,27 +8455,27 @@
         <v>10</v>
       </c>
       <c r="H137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>148</v>
       </c>
       <c r="I137">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>204</v>
       </c>
       <c r="J137">
+        <f t="shared" si="14"/>
+        <v>148</v>
+      </c>
+      <c r="K137">
         <f t="shared" si="10"/>
-        <v>148</v>
-      </c>
-      <c r="K137">
-        <f t="shared" si="11"/>
         <v>204</v>
       </c>
       <c r="L137">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="M137">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="N137">
@@ -8361,36 +8485,6 @@
         <v>2000</v>
       </c>
       <c r="Q137"/>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B138"/>
-      <c r="D138"/>
-      <c r="E138"/>
-      <c r="F138"/>
-      <c r="H138"/>
-      <c r="I138"/>
-      <c r="J138"/>
-      <c r="K138"/>
-      <c r="L138"/>
-      <c r="M138"/>
-      <c r="N138"/>
-      <c r="O138"/>
-      <c r="Q138"/>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B139"/>
-      <c r="D139"/>
-      <c r="E139"/>
-      <c r="F139"/>
-      <c r="H139"/>
-      <c r="I139"/>
-      <c r="J139"/>
-      <c r="K139"/>
-      <c r="L139"/>
-      <c r="M139"/>
-      <c r="N139"/>
-      <c r="O139"/>
-      <c r="Q139"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B140"/>
@@ -11249,14 +11343,129 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H143:M1048576 H1:M92 J138:O142 L93:N137">
-    <cfRule type="expression" dxfId="6" priority="49">
+  <conditionalFormatting sqref="H143:M1048576 H1:M92 J140:O142 L93:N137">
+    <cfRule type="expression" dxfId="30" priority="73">
       <formula>H1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93:I93">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="29" priority="25">
       <formula>H93=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95:I96">
+    <cfRule type="expression" dxfId="28" priority="24">
+      <formula>H95=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H97:I97">
+    <cfRule type="expression" dxfId="27" priority="23">
+      <formula>H97=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H98:I98">
+    <cfRule type="expression" dxfId="26" priority="22">
+      <formula>H98=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H102:I102">
+    <cfRule type="expression" dxfId="25" priority="21">
+      <formula>H102=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J99:K99">
+    <cfRule type="expression" dxfId="24" priority="20">
+      <formula>J99=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J100:K100">
+    <cfRule type="expression" dxfId="23" priority="19">
+      <formula>J100=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J101:K101">
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>J101=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J103:K103">
+    <cfRule type="expression" dxfId="21" priority="17">
+      <formula>J103=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J104:K104">
+    <cfRule type="expression" dxfId="20" priority="16">
+      <formula>J104=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H105:I105">
+    <cfRule type="expression" dxfId="19" priority="15">
+      <formula>H105=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H106:I106">
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>H106=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J107:K107">
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>J107=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H108:I108">
+    <cfRule type="expression" dxfId="16" priority="12">
+      <formula>H108=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109:I109">
+    <cfRule type="expression" dxfId="15" priority="11">
+      <formula>H109=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J110:K110">
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>J110=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H111:I111">
+    <cfRule type="expression" dxfId="13" priority="9">
+      <formula>H111=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H112:I112">
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>H112=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J113:K113">
+    <cfRule type="expression" dxfId="11" priority="7">
+      <formula>J113=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114:I114">
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>H114=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I124:J124">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>I124=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I125:J125">
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>I125=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I126:J126">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>I126=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I127:J127">
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>I127=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
@@ -11267,11 +11476,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11341,7 +11550,7 @@
         <v>20001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C2" s="4">
         <f>A2</f>
@@ -11389,7 +11598,7 @@
         <v>20002</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C3" s="4">
         <f>C2</f>
@@ -11420,10 +11629,10 @@
         <v>32</v>
       </c>
       <c r="L3">
-        <v>300</v>
+        <v>388</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>20</v>
@@ -11437,7 +11646,7 @@
         <v>20003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" ref="C4:C31" si="0">A4</f>
@@ -11485,7 +11694,7 @@
         <v>20004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
@@ -11533,7 +11742,7 @@
         <v>20005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
@@ -11629,7 +11838,7 @@
         <v>20007</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
@@ -11677,7 +11886,7 @@
         <v>20008</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C9" s="4">
         <f>C8</f>
@@ -11708,10 +11917,10 @@
         <v>32</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="M9">
-        <v>300</v>
+        <v>388</v>
       </c>
       <c r="N9">
         <v>20</v>
@@ -11725,11 +11934,10 @@
         <v>20009</v>
       </c>
       <c r="B10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="0"/>
-        <v>20009</v>
+        <v>10033</v>
       </c>
       <c r="D10">
         <v>60</v>
@@ -11773,7 +11981,7 @@
         <v>20010</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
@@ -11869,7 +12077,7 @@
         <v>20012</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
@@ -12013,7 +12221,7 @@
         <v>20015</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
@@ -12061,7 +12269,7 @@
         <v>20016</v>
       </c>
       <c r="B17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
@@ -12109,7 +12317,7 @@
         <v>20017</v>
       </c>
       <c r="B18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
@@ -12157,7 +12365,7 @@
         <v>20018</v>
       </c>
       <c r="B19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
@@ -12176,13 +12384,13 @@
         <v>100</v>
       </c>
       <c r="H19">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I19">
         <v>100</v>
       </c>
       <c r="J19">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K19">
         <v>100</v>
@@ -12205,7 +12413,7 @@
         <v>20019</v>
       </c>
       <c r="B20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
@@ -12224,13 +12432,13 @@
         <v>100</v>
       </c>
       <c r="H20">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I20">
         <v>100</v>
       </c>
       <c r="J20">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K20">
         <v>100</v>
@@ -12253,7 +12461,7 @@
         <v>20020</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C21" s="4">
         <f>C20</f>
@@ -12272,13 +12480,13 @@
         <v>100</v>
       </c>
       <c r="H21">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I21">
         <v>85</v>
       </c>
       <c r="J21">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="K21">
         <v>85</v>
@@ -12301,7 +12509,7 @@
         <v>20021</v>
       </c>
       <c r="B22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="0"/>
@@ -12320,13 +12528,13 @@
         <v>100</v>
       </c>
       <c r="H22">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="I22">
         <v>80</v>
       </c>
       <c r="J22">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K22">
         <v>120</v>
@@ -12349,7 +12557,7 @@
         <v>20022</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="0"/>
@@ -12397,7 +12605,7 @@
         <v>20023</v>
       </c>
       <c r="B24" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="0"/>
@@ -12445,7 +12653,7 @@
         <v>20024</v>
       </c>
       <c r="B25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="0"/>
@@ -12464,13 +12672,13 @@
         <v>100</v>
       </c>
       <c r="H25">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I25">
         <v>120</v>
       </c>
       <c r="J25">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K25">
         <v>120</v>
@@ -12493,7 +12701,7 @@
         <v>20025</v>
       </c>
       <c r="B26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
@@ -12560,13 +12768,13 @@
         <v>100</v>
       </c>
       <c r="H27">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I27">
         <v>120</v>
       </c>
       <c r="J27">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K27">
         <v>120</v>
@@ -12589,7 +12797,7 @@
         <v>20027</v>
       </c>
       <c r="B28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
@@ -12637,7 +12845,7 @@
         <v>20028</v>
       </c>
       <c r="B29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
@@ -12685,7 +12893,7 @@
         <v>20029</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="0"/>
@@ -12733,7 +12941,7 @@
         <v>20030</v>
       </c>
       <c r="B31" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="0"/>
@@ -12752,13 +12960,13 @@
         <v>100</v>
       </c>
       <c r="H31">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I31">
         <v>150</v>
       </c>
       <c r="J31">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K31">
         <v>150</v>
@@ -12781,7 +12989,7 @@
         <v>20031</v>
       </c>
       <c r="B32" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C32" s="4">
         <f>C26</f>
@@ -12824,12 +13032,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>20032</v>
       </c>
       <c r="B33" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C33" s="4">
         <f>C17</f>
@@ -12872,12 +13080,12 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>20033</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C34" s="4">
         <f>C4</f>
@@ -12920,12 +13128,12 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>20034</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C35" s="4">
         <f>C18</f>
@@ -12968,12 +13176,12 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>20035</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C36" s="4">
         <f>C7</f>
@@ -13016,12 +13224,12 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>20036</v>
       </c>
       <c r="B37" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C37" s="4">
         <f>C20</f>
@@ -13064,12 +13272,12 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>20037</v>
       </c>
       <c r="B38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C38" s="4">
         <f>C25</f>
@@ -13112,12 +13320,12 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>20038</v>
       </c>
       <c r="B39" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C39" s="4">
         <f>C7</f>
@@ -13160,12 +13368,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>20039</v>
       </c>
       <c r="B40" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C40" s="4">
         <f>A40</f>
@@ -13184,13 +13392,13 @@
         <v>100</v>
       </c>
       <c r="H40">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="I40">
         <v>180</v>
       </c>
       <c r="J40">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K40">
         <v>180</v>
@@ -13208,12 +13416,12 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>20040</v>
       </c>
       <c r="B41" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C41" s="4">
         <v>20003</v>
@@ -13255,15 +13463,16 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>20041</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <f>A42</f>
+        <v>20041</v>
       </c>
       <c r="D42" s="20">
         <v>125</v>
@@ -13302,15 +13511,16 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>20042</v>
       </c>
       <c r="B43" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C43" s="4">
-        <v>0</v>
+        <f>A43</f>
+        <v>20042</v>
       </c>
       <c r="D43" s="20">
         <v>135</v>
@@ -13325,13 +13535,13 @@
         <v>100</v>
       </c>
       <c r="H43" s="20">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="I43" s="20">
         <v>245</v>
       </c>
       <c r="J43" s="20">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="K43" s="20">
         <v>245</v>
@@ -13349,15 +13559,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>20043</v>
       </c>
       <c r="B44" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C44" s="4">
-        <v>0</v>
+        <v>20030</v>
       </c>
       <c r="D44" s="20">
         <v>145</v>
@@ -13396,15 +13606,16 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>20044</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C45" s="4">
-        <v>0</v>
+        <f>A45</f>
+        <v>20044</v>
       </c>
       <c r="D45" s="20">
         <v>147</v>
@@ -13443,31 +13654,132 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A46" s="4">
+        <v>20045</v>
+      </c>
+      <c r="B46" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" s="7">
+        <v>10137</v>
+      </c>
+      <c r="D46" s="16">
+        <v>60</v>
+      </c>
+      <c r="E46" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="16">
+        <v>1800</v>
+      </c>
+      <c r="G46" s="20">
+        <v>100</v>
+      </c>
+      <c r="H46" s="16">
+        <v>30</v>
+      </c>
+      <c r="I46" s="16">
+        <v>50</v>
+      </c>
+      <c r="J46" s="16">
+        <v>30</v>
+      </c>
+      <c r="K46" s="16">
+        <v>50</v>
+      </c>
+      <c r="L46" s="16">
+        <v>888</v>
+      </c>
+      <c r="M46" s="16">
+        <v>188</v>
+      </c>
+      <c r="N46" s="16">
+        <v>15</v>
+      </c>
+      <c r="O46" s="16">
+        <v>2000</v>
+      </c>
+      <c r="Q46" s="15"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A47" s="4">
+        <v>20046</v>
+      </c>
+      <c r="B47" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" s="7">
+        <v>10138</v>
+      </c>
+      <c r="D47" s="16">
+        <v>60</v>
+      </c>
+      <c r="E47" s="16">
+        <v>1200</v>
+      </c>
+      <c r="F47" s="16">
+        <v>1800</v>
+      </c>
+      <c r="G47" s="20">
+        <v>100</v>
+      </c>
+      <c r="H47" s="16">
+        <v>40</v>
+      </c>
+      <c r="I47" s="16">
+        <v>65</v>
+      </c>
+      <c r="J47" s="16">
+        <v>40</v>
+      </c>
+      <c r="K47" s="16">
+        <v>65</v>
+      </c>
+      <c r="L47" s="16">
+        <v>188</v>
+      </c>
+      <c r="M47" s="16">
+        <v>888</v>
+      </c>
+      <c r="N47" s="16">
+        <v>15</v>
+      </c>
+      <c r="O47" s="16">
+        <v>2000</v>
+      </c>
+      <c r="Q47" s="15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I40:I41 H46:M1048576 H41 O41 H33:I39 L33:M39 H42:I45 L42:O45 L40:N41 H1:M32">
-    <cfRule type="expression" dxfId="4" priority="5">
+  <conditionalFormatting sqref="I40:I41 H48:M1048576 H41 O41 H33:I39 L33:M39 H42:I45 L42:O45 L40:N41 H1:M32">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>H1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:K45 J33:K39">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>J33=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>K40=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:K41">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>J41=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42:K43">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>J42=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46:M47">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>J42=0</formula>
+      <formula>H46=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>

--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="-105" windowWidth="13185" windowHeight="9420" activeTab="1"/>
+    <workbookView xWindow="5610" yWindow="-105" windowWidth="13185" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="1" r:id="rId1"/>
@@ -1036,7 +1036,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -1533,9 +1543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R128" sqref="R128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7164,7 +7174,7 @@
         <v>121</v>
       </c>
       <c r="K114">
-        <f t="shared" ref="K114:K137" si="10">INT($D114*2.2)</f>
+        <f t="shared" ref="I114:K137" si="10">INT($D114*2.2)</f>
         <v>167</v>
       </c>
       <c r="L114">
@@ -7209,7 +7219,7 @@
         <v>10</v>
       </c>
       <c r="H115">
-        <f t="shared" ref="H115:H137" si="11">INT($D115*1.6)</f>
+        <f t="shared" ref="H115:J137" si="11">INT($D115*1.6)</f>
         <v>142</v>
       </c>
       <c r="I115">
@@ -7722,14 +7732,14 @@
         <v>10</v>
       </c>
       <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
         <f t="shared" si="11"/>
         <v>129</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
       </c>
       <c r="K124">
         <f t="shared" si="10"/>
@@ -7777,14 +7787,14 @@
         <v>10</v>
       </c>
       <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
         <f t="shared" si="11"/>
         <v>139</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
       </c>
       <c r="K125">
         <f t="shared" si="10"/>
@@ -7832,14 +7842,14 @@
         <v>10</v>
       </c>
       <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
         <f t="shared" si="11"/>
         <v>134</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
       </c>
       <c r="K126">
         <f t="shared" si="10"/>
@@ -7891,14 +7901,14 @@
         <v>142</v>
       </c>
       <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-      <c r="K127">
         <f t="shared" si="10"/>
         <v>195</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
       </c>
       <c r="L127">
         <f t="shared" si="6"/>
@@ -11343,129 +11353,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H143:M1048576 H1:M92 J140:O142 L93:N137">
-    <cfRule type="expression" dxfId="30" priority="73">
-      <formula>H1=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H93:I93">
-    <cfRule type="expression" dxfId="29" priority="25">
-      <formula>H93=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H95:I96">
-    <cfRule type="expression" dxfId="28" priority="24">
-      <formula>H95=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H97:I97">
-    <cfRule type="expression" dxfId="27" priority="23">
-      <formula>H97=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H98:I98">
-    <cfRule type="expression" dxfId="26" priority="22">
-      <formula>H98=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H102:I102">
-    <cfRule type="expression" dxfId="25" priority="21">
-      <formula>H102=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J99:K99">
-    <cfRule type="expression" dxfId="24" priority="20">
-      <formula>J99=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J100:K100">
-    <cfRule type="expression" dxfId="23" priority="19">
-      <formula>J100=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J101:K101">
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>J101=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J103:K103">
-    <cfRule type="expression" dxfId="21" priority="17">
-      <formula>J103=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J104:K104">
-    <cfRule type="expression" dxfId="20" priority="16">
-      <formula>J104=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H105:I105">
-    <cfRule type="expression" dxfId="19" priority="15">
-      <formula>H105=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H106:I106">
-    <cfRule type="expression" dxfId="18" priority="14">
-      <formula>H106=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J107:K107">
-    <cfRule type="expression" dxfId="17" priority="13">
-      <formula>J107=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H108:I108">
-    <cfRule type="expression" dxfId="16" priority="12">
-      <formula>H108=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H109:I109">
-    <cfRule type="expression" dxfId="15" priority="11">
-      <formula>H109=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J110:K110">
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>J110=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H111:I111">
-    <cfRule type="expression" dxfId="13" priority="9">
-      <formula>H111=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H112:I112">
-    <cfRule type="expression" dxfId="12" priority="8">
-      <formula>H112=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J113:K113">
-    <cfRule type="expression" dxfId="11" priority="7">
-      <formula>J113=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H114:I114">
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>H114=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I124:J124">
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>I124=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I125:J125">
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>I125=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I126:J126">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>I126=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I127:J127">
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>I127=0</formula>
+  <conditionalFormatting sqref="A1:O137">
+    <cfRule type="expression" dxfId="1" priority="73">
+      <formula>A1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
@@ -11478,7 +11368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
@@ -13753,32 +13643,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I40:I41 H48:M1048576 H41 O41 H33:I39 L33:M39 H42:I45 L42:O45 L40:N41 H1:M32">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>H1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:K45 J33:K39">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>J33=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>K40=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:K41">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>J41=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42:K43">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>J42=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:M47">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>H46=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="-105" windowWidth="13185" windowHeight="9420"/>
+    <workbookView xWindow="-150" yWindow="-60" windowWidth="13185" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="294">
   <si>
     <t>ID</t>
   </si>
@@ -885,6 +885,99 @@
   <si>
     <t>魔龙刺蛙9</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练功师-物攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练功师-物攻2</t>
+  </si>
+  <si>
+    <t>练功师-物攻3</t>
+  </si>
+  <si>
+    <t>练功师-物攻4</t>
+  </si>
+  <si>
+    <t>练功师-物攻5</t>
+  </si>
+  <si>
+    <t>练功师-物攻6</t>
+  </si>
+  <si>
+    <t>练功师-物攻7</t>
+  </si>
+  <si>
+    <t>练功师-物攻8</t>
+  </si>
+  <si>
+    <t>练功师-物攻9</t>
+  </si>
+  <si>
+    <t>练功师-魔攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练功师-魔攻2</t>
+  </si>
+  <si>
+    <t>练功师-魔攻3</t>
+  </si>
+  <si>
+    <t>练功师-魔攻4</t>
+  </si>
+  <si>
+    <t>练功师-魔攻5</t>
+  </si>
+  <si>
+    <t>练功师-魔攻6</t>
+  </si>
+  <si>
+    <t>练功师-魔攻7</t>
+  </si>
+  <si>
+    <t>练功师-魔攻8</t>
+  </si>
+  <si>
+    <t>练功师-魔攻9</t>
+  </si>
+  <si>
+    <t>练功师-双防1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练功师-双防2</t>
+  </si>
+  <si>
+    <t>练功师-双防3</t>
+  </si>
+  <si>
+    <t>练功师-双防4</t>
+  </si>
+  <si>
+    <t>练功师-双防5</t>
+  </si>
+  <si>
+    <t>练功师-双防6</t>
+  </si>
+  <si>
+    <t>练功师-双防7</t>
+  </si>
+  <si>
+    <t>练功师-双防8</t>
+  </si>
+  <si>
+    <t>练功师-双防9</t>
+  </si>
+  <si>
+    <t>练功师-双防0</t>
+  </si>
+  <si>
+    <t>练功师-物攻0</t>
+  </si>
+  <si>
+    <t>练功师-魔攻0</t>
   </si>
 </sst>
 </file>
@@ -1036,117 +1129,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -1541,11 +1524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q202"/>
+  <dimension ref="A1:Q232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R128" sqref="R128"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O142" sqref="O142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1557,11 +1540,9 @@
     <col min="5" max="5" width="8.5" style="16" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="16" customWidth="1"/>
     <col min="7" max="7" width="3.5" style="16" customWidth="1"/>
-    <col min="8" max="9" width="6.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="17" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5" style="18" customWidth="1"/>
-    <col min="13" max="13" width="5.5" style="18" customWidth="1"/>
+    <col min="8" max="11" width="7.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="18" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="18" customWidth="1"/>
     <col min="14" max="14" width="4.5" style="18" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="16" customWidth="1"/>
     <col min="17" max="17" width="5.5" style="15" bestFit="1" customWidth="1"/>
@@ -1638,10 +1619,10 @@
       <c r="G2" s="16">
         <v>10</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <v>1</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>1</v>
       </c>
       <c r="J2" s="17">
@@ -1656,7 +1637,7 @@
       <c r="M2" s="18">
         <v>0</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="19">
         <v>3</v>
       </c>
       <c r="O2" s="16">
@@ -1686,10 +1667,10 @@
       <c r="G3" s="16">
         <v>10</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>2</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>4</v>
       </c>
       <c r="J3" s="17">
@@ -1704,7 +1685,7 @@
       <c r="M3" s="18">
         <v>0</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="19">
         <v>4</v>
       </c>
       <c r="O3" s="16">
@@ -5152,7 +5133,7 @@
         <v>30</v>
       </c>
       <c r="K75" s="16">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="L75" s="16">
         <v>0</v>
@@ -5467,7 +5448,7 @@
         <v>10081</v>
       </c>
       <c r="D82" s="16">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="E82" s="16">
         <v>250</v>
@@ -5478,25 +5459,25 @@
       <c r="G82" s="16">
         <v>10</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H82" s="16">
         <v>50</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I82" s="16">
         <v>72</v>
       </c>
-      <c r="J82" s="17">
-        <v>0</v>
-      </c>
-      <c r="K82" s="17">
-        <v>0</v>
-      </c>
-      <c r="L82" s="18">
+      <c r="J82" s="16">
+        <v>0</v>
+      </c>
+      <c r="K82" s="16">
+        <v>0</v>
+      </c>
+      <c r="L82" s="16">
         <v>15</v>
       </c>
-      <c r="M82" s="18">
+      <c r="M82" s="16">
         <v>15</v>
       </c>
-      <c r="N82" s="18">
+      <c r="N82" s="16">
         <v>16</v>
       </c>
       <c r="O82" s="16">
@@ -5521,7 +5502,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="16">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="G83" s="16">
         <v>10</v>
@@ -5563,36 +5544,36 @@
         <v>10083</v>
       </c>
       <c r="D84" s="16">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E84" s="16">
         <v>100</v>
       </c>
       <c r="F84" s="16">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="G84" s="16">
         <v>10</v>
       </c>
-      <c r="H84" s="17">
-        <v>0</v>
-      </c>
-      <c r="I84" s="17">
-        <v>0</v>
-      </c>
-      <c r="J84" s="17">
+      <c r="H84" s="16">
+        <v>0</v>
+      </c>
+      <c r="I84" s="16">
+        <v>0</v>
+      </c>
+      <c r="J84" s="16">
         <v>57</v>
       </c>
-      <c r="K84" s="17">
+      <c r="K84" s="16">
         <v>90</v>
       </c>
-      <c r="L84" s="18">
+      <c r="L84" s="16">
         <v>15</v>
       </c>
-      <c r="M84" s="18">
+      <c r="M84" s="16">
         <v>15</v>
       </c>
-      <c r="N84" s="18">
+      <c r="N84" s="16">
         <v>20</v>
       </c>
       <c r="O84" s="16">
@@ -5611,7 +5592,7 @@
         <v>10031</v>
       </c>
       <c r="D85" s="16">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E85" s="16">
         <v>2500</v>
@@ -5622,10 +5603,10 @@
       <c r="G85" s="16">
         <v>10</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="16">
         <v>60</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="16">
         <v>60</v>
       </c>
       <c r="J85" s="16">
@@ -5659,7 +5640,7 @@
         <v>10032</v>
       </c>
       <c r="D86" s="16">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E86" s="16">
         <v>2500</v>
@@ -5670,10 +5651,10 @@
       <c r="G86" s="16">
         <v>10</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="16">
         <v>60</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="16">
         <v>60</v>
       </c>
       <c r="J86" s="16">
@@ -5707,7 +5688,7 @@
         <v>10035</v>
       </c>
       <c r="D87" s="16">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E87" s="16">
         <v>3000</v>
@@ -5755,7 +5736,7 @@
         <v>10013</v>
       </c>
       <c r="D88" s="16">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E88" s="16">
         <v>1500</v>
@@ -5803,7 +5784,7 @@
         <v>10014</v>
       </c>
       <c r="D89" s="16">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E89" s="16">
         <v>3200</v>
@@ -5851,7 +5832,7 @@
         <v>10007</v>
       </c>
       <c r="D90" s="16">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E90" s="16">
         <v>4000</v>
@@ -5899,7 +5880,7 @@
         <v>10023</v>
       </c>
       <c r="D91" s="16">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E91" s="16">
         <v>4500</v>
@@ -5947,7 +5928,7 @@
         <v>10044</v>
       </c>
       <c r="D92" s="16">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E92" s="16">
         <v>5000</v>
@@ -5995,15 +5976,15 @@
         <v>10092</v>
       </c>
       <c r="D93">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E93">
-        <f t="shared" ref="E93:E137" si="4">D93*40</f>
-        <v>2560</v>
+        <f>D93*30</f>
+        <v>2070</v>
       </c>
       <c r="F93">
-        <f t="shared" ref="F93:F137" si="5">D93*32</f>
-        <v>2048</v>
+        <f t="shared" ref="F93:F137" si="4">D93*32</f>
+        <v>2208</v>
       </c>
       <c r="G93" s="16">
         <v>10</v>
@@ -6015,18 +5996,20 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>70</v>
+        <f>INT($D93*1.7)</f>
+        <v>117</v>
       </c>
       <c r="K93">
-        <v>110</v>
+        <f>INT($D93*2.4)</f>
+        <v>165</v>
       </c>
       <c r="L93">
-        <f t="shared" ref="L93:L137" si="6">INT(D93/2)</f>
-        <v>32</v>
+        <f t="shared" ref="L93:L114" si="5">INT(D93/2)</f>
+        <v>34</v>
       </c>
       <c r="M93">
-        <f t="shared" ref="M93:M137" si="7">INT(D93/2)</f>
-        <v>32</v>
+        <f t="shared" ref="M93:M114" si="6">INT(D93/2)</f>
+        <v>34</v>
       </c>
       <c r="N93">
         <v>22</v>
@@ -6048,42 +6031,40 @@
         <v>10093</v>
       </c>
       <c r="D94">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E94">
+        <f t="shared" ref="E94:E137" si="7">D94*30</f>
+        <v>1950</v>
+      </c>
+      <c r="F94">
         <f t="shared" si="4"/>
-        <v>2400</v>
-      </c>
-      <c r="F94">
+        <v>2080</v>
+      </c>
+      <c r="G94" s="16">
+        <v>10</v>
+      </c>
+      <c r="H94">
+        <f>INT($D94*1.7)</f>
+        <v>110</v>
+      </c>
+      <c r="I94">
+        <f>INT($D94*2.4)</f>
+        <v>156</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
         <f t="shared" si="5"/>
-        <v>1920</v>
-      </c>
-      <c r="G94" s="16">
-        <v>10</v>
-      </c>
-      <c r="H94">
-        <f>INT($D94*1.6)</f>
-        <v>96</v>
-      </c>
-      <c r="I94">
-        <f>INT($D94*2.2)</f>
-        <v>132</v>
-      </c>
-      <c r="J94">
-        <f>INT($D94*1.6)</f>
-        <v>96</v>
-      </c>
-      <c r="K94">
-        <f>INT($D94*2.2)</f>
-        <v>132</v>
-      </c>
-      <c r="L94">
+        <v>32</v>
+      </c>
+      <c r="M94">
         <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="M94">
-        <f t="shared" si="7"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N94">
         <v>24</v>
@@ -6105,40 +6086,40 @@
         <v>10094</v>
       </c>
       <c r="D95">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E95">
+        <f t="shared" si="7"/>
+        <v>2220</v>
+      </c>
+      <c r="F95">
         <f t="shared" si="4"/>
-        <v>2760</v>
-      </c>
-      <c r="F95">
+        <v>2368</v>
+      </c>
+      <c r="G95" s="16">
+        <v>10</v>
+      </c>
+      <c r="H95" s="16">
+        <v>0</v>
+      </c>
+      <c r="I95" s="16">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <f t="shared" ref="J95:J98" si="8">INT($D95*1.7)</f>
+        <v>125</v>
+      </c>
+      <c r="K95">
+        <f t="shared" ref="K95:K98" si="9">INT($D95*2.4)</f>
+        <v>177</v>
+      </c>
+      <c r="L95">
         <f t="shared" si="5"/>
-        <v>2208</v>
-      </c>
-      <c r="G95" s="16">
-        <v>10</v>
-      </c>
-      <c r="H95" s="16">
-        <v>0</v>
-      </c>
-      <c r="I95" s="16">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <f>INT($D95*1.6)</f>
-        <v>110</v>
-      </c>
-      <c r="K95">
-        <f>INT($D95*2.2)</f>
-        <v>151</v>
-      </c>
-      <c r="L95">
+        <v>37</v>
+      </c>
+      <c r="M95">
         <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="M95">
-        <f t="shared" si="7"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N95">
         <v>24</v>
@@ -6160,40 +6141,40 @@
         <v>10095</v>
       </c>
       <c r="D96">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E96">
+        <f t="shared" si="7"/>
+        <v>2190</v>
+      </c>
+      <c r="F96">
         <f t="shared" si="4"/>
-        <v>2720</v>
-      </c>
-      <c r="F96">
+        <v>2336</v>
+      </c>
+      <c r="G96" s="16">
+        <v>10</v>
+      </c>
+      <c r="H96" s="16">
+        <v>0</v>
+      </c>
+      <c r="I96" s="16">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="8"/>
+        <v>124</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="9"/>
+        <v>175</v>
+      </c>
+      <c r="L96">
         <f t="shared" si="5"/>
-        <v>2176</v>
-      </c>
-      <c r="G96" s="16">
-        <v>10</v>
-      </c>
-      <c r="H96" s="16">
-        <v>0</v>
-      </c>
-      <c r="I96" s="16">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <f>INT($D96*1.6)</f>
-        <v>108</v>
-      </c>
-      <c r="K96">
-        <f>INT($D96*2.2)</f>
-        <v>149</v>
-      </c>
-      <c r="L96">
+        <v>36</v>
+      </c>
+      <c r="M96">
         <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="M96">
-        <f t="shared" si="7"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N96">
         <v>20</v>
@@ -6215,40 +6196,40 @@
         <v>10096</v>
       </c>
       <c r="D97">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E97">
+        <f t="shared" si="7"/>
+        <v>2160</v>
+      </c>
+      <c r="F97">
         <f t="shared" si="4"/>
-        <v>2680</v>
-      </c>
-      <c r="F97">
+        <v>2304</v>
+      </c>
+      <c r="G97" s="16">
+        <v>10</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="8"/>
+        <v>122</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="9"/>
+        <v>172</v>
+      </c>
+      <c r="L97">
         <f t="shared" si="5"/>
-        <v>2144</v>
-      </c>
-      <c r="G97" s="16">
-        <v>10</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <f>INT($D97*1.6)</f>
-        <v>107</v>
-      </c>
-      <c r="K97">
-        <f>INT($D97*2.2)</f>
-        <v>147</v>
-      </c>
-      <c r="L97">
+        <v>36</v>
+      </c>
+      <c r="M97">
         <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="M97">
-        <f t="shared" si="7"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N97">
         <v>20</v>
@@ -6270,40 +6251,40 @@
         <v>10097</v>
       </c>
       <c r="D98">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E98">
+        <f t="shared" si="7"/>
+        <v>1950</v>
+      </c>
+      <c r="F98">
         <f t="shared" si="4"/>
-        <v>2400</v>
-      </c>
-      <c r="F98">
+        <v>2080</v>
+      </c>
+      <c r="G98" s="16">
+        <v>10</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="8"/>
+        <v>110</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="9"/>
+        <v>156</v>
+      </c>
+      <c r="L98">
         <f t="shared" si="5"/>
-        <v>1920</v>
-      </c>
-      <c r="G98" s="16">
-        <v>10</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <f>INT($D98*1.6)</f>
-        <v>96</v>
-      </c>
-      <c r="K98">
-        <f>INT($D98*2.2)</f>
-        <v>132</v>
-      </c>
-      <c r="L98">
+        <v>32</v>
+      </c>
+      <c r="M98">
         <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="M98">
-        <f t="shared" si="7"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N98">
         <v>20</v>
@@ -6325,40 +6306,40 @@
         <v>10098</v>
       </c>
       <c r="D99">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E99">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+      <c r="F99">
         <f t="shared" si="4"/>
-        <v>2600</v>
-      </c>
-      <c r="F99">
+        <v>2240</v>
+      </c>
+      <c r="G99" s="16">
+        <v>10</v>
+      </c>
+      <c r="H99">
+        <f>INT($D99*1.7)</f>
+        <v>119</v>
+      </c>
+      <c r="I99">
+        <f>INT($D99*2.4)</f>
+        <v>168</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
         <f t="shared" si="5"/>
-        <v>2080</v>
-      </c>
-      <c r="G99" s="16">
-        <v>10</v>
-      </c>
-      <c r="H99">
-        <f>INT($D99*1.6)</f>
-        <v>104</v>
-      </c>
-      <c r="I99">
-        <f>INT($D99*2.2)</f>
-        <v>143</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99">
+        <v>35</v>
+      </c>
+      <c r="M99">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="M99">
-        <f t="shared" si="7"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N99">
         <v>20</v>
@@ -6380,40 +6361,40 @@
         <v>10099</v>
       </c>
       <c r="D100">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E100">
+        <f t="shared" si="7"/>
+        <v>2070</v>
+      </c>
+      <c r="F100">
         <f t="shared" si="4"/>
-        <v>2560</v>
-      </c>
-      <c r="F100">
+        <v>2208</v>
+      </c>
+      <c r="G100" s="16">
+        <v>10</v>
+      </c>
+      <c r="H100">
+        <f t="shared" ref="H100:J104" si="10">INT($D100*1.7)</f>
+        <v>117</v>
+      </c>
+      <c r="I100">
+        <f t="shared" ref="I100:K104" si="11">INT($D100*2.4)</f>
+        <v>165</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
         <f t="shared" si="5"/>
-        <v>2048</v>
-      </c>
-      <c r="G100" s="16">
-        <v>10</v>
-      </c>
-      <c r="H100">
-        <f>INT($D100*1.6)</f>
-        <v>102</v>
-      </c>
-      <c r="I100">
-        <f>INT($D100*2.2)</f>
-        <v>140</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
+        <v>34</v>
+      </c>
+      <c r="M100">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="M100">
-        <f t="shared" si="7"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N100">
         <v>20</v>
@@ -6435,40 +6416,40 @@
         <v>10100</v>
       </c>
       <c r="D101">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E101">
+        <f t="shared" si="7"/>
+        <v>2070</v>
+      </c>
+      <c r="F101">
         <f t="shared" si="4"/>
-        <v>2560</v>
-      </c>
-      <c r="F101">
+        <v>2208</v>
+      </c>
+      <c r="G101" s="16">
+        <v>10</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="10"/>
+        <v>117</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="11"/>
+        <v>165</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
         <f t="shared" si="5"/>
-        <v>2048</v>
-      </c>
-      <c r="G101" s="16">
-        <v>10</v>
-      </c>
-      <c r="H101">
-        <f>INT($D101*1.6)</f>
-        <v>102</v>
-      </c>
-      <c r="I101">
-        <f>INT($D101*2.2)</f>
-        <v>140</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101">
+        <v>34</v>
+      </c>
+      <c r="M101">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="M101">
-        <f t="shared" si="7"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N101">
         <v>20</v>
@@ -6490,40 +6471,40 @@
         <v>10101</v>
       </c>
       <c r="D102">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E102">
+        <f t="shared" si="7"/>
+        <v>2220</v>
+      </c>
+      <c r="F102">
         <f t="shared" si="4"/>
-        <v>2760</v>
-      </c>
-      <c r="F102">
+        <v>2368</v>
+      </c>
+      <c r="G102" s="16">
+        <v>10</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="10"/>
+        <v>125</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="11"/>
+        <v>177</v>
+      </c>
+      <c r="L102">
         <f t="shared" si="5"/>
-        <v>2208</v>
-      </c>
-      <c r="G102" s="16">
-        <v>10</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <f>INT($D102*1.6)</f>
-        <v>110</v>
-      </c>
-      <c r="K102">
-        <f>INT($D102*2.2)</f>
-        <v>151</v>
-      </c>
-      <c r="L102">
+        <v>37</v>
+      </c>
+      <c r="M102">
         <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="M102">
-        <f t="shared" si="7"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N102">
         <v>20</v>
@@ -6545,40 +6526,40 @@
         <v>10102</v>
       </c>
       <c r="D103">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E103">
+        <f t="shared" si="7"/>
+        <v>2280</v>
+      </c>
+      <c r="F103">
         <f t="shared" si="4"/>
-        <v>2840</v>
-      </c>
-      <c r="F103">
+        <v>2432</v>
+      </c>
+      <c r="G103" s="16">
+        <v>10</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="10"/>
+        <v>129</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="11"/>
+        <v>182</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
         <f t="shared" si="5"/>
-        <v>2272</v>
-      </c>
-      <c r="G103" s="16">
-        <v>10</v>
-      </c>
-      <c r="H103">
-        <f>INT($D103*1.6)</f>
-        <v>113</v>
-      </c>
-      <c r="I103">
-        <f>INT($D103*2.2)</f>
-        <v>156</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103">
+        <v>38</v>
+      </c>
+      <c r="M103">
         <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="M103">
-        <f t="shared" si="7"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N103">
         <v>20</v>
@@ -6600,40 +6581,40 @@
         <v>10098</v>
       </c>
       <c r="D104">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E104">
+        <f t="shared" si="7"/>
+        <v>2280</v>
+      </c>
+      <c r="F104">
         <f t="shared" si="4"/>
-        <v>2840</v>
-      </c>
-      <c r="F104">
+        <v>2432</v>
+      </c>
+      <c r="G104" s="16">
+        <v>10</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="10"/>
+        <v>129</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="11"/>
+        <v>182</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <f t="shared" si="5"/>
-        <v>2272</v>
-      </c>
-      <c r="G104" s="16">
-        <v>10</v>
-      </c>
-      <c r="H104">
-        <f>INT($D104*1.6)</f>
-        <v>113</v>
-      </c>
-      <c r="I104">
-        <f>INT($D104*2.2)</f>
-        <v>156</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-      <c r="L104">
+        <v>38</v>
+      </c>
+      <c r="M104">
         <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="M104">
-        <f t="shared" si="7"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N104">
         <v>20</v>
@@ -6655,40 +6636,40 @@
         <v>10104</v>
       </c>
       <c r="D105">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E105">
+        <f t="shared" si="7"/>
+        <v>2340</v>
+      </c>
+      <c r="F105">
         <f t="shared" si="4"/>
-        <v>2920</v>
-      </c>
-      <c r="F105">
+        <v>2496</v>
+      </c>
+      <c r="G105" s="16">
+        <v>10</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <f>INT($D105*1.8)</f>
+        <v>140</v>
+      </c>
+      <c r="K105">
+        <f>INT($D105*2.6)</f>
+        <v>202</v>
+      </c>
+      <c r="L105">
         <f t="shared" si="5"/>
-        <v>2336</v>
-      </c>
-      <c r="G105" s="16">
-        <v>10</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <f>INT($D105*1.6)</f>
-        <v>116</v>
-      </c>
-      <c r="K105">
-        <f>INT($D105*2.2)</f>
-        <v>160</v>
-      </c>
-      <c r="L105">
+        <v>39</v>
+      </c>
+      <c r="M105">
         <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="M105">
-        <f t="shared" si="7"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N105">
         <v>20</v>
@@ -6710,40 +6691,40 @@
         <v>10105</v>
       </c>
       <c r="D106">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E106">
+        <f t="shared" si="7"/>
+        <v>2280</v>
+      </c>
+      <c r="F106">
         <f t="shared" si="4"/>
-        <v>2840</v>
-      </c>
-      <c r="F106">
+        <v>2432</v>
+      </c>
+      <c r="G106" s="16">
+        <v>10</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <f>INT($D106*1.8)</f>
+        <v>136</v>
+      </c>
+      <c r="K106">
+        <f>INT($D106*2.6)</f>
+        <v>197</v>
+      </c>
+      <c r="L106">
         <f t="shared" si="5"/>
-        <v>2272</v>
-      </c>
-      <c r="G106" s="16">
-        <v>10</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <f>INT($D106*1.6)</f>
-        <v>113</v>
-      </c>
-      <c r="K106">
-        <f>INT($D106*2.2)</f>
-        <v>156</v>
-      </c>
-      <c r="L106">
+        <v>38</v>
+      </c>
+      <c r="M106">
         <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="M106">
-        <f t="shared" si="7"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N106">
         <v>20</v>
@@ -6765,40 +6746,40 @@
         <v>10106</v>
       </c>
       <c r="D107">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E107">
+        <f t="shared" si="7"/>
+        <v>2370</v>
+      </c>
+      <c r="F107">
         <f t="shared" si="4"/>
-        <v>2960</v>
-      </c>
-      <c r="F107">
+        <v>2528</v>
+      </c>
+      <c r="G107" s="16">
+        <v>10</v>
+      </c>
+      <c r="H107">
+        <f>INT($D107*1.8)</f>
+        <v>142</v>
+      </c>
+      <c r="I107">
+        <f>INT($D107*2.6)</f>
+        <v>205</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
         <f t="shared" si="5"/>
-        <v>2368</v>
-      </c>
-      <c r="G107" s="16">
-        <v>10</v>
-      </c>
-      <c r="H107">
-        <f>INT($D107*1.6)</f>
-        <v>118</v>
-      </c>
-      <c r="I107">
-        <f>INT($D107*2.2)</f>
-        <v>162</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="L107">
+        <v>39</v>
+      </c>
+      <c r="M107">
         <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="M107">
-        <f t="shared" si="7"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N107">
         <v>20</v>
@@ -6820,40 +6801,40 @@
         <v>10104</v>
       </c>
       <c r="D108">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E108">
+        <f t="shared" si="7"/>
+        <v>2520</v>
+      </c>
+      <c r="F108">
         <f t="shared" si="4"/>
-        <v>3160</v>
-      </c>
-      <c r="F108">
+        <v>2688</v>
+      </c>
+      <c r="G108" s="16">
+        <v>10</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <f>INT($D108*1.8)</f>
+        <v>151</v>
+      </c>
+      <c r="K108">
+        <f>INT($D108*2.6)</f>
+        <v>218</v>
+      </c>
+      <c r="L108">
         <f t="shared" si="5"/>
-        <v>2528</v>
-      </c>
-      <c r="G108" s="16">
-        <v>10</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <f>INT($D108*1.6)</f>
-        <v>126</v>
-      </c>
-      <c r="K108">
-        <f>INT($D108*2.2)</f>
-        <v>173</v>
-      </c>
-      <c r="L108">
+        <v>42</v>
+      </c>
+      <c r="M108">
         <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="M108">
-        <f t="shared" si="7"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N108">
         <v>20</v>
@@ -6875,40 +6856,40 @@
         <v>10105</v>
       </c>
       <c r="D109">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E109">
+        <f t="shared" si="7"/>
+        <v>2490</v>
+      </c>
+      <c r="F109">
         <f t="shared" si="4"/>
-        <v>3120</v>
-      </c>
-      <c r="F109">
+        <v>2656</v>
+      </c>
+      <c r="G109" s="16">
+        <v>10</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <f>INT($D109*1.8)</f>
+        <v>149</v>
+      </c>
+      <c r="K109">
+        <f>INT($D109*2.6)</f>
+        <v>215</v>
+      </c>
+      <c r="L109">
         <f t="shared" si="5"/>
-        <v>2496</v>
-      </c>
-      <c r="G109" s="16">
-        <v>10</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <f>INT($D109*1.6)</f>
-        <v>124</v>
-      </c>
-      <c r="K109">
-        <f>INT($D109*2.2)</f>
-        <v>171</v>
-      </c>
-      <c r="L109">
+        <v>41</v>
+      </c>
+      <c r="M109">
         <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="M109">
-        <f t="shared" si="7"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N109">
         <v>20</v>
@@ -6930,40 +6911,40 @@
         <v>10106</v>
       </c>
       <c r="D110">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E110">
+        <f t="shared" si="7"/>
+        <v>2490</v>
+      </c>
+      <c r="F110">
         <f t="shared" si="4"/>
-        <v>3120</v>
-      </c>
-      <c r="F110">
+        <v>2656</v>
+      </c>
+      <c r="G110" s="16">
+        <v>10</v>
+      </c>
+      <c r="H110">
+        <f>INT($D110*1.8)</f>
+        <v>149</v>
+      </c>
+      <c r="I110">
+        <f>INT($D110*2.6)</f>
+        <v>215</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
         <f t="shared" si="5"/>
-        <v>2496</v>
-      </c>
-      <c r="G110" s="16">
-        <v>10</v>
-      </c>
-      <c r="H110">
-        <f>INT($D110*1.6)</f>
-        <v>124</v>
-      </c>
-      <c r="I110">
-        <f>INT($D110*2.2)</f>
-        <v>171</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="L110">
+        <v>41</v>
+      </c>
+      <c r="M110">
         <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="M110">
-        <f t="shared" si="7"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N110">
         <v>20</v>
@@ -6981,44 +6962,44 @@
         <v>192</v>
       </c>
       <c r="C111" s="7">
-        <f t="shared" ref="C111:C130" si="8">A111</f>
+        <f t="shared" ref="C111:C130" si="12">A111</f>
         <v>10110</v>
       </c>
       <c r="D111">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E111">
+        <f t="shared" si="7"/>
+        <v>2400</v>
+      </c>
+      <c r="F111">
         <f t="shared" si="4"/>
-        <v>3000</v>
-      </c>
-      <c r="F111">
+        <v>2560</v>
+      </c>
+      <c r="G111" s="16">
+        <v>10</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <f>INT($D111*1.8)</f>
+        <v>144</v>
+      </c>
+      <c r="K111">
+        <f>INT($D111*2.6)</f>
+        <v>208</v>
+      </c>
+      <c r="L111">
         <f t="shared" si="5"/>
-        <v>2400</v>
-      </c>
-      <c r="G111" s="16">
-        <v>10</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <f>INT($D111*1.6)</f>
-        <v>120</v>
-      </c>
-      <c r="K111">
-        <f>INT($D111*2.2)</f>
-        <v>165</v>
-      </c>
-      <c r="L111">
+        <v>40</v>
+      </c>
+      <c r="M111">
         <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="M111">
-        <f t="shared" si="7"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N111">
         <v>20</v>
@@ -7036,44 +7017,44 @@
         <v>193</v>
       </c>
       <c r="C112" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10111</v>
       </c>
       <c r="D112">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E112">
+        <f t="shared" si="7"/>
+        <v>2280</v>
+      </c>
+      <c r="F112">
         <f t="shared" si="4"/>
-        <v>2840</v>
-      </c>
-      <c r="F112">
+        <v>2432</v>
+      </c>
+      <c r="G112" s="16">
+        <v>10</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <f>INT($D112*1.8)</f>
+        <v>136</v>
+      </c>
+      <c r="K112">
+        <f>INT($D112*2.6)</f>
+        <v>197</v>
+      </c>
+      <c r="L112">
         <f t="shared" si="5"/>
-        <v>2272</v>
-      </c>
-      <c r="G112" s="16">
-        <v>10</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <f>INT($D112*1.6)</f>
-        <v>113</v>
-      </c>
-      <c r="K112">
-        <f>INT($D112*2.2)</f>
-        <v>156</v>
-      </c>
-      <c r="L112">
+        <v>38</v>
+      </c>
+      <c r="M112">
         <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="M112">
-        <f t="shared" si="7"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N112">
         <v>20</v>
@@ -7091,44 +7072,44 @@
         <v>194</v>
       </c>
       <c r="C113" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10112</v>
       </c>
       <c r="D113">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E113">
+        <f t="shared" si="7"/>
+        <v>2340</v>
+      </c>
+      <c r="F113">
         <f t="shared" si="4"/>
-        <v>2920</v>
-      </c>
-      <c r="F113">
+        <v>2496</v>
+      </c>
+      <c r="G113" s="16">
+        <v>10</v>
+      </c>
+      <c r="H113">
+        <f>INT($D113*1.8)</f>
+        <v>140</v>
+      </c>
+      <c r="I113">
+        <f>INT($D113*2.6)</f>
+        <v>202</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
         <f t="shared" si="5"/>
-        <v>2336</v>
-      </c>
-      <c r="G113" s="16">
-        <v>10</v>
-      </c>
-      <c r="H113">
-        <f>INT($D113*1.6)</f>
-        <v>116</v>
-      </c>
-      <c r="I113">
-        <f>INT($D113*2.2)</f>
-        <v>160</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="L113">
+        <v>39</v>
+      </c>
+      <c r="M113">
         <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="M113">
-        <f t="shared" si="7"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N113">
         <v>20</v>
@@ -7146,44 +7127,44 @@
         <v>195</v>
       </c>
       <c r="C114" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10113</v>
       </c>
       <c r="D114">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E114">
+        <f t="shared" si="7"/>
+        <v>2430</v>
+      </c>
+      <c r="F114">
         <f t="shared" si="4"/>
-        <v>3040</v>
-      </c>
-      <c r="F114">
+        <v>2592</v>
+      </c>
+      <c r="G114" s="16">
+        <v>10</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <f>INT($D114*1.8)</f>
+        <v>145</v>
+      </c>
+      <c r="K114">
+        <f>INT($D114*2.6)</f>
+        <v>210</v>
+      </c>
+      <c r="L114">
         <f t="shared" si="5"/>
-        <v>2432</v>
-      </c>
-      <c r="G114" s="16">
-        <v>10</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <f t="shared" ref="J114:J123" si="9">INT($D114*1.6)</f>
-        <v>121</v>
-      </c>
-      <c r="K114">
-        <f t="shared" ref="I114:K137" si="10">INT($D114*2.2)</f>
-        <v>167</v>
-      </c>
-      <c r="L114">
+        <v>40</v>
+      </c>
+      <c r="M114">
         <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
-      <c r="M114">
-        <f t="shared" si="7"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N114">
         <v>20</v>
@@ -7201,46 +7182,44 @@
         <v>196</v>
       </c>
       <c r="C115" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10114</v>
       </c>
       <c r="D115">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E115">
+        <f t="shared" si="7"/>
+        <v>2820</v>
+      </c>
+      <c r="F115">
         <f t="shared" si="4"/>
-        <v>3560</v>
-      </c>
-      <c r="F115">
-        <f t="shared" si="5"/>
-        <v>2848</v>
+        <v>3008</v>
       </c>
       <c r="G115" s="16">
         <v>10</v>
       </c>
       <c r="H115">
-        <f t="shared" ref="H115:J137" si="11">INT($D115*1.6)</f>
-        <v>142</v>
+        <f>INT($D115*1.8)</f>
+        <v>169</v>
       </c>
       <c r="I115">
-        <f t="shared" ref="I115:I123" si="12">INT($D115*2.2)</f>
-        <v>195</v>
+        <f>INT($D115*2.6)</f>
+        <v>244</v>
       </c>
       <c r="J115">
-        <f t="shared" si="9"/>
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="K115">
-        <f t="shared" si="10"/>
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <f t="shared" si="6"/>
-        <v>44</v>
+        <f>INT(D115/1.7)</f>
+        <v>55</v>
       </c>
       <c r="M115">
-        <f t="shared" si="7"/>
-        <v>44</v>
+        <f>INT(D115/1.7)</f>
+        <v>55</v>
       </c>
       <c r="N115">
         <v>20</v>
@@ -7258,46 +7237,44 @@
         <v>197</v>
       </c>
       <c r="C116" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10115</v>
       </c>
       <c r="D116">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E116">
+        <f t="shared" si="7"/>
+        <v>2700</v>
+      </c>
+      <c r="F116">
         <f t="shared" si="4"/>
-        <v>3400</v>
-      </c>
-      <c r="F116">
-        <f t="shared" si="5"/>
-        <v>2720</v>
+        <v>2880</v>
       </c>
       <c r="G116" s="16">
         <v>10</v>
       </c>
       <c r="H116">
-        <f t="shared" si="11"/>
-        <v>136</v>
+        <f>INT($D116*1.8)</f>
+        <v>162</v>
       </c>
       <c r="I116">
-        <f t="shared" si="12"/>
-        <v>187</v>
+        <f>INT($D116*2.6)</f>
+        <v>234</v>
       </c>
       <c r="J116">
-        <f t="shared" si="9"/>
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="K116">
-        <f t="shared" si="10"/>
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <f t="shared" si="6"/>
-        <v>42</v>
+        <f t="shared" ref="L116:L127" si="13">INT(D116/1.7)</f>
+        <v>52</v>
       </c>
       <c r="M116">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" ref="M116:M127" si="14">INT(D116/1.7)</f>
+        <v>52</v>
       </c>
       <c r="N116">
         <v>20</v>
@@ -7315,46 +7292,44 @@
         <v>198</v>
       </c>
       <c r="C117" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10116</v>
       </c>
       <c r="D117">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E117">
+        <f t="shared" si="7"/>
+        <v>2760</v>
+      </c>
+      <c r="F117">
         <f t="shared" si="4"/>
-        <v>3480</v>
-      </c>
-      <c r="F117">
-        <f t="shared" si="5"/>
-        <v>2784</v>
+        <v>2944</v>
       </c>
       <c r="G117" s="16">
         <v>10</v>
       </c>
       <c r="H117">
-        <f t="shared" si="11"/>
-        <v>139</v>
+        <f>INT($D117*1.8)</f>
+        <v>165</v>
       </c>
       <c r="I117">
-        <f t="shared" si="12"/>
-        <v>191</v>
+        <f>INT($D117*2.6)</f>
+        <v>239</v>
       </c>
       <c r="J117">
-        <f t="shared" si="9"/>
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="K117">
-        <f t="shared" si="10"/>
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="L117">
-        <f t="shared" si="6"/>
-        <v>43</v>
+        <f t="shared" si="13"/>
+        <v>54</v>
       </c>
       <c r="M117">
-        <f t="shared" si="7"/>
-        <v>43</v>
+        <f t="shared" si="14"/>
+        <v>54</v>
       </c>
       <c r="N117">
         <v>20</v>
@@ -7372,46 +7347,44 @@
         <v>199</v>
       </c>
       <c r="C118" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10117</v>
       </c>
       <c r="D118">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E118">
+        <f t="shared" si="7"/>
+        <v>2580</v>
+      </c>
+      <c r="F118">
         <f t="shared" si="4"/>
-        <v>3240</v>
-      </c>
-      <c r="F118">
-        <f t="shared" si="5"/>
-        <v>2592</v>
+        <v>2752</v>
       </c>
       <c r="G118" s="16">
         <v>10</v>
       </c>
       <c r="H118">
-        <f t="shared" si="11"/>
-        <v>129</v>
+        <f>INT($D118*1.8)</f>
+        <v>154</v>
       </c>
       <c r="I118">
-        <f t="shared" si="12"/>
-        <v>178</v>
+        <f>INT($D118*2.6)</f>
+        <v>223</v>
       </c>
       <c r="J118">
-        <f t="shared" si="9"/>
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="K118">
-        <f t="shared" si="10"/>
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="L118">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <f t="shared" si="13"/>
+        <v>50</v>
       </c>
       <c r="M118">
-        <f t="shared" si="7"/>
-        <v>40</v>
+        <f t="shared" si="14"/>
+        <v>50</v>
       </c>
       <c r="N118">
         <v>20</v>
@@ -7429,46 +7402,44 @@
         <v>200</v>
       </c>
       <c r="C119" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10118</v>
       </c>
       <c r="D119">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E119">
+        <f t="shared" si="7"/>
+        <v>2820</v>
+      </c>
+      <c r="F119">
         <f t="shared" si="4"/>
-        <v>3560</v>
-      </c>
-      <c r="F119">
-        <f t="shared" si="5"/>
-        <v>2848</v>
+        <v>3008</v>
       </c>
       <c r="G119" s="16">
         <v>10</v>
       </c>
       <c r="H119">
-        <f t="shared" si="11"/>
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <f t="shared" si="12"/>
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" si="9"/>
-        <v>142</v>
+        <f>INT($D119*1.8)</f>
+        <v>169</v>
       </c>
       <c r="K119">
-        <f t="shared" si="10"/>
-        <v>195</v>
+        <f>INT($D119*2.6)</f>
+        <v>244</v>
       </c>
       <c r="L119">
-        <f t="shared" si="6"/>
-        <v>44</v>
+        <f t="shared" si="13"/>
+        <v>55</v>
       </c>
       <c r="M119">
-        <f t="shared" si="7"/>
-        <v>44</v>
+        <f t="shared" si="14"/>
+        <v>55</v>
       </c>
       <c r="N119">
         <v>20</v>
@@ -7486,46 +7457,44 @@
         <v>201</v>
       </c>
       <c r="C120" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10119</v>
       </c>
       <c r="D120">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E120">
+        <f t="shared" si="7"/>
+        <v>2610</v>
+      </c>
+      <c r="F120">
         <f t="shared" si="4"/>
-        <v>3280</v>
-      </c>
-      <c r="F120">
-        <f t="shared" si="5"/>
-        <v>2624</v>
+        <v>2784</v>
       </c>
       <c r="G120" s="16">
         <v>10</v>
       </c>
       <c r="H120">
-        <f t="shared" si="11"/>
-        <v>131</v>
+        <f>INT($D120*1.8)</f>
+        <v>156</v>
       </c>
       <c r="I120">
-        <f t="shared" si="12"/>
-        <v>180</v>
+        <f>INT($D120*2.6)</f>
+        <v>226</v>
       </c>
       <c r="J120">
-        <f t="shared" si="9"/>
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="K120">
-        <f t="shared" si="10"/>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="L120">
-        <f t="shared" si="6"/>
-        <v>41</v>
+        <f t="shared" si="13"/>
+        <v>51</v>
       </c>
       <c r="M120">
-        <f t="shared" si="7"/>
-        <v>41</v>
+        <f t="shared" si="14"/>
+        <v>51</v>
       </c>
       <c r="N120">
         <v>20</v>
@@ -7543,46 +7512,44 @@
         <v>202</v>
       </c>
       <c r="C121" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10120</v>
       </c>
       <c r="D121">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E121">
+        <f t="shared" si="7"/>
+        <v>2550</v>
+      </c>
+      <c r="F121">
         <f t="shared" si="4"/>
-        <v>3200</v>
-      </c>
-      <c r="F121">
-        <f t="shared" si="5"/>
-        <v>2560</v>
+        <v>2720</v>
       </c>
       <c r="G121" s="16">
         <v>10</v>
       </c>
       <c r="H121">
-        <f t="shared" si="11"/>
-        <v>128</v>
+        <f>INT($D121*1.8)</f>
+        <v>153</v>
       </c>
       <c r="I121">
-        <f t="shared" si="12"/>
-        <v>176</v>
+        <f>INT($D121*2.6)</f>
+        <v>221</v>
       </c>
       <c r="J121">
-        <f t="shared" si="9"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="K121">
-        <f t="shared" si="10"/>
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="L121">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <f t="shared" si="13"/>
+        <v>50</v>
       </c>
       <c r="M121">
-        <f t="shared" si="7"/>
-        <v>40</v>
+        <f t="shared" si="14"/>
+        <v>50</v>
       </c>
       <c r="N121">
         <v>20</v>
@@ -7600,46 +7567,44 @@
         <v>203</v>
       </c>
       <c r="C122" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10121</v>
       </c>
       <c r="D122">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E122">
+        <f t="shared" si="7"/>
+        <v>2700</v>
+      </c>
+      <c r="F122">
         <f t="shared" si="4"/>
-        <v>3400</v>
-      </c>
-      <c r="F122">
-        <f t="shared" si="5"/>
-        <v>2720</v>
+        <v>2880</v>
       </c>
       <c r="G122" s="16">
         <v>10</v>
       </c>
       <c r="H122">
-        <f t="shared" si="11"/>
-        <v>136</v>
+        <f>INT($D122*1.8)</f>
+        <v>162</v>
       </c>
       <c r="I122">
-        <f t="shared" si="12"/>
-        <v>187</v>
+        <f>INT($D122*2.6)</f>
+        <v>234</v>
       </c>
       <c r="J122">
-        <f t="shared" si="9"/>
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="K122">
-        <f t="shared" si="10"/>
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="L122">
-        <f t="shared" si="6"/>
-        <v>42</v>
+        <f t="shared" si="13"/>
+        <v>52</v>
       </c>
       <c r="M122">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="14"/>
+        <v>52</v>
       </c>
       <c r="N122">
         <v>20</v>
@@ -7657,46 +7622,44 @@
         <v>204</v>
       </c>
       <c r="C123" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10122</v>
       </c>
       <c r="D123">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E123">
+        <f t="shared" si="7"/>
+        <v>2640</v>
+      </c>
+      <c r="F123">
         <f t="shared" si="4"/>
-        <v>3320</v>
-      </c>
-      <c r="F123">
-        <f t="shared" si="5"/>
-        <v>2656</v>
+        <v>2816</v>
       </c>
       <c r="G123" s="16">
         <v>10</v>
       </c>
       <c r="H123">
-        <f t="shared" si="11"/>
-        <v>132</v>
+        <f>INT($D123*1.8)</f>
+        <v>158</v>
       </c>
       <c r="I123">
-        <f t="shared" si="12"/>
-        <v>182</v>
+        <f>INT($D123*2.6)</f>
+        <v>228</v>
       </c>
       <c r="J123">
-        <f t="shared" si="9"/>
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="K123">
-        <f t="shared" si="10"/>
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="L123">
-        <f t="shared" si="6"/>
-        <v>41</v>
+        <f t="shared" si="13"/>
+        <v>51</v>
       </c>
       <c r="M123">
-        <f t="shared" si="7"/>
-        <v>41</v>
+        <f t="shared" si="14"/>
+        <v>51</v>
       </c>
       <c r="N123">
         <v>20</v>
@@ -7714,19 +7677,19 @@
         <v>205</v>
       </c>
       <c r="C124" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10123</v>
       </c>
       <c r="D124">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E124">
+        <f t="shared" si="7"/>
+        <v>2580</v>
+      </c>
+      <c r="F124">
         <f t="shared" si="4"/>
-        <v>3240</v>
-      </c>
-      <c r="F124">
-        <f t="shared" si="5"/>
-        <v>2592</v>
+        <v>2752</v>
       </c>
       <c r="G124" s="16">
         <v>10</v>
@@ -7738,20 +7701,20 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <f t="shared" si="11"/>
-        <v>129</v>
+        <f>INT($D124*1.8)</f>
+        <v>154</v>
       </c>
       <c r="K124">
-        <f t="shared" si="10"/>
-        <v>178</v>
+        <f>INT($D124*2.6)</f>
+        <v>223</v>
       </c>
       <c r="L124">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <f t="shared" si="13"/>
+        <v>50</v>
       </c>
       <c r="M124">
-        <f t="shared" si="7"/>
-        <v>40</v>
+        <f t="shared" si="14"/>
+        <v>50</v>
       </c>
       <c r="N124">
         <v>20</v>
@@ -7769,19 +7732,19 @@
         <v>206</v>
       </c>
       <c r="C125" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10124</v>
       </c>
       <c r="D125">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E125">
+        <f t="shared" si="7"/>
+        <v>2760</v>
+      </c>
+      <c r="F125">
         <f t="shared" si="4"/>
-        <v>3480</v>
-      </c>
-      <c r="F125">
-        <f t="shared" si="5"/>
-        <v>2784</v>
+        <v>2944</v>
       </c>
       <c r="G125" s="16">
         <v>10</v>
@@ -7793,20 +7756,20 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <f t="shared" si="11"/>
-        <v>139</v>
+        <f>INT($D125*1.8)</f>
+        <v>165</v>
       </c>
       <c r="K125">
-        <f t="shared" si="10"/>
-        <v>191</v>
+        <f>INT($D125*2.6)</f>
+        <v>239</v>
       </c>
       <c r="L125">
-        <f t="shared" si="6"/>
-        <v>43</v>
+        <f t="shared" si="13"/>
+        <v>54</v>
       </c>
       <c r="M125">
-        <f t="shared" si="7"/>
-        <v>43</v>
+        <f t="shared" si="14"/>
+        <v>54</v>
       </c>
       <c r="N125">
         <v>20</v>
@@ -7824,19 +7787,19 @@
         <v>207</v>
       </c>
       <c r="C126" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10125</v>
       </c>
       <c r="D126">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E126">
+        <f t="shared" si="7"/>
+        <v>2670</v>
+      </c>
+      <c r="F126">
         <f t="shared" si="4"/>
-        <v>3360</v>
-      </c>
-      <c r="F126">
-        <f t="shared" si="5"/>
-        <v>2688</v>
+        <v>2848</v>
       </c>
       <c r="G126" s="16">
         <v>10</v>
@@ -7848,20 +7811,20 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <f t="shared" si="11"/>
-        <v>134</v>
+        <f>INT($D126*1.8)</f>
+        <v>160</v>
       </c>
       <c r="K126">
-        <f t="shared" si="10"/>
-        <v>184</v>
+        <f>INT($D126*2.6)</f>
+        <v>231</v>
       </c>
       <c r="L126">
-        <f t="shared" si="6"/>
-        <v>42</v>
+        <f t="shared" si="13"/>
+        <v>52</v>
       </c>
       <c r="M126">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="14"/>
+        <v>52</v>
       </c>
       <c r="N126">
         <v>20</v>
@@ -7879,30 +7842,30 @@
         <v>208</v>
       </c>
       <c r="C127" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10126</v>
       </c>
       <c r="D127">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E127">
+        <f t="shared" si="7"/>
+        <v>2820</v>
+      </c>
+      <c r="F127">
         <f t="shared" si="4"/>
-        <v>3560</v>
-      </c>
-      <c r="F127">
-        <f t="shared" si="5"/>
-        <v>2848</v>
+        <v>3008</v>
       </c>
       <c r="G127" s="16">
         <v>10</v>
       </c>
       <c r="H127">
-        <f t="shared" si="11"/>
-        <v>142</v>
+        <f>INT($D127*1.8)</f>
+        <v>169</v>
       </c>
       <c r="I127">
-        <f t="shared" si="10"/>
-        <v>195</v>
+        <f>INT($D127*2.6)</f>
+        <v>244</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -7911,12 +7874,12 @@
         <v>0</v>
       </c>
       <c r="L127">
-        <f t="shared" si="6"/>
-        <v>44</v>
+        <f t="shared" si="13"/>
+        <v>55</v>
       </c>
       <c r="M127">
-        <f t="shared" si="7"/>
-        <v>44</v>
+        <f t="shared" si="14"/>
+        <v>55</v>
       </c>
       <c r="N127">
         <v>20</v>
@@ -7934,46 +7897,44 @@
         <v>209</v>
       </c>
       <c r="C128" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10127</v>
       </c>
       <c r="D128">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E128">
+        <f t="shared" si="7"/>
+        <v>2940</v>
+      </c>
+      <c r="F128">
         <f t="shared" si="4"/>
-        <v>3720</v>
-      </c>
-      <c r="F128">
-        <f t="shared" si="5"/>
-        <v>2976</v>
+        <v>3136</v>
       </c>
       <c r="G128" s="16">
         <v>10</v>
       </c>
       <c r="H128">
-        <f t="shared" si="11"/>
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <f t="shared" ref="I128:I137" si="13">INT($D128*2.2)</f>
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <f t="shared" ref="J128:J137" si="14">INT($D128*1.6)</f>
-        <v>148</v>
+        <f>INT($D128*2)</f>
+        <v>196</v>
       </c>
       <c r="K128">
-        <f t="shared" si="10"/>
-        <v>204</v>
+        <f>INT($D128*3)</f>
+        <v>294</v>
       </c>
       <c r="L128">
-        <f t="shared" si="6"/>
-        <v>46</v>
+        <f>INT(D128/1.5)</f>
+        <v>65</v>
       </c>
       <c r="M128">
-        <f t="shared" si="7"/>
-        <v>46</v>
+        <f>INT(D128/1.5)</f>
+        <v>65</v>
       </c>
       <c r="N128">
         <v>20</v>
@@ -7991,46 +7952,44 @@
         <v>210</v>
       </c>
       <c r="C129" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10128</v>
       </c>
       <c r="D129">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E129">
+        <f t="shared" si="7"/>
+        <v>3060</v>
+      </c>
+      <c r="F129">
         <f t="shared" si="4"/>
-        <v>3880</v>
-      </c>
-      <c r="F129">
-        <f t="shared" si="5"/>
-        <v>3104</v>
+        <v>3264</v>
       </c>
       <c r="G129" s="16">
         <v>10</v>
       </c>
       <c r="H129">
-        <f t="shared" si="11"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <f t="shared" si="13"/>
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="J129">
-        <f t="shared" si="14"/>
-        <v>155</v>
+        <f>INT($D129*2)</f>
+        <v>204</v>
       </c>
       <c r="K129">
-        <f t="shared" si="10"/>
-        <v>213</v>
+        <f>INT($D129*3)</f>
+        <v>306</v>
       </c>
       <c r="L129">
-        <f t="shared" si="6"/>
-        <v>48</v>
+        <f t="shared" ref="L129:L137" si="15">INT(D129/1.5)</f>
+        <v>68</v>
       </c>
       <c r="M129">
-        <f t="shared" si="7"/>
-        <v>48</v>
+        <f t="shared" ref="M129:M137" si="16">INT(D129/1.5)</f>
+        <v>68</v>
       </c>
       <c r="N129">
         <v>20</v>
@@ -8048,46 +8007,44 @@
         <v>211</v>
       </c>
       <c r="C130" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10129</v>
       </c>
       <c r="D130">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E130">
+        <f t="shared" si="7"/>
+        <v>2850</v>
+      </c>
+      <c r="F130">
         <f t="shared" si="4"/>
-        <v>3600</v>
-      </c>
-      <c r="F130">
-        <f t="shared" si="5"/>
-        <v>2880</v>
+        <v>3040</v>
       </c>
       <c r="G130" s="16">
         <v>10</v>
       </c>
       <c r="H130">
-        <f t="shared" si="11"/>
-        <v>144</v>
+        <f>INT($D130*2)</f>
+        <v>190</v>
       </c>
       <c r="I130">
-        <f t="shared" si="13"/>
-        <v>198</v>
+        <f>INT($D130*3)</f>
+        <v>285</v>
       </c>
       <c r="J130">
-        <f t="shared" si="14"/>
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="K130">
-        <f t="shared" si="10"/>
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <f t="shared" si="6"/>
-        <v>45</v>
+        <f t="shared" si="15"/>
+        <v>63</v>
       </c>
       <c r="M130">
-        <f t="shared" si="7"/>
-        <v>45</v>
+        <f t="shared" si="16"/>
+        <v>63</v>
       </c>
       <c r="N130">
         <v>20</v>
@@ -8109,42 +8066,40 @@
         <v>10031</v>
       </c>
       <c r="D131">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E131">
+        <f t="shared" si="7"/>
+        <v>2850</v>
+      </c>
+      <c r="F131">
         <f t="shared" si="4"/>
-        <v>3600</v>
-      </c>
-      <c r="F131">
-        <f t="shared" si="5"/>
-        <v>2880</v>
+        <v>3040</v>
       </c>
       <c r="G131" s="16">
         <v>10</v>
       </c>
       <c r="H131">
-        <f t="shared" si="11"/>
-        <v>144</v>
+        <f>INT($D131*2)</f>
+        <v>190</v>
       </c>
       <c r="I131">
-        <f t="shared" si="13"/>
-        <v>198</v>
+        <f>INT($D131*3)</f>
+        <v>285</v>
       </c>
       <c r="J131">
-        <f t="shared" si="14"/>
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="K131">
-        <f t="shared" si="10"/>
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="L131">
-        <f t="shared" si="6"/>
-        <v>45</v>
+        <f t="shared" si="15"/>
+        <v>63</v>
       </c>
       <c r="M131">
-        <f t="shared" si="7"/>
-        <v>45</v>
+        <f t="shared" si="16"/>
+        <v>63</v>
       </c>
       <c r="N131">
         <v>20</v>
@@ -8166,42 +8121,40 @@
         <v>10032</v>
       </c>
       <c r="D132">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E132">
+        <f t="shared" si="7"/>
+        <v>3030</v>
+      </c>
+      <c r="F132">
         <f t="shared" si="4"/>
-        <v>3840</v>
-      </c>
-      <c r="F132">
-        <f t="shared" si="5"/>
-        <v>3072</v>
+        <v>3232</v>
       </c>
       <c r="G132" s="16">
         <v>10</v>
       </c>
       <c r="H132">
-        <f t="shared" si="11"/>
-        <v>153</v>
+        <f>INT($D132*2)</f>
+        <v>202</v>
       </c>
       <c r="I132">
-        <f t="shared" si="13"/>
-        <v>211</v>
+        <f>INT($D132*3)</f>
+        <v>303</v>
       </c>
       <c r="J132">
-        <f t="shared" si="14"/>
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="K132">
-        <f t="shared" si="10"/>
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="L132">
-        <f t="shared" si="6"/>
-        <v>48</v>
+        <f t="shared" si="15"/>
+        <v>67</v>
       </c>
       <c r="M132">
-        <f t="shared" si="7"/>
-        <v>48</v>
+        <f t="shared" si="16"/>
+        <v>67</v>
       </c>
       <c r="N132">
         <v>20</v>
@@ -8223,42 +8176,40 @@
         <v>10102</v>
       </c>
       <c r="D133">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E133">
+        <f t="shared" si="7"/>
+        <v>2970</v>
+      </c>
+      <c r="F133">
         <f t="shared" si="4"/>
-        <v>3760</v>
-      </c>
-      <c r="F133">
-        <f t="shared" si="5"/>
-        <v>3008</v>
+        <v>3168</v>
       </c>
       <c r="G133" s="16">
         <v>10</v>
       </c>
       <c r="H133">
-        <f t="shared" si="11"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <f t="shared" si="13"/>
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="J133">
-        <f t="shared" si="14"/>
-        <v>150</v>
+        <f>INT($D133*2)</f>
+        <v>198</v>
       </c>
       <c r="K133">
-        <f t="shared" si="10"/>
-        <v>206</v>
+        <f>INT($D133*3)</f>
+        <v>297</v>
       </c>
       <c r="L133">
-        <f t="shared" si="6"/>
-        <v>47</v>
+        <f t="shared" si="15"/>
+        <v>66</v>
       </c>
       <c r="M133">
-        <f t="shared" si="7"/>
-        <v>47</v>
+        <f t="shared" si="16"/>
+        <v>66</v>
       </c>
       <c r="N133">
         <v>20</v>
@@ -8280,42 +8231,40 @@
         <v>10133</v>
       </c>
       <c r="D134">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E134">
+        <f t="shared" si="7"/>
+        <v>3030</v>
+      </c>
+      <c r="F134">
         <f t="shared" si="4"/>
-        <v>3840</v>
-      </c>
-      <c r="F134">
-        <f t="shared" si="5"/>
-        <v>3072</v>
+        <v>3232</v>
       </c>
       <c r="G134" s="16">
         <v>10</v>
       </c>
       <c r="H134">
-        <f t="shared" si="11"/>
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <f t="shared" si="13"/>
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="J134">
-        <f t="shared" si="14"/>
-        <v>153</v>
+        <f>INT($D134*2)</f>
+        <v>202</v>
       </c>
       <c r="K134">
-        <f t="shared" si="10"/>
-        <v>211</v>
+        <f>INT($D134*3)</f>
+        <v>303</v>
       </c>
       <c r="L134">
-        <f t="shared" si="6"/>
-        <v>48</v>
+        <f t="shared" si="15"/>
+        <v>67</v>
       </c>
       <c r="M134">
-        <f t="shared" si="7"/>
-        <v>48</v>
+        <f t="shared" si="16"/>
+        <v>67</v>
       </c>
       <c r="N134">
         <v>20</v>
@@ -8337,42 +8286,40 @@
         <v>10098</v>
       </c>
       <c r="D135">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E135">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="F135">
         <f t="shared" si="4"/>
-        <v>3800</v>
-      </c>
-      <c r="F135">
-        <f t="shared" si="5"/>
-        <v>3040</v>
+        <v>3200</v>
       </c>
       <c r="G135" s="16">
         <v>10</v>
       </c>
       <c r="H135">
-        <f t="shared" si="11"/>
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <f t="shared" si="13"/>
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <f t="shared" si="14"/>
-        <v>152</v>
+        <f>INT($D135*2)</f>
+        <v>200</v>
       </c>
       <c r="K135">
-        <f t="shared" si="10"/>
-        <v>209</v>
+        <f>INT($D135*3)</f>
+        <v>300</v>
       </c>
       <c r="L135">
-        <f t="shared" si="6"/>
-        <v>47</v>
+        <f t="shared" si="15"/>
+        <v>66</v>
       </c>
       <c r="M135">
-        <f t="shared" si="7"/>
-        <v>47</v>
+        <f t="shared" si="16"/>
+        <v>66</v>
       </c>
       <c r="N135">
         <v>20</v>
@@ -8394,42 +8341,40 @@
         <v>10135</v>
       </c>
       <c r="D136">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E136">
+        <f t="shared" si="7"/>
+        <v>3090</v>
+      </c>
+      <c r="F136">
         <f t="shared" si="4"/>
-        <v>3920</v>
-      </c>
-      <c r="F136">
-        <f t="shared" si="5"/>
-        <v>3136</v>
+        <v>3296</v>
       </c>
       <c r="G136" s="16">
         <v>10</v>
       </c>
       <c r="H136">
-        <f t="shared" si="11"/>
-        <v>156</v>
+        <f>INT($D136*2)</f>
+        <v>206</v>
       </c>
       <c r="I136">
-        <f t="shared" si="13"/>
-        <v>215</v>
+        <f>INT($D136*3)</f>
+        <v>309</v>
       </c>
       <c r="J136">
-        <f t="shared" si="14"/>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="K136">
-        <f t="shared" si="10"/>
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="L136">
-        <f t="shared" si="6"/>
-        <v>49</v>
+        <f t="shared" si="15"/>
+        <v>68</v>
       </c>
       <c r="M136">
-        <f t="shared" si="7"/>
-        <v>49</v>
+        <f t="shared" si="16"/>
+        <v>68</v>
       </c>
       <c r="N136">
         <v>20</v>
@@ -8451,42 +8396,40 @@
         <v>10136</v>
       </c>
       <c r="D137">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E137">
+        <f t="shared" si="7"/>
+        <v>2940</v>
+      </c>
+      <c r="F137">
         <f t="shared" si="4"/>
-        <v>3720</v>
-      </c>
-      <c r="F137">
-        <f t="shared" si="5"/>
-        <v>2976</v>
+        <v>3136</v>
       </c>
       <c r="G137" s="16">
         <v>10</v>
       </c>
       <c r="H137">
-        <f t="shared" si="11"/>
-        <v>148</v>
+        <f>INT($D137*2)</f>
+        <v>196</v>
       </c>
       <c r="I137">
-        <f t="shared" si="13"/>
-        <v>204</v>
+        <f>INT($D137*3)</f>
+        <v>294</v>
       </c>
       <c r="J137">
-        <f t="shared" si="14"/>
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="K137">
-        <f t="shared" si="10"/>
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="L137">
-        <f t="shared" si="6"/>
-        <v>46</v>
+        <f t="shared" si="15"/>
+        <v>65</v>
       </c>
       <c r="M137">
-        <f t="shared" si="7"/>
-        <v>46</v>
+        <f t="shared" si="16"/>
+        <v>65</v>
       </c>
       <c r="N137">
         <v>20</v>
@@ -8496,313 +8439,515 @@
       </c>
       <c r="Q137"/>
     </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A138" s="4">
+        <v>10137</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C138" s="7">
+        <f>A138</f>
+        <v>10137</v>
+      </c>
+      <c r="D138" s="16">
+        <v>999</v>
+      </c>
+      <c r="E138" s="16">
+        <v>100</v>
+      </c>
+      <c r="F138" s="16">
+        <v>999999</v>
+      </c>
+      <c r="G138" s="16">
+        <v>10</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>50</v>
+      </c>
+      <c r="M138">
+        <v>50</v>
+      </c>
+      <c r="N138">
+        <v>20</v>
+      </c>
+      <c r="O138" s="16">
+        <v>9000</v>
+      </c>
+      <c r="Q138"/>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A139" s="4">
+        <v>10138</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C139" s="7">
+        <f>C138</f>
+        <v>10137</v>
+      </c>
+      <c r="D139" s="16">
+        <v>999</v>
+      </c>
+      <c r="E139" s="16">
+        <v>100</v>
+      </c>
+      <c r="F139" s="16">
+        <v>999999</v>
+      </c>
+      <c r="G139" s="16">
+        <v>10</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>100</v>
+      </c>
+      <c r="M139">
+        <v>100</v>
+      </c>
+      <c r="N139">
+        <v>20</v>
+      </c>
+      <c r="O139" s="16">
+        <v>9000</v>
+      </c>
+    </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B140"/>
-      <c r="D140"/>
-      <c r="E140"/>
-      <c r="F140"/>
-      <c r="H140"/>
-      <c r="I140"/>
-      <c r="J140"/>
-      <c r="K140"/>
-      <c r="L140"/>
-      <c r="M140"/>
-      <c r="N140"/>
-      <c r="O140"/>
-      <c r="Q140"/>
+      <c r="A140" s="4">
+        <v>10139</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C140" s="7">
+        <f>C138</f>
+        <v>10137</v>
+      </c>
+      <c r="D140" s="16">
+        <v>999</v>
+      </c>
+      <c r="E140" s="16">
+        <v>100</v>
+      </c>
+      <c r="F140" s="16">
+        <v>999999</v>
+      </c>
+      <c r="G140" s="16">
+        <v>10</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>200</v>
+      </c>
+      <c r="M140">
+        <v>200</v>
+      </c>
+      <c r="N140">
+        <v>20</v>
+      </c>
+      <c r="O140" s="16">
+        <v>9000</v>
+      </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B141"/>
-      <c r="D141"/>
-      <c r="E141"/>
-      <c r="F141"/>
-      <c r="H141"/>
-      <c r="I141"/>
-      <c r="J141"/>
-      <c r="K141"/>
-      <c r="L141"/>
-      <c r="M141"/>
-      <c r="N141"/>
-      <c r="O141"/>
-      <c r="Q141"/>
+      <c r="A141" s="4">
+        <v>10140</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141" s="7">
+        <f>C138</f>
+        <v>10137</v>
+      </c>
+      <c r="D141" s="16">
+        <v>999</v>
+      </c>
+      <c r="E141" s="16">
+        <v>100</v>
+      </c>
+      <c r="F141" s="16">
+        <v>999999</v>
+      </c>
+      <c r="G141" s="16">
+        <v>10</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>400</v>
+      </c>
+      <c r="M141">
+        <v>400</v>
+      </c>
+      <c r="N141">
+        <v>20</v>
+      </c>
+      <c r="O141" s="16">
+        <v>9000</v>
+      </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B142"/>
-      <c r="D142"/>
-      <c r="E142"/>
-      <c r="F142"/>
-      <c r="H142"/>
-      <c r="I142"/>
-      <c r="J142"/>
-      <c r="K142"/>
-      <c r="L142"/>
-      <c r="M142"/>
-      <c r="N142"/>
-      <c r="O142"/>
-      <c r="Q142"/>
+      <c r="A142" s="4">
+        <v>10141</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C142" s="7">
+        <f>C138</f>
+        <v>10137</v>
+      </c>
+      <c r="D142" s="16">
+        <v>999</v>
+      </c>
+      <c r="E142" s="16">
+        <v>100</v>
+      </c>
+      <c r="F142" s="16">
+        <v>999999</v>
+      </c>
+      <c r="G142" s="16">
+        <v>10</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>800</v>
+      </c>
+      <c r="M142">
+        <v>800</v>
+      </c>
+      <c r="N142">
+        <v>20</v>
+      </c>
+      <c r="O142" s="16">
+        <v>9000</v>
+      </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A143" s="4">
-        <v>11000</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>118</v>
+        <v>10142</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="C143" s="7">
-        <v>0</v>
-      </c>
-      <c r="D143">
-        <v>110</v>
-      </c>
-      <c r="E143">
-        <v>20000</v>
-      </c>
-      <c r="F143">
-        <v>3800</v>
+        <f>C138</f>
+        <v>10137</v>
+      </c>
+      <c r="D143" s="16">
+        <v>999</v>
+      </c>
+      <c r="E143" s="16">
+        <v>100</v>
+      </c>
+      <c r="F143" s="16">
+        <v>999999</v>
       </c>
       <c r="G143" s="16">
         <v>10</v>
       </c>
       <c r="H143">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143">
-        <v>40</v>
+        <v>1500</v>
       </c>
       <c r="M143">
-        <v>60</v>
+        <v>1500</v>
       </c>
       <c r="N143">
-        <v>30</v>
-      </c>
-      <c r="O143">
-        <v>1500</v>
+        <v>20</v>
+      </c>
+      <c r="O143" s="16">
+        <v>9000</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A144" s="4">
-        <v>11001</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>119</v>
+        <v>10143</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="C144" s="7">
-        <v>0</v>
-      </c>
-      <c r="D144">
-        <v>110</v>
-      </c>
-      <c r="E144">
-        <v>25000</v>
-      </c>
-      <c r="F144">
-        <v>4200</v>
+        <f>C138</f>
+        <v>10137</v>
+      </c>
+      <c r="D144" s="16">
+        <v>999</v>
+      </c>
+      <c r="E144" s="16">
+        <v>100</v>
+      </c>
+      <c r="F144" s="16">
+        <v>999999</v>
       </c>
       <c r="G144" s="16">
         <v>10</v>
       </c>
       <c r="H144">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L144">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="M144">
-        <v>60</v>
+        <v>2500</v>
       </c>
       <c r="N144">
-        <v>30</v>
-      </c>
-      <c r="O144">
-        <v>1500</v>
+        <v>20</v>
+      </c>
+      <c r="O144" s="16">
+        <v>9000</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A145" s="4">
-        <v>11002</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>120</v>
+        <v>10144</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="C145" s="7">
-        <v>0</v>
-      </c>
-      <c r="D145">
-        <v>110</v>
-      </c>
-      <c r="E145">
-        <v>22000</v>
-      </c>
-      <c r="F145">
+        <f>C138</f>
+        <v>10137</v>
+      </c>
+      <c r="D145" s="16">
+        <v>999</v>
+      </c>
+      <c r="E145" s="16">
+        <v>100</v>
+      </c>
+      <c r="F145" s="16">
+        <v>999999</v>
+      </c>
+      <c r="G145" s="16">
+        <v>10</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
         <v>4000</v>
       </c>
-      <c r="G145" s="16">
-        <v>10</v>
-      </c>
-      <c r="H145">
-        <v>300</v>
-      </c>
-      <c r="I145">
-        <v>300</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145">
-        <v>40</v>
-      </c>
       <c r="M145">
-        <v>60</v>
+        <v>4000</v>
       </c>
       <c r="N145">
-        <v>30</v>
-      </c>
-      <c r="O145">
-        <v>1500</v>
+        <v>20</v>
+      </c>
+      <c r="O145" s="16">
+        <v>9000</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A146" s="4">
-        <v>11003</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>121</v>
+        <v>10145</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="C146" s="7">
-        <v>0</v>
-      </c>
-      <c r="D146">
-        <v>120</v>
-      </c>
-      <c r="E146">
-        <v>20000</v>
-      </c>
-      <c r="F146">
-        <v>3800</v>
+        <f>C138</f>
+        <v>10137</v>
+      </c>
+      <c r="D146" s="16">
+        <v>999</v>
+      </c>
+      <c r="E146" s="16">
+        <v>100</v>
+      </c>
+      <c r="F146" s="16">
+        <v>999999</v>
       </c>
       <c r="G146" s="16">
         <v>10</v>
       </c>
       <c r="H146">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L146">
-        <v>40</v>
+        <v>6000</v>
       </c>
       <c r="M146">
-        <v>60</v>
+        <v>6000</v>
       </c>
       <c r="N146">
-        <v>30</v>
-      </c>
-      <c r="O146">
-        <v>1500</v>
+        <v>20</v>
+      </c>
+      <c r="O146" s="16">
+        <v>9000</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A147" s="4">
-        <v>11004</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>122</v>
+        <v>10146</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="C147" s="7">
-        <v>0</v>
-      </c>
-      <c r="D147">
-        <v>120</v>
-      </c>
-      <c r="E147">
-        <v>25000</v>
-      </c>
-      <c r="F147">
-        <v>4200</v>
+        <f>C138</f>
+        <v>10137</v>
+      </c>
+      <c r="D147" s="16">
+        <v>999</v>
+      </c>
+      <c r="E147" s="16">
+        <v>100</v>
+      </c>
+      <c r="F147" s="16">
+        <v>999999</v>
       </c>
       <c r="G147" s="16">
         <v>10</v>
       </c>
       <c r="H147">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L147">
-        <v>40</v>
+        <v>9999</v>
       </c>
       <c r="M147">
-        <v>60</v>
+        <v>9999</v>
       </c>
       <c r="N147">
-        <v>30</v>
-      </c>
-      <c r="O147">
-        <v>1500</v>
+        <v>20</v>
+      </c>
+      <c r="O147" s="16">
+        <v>9000</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="4">
-        <v>11005</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>123</v>
+        <v>10147</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="C148" s="7">
-        <v>0</v>
-      </c>
-      <c r="D148">
-        <v>120</v>
-      </c>
-      <c r="E148">
-        <v>22000</v>
-      </c>
-      <c r="F148">
-        <v>4000</v>
+        <f>A148</f>
+        <v>10147</v>
+      </c>
+      <c r="D148" s="16">
+        <v>999</v>
+      </c>
+      <c r="E148" s="16">
+        <v>100</v>
+      </c>
+      <c r="F148" s="16">
+        <v>999999</v>
       </c>
       <c r="G148" s="16">
         <v>10</v>
       </c>
       <c r="H148">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="I148">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -8811,45 +8956,46 @@
         <v>0</v>
       </c>
       <c r="L148">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M148">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N148">
-        <v>30</v>
-      </c>
-      <c r="O148">
+        <v>20</v>
+      </c>
+      <c r="O148" s="16">
         <v>1500</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A149" s="4">
-        <v>11006</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>124</v>
+        <v>10148</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="C149" s="7">
-        <v>0</v>
-      </c>
-      <c r="D149">
-        <v>135</v>
-      </c>
-      <c r="E149">
-        <v>20000</v>
-      </c>
-      <c r="F149">
-        <v>3800</v>
+        <f>C148</f>
+        <v>10147</v>
+      </c>
+      <c r="D149" s="16">
+        <v>999</v>
+      </c>
+      <c r="E149" s="16">
+        <v>100</v>
+      </c>
+      <c r="F149" s="16">
+        <v>999999</v>
       </c>
       <c r="G149" s="16">
         <v>10</v>
       </c>
       <c r="H149">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I149">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -8858,45 +9004,46 @@
         <v>0</v>
       </c>
       <c r="L149">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M149">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N149">
-        <v>30</v>
-      </c>
-      <c r="O149">
+        <v>20</v>
+      </c>
+      <c r="O149" s="16">
         <v>1500</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="4">
-        <v>11007</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>125</v>
+        <v>10149</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="C150" s="7">
-        <v>0</v>
-      </c>
-      <c r="D150">
-        <v>125</v>
-      </c>
-      <c r="E150">
-        <v>22000</v>
-      </c>
-      <c r="F150">
-        <v>4000</v>
+        <f>C148</f>
+        <v>10147</v>
+      </c>
+      <c r="D150" s="16">
+        <v>999</v>
+      </c>
+      <c r="E150" s="16">
+        <v>100</v>
+      </c>
+      <c r="F150" s="16">
+        <v>999999</v>
       </c>
       <c r="G150" s="16">
         <v>10</v>
       </c>
       <c r="H150">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I150">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -8905,45 +9052,46 @@
         <v>0</v>
       </c>
       <c r="L150">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M150">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N150">
-        <v>30</v>
-      </c>
-      <c r="O150">
+        <v>20</v>
+      </c>
+      <c r="O150" s="16">
         <v>1500</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A151" s="4">
-        <v>11008</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>126</v>
+        <v>10150</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="C151" s="7">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>120</v>
-      </c>
-      <c r="E151">
-        <v>30000</v>
-      </c>
-      <c r="F151">
-        <v>4800</v>
+        <f>C148</f>
+        <v>10147</v>
+      </c>
+      <c r="D151" s="16">
+        <v>999</v>
+      </c>
+      <c r="E151" s="16">
+        <v>100</v>
+      </c>
+      <c r="F151" s="16">
+        <v>999999</v>
       </c>
       <c r="G151" s="16">
         <v>10</v>
       </c>
       <c r="H151">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="I151">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -8952,45 +9100,46 @@
         <v>0</v>
       </c>
       <c r="L151">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M151">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N151">
-        <v>40</v>
-      </c>
-      <c r="O151">
+        <v>20</v>
+      </c>
+      <c r="O151" s="16">
         <v>1500</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A152" s="4">
-        <v>11009</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>127</v>
+        <v>10151</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="C152" s="7">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>120</v>
-      </c>
-      <c r="E152">
-        <v>35000</v>
-      </c>
-      <c r="F152">
-        <v>5200</v>
+        <f>C148</f>
+        <v>10147</v>
+      </c>
+      <c r="D152" s="16">
+        <v>999</v>
+      </c>
+      <c r="E152" s="16">
+        <v>100</v>
+      </c>
+      <c r="F152" s="16">
+        <v>999999</v>
       </c>
       <c r="G152" s="16">
         <v>10</v>
       </c>
       <c r="H152">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="I152">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -8999,45 +9148,46 @@
         <v>0</v>
       </c>
       <c r="L152">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M152">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N152">
-        <v>40</v>
-      </c>
-      <c r="O152">
+        <v>20</v>
+      </c>
+      <c r="O152" s="16">
         <v>1500</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A153" s="4">
-        <v>11010</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>128</v>
+        <v>10152</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="C153" s="7">
-        <v>0</v>
-      </c>
-      <c r="D153">
-        <v>120</v>
-      </c>
-      <c r="E153">
-        <v>32000</v>
-      </c>
-      <c r="F153">
-        <v>5000</v>
+        <f>C148</f>
+        <v>10147</v>
+      </c>
+      <c r="D153" s="16">
+        <v>999</v>
+      </c>
+      <c r="E153" s="16">
+        <v>100</v>
+      </c>
+      <c r="F153" s="16">
+        <v>999999</v>
       </c>
       <c r="G153" s="16">
         <v>10</v>
       </c>
       <c r="H153">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="I153">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -9046,45 +9196,46 @@
         <v>0</v>
       </c>
       <c r="L153">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M153">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N153">
-        <v>40</v>
-      </c>
-      <c r="O153">
+        <v>20</v>
+      </c>
+      <c r="O153" s="16">
         <v>1500</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="4">
-        <v>11011</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>131</v>
+        <v>10153</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="C154" s="7">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <v>120</v>
-      </c>
-      <c r="E154">
-        <v>30000</v>
-      </c>
-      <c r="F154">
-        <v>4800</v>
+        <f>C148</f>
+        <v>10147</v>
+      </c>
+      <c r="D154" s="16">
+        <v>999</v>
+      </c>
+      <c r="E154" s="16">
+        <v>100</v>
+      </c>
+      <c r="F154" s="16">
+        <v>999999</v>
       </c>
       <c r="G154" s="16">
         <v>10</v>
       </c>
       <c r="H154">
-        <v>400</v>
+        <v>7000</v>
       </c>
       <c r="I154">
-        <v>400</v>
+        <v>7000</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -9093,45 +9244,46 @@
         <v>0</v>
       </c>
       <c r="L154">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M154">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N154">
-        <v>40</v>
-      </c>
-      <c r="O154">
+        <v>20</v>
+      </c>
+      <c r="O154" s="16">
         <v>1500</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A155" s="4">
-        <v>11012</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>130</v>
+        <v>10154</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="C155" s="7">
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <v>120</v>
-      </c>
-      <c r="E155">
-        <v>35000</v>
-      </c>
-      <c r="F155">
-        <v>5200</v>
+        <f>C148</f>
+        <v>10147</v>
+      </c>
+      <c r="D155" s="16">
+        <v>999</v>
+      </c>
+      <c r="E155" s="16">
+        <v>100</v>
+      </c>
+      <c r="F155" s="16">
+        <v>999999</v>
       </c>
       <c r="G155" s="16">
         <v>10</v>
       </c>
       <c r="H155">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="I155">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -9140,45 +9292,46 @@
         <v>0</v>
       </c>
       <c r="L155">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M155">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N155">
-        <v>40</v>
-      </c>
-      <c r="O155">
+        <v>20</v>
+      </c>
+      <c r="O155" s="16">
         <v>1500</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="4">
-        <v>11013</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>129</v>
+        <v>10155</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="C156" s="7">
-        <v>0</v>
-      </c>
-      <c r="D156">
-        <v>120</v>
-      </c>
-      <c r="E156">
-        <v>32000</v>
-      </c>
-      <c r="F156">
-        <v>5000</v>
+        <f>C148</f>
+        <v>10147</v>
+      </c>
+      <c r="D156" s="16">
+        <v>999</v>
+      </c>
+      <c r="E156" s="16">
+        <v>100</v>
+      </c>
+      <c r="F156" s="16">
+        <v>999999</v>
       </c>
       <c r="G156" s="16">
         <v>10</v>
       </c>
       <c r="H156">
-        <v>400</v>
+        <v>16000</v>
       </c>
       <c r="I156">
-        <v>400</v>
+        <v>16000</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -9187,45 +9340,46 @@
         <v>0</v>
       </c>
       <c r="L156">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M156">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N156">
-        <v>40</v>
-      </c>
-      <c r="O156">
+        <v>20</v>
+      </c>
+      <c r="O156" s="16">
         <v>1500</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A157" s="4">
-        <v>11014</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>133</v>
+        <v>10156</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="C157" s="7">
-        <v>0</v>
-      </c>
-      <c r="D157">
-        <v>120</v>
-      </c>
-      <c r="E157">
-        <v>30000</v>
-      </c>
-      <c r="F157">
-        <v>4800</v>
+        <f>C148</f>
+        <v>10147</v>
+      </c>
+      <c r="D157" s="16">
+        <v>999</v>
+      </c>
+      <c r="E157" s="16">
+        <v>100</v>
+      </c>
+      <c r="F157" s="16">
+        <v>999999</v>
       </c>
       <c r="G157" s="16">
         <v>10</v>
       </c>
       <c r="H157">
-        <v>400</v>
+        <v>22000</v>
       </c>
       <c r="I157">
-        <v>400</v>
+        <v>22000</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -9234,938 +9388,795 @@
         <v>0</v>
       </c>
       <c r="L157">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M157">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N157">
-        <v>40</v>
-      </c>
-      <c r="O157">
+        <v>20</v>
+      </c>
+      <c r="O157" s="16">
         <v>1500</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A158" s="4">
-        <v>11015</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>132</v>
+        <v>10157</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="C158" s="7">
-        <v>0</v>
-      </c>
-      <c r="D158">
-        <v>120</v>
-      </c>
-      <c r="E158">
-        <v>35000</v>
-      </c>
-      <c r="F158">
-        <v>5000</v>
+        <f>A158</f>
+        <v>10157</v>
+      </c>
+      <c r="D158" s="16">
+        <v>999</v>
+      </c>
+      <c r="E158" s="16">
+        <v>100</v>
+      </c>
+      <c r="F158" s="16">
+        <v>999999</v>
       </c>
       <c r="G158" s="16">
         <v>10</v>
       </c>
       <c r="H158">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K158">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L158">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M158">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N158">
-        <v>40</v>
-      </c>
-      <c r="O158">
+        <v>20</v>
+      </c>
+      <c r="O158" s="16">
         <v>1500</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A159" s="4">
-        <v>11016</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>136</v>
+        <v>10158</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="C159" s="7">
-        <v>0</v>
-      </c>
-      <c r="D159">
-        <v>140</v>
-      </c>
-      <c r="E159">
-        <v>45000</v>
-      </c>
-      <c r="F159">
-        <v>15000</v>
+        <f>C158</f>
+        <v>10157</v>
+      </c>
+      <c r="D159" s="16">
+        <v>999</v>
+      </c>
+      <c r="E159" s="16">
+        <v>100</v>
+      </c>
+      <c r="F159" s="16">
+        <v>999999</v>
       </c>
       <c r="G159" s="16">
         <v>10</v>
       </c>
       <c r="H159">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K159">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L159">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M159">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="N159">
-        <v>50</v>
-      </c>
-      <c r="O159">
-        <v>1800</v>
+        <v>20</v>
+      </c>
+      <c r="O159" s="16">
+        <v>1500</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A160" s="4">
-        <v>11017</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>134</v>
+        <v>10159</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="C160" s="7">
-        <v>0</v>
-      </c>
-      <c r="D160">
-        <v>140</v>
-      </c>
-      <c r="E160">
-        <v>40000</v>
-      </c>
-      <c r="F160">
-        <v>17000</v>
+        <f>C158</f>
+        <v>10157</v>
+      </c>
+      <c r="D160" s="16">
+        <v>999</v>
+      </c>
+      <c r="E160" s="16">
+        <v>100</v>
+      </c>
+      <c r="F160" s="16">
+        <v>999999</v>
       </c>
       <c r="G160" s="16">
         <v>10</v>
       </c>
       <c r="H160">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="J160">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K160">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L160">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>20</v>
+      </c>
+      <c r="O160" s="16">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A161" s="4">
+        <v>10160</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C161" s="7">
+        <f>C158</f>
+        <v>10157</v>
+      </c>
+      <c r="D161" s="16">
+        <v>999</v>
+      </c>
+      <c r="E161" s="16">
+        <v>100</v>
+      </c>
+      <c r="F161" s="16">
+        <v>999999</v>
+      </c>
+      <c r="G161" s="16">
+        <v>10</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>1000</v>
+      </c>
+      <c r="K161">
+        <v>1000</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>20</v>
+      </c>
+      <c r="O161" s="16">
+        <v>1500</v>
+      </c>
+      <c r="Q161"/>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A162" s="4">
+        <v>10161</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C162" s="7">
+        <f>C158</f>
+        <v>10157</v>
+      </c>
+      <c r="D162" s="16">
+        <v>999</v>
+      </c>
+      <c r="E162" s="16">
+        <v>100</v>
+      </c>
+      <c r="F162" s="16">
+        <v>999999</v>
+      </c>
+      <c r="G162" s="16">
+        <v>10</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>2000</v>
+      </c>
+      <c r="K162">
+        <v>2000</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>20</v>
+      </c>
+      <c r="O162" s="16">
+        <v>1500</v>
+      </c>
+      <c r="Q162"/>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A163" s="4">
+        <v>10162</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C163" s="7">
+        <f>C158</f>
+        <v>10157</v>
+      </c>
+      <c r="D163" s="16">
+        <v>999</v>
+      </c>
+      <c r="E163" s="16">
+        <v>100</v>
+      </c>
+      <c r="F163" s="16">
+        <v>999999</v>
+      </c>
+      <c r="G163" s="16">
+        <v>10</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>4000</v>
+      </c>
+      <c r="K163">
+        <v>4000</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>20</v>
+      </c>
+      <c r="O163" s="16">
+        <v>1500</v>
+      </c>
+      <c r="Q163"/>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A164" s="4">
+        <v>10163</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C164" s="7">
+        <f>C158</f>
+        <v>10157</v>
+      </c>
+      <c r="D164" s="16">
+        <v>999</v>
+      </c>
+      <c r="E164" s="16">
+        <v>100</v>
+      </c>
+      <c r="F164" s="16">
+        <v>999999</v>
+      </c>
+      <c r="G164" s="16">
+        <v>10</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>7000</v>
+      </c>
+      <c r="K164">
+        <v>7000</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>20</v>
+      </c>
+      <c r="O164" s="16">
+        <v>1500</v>
+      </c>
+      <c r="Q164"/>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A165" s="4">
+        <v>10164</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C165" s="7">
+        <f>C158</f>
+        <v>10157</v>
+      </c>
+      <c r="D165" s="16">
+        <v>999</v>
+      </c>
+      <c r="E165" s="16">
+        <v>100</v>
+      </c>
+      <c r="F165" s="16">
+        <v>999999</v>
+      </c>
+      <c r="G165" s="16">
+        <v>10</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>11000</v>
+      </c>
+      <c r="K165">
+        <v>11000</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>20</v>
+      </c>
+      <c r="O165" s="16">
+        <v>1500</v>
+      </c>
+      <c r="Q165"/>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A166" s="4">
+        <v>10165</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C166" s="7">
+        <f>C158</f>
+        <v>10157</v>
+      </c>
+      <c r="D166" s="16">
+        <v>999</v>
+      </c>
+      <c r="E166" s="16">
+        <v>100</v>
+      </c>
+      <c r="F166" s="16">
+        <v>999999</v>
+      </c>
+      <c r="G166" s="16">
+        <v>10</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>16000</v>
+      </c>
+      <c r="K166">
+        <v>16000</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>20</v>
+      </c>
+      <c r="O166" s="16">
+        <v>1500</v>
+      </c>
+      <c r="Q166"/>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A167" s="4">
+        <v>10166</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C167" s="7">
+        <f>C158</f>
+        <v>10157</v>
+      </c>
+      <c r="D167" s="16">
+        <v>999</v>
+      </c>
+      <c r="E167" s="16">
+        <v>100</v>
+      </c>
+      <c r="F167" s="16">
+        <v>999999</v>
+      </c>
+      <c r="G167" s="16">
+        <v>10</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>22000</v>
+      </c>
+      <c r="K167">
+        <v>22000</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>20</v>
+      </c>
+      <c r="O167" s="16">
+        <v>1500</v>
+      </c>
+      <c r="Q167"/>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
+      <c r="H168"/>
+      <c r="I168"/>
+      <c r="J168"/>
+      <c r="K168"/>
+      <c r="L168"/>
+      <c r="M168"/>
+      <c r="N168"/>
+      <c r="O168"/>
+      <c r="Q168"/>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169"/>
+      <c r="K169"/>
+      <c r="L169"/>
+      <c r="M169"/>
+      <c r="N169"/>
+      <c r="O169"/>
+      <c r="Q169"/>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B170"/>
+      <c r="D170"/>
+      <c r="E170"/>
+      <c r="F170"/>
+      <c r="H170"/>
+      <c r="I170"/>
+      <c r="J170"/>
+      <c r="K170"/>
+      <c r="L170"/>
+      <c r="M170"/>
+      <c r="N170"/>
+      <c r="O170"/>
+      <c r="Q170"/>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B171"/>
+      <c r="D171"/>
+      <c r="E171"/>
+      <c r="F171"/>
+      <c r="H171"/>
+      <c r="I171"/>
+      <c r="J171"/>
+      <c r="K171"/>
+      <c r="L171"/>
+      <c r="M171"/>
+      <c r="N171"/>
+      <c r="O171"/>
+      <c r="Q171"/>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172"/>
+      <c r="H172"/>
+      <c r="I172"/>
+      <c r="J172"/>
+      <c r="K172"/>
+      <c r="L172"/>
+      <c r="M172"/>
+      <c r="N172"/>
+      <c r="O172"/>
+      <c r="Q172"/>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A173" s="4">
+        <v>11000</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C173" s="7">
+        <v>0</v>
+      </c>
+      <c r="D173">
         <v>110</v>
       </c>
-      <c r="N160">
-        <v>50</v>
-      </c>
-      <c r="O160">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A161" s="4">
-        <v>11018</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C161" s="7">
-        <v>0</v>
-      </c>
-      <c r="D161">
-        <v>140</v>
-      </c>
-      <c r="E161">
-        <v>42000</v>
-      </c>
-      <c r="F161">
-        <v>16000</v>
-      </c>
-      <c r="G161" s="16">
-        <v>10</v>
-      </c>
-      <c r="H161">
-        <v>450</v>
-      </c>
-      <c r="I161">
-        <v>450</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-      <c r="L161">
-        <v>90</v>
-      </c>
-      <c r="M161">
+      <c r="E173">
+        <v>20000</v>
+      </c>
+      <c r="F173">
+        <v>3800</v>
+      </c>
+      <c r="G173" s="16">
+        <v>10</v>
+      </c>
+      <c r="H173">
+        <v>300</v>
+      </c>
+      <c r="I173">
+        <v>300</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>40</v>
+      </c>
+      <c r="M173">
+        <v>60</v>
+      </c>
+      <c r="N173">
+        <v>30</v>
+      </c>
+      <c r="O173">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A174" s="4">
+        <v>11001</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C174" s="7">
+        <v>0</v>
+      </c>
+      <c r="D174">
         <v>110</v>
       </c>
-      <c r="N161">
-        <v>50</v>
-      </c>
-      <c r="O161">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A162" s="4">
-        <v>11019</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C162" s="7">
-        <v>0</v>
-      </c>
-      <c r="D162">
-        <v>140</v>
-      </c>
-      <c r="E162">
-        <v>45000</v>
-      </c>
-      <c r="F162">
-        <v>15000</v>
-      </c>
-      <c r="G162" s="16">
-        <v>10</v>
-      </c>
-      <c r="H162">
-        <v>450</v>
-      </c>
-      <c r="I162">
-        <v>450</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162">
-        <v>0</v>
-      </c>
-      <c r="L162">
-        <v>90</v>
-      </c>
-      <c r="M162">
+      <c r="E174">
+        <v>25000</v>
+      </c>
+      <c r="F174">
+        <v>4200</v>
+      </c>
+      <c r="G174" s="16">
+        <v>10</v>
+      </c>
+      <c r="H174">
+        <v>300</v>
+      </c>
+      <c r="I174">
+        <v>300</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>40</v>
+      </c>
+      <c r="M174">
+        <v>60</v>
+      </c>
+      <c r="N174">
+        <v>30</v>
+      </c>
+      <c r="O174">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A175" s="4">
+        <v>11002</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C175" s="7">
+        <v>0</v>
+      </c>
+      <c r="D175">
         <v>110</v>
       </c>
-      <c r="N162">
-        <v>50</v>
-      </c>
-      <c r="O162">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A163" s="4">
-        <v>11020</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C163" s="7">
-        <v>0</v>
-      </c>
-      <c r="D163">
-        <v>140</v>
-      </c>
-      <c r="E163">
-        <v>40000</v>
-      </c>
-      <c r="F163">
-        <v>17000</v>
-      </c>
-      <c r="G163" s="16">
-        <v>10</v>
-      </c>
-      <c r="H163">
-        <v>450</v>
-      </c>
-      <c r="I163">
-        <v>450</v>
-      </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-      <c r="K163">
-        <v>0</v>
-      </c>
-      <c r="L163">
-        <v>90</v>
-      </c>
-      <c r="M163">
-        <v>110</v>
-      </c>
-      <c r="N163">
-        <v>50</v>
-      </c>
-      <c r="O163">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A164" s="4">
-        <v>11021</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C164" s="7">
-        <v>0</v>
-      </c>
-      <c r="D164">
-        <v>140</v>
-      </c>
-      <c r="E164">
-        <v>42000</v>
-      </c>
-      <c r="F164">
-        <v>16000</v>
-      </c>
-      <c r="G164" s="16">
-        <v>10</v>
-      </c>
-      <c r="H164">
-        <v>450</v>
-      </c>
-      <c r="I164">
-        <v>450</v>
-      </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-      <c r="K164">
-        <v>0</v>
-      </c>
-      <c r="L164">
-        <v>90</v>
-      </c>
-      <c r="M164">
-        <v>110</v>
-      </c>
-      <c r="N164">
-        <v>50</v>
-      </c>
-      <c r="O164">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A165" s="4">
-        <v>11022</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C165" s="7">
-        <v>0</v>
-      </c>
-      <c r="D165">
-        <v>140</v>
-      </c>
-      <c r="E165">
-        <v>45000</v>
-      </c>
-      <c r="F165">
-        <v>15000</v>
-      </c>
-      <c r="G165" s="16">
-        <v>10</v>
-      </c>
-      <c r="H165">
-        <v>450</v>
-      </c>
-      <c r="I165">
-        <v>450</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-      <c r="K165">
-        <v>0</v>
-      </c>
-      <c r="L165">
-        <v>90</v>
-      </c>
-      <c r="M165">
-        <v>110</v>
-      </c>
-      <c r="N165">
-        <v>50</v>
-      </c>
-      <c r="O165">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A166" s="4">
-        <v>11023</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C166" s="7">
-        <v>0</v>
-      </c>
-      <c r="D166">
-        <v>140</v>
-      </c>
-      <c r="E166">
-        <v>40000</v>
-      </c>
-      <c r="F166">
-        <v>17000</v>
-      </c>
-      <c r="G166" s="16">
-        <v>10</v>
-      </c>
-      <c r="H166">
-        <v>450</v>
-      </c>
-      <c r="I166">
-        <v>450</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-      <c r="K166">
-        <v>0</v>
-      </c>
-      <c r="L166">
-        <v>90</v>
-      </c>
-      <c r="M166">
-        <v>110</v>
-      </c>
-      <c r="N166">
-        <v>50</v>
-      </c>
-      <c r="O166">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A167" s="4">
-        <v>11024</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C167" s="7">
-        <v>0</v>
-      </c>
-      <c r="D167">
-        <v>140</v>
-      </c>
-      <c r="E167">
-        <v>42000</v>
-      </c>
-      <c r="F167">
-        <v>16000</v>
-      </c>
-      <c r="G167" s="16">
-        <v>10</v>
-      </c>
-      <c r="H167">
+      <c r="E175">
+        <v>22000</v>
+      </c>
+      <c r="F175">
+        <v>4000</v>
+      </c>
+      <c r="G175" s="16">
+        <v>10</v>
+      </c>
+      <c r="H175">
         <v>300</v>
       </c>
-      <c r="I167">
+      <c r="I175">
         <v>300</v>
       </c>
-      <c r="J167">
-        <v>0</v>
-      </c>
-      <c r="K167">
-        <v>0</v>
-      </c>
-      <c r="L167">
-        <v>90</v>
-      </c>
-      <c r="M167">
-        <v>110</v>
-      </c>
-      <c r="N167">
-        <v>50</v>
-      </c>
-      <c r="O167">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A168" s="4">
-        <v>11025</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C168" s="7">
-        <v>0</v>
-      </c>
-      <c r="D168">
-        <v>140</v>
-      </c>
-      <c r="E168">
-        <v>45000</v>
-      </c>
-      <c r="F168">
-        <v>15000</v>
-      </c>
-      <c r="G168" s="16">
-        <v>10</v>
-      </c>
-      <c r="H168">
-        <v>450</v>
-      </c>
-      <c r="I168">
-        <v>450</v>
-      </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-      <c r="K168">
-        <v>0</v>
-      </c>
-      <c r="L168">
-        <v>90</v>
-      </c>
-      <c r="M168">
-        <v>110</v>
-      </c>
-      <c r="N168">
-        <v>50</v>
-      </c>
-      <c r="O168">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A169" s="4">
-        <v>11026</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C169" s="7">
-        <v>0</v>
-      </c>
-      <c r="D169">
-        <v>140</v>
-      </c>
-      <c r="E169">
-        <v>40000</v>
-      </c>
-      <c r="F169">
-        <v>17000</v>
-      </c>
-      <c r="G169" s="16">
-        <v>10</v>
-      </c>
-      <c r="H169">
-        <v>450</v>
-      </c>
-      <c r="I169">
-        <v>450</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>0</v>
-      </c>
-      <c r="L169">
-        <v>90</v>
-      </c>
-      <c r="M169">
-        <v>110</v>
-      </c>
-      <c r="N169">
-        <v>50</v>
-      </c>
-      <c r="O169">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A170" s="4">
-        <v>11027</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C170" s="7">
-        <v>0</v>
-      </c>
-      <c r="D170">
-        <v>160</v>
-      </c>
-      <c r="E170">
-        <v>60000</v>
-      </c>
-      <c r="F170">
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>40</v>
+      </c>
+      <c r="M175">
+        <v>60</v>
+      </c>
+      <c r="N175">
+        <v>30</v>
+      </c>
+      <c r="O175">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A176" s="4">
+        <v>11003</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C176" s="7">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>120</v>
+      </c>
+      <c r="E176">
         <v>20000</v>
       </c>
-      <c r="G170" s="16">
-        <v>10</v>
-      </c>
-      <c r="H170">
-        <v>450</v>
-      </c>
-      <c r="I170">
-        <v>450</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-      <c r="K170">
-        <v>0</v>
-      </c>
-      <c r="L170">
-        <v>130</v>
-      </c>
-      <c r="M170">
-        <v>190</v>
-      </c>
-      <c r="N170">
+      <c r="F176">
+        <v>3800</v>
+      </c>
+      <c r="G176" s="16">
+        <v>10</v>
+      </c>
+      <c r="H176">
+        <v>300</v>
+      </c>
+      <c r="I176">
+        <v>300</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>40</v>
+      </c>
+      <c r="M176">
         <v>60</v>
       </c>
-      <c r="O170">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A171" s="4">
-        <v>11028</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C171" s="7">
-        <v>0</v>
-      </c>
-      <c r="D171">
-        <v>160</v>
-      </c>
-      <c r="E171">
-        <v>60000</v>
-      </c>
-      <c r="F171">
-        <v>22000</v>
-      </c>
-      <c r="G171" s="16">
-        <v>10</v>
-      </c>
-      <c r="H171">
-        <v>450</v>
-      </c>
-      <c r="I171">
-        <v>450</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-      <c r="L171">
-        <v>130</v>
-      </c>
-      <c r="M171">
-        <v>190</v>
-      </c>
-      <c r="N171">
-        <v>60</v>
-      </c>
-      <c r="O171">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A172" s="4">
-        <v>11029</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C172" s="7">
-        <v>0</v>
-      </c>
-      <c r="D172">
-        <v>160</v>
-      </c>
-      <c r="E172">
-        <v>55000</v>
-      </c>
-      <c r="F172">
-        <v>20000</v>
-      </c>
-      <c r="G172" s="16">
-        <v>10</v>
-      </c>
-      <c r="H172">
-        <v>450</v>
-      </c>
-      <c r="I172">
-        <v>450</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172">
-        <v>0</v>
-      </c>
-      <c r="L172">
-        <v>130</v>
-      </c>
-      <c r="M172">
-        <v>1690</v>
-      </c>
-      <c r="N172">
-        <v>60</v>
-      </c>
-      <c r="O172">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A173" s="4">
-        <v>11030</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C173" s="7">
-        <v>0</v>
-      </c>
-      <c r="D173">
-        <v>180</v>
-      </c>
-      <c r="E173">
-        <v>70000</v>
-      </c>
-      <c r="F173">
-        <v>25000</v>
-      </c>
-      <c r="G173" s="16">
-        <v>10</v>
-      </c>
-      <c r="H173">
-        <v>450</v>
-      </c>
-      <c r="I173">
-        <v>450</v>
-      </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-      <c r="K173">
-        <v>0</v>
-      </c>
-      <c r="L173">
-        <v>100</v>
-      </c>
-      <c r="M173">
-        <v>180</v>
-      </c>
-      <c r="N173">
-        <v>70</v>
-      </c>
-      <c r="O173">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A174" s="4">
-        <v>11031</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C174" s="7">
-        <v>0</v>
-      </c>
-      <c r="D174">
-        <v>180</v>
-      </c>
-      <c r="E174">
-        <v>65000</v>
-      </c>
-      <c r="F174">
-        <v>23000</v>
-      </c>
-      <c r="G174" s="16">
-        <v>10</v>
-      </c>
-      <c r="H174">
-        <v>450</v>
-      </c>
-      <c r="I174">
-        <v>450</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="K174">
-        <v>0</v>
-      </c>
-      <c r="L174">
-        <v>100</v>
-      </c>
-      <c r="M174">
-        <v>180</v>
-      </c>
-      <c r="N174">
-        <v>70</v>
-      </c>
-      <c r="O174">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A175" s="4">
-        <v>11032</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C175" s="7">
-        <v>0</v>
-      </c>
-      <c r="D175">
-        <v>180</v>
-      </c>
-      <c r="E175">
-        <v>70000</v>
-      </c>
-      <c r="F175">
-        <v>25000</v>
-      </c>
-      <c r="G175" s="16">
-        <v>10</v>
-      </c>
-      <c r="H175">
-        <v>450</v>
-      </c>
-      <c r="I175">
-        <v>450</v>
-      </c>
-      <c r="J175">
-        <v>0</v>
-      </c>
-      <c r="K175">
-        <v>0</v>
-      </c>
-      <c r="L175">
-        <v>100</v>
-      </c>
-      <c r="M175">
-        <v>180</v>
-      </c>
-      <c r="N175">
-        <v>70</v>
-      </c>
-      <c r="O175">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A176" s="4">
-        <v>11033</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C176" s="7">
-        <v>0</v>
-      </c>
-      <c r="D176">
-        <v>180</v>
-      </c>
-      <c r="E176">
-        <v>65000</v>
-      </c>
-      <c r="F176">
-        <v>23000</v>
-      </c>
-      <c r="G176" s="16">
-        <v>10</v>
-      </c>
-      <c r="H176">
-        <v>450</v>
-      </c>
-      <c r="I176">
-        <v>450</v>
-      </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-      <c r="K176">
-        <v>0</v>
-      </c>
-      <c r="L176">
-        <v>100</v>
-      </c>
-      <c r="M176">
-        <v>180</v>
-      </c>
       <c r="N176">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="O176">
-        <v>1800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A177" s="4">
-        <v>11034</v>
+        <v>11004</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="C177" s="7">
         <v>0</v>
       </c>
       <c r="D177">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E177">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="F177">
-        <v>30000</v>
+        <v>4200</v>
       </c>
       <c r="G177" s="16">
         <v>10</v>
       </c>
       <c r="H177">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="I177">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -10174,45 +10185,45 @@
         <v>0</v>
       </c>
       <c r="L177">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="M177">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="N177">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="O177">
-        <v>1800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A178" s="4">
-        <v>11035</v>
+        <v>11005</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C178" s="7">
         <v>0</v>
       </c>
       <c r="D178">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E178">
-        <v>75000</v>
+        <v>22000</v>
       </c>
       <c r="F178">
-        <v>30000</v>
+        <v>4000</v>
       </c>
       <c r="G178" s="16">
         <v>10</v>
       </c>
       <c r="H178">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="I178">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -10221,45 +10232,45 @@
         <v>0</v>
       </c>
       <c r="L178">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="M178">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="N178">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="O178">
-        <v>1800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A179" s="4">
-        <v>11036</v>
+        <v>11006</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C179" s="7">
         <v>0</v>
       </c>
       <c r="D179">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="E179">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="F179">
-        <v>30000</v>
+        <v>3800</v>
       </c>
       <c r="G179" s="16">
         <v>10</v>
       </c>
       <c r="H179">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="I179">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -10268,45 +10279,45 @@
         <v>0</v>
       </c>
       <c r="L179">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="M179">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="N179">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="O179">
-        <v>1800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A180" s="4">
-        <v>11037</v>
+        <v>11007</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C180" s="7">
         <v>0</v>
       </c>
       <c r="D180">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E180">
-        <v>75000</v>
+        <v>22000</v>
       </c>
       <c r="F180">
-        <v>30000</v>
+        <v>4000</v>
       </c>
       <c r="G180" s="16">
         <v>10</v>
       </c>
       <c r="H180">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="I180">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -10315,45 +10326,45 @@
         <v>0</v>
       </c>
       <c r="L180">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="M180">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="N180">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="O180">
-        <v>1800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A181" s="4">
-        <v>11038</v>
+        <v>11008</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C181" s="7">
         <v>0</v>
       </c>
       <c r="D181">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="E181">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="F181">
-        <v>30000</v>
+        <v>4800</v>
       </c>
       <c r="G181" s="16">
         <v>10</v>
       </c>
       <c r="H181">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="I181">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -10362,45 +10373,45 @@
         <v>0</v>
       </c>
       <c r="L181">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="M181">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="N181">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="O181">
-        <v>1800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A182" s="4">
-        <v>11039</v>
+        <v>11009</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C182" s="7">
         <v>0</v>
       </c>
       <c r="D182">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="E182">
-        <v>90000</v>
+        <v>35000</v>
       </c>
       <c r="F182">
-        <v>30000</v>
+        <v>5200</v>
       </c>
       <c r="G182" s="16">
         <v>10</v>
       </c>
       <c r="H182">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="I182">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -10409,45 +10420,45 @@
         <v>0</v>
       </c>
       <c r="L182">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="M182">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="N182">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="O182">
-        <v>1800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A183" s="4">
-        <v>11040</v>
+        <v>11010</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="C183" s="7">
         <v>0</v>
       </c>
       <c r="D183">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="E183">
-        <v>93000</v>
+        <v>32000</v>
       </c>
       <c r="F183">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="G183" s="16">
         <v>10</v>
       </c>
       <c r="H183">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="I183">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -10456,45 +10467,45 @@
         <v>0</v>
       </c>
       <c r="L183">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="M183">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="N183">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="O183">
-        <v>1800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A184" s="4">
-        <v>11041</v>
+        <v>11011</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C184" s="7">
         <v>0</v>
       </c>
       <c r="D184">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E184">
-        <v>96000</v>
+        <v>30000</v>
       </c>
       <c r="F184">
-        <v>30000</v>
+        <v>4800</v>
       </c>
       <c r="G184" s="16">
         <v>10</v>
       </c>
       <c r="H184">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="I184">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -10503,92 +10514,92 @@
         <v>0</v>
       </c>
       <c r="L184">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="M184">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="N184">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="O184">
-        <v>1800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A185" s="4">
-        <v>11042</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>175</v>
+        <v>11012</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C185" s="7">
         <v>0</v>
       </c>
       <c r="D185">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="E185">
-        <v>2500000</v>
+        <v>35000</v>
       </c>
       <c r="F185">
-        <v>300000</v>
+        <v>5200</v>
       </c>
       <c r="G185" s="16">
         <v>10</v>
       </c>
       <c r="H185">
+        <v>400</v>
+      </c>
+      <c r="I185">
+        <v>400</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>95</v>
+      </c>
+      <c r="M185">
+        <v>95</v>
+      </c>
+      <c r="N185">
+        <v>40</v>
+      </c>
+      <c r="O185">
         <v>1500</v>
-      </c>
-      <c r="I185">
-        <v>1500</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-      <c r="K185">
-        <v>0</v>
-      </c>
-      <c r="L185">
-        <v>300</v>
-      </c>
-      <c r="M185">
-        <v>400</v>
-      </c>
-      <c r="N185">
-        <v>200</v>
-      </c>
-      <c r="O185">
-        <v>1800</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A186" s="4">
-        <v>11043</v>
+        <v>11013</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="C186" s="7">
         <v>0</v>
       </c>
       <c r="D186">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E186">
-        <v>230000</v>
+        <v>32000</v>
       </c>
       <c r="F186">
-        <v>40000</v>
+        <v>5000</v>
       </c>
       <c r="G186" s="16">
         <v>10</v>
       </c>
       <c r="H186">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="I186">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -10597,45 +10608,45 @@
         <v>0</v>
       </c>
       <c r="L186">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="M186">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="N186">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="O186">
-        <v>1800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A187" s="4">
-        <v>11044</v>
+        <v>11014</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C187" s="7">
         <v>0</v>
       </c>
       <c r="D187">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E187">
-        <v>230000</v>
+        <v>30000</v>
       </c>
       <c r="F187">
-        <v>40000</v>
+        <v>4800</v>
       </c>
       <c r="G187" s="16">
         <v>10</v>
       </c>
       <c r="H187">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="I187">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="J187">
         <v>0</v>
@@ -10644,83 +10655,83 @@
         <v>0</v>
       </c>
       <c r="L187">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="M187">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="N187">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="O187">
-        <v>1800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A188" s="4">
-        <v>11045</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>176</v>
+        <v>11015</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C188" s="7">
         <v>0</v>
       </c>
       <c r="D188">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="E188">
-        <v>3500000</v>
+        <v>35000</v>
       </c>
       <c r="F188">
-        <v>300000</v>
+        <v>5000</v>
       </c>
       <c r="G188" s="16">
         <v>10</v>
       </c>
       <c r="H188">
+        <v>400</v>
+      </c>
+      <c r="I188">
+        <v>400</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>95</v>
+      </c>
+      <c r="M188">
+        <v>95</v>
+      </c>
+      <c r="N188">
+        <v>40</v>
+      </c>
+      <c r="O188">
         <v>1500</v>
-      </c>
-      <c r="I188">
-        <v>1500</v>
-      </c>
-      <c r="J188">
-        <v>0</v>
-      </c>
-      <c r="K188">
-        <v>0</v>
-      </c>
-      <c r="L188">
-        <v>300</v>
-      </c>
-      <c r="M188">
-        <v>400</v>
-      </c>
-      <c r="N188">
-        <v>200</v>
-      </c>
-      <c r="O188">
-        <v>1800</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A189" s="4">
-        <v>11046</v>
+        <v>11016</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C189" s="7">
         <v>0</v>
       </c>
       <c r="D189">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="E189">
-        <v>250000</v>
+        <v>45000</v>
       </c>
       <c r="F189">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="G189" s="16">
         <v>10</v>
@@ -10738,36 +10749,36 @@
         <v>0</v>
       </c>
       <c r="L189">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="M189">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="N189">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O189">
-        <v>1750</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A190" s="4">
-        <v>11047</v>
+        <v>11017</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="C190" s="7">
         <v>0</v>
       </c>
       <c r="D190">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="E190">
-        <v>230000</v>
+        <v>40000</v>
       </c>
       <c r="F190">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="G190" s="16">
         <v>10</v>
@@ -10785,36 +10796,36 @@
         <v>0</v>
       </c>
       <c r="L190">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="M190">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="N190">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O190">
-        <v>1750</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A191" s="4">
-        <v>11048</v>
+        <v>11018</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C191" s="7">
         <v>0</v>
       </c>
       <c r="D191">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="E191">
-        <v>200000</v>
+        <v>42000</v>
       </c>
       <c r="F191">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="G191" s="16">
         <v>10</v>
@@ -10832,36 +10843,36 @@
         <v>0</v>
       </c>
       <c r="L191">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="M191">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="N191">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O191">
-        <v>1750</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A192" s="4">
-        <v>11049</v>
+        <v>11019</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C192" s="7">
         <v>0</v>
       </c>
       <c r="D192">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="E192">
-        <v>250000</v>
+        <v>45000</v>
       </c>
       <c r="F192">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="G192" s="16">
         <v>10</v>
@@ -10879,45 +10890,45 @@
         <v>0</v>
       </c>
       <c r="L192">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="M192">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="N192">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O192">
-        <v>1750</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A193" s="4">
-        <v>11050</v>
+        <v>11020</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C193" s="7">
         <v>0</v>
       </c>
       <c r="D193">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="E193">
-        <v>250000</v>
+        <v>40000</v>
       </c>
       <c r="F193">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="G193" s="16">
         <v>10</v>
       </c>
       <c r="H193">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="I193">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="J193">
         <v>0</v>
@@ -10926,45 +10937,45 @@
         <v>0</v>
       </c>
       <c r="L193">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="M193">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="N193">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O193">
-        <v>1750</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A194" s="4">
-        <v>11051</v>
+        <v>11021</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="C194" s="7">
         <v>0</v>
       </c>
       <c r="D194">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="E194">
-        <v>230000</v>
+        <v>42000</v>
       </c>
       <c r="F194">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="G194" s="16">
         <v>10</v>
       </c>
       <c r="H194">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="I194">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -10973,45 +10984,45 @@
         <v>0</v>
       </c>
       <c r="L194">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="M194">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="N194">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O194">
-        <v>1750</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A195" s="4">
-        <v>11052</v>
+        <v>11022</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="C195" s="7">
         <v>0</v>
       </c>
       <c r="D195">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="E195">
-        <v>300000</v>
+        <v>45000</v>
       </c>
       <c r="F195">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="G195" s="16">
         <v>10</v>
       </c>
       <c r="H195">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="I195">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -11020,13 +11031,13 @@
         <v>0</v>
       </c>
       <c r="L195">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="M195">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="N195">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="O195">
         <v>1800</v>
@@ -11034,31 +11045,31 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A196" s="4">
-        <v>11053</v>
+        <v>11023</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C196" s="7">
         <v>0</v>
       </c>
       <c r="D196">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="E196">
-        <v>300000</v>
+        <v>40000</v>
       </c>
       <c r="F196">
-        <v>60000</v>
+        <v>17000</v>
       </c>
       <c r="G196" s="16">
         <v>10</v>
       </c>
       <c r="H196">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="I196">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -11067,13 +11078,13 @@
         <v>0</v>
       </c>
       <c r="L196">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="M196">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="N196">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="O196">
         <v>1800</v>
@@ -11081,31 +11092,31 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A197" s="4">
-        <v>11054</v>
+        <v>11024</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C197" s="7">
         <v>0</v>
       </c>
       <c r="D197">
+        <v>140</v>
+      </c>
+      <c r="E197">
+        <v>42000</v>
+      </c>
+      <c r="F197">
+        <v>16000</v>
+      </c>
+      <c r="G197" s="16">
+        <v>10</v>
+      </c>
+      <c r="H197">
         <v>300</v>
       </c>
-      <c r="E197">
-        <v>300000</v>
-      </c>
-      <c r="F197">
-        <v>60000</v>
-      </c>
-      <c r="G197" s="16">
-        <v>10</v>
-      </c>
-      <c r="H197">
-        <v>500</v>
-      </c>
       <c r="I197">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -11114,13 +11125,13 @@
         <v>0</v>
       </c>
       <c r="L197">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="M197">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="N197">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="O197">
         <v>1800</v>
@@ -11128,44 +11139,46 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A198" s="4">
-        <v>11055</v>
+        <v>11025</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="C198" s="7">
         <v>0</v>
       </c>
       <c r="D198">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="E198">
-        <v>300000</v>
+        <v>45000</v>
       </c>
       <c r="F198">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="G198" s="16">
         <v>10</v>
       </c>
       <c r="H198">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="I198">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="J198">
         <v>0</v>
       </c>
-      <c r="K198"/>
+      <c r="K198">
+        <v>0</v>
+      </c>
       <c r="L198">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="M198">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="N198">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="O198">
         <v>1800</v>
@@ -11173,44 +11186,46 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A199" s="4">
-        <v>11056</v>
+        <v>11026</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="C199" s="7">
         <v>0</v>
       </c>
       <c r="D199">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="E199">
-        <v>300000</v>
+        <v>40000</v>
       </c>
       <c r="F199">
-        <v>120000</v>
+        <v>17000</v>
       </c>
       <c r="G199" s="16">
         <v>10</v>
       </c>
       <c r="H199">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="I199">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="J199">
         <v>0</v>
       </c>
-      <c r="K199"/>
+      <c r="K199">
+        <v>0</v>
+      </c>
       <c r="L199">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="M199">
-        <v>420</v>
+        <v>110</v>
       </c>
       <c r="N199">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="O199">
         <v>1800</v>
@@ -11218,44 +11233,46 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A200" s="4">
-        <v>11057</v>
+        <v>11027</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="C200" s="7">
         <v>0</v>
       </c>
       <c r="D200">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E200">
-        <v>300000</v>
+        <v>60000</v>
       </c>
       <c r="F200">
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="G200" s="16">
         <v>10</v>
       </c>
       <c r="H200">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="I200">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="J200">
         <v>0</v>
       </c>
-      <c r="K200"/>
+      <c r="K200">
+        <v>0</v>
+      </c>
       <c r="L200">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="M200">
-        <v>420</v>
+        <v>190</v>
       </c>
       <c r="N200">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O200">
         <v>1800</v>
@@ -11263,44 +11280,46 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A201" s="4">
-        <v>11058</v>
-      </c>
-      <c r="B201" t="s">
-        <v>177</v>
+        <v>11028</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="C201" s="7">
         <v>0</v>
       </c>
       <c r="D201">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E201">
-        <v>400000</v>
+        <v>60000</v>
       </c>
       <c r="F201">
-        <v>150000</v>
+        <v>22000</v>
       </c>
       <c r="G201" s="16">
         <v>10</v>
       </c>
       <c r="H201">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="I201">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="J201">
         <v>0</v>
       </c>
-      <c r="K201"/>
+      <c r="K201">
+        <v>0</v>
+      </c>
       <c r="L201">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="M201">
-        <v>420</v>
+        <v>190</v>
       </c>
       <c r="N201">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O201">
         <v>1800</v>
@@ -11308,54 +11327,1456 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A202" s="4">
-        <v>11059</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>174</v>
+        <v>11029</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="C202" s="7">
         <v>0</v>
       </c>
       <c r="D202">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E202">
-        <v>300000</v>
+        <v>55000</v>
       </c>
       <c r="F202">
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="G202" s="16">
         <v>10</v>
       </c>
       <c r="H202">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="I202">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="J202">
         <v>0</v>
       </c>
-      <c r="K202"/>
+      <c r="K202">
+        <v>0</v>
+      </c>
       <c r="L202">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="M202">
-        <v>420</v>
+        <v>1690</v>
       </c>
       <c r="N202">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O202">
         <v>1800</v>
       </c>
     </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A203" s="4">
+        <v>11030</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C203" s="7">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>180</v>
+      </c>
+      <c r="E203">
+        <v>70000</v>
+      </c>
+      <c r="F203">
+        <v>25000</v>
+      </c>
+      <c r="G203" s="16">
+        <v>10</v>
+      </c>
+      <c r="H203">
+        <v>450</v>
+      </c>
+      <c r="I203">
+        <v>450</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>100</v>
+      </c>
+      <c r="M203">
+        <v>180</v>
+      </c>
+      <c r="N203">
+        <v>70</v>
+      </c>
+      <c r="O203">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A204" s="4">
+        <v>11031</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C204" s="7">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>180</v>
+      </c>
+      <c r="E204">
+        <v>65000</v>
+      </c>
+      <c r="F204">
+        <v>23000</v>
+      </c>
+      <c r="G204" s="16">
+        <v>10</v>
+      </c>
+      <c r="H204">
+        <v>450</v>
+      </c>
+      <c r="I204">
+        <v>450</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>100</v>
+      </c>
+      <c r="M204">
+        <v>180</v>
+      </c>
+      <c r="N204">
+        <v>70</v>
+      </c>
+      <c r="O204">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A205" s="4">
+        <v>11032</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C205" s="7">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>180</v>
+      </c>
+      <c r="E205">
+        <v>70000</v>
+      </c>
+      <c r="F205">
+        <v>25000</v>
+      </c>
+      <c r="G205" s="16">
+        <v>10</v>
+      </c>
+      <c r="H205">
+        <v>450</v>
+      </c>
+      <c r="I205">
+        <v>450</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>100</v>
+      </c>
+      <c r="M205">
+        <v>180</v>
+      </c>
+      <c r="N205">
+        <v>70</v>
+      </c>
+      <c r="O205">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A206" s="4">
+        <v>11033</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C206" s="7">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>180</v>
+      </c>
+      <c r="E206">
+        <v>65000</v>
+      </c>
+      <c r="F206">
+        <v>23000</v>
+      </c>
+      <c r="G206" s="16">
+        <v>10</v>
+      </c>
+      <c r="H206">
+        <v>450</v>
+      </c>
+      <c r="I206">
+        <v>450</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>100</v>
+      </c>
+      <c r="M206">
+        <v>180</v>
+      </c>
+      <c r="N206">
+        <v>70</v>
+      </c>
+      <c r="O206">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A207" s="4">
+        <v>11034</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C207" s="7">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>200</v>
+      </c>
+      <c r="E207">
+        <v>80000</v>
+      </c>
+      <c r="F207">
+        <v>30000</v>
+      </c>
+      <c r="G207" s="16">
+        <v>10</v>
+      </c>
+      <c r="H207">
+        <v>450</v>
+      </c>
+      <c r="I207">
+        <v>450</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>160</v>
+      </c>
+      <c r="M207">
+        <v>230</v>
+      </c>
+      <c r="N207">
+        <v>80</v>
+      </c>
+      <c r="O207">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A208" s="4">
+        <v>11035</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C208" s="7">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>200</v>
+      </c>
+      <c r="E208">
+        <v>75000</v>
+      </c>
+      <c r="F208">
+        <v>30000</v>
+      </c>
+      <c r="G208" s="16">
+        <v>10</v>
+      </c>
+      <c r="H208">
+        <v>450</v>
+      </c>
+      <c r="I208">
+        <v>450</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>160</v>
+      </c>
+      <c r="M208">
+        <v>230</v>
+      </c>
+      <c r="N208">
+        <v>80</v>
+      </c>
+      <c r="O208">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A209" s="4">
+        <v>11036</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C209" s="7">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>200</v>
+      </c>
+      <c r="E209">
+        <v>80000</v>
+      </c>
+      <c r="F209">
+        <v>30000</v>
+      </c>
+      <c r="G209" s="16">
+        <v>10</v>
+      </c>
+      <c r="H209">
+        <v>450</v>
+      </c>
+      <c r="I209">
+        <v>450</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>160</v>
+      </c>
+      <c r="M209">
+        <v>230</v>
+      </c>
+      <c r="N209">
+        <v>80</v>
+      </c>
+      <c r="O209">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A210" s="4">
+        <v>11037</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C210" s="7">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>120</v>
+      </c>
+      <c r="E210">
+        <v>75000</v>
+      </c>
+      <c r="F210">
+        <v>30000</v>
+      </c>
+      <c r="G210" s="16">
+        <v>10</v>
+      </c>
+      <c r="H210">
+        <v>450</v>
+      </c>
+      <c r="I210">
+        <v>450</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>160</v>
+      </c>
+      <c r="M210">
+        <v>230</v>
+      </c>
+      <c r="N210">
+        <v>80</v>
+      </c>
+      <c r="O210">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A211" s="4">
+        <v>11038</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C211" s="7">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>220</v>
+      </c>
+      <c r="E211">
+        <v>90000</v>
+      </c>
+      <c r="F211">
+        <v>30000</v>
+      </c>
+      <c r="G211" s="16">
+        <v>10</v>
+      </c>
+      <c r="H211">
+        <v>450</v>
+      </c>
+      <c r="I211">
+        <v>450</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>160</v>
+      </c>
+      <c r="M211">
+        <v>230</v>
+      </c>
+      <c r="N211">
+        <v>90</v>
+      </c>
+      <c r="O211">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A212" s="4">
+        <v>11039</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C212" s="7">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>220</v>
+      </c>
+      <c r="E212">
+        <v>90000</v>
+      </c>
+      <c r="F212">
+        <v>30000</v>
+      </c>
+      <c r="G212" s="16">
+        <v>10</v>
+      </c>
+      <c r="H212">
+        <v>450</v>
+      </c>
+      <c r="I212">
+        <v>450</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>160</v>
+      </c>
+      <c r="M212">
+        <v>230</v>
+      </c>
+      <c r="N212">
+        <v>90</v>
+      </c>
+      <c r="O212">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A213" s="4">
+        <v>11040</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C213" s="7">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>230</v>
+      </c>
+      <c r="E213">
+        <v>93000</v>
+      </c>
+      <c r="F213">
+        <v>30000</v>
+      </c>
+      <c r="G213" s="16">
+        <v>10</v>
+      </c>
+      <c r="H213">
+        <v>450</v>
+      </c>
+      <c r="I213">
+        <v>450</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>160</v>
+      </c>
+      <c r="M213">
+        <v>230</v>
+      </c>
+      <c r="N213">
+        <v>90</v>
+      </c>
+      <c r="O213">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A214" s="4">
+        <v>11041</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C214" s="7">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>200</v>
+      </c>
+      <c r="E214">
+        <v>96000</v>
+      </c>
+      <c r="F214">
+        <v>30000</v>
+      </c>
+      <c r="G214" s="16">
+        <v>10</v>
+      </c>
+      <c r="H214">
+        <v>450</v>
+      </c>
+      <c r="I214">
+        <v>450</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>160</v>
+      </c>
+      <c r="M214">
+        <v>230</v>
+      </c>
+      <c r="N214">
+        <v>90</v>
+      </c>
+      <c r="O214">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A215" s="4">
+        <v>11042</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C215" s="7">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>700</v>
+      </c>
+      <c r="E215">
+        <v>2500000</v>
+      </c>
+      <c r="F215">
+        <v>300000</v>
+      </c>
+      <c r="G215" s="16">
+        <v>10</v>
+      </c>
+      <c r="H215">
+        <v>1500</v>
+      </c>
+      <c r="I215">
+        <v>1500</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>300</v>
+      </c>
+      <c r="M215">
+        <v>400</v>
+      </c>
+      <c r="N215">
+        <v>200</v>
+      </c>
+      <c r="O215">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A216" s="4">
+        <v>11043</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C216" s="7">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>200</v>
+      </c>
+      <c r="E216">
+        <v>230000</v>
+      </c>
+      <c r="F216">
+        <v>40000</v>
+      </c>
+      <c r="G216" s="16">
+        <v>10</v>
+      </c>
+      <c r="H216">
+        <v>450</v>
+      </c>
+      <c r="I216">
+        <v>450</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>210</v>
+      </c>
+      <c r="M216">
+        <v>260</v>
+      </c>
+      <c r="N216">
+        <v>90</v>
+      </c>
+      <c r="O216">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A217" s="4">
+        <v>11044</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C217" s="7">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>200</v>
+      </c>
+      <c r="E217">
+        <v>230000</v>
+      </c>
+      <c r="F217">
+        <v>40000</v>
+      </c>
+      <c r="G217" s="16">
+        <v>10</v>
+      </c>
+      <c r="H217">
+        <v>450</v>
+      </c>
+      <c r="I217">
+        <v>450</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>210</v>
+      </c>
+      <c r="M217">
+        <v>260</v>
+      </c>
+      <c r="N217">
+        <v>90</v>
+      </c>
+      <c r="O217">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A218" s="4">
+        <v>11045</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C218" s="7">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>700</v>
+      </c>
+      <c r="E218">
+        <v>3500000</v>
+      </c>
+      <c r="F218">
+        <v>300000</v>
+      </c>
+      <c r="G218" s="16">
+        <v>10</v>
+      </c>
+      <c r="H218">
+        <v>1500</v>
+      </c>
+      <c r="I218">
+        <v>1500</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>300</v>
+      </c>
+      <c r="M218">
+        <v>400</v>
+      </c>
+      <c r="N218">
+        <v>200</v>
+      </c>
+      <c r="O218">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A219" s="4">
+        <v>11046</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C219" s="7">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>250</v>
+      </c>
+      <c r="E219">
+        <v>250000</v>
+      </c>
+      <c r="F219">
+        <v>40000</v>
+      </c>
+      <c r="G219" s="16">
+        <v>10</v>
+      </c>
+      <c r="H219">
+        <v>450</v>
+      </c>
+      <c r="I219">
+        <v>450</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>210</v>
+      </c>
+      <c r="M219">
+        <v>260</v>
+      </c>
+      <c r="N219">
+        <v>100</v>
+      </c>
+      <c r="O219">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A220" s="4">
+        <v>11047</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C220" s="7">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>250</v>
+      </c>
+      <c r="E220">
+        <v>230000</v>
+      </c>
+      <c r="F220">
+        <v>40000</v>
+      </c>
+      <c r="G220" s="16">
+        <v>10</v>
+      </c>
+      <c r="H220">
+        <v>450</v>
+      </c>
+      <c r="I220">
+        <v>450</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>210</v>
+      </c>
+      <c r="M220">
+        <v>260</v>
+      </c>
+      <c r="N220">
+        <v>100</v>
+      </c>
+      <c r="O220">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A221" s="4">
+        <v>11048</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C221" s="7">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>250</v>
+      </c>
+      <c r="E221">
+        <v>200000</v>
+      </c>
+      <c r="F221">
+        <v>40000</v>
+      </c>
+      <c r="G221" s="16">
+        <v>10</v>
+      </c>
+      <c r="H221">
+        <v>450</v>
+      </c>
+      <c r="I221">
+        <v>450</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>210</v>
+      </c>
+      <c r="M221">
+        <v>260</v>
+      </c>
+      <c r="N221">
+        <v>100</v>
+      </c>
+      <c r="O221">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A222" s="4">
+        <v>11049</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C222" s="7">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>250</v>
+      </c>
+      <c r="E222">
+        <v>250000</v>
+      </c>
+      <c r="F222">
+        <v>40000</v>
+      </c>
+      <c r="G222" s="16">
+        <v>10</v>
+      </c>
+      <c r="H222">
+        <v>450</v>
+      </c>
+      <c r="I222">
+        <v>450</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>210</v>
+      </c>
+      <c r="M222">
+        <v>260</v>
+      </c>
+      <c r="N222">
+        <v>100</v>
+      </c>
+      <c r="O222">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A223" s="4">
+        <v>11050</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C223" s="7">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>250</v>
+      </c>
+      <c r="E223">
+        <v>250000</v>
+      </c>
+      <c r="F223">
+        <v>40000</v>
+      </c>
+      <c r="G223" s="16">
+        <v>10</v>
+      </c>
+      <c r="H223">
+        <v>400</v>
+      </c>
+      <c r="I223">
+        <v>400</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>210</v>
+      </c>
+      <c r="M223">
+        <v>260</v>
+      </c>
+      <c r="N223">
+        <v>100</v>
+      </c>
+      <c r="O223">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A224" s="4">
+        <v>11051</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C224" s="7">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>200</v>
+      </c>
+      <c r="E224">
+        <v>230000</v>
+      </c>
+      <c r="F224">
+        <v>40000</v>
+      </c>
+      <c r="G224" s="16">
+        <v>10</v>
+      </c>
+      <c r="H224">
+        <v>400</v>
+      </c>
+      <c r="I224">
+        <v>400</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>210</v>
+      </c>
+      <c r="M224">
+        <v>260</v>
+      </c>
+      <c r="N224">
+        <v>100</v>
+      </c>
+      <c r="O224">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A225" s="4">
+        <v>11052</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C225" s="7">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>300</v>
+      </c>
+      <c r="E225">
+        <v>300000</v>
+      </c>
+      <c r="F225">
+        <v>60000</v>
+      </c>
+      <c r="G225" s="16">
+        <v>10</v>
+      </c>
+      <c r="H225">
+        <v>500</v>
+      </c>
+      <c r="I225">
+        <v>500</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>320</v>
+      </c>
+      <c r="M225">
+        <v>320</v>
+      </c>
+      <c r="N225">
+        <v>120</v>
+      </c>
+      <c r="O225">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A226" s="4">
+        <v>11053</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C226" s="7">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>300</v>
+      </c>
+      <c r="E226">
+        <v>300000</v>
+      </c>
+      <c r="F226">
+        <v>60000</v>
+      </c>
+      <c r="G226" s="16">
+        <v>10</v>
+      </c>
+      <c r="H226">
+        <v>500</v>
+      </c>
+      <c r="I226">
+        <v>500</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>320</v>
+      </c>
+      <c r="M226">
+        <v>320</v>
+      </c>
+      <c r="N226">
+        <v>120</v>
+      </c>
+      <c r="O226">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A227" s="4">
+        <v>11054</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C227" s="7">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>300</v>
+      </c>
+      <c r="E227">
+        <v>300000</v>
+      </c>
+      <c r="F227">
+        <v>60000</v>
+      </c>
+      <c r="G227" s="16">
+        <v>10</v>
+      </c>
+      <c r="H227">
+        <v>500</v>
+      </c>
+      <c r="I227">
+        <v>500</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>320</v>
+      </c>
+      <c r="M227">
+        <v>320</v>
+      </c>
+      <c r="N227">
+        <v>120</v>
+      </c>
+      <c r="O227">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A228" s="4">
+        <v>11055</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C228" s="7">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>300</v>
+      </c>
+      <c r="E228">
+        <v>300000</v>
+      </c>
+      <c r="F228">
+        <v>60000</v>
+      </c>
+      <c r="G228" s="16">
+        <v>10</v>
+      </c>
+      <c r="H228">
+        <v>500</v>
+      </c>
+      <c r="I228">
+        <v>500</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228"/>
+      <c r="L228">
+        <v>320</v>
+      </c>
+      <c r="M228">
+        <v>320</v>
+      </c>
+      <c r="N228">
+        <v>120</v>
+      </c>
+      <c r="O228">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A229" s="4">
+        <v>11056</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C229" s="7">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>200</v>
+      </c>
+      <c r="E229">
+        <v>300000</v>
+      </c>
+      <c r="F229">
+        <v>120000</v>
+      </c>
+      <c r="G229" s="16">
+        <v>10</v>
+      </c>
+      <c r="H229">
+        <v>500</v>
+      </c>
+      <c r="I229">
+        <v>500</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229"/>
+      <c r="L229">
+        <v>400</v>
+      </c>
+      <c r="M229">
+        <v>420</v>
+      </c>
+      <c r="N229">
+        <v>150</v>
+      </c>
+      <c r="O229">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A230" s="4">
+        <v>11057</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C230" s="7">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>200</v>
+      </c>
+      <c r="E230">
+        <v>300000</v>
+      </c>
+      <c r="F230">
+        <v>120000</v>
+      </c>
+      <c r="G230" s="16">
+        <v>10</v>
+      </c>
+      <c r="H230">
+        <v>500</v>
+      </c>
+      <c r="I230">
+        <v>500</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230"/>
+      <c r="L230">
+        <v>400</v>
+      </c>
+      <c r="M230">
+        <v>420</v>
+      </c>
+      <c r="N230">
+        <v>150</v>
+      </c>
+      <c r="O230">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A231" s="4">
+        <v>11058</v>
+      </c>
+      <c r="B231" t="s">
+        <v>177</v>
+      </c>
+      <c r="C231" s="7">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>200</v>
+      </c>
+      <c r="E231">
+        <v>400000</v>
+      </c>
+      <c r="F231">
+        <v>150000</v>
+      </c>
+      <c r="G231" s="16">
+        <v>10</v>
+      </c>
+      <c r="H231">
+        <v>500</v>
+      </c>
+      <c r="I231">
+        <v>500</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231"/>
+      <c r="L231">
+        <v>400</v>
+      </c>
+      <c r="M231">
+        <v>420</v>
+      </c>
+      <c r="N231">
+        <v>150</v>
+      </c>
+      <c r="O231">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A232" s="4">
+        <v>11059</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C232" s="7">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>200</v>
+      </c>
+      <c r="E232">
+        <v>300000</v>
+      </c>
+      <c r="F232">
+        <v>120000</v>
+      </c>
+      <c r="G232" s="16">
+        <v>10</v>
+      </c>
+      <c r="H232">
+        <v>500</v>
+      </c>
+      <c r="I232">
+        <v>500</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232"/>
+      <c r="L232">
+        <v>400</v>
+      </c>
+      <c r="M232">
+        <v>420</v>
+      </c>
+      <c r="N232">
+        <v>150</v>
+      </c>
+      <c r="O232">
+        <v>1800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:O137">
-    <cfRule type="expression" dxfId="1" priority="73">
-      <formula>A1=0</formula>
+  <conditionalFormatting sqref="H1:O1000">
+    <cfRule type="expression" dxfId="10" priority="73">
+      <formula>H1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
@@ -11370,7 +12791,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -12322,16 +13743,16 @@
         <v>100</v>
       </c>
       <c r="H20">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I20">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J20">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L20">
         <v>20</v>
@@ -12370,19 +13791,19 @@
         <v>100</v>
       </c>
       <c r="H21">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I21">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J21">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K21">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M21">
         <v>24</v>
@@ -12421,7 +13842,7 @@
         <v>70</v>
       </c>
       <c r="I22">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="J22">
         <v>70</v>
@@ -13552,7 +14973,7 @@
         <v>262</v>
       </c>
       <c r="C46" s="7">
-        <v>10137</v>
+        <v>20045</v>
       </c>
       <c r="D46" s="16">
         <v>60</v>
@@ -13600,7 +15021,7 @@
         <v>263</v>
       </c>
       <c r="C47" s="7">
-        <v>10138</v>
+        <v>20046</v>
       </c>
       <c r="D47" s="16">
         <v>60</v>
@@ -13643,32 +15064,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I40:I41 H48:M1048576 H41 O41 H33:I39 L33:M39 H42:I45 L42:O45 L40:N41 H1:M32">
-    <cfRule type="expression" dxfId="32" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>H1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:K45 J33:K39">
-    <cfRule type="expression" dxfId="31" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>J33=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>K40=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:K41">
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>J41=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42:K43">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>J42=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:M47">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>H46=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="-60" windowWidth="13185" windowHeight="9420"/>
+    <workbookView xWindow="-150" yWindow="-30" windowWidth="13185" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="1" r:id="rId1"/>
@@ -1129,27 +1129,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -1526,9 +1506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O142" sqref="O142"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J151" sqref="J151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3690,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="J45" s="16">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K45" s="16">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L45" s="16">
         <v>0</v>
@@ -3738,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="J46" s="16">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K46" s="16">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="L46" s="16">
         <v>3</v>
@@ -3834,10 +3814,10 @@
         <v>0</v>
       </c>
       <c r="J48" s="16">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K48" s="16">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="L48" s="16">
         <v>15</v>
@@ -3924,10 +3904,10 @@
         <v>10</v>
       </c>
       <c r="H50" s="16">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I50" s="16">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J50" s="16">
         <v>0</v>
@@ -4020,10 +4000,10 @@
         <v>10</v>
       </c>
       <c r="H52" s="16">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I52" s="16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J52" s="16">
         <v>0</v>
@@ -4074,10 +4054,10 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K53">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="L53" s="16">
         <v>10</v>
@@ -4116,10 +4096,10 @@
         <v>10</v>
       </c>
       <c r="H54">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I54">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="J54" s="16">
         <v>0</v>
@@ -4164,10 +4144,10 @@
         <v>10</v>
       </c>
       <c r="H55">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I55">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J55" s="16">
         <v>0</v>
@@ -4218,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K56">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L56" s="16">
         <v>9</v>
@@ -4260,10 +4240,10 @@
         <v>10</v>
       </c>
       <c r="H57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I57">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="J57" s="16">
         <v>0</v>
@@ -4314,10 +4294,10 @@
         <v>0</v>
       </c>
       <c r="J58" s="16">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K58" s="17">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="L58" s="16">
         <v>9</v>
@@ -4356,10 +4336,10 @@
         <v>10</v>
       </c>
       <c r="H59">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I59">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="J59" s="16">
         <v>0</v>
@@ -4404,10 +4384,10 @@
         <v>10</v>
       </c>
       <c r="H60">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I60">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="J60" s="16">
         <v>0</v>
@@ -4458,10 +4438,10 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="K61">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L61" s="16">
         <v>10</v>
@@ -4500,10 +4480,10 @@
         <v>10</v>
       </c>
       <c r="H62">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I62">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J62" s="16">
         <v>0</v>
@@ -4554,10 +4534,10 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K63">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="L63" s="16">
         <v>3</v>
@@ -4596,10 +4576,10 @@
         <v>10</v>
       </c>
       <c r="H64">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I64">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J64" s="16">
         <v>0</v>
@@ -4644,10 +4624,10 @@
         <v>10</v>
       </c>
       <c r="H65">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I65">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J65" s="16">
         <v>0</v>
@@ -4692,10 +4672,10 @@
         <v>10</v>
       </c>
       <c r="H66">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I66">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J66" s="16">
         <v>0</v>
@@ -4746,10 +4726,10 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K67">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="L67" s="16">
         <v>20</v>
@@ -4788,16 +4768,16 @@
         <v>10</v>
       </c>
       <c r="H68">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J68" s="16">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K68" s="17">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L68" s="16">
         <v>5</v>
@@ -4836,10 +4816,10 @@
         <v>10</v>
       </c>
       <c r="H69">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I69">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="J69" s="16">
         <v>0</v>
@@ -4884,10 +4864,10 @@
         <v>10</v>
       </c>
       <c r="H70">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I70">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J70" s="16">
         <v>0</v>
@@ -4932,10 +4912,10 @@
         <v>10</v>
       </c>
       <c r="H71">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I71">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="J71" s="16">
         <v>0</v>
@@ -4980,10 +4960,10 @@
         <v>10</v>
       </c>
       <c r="H72">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I72">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J72" s="16">
         <v>0</v>
@@ -5034,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K73">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="L73" s="16">
         <v>9</v>
@@ -5082,10 +5062,10 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K74">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="L74" s="16">
         <v>10</v>
@@ -5130,10 +5110,10 @@
         <v>0</v>
       </c>
       <c r="J75" s="16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K75" s="16">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="L75" s="16">
         <v>0</v>
@@ -5229,7 +5209,7 @@
         <v>33</v>
       </c>
       <c r="K77" s="16">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L77" s="16">
         <v>12</v>
@@ -5316,10 +5296,10 @@
         <v>10</v>
       </c>
       <c r="H79" s="16">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I79" s="16">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="J79" s="16">
         <v>0</v>
@@ -5364,10 +5344,10 @@
         <v>10</v>
       </c>
       <c r="H80" s="16">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I80" s="16">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="J80" s="16">
         <v>0</v>
@@ -5460,10 +5440,10 @@
         <v>10</v>
       </c>
       <c r="H82" s="16">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I82" s="16">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="J82" s="16">
         <v>0</v>
@@ -5514,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="J83" s="16">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K83" s="16">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="L83" s="16">
         <v>8</v>
@@ -5562,10 +5542,10 @@
         <v>0</v>
       </c>
       <c r="J84" s="16">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="K84" s="16">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L84" s="16">
         <v>15</v>
@@ -5847,7 +5827,7 @@
         <v>50</v>
       </c>
       <c r="I90">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J90" s="16">
         <v>0</v>
@@ -5901,7 +5881,7 @@
         <v>20</v>
       </c>
       <c r="K91">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="L91" s="16">
         <v>10</v>
@@ -5949,7 +5929,7 @@
         <v>30</v>
       </c>
       <c r="K92">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L92" s="16">
         <v>10</v>
@@ -5996,20 +5976,20 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <f>INT($D93*1.7)</f>
-        <v>117</v>
+        <f>INT($D93*1.1)</f>
+        <v>75</v>
       </c>
       <c r="K93">
-        <f>INT($D93*2.4)</f>
-        <v>165</v>
+        <f>INT($D93*1.8)</f>
+        <v>124</v>
       </c>
       <c r="L93">
-        <f t="shared" ref="L93:L114" si="5">INT(D93/2)</f>
-        <v>34</v>
+        <f>INT(D93/3)</f>
+        <v>23</v>
       </c>
       <c r="M93">
-        <f t="shared" ref="M93:M114" si="6">INT(D93/2)</f>
-        <v>34</v>
+        <f>INT(D93/2.8)</f>
+        <v>24</v>
       </c>
       <c r="N93">
         <v>22</v>
@@ -6034,7 +6014,7 @@
         <v>65</v>
       </c>
       <c r="E94">
-        <f t="shared" ref="E94:E137" si="7">D94*30</f>
+        <f t="shared" ref="E94:E137" si="5">D94*30</f>
         <v>1950</v>
       </c>
       <c r="F94">
@@ -6045,12 +6025,12 @@
         <v>10</v>
       </c>
       <c r="H94">
-        <f>INT($D94*1.7)</f>
-        <v>110</v>
+        <f>INT($D94*1.05)</f>
+        <v>68</v>
       </c>
       <c r="I94">
-        <f>INT($D94*2.4)</f>
-        <v>156</v>
+        <f>INT($D94*1.65)</f>
+        <v>107</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -6059,12 +6039,12 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <f t="shared" si="5"/>
-        <v>32</v>
+        <f t="shared" ref="L94:L115" si="6">INT(D94/3)</f>
+        <v>21</v>
       </c>
       <c r="M94">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f t="shared" ref="M94:M115" si="7">INT(D94/2.8)</f>
+        <v>23</v>
       </c>
       <c r="N94">
         <v>24</v>
@@ -6089,7 +6069,7 @@
         <v>74</v>
       </c>
       <c r="E95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2220</v>
       </c>
       <c r="F95">
@@ -6106,20 +6086,20 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <f t="shared" ref="J95:J98" si="8">INT($D95*1.7)</f>
-        <v>125</v>
+        <f>INT($D95*1.05)</f>
+        <v>77</v>
       </c>
       <c r="K95">
-        <f t="shared" ref="K95:K98" si="9">INT($D95*2.4)</f>
-        <v>177</v>
+        <f>INT($D95*1.65)</f>
+        <v>122</v>
       </c>
       <c r="L95">
-        <f t="shared" si="5"/>
-        <v>37</v>
+        <f t="shared" si="6"/>
+        <v>24</v>
       </c>
       <c r="M95">
-        <f t="shared" si="6"/>
-        <v>37</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="N95">
         <v>24</v>
@@ -6144,7 +6124,7 @@
         <v>73</v>
       </c>
       <c r="E96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2190</v>
       </c>
       <c r="F96">
@@ -6161,20 +6141,20 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <f t="shared" si="8"/>
-        <v>124</v>
+        <f>INT($D96*1.05)</f>
+        <v>76</v>
       </c>
       <c r="K96">
-        <f t="shared" si="9"/>
-        <v>175</v>
+        <f>INT($D96*1.65)</f>
+        <v>120</v>
       </c>
       <c r="L96">
-        <f t="shared" si="5"/>
-        <v>36</v>
+        <f t="shared" si="6"/>
+        <v>24</v>
       </c>
       <c r="M96">
-        <f t="shared" si="6"/>
-        <v>36</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="N96">
         <v>20</v>
@@ -6199,7 +6179,7 @@
         <v>72</v>
       </c>
       <c r="E97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2160</v>
       </c>
       <c r="F97">
@@ -6216,20 +6196,20 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <f t="shared" si="8"/>
-        <v>122</v>
+        <f>INT($D97*1.05)</f>
+        <v>75</v>
       </c>
       <c r="K97">
-        <f t="shared" si="9"/>
-        <v>172</v>
+        <f>INT($D97*1.65)</f>
+        <v>118</v>
       </c>
       <c r="L97">
-        <f t="shared" si="5"/>
-        <v>36</v>
+        <f t="shared" si="6"/>
+        <v>24</v>
       </c>
       <c r="M97">
-        <f t="shared" si="6"/>
-        <v>36</v>
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
       <c r="N97">
         <v>20</v>
@@ -6254,7 +6234,7 @@
         <v>65</v>
       </c>
       <c r="E98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1950</v>
       </c>
       <c r="F98">
@@ -6271,20 +6251,20 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <f t="shared" si="8"/>
-        <v>110</v>
+        <f>INT($D98*1.05)</f>
+        <v>68</v>
       </c>
       <c r="K98">
-        <f t="shared" si="9"/>
-        <v>156</v>
+        <f>INT($D98*1.65)</f>
+        <v>107</v>
       </c>
       <c r="L98">
-        <f t="shared" si="5"/>
-        <v>32</v>
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
       <c r="M98">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>23</v>
       </c>
       <c r="N98">
         <v>20</v>
@@ -6309,7 +6289,7 @@
         <v>70</v>
       </c>
       <c r="E99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2100</v>
       </c>
       <c r="F99">
@@ -6320,12 +6300,12 @@
         <v>10</v>
       </c>
       <c r="H99">
-        <f>INT($D99*1.7)</f>
-        <v>119</v>
+        <f>INT($D99*1.05)</f>
+        <v>73</v>
       </c>
       <c r="I99">
-        <f>INT($D99*2.4)</f>
-        <v>168</v>
+        <f>INT($D99*1.65)</f>
+        <v>115</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -6334,12 +6314,12 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <f t="shared" si="5"/>
-        <v>35</v>
+        <f t="shared" si="6"/>
+        <v>23</v>
       </c>
       <c r="M99">
-        <f t="shared" si="6"/>
-        <v>35</v>
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
       <c r="N99">
         <v>20</v>
@@ -6364,7 +6344,7 @@
         <v>69</v>
       </c>
       <c r="E100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2070</v>
       </c>
       <c r="F100">
@@ -6375,12 +6355,12 @@
         <v>10</v>
       </c>
       <c r="H100">
-        <f t="shared" ref="H100:J104" si="10">INT($D100*1.7)</f>
-        <v>117</v>
+        <f>INT($D100*1.05)</f>
+        <v>72</v>
       </c>
       <c r="I100">
-        <f t="shared" ref="I100:K104" si="11">INT($D100*2.4)</f>
-        <v>165</v>
+        <f>INT($D100*1.65)</f>
+        <v>113</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -6389,12 +6369,12 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <f t="shared" si="5"/>
-        <v>34</v>
+        <f t="shared" si="6"/>
+        <v>23</v>
       </c>
       <c r="M100">
-        <f t="shared" si="6"/>
-        <v>34</v>
+        <f t="shared" si="7"/>
+        <v>24</v>
       </c>
       <c r="N100">
         <v>20</v>
@@ -6419,7 +6399,7 @@
         <v>69</v>
       </c>
       <c r="E101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2070</v>
       </c>
       <c r="F101">
@@ -6430,12 +6410,12 @@
         <v>10</v>
       </c>
       <c r="H101">
-        <f t="shared" si="10"/>
-        <v>117</v>
+        <f>INT($D101*1.05)</f>
+        <v>72</v>
       </c>
       <c r="I101">
-        <f t="shared" si="11"/>
-        <v>165</v>
+        <f>INT($D101*1.65)</f>
+        <v>113</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -6444,12 +6424,12 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <f t="shared" si="5"/>
-        <v>34</v>
+        <f t="shared" si="6"/>
+        <v>23</v>
       </c>
       <c r="M101">
-        <f t="shared" si="6"/>
-        <v>34</v>
+        <f t="shared" si="7"/>
+        <v>24</v>
       </c>
       <c r="N101">
         <v>20</v>
@@ -6474,7 +6454,7 @@
         <v>74</v>
       </c>
       <c r="E102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2220</v>
       </c>
       <c r="F102">
@@ -6491,20 +6471,20 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <f t="shared" si="10"/>
-        <v>125</v>
+        <f>INT($D102*1.05)</f>
+        <v>77</v>
       </c>
       <c r="K102">
-        <f t="shared" si="11"/>
-        <v>177</v>
+        <f>INT($D102*1.65)</f>
+        <v>122</v>
       </c>
       <c r="L102">
-        <f t="shared" si="5"/>
-        <v>37</v>
+        <f t="shared" si="6"/>
+        <v>24</v>
       </c>
       <c r="M102">
-        <f t="shared" si="6"/>
-        <v>37</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="N102">
         <v>20</v>
@@ -6529,7 +6509,7 @@
         <v>76</v>
       </c>
       <c r="E103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2280</v>
       </c>
       <c r="F103">
@@ -6540,12 +6520,12 @@
         <v>10</v>
       </c>
       <c r="H103">
-        <f t="shared" si="10"/>
-        <v>129</v>
+        <f>INT($D103*1.05)</f>
+        <v>79</v>
       </c>
       <c r="I103">
-        <f t="shared" si="11"/>
-        <v>182</v>
+        <f>INT($D103*1.65)</f>
+        <v>125</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -6554,12 +6534,12 @@
         <v>0</v>
       </c>
       <c r="L103">
-        <f t="shared" si="5"/>
-        <v>38</v>
+        <f t="shared" si="6"/>
+        <v>25</v>
       </c>
       <c r="M103">
-        <f t="shared" si="6"/>
-        <v>38</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
       <c r="N103">
         <v>20</v>
@@ -6584,7 +6564,7 @@
         <v>76</v>
       </c>
       <c r="E104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2280</v>
       </c>
       <c r="F104">
@@ -6595,12 +6575,12 @@
         <v>10</v>
       </c>
       <c r="H104">
-        <f t="shared" si="10"/>
-        <v>129</v>
+        <f>INT($D104*1.05)</f>
+        <v>79</v>
       </c>
       <c r="I104">
-        <f t="shared" si="11"/>
-        <v>182</v>
+        <f>INT($D104*1.65)</f>
+        <v>125</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -6609,12 +6589,12 @@
         <v>0</v>
       </c>
       <c r="L104">
-        <f t="shared" si="5"/>
-        <v>38</v>
+        <f t="shared" si="6"/>
+        <v>25</v>
       </c>
       <c r="M104">
-        <f t="shared" si="6"/>
-        <v>38</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
       <c r="N104">
         <v>20</v>
@@ -6639,7 +6619,7 @@
         <v>78</v>
       </c>
       <c r="E105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2340</v>
       </c>
       <c r="F105">
@@ -6656,20 +6636,20 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <f>INT($D105*1.8)</f>
-        <v>140</v>
+        <f>INT($D105*1.05)</f>
+        <v>81</v>
       </c>
       <c r="K105">
-        <f>INT($D105*2.6)</f>
-        <v>202</v>
+        <f>INT($D105*1.65)</f>
+        <v>128</v>
       </c>
       <c r="L105">
-        <f t="shared" si="5"/>
-        <v>39</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="M105">
-        <f t="shared" si="6"/>
-        <v>39</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
       <c r="N105">
         <v>20</v>
@@ -6694,7 +6674,7 @@
         <v>76</v>
       </c>
       <c r="E106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2280</v>
       </c>
       <c r="F106">
@@ -6711,20 +6691,20 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <f>INT($D106*1.8)</f>
-        <v>136</v>
+        <f>INT($D106*1.05)</f>
+        <v>79</v>
       </c>
       <c r="K106">
-        <f>INT($D106*2.6)</f>
-        <v>197</v>
+        <f>INT($D106*1.65)</f>
+        <v>125</v>
       </c>
       <c r="L106">
-        <f t="shared" si="5"/>
-        <v>38</v>
+        <f t="shared" si="6"/>
+        <v>25</v>
       </c>
       <c r="M106">
-        <f t="shared" si="6"/>
-        <v>38</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
       <c r="N106">
         <v>20</v>
@@ -6749,7 +6729,7 @@
         <v>79</v>
       </c>
       <c r="E107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2370</v>
       </c>
       <c r="F107">
@@ -6760,12 +6740,12 @@
         <v>10</v>
       </c>
       <c r="H107">
-        <f>INT($D107*1.8)</f>
-        <v>142</v>
+        <f>INT($D107*1.05)</f>
+        <v>82</v>
       </c>
       <c r="I107">
-        <f>INT($D107*2.6)</f>
-        <v>205</v>
+        <f>INT($D107*1.65)</f>
+        <v>130</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -6774,12 +6754,12 @@
         <v>0</v>
       </c>
       <c r="L107">
-        <f t="shared" si="5"/>
-        <v>39</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="M107">
-        <f t="shared" si="6"/>
-        <v>39</v>
+        <f t="shared" si="7"/>
+        <v>28</v>
       </c>
       <c r="N107">
         <v>20</v>
@@ -6804,7 +6784,7 @@
         <v>84</v>
       </c>
       <c r="E108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2520</v>
       </c>
       <c r="F108">
@@ -6821,20 +6801,20 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <f>INT($D108*1.8)</f>
-        <v>151</v>
+        <f>INT($D108*1.1)</f>
+        <v>92</v>
       </c>
       <c r="K108">
-        <f>INT($D108*2.6)</f>
-        <v>218</v>
+        <f>INT($D108*1.7)</f>
+        <v>142</v>
       </c>
       <c r="L108">
-        <f t="shared" si="5"/>
-        <v>42</v>
+        <f t="shared" si="6"/>
+        <v>28</v>
       </c>
       <c r="M108">
-        <f t="shared" si="6"/>
-        <v>42</v>
+        <f t="shared" si="7"/>
+        <v>30</v>
       </c>
       <c r="N108">
         <v>20</v>
@@ -6859,7 +6839,7 @@
         <v>83</v>
       </c>
       <c r="E109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2490</v>
       </c>
       <c r="F109">
@@ -6876,20 +6856,20 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <f>INT($D109*1.8)</f>
-        <v>149</v>
+        <f>INT($D109*1.1)</f>
+        <v>91</v>
       </c>
       <c r="K109">
-        <f>INT($D109*2.6)</f>
-        <v>215</v>
+        <f>INT($D109*1.7)</f>
+        <v>141</v>
       </c>
       <c r="L109">
-        <f t="shared" si="5"/>
-        <v>41</v>
+        <f t="shared" si="6"/>
+        <v>27</v>
       </c>
       <c r="M109">
-        <f t="shared" si="6"/>
-        <v>41</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
       <c r="N109">
         <v>20</v>
@@ -6914,7 +6894,7 @@
         <v>83</v>
       </c>
       <c r="E110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2490</v>
       </c>
       <c r="F110">
@@ -6925,12 +6905,12 @@
         <v>10</v>
       </c>
       <c r="H110">
-        <f>INT($D110*1.8)</f>
-        <v>149</v>
+        <f>INT($D110*1.1)</f>
+        <v>91</v>
       </c>
       <c r="I110">
-        <f>INT($D110*2.6)</f>
-        <v>215</v>
+        <f>INT($D110*1.7)</f>
+        <v>141</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -6939,12 +6919,12 @@
         <v>0</v>
       </c>
       <c r="L110">
-        <f t="shared" si="5"/>
-        <v>41</v>
+        <f t="shared" si="6"/>
+        <v>27</v>
       </c>
       <c r="M110">
-        <f t="shared" si="6"/>
-        <v>41</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
       <c r="N110">
         <v>20</v>
@@ -6962,14 +6942,14 @@
         <v>192</v>
       </c>
       <c r="C111" s="7">
-        <f t="shared" ref="C111:C130" si="12">A111</f>
+        <f t="shared" ref="C111:C130" si="8">A111</f>
         <v>10110</v>
       </c>
       <c r="D111">
         <v>80</v>
       </c>
       <c r="E111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2400</v>
       </c>
       <c r="F111">
@@ -6986,20 +6966,20 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <f>INT($D111*1.8)</f>
-        <v>144</v>
+        <f>INT($D111*1.1)</f>
+        <v>88</v>
       </c>
       <c r="K111">
-        <f>INT($D111*2.6)</f>
-        <v>208</v>
+        <f>INT($D111*1.7)</f>
+        <v>136</v>
       </c>
       <c r="L111">
-        <f t="shared" si="5"/>
-        <v>40</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="M111">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>28</v>
       </c>
       <c r="N111">
         <v>20</v>
@@ -7017,14 +6997,14 @@
         <v>193</v>
       </c>
       <c r="C112" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10111</v>
       </c>
       <c r="D112">
         <v>76</v>
       </c>
       <c r="E112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2280</v>
       </c>
       <c r="F112">
@@ -7041,20 +7021,20 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <f>INT($D112*1.8)</f>
-        <v>136</v>
+        <f>INT($D112*1.1)</f>
+        <v>83</v>
       </c>
       <c r="K112">
-        <f>INT($D112*2.6)</f>
-        <v>197</v>
+        <f>INT($D112*1.7)</f>
+        <v>129</v>
       </c>
       <c r="L112">
-        <f t="shared" si="5"/>
-        <v>38</v>
+        <f t="shared" si="6"/>
+        <v>25</v>
       </c>
       <c r="M112">
-        <f t="shared" si="6"/>
-        <v>38</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
       <c r="N112">
         <v>20</v>
@@ -7072,14 +7052,14 @@
         <v>194</v>
       </c>
       <c r="C113" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10112</v>
       </c>
       <c r="D113">
         <v>78</v>
       </c>
       <c r="E113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2340</v>
       </c>
       <c r="F113">
@@ -7090,12 +7070,12 @@
         <v>10</v>
       </c>
       <c r="H113">
-        <f>INT($D113*1.8)</f>
-        <v>140</v>
+        <f>INT($D113*1.1)</f>
+        <v>85</v>
       </c>
       <c r="I113">
-        <f>INT($D113*2.6)</f>
-        <v>202</v>
+        <f>INT($D113*1.7)</f>
+        <v>132</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -7104,12 +7084,12 @@
         <v>0</v>
       </c>
       <c r="L113">
-        <f t="shared" si="5"/>
-        <v>39</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="M113">
-        <f t="shared" si="6"/>
-        <v>39</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
       <c r="N113">
         <v>20</v>
@@ -7127,14 +7107,14 @@
         <v>195</v>
       </c>
       <c r="C114" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10113</v>
       </c>
       <c r="D114">
         <v>81</v>
       </c>
       <c r="E114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2430</v>
       </c>
       <c r="F114">
@@ -7151,20 +7131,20 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <f>INT($D114*1.8)</f>
-        <v>145</v>
+        <f>INT($D114*1.1)</f>
+        <v>89</v>
       </c>
       <c r="K114">
-        <f>INT($D114*2.6)</f>
-        <v>210</v>
+        <f>INT($D114*1.7)</f>
+        <v>137</v>
       </c>
       <c r="L114">
-        <f t="shared" si="5"/>
-        <v>40</v>
+        <f t="shared" si="6"/>
+        <v>27</v>
       </c>
       <c r="M114">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>28</v>
       </c>
       <c r="N114">
         <v>20</v>
@@ -7182,14 +7162,14 @@
         <v>196</v>
       </c>
       <c r="C115" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10114</v>
       </c>
       <c r="D115">
         <v>94</v>
       </c>
       <c r="E115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2820</v>
       </c>
       <c r="F115">
@@ -7200,12 +7180,12 @@
         <v>10</v>
       </c>
       <c r="H115">
-        <f>INT($D115*1.8)</f>
-        <v>169</v>
+        <f>INT($D115*1.1)</f>
+        <v>103</v>
       </c>
       <c r="I115">
-        <f>INT($D115*2.6)</f>
-        <v>244</v>
+        <f>INT($D115*1.7)</f>
+        <v>159</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -7214,12 +7194,12 @@
         <v>0</v>
       </c>
       <c r="L115">
-        <f>INT(D115/1.7)</f>
-        <v>55</v>
+        <f t="shared" si="6"/>
+        <v>31</v>
       </c>
       <c r="M115">
-        <f>INT(D115/1.7)</f>
-        <v>55</v>
+        <f t="shared" si="7"/>
+        <v>33</v>
       </c>
       <c r="N115">
         <v>20</v>
@@ -7237,14 +7217,14 @@
         <v>197</v>
       </c>
       <c r="C116" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10115</v>
       </c>
       <c r="D116">
         <v>90</v>
       </c>
       <c r="E116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2700</v>
       </c>
       <c r="F116">
@@ -7255,12 +7235,12 @@
         <v>10</v>
       </c>
       <c r="H116">
-        <f>INT($D116*1.8)</f>
-        <v>162</v>
+        <f>INT($D116*1.1)</f>
+        <v>99</v>
       </c>
       <c r="I116">
-        <f>INT($D116*2.6)</f>
-        <v>234</v>
+        <f>INT($D116*1.7)</f>
+        <v>153</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -7269,12 +7249,12 @@
         <v>0</v>
       </c>
       <c r="L116">
-        <f t="shared" ref="L116:L127" si="13">INT(D116/1.7)</f>
-        <v>52</v>
+        <f>INT(D116/3)</f>
+        <v>30</v>
       </c>
       <c r="M116">
-        <f t="shared" ref="M116:M127" si="14">INT(D116/1.7)</f>
-        <v>52</v>
+        <f>INT(D116/2.8)</f>
+        <v>32</v>
       </c>
       <c r="N116">
         <v>20</v>
@@ -7292,14 +7272,14 @@
         <v>198</v>
       </c>
       <c r="C117" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10116</v>
       </c>
       <c r="D117">
         <v>92</v>
       </c>
       <c r="E117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2760</v>
       </c>
       <c r="F117">
@@ -7310,12 +7290,12 @@
         <v>10</v>
       </c>
       <c r="H117">
-        <f>INT($D117*1.8)</f>
-        <v>165</v>
+        <f>INT($D117*1.1)</f>
+        <v>101</v>
       </c>
       <c r="I117">
-        <f>INT($D117*2.6)</f>
-        <v>239</v>
+        <f>INT($D117*1.7)</f>
+        <v>156</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -7324,12 +7304,12 @@
         <v>0</v>
       </c>
       <c r="L117">
-        <f t="shared" si="13"/>
-        <v>54</v>
+        <f t="shared" ref="L117:L126" si="9">INT(D117/3)</f>
+        <v>30</v>
       </c>
       <c r="M117">
-        <f t="shared" si="14"/>
-        <v>54</v>
+        <f t="shared" ref="M117:M126" si="10">INT(D117/2.8)</f>
+        <v>32</v>
       </c>
       <c r="N117">
         <v>20</v>
@@ -7347,14 +7327,14 @@
         <v>199</v>
       </c>
       <c r="C118" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10117</v>
       </c>
       <c r="D118">
         <v>86</v>
       </c>
       <c r="E118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2580</v>
       </c>
       <c r="F118">
@@ -7365,12 +7345,12 @@
         <v>10</v>
       </c>
       <c r="H118">
-        <f>INT($D118*1.8)</f>
-        <v>154</v>
+        <f>INT($D118*1.1)</f>
+        <v>94</v>
       </c>
       <c r="I118">
-        <f>INT($D118*2.6)</f>
-        <v>223</v>
+        <f>INT($D118*1.7)</f>
+        <v>146</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -7379,12 +7359,12 @@
         <v>0</v>
       </c>
       <c r="L118">
-        <f t="shared" si="13"/>
-        <v>50</v>
+        <f t="shared" si="9"/>
+        <v>28</v>
       </c>
       <c r="M118">
-        <f t="shared" si="14"/>
-        <v>50</v>
+        <f t="shared" si="10"/>
+        <v>30</v>
       </c>
       <c r="N118">
         <v>20</v>
@@ -7402,14 +7382,14 @@
         <v>200</v>
       </c>
       <c r="C119" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10118</v>
       </c>
       <c r="D119">
         <v>94</v>
       </c>
       <c r="E119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2820</v>
       </c>
       <c r="F119">
@@ -7426,20 +7406,20 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <f>INT($D119*1.8)</f>
-        <v>169</v>
+        <f>INT($D119*1.1)</f>
+        <v>103</v>
       </c>
       <c r="K119">
-        <f>INT($D119*2.6)</f>
-        <v>244</v>
+        <f>INT($D119*1.7)</f>
+        <v>159</v>
       </c>
       <c r="L119">
-        <f t="shared" si="13"/>
-        <v>55</v>
+        <f t="shared" si="9"/>
+        <v>31</v>
       </c>
       <c r="M119">
-        <f t="shared" si="14"/>
-        <v>55</v>
+        <f t="shared" si="10"/>
+        <v>33</v>
       </c>
       <c r="N119">
         <v>20</v>
@@ -7457,14 +7437,14 @@
         <v>201</v>
       </c>
       <c r="C120" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10119</v>
       </c>
       <c r="D120">
         <v>87</v>
       </c>
       <c r="E120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2610</v>
       </c>
       <c r="F120">
@@ -7475,12 +7455,12 @@
         <v>10</v>
       </c>
       <c r="H120">
-        <f>INT($D120*1.8)</f>
-        <v>156</v>
+        <f>INT($D120*1.1)</f>
+        <v>95</v>
       </c>
       <c r="I120">
-        <f>INT($D120*2.6)</f>
-        <v>226</v>
+        <f>INT($D120*1.7)</f>
+        <v>147</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -7489,12 +7469,12 @@
         <v>0</v>
       </c>
       <c r="L120">
-        <f t="shared" si="13"/>
-        <v>51</v>
+        <f t="shared" si="9"/>
+        <v>29</v>
       </c>
       <c r="M120">
-        <f t="shared" si="14"/>
-        <v>51</v>
+        <f t="shared" si="10"/>
+        <v>31</v>
       </c>
       <c r="N120">
         <v>20</v>
@@ -7512,14 +7492,14 @@
         <v>202</v>
       </c>
       <c r="C121" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10120</v>
       </c>
       <c r="D121">
         <v>85</v>
       </c>
       <c r="E121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2550</v>
       </c>
       <c r="F121">
@@ -7530,12 +7510,12 @@
         <v>10</v>
       </c>
       <c r="H121">
-        <f>INT($D121*1.8)</f>
-        <v>153</v>
+        <f>INT($D121*1.1)</f>
+        <v>93</v>
       </c>
       <c r="I121">
-        <f>INT($D121*2.6)</f>
-        <v>221</v>
+        <f>INT($D121*1.7)</f>
+        <v>144</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -7544,12 +7524,12 @@
         <v>0</v>
       </c>
       <c r="L121">
-        <f t="shared" si="13"/>
-        <v>50</v>
+        <f t="shared" si="9"/>
+        <v>28</v>
       </c>
       <c r="M121">
-        <f t="shared" si="14"/>
-        <v>50</v>
+        <f t="shared" si="10"/>
+        <v>30</v>
       </c>
       <c r="N121">
         <v>20</v>
@@ -7567,14 +7547,14 @@
         <v>203</v>
       </c>
       <c r="C122" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10121</v>
       </c>
       <c r="D122">
         <v>90</v>
       </c>
       <c r="E122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2700</v>
       </c>
       <c r="F122">
@@ -7585,12 +7565,12 @@
         <v>10</v>
       </c>
       <c r="H122">
-        <f>INT($D122*1.8)</f>
-        <v>162</v>
+        <f>INT($D122*1.1)</f>
+        <v>99</v>
       </c>
       <c r="I122">
-        <f>INT($D122*2.6)</f>
-        <v>234</v>
+        <f>INT($D122*1.7)</f>
+        <v>153</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -7599,12 +7579,12 @@
         <v>0</v>
       </c>
       <c r="L122">
-        <f t="shared" si="13"/>
-        <v>52</v>
+        <f t="shared" si="9"/>
+        <v>30</v>
       </c>
       <c r="M122">
-        <f t="shared" si="14"/>
-        <v>52</v>
+        <f t="shared" si="10"/>
+        <v>32</v>
       </c>
       <c r="N122">
         <v>20</v>
@@ -7622,14 +7602,14 @@
         <v>204</v>
       </c>
       <c r="C123" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10122</v>
       </c>
       <c r="D123">
         <v>88</v>
       </c>
       <c r="E123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2640</v>
       </c>
       <c r="F123">
@@ -7640,12 +7620,12 @@
         <v>10</v>
       </c>
       <c r="H123">
-        <f>INT($D123*1.8)</f>
-        <v>158</v>
+        <f>INT($D123*1.1)</f>
+        <v>96</v>
       </c>
       <c r="I123">
-        <f>INT($D123*2.6)</f>
-        <v>228</v>
+        <f>INT($D123*1.7)</f>
+        <v>149</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -7654,12 +7634,12 @@
         <v>0</v>
       </c>
       <c r="L123">
-        <f t="shared" si="13"/>
-        <v>51</v>
+        <f t="shared" si="9"/>
+        <v>29</v>
       </c>
       <c r="M123">
-        <f t="shared" si="14"/>
-        <v>51</v>
+        <f t="shared" si="10"/>
+        <v>31</v>
       </c>
       <c r="N123">
         <v>20</v>
@@ -7677,14 +7657,14 @@
         <v>205</v>
       </c>
       <c r="C124" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10123</v>
       </c>
       <c r="D124">
         <v>86</v>
       </c>
       <c r="E124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2580</v>
       </c>
       <c r="F124">
@@ -7701,20 +7681,20 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <f>INT($D124*1.8)</f>
-        <v>154</v>
+        <f>INT($D124*1.1)</f>
+        <v>94</v>
       </c>
       <c r="K124">
-        <f>INT($D124*2.6)</f>
-        <v>223</v>
+        <f>INT($D124*1.7)</f>
+        <v>146</v>
       </c>
       <c r="L124">
-        <f t="shared" si="13"/>
-        <v>50</v>
+        <f t="shared" si="9"/>
+        <v>28</v>
       </c>
       <c r="M124">
-        <f t="shared" si="14"/>
-        <v>50</v>
+        <f t="shared" si="10"/>
+        <v>30</v>
       </c>
       <c r="N124">
         <v>20</v>
@@ -7732,14 +7712,14 @@
         <v>206</v>
       </c>
       <c r="C125" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10124</v>
       </c>
       <c r="D125">
         <v>92</v>
       </c>
       <c r="E125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2760</v>
       </c>
       <c r="F125">
@@ -7756,20 +7736,20 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <f>INT($D125*1.8)</f>
-        <v>165</v>
+        <f>INT($D125*1.1)</f>
+        <v>101</v>
       </c>
       <c r="K125">
-        <f>INT($D125*2.6)</f>
-        <v>239</v>
+        <f>INT($D125*1.7)</f>
+        <v>156</v>
       </c>
       <c r="L125">
-        <f t="shared" si="13"/>
-        <v>54</v>
+        <f t="shared" si="9"/>
+        <v>30</v>
       </c>
       <c r="M125">
-        <f t="shared" si="14"/>
-        <v>54</v>
+        <f t="shared" si="10"/>
+        <v>32</v>
       </c>
       <c r="N125">
         <v>20</v>
@@ -7787,14 +7767,14 @@
         <v>207</v>
       </c>
       <c r="C126" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10125</v>
       </c>
       <c r="D126">
         <v>89</v>
       </c>
       <c r="E126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2670</v>
       </c>
       <c r="F126">
@@ -7811,20 +7791,20 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <f>INT($D126*1.8)</f>
-        <v>160</v>
+        <f>INT($D126*1.1)</f>
+        <v>97</v>
       </c>
       <c r="K126">
-        <f>INT($D126*2.6)</f>
-        <v>231</v>
+        <f>INT($D126*1.7)</f>
+        <v>151</v>
       </c>
       <c r="L126">
-        <f t="shared" si="13"/>
-        <v>52</v>
+        <f t="shared" si="9"/>
+        <v>29</v>
       </c>
       <c r="M126">
-        <f t="shared" si="14"/>
-        <v>52</v>
+        <f t="shared" si="10"/>
+        <v>31</v>
       </c>
       <c r="N126">
         <v>20</v>
@@ -7842,14 +7822,14 @@
         <v>208</v>
       </c>
       <c r="C127" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10126</v>
       </c>
       <c r="D127">
         <v>94</v>
       </c>
       <c r="E127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2820</v>
       </c>
       <c r="F127">
@@ -7860,12 +7840,12 @@
         <v>10</v>
       </c>
       <c r="H127">
-        <f>INT($D127*1.8)</f>
-        <v>169</v>
+        <f>INT($D127*1.1)</f>
+        <v>103</v>
       </c>
       <c r="I127">
-        <f>INT($D127*2.6)</f>
-        <v>244</v>
+        <f>INT($D127*1.7)</f>
+        <v>159</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -7874,12 +7854,12 @@
         <v>0</v>
       </c>
       <c r="L127">
-        <f t="shared" si="13"/>
-        <v>55</v>
+        <f>INT(D127/3)</f>
+        <v>31</v>
       </c>
       <c r="M127">
-        <f t="shared" si="14"/>
-        <v>55</v>
+        <f>INT(D127/2.8)</f>
+        <v>33</v>
       </c>
       <c r="N127">
         <v>20</v>
@@ -7897,14 +7877,14 @@
         <v>209</v>
       </c>
       <c r="C128" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10127</v>
       </c>
       <c r="D128">
         <v>98</v>
       </c>
       <c r="E128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2940</v>
       </c>
       <c r="F128">
@@ -7921,20 +7901,20 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <f>INT($D128*2)</f>
-        <v>196</v>
+        <f>INT($D128*1.15)</f>
+        <v>112</v>
       </c>
       <c r="K128">
-        <f>INT($D128*3)</f>
-        <v>294</v>
+        <f>INT($D128*1.8)</f>
+        <v>176</v>
       </c>
       <c r="L128">
-        <f>INT(D128/1.5)</f>
-        <v>65</v>
+        <f t="shared" ref="L128:L137" si="11">INT(D128/3)</f>
+        <v>32</v>
       </c>
       <c r="M128">
-        <f>INT(D128/1.5)</f>
-        <v>65</v>
+        <f t="shared" ref="M128:M137" si="12">INT(D128/2.8)</f>
+        <v>35</v>
       </c>
       <c r="N128">
         <v>20</v>
@@ -7952,14 +7932,14 @@
         <v>210</v>
       </c>
       <c r="C129" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10128</v>
       </c>
       <c r="D129">
         <v>102</v>
       </c>
       <c r="E129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3060</v>
       </c>
       <c r="F129">
@@ -7976,20 +7956,20 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <f>INT($D129*2)</f>
-        <v>204</v>
+        <f>INT($D129*1.15)</f>
+        <v>117</v>
       </c>
       <c r="K129">
-        <f>INT($D129*3)</f>
-        <v>306</v>
+        <f>INT($D129*1.8)</f>
+        <v>183</v>
       </c>
       <c r="L129">
-        <f t="shared" ref="L129:L137" si="15">INT(D129/1.5)</f>
-        <v>68</v>
+        <f t="shared" si="11"/>
+        <v>34</v>
       </c>
       <c r="M129">
-        <f t="shared" ref="M129:M137" si="16">INT(D129/1.5)</f>
-        <v>68</v>
+        <f t="shared" si="12"/>
+        <v>36</v>
       </c>
       <c r="N129">
         <v>20</v>
@@ -8007,14 +7987,14 @@
         <v>211</v>
       </c>
       <c r="C130" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>10129</v>
       </c>
       <c r="D130">
         <v>95</v>
       </c>
       <c r="E130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2850</v>
       </c>
       <c r="F130">
@@ -8025,12 +8005,12 @@
         <v>10</v>
       </c>
       <c r="H130">
-        <f>INT($D130*2)</f>
-        <v>190</v>
+        <f>INT($D130*1.15)</f>
+        <v>109</v>
       </c>
       <c r="I130">
-        <f>INT($D130*3)</f>
-        <v>285</v>
+        <f>INT($D130*1.8)</f>
+        <v>171</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -8039,12 +8019,12 @@
         <v>0</v>
       </c>
       <c r="L130">
-        <f t="shared" si="15"/>
-        <v>63</v>
+        <f t="shared" si="11"/>
+        <v>31</v>
       </c>
       <c r="M130">
-        <f t="shared" si="16"/>
-        <v>63</v>
+        <f t="shared" si="12"/>
+        <v>33</v>
       </c>
       <c r="N130">
         <v>20</v>
@@ -8069,7 +8049,7 @@
         <v>95</v>
       </c>
       <c r="E131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2850</v>
       </c>
       <c r="F131">
@@ -8080,12 +8060,12 @@
         <v>10</v>
       </c>
       <c r="H131">
-        <f>INT($D131*2)</f>
-        <v>190</v>
+        <f>INT($D131*1.15)</f>
+        <v>109</v>
       </c>
       <c r="I131">
-        <f>INT($D131*3)</f>
-        <v>285</v>
+        <f>INT($D131*1.8)</f>
+        <v>171</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -8094,12 +8074,12 @@
         <v>0</v>
       </c>
       <c r="L131">
-        <f t="shared" si="15"/>
-        <v>63</v>
+        <f t="shared" si="11"/>
+        <v>31</v>
       </c>
       <c r="M131">
-        <f t="shared" si="16"/>
-        <v>63</v>
+        <f t="shared" si="12"/>
+        <v>33</v>
       </c>
       <c r="N131">
         <v>20</v>
@@ -8124,7 +8104,7 @@
         <v>101</v>
       </c>
       <c r="E132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3030</v>
       </c>
       <c r="F132">
@@ -8135,12 +8115,12 @@
         <v>10</v>
       </c>
       <c r="H132">
-        <f>INT($D132*2)</f>
-        <v>202</v>
+        <f>INT($D132*1.15)</f>
+        <v>116</v>
       </c>
       <c r="I132">
-        <f>INT($D132*3)</f>
-        <v>303</v>
+        <f>INT($D132*1.8)</f>
+        <v>181</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -8149,12 +8129,12 @@
         <v>0</v>
       </c>
       <c r="L132">
-        <f t="shared" si="15"/>
-        <v>67</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="M132">
-        <f t="shared" si="16"/>
-        <v>67</v>
+        <f t="shared" si="12"/>
+        <v>36</v>
       </c>
       <c r="N132">
         <v>20</v>
@@ -8179,7 +8159,7 @@
         <v>99</v>
       </c>
       <c r="E133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2970</v>
       </c>
       <c r="F133">
@@ -8196,20 +8176,20 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <f>INT($D133*2)</f>
-        <v>198</v>
+        <f>INT($D133*1.15)</f>
+        <v>113</v>
       </c>
       <c r="K133">
-        <f>INT($D133*3)</f>
-        <v>297</v>
+        <f>INT($D133*1.8)</f>
+        <v>178</v>
       </c>
       <c r="L133">
-        <f t="shared" si="15"/>
-        <v>66</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="M133">
-        <f t="shared" si="16"/>
-        <v>66</v>
+        <f t="shared" si="12"/>
+        <v>35</v>
       </c>
       <c r="N133">
         <v>20</v>
@@ -8234,7 +8214,7 @@
         <v>101</v>
       </c>
       <c r="E134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3030</v>
       </c>
       <c r="F134">
@@ -8251,20 +8231,20 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <f>INT($D134*2)</f>
-        <v>202</v>
+        <f>INT($D134*1.15)</f>
+        <v>116</v>
       </c>
       <c r="K134">
-        <f>INT($D134*3)</f>
-        <v>303</v>
+        <f>INT($D134*1.8)</f>
+        <v>181</v>
       </c>
       <c r="L134">
-        <f t="shared" si="15"/>
-        <v>67</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="M134">
-        <f t="shared" si="16"/>
-        <v>67</v>
+        <f t="shared" si="12"/>
+        <v>36</v>
       </c>
       <c r="N134">
         <v>20</v>
@@ -8289,7 +8269,7 @@
         <v>100</v>
       </c>
       <c r="E135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3000</v>
       </c>
       <c r="F135">
@@ -8306,20 +8286,20 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <f>INT($D135*2)</f>
-        <v>200</v>
+        <f>INT($D135*1.15)</f>
+        <v>115</v>
       </c>
       <c r="K135">
-        <f>INT($D135*3)</f>
-        <v>300</v>
+        <f>INT($D135*1.8)</f>
+        <v>180</v>
       </c>
       <c r="L135">
-        <f t="shared" si="15"/>
-        <v>66</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="M135">
-        <f t="shared" si="16"/>
-        <v>66</v>
+        <f t="shared" si="12"/>
+        <v>35</v>
       </c>
       <c r="N135">
         <v>20</v>
@@ -8344,7 +8324,7 @@
         <v>103</v>
       </c>
       <c r="E136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3090</v>
       </c>
       <c r="F136">
@@ -8355,12 +8335,12 @@
         <v>10</v>
       </c>
       <c r="H136">
-        <f>INT($D136*2)</f>
-        <v>206</v>
+        <f>INT($D136*1.15)</f>
+        <v>118</v>
       </c>
       <c r="I136">
-        <f>INT($D136*3)</f>
-        <v>309</v>
+        <f>INT($D136*1.8)</f>
+        <v>185</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -8369,12 +8349,12 @@
         <v>0</v>
       </c>
       <c r="L136">
-        <f t="shared" si="15"/>
-        <v>68</v>
+        <f t="shared" si="11"/>
+        <v>34</v>
       </c>
       <c r="M136">
-        <f t="shared" si="16"/>
-        <v>68</v>
+        <f t="shared" si="12"/>
+        <v>36</v>
       </c>
       <c r="N136">
         <v>20</v>
@@ -8399,7 +8379,7 @@
         <v>98</v>
       </c>
       <c r="E137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2940</v>
       </c>
       <c r="F137">
@@ -8410,12 +8390,12 @@
         <v>10</v>
       </c>
       <c r="H137">
-        <f>INT($D137*2)</f>
-        <v>196</v>
+        <f>INT($D137*1.15)</f>
+        <v>112</v>
       </c>
       <c r="I137">
-        <f>INT($D137*3)</f>
-        <v>294</v>
+        <f>INT($D137*1.8)</f>
+        <v>176</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -8424,12 +8404,12 @@
         <v>0</v>
       </c>
       <c r="L137">
-        <f t="shared" si="15"/>
-        <v>65</v>
+        <f t="shared" si="11"/>
+        <v>32</v>
       </c>
       <c r="M137">
-        <f t="shared" si="16"/>
-        <v>65</v>
+        <f t="shared" si="12"/>
+        <v>35</v>
       </c>
       <c r="N137">
         <v>20</v>
@@ -12775,7 +12755,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1:O1000">
-    <cfRule type="expression" dxfId="10" priority="73">
+    <cfRule type="expression" dxfId="6" priority="73">
       <formula>H1=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12789,9 +12769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -12880,16 +12860,16 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>8</v>
       </c>
       <c r="K2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -12976,16 +12956,16 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K4">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -13024,16 +13004,16 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I5">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J5">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -13072,16 +13052,16 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I6">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J6">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K6">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L6">
         <v>8</v>
@@ -13120,16 +13100,16 @@
         <v>100</v>
       </c>
       <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7">
         <v>30</v>
       </c>
-      <c r="I7">
-        <v>50</v>
-      </c>
       <c r="J7">
+        <v>17</v>
+      </c>
+      <c r="K7">
         <v>30</v>
-      </c>
-      <c r="K7">
-        <v>50</v>
       </c>
       <c r="L7">
         <v>17</v>
@@ -13168,13 +13148,13 @@
         <v>100</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8">
         <v>15</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8">
         <v>15</v>
@@ -13263,16 +13243,16 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I10">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J10">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K10">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -13311,16 +13291,16 @@
         <v>100</v>
       </c>
       <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
         <v>22</v>
       </c>
-      <c r="I11">
-        <v>40</v>
-      </c>
       <c r="J11">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="L11">
         <v>20</v>
@@ -13359,16 +13339,16 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J12">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K12">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -13407,16 +13387,16 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I13">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="J13">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K13">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="L13">
         <v>20</v>
@@ -13455,16 +13435,16 @@
         <v>100</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J14">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K14">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="L14">
         <v>15</v>
@@ -13503,16 +13483,16 @@
         <v>100</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I15">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K15">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L15">
         <v>10</v>
@@ -13551,10 +13531,10 @@
         <v>100</v>
       </c>
       <c r="H16">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I16">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="J16">
         <v>40</v>
@@ -13599,16 +13579,16 @@
         <v>100</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I17">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="J17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="L17">
         <v>20</v>
@@ -13647,16 +13627,16 @@
         <v>100</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I18">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="J18">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="L18">
         <v>20</v>
@@ -13695,16 +13675,16 @@
         <v>100</v>
       </c>
       <c r="H19">
+        <v>25</v>
+      </c>
+      <c r="I19">
         <v>70</v>
       </c>
-      <c r="I19">
-        <v>100</v>
-      </c>
       <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
         <v>70</v>
-      </c>
-      <c r="K19">
-        <v>100</v>
       </c>
       <c r="L19">
         <v>18</v>
@@ -13743,16 +13723,16 @@
         <v>100</v>
       </c>
       <c r="H20">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I20">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J20">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L20">
         <v>20</v>
@@ -13791,16 +13771,16 @@
         <v>100</v>
       </c>
       <c r="H21">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I21">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J21">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L21">
         <v>20</v>
@@ -13839,16 +13819,16 @@
         <v>100</v>
       </c>
       <c r="H22">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I22">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J22">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L22">
         <v>20</v>
@@ -13887,16 +13867,16 @@
         <v>100</v>
       </c>
       <c r="H23">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I23">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="J23">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="K23">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="L23">
         <v>26</v>
@@ -13935,16 +13915,16 @@
         <v>100</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I24">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="J24">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K24">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="L24">
         <v>15</v>
@@ -13983,16 +13963,16 @@
         <v>100</v>
       </c>
       <c r="H25">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I25">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="J25">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="L25">
         <v>15</v>
@@ -14031,16 +14011,16 @@
         <v>100</v>
       </c>
       <c r="H26">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I26">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="J26">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K26">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="L26">
         <v>20</v>
@@ -14079,16 +14059,16 @@
         <v>100</v>
       </c>
       <c r="H27">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I27">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="J27">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="L27">
         <v>10</v>
@@ -14130,13 +14110,13 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="J28">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="K28">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="L28">
         <v>12</v>
@@ -14175,16 +14155,16 @@
         <v>100</v>
       </c>
       <c r="H29">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="I29">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="J29">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="L29">
         <v>12</v>
@@ -14223,16 +14203,16 @@
         <v>100</v>
       </c>
       <c r="H30">
+        <v>60</v>
+      </c>
+      <c r="I30">
         <v>90</v>
       </c>
-      <c r="I30">
-        <v>140</v>
-      </c>
       <c r="J30">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="L30">
         <v>12</v>
@@ -14271,16 +14251,16 @@
         <v>100</v>
       </c>
       <c r="H31">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="I31">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="J31">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="K31">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="L31">
         <v>25</v>
@@ -14319,16 +14299,16 @@
         <v>100</v>
       </c>
       <c r="H32">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="I32">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J32">
+        <v>70</v>
+      </c>
+      <c r="K32">
         <v>100</v>
-      </c>
-      <c r="K32">
-        <v>120</v>
       </c>
       <c r="L32">
         <v>50</v>
@@ -14367,22 +14347,22 @@
         <v>100</v>
       </c>
       <c r="H33">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I33">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="J33">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="L33">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>20</v>
@@ -14415,16 +14395,16 @@
         <v>100</v>
       </c>
       <c r="H34">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I34">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J34">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="K34">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L34">
         <v>12</v>
@@ -14463,22 +14443,22 @@
         <v>100</v>
       </c>
       <c r="H35">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I35">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="J35">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K35">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="L35">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>20</v>
@@ -14511,22 +14491,22 @@
         <v>100</v>
       </c>
       <c r="H36">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I36">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="J36">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K36">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="L36">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>20</v>
@@ -14559,22 +14539,22 @@
         <v>100</v>
       </c>
       <c r="H37">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I37">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J37">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L37">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>20</v>
@@ -14610,19 +14590,19 @@
         <v>50</v>
       </c>
       <c r="I38">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J38">
         <v>50</v>
       </c>
       <c r="K38">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L38">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>20</v>
@@ -14655,16 +14635,16 @@
         <v>100</v>
       </c>
       <c r="H39">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I39">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J39">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K39">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L39">
         <v>30</v>
@@ -14703,16 +14683,16 @@
         <v>100</v>
       </c>
       <c r="H40">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="I40">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="J40">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="K40">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="L40">
         <v>18</v>
@@ -14750,16 +14730,16 @@
         <v>100</v>
       </c>
       <c r="H41">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="I41">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="J41">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K41">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="L41">
         <v>50</v>
@@ -14798,16 +14778,16 @@
         <v>100</v>
       </c>
       <c r="H42" s="20">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="I42" s="20">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="J42" s="20">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="K42" s="20">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="L42" s="20">
         <v>22</v>
@@ -14846,16 +14826,16 @@
         <v>100</v>
       </c>
       <c r="H43" s="20">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="I43" s="20">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="J43" s="20">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="K43" s="20">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="L43" s="20">
         <v>28</v>
@@ -14893,16 +14873,16 @@
         <v>100</v>
       </c>
       <c r="H44" s="20">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="I44" s="20">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="J44" s="20">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K44" s="20">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="L44" s="20">
         <v>30</v>
@@ -14941,16 +14921,16 @@
         <v>100</v>
       </c>
       <c r="H45" s="20">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="I45" s="20">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J45" s="20">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="K45" s="20">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="L45" s="20">
         <v>30</v>
@@ -15064,32 +15044,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I40:I41 H48:M1048576 H41 O41 H33:I39 L33:M39 H42:I45 L42:O45 L40:N41 H1:M32">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>H1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:K45 J33:K39">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>J33=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>K40=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:K41">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>J41=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42:K43">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>J42=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:M47">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>H46=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="340">
   <si>
     <t>ID</t>
   </si>
@@ -693,10 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔龙邪眼9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1144,6 +1140,18 @@
   </si>
   <si>
     <t>太阴玉兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白虎(伪)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄龟(幻影)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇美拉(幻影)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1296,267 +1304,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="109">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
+  <dxfs count="57">
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -2184,8 +1932,8 @@
   <dimension ref="A1:Q256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G200" sqref="G200"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F203" sqref="F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7176,7 +6924,7 @@
         <v>10102</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>337</v>
       </c>
       <c r="C103" s="19">
         <f t="shared" si="3"/>
@@ -9101,7 +8849,7 @@
         <v>10137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C138" s="19">
         <f>A138</f>
@@ -9150,7 +8898,7 @@
         <v>10138</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C139" s="19">
         <f>C138</f>
@@ -9160,7 +8908,7 @@
         <v>999</v>
       </c>
       <c r="E139" s="16">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F139" s="16">
         <v>999999</v>
@@ -9198,7 +8946,7 @@
         <v>10139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C140" s="19">
         <f>C138</f>
@@ -9208,7 +8956,7 @@
         <v>999</v>
       </c>
       <c r="E140" s="16">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F140" s="16">
         <v>999999</v>
@@ -9246,7 +8994,7 @@
         <v>10140</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C141" s="19">
         <f>C138</f>
@@ -9256,7 +9004,7 @@
         <v>999</v>
       </c>
       <c r="E141" s="16">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F141" s="16">
         <v>999999</v>
@@ -9294,7 +9042,7 @@
         <v>10141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C142" s="19">
         <f>C138</f>
@@ -9304,7 +9052,7 @@
         <v>999</v>
       </c>
       <c r="E142" s="16">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F142" s="16">
         <v>999999</v>
@@ -9342,7 +9090,7 @@
         <v>10142</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C143" s="19">
         <f>C138</f>
@@ -9352,7 +9100,7 @@
         <v>999</v>
       </c>
       <c r="E143" s="16">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F143" s="16">
         <v>999999</v>
@@ -9390,7 +9138,7 @@
         <v>10143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C144" s="19">
         <f>C138</f>
@@ -9400,7 +9148,7 @@
         <v>999</v>
       </c>
       <c r="E144" s="16">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F144" s="16">
         <v>999999</v>
@@ -9438,7 +9186,7 @@
         <v>10144</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C145" s="19">
         <f>C138</f>
@@ -9448,7 +9196,7 @@
         <v>999</v>
       </c>
       <c r="E145" s="16">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F145" s="16">
         <v>999999</v>
@@ -9486,7 +9234,7 @@
         <v>10145</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C146" s="19">
         <f>C138</f>
@@ -9496,7 +9244,7 @@
         <v>999</v>
       </c>
       <c r="E146" s="16">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="F146" s="16">
         <v>999999</v>
@@ -9534,7 +9282,7 @@
         <v>10146</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C147" s="19">
         <f>C138</f>
@@ -9544,7 +9292,7 @@
         <v>999</v>
       </c>
       <c r="E147" s="16">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F147" s="16">
         <v>999999</v>
@@ -9582,7 +9330,7 @@
         <v>10147</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C148" s="19">
         <f>A148</f>
@@ -9630,7 +9378,7 @@
         <v>10148</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C149" s="19">
         <f>C148</f>
@@ -9640,7 +9388,7 @@
         <v>999</v>
       </c>
       <c r="E149" s="16">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F149" s="16">
         <v>999999</v>
@@ -9678,7 +9426,7 @@
         <v>10149</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C150" s="19">
         <f>C148</f>
@@ -9688,7 +9436,7 @@
         <v>999</v>
       </c>
       <c r="E150" s="16">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F150" s="16">
         <v>999999</v>
@@ -9726,7 +9474,7 @@
         <v>10150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C151" s="19">
         <f>C148</f>
@@ -9736,7 +9484,7 @@
         <v>999</v>
       </c>
       <c r="E151" s="16">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F151" s="16">
         <v>999999</v>
@@ -9774,7 +9522,7 @@
         <v>10151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C152" s="19">
         <f>C148</f>
@@ -9784,7 +9532,7 @@
         <v>999</v>
       </c>
       <c r="E152" s="16">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F152" s="16">
         <v>999999</v>
@@ -9822,7 +9570,7 @@
         <v>10152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C153" s="19">
         <f>C148</f>
@@ -9832,7 +9580,7 @@
         <v>999</v>
       </c>
       <c r="E153" s="16">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F153" s="16">
         <v>999999</v>
@@ -9870,7 +9618,7 @@
         <v>10153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C154" s="19">
         <f>C148</f>
@@ -9880,7 +9628,7 @@
         <v>999</v>
       </c>
       <c r="E154" s="16">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F154" s="16">
         <v>999999</v>
@@ -9918,7 +9666,7 @@
         <v>10154</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C155" s="19">
         <f>C148</f>
@@ -9928,7 +9676,7 @@
         <v>999</v>
       </c>
       <c r="E155" s="16">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F155" s="16">
         <v>999999</v>
@@ -9966,7 +9714,7 @@
         <v>10155</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C156" s="19">
         <f>C148</f>
@@ -9976,7 +9724,7 @@
         <v>999</v>
       </c>
       <c r="E156" s="16">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="F156" s="16">
         <v>999999</v>
@@ -10014,7 +9762,7 @@
         <v>10156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C157" s="19">
         <f>C148</f>
@@ -10024,7 +9772,7 @@
         <v>999</v>
       </c>
       <c r="E157" s="16">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F157" s="16">
         <v>999999</v>
@@ -10062,7 +9810,7 @@
         <v>10157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C158" s="19">
         <f>A158</f>
@@ -10110,7 +9858,7 @@
         <v>10158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C159" s="19">
         <f>C158</f>
@@ -10120,7 +9868,7 @@
         <v>999</v>
       </c>
       <c r="E159" s="16">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F159" s="16">
         <v>999999</v>
@@ -10158,7 +9906,7 @@
         <v>10159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C160" s="19">
         <f>C158</f>
@@ -10168,7 +9916,7 @@
         <v>999</v>
       </c>
       <c r="E160" s="16">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F160" s="16">
         <v>999999</v>
@@ -10206,7 +9954,7 @@
         <v>10160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C161" s="19">
         <f>C158</f>
@@ -10216,7 +9964,7 @@
         <v>999</v>
       </c>
       <c r="E161" s="16">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F161" s="16">
         <v>999999</v>
@@ -10255,7 +10003,7 @@
         <v>10161</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C162" s="19">
         <f>C158</f>
@@ -10265,7 +10013,7 @@
         <v>999</v>
       </c>
       <c r="E162" s="16">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F162" s="16">
         <v>999999</v>
@@ -10304,7 +10052,7 @@
         <v>10162</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C163" s="19">
         <f>C158</f>
@@ -10314,7 +10062,7 @@
         <v>999</v>
       </c>
       <c r="E163" s="16">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F163" s="16">
         <v>999999</v>
@@ -10353,7 +10101,7 @@
         <v>10163</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C164" s="19">
         <f>C158</f>
@@ -10363,7 +10111,7 @@
         <v>999</v>
       </c>
       <c r="E164" s="16">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F164" s="16">
         <v>999999</v>
@@ -10402,7 +10150,7 @@
         <v>10164</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C165" s="19">
         <f>C158</f>
@@ -10412,7 +10160,7 @@
         <v>999</v>
       </c>
       <c r="E165" s="16">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F165" s="16">
         <v>999999</v>
@@ -10451,7 +10199,7 @@
         <v>10165</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C166" s="19">
         <f>C158</f>
@@ -10461,7 +10209,7 @@
         <v>999</v>
       </c>
       <c r="E166" s="16">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="F166" s="16">
         <v>999999</v>
@@ -10500,7 +10248,7 @@
         <v>10166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C167" s="19">
         <f>C158</f>
@@ -10510,7 +10258,7 @@
         <v>999</v>
       </c>
       <c r="E167" s="16">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F167" s="16">
         <v>999999</v>
@@ -10549,7 +10297,7 @@
         <v>11001</v>
       </c>
       <c r="B168" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C168" s="20">
         <f>A168</f>
@@ -10604,7 +10352,7 @@
         <v>11002</v>
       </c>
       <c r="B169" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C169" s="20">
         <f t="shared" ref="C169:C171" si="16">A169</f>
@@ -10658,7 +10406,7 @@
         <v>11003</v>
       </c>
       <c r="B170" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C170" s="20">
         <f t="shared" si="16"/>
@@ -10712,7 +10460,7 @@
         <v>11004</v>
       </c>
       <c r="B171" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C171" s="20">
         <f t="shared" si="16"/>
@@ -10766,7 +10514,7 @@
         <v>11005</v>
       </c>
       <c r="B172" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C172" s="20">
         <f>C168</f>
@@ -10820,7 +10568,7 @@
         <v>11006</v>
       </c>
       <c r="B173" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C173" s="20">
         <f>C169</f>
@@ -10874,7 +10622,7 @@
         <v>11007</v>
       </c>
       <c r="B174" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C174" s="20">
         <f>C170</f>
@@ -10928,7 +10676,7 @@
         <v>11008</v>
       </c>
       <c r="B175" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C175" s="20">
         <f>C171</f>
@@ -10982,7 +10730,7 @@
         <v>11009</v>
       </c>
       <c r="B176" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C176" s="20">
         <f>A176</f>
@@ -11036,7 +10784,7 @@
         <v>11010</v>
       </c>
       <c r="B177" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C177" s="20">
         <f t="shared" ref="C177:C180" si="21">A177</f>
@@ -11090,7 +10838,7 @@
         <v>11011</v>
       </c>
       <c r="B178" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C178" s="20">
         <f t="shared" si="21"/>
@@ -11144,7 +10892,7 @@
         <v>11012</v>
       </c>
       <c r="B179" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C179" s="20">
         <f t="shared" si="21"/>
@@ -11198,7 +10946,7 @@
         <v>11013</v>
       </c>
       <c r="B180" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C180" s="20">
         <f t="shared" si="21"/>
@@ -11252,7 +11000,7 @@
         <v>11014</v>
       </c>
       <c r="B181" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C181" s="20">
         <f>C176</f>
@@ -11306,7 +11054,7 @@
         <v>11015</v>
       </c>
       <c r="B182" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C182" s="20">
         <f>C177</f>
@@ -11360,7 +11108,7 @@
         <v>11016</v>
       </c>
       <c r="B183" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C183" s="20">
         <f>C178</f>
@@ -11414,7 +11162,7 @@
         <v>11017</v>
       </c>
       <c r="B184" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C184" s="20">
         <f>C179</f>
@@ -11468,7 +11216,7 @@
         <v>11018</v>
       </c>
       <c r="B185" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C185" s="20">
         <f>C180</f>
@@ -11522,7 +11270,7 @@
         <v>11019</v>
       </c>
       <c r="B186" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C186" s="20">
         <f>A186</f>
@@ -11576,7 +11324,7 @@
         <v>11020</v>
       </c>
       <c r="B187" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C187" s="20">
         <f t="shared" ref="C187:C189" si="22">A187</f>
@@ -11630,7 +11378,7 @@
         <v>11021</v>
       </c>
       <c r="B188" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C188" s="20">
         <f t="shared" si="22"/>
@@ -11684,7 +11432,7 @@
         <v>11022</v>
       </c>
       <c r="B189" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C189" s="20">
         <f t="shared" si="22"/>
@@ -11738,7 +11486,7 @@
         <v>11023</v>
       </c>
       <c r="B190" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C190" s="20">
         <f>C186</f>
@@ -11792,7 +11540,7 @@
         <v>11024</v>
       </c>
       <c r="B191" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C191" s="20">
         <f>C187</f>
@@ -11846,7 +11594,7 @@
         <v>11025</v>
       </c>
       <c r="B192" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C192" s="20">
         <f>C188</f>
@@ -11900,7 +11648,7 @@
         <v>11026</v>
       </c>
       <c r="B193" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C193" s="20">
         <f>C189</f>
@@ -11954,7 +11702,7 @@
         <v>11027</v>
       </c>
       <c r="B194" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C194" s="20">
         <f>C69</f>
@@ -12008,7 +11756,7 @@
         <v>11028</v>
       </c>
       <c r="B195" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C195" s="20">
         <f>C119</f>
@@ -12062,7 +11810,7 @@
         <v>11029</v>
       </c>
       <c r="B196" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C196" s="20">
         <f>C121</f>
@@ -12116,7 +11864,7 @@
         <v>11030</v>
       </c>
       <c r="B197" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C197" s="20">
         <f>C194</f>
@@ -12170,7 +11918,7 @@
         <v>11031</v>
       </c>
       <c r="B198" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C198" s="20">
         <f>C195</f>
@@ -12224,7 +11972,7 @@
         <v>11032</v>
       </c>
       <c r="B199" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C199" s="20">
         <f>C196</f>
@@ -12278,7 +12026,7 @@
         <v>11033</v>
       </c>
       <c r="B200" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C200" s="20">
         <f>A200</f>
@@ -12332,7 +12080,7 @@
         <v>11034</v>
       </c>
       <c r="B201" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C201" s="20">
         <f t="shared" ref="C201:C205" si="23">A201</f>
@@ -12386,7 +12134,7 @@
         <v>11035</v>
       </c>
       <c r="B202" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C202" s="20">
         <f t="shared" si="23"/>
@@ -12440,7 +12188,7 @@
         <v>11036</v>
       </c>
       <c r="B203" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C203" s="20">
         <f t="shared" si="23"/>
@@ -12494,7 +12242,7 @@
         <v>11037</v>
       </c>
       <c r="B204" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C204" s="20">
         <f t="shared" si="23"/>
@@ -12548,7 +12296,7 @@
         <v>11038</v>
       </c>
       <c r="B205" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C205" s="20">
         <f t="shared" si="23"/>
@@ -12602,7 +12350,7 @@
         <v>11039</v>
       </c>
       <c r="B206" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C206" s="20">
         <f>A206</f>
@@ -12656,7 +12404,7 @@
         <v>11040</v>
       </c>
       <c r="B207" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C207" s="20">
         <f t="shared" ref="C207:C210" si="24">A207</f>
@@ -12710,7 +12458,7 @@
         <v>11041</v>
       </c>
       <c r="B208" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C208" s="20">
         <f t="shared" si="24"/>
@@ -12764,7 +12512,7 @@
         <v>11042</v>
       </c>
       <c r="B209" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C209" s="20">
         <f t="shared" si="24"/>
@@ -12818,7 +12566,7 @@
         <v>11043</v>
       </c>
       <c r="B210" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C210" s="20">
         <f t="shared" si="24"/>
@@ -12872,7 +12620,7 @@
         <v>11044</v>
       </c>
       <c r="B211" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C211" s="20">
         <f>C206</f>
@@ -12926,7 +12674,7 @@
         <v>11045</v>
       </c>
       <c r="B212" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C212" s="20">
         <f>C207</f>
@@ -12980,7 +12728,7 @@
         <v>11046</v>
       </c>
       <c r="B213" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C213" s="20">
         <f>C208</f>
@@ -13034,7 +12782,7 @@
         <v>11047</v>
       </c>
       <c r="B214" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C214" s="20">
         <f>C209</f>
@@ -13088,7 +12836,7 @@
         <v>11048</v>
       </c>
       <c r="B215" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C215" s="20">
         <f>C210</f>
@@ -13184,7 +12932,7 @@
         <v>12001</v>
       </c>
       <c r="B219" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C219" s="20">
         <f>C204</f>
@@ -13240,7 +12988,7 @@
         <v>12002</v>
       </c>
       <c r="B220" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C220" s="20">
         <f>C202</f>
@@ -13296,7 +13044,7 @@
         <v>12003</v>
       </c>
       <c r="B221" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C221" s="20">
         <f>A221</f>
@@ -13352,7 +13100,7 @@
         <v>12004</v>
       </c>
       <c r="B222" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C222" s="20">
         <f>A222</f>
@@ -13408,7 +13156,7 @@
         <v>12005</v>
       </c>
       <c r="B223" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C223" s="20">
         <f>C219</f>
@@ -13464,7 +13212,7 @@
         <v>12006</v>
       </c>
       <c r="B224" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C224" s="20">
         <f>C220</f>
@@ -13520,7 +13268,7 @@
         <v>12007</v>
       </c>
       <c r="B225" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C225" s="20">
         <f>C221</f>
@@ -13576,7 +13324,7 @@
         <v>12008</v>
       </c>
       <c r="B226" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C226" s="20">
         <f>C222</f>
@@ -13632,7 +13380,7 @@
         <v>12009</v>
       </c>
       <c r="B227" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C227" s="20">
         <f>A227</f>
@@ -13688,7 +13436,7 @@
         <v>12010</v>
       </c>
       <c r="B228" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C228" s="20">
         <f t="shared" ref="C228:C230" si="30">A228</f>
@@ -13744,7 +13492,7 @@
         <v>12011</v>
       </c>
       <c r="B229" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C229" s="20">
         <f t="shared" si="30"/>
@@ -13800,7 +13548,7 @@
         <v>12012</v>
       </c>
       <c r="B230" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C230" s="20">
         <f t="shared" si="30"/>
@@ -13856,7 +13604,7 @@
         <v>12013</v>
       </c>
       <c r="B231" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C231" s="20">
         <f>C203</f>
@@ -13912,7 +13660,7 @@
         <v>12014</v>
       </c>
       <c r="B232" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C232" s="20">
         <f>A232</f>
@@ -13968,7 +13716,7 @@
         <v>12015</v>
       </c>
       <c r="B233" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C233" s="20">
         <f t="shared" ref="C233:C234" si="31">A233</f>
@@ -14024,7 +13772,7 @@
         <v>12016</v>
       </c>
       <c r="B234" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C234" s="20">
         <f t="shared" si="31"/>
@@ -14080,7 +13828,7 @@
         <v>12017</v>
       </c>
       <c r="B235" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C235" s="20">
         <f>A235</f>
@@ -14136,7 +13884,7 @@
         <v>12018</v>
       </c>
       <c r="B236" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C236" s="20">
         <f t="shared" ref="C236:C237" si="32">A236</f>
@@ -14192,7 +13940,7 @@
         <v>12019</v>
       </c>
       <c r="B237" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C237" s="20">
         <f t="shared" si="32"/>
@@ -14248,7 +13996,7 @@
         <v>12020</v>
       </c>
       <c r="B238" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C238" s="20">
         <f>C235</f>
@@ -14304,7 +14052,7 @@
         <v>12021</v>
       </c>
       <c r="B239" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C239" s="20">
         <f>C236</f>
@@ -14360,7 +14108,7 @@
         <v>12022</v>
       </c>
       <c r="B240" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C240" s="20">
         <f>C237</f>
@@ -14416,7 +14164,7 @@
         <v>12023</v>
       </c>
       <c r="B241" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C241" s="20">
         <f>A241</f>
@@ -14472,7 +14220,7 @@
         <v>12024</v>
       </c>
       <c r="B242" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C242" s="20">
         <f>A242</f>
@@ -14528,7 +14276,7 @@
         <v>12025</v>
       </c>
       <c r="B243" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C243" s="20">
         <v>10122</v>
@@ -14583,7 +14331,7 @@
         <v>12026</v>
       </c>
       <c r="B244" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C244" s="20">
         <f>C210</f>
@@ -14639,7 +14387,7 @@
         <v>12027</v>
       </c>
       <c r="B245" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C245" s="20">
         <f>C241</f>
@@ -14695,7 +14443,7 @@
         <v>12028</v>
       </c>
       <c r="B246" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C246" s="19">
         <f>C242</f>
@@ -14751,7 +14499,7 @@
         <v>12029</v>
       </c>
       <c r="B247" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C247" s="19">
         <f>C243</f>
@@ -14807,7 +14555,7 @@
         <v>12030</v>
       </c>
       <c r="B248" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C248" s="19">
         <f>C244</f>
@@ -14863,7 +14611,7 @@
         <v>12031</v>
       </c>
       <c r="B249" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C249" s="20">
         <f>C222</f>
@@ -14919,7 +14667,7 @@
         <v>12032</v>
       </c>
       <c r="B250" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C250" s="20">
         <f>C204</f>
@@ -14975,7 +14723,7 @@
         <v>12033</v>
       </c>
       <c r="B251" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C251" s="20">
         <f>C202</f>
@@ -15031,7 +14779,7 @@
         <v>12034</v>
       </c>
       <c r="B252" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C252" s="20">
         <f>C221</f>
@@ -15087,7 +14835,7 @@
         <v>12035</v>
       </c>
       <c r="B253" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C253" s="19">
         <f>C249</f>
@@ -15143,7 +14891,7 @@
         <v>12036</v>
       </c>
       <c r="B254" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C254" s="19">
         <f>C250</f>
@@ -15199,7 +14947,7 @@
         <v>12037</v>
       </c>
       <c r="B255" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C255" s="19">
         <f>C251</f>
@@ -15255,7 +15003,7 @@
         <v>12038</v>
       </c>
       <c r="B256" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C256" s="19">
         <f>C252</f>
@@ -15309,257 +15057,257 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1:O167 D200:D205 H257:O961">
-    <cfRule type="expression" dxfId="108" priority="124">
+    <cfRule type="expression" dxfId="56" priority="124">
       <formula>D1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L168:O169 L172:O173 L177:O178 L180:O180 L182:O183 L185:O187 L190:O191 L194:O194 L196:O197 L199:O201 H216:O256 L203:O204 L206:O208 L211:O213 H168:I169 J170:O171 H177:I178 J179:O179 H180:I180 H172:I173 J174:O176 J181:O181 H182:I183 J184:O184 H185:I187 J188:O189 H194:I194 J195:O195 H190:I191 J192:O193 H196:I197 J198:O198 H199:I201 J202:O202 H203:I204 J205:O205 H206:I208 J209:O210 H211:I213 J214:O215">
-    <cfRule type="expression" dxfId="107" priority="50">
+    <cfRule type="expression" dxfId="55" priority="50">
       <formula>H168=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C200:C205">
-    <cfRule type="expression" dxfId="106" priority="49">
+    <cfRule type="expression" dxfId="54" priority="49">
       <formula>C200=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J168:K168">
-    <cfRule type="expression" dxfId="105" priority="48">
+    <cfRule type="expression" dxfId="53" priority="48">
       <formula>J168=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J169:K169">
-    <cfRule type="expression" dxfId="104" priority="47">
+    <cfRule type="expression" dxfId="52" priority="47">
       <formula>J169=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H170:I170">
-    <cfRule type="expression" dxfId="103" priority="46">
+    <cfRule type="expression" dxfId="51" priority="46">
       <formula>H170=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:I171">
-    <cfRule type="expression" dxfId="102" priority="45">
+    <cfRule type="expression" dxfId="50" priority="45">
       <formula>H171=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J172:K172">
-    <cfRule type="expression" dxfId="101" priority="44">
+    <cfRule type="expression" dxfId="49" priority="44">
       <formula>J172=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J173:K173">
-    <cfRule type="expression" dxfId="100" priority="43">
+    <cfRule type="expression" dxfId="48" priority="43">
       <formula>J173=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H174:I174">
-    <cfRule type="expression" dxfId="99" priority="42">
+    <cfRule type="expression" dxfId="47" priority="42">
       <formula>H174=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H175:I175">
-    <cfRule type="expression" dxfId="98" priority="41">
+    <cfRule type="expression" dxfId="46" priority="41">
       <formula>H175=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H176:I176">
-    <cfRule type="expression" dxfId="97" priority="40">
+    <cfRule type="expression" dxfId="45" priority="40">
       <formula>H176=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J177:K177">
-    <cfRule type="expression" dxfId="96" priority="39">
+    <cfRule type="expression" dxfId="44" priority="39">
       <formula>J177=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J178:K178">
-    <cfRule type="expression" dxfId="95" priority="38">
+    <cfRule type="expression" dxfId="43" priority="38">
       <formula>J178=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H179:I179">
-    <cfRule type="expression" dxfId="94" priority="37">
+    <cfRule type="expression" dxfId="42" priority="37">
       <formula>H179=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J180:K180">
-    <cfRule type="expression" dxfId="93" priority="36">
+    <cfRule type="expression" dxfId="41" priority="36">
       <formula>J180=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H181:I181">
-    <cfRule type="expression" dxfId="92" priority="35">
+    <cfRule type="expression" dxfId="40" priority="35">
       <formula>H181=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J182:K182">
-    <cfRule type="expression" dxfId="91" priority="34">
+    <cfRule type="expression" dxfId="39" priority="34">
       <formula>J182=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J183:K183">
-    <cfRule type="expression" dxfId="90" priority="33">
+    <cfRule type="expression" dxfId="38" priority="33">
       <formula>J183=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H184:I184">
-    <cfRule type="expression" dxfId="89" priority="32">
+    <cfRule type="expression" dxfId="37" priority="32">
       <formula>H184=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J185:K185">
-    <cfRule type="expression" dxfId="88" priority="31">
+    <cfRule type="expression" dxfId="36" priority="31">
       <formula>J185=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J186:K186">
-    <cfRule type="expression" dxfId="87" priority="30">
+    <cfRule type="expression" dxfId="35" priority="30">
       <formula>J186=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J187:K187">
-    <cfRule type="expression" dxfId="86" priority="29">
+    <cfRule type="expression" dxfId="34" priority="29">
       <formula>J187=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H188:I188">
-    <cfRule type="expression" dxfId="85" priority="28">
+    <cfRule type="expression" dxfId="33" priority="28">
       <formula>H188=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189:I189">
-    <cfRule type="expression" dxfId="84" priority="27">
+    <cfRule type="expression" dxfId="32" priority="27">
       <formula>H189=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J190:K190">
-    <cfRule type="expression" dxfId="83" priority="26">
+    <cfRule type="expression" dxfId="31" priority="26">
       <formula>J190=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J191:K191">
-    <cfRule type="expression" dxfId="82" priority="25">
+    <cfRule type="expression" dxfId="30" priority="25">
       <formula>J191=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H192:I192">
-    <cfRule type="expression" dxfId="81" priority="24">
+    <cfRule type="expression" dxfId="29" priority="24">
       <formula>H192=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H193:I193">
-    <cfRule type="expression" dxfId="80" priority="23">
+    <cfRule type="expression" dxfId="28" priority="23">
       <formula>H193=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J194:K194">
-    <cfRule type="expression" dxfId="79" priority="22">
+    <cfRule type="expression" dxfId="27" priority="22">
       <formula>J194=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J197:K197">
-    <cfRule type="expression" dxfId="78" priority="21">
+    <cfRule type="expression" dxfId="26" priority="21">
       <formula>J197=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H195:I195">
-    <cfRule type="expression" dxfId="77" priority="20">
+    <cfRule type="expression" dxfId="25" priority="20">
       <formula>H195=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J196:K196">
-    <cfRule type="expression" dxfId="76" priority="19">
+    <cfRule type="expression" dxfId="24" priority="19">
       <formula>J196=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H198:I198">
-    <cfRule type="expression" dxfId="75" priority="18">
+    <cfRule type="expression" dxfId="23" priority="18">
       <formula>H198=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J199:K199">
-    <cfRule type="expression" dxfId="74" priority="17">
+    <cfRule type="expression" dxfId="22" priority="17">
       <formula>J199=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H202:I202">
-    <cfRule type="expression" dxfId="73" priority="16">
+    <cfRule type="expression" dxfId="21" priority="16">
       <formula>H202=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J200:K200">
-    <cfRule type="expression" dxfId="72" priority="15">
+    <cfRule type="expression" dxfId="20" priority="15">
       <formula>J200=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J201:K201">
-    <cfRule type="expression" dxfId="71" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>J201=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H205:I205">
-    <cfRule type="expression" dxfId="70" priority="13">
+    <cfRule type="expression" dxfId="18" priority="13">
       <formula>H205=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J203:K203">
-    <cfRule type="expression" dxfId="69" priority="12">
+    <cfRule type="expression" dxfId="17" priority="12">
       <formula>J203=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J204:K204">
-    <cfRule type="expression" dxfId="68" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>J204=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J206:K206">
-    <cfRule type="expression" dxfId="67" priority="10">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>J206=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J207:K207">
-    <cfRule type="expression" dxfId="66" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>J207=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J208:K208">
-    <cfRule type="expression" dxfId="65" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>J208=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H209:I209">
-    <cfRule type="expression" dxfId="64" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>H209=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H210:I210">
-    <cfRule type="expression" dxfId="63" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>H210=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J211:K211">
-    <cfRule type="expression" dxfId="62" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>J211=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J212:K212">
-    <cfRule type="expression" dxfId="61" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>J212=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J213:K213">
-    <cfRule type="expression" dxfId="60" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>J213=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H214:I214">
-    <cfRule type="expression" dxfId="59" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>H214=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H215:I215">
-    <cfRule type="expression" dxfId="58" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>H215=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15571,11 +15319,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15587,7 +15335,7 @@
     <col min="5" max="6" width="6.5" customWidth="1"/>
     <col min="7" max="7" width="4.5" customWidth="1"/>
     <col min="8" max="11" width="6.5" customWidth="1"/>
-    <col min="12" max="12" width="4.5" customWidth="1"/>
+    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="5.5" customWidth="1"/>
     <col min="15" max="15" width="9.5" customWidth="1"/>
     <col min="16" max="16" width="5.375" customWidth="1"/>
@@ -17754,7 +17502,7 @@
         <v>20045</v>
       </c>
       <c r="B46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C46" s="7">
         <v>20045</v>
@@ -17802,7 +17550,7 @@
         <v>20046</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C47" s="7">
         <v>20046</v>
@@ -17847,278 +17595,279 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
-        <v>21001</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C48" s="4">
-        <v>12019</v>
-      </c>
-      <c r="D48" s="20">
-        <v>110</v>
+        <v>20047</v>
+      </c>
+      <c r="B48" t="s">
+        <v>338</v>
+      </c>
+      <c r="C48" s="7">
+        <v>20047</v>
+      </c>
+      <c r="D48" s="16">
+        <v>100</v>
       </c>
       <c r="E48" s="16">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="F48" s="16">
-        <v>38000</v>
+        <v>7600</v>
       </c>
       <c r="G48" s="20">
         <v>100</v>
       </c>
-      <c r="H48" s="20">
-        <v>200</v>
-      </c>
-      <c r="I48" s="20">
-        <v>280</v>
-      </c>
-      <c r="J48" s="20">
-        <v>200</v>
-      </c>
-      <c r="K48" s="20">
-        <v>280</v>
-      </c>
-      <c r="L48" s="20">
-        <v>40</v>
-      </c>
-      <c r="M48" s="20">
-        <v>47</v>
-      </c>
-      <c r="N48" s="20">
-        <v>20</v>
-      </c>
-      <c r="O48" s="20">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H48" s="16">
+        <v>130</v>
+      </c>
+      <c r="I48" s="16">
+        <v>180</v>
+      </c>
+      <c r="J48" s="16">
+        <v>100</v>
+      </c>
+      <c r="K48" s="16">
+        <v>130</v>
+      </c>
+      <c r="L48" s="16">
+        <v>1888</v>
+      </c>
+      <c r="M48" s="16">
+        <v>288</v>
+      </c>
+      <c r="N48" s="16">
+        <v>17</v>
+      </c>
+      <c r="O48" s="16">
+        <v>2000</v>
+      </c>
+      <c r="Q48" s="15"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
-        <v>21002</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C49" s="4">
-        <f>A49</f>
-        <v>21002</v>
-      </c>
-      <c r="D49" s="20">
-        <v>128</v>
+        <v>20048</v>
+      </c>
+      <c r="B49" t="s">
+        <v>339</v>
+      </c>
+      <c r="C49" s="7">
+        <v>20048</v>
+      </c>
+      <c r="D49" s="16">
+        <v>100</v>
       </c>
       <c r="E49" s="16">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="F49" s="16">
-        <v>40000</v>
+        <v>7600</v>
       </c>
       <c r="G49" s="20">
         <v>100</v>
       </c>
-      <c r="H49" s="20">
-        <v>260</v>
-      </c>
-      <c r="I49" s="20">
-        <v>330</v>
-      </c>
-      <c r="J49" s="20">
-        <v>220</v>
-      </c>
-      <c r="K49" s="20">
-        <v>300</v>
-      </c>
-      <c r="L49" s="20">
-        <v>50</v>
-      </c>
-      <c r="M49" s="20">
-        <v>34</v>
-      </c>
-      <c r="N49" s="20">
-        <v>20</v>
-      </c>
-      <c r="O49" s="20">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H49" s="16">
+        <v>100</v>
+      </c>
+      <c r="I49" s="16">
+        <v>130</v>
+      </c>
+      <c r="J49" s="16">
+        <v>130</v>
+      </c>
+      <c r="K49" s="16">
+        <v>180</v>
+      </c>
+      <c r="L49" s="16">
+        <v>288</v>
+      </c>
+      <c r="M49" s="16">
+        <v>1888</v>
+      </c>
+      <c r="N49" s="16">
+        <v>17</v>
+      </c>
+      <c r="O49" s="16">
+        <v>2000</v>
+      </c>
+      <c r="Q49" s="15"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
-        <v>21003</v>
+        <v>21001</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C50" s="4">
-        <f>A50</f>
-        <v>21003</v>
+        <v>12019</v>
       </c>
       <c r="D50" s="20">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E50" s="16">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="F50" s="16">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="G50" s="20">
         <v>100</v>
       </c>
       <c r="H50" s="20">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="I50" s="20">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="J50" s="20">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="K50" s="20">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="L50" s="20">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M50" s="20">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N50" s="20">
         <v>20</v>
       </c>
       <c r="O50" s="20">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
-        <v>21004</v>
+        <v>21002</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C51" s="4">
-        <v>12024</v>
+        <f>A51</f>
+        <v>21002</v>
       </c>
       <c r="D51" s="20">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E51" s="16">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="F51" s="16">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="G51" s="20">
         <v>100</v>
       </c>
       <c r="H51" s="20">
+        <v>260</v>
+      </c>
+      <c r="I51" s="20">
+        <v>330</v>
+      </c>
+      <c r="J51" s="20">
+        <v>220</v>
+      </c>
+      <c r="K51" s="20">
         <v>300</v>
       </c>
-      <c r="I51" s="20">
-        <v>400</v>
-      </c>
-      <c r="J51" s="20">
-        <v>300</v>
-      </c>
-      <c r="K51" s="20">
-        <v>400</v>
-      </c>
       <c r="L51" s="20">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M51" s="20">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="N51" s="20">
         <v>20</v>
       </c>
       <c r="O51" s="20">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
-        <v>21005</v>
+        <v>21003</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C52" s="4">
-        <v>11040</v>
+        <f>A52</f>
+        <v>21003</v>
       </c>
       <c r="D52" s="20">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E52" s="16">
+        <v>32000</v>
+      </c>
+      <c r="F52" s="16">
         <v>40000</v>
-      </c>
-      <c r="F52" s="16">
-        <v>45000</v>
       </c>
       <c r="G52" s="20">
         <v>100</v>
       </c>
       <c r="H52" s="20">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="I52" s="20">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J52" s="20">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="K52" s="20">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L52" s="20">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M52" s="20">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N52" s="20">
         <v>20</v>
       </c>
       <c r="O52" s="20">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
-        <v>21006</v>
+        <v>21004</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C53" s="4">
-        <f>A53</f>
-        <v>21006</v>
+        <v>12024</v>
       </c>
       <c r="D53" s="20">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="E53" s="16">
-        <v>44000</v>
+        <v>38000</v>
       </c>
       <c r="F53" s="16">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="G53" s="20">
         <v>100</v>
       </c>
       <c r="H53" s="20">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="I53" s="20">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J53" s="20">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="K53" s="20">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="L53" s="20">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M53" s="20">
         <v>53</v>
@@ -18127,45 +17876,45 @@
         <v>20</v>
       </c>
       <c r="O53" s="20">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
-        <v>21007</v>
+        <v>21005</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C54" s="4">
-        <v>21007</v>
+        <v>11040</v>
       </c>
       <c r="D54" s="20">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E54" s="16">
+        <v>40000</v>
+      </c>
+      <c r="F54" s="16">
         <v>45000</v>
-      </c>
-      <c r="F54" s="16">
-        <v>60000</v>
       </c>
       <c r="G54" s="20">
         <v>100</v>
       </c>
       <c r="H54" s="20">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="I54" s="20">
         <v>500</v>
       </c>
       <c r="J54" s="20">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="K54" s="20">
         <v>500</v>
       </c>
       <c r="L54" s="20">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M54" s="20">
         <v>60</v>
@@ -18174,175 +17923,270 @@
         <v>20</v>
       </c>
       <c r="O54" s="20">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
-        <v>21008</v>
+        <v>21006</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C55" s="4">
-        <v>21008</v>
+        <f>A55</f>
+        <v>21006</v>
       </c>
       <c r="D55" s="20">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="E55" s="16">
-        <v>48000</v>
+        <v>44000</v>
       </c>
       <c r="F55" s="16">
-        <v>63000</v>
+        <v>50000</v>
       </c>
       <c r="G55" s="20">
         <v>100</v>
       </c>
       <c r="H55" s="20">
+        <v>360</v>
+      </c>
+      <c r="I55" s="20">
+        <v>500</v>
+      </c>
+      <c r="J55" s="20">
+        <v>320</v>
+      </c>
+      <c r="K55" s="20">
+        <v>470</v>
+      </c>
+      <c r="L55" s="20">
+        <v>54</v>
+      </c>
+      <c r="M55" s="20">
+        <v>53</v>
+      </c>
+      <c r="N55" s="20">
+        <v>20</v>
+      </c>
+      <c r="O55" s="20">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A56" s="4">
+        <v>21007</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C56" s="4">
+        <v>21007</v>
+      </c>
+      <c r="D56" s="20">
+        <v>170</v>
+      </c>
+      <c r="E56" s="16">
+        <v>45000</v>
+      </c>
+      <c r="F56" s="16">
+        <v>60000</v>
+      </c>
+      <c r="G56" s="20">
+        <v>100</v>
+      </c>
+      <c r="H56" s="20">
+        <v>370</v>
+      </c>
+      <c r="I56" s="20">
+        <v>500</v>
+      </c>
+      <c r="J56" s="20">
+        <v>370</v>
+      </c>
+      <c r="K56" s="20">
+        <v>500</v>
+      </c>
+      <c r="L56" s="20">
+        <v>60</v>
+      </c>
+      <c r="M56" s="20">
+        <v>60</v>
+      </c>
+      <c r="N56" s="20">
+        <v>20</v>
+      </c>
+      <c r="O56" s="20">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A57" s="4">
+        <v>21008</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C57" s="4">
+        <v>21008</v>
+      </c>
+      <c r="D57" s="20">
+        <v>185</v>
+      </c>
+      <c r="E57" s="16">
+        <v>48000</v>
+      </c>
+      <c r="F57" s="16">
+        <v>63000</v>
+      </c>
+      <c r="G57" s="20">
+        <v>100</v>
+      </c>
+      <c r="H57" s="20">
         <v>450</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I57" s="20">
         <v>450</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J57" s="20">
         <v>450</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K57" s="20">
         <v>450</v>
       </c>
-      <c r="L55" s="20">
+      <c r="L57" s="20">
         <v>60</v>
       </c>
-      <c r="M55" s="20">
+      <c r="M57" s="20">
         <v>60</v>
       </c>
-      <c r="N55" s="20">
-        <v>20</v>
-      </c>
-      <c r="O55" s="20">
+      <c r="N57" s="20">
+        <v>20</v>
+      </c>
+      <c r="O57" s="20">
         <v>1400</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B57" s="4"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B58" s="1" t="s">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B59" s="4"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B60" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C60" s="4">
+        <f>C51</f>
+        <v>21002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B61" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C58" s="4">
-        <f>C49</f>
-        <v>21002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B59" s="1" t="s">
+      <c r="C61" s="4">
+        <f>C52</f>
+        <v>21003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B62" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C59" s="4">
-        <f>C50</f>
-        <v>21003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B60" s="1" t="s">
+      <c r="C62">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B63" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C60">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B61" s="1" t="s">
+      <c r="C63">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B64" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C61">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B62" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C62">
+      <c r="C64">
         <v>401</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B63" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C63">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B64" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C64">
-        <v>430</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C65" s="4">
-        <v>402</v>
+        <v>331</v>
+      </c>
+      <c r="C65">
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C66" s="4">
-        <v>393</v>
+        <v>332</v>
+      </c>
+      <c r="C66">
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C67" s="4">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B68" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C68" s="4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B69" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C69" s="4">
         <v>335</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I40:I41 H48:M1048576 H41 O41 H33:I39 L33:M39 H42:I45 L42:O45 L40:N41 H1:M32 N48:O55">
-    <cfRule type="expression" dxfId="57" priority="6">
+  <conditionalFormatting sqref="I40:I41 H50:M1048576 H41 O41 H33:I39 L33:M39 H42:I45 L42:O45 L40:N41 H1:M32 N50:O57">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>H1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:K45 J33:K39">
-    <cfRule type="expression" dxfId="56" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>J33=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="expression" dxfId="55" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>K40=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:K41">
-    <cfRule type="expression" dxfId="54" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>J41=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42:K43">
-    <cfRule type="expression" dxfId="53" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>J42=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46:M47">
-    <cfRule type="expression" dxfId="52" priority="1">
+  <conditionalFormatting sqref="H46:M49">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>H46=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="14610" yWindow="60" windowWidth="13185" windowHeight="9285"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="11595" windowHeight="9315"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="1" r:id="rId1"/>
@@ -1167,7 +1167,157 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="86">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -1787,28 +1937,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R285"/>
+  <dimension ref="A1:U285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R274" sqref="R274"/>
+      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G274" sqref="G274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="16" customWidth="1"/>
+    <col min="3" max="4" width="6.5" style="16" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="13" customWidth="1"/>
     <col min="9" max="12" width="6.5" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="5.5" style="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.5" style="15" customWidth="1"/>
     <col min="16" max="16" width="9.5" style="13" customWidth="1"/>
-    <col min="18" max="18" width="5.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -2093,10 +2242,10 @@
         <v>10</v>
       </c>
       <c r="I6" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K6" s="13">
         <v>0</v>
@@ -2144,10 +2293,10 @@
         <v>10</v>
       </c>
       <c r="I7" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K7" s="13">
         <v>0</v>
@@ -2198,13 +2347,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K8" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M8" s="13">
         <v>0</v>
@@ -2300,7 +2449,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K10" s="13">
         <v>0</v>
@@ -2360,13 +2509,13 @@
         <v>0</v>
       </c>
       <c r="M11" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="13">
         <v>0</v>
       </c>
       <c r="O11" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P11" s="13">
         <v>2500</v>
@@ -2510,7 +2659,7 @@
         <v>7</v>
       </c>
       <c r="L14" s="13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M14" s="13">
         <v>2</v>
@@ -2558,10 +2707,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L15" s="13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M15" s="13">
         <v>0</v>
@@ -2603,10 +2752,10 @@
         <v>10</v>
       </c>
       <c r="I16" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J16" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K16" s="13">
         <v>0</v>
@@ -2627,7 +2776,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>10016</v>
       </c>
@@ -2660,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L17" s="13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M17" s="13">
         <v>0</v>
@@ -2678,7 +2827,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>10017</v>
       </c>
@@ -2705,7 +2854,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J18" s="13">
         <v>15</v>
@@ -2729,7 +2878,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10018</v>
       </c>
@@ -2756,10 +2905,10 @@
         <v>10</v>
       </c>
       <c r="I19" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J19" s="13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K19" s="13">
         <v>0</v>
@@ -2780,7 +2929,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>10019</v>
       </c>
@@ -2807,10 +2956,10 @@
         <v>10</v>
       </c>
       <c r="I20" s="13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J20" s="13">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K20" s="13">
         <v>0</v>
@@ -2831,7 +2980,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>10020</v>
       </c>
@@ -2858,10 +3007,10 @@
         <v>10</v>
       </c>
       <c r="I21" s="13">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J21" s="13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K21" s="13">
         <v>0</v>
@@ -2882,7 +3031,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>10021</v>
       </c>
@@ -2909,10 +3058,10 @@
         <v>10</v>
       </c>
       <c r="I22" s="13">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J22" s="13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K22" s="13">
         <v>0</v>
@@ -2933,7 +3082,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>10022</v>
       </c>
@@ -2966,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="K23" s="13">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="L23" s="13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M23" s="13">
         <v>2</v>
@@ -2984,7 +3133,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>10023</v>
       </c>
@@ -3017,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="K24" s="13">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="L24" s="13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M24" s="13">
         <v>2</v>
@@ -3035,7 +3184,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>10024</v>
       </c>
@@ -3068,10 +3217,10 @@
         <v>0</v>
       </c>
       <c r="K25" s="13">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="L25" s="13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M25" s="13">
         <v>3</v>
@@ -3086,7 +3235,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>10025</v>
       </c>
@@ -3113,10 +3262,10 @@
         <v>10</v>
       </c>
       <c r="I26" s="13">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J26" s="13">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K26" s="13">
         <v>0</v>
@@ -3136,8 +3285,11 @@
       <c r="P26" s="13">
         <v>2500</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>10026</v>
       </c>
@@ -3164,10 +3316,10 @@
         <v>10</v>
       </c>
       <c r="I27" s="13">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J27" s="13">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K27" s="13">
         <v>0</v>
@@ -3188,7 +3340,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>10027</v>
       </c>
@@ -3215,10 +3367,10 @@
         <v>10</v>
       </c>
       <c r="I28" s="13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J28" s="13">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K28" s="13">
         <v>0</v>
@@ -3239,7 +3391,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>10028</v>
       </c>
@@ -3266,10 +3418,10 @@
         <v>10</v>
       </c>
       <c r="I29" s="13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J29" s="13">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K29" s="13">
         <v>0</v>
@@ -3290,7 +3442,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>10029</v>
       </c>
@@ -3323,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="K30" s="13">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L30" s="13">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M30" s="13">
         <v>0</v>
@@ -3341,7 +3493,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>10030</v>
       </c>
@@ -3392,7 +3544,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>10031</v>
       </c>
@@ -3629,10 +3781,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L36" s="13">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M36" s="13">
         <v>0</v>
@@ -3680,10 +3832,10 @@
         <v>0</v>
       </c>
       <c r="K37" s="13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L37" s="13">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M37" s="13">
         <v>3</v>
@@ -3725,10 +3877,10 @@
         <v>10</v>
       </c>
       <c r="I38" s="13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J38" s="13">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K38" s="13">
         <v>0</v>
@@ -3776,10 +3928,10 @@
         <v>10</v>
       </c>
       <c r="I39" s="13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J39" s="13">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K39" s="13">
         <v>0</v>
@@ -3827,10 +3979,10 @@
         <v>10</v>
       </c>
       <c r="I40" s="13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J40" s="13">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K40" s="13">
         <v>0</v>
@@ -3884,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L41" s="13">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M41" s="13">
         <v>0</v>
@@ -3929,10 +4081,10 @@
         <v>10</v>
       </c>
       <c r="I42" s="13">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J42" s="13">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K42" s="13">
         <v>0</v>
@@ -3980,10 +4132,10 @@
         <v>10</v>
       </c>
       <c r="I43" s="13">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J43" s="13">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K43" s="13">
         <v>0</v>
@@ -4037,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="13">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L44" s="13">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M44" s="13">
         <v>5</v>
@@ -4088,10 +4240,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="13">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="L45" s="13">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M45" s="13">
         <v>0</v>
@@ -4121,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="13">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F46" s="13">
         <v>330</v>
@@ -4139,10 +4291,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="13">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="L46" s="13">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M46" s="13">
         <v>3</v>
@@ -4190,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M47" s="13">
         <v>10</v>
@@ -4241,10 +4393,10 @@
         <v>0</v>
       </c>
       <c r="K48" s="13">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L48" s="13">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M48" s="13">
         <v>15</v>
@@ -4286,10 +4438,10 @@
         <v>10</v>
       </c>
       <c r="I49">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J49">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K49" s="13">
         <v>0</v>
@@ -4340,7 +4492,7 @@
         <v>30</v>
       </c>
       <c r="J50" s="13">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="K50" s="13">
         <v>0</v>
@@ -4388,10 +4540,10 @@
         <v>10</v>
       </c>
       <c r="I51">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J51">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K51" s="13">
         <v>0</v>
@@ -4439,10 +4591,10 @@
         <v>10</v>
       </c>
       <c r="I52" s="13">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J52" s="13">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="K52" s="13">
         <v>0</v>
@@ -4502,16 +4654,16 @@
         <v>80</v>
       </c>
       <c r="M53" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N53" s="13">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O53" s="13">
         <v>17</v>
       </c>
       <c r="P53" s="13">
-        <v>1600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
@@ -4541,10 +4693,10 @@
         <v>10</v>
       </c>
       <c r="I54">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J54">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K54" s="13">
         <v>0</v>
@@ -4847,10 +4999,10 @@
         <v>10</v>
       </c>
       <c r="I60">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J60">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K60" s="13">
         <v>0</v>
@@ -4904,10 +5056,10 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L61">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M61" s="13">
         <v>10</v>
@@ -5210,10 +5362,10 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L67">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M67" s="13">
         <v>20</v>
@@ -5516,10 +5668,10 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="L73">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M73" s="13">
         <v>9</v>
@@ -5570,7 +5722,7 @@
         <v>40</v>
       </c>
       <c r="L74">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M74" s="13">
         <v>10</v>
@@ -5618,10 +5770,10 @@
         <v>0</v>
       </c>
       <c r="K75" s="13">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L75" s="13">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M75" s="13">
         <v>0</v>
@@ -6341,7 +6493,7 @@
         <v>15</v>
       </c>
       <c r="N89" s="13">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="O89" s="13">
         <v>38</v>
@@ -6525,7 +6677,7 @@
         <v>1725</v>
       </c>
       <c r="G93">
-        <f t="shared" ref="G93:G137" si="4">E93*32</f>
+        <f t="shared" ref="G93:G114" si="4">E93*32</f>
         <v>2208</v>
       </c>
       <c r="H93" s="13">
@@ -6579,7 +6731,7 @@
         <v>65</v>
       </c>
       <c r="F94">
-        <f t="shared" ref="F94:F137" si="5">E94*25</f>
+        <f t="shared" ref="F94:F157" si="5">E94*25</f>
         <v>1625</v>
       </c>
       <c r="G94">
@@ -7801,8 +7953,8 @@
         <v>2350</v>
       </c>
       <c r="G115">
-        <f t="shared" si="4"/>
-        <v>3008</v>
+        <f>E115*35</f>
+        <v>3290</v>
       </c>
       <c r="H115" s="13">
         <v>10</v>
@@ -7859,8 +8011,8 @@
         <v>2250</v>
       </c>
       <c r="G116">
-        <f t="shared" si="4"/>
-        <v>2880</v>
+        <f t="shared" ref="G116:G127" si="9">E116*35</f>
+        <v>3150</v>
       </c>
       <c r="H116" s="13">
         <v>10</v>
@@ -7917,8 +8069,8 @@
         <v>2300</v>
       </c>
       <c r="G117">
-        <f t="shared" si="4"/>
-        <v>2944</v>
+        <f t="shared" si="9"/>
+        <v>3220</v>
       </c>
       <c r="H117" s="13">
         <v>10</v>
@@ -7938,11 +8090,11 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <f t="shared" ref="M117:M126" si="9">INT(E117/3)</f>
+        <f t="shared" ref="M117:M126" si="10">INT(E117/3)</f>
         <v>30</v>
       </c>
       <c r="N117">
-        <f t="shared" ref="N117:N126" si="10">INT(E117/2.8)</f>
+        <f t="shared" ref="N117:N126" si="11">INT(E117/2.8)</f>
         <v>32</v>
       </c>
       <c r="O117">
@@ -7975,8 +8127,8 @@
         <v>2150</v>
       </c>
       <c r="G118">
-        <f t="shared" si="4"/>
-        <v>2752</v>
+        <f t="shared" si="9"/>
+        <v>3010</v>
       </c>
       <c r="H118" s="13">
         <v>10</v>
@@ -7996,11 +8148,11 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="N118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="O118">
@@ -8033,8 +8185,8 @@
         <v>2350</v>
       </c>
       <c r="G119">
-        <f t="shared" si="4"/>
-        <v>3008</v>
+        <f t="shared" si="9"/>
+        <v>3290</v>
       </c>
       <c r="H119" s="13">
         <v>10</v>
@@ -8054,11 +8206,11 @@
         <v>178</v>
       </c>
       <c r="M119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="N119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="O119">
@@ -8091,8 +8243,8 @@
         <v>2175</v>
       </c>
       <c r="G120">
-        <f t="shared" si="4"/>
-        <v>2784</v>
+        <f t="shared" si="9"/>
+        <v>3045</v>
       </c>
       <c r="H120" s="13">
         <v>10</v>
@@ -8112,11 +8264,11 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="N120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="O120">
@@ -8149,8 +8301,8 @@
         <v>2125</v>
       </c>
       <c r="G121">
-        <f t="shared" si="4"/>
-        <v>2720</v>
+        <f t="shared" si="9"/>
+        <v>2975</v>
       </c>
       <c r="H121" s="13">
         <v>10</v>
@@ -8170,11 +8322,11 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="N121">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="O121">
@@ -8207,8 +8359,8 @@
         <v>2250</v>
       </c>
       <c r="G122">
-        <f t="shared" si="4"/>
-        <v>2880</v>
+        <f t="shared" si="9"/>
+        <v>3150</v>
       </c>
       <c r="H122" s="13">
         <v>10</v>
@@ -8228,11 +8380,11 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="N122">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="O122">
@@ -8265,8 +8417,8 @@
         <v>2200</v>
       </c>
       <c r="G123">
-        <f t="shared" si="4"/>
-        <v>2816</v>
+        <f t="shared" si="9"/>
+        <v>3080</v>
       </c>
       <c r="H123" s="13">
         <v>10</v>
@@ -8286,11 +8438,11 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="N123">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="O123">
@@ -8323,8 +8475,8 @@
         <v>2150</v>
       </c>
       <c r="G124">
-        <f t="shared" si="4"/>
-        <v>2752</v>
+        <f t="shared" si="9"/>
+        <v>3010</v>
       </c>
       <c r="H124" s="13">
         <v>10</v>
@@ -8344,11 +8496,11 @@
         <v>163</v>
       </c>
       <c r="M124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="N124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="O124">
@@ -8381,8 +8533,8 @@
         <v>2300</v>
       </c>
       <c r="G125">
-        <f t="shared" si="4"/>
-        <v>2944</v>
+        <f t="shared" si="9"/>
+        <v>3220</v>
       </c>
       <c r="H125" s="13">
         <v>10</v>
@@ -8402,11 +8554,11 @@
         <v>174</v>
       </c>
       <c r="M125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="N125">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="O125">
@@ -8439,8 +8591,8 @@
         <v>2225</v>
       </c>
       <c r="G126">
-        <f t="shared" si="4"/>
-        <v>2848</v>
+        <f t="shared" si="9"/>
+        <v>3115</v>
       </c>
       <c r="H126" s="13">
         <v>10</v>
@@ -8460,11 +8612,11 @@
         <v>169</v>
       </c>
       <c r="M126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="N126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="O126">
@@ -8497,8 +8649,8 @@
         <v>2350</v>
       </c>
       <c r="G127">
-        <f t="shared" si="4"/>
-        <v>3008</v>
+        <f t="shared" si="9"/>
+        <v>3290</v>
       </c>
       <c r="H127" s="13">
         <v>10</v>
@@ -8555,8 +8707,8 @@
         <v>2450</v>
       </c>
       <c r="G128">
-        <f t="shared" si="4"/>
-        <v>3136</v>
+        <f>E128*38</f>
+        <v>3724</v>
       </c>
       <c r="H128" s="13">
         <v>10</v>
@@ -8576,11 +8728,11 @@
         <v>210</v>
       </c>
       <c r="M128">
-        <f t="shared" ref="M128:M137" si="11">INT(E128/3)</f>
+        <f t="shared" ref="M128:M137" si="12">INT(E128/3)</f>
         <v>32</v>
       </c>
       <c r="N128">
-        <f t="shared" ref="N128:N137" si="12">INT(E128/2.8)</f>
+        <f t="shared" ref="N128:N137" si="13">INT(E128/2.8)</f>
         <v>35</v>
       </c>
       <c r="O128">
@@ -8613,8 +8765,8 @@
         <v>2550</v>
       </c>
       <c r="G129">
-        <f t="shared" si="4"/>
-        <v>3264</v>
+        <f t="shared" ref="G129:G137" si="14">E129*38</f>
+        <v>3876</v>
       </c>
       <c r="H129" s="13">
         <v>10</v>
@@ -8634,11 +8786,11 @@
         <v>219</v>
       </c>
       <c r="M129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34</v>
       </c>
       <c r="N129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="O129">
@@ -8671,8 +8823,8 @@
         <v>2375</v>
       </c>
       <c r="G130">
-        <f t="shared" si="4"/>
-        <v>3040</v>
+        <f t="shared" si="14"/>
+        <v>3610</v>
       </c>
       <c r="H130" s="13">
         <v>10</v>
@@ -8692,11 +8844,11 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="N130">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
       <c r="O130">
@@ -8729,8 +8881,8 @@
         <v>2375</v>
       </c>
       <c r="G131">
-        <f t="shared" si="4"/>
-        <v>3040</v>
+        <f t="shared" si="14"/>
+        <v>3610</v>
       </c>
       <c r="H131" s="13">
         <v>10</v>
@@ -8750,11 +8902,11 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="N131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
       <c r="O131">
@@ -8787,8 +8939,8 @@
         <v>2525</v>
       </c>
       <c r="G132">
-        <f t="shared" si="4"/>
-        <v>3232</v>
+        <f t="shared" si="14"/>
+        <v>3838</v>
       </c>
       <c r="H132" s="13">
         <v>10</v>
@@ -8808,11 +8960,11 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
       <c r="N132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="O132">
@@ -8845,8 +8997,8 @@
         <v>2475</v>
       </c>
       <c r="G133">
-        <f t="shared" si="4"/>
-        <v>3168</v>
+        <f t="shared" si="14"/>
+        <v>3762</v>
       </c>
       <c r="H133" s="13">
         <v>10</v>
@@ -8866,11 +9018,11 @@
         <v>212</v>
       </c>
       <c r="M133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
       <c r="N133">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="O133">
@@ -8903,8 +9055,8 @@
         <v>2525</v>
       </c>
       <c r="G134">
-        <f t="shared" si="4"/>
-        <v>3232</v>
+        <f t="shared" si="14"/>
+        <v>3838</v>
       </c>
       <c r="H134" s="13">
         <v>10</v>
@@ -8924,11 +9076,11 @@
         <v>217</v>
       </c>
       <c r="M134">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
       <c r="N134">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="O134">
@@ -8961,8 +9113,8 @@
         <v>2500</v>
       </c>
       <c r="G135">
-        <f t="shared" si="4"/>
-        <v>3200</v>
+        <f t="shared" si="14"/>
+        <v>3800</v>
       </c>
       <c r="H135" s="13">
         <v>10</v>
@@ -8982,11 +9134,11 @@
         <v>215</v>
       </c>
       <c r="M135">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
       <c r="N135">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="O135">
@@ -9019,8 +9171,8 @@
         <v>2575</v>
       </c>
       <c r="G136">
-        <f t="shared" si="4"/>
-        <v>3296</v>
+        <f t="shared" si="14"/>
+        <v>3914</v>
       </c>
       <c r="H136" s="13">
         <v>10</v>
@@ -9040,11 +9192,11 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34</v>
       </c>
       <c r="N136">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="O136">
@@ -9077,8 +9229,8 @@
         <v>2450</v>
       </c>
       <c r="G137">
-        <f t="shared" si="4"/>
-        <v>3136</v>
+        <f t="shared" si="14"/>
+        <v>3724</v>
       </c>
       <c r="H137" s="13">
         <v>10</v>
@@ -9098,11 +9250,11 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="N137">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="O137">
@@ -9131,12 +9283,12 @@
         <v>105</v>
       </c>
       <c r="F138">
-        <f>E138*22</f>
-        <v>2310</v>
+        <f t="shared" si="5"/>
+        <v>2625</v>
       </c>
       <c r="G138">
-        <f t="shared" ref="G138" si="13">E138*32</f>
-        <v>3360</v>
+        <f>E138*41</f>
+        <v>4305</v>
       </c>
       <c r="H138" s="13">
         <v>10</v>
@@ -9156,11 +9308,11 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <f t="shared" ref="M138" si="14">INT(E138/3)</f>
+        <f t="shared" ref="M138" si="15">INT(E138/3)</f>
         <v>35</v>
       </c>
       <c r="N138">
-        <f t="shared" ref="N138" si="15">INT(E138/2.8)</f>
+        <f t="shared" ref="N138" si="16">INT(E138/2.8)</f>
         <v>37</v>
       </c>
       <c r="O138">
@@ -9179,7 +9331,7 @@
         <v>191</v>
       </c>
       <c r="C139" s="17">
-        <f t="shared" ref="C139:C141" si="16">A139</f>
+        <f t="shared" ref="C139:C141" si="17">A139</f>
         <v>11002</v>
       </c>
       <c r="D139" s="16">
@@ -9189,12 +9341,12 @@
         <v>111</v>
       </c>
       <c r="F139">
-        <f t="shared" ref="F139:F185" si="17">E139*22</f>
-        <v>2442</v>
+        <f t="shared" si="5"/>
+        <v>2775</v>
       </c>
       <c r="G139">
-        <f t="shared" ref="G139:G202" si="18">E139*32</f>
-        <v>3552</v>
+        <f t="shared" ref="G139:G145" si="18">E139*41</f>
+        <v>4551</v>
       </c>
       <c r="H139" s="13">
         <v>10</v>
@@ -9236,7 +9388,7 @@
         <v>192</v>
       </c>
       <c r="C140" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11003</v>
       </c>
       <c r="D140" s="16">
@@ -9246,12 +9398,12 @@
         <v>105</v>
       </c>
       <c r="F140">
-        <f t="shared" si="17"/>
-        <v>2310</v>
+        <f t="shared" si="5"/>
+        <v>2625</v>
       </c>
       <c r="G140">
         <f t="shared" si="18"/>
-        <v>3360</v>
+        <v>4305</v>
       </c>
       <c r="H140" s="13">
         <v>10</v>
@@ -9293,7 +9445,7 @@
         <v>193</v>
       </c>
       <c r="C141" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11004</v>
       </c>
       <c r="D141" s="16">
@@ -9303,12 +9455,12 @@
         <v>106</v>
       </c>
       <c r="F141">
-        <f t="shared" si="17"/>
-        <v>2332</v>
+        <f t="shared" si="5"/>
+        <v>2650</v>
       </c>
       <c r="G141">
         <f t="shared" si="18"/>
-        <v>3392</v>
+        <v>4346</v>
       </c>
       <c r="H141" s="13">
         <v>10</v>
@@ -9360,12 +9512,12 @@
         <v>105</v>
       </c>
       <c r="F142">
-        <f t="shared" si="17"/>
-        <v>2310</v>
+        <f t="shared" si="5"/>
+        <v>2625</v>
       </c>
       <c r="G142">
         <f t="shared" si="18"/>
-        <v>3360</v>
+        <v>4305</v>
       </c>
       <c r="H142" s="13">
         <v>10</v>
@@ -9417,12 +9569,12 @@
         <v>111</v>
       </c>
       <c r="F143">
-        <f t="shared" si="17"/>
-        <v>2442</v>
+        <f t="shared" si="5"/>
+        <v>2775</v>
       </c>
       <c r="G143">
         <f t="shared" si="18"/>
-        <v>3552</v>
+        <v>4551</v>
       </c>
       <c r="H143" s="13">
         <v>10</v>
@@ -9474,12 +9626,12 @@
         <v>105</v>
       </c>
       <c r="F144">
-        <f t="shared" si="17"/>
-        <v>2310</v>
+        <f t="shared" si="5"/>
+        <v>2625</v>
       </c>
       <c r="G144">
         <f t="shared" si="18"/>
-        <v>3360</v>
+        <v>4305</v>
       </c>
       <c r="H144" s="13">
         <v>10</v>
@@ -9531,12 +9683,12 @@
         <v>106</v>
       </c>
       <c r="F145">
-        <f t="shared" si="17"/>
-        <v>2332</v>
+        <f t="shared" si="5"/>
+        <v>2650</v>
       </c>
       <c r="G145">
         <f t="shared" si="18"/>
-        <v>3392</v>
+        <v>4346</v>
       </c>
       <c r="H145" s="13">
         <v>10</v>
@@ -9588,12 +9740,12 @@
         <v>120</v>
       </c>
       <c r="F146">
-        <f t="shared" si="17"/>
-        <v>2640</v>
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
       <c r="G146">
-        <f t="shared" si="18"/>
-        <v>3840</v>
+        <f>E146*44</f>
+        <v>5280</v>
       </c>
       <c r="H146" s="13">
         <v>10</v>
@@ -9645,12 +9797,12 @@
         <v>115</v>
       </c>
       <c r="F147">
-        <f t="shared" si="17"/>
-        <v>2530</v>
+        <f t="shared" si="5"/>
+        <v>2875</v>
       </c>
       <c r="G147">
-        <f t="shared" si="18"/>
-        <v>3680</v>
+        <f t="shared" ref="G147:G155" si="22">E147*44</f>
+        <v>5060</v>
       </c>
       <c r="H147" s="13">
         <v>10</v>
@@ -9702,12 +9854,12 @@
         <v>122</v>
       </c>
       <c r="F148">
-        <f t="shared" si="17"/>
-        <v>2684</v>
+        <f t="shared" si="5"/>
+        <v>3050</v>
       </c>
       <c r="G148">
-        <f t="shared" si="18"/>
-        <v>3904</v>
+        <f t="shared" si="22"/>
+        <v>5368</v>
       </c>
       <c r="H148" s="13">
         <v>10</v>
@@ -9759,12 +9911,12 @@
         <v>124</v>
       </c>
       <c r="F149">
-        <f t="shared" si="17"/>
-        <v>2728</v>
+        <f t="shared" si="5"/>
+        <v>3100</v>
       </c>
       <c r="G149">
-        <f t="shared" si="18"/>
-        <v>3968</v>
+        <f t="shared" si="22"/>
+        <v>5456</v>
       </c>
       <c r="H149" s="13">
         <v>10</v>
@@ -9816,12 +9968,12 @@
         <v>118</v>
       </c>
       <c r="F150">
-        <f t="shared" si="17"/>
-        <v>2596</v>
+        <f t="shared" si="5"/>
+        <v>2950</v>
       </c>
       <c r="G150">
-        <f t="shared" si="18"/>
-        <v>3776</v>
+        <f t="shared" si="22"/>
+        <v>5192</v>
       </c>
       <c r="H150" s="13">
         <v>10</v>
@@ -9873,12 +10025,12 @@
         <v>120</v>
       </c>
       <c r="F151">
-        <f t="shared" si="17"/>
-        <v>2640</v>
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
       <c r="G151">
-        <f t="shared" si="18"/>
-        <v>3840</v>
+        <f t="shared" si="22"/>
+        <v>5280</v>
       </c>
       <c r="H151" s="13">
         <v>10</v>
@@ -9930,12 +10082,12 @@
         <v>115</v>
       </c>
       <c r="F152">
-        <f t="shared" si="17"/>
-        <v>2530</v>
+        <f t="shared" si="5"/>
+        <v>2875</v>
       </c>
       <c r="G152">
-        <f t="shared" si="18"/>
-        <v>3680</v>
+        <f t="shared" si="22"/>
+        <v>5060</v>
       </c>
       <c r="H152" s="13">
         <v>10</v>
@@ -9987,12 +10139,12 @@
         <v>122</v>
       </c>
       <c r="F153">
-        <f>E153*22</f>
-        <v>2684</v>
+        <f t="shared" si="5"/>
+        <v>3050</v>
       </c>
       <c r="G153">
-        <f t="shared" si="18"/>
-        <v>3904</v>
+        <f t="shared" si="22"/>
+        <v>5368</v>
       </c>
       <c r="H153" s="13">
         <v>10</v>
@@ -10044,12 +10196,12 @@
         <v>124</v>
       </c>
       <c r="F154">
-        <f t="shared" si="17"/>
-        <v>2728</v>
+        <f t="shared" si="5"/>
+        <v>3100</v>
       </c>
       <c r="G154">
-        <f t="shared" si="18"/>
-        <v>3968</v>
+        <f t="shared" si="22"/>
+        <v>5456</v>
       </c>
       <c r="H154" s="13">
         <v>10</v>
@@ -10101,12 +10253,12 @@
         <v>118</v>
       </c>
       <c r="F155">
-        <f t="shared" si="17"/>
-        <v>2596</v>
+        <f t="shared" si="5"/>
+        <v>2950</v>
       </c>
       <c r="G155">
-        <f t="shared" si="18"/>
-        <v>3776</v>
+        <f t="shared" si="22"/>
+        <v>5192</v>
       </c>
       <c r="H155" s="13">
         <v>10</v>
@@ -10158,12 +10310,12 @@
         <v>132</v>
       </c>
       <c r="F156">
-        <f t="shared" si="17"/>
-        <v>2904</v>
+        <f t="shared" si="5"/>
+        <v>3300</v>
       </c>
       <c r="G156">
-        <f t="shared" si="18"/>
-        <v>4224</v>
+        <f>E156*47</f>
+        <v>6204</v>
       </c>
       <c r="H156" s="13">
         <v>10</v>
@@ -10205,7 +10357,7 @@
         <v>212</v>
       </c>
       <c r="C157" s="17">
-        <f t="shared" ref="C157:C159" si="22">A157</f>
+        <f t="shared" ref="C157:C159" si="23">A157</f>
         <v>11020</v>
       </c>
       <c r="D157" s="16">
@@ -10215,12 +10367,12 @@
         <v>137</v>
       </c>
       <c r="F157">
-        <f t="shared" si="17"/>
-        <v>3014</v>
+        <f t="shared" si="5"/>
+        <v>3425</v>
       </c>
       <c r="G157">
-        <f t="shared" si="18"/>
-        <v>4384</v>
+        <f t="shared" ref="G157:G163" si="24">E157*47</f>
+        <v>6439</v>
       </c>
       <c r="H157" s="13">
         <v>10</v>
@@ -10262,7 +10414,7 @@
         <v>213</v>
       </c>
       <c r="C158" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11021</v>
       </c>
       <c r="D158" s="16">
@@ -10272,12 +10424,12 @@
         <v>135</v>
       </c>
       <c r="F158">
-        <f t="shared" si="17"/>
-        <v>2970</v>
+        <f t="shared" ref="F158:F188" si="25">E158*25</f>
+        <v>3375</v>
       </c>
       <c r="G158">
-        <f t="shared" si="18"/>
-        <v>4320</v>
+        <f t="shared" si="24"/>
+        <v>6345</v>
       </c>
       <c r="H158" s="13">
         <v>10</v>
@@ -10319,7 +10471,7 @@
         <v>214</v>
       </c>
       <c r="C159" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11022</v>
       </c>
       <c r="D159" s="16">
@@ -10329,12 +10481,12 @@
         <v>138</v>
       </c>
       <c r="F159">
-        <f t="shared" si="17"/>
-        <v>3036</v>
+        <f t="shared" si="25"/>
+        <v>3450</v>
       </c>
       <c r="G159">
-        <f t="shared" si="18"/>
-        <v>4416</v>
+        <f t="shared" si="24"/>
+        <v>6486</v>
       </c>
       <c r="H159" s="13">
         <v>10</v>
@@ -10386,12 +10538,12 @@
         <v>132</v>
       </c>
       <c r="F160">
-        <f t="shared" si="17"/>
-        <v>2904</v>
+        <f t="shared" si="25"/>
+        <v>3300</v>
       </c>
       <c r="G160">
-        <f t="shared" si="18"/>
-        <v>4224</v>
+        <f t="shared" si="24"/>
+        <v>6204</v>
       </c>
       <c r="H160" s="13">
         <v>10</v>
@@ -10443,12 +10595,12 @@
         <v>137</v>
       </c>
       <c r="F161">
-        <f t="shared" si="17"/>
-        <v>3014</v>
+        <f t="shared" si="25"/>
+        <v>3425</v>
       </c>
       <c r="G161">
-        <f t="shared" si="18"/>
-        <v>4384</v>
+        <f t="shared" si="24"/>
+        <v>6439</v>
       </c>
       <c r="H161" s="13">
         <v>10</v>
@@ -10500,12 +10652,12 @@
         <v>135</v>
       </c>
       <c r="F162">
-        <f t="shared" si="17"/>
-        <v>2970</v>
+        <f t="shared" si="25"/>
+        <v>3375</v>
       </c>
       <c r="G162">
-        <f t="shared" si="18"/>
-        <v>4320</v>
+        <f t="shared" si="24"/>
+        <v>6345</v>
       </c>
       <c r="H162" s="13">
         <v>10</v>
@@ -10557,12 +10709,12 @@
         <v>138</v>
       </c>
       <c r="F163">
-        <f>E163*22</f>
-        <v>3036</v>
+        <f t="shared" si="25"/>
+        <v>3450</v>
       </c>
       <c r="G163">
-        <f t="shared" si="18"/>
-        <v>4416</v>
+        <f t="shared" si="24"/>
+        <v>6486</v>
       </c>
       <c r="H163" s="13">
         <v>10</v>
@@ -10614,23 +10766,23 @@
         <v>152</v>
       </c>
       <c r="F164">
-        <f t="shared" si="17"/>
-        <v>3344</v>
+        <f t="shared" si="25"/>
+        <v>3800</v>
       </c>
       <c r="G164">
-        <f t="shared" si="18"/>
-        <v>4864</v>
+        <f>E164*50</f>
+        <v>7600</v>
       </c>
       <c r="H164" s="13">
         <v>10</v>
       </c>
       <c r="I164">
-        <f>INT($E164*1.75)</f>
-        <v>266</v>
+        <f>INT($E164*1.85)</f>
+        <v>281</v>
       </c>
       <c r="J164">
-        <f>INT($E164*2.7)</f>
-        <v>410</v>
+        <f>INT($E164*2.85)</f>
+        <v>433</v>
       </c>
       <c r="K164">
         <v>0</v>
@@ -10671,12 +10823,12 @@
         <v>150</v>
       </c>
       <c r="F165">
-        <f t="shared" si="17"/>
-        <v>3300</v>
+        <f t="shared" si="25"/>
+        <v>3750</v>
       </c>
       <c r="G165">
-        <f t="shared" si="18"/>
-        <v>4800</v>
+        <f t="shared" ref="G165:G169" si="26">E165*50</f>
+        <v>7500</v>
       </c>
       <c r="H165" s="13">
         <v>10</v>
@@ -10688,12 +10840,12 @@
         <v>0</v>
       </c>
       <c r="K165">
-        <f>INT($E165*1.75)</f>
-        <v>262</v>
+        <f>INT($E165*1.85)</f>
+        <v>277</v>
       </c>
       <c r="L165">
-        <f>INT($E165*2.7)</f>
-        <v>405</v>
+        <f>INT($E165*2.85)</f>
+        <v>427</v>
       </c>
       <c r="M165">
         <f t="shared" si="19"/>
@@ -10728,23 +10880,23 @@
         <v>149</v>
       </c>
       <c r="F166">
-        <f t="shared" si="17"/>
-        <v>3278</v>
+        <f t="shared" si="25"/>
+        <v>3725</v>
       </c>
       <c r="G166">
-        <f t="shared" si="18"/>
-        <v>4768</v>
+        <f t="shared" si="26"/>
+        <v>7450</v>
       </c>
       <c r="H166" s="13">
         <v>10</v>
       </c>
       <c r="I166">
-        <f>INT($E166*1.75)</f>
-        <v>260</v>
+        <f>INT($E166*1.85)</f>
+        <v>275</v>
       </c>
       <c r="J166">
-        <f>INT($E166*2.7)</f>
-        <v>402</v>
+        <f>INT($E166*2.85)</f>
+        <v>424</v>
       </c>
       <c r="K166">
         <v>0</v>
@@ -10785,23 +10937,23 @@
         <v>152</v>
       </c>
       <c r="F167">
-        <f t="shared" si="17"/>
-        <v>3344</v>
+        <f t="shared" si="25"/>
+        <v>3800</v>
       </c>
       <c r="G167">
-        <f t="shared" si="18"/>
-        <v>4864</v>
+        <f t="shared" si="26"/>
+        <v>7600</v>
       </c>
       <c r="H167" s="13">
         <v>10</v>
       </c>
       <c r="I167">
-        <f>INT($E167*1.75)</f>
-        <v>266</v>
+        <f>INT($E167*1.85)</f>
+        <v>281</v>
       </c>
       <c r="J167">
-        <f>INT($E167*2.7)</f>
-        <v>410</v>
+        <f>INT($E167*2.85)</f>
+        <v>433</v>
       </c>
       <c r="K167">
         <v>0</v>
@@ -10842,12 +10994,12 @@
         <v>150</v>
       </c>
       <c r="F168">
-        <f t="shared" si="17"/>
-        <v>3300</v>
+        <f t="shared" si="25"/>
+        <v>3750</v>
       </c>
       <c r="G168">
-        <f t="shared" si="18"/>
-        <v>4800</v>
+        <f t="shared" si="26"/>
+        <v>7500</v>
       </c>
       <c r="H168" s="13">
         <v>10</v>
@@ -10859,12 +11011,12 @@
         <v>0</v>
       </c>
       <c r="K168">
-        <f>INT($E168*1.75)</f>
-        <v>262</v>
+        <f>INT($E168*1.85)</f>
+        <v>277</v>
       </c>
       <c r="L168">
-        <f>INT($E168*2.7)</f>
-        <v>405</v>
+        <f>INT($E168*2.85)</f>
+        <v>427</v>
       </c>
       <c r="M168">
         <f t="shared" si="19"/>
@@ -10899,23 +11051,23 @@
         <v>149</v>
       </c>
       <c r="F169">
-        <f t="shared" si="17"/>
-        <v>3278</v>
+        <f t="shared" si="25"/>
+        <v>3725</v>
       </c>
       <c r="G169">
-        <f t="shared" si="18"/>
-        <v>4768</v>
+        <f t="shared" si="26"/>
+        <v>7450</v>
       </c>
       <c r="H169" s="13">
         <v>10</v>
       </c>
       <c r="I169">
-        <f>INT($E169*1.75)</f>
-        <v>260</v>
+        <f>INT($E169*1.85)</f>
+        <v>275</v>
       </c>
       <c r="J169">
-        <f>INT($E169*2.7)</f>
-        <v>402</v>
+        <f>INT($E169*2.85)</f>
+        <v>424</v>
       </c>
       <c r="K169">
         <v>0</v>
@@ -10956,23 +11108,23 @@
         <v>161</v>
       </c>
       <c r="F170">
-        <f t="shared" si="17"/>
-        <v>3542</v>
+        <f t="shared" si="25"/>
+        <v>4025</v>
       </c>
       <c r="G170">
-        <f t="shared" si="18"/>
-        <v>5152</v>
+        <f>E170*54</f>
+        <v>8694</v>
       </c>
       <c r="H170" s="13">
         <v>10</v>
       </c>
       <c r="I170">
-        <f>INT($E170*1.9)</f>
-        <v>305</v>
+        <f>INT($E170*2.05)</f>
+        <v>330</v>
       </c>
       <c r="J170">
-        <f>INT($E170*2.85)</f>
-        <v>458</v>
+        <f>INT($E170*3.1)</f>
+        <v>499</v>
       </c>
       <c r="K170">
         <v>0</v>
@@ -11003,7 +11155,7 @@
         <v>230</v>
       </c>
       <c r="C171" s="17">
-        <f t="shared" ref="C171:C175" si="23">A171</f>
+        <f t="shared" ref="C171:C175" si="27">A171</f>
         <v>11034</v>
       </c>
       <c r="D171" s="16">
@@ -11013,23 +11165,23 @@
         <v>168</v>
       </c>
       <c r="F171">
-        <f t="shared" si="17"/>
-        <v>3696</v>
+        <f t="shared" si="25"/>
+        <v>4200</v>
       </c>
       <c r="G171">
-        <f t="shared" si="18"/>
-        <v>5376</v>
+        <f t="shared" ref="G171:G175" si="28">E171*54</f>
+        <v>9072</v>
       </c>
       <c r="H171" s="13">
         <v>10</v>
       </c>
       <c r="I171">
-        <f>INT($E171*1.9)</f>
-        <v>319</v>
+        <f>INT($E171*2.05)</f>
+        <v>344</v>
       </c>
       <c r="J171">
-        <f>INT($E171*2.85)</f>
-        <v>478</v>
+        <f>INT($E171*3.1)</f>
+        <v>520</v>
       </c>
       <c r="K171">
         <v>0</v>
@@ -11060,7 +11212,7 @@
         <v>231</v>
       </c>
       <c r="C172" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>11035</v>
       </c>
       <c r="D172" s="16">
@@ -11070,12 +11222,12 @@
         <v>167</v>
       </c>
       <c r="F172">
-        <f t="shared" si="17"/>
-        <v>3674</v>
+        <f t="shared" si="25"/>
+        <v>4175</v>
       </c>
       <c r="G172">
-        <f t="shared" si="18"/>
-        <v>5344</v>
+        <f t="shared" si="28"/>
+        <v>9018</v>
       </c>
       <c r="H172" s="13">
         <v>10</v>
@@ -11087,12 +11239,12 @@
         <v>0</v>
       </c>
       <c r="K172">
-        <f>INT($E172*1.9)</f>
-        <v>317</v>
+        <f>INT($E172*2.05)</f>
+        <v>342</v>
       </c>
       <c r="L172">
-        <f>INT($E172*2.85)</f>
-        <v>475</v>
+        <f>INT($E172*3.1)</f>
+        <v>517</v>
       </c>
       <c r="M172">
         <f t="shared" si="19"/>
@@ -11117,7 +11269,7 @@
         <v>232</v>
       </c>
       <c r="C173" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>11036</v>
       </c>
       <c r="D173" s="16">
@@ -11127,23 +11279,23 @@
         <v>162</v>
       </c>
       <c r="F173">
-        <f t="shared" si="17"/>
-        <v>3564</v>
+        <f t="shared" si="25"/>
+        <v>4050</v>
       </c>
       <c r="G173">
-        <f t="shared" si="18"/>
-        <v>5184</v>
+        <f t="shared" si="28"/>
+        <v>8748</v>
       </c>
       <c r="H173" s="13">
         <v>10</v>
       </c>
       <c r="I173">
-        <f>INT($E173*1.9)</f>
-        <v>307</v>
+        <f>INT($E173*2.05)</f>
+        <v>332</v>
       </c>
       <c r="J173">
-        <f>INT($E173*2.85)</f>
-        <v>461</v>
+        <f>INT($E173*3.1)</f>
+        <v>502</v>
       </c>
       <c r="K173">
         <v>0</v>
@@ -11174,7 +11326,7 @@
         <v>233</v>
       </c>
       <c r="C174" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>11037</v>
       </c>
       <c r="D174" s="16">
@@ -11184,23 +11336,23 @@
         <v>165</v>
       </c>
       <c r="F174">
-        <f t="shared" si="17"/>
-        <v>3630</v>
+        <f t="shared" si="25"/>
+        <v>4125</v>
       </c>
       <c r="G174">
-        <f t="shared" si="18"/>
-        <v>5280</v>
+        <f t="shared" si="28"/>
+        <v>8910</v>
       </c>
       <c r="H174" s="13">
         <v>10</v>
       </c>
       <c r="I174">
-        <f>INT($E174*1.9)</f>
-        <v>313</v>
+        <f>INT($E174*2.05)</f>
+        <v>338</v>
       </c>
       <c r="J174">
-        <f>INT($E174*2.85)</f>
-        <v>470</v>
+        <f>INT($E174*3.1)</f>
+        <v>511</v>
       </c>
       <c r="K174">
         <v>0</v>
@@ -11231,7 +11383,7 @@
         <v>234</v>
       </c>
       <c r="C175" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>11038</v>
       </c>
       <c r="D175" s="16">
@@ -11241,12 +11393,12 @@
         <v>166</v>
       </c>
       <c r="F175">
-        <f t="shared" si="17"/>
-        <v>3652</v>
+        <f t="shared" si="25"/>
+        <v>4150</v>
       </c>
       <c r="G175">
-        <f t="shared" si="18"/>
-        <v>5312</v>
+        <f t="shared" si="28"/>
+        <v>8964</v>
       </c>
       <c r="H175" s="13">
         <v>10</v>
@@ -11258,12 +11410,12 @@
         <v>0</v>
       </c>
       <c r="K175">
-        <f>INT($E175*1.9)</f>
-        <v>315</v>
+        <f>INT($E175*2.05)</f>
+        <v>340</v>
       </c>
       <c r="L175">
-        <f>INT($E175*2.85)</f>
-        <v>473</v>
+        <f>INT($E175*3.1)</f>
+        <v>514</v>
       </c>
       <c r="M175">
         <f t="shared" si="19"/>
@@ -11298,23 +11450,23 @@
         <v>179</v>
       </c>
       <c r="F176">
-        <f t="shared" si="17"/>
-        <v>3938</v>
+        <f t="shared" si="25"/>
+        <v>4475</v>
       </c>
       <c r="G176">
-        <f t="shared" si="18"/>
-        <v>5728</v>
+        <f>E176*58</f>
+        <v>10382</v>
       </c>
       <c r="H176" s="13">
         <v>10</v>
       </c>
       <c r="I176">
-        <f>INT($E176*2.15)</f>
-        <v>384</v>
+        <f>INT($E176*2.5)</f>
+        <v>447</v>
       </c>
       <c r="J176">
-        <f>INT($E176*3.2)</f>
-        <v>572</v>
+        <f>INT($E176*3.4)</f>
+        <v>608</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -11345,7 +11497,7 @@
         <v>220</v>
       </c>
       <c r="C177" s="17">
-        <f t="shared" ref="C177:C180" si="24">A177</f>
+        <f t="shared" ref="C177:C180" si="29">A177</f>
         <v>11040</v>
       </c>
       <c r="D177" s="16">
@@ -11355,23 +11507,23 @@
         <v>181</v>
       </c>
       <c r="F177">
-        <f t="shared" si="17"/>
-        <v>3982</v>
+        <f t="shared" si="25"/>
+        <v>4525</v>
       </c>
       <c r="G177">
-        <f t="shared" si="18"/>
-        <v>5792</v>
+        <f t="shared" ref="G177:G185" si="30">E177*58</f>
+        <v>10498</v>
       </c>
       <c r="H177" s="13">
         <v>10</v>
       </c>
       <c r="I177">
-        <f>INT($E177*2.15)</f>
-        <v>389</v>
+        <f>INT($E177*2.5)</f>
+        <v>452</v>
       </c>
       <c r="J177">
-        <f>INT($E177*3.2)</f>
-        <v>579</v>
+        <f>INT($E177*3.4)</f>
+        <v>615</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -11402,7 +11554,7 @@
         <v>221</v>
       </c>
       <c r="C178" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>11041</v>
       </c>
       <c r="D178" s="16">
@@ -11412,23 +11564,23 @@
         <v>176</v>
       </c>
       <c r="F178">
-        <f t="shared" si="17"/>
-        <v>3872</v>
+        <f t="shared" si="25"/>
+        <v>4400</v>
       </c>
       <c r="G178">
-        <f t="shared" si="18"/>
-        <v>5632</v>
+        <f t="shared" si="30"/>
+        <v>10208</v>
       </c>
       <c r="H178" s="13">
         <v>10</v>
       </c>
       <c r="I178">
-        <f>INT($E178*2.15)</f>
-        <v>378</v>
+        <f>INT($E178*2.5)</f>
+        <v>440</v>
       </c>
       <c r="J178">
-        <f>INT($E178*3.2)</f>
-        <v>563</v>
+        <f>INT($E178*3.4)</f>
+        <v>598</v>
       </c>
       <c r="K178">
         <v>0</v>
@@ -11459,7 +11611,7 @@
         <v>222</v>
       </c>
       <c r="C179" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>11042</v>
       </c>
       <c r="D179" s="16">
@@ -11469,12 +11621,12 @@
         <v>183</v>
       </c>
       <c r="F179">
-        <f t="shared" si="17"/>
-        <v>4026</v>
+        <f t="shared" si="25"/>
+        <v>4575</v>
       </c>
       <c r="G179">
-        <f t="shared" si="18"/>
-        <v>5856</v>
+        <f t="shared" si="30"/>
+        <v>10614</v>
       </c>
       <c r="H179" s="13">
         <v>10</v>
@@ -11486,12 +11638,12 @@
         <v>0</v>
       </c>
       <c r="K179">
-        <f>INT($E179*2.15)</f>
-        <v>393</v>
+        <f>INT($E179*2.5)</f>
+        <v>457</v>
       </c>
       <c r="L179">
-        <f>INT($E179*3.2)</f>
-        <v>585</v>
+        <f>INT($E179*3.4)</f>
+        <v>622</v>
       </c>
       <c r="M179">
         <f t="shared" si="19"/>
@@ -11516,7 +11668,7 @@
         <v>223</v>
       </c>
       <c r="C180" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>11043</v>
       </c>
       <c r="D180" s="16">
@@ -11526,12 +11678,12 @@
         <v>179</v>
       </c>
       <c r="F180">
-        <f t="shared" si="17"/>
-        <v>3938</v>
+        <f t="shared" si="25"/>
+        <v>4475</v>
       </c>
       <c r="G180">
-        <f t="shared" si="18"/>
-        <v>5728</v>
+        <f t="shared" si="30"/>
+        <v>10382</v>
       </c>
       <c r="H180" s="13">
         <v>10</v>
@@ -11543,12 +11695,12 @@
         <v>0</v>
       </c>
       <c r="K180">
-        <f>INT($E180*2.15)</f>
-        <v>384</v>
+        <f>INT($E180*2.5)</f>
+        <v>447</v>
       </c>
       <c r="L180">
-        <f>INT($E180*3.2)</f>
-        <v>572</v>
+        <f>INT($E180*3.4)</f>
+        <v>608</v>
       </c>
       <c r="M180">
         <f t="shared" si="19"/>
@@ -11583,23 +11735,23 @@
         <v>178</v>
       </c>
       <c r="F181">
-        <f t="shared" si="17"/>
-        <v>3916</v>
+        <f t="shared" si="25"/>
+        <v>4450</v>
       </c>
       <c r="G181">
-        <f t="shared" si="18"/>
-        <v>5696</v>
+        <f t="shared" si="30"/>
+        <v>10324</v>
       </c>
       <c r="H181" s="13">
         <v>10</v>
       </c>
       <c r="I181">
-        <f>INT($E181*2.15)</f>
-        <v>382</v>
+        <f>INT($E181*2.5)</f>
+        <v>445</v>
       </c>
       <c r="J181">
-        <f>INT($E181*3.2)</f>
-        <v>569</v>
+        <f>INT($E181*3.4)</f>
+        <v>605</v>
       </c>
       <c r="K181">
         <v>0</v>
@@ -11640,23 +11792,23 @@
         <v>181</v>
       </c>
       <c r="F182">
-        <f t="shared" si="17"/>
-        <v>3982</v>
+        <f t="shared" si="25"/>
+        <v>4525</v>
       </c>
       <c r="G182">
-        <f t="shared" si="18"/>
-        <v>5792</v>
+        <f t="shared" si="30"/>
+        <v>10498</v>
       </c>
       <c r="H182" s="13">
         <v>10</v>
       </c>
       <c r="I182">
-        <f>INT($E182*2.15)</f>
-        <v>389</v>
+        <f>INT($E182*2.5)</f>
+        <v>452</v>
       </c>
       <c r="J182">
-        <f>INT($E182*3.2)</f>
-        <v>579</v>
+        <f>INT($E182*3.4)</f>
+        <v>615</v>
       </c>
       <c r="K182">
         <v>0</v>
@@ -11697,23 +11849,23 @@
         <v>176</v>
       </c>
       <c r="F183">
-        <f t="shared" si="17"/>
-        <v>3872</v>
+        <f t="shared" si="25"/>
+        <v>4400</v>
       </c>
       <c r="G183">
-        <f t="shared" si="18"/>
-        <v>5632</v>
+        <f t="shared" si="30"/>
+        <v>10208</v>
       </c>
       <c r="H183" s="13">
         <v>10</v>
       </c>
       <c r="I183">
-        <f>INT($E183*2.15)</f>
-        <v>378</v>
+        <f>INT($E183*2.5)</f>
+        <v>440</v>
       </c>
       <c r="J183">
-        <f>INT($E183*3.2)</f>
-        <v>563</v>
+        <f>INT($E183*3.4)</f>
+        <v>598</v>
       </c>
       <c r="K183">
         <v>0</v>
@@ -11754,12 +11906,12 @@
         <v>180</v>
       </c>
       <c r="F184">
-        <f t="shared" si="17"/>
-        <v>3960</v>
+        <f t="shared" si="25"/>
+        <v>4500</v>
       </c>
       <c r="G184">
-        <f t="shared" si="18"/>
-        <v>5760</v>
+        <f t="shared" si="30"/>
+        <v>10440</v>
       </c>
       <c r="H184" s="13">
         <v>10</v>
@@ -11771,12 +11923,12 @@
         <v>0</v>
       </c>
       <c r="K184">
-        <f>INT($E184*2.15)</f>
-        <v>387</v>
+        <f>INT($E184*2.5)</f>
+        <v>450</v>
       </c>
       <c r="L184">
-        <f>INT($E184*3.2)</f>
-        <v>576</v>
+        <f>INT($E184*3.4)</f>
+        <v>612</v>
       </c>
       <c r="M184">
         <f t="shared" si="19"/>
@@ -11811,12 +11963,12 @@
         <v>175</v>
       </c>
       <c r="F185">
-        <f t="shared" si="17"/>
-        <v>3850</v>
+        <f t="shared" si="25"/>
+        <v>4375</v>
       </c>
       <c r="G185">
-        <f t="shared" si="18"/>
-        <v>5600</v>
+        <f t="shared" si="30"/>
+        <v>10150</v>
       </c>
       <c r="H185" s="13">
         <v>10</v>
@@ -11828,12 +11980,12 @@
         <v>0</v>
       </c>
       <c r="K185">
-        <f>INT($E185*2.15)</f>
-        <v>376</v>
+        <f>INT($E185*2.5)</f>
+        <v>437</v>
       </c>
       <c r="L185">
-        <f>INT($E185*3.2)</f>
-        <v>560</v>
+        <f>INT($E185*3.4)</f>
+        <v>595</v>
       </c>
       <c r="M185">
         <f t="shared" si="19"/>
@@ -11868,31 +12020,29 @@
         <v>204</v>
       </c>
       <c r="F186">
-        <f t="shared" ref="F186:F202" si="25">E186*25</f>
+        <f t="shared" si="25"/>
         <v>5100</v>
       </c>
       <c r="G186">
-        <f t="shared" si="18"/>
-        <v>6528</v>
+        <f>E186*62</f>
+        <v>12648</v>
       </c>
       <c r="H186" s="13">
         <v>10</v>
       </c>
       <c r="I186">
-        <f>INT($E186*2.4)</f>
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="J186">
-        <f>INT($E186*3.5)</f>
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="K186">
-        <f>INT($E186*2.4)</f>
-        <v>489</v>
+        <f>INT($E186*2.75)</f>
+        <v>561</v>
       </c>
       <c r="L186">
-        <f>INT($E186*3.5)</f>
-        <v>714</v>
+        <f>INT($E186*3.8)</f>
+        <v>775</v>
       </c>
       <c r="M186">
         <f t="shared" si="19"/>
@@ -11931,27 +12081,25 @@
         <v>5075</v>
       </c>
       <c r="G187">
-        <f t="shared" si="18"/>
-        <v>6496</v>
+        <f t="shared" ref="G187:G193" si="31">E187*62</f>
+        <v>12586</v>
       </c>
       <c r="H187" s="13">
         <v>10</v>
       </c>
       <c r="I187">
-        <f t="shared" ref="I187:I193" si="26">INT($E187*2.4)</f>
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="J187">
-        <f t="shared" ref="J187:J193" si="27">INT($E187*3.5)</f>
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="K187">
-        <f t="shared" ref="K187:K193" si="28">INT($E187*2.4)</f>
-        <v>487</v>
+        <f>INT($E187*2.75)</f>
+        <v>558</v>
       </c>
       <c r="L187">
-        <f t="shared" ref="L187:L193" si="29">INT($E187*3.5)</f>
-        <v>710</v>
+        <f>INT($E187*3.8)</f>
+        <v>771</v>
       </c>
       <c r="M187">
         <f t="shared" si="19"/>
@@ -11990,27 +12138,25 @@
         <v>5075</v>
       </c>
       <c r="G188">
-        <f t="shared" si="18"/>
-        <v>6496</v>
+        <f t="shared" si="31"/>
+        <v>12586</v>
       </c>
       <c r="H188" s="13">
         <v>10</v>
       </c>
       <c r="I188">
-        <f t="shared" si="26"/>
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="J188">
-        <f t="shared" si="27"/>
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="K188">
-        <f t="shared" si="28"/>
-        <v>487</v>
+        <f>INT($E188*2.75)</f>
+        <v>558</v>
       </c>
       <c r="L188">
-        <f t="shared" si="29"/>
-        <v>710</v>
+        <f>INT($E188*3.8)</f>
+        <v>771</v>
       </c>
       <c r="M188">
         <f t="shared" si="19"/>
@@ -12045,31 +12191,29 @@
         <v>207</v>
       </c>
       <c r="F189">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="F189:F193" si="32">E189*25</f>
         <v>5175</v>
       </c>
       <c r="G189">
-        <f t="shared" si="18"/>
-        <v>6624</v>
+        <f t="shared" si="31"/>
+        <v>12834</v>
       </c>
       <c r="H189" s="13">
         <v>10</v>
       </c>
       <c r="I189">
-        <f t="shared" si="26"/>
-        <v>496</v>
+        <f>INT($E189*2.75)</f>
+        <v>569</v>
       </c>
       <c r="J189">
-        <f t="shared" si="27"/>
-        <v>724</v>
+        <f>INT($E189*3.8)</f>
+        <v>786</v>
       </c>
       <c r="K189">
-        <f t="shared" si="28"/>
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="L189">
-        <f t="shared" si="29"/>
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="M189">
         <f t="shared" si="19"/>
@@ -12104,31 +12248,29 @@
         <v>204</v>
       </c>
       <c r="F190">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>5100</v>
       </c>
       <c r="G190">
-        <f t="shared" si="18"/>
-        <v>6528</v>
+        <f t="shared" si="31"/>
+        <v>12648</v>
       </c>
       <c r="H190" s="13">
         <v>10</v>
       </c>
       <c r="I190">
-        <f t="shared" si="26"/>
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="J190">
-        <f t="shared" si="27"/>
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="K190">
-        <f t="shared" si="28"/>
-        <v>489</v>
+        <f>INT($E190*2.75)</f>
+        <v>561</v>
       </c>
       <c r="L190">
-        <f t="shared" si="29"/>
-        <v>714</v>
+        <f>INT($E190*3.8)</f>
+        <v>775</v>
       </c>
       <c r="M190">
         <f t="shared" si="19"/>
@@ -12163,31 +12305,29 @@
         <v>203</v>
       </c>
       <c r="F191">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>5075</v>
       </c>
       <c r="G191">
-        <f t="shared" si="18"/>
-        <v>6496</v>
+        <f t="shared" si="31"/>
+        <v>12586</v>
       </c>
       <c r="H191" s="13">
         <v>10</v>
       </c>
       <c r="I191">
-        <f t="shared" si="26"/>
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="J191">
-        <f t="shared" si="27"/>
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="K191">
-        <f t="shared" si="28"/>
-        <v>487</v>
+        <f>INT($E191*2.75)</f>
+        <v>558</v>
       </c>
       <c r="L191">
-        <f t="shared" si="29"/>
-        <v>710</v>
+        <f>INT($E191*3.8)</f>
+        <v>771</v>
       </c>
       <c r="M191">
         <f t="shared" si="19"/>
@@ -12222,31 +12362,29 @@
         <v>203</v>
       </c>
       <c r="F192">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>5075</v>
       </c>
       <c r="G192">
-        <f t="shared" si="18"/>
-        <v>6496</v>
+        <f t="shared" si="31"/>
+        <v>12586</v>
       </c>
       <c r="H192" s="13">
         <v>10</v>
       </c>
       <c r="I192">
-        <f t="shared" si="26"/>
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="J192">
-        <f t="shared" si="27"/>
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="K192">
-        <f t="shared" si="28"/>
-        <v>487</v>
+        <f>INT($E192*2.75)</f>
+        <v>558</v>
       </c>
       <c r="L192">
-        <f t="shared" si="29"/>
-        <v>710</v>
+        <f>INT($E192*3.8)</f>
+        <v>771</v>
       </c>
       <c r="M192">
         <f t="shared" si="19"/>
@@ -12281,31 +12419,29 @@
         <v>207</v>
       </c>
       <c r="F193">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>5175</v>
       </c>
       <c r="G193">
-        <f t="shared" si="18"/>
-        <v>6624</v>
+        <f t="shared" si="31"/>
+        <v>12834</v>
       </c>
       <c r="H193" s="13">
         <v>10</v>
       </c>
       <c r="I193">
-        <f t="shared" si="26"/>
-        <v>496</v>
+        <f>INT($E193*2.75)</f>
+        <v>569</v>
       </c>
       <c r="J193">
-        <f t="shared" si="27"/>
-        <v>724</v>
+        <f>INT($E193*3.8)</f>
+        <v>786</v>
       </c>
       <c r="K193">
-        <f t="shared" si="28"/>
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="L193">
-        <f t="shared" si="29"/>
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="M193">
         <f t="shared" si="19"/>
@@ -12340,31 +12476,29 @@
         <v>219</v>
       </c>
       <c r="F194">
-        <f t="shared" si="25"/>
-        <v>5475</v>
+        <f>E194*28</f>
+        <v>6132</v>
       </c>
       <c r="G194">
-        <f t="shared" si="18"/>
-        <v>7008</v>
+        <f>E194*66</f>
+        <v>14454</v>
       </c>
       <c r="H194" s="13">
         <v>10</v>
       </c>
       <c r="I194">
-        <f>INT($E194*2.7)</f>
-        <v>591</v>
+        <f>INT($E194*2.95)</f>
+        <v>646</v>
       </c>
       <c r="J194">
-        <f>INT($E194*3.8)</f>
-        <v>832</v>
+        <f>INT($E194*4)</f>
+        <v>876</v>
       </c>
       <c r="K194">
-        <f>INT($E194*2.7)</f>
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="L194">
-        <f>INT($E194*3.8)</f>
-        <v>832</v>
+        <v>0</v>
       </c>
       <c r="M194">
         <f t="shared" si="19"/>
@@ -12389,7 +12523,7 @@
         <v>258</v>
       </c>
       <c r="C195" s="17">
-        <f t="shared" ref="C195:C197" si="30">A195</f>
+        <f t="shared" ref="C195:C197" si="33">A195</f>
         <v>12010</v>
       </c>
       <c r="D195" s="16">
@@ -12399,31 +12533,29 @@
         <v>220</v>
       </c>
       <c r="F195">
-        <f t="shared" si="25"/>
-        <v>5500</v>
+        <f t="shared" ref="F195:F215" si="34">E195*28</f>
+        <v>6160</v>
       </c>
       <c r="G195">
-        <f t="shared" si="18"/>
-        <v>7040</v>
+        <f t="shared" ref="G195:G201" si="35">E195*66</f>
+        <v>14520</v>
       </c>
       <c r="H195" s="13">
         <v>10</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I201" si="31">INT($E195*2.7)</f>
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J201" si="32">INT($E195*3.8)</f>
-        <v>836</v>
+        <v>0</v>
       </c>
       <c r="K195">
-        <f t="shared" ref="K195:K201" si="33">INT($E195*2.7)</f>
-        <v>594</v>
+        <f>INT($E195*2.95)</f>
+        <v>649</v>
       </c>
       <c r="L195">
-        <f t="shared" ref="L195:L201" si="34">INT($E195*3.8)</f>
-        <v>836</v>
+        <f>INT($E195*4)</f>
+        <v>880</v>
       </c>
       <c r="M195">
         <f t="shared" si="19"/>
@@ -12448,7 +12580,7 @@
         <v>259</v>
       </c>
       <c r="C196" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>12011</v>
       </c>
       <c r="D196" s="16">
@@ -12458,31 +12590,29 @@
         <v>223</v>
       </c>
       <c r="F196">
-        <f t="shared" si="25"/>
-        <v>5575</v>
+        <f t="shared" si="34"/>
+        <v>6244</v>
       </c>
       <c r="G196">
-        <f t="shared" si="18"/>
-        <v>7136</v>
+        <f t="shared" si="35"/>
+        <v>14718</v>
       </c>
       <c r="H196" s="13">
         <v>10</v>
       </c>
       <c r="I196">
-        <f t="shared" si="31"/>
-        <v>602</v>
+        <f>INT($E196*2.95)</f>
+        <v>657</v>
       </c>
       <c r="J196">
-        <f t="shared" si="32"/>
-        <v>847</v>
+        <f>INT($E196*4)</f>
+        <v>892</v>
       </c>
       <c r="K196">
-        <f t="shared" si="33"/>
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="L196">
-        <f t="shared" si="34"/>
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="M196">
         <f t="shared" si="19"/>
@@ -12507,7 +12637,7 @@
         <v>260</v>
       </c>
       <c r="C197" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>12012</v>
       </c>
       <c r="D197" s="16">
@@ -12517,31 +12647,29 @@
         <v>215</v>
       </c>
       <c r="F197">
-        <f t="shared" si="25"/>
-        <v>5375</v>
+        <f t="shared" si="34"/>
+        <v>6020</v>
       </c>
       <c r="G197">
-        <f t="shared" si="18"/>
-        <v>6880</v>
+        <f t="shared" si="35"/>
+        <v>14190</v>
       </c>
       <c r="H197" s="13">
         <v>10</v>
       </c>
       <c r="I197">
-        <f t="shared" si="31"/>
-        <v>580</v>
+        <f>INT($E197*2.95)</f>
+        <v>634</v>
       </c>
       <c r="J197">
-        <f t="shared" si="32"/>
-        <v>817</v>
+        <f>INT($E197*4)</f>
+        <v>860</v>
       </c>
       <c r="K197">
-        <f t="shared" si="33"/>
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="L197">
-        <f t="shared" si="34"/>
-        <v>817</v>
+        <v>0</v>
       </c>
       <c r="M197">
         <f t="shared" si="19"/>
@@ -12576,31 +12704,29 @@
         <v>218</v>
       </c>
       <c r="F198">
-        <f t="shared" si="25"/>
-        <v>5450</v>
+        <f t="shared" si="34"/>
+        <v>6104</v>
       </c>
       <c r="G198">
-        <f t="shared" si="18"/>
-        <v>6976</v>
+        <f t="shared" si="35"/>
+        <v>14388</v>
       </c>
       <c r="H198" s="13">
         <v>10</v>
       </c>
       <c r="I198">
-        <f t="shared" si="31"/>
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="J198">
-        <f t="shared" si="32"/>
-        <v>828</v>
+        <v>0</v>
       </c>
       <c r="K198">
-        <f t="shared" si="33"/>
-        <v>588</v>
+        <f>INT($E198*2.95)</f>
+        <v>643</v>
       </c>
       <c r="L198">
-        <f t="shared" si="34"/>
-        <v>828</v>
+        <f>INT($E198*4)</f>
+        <v>872</v>
       </c>
       <c r="M198">
         <f t="shared" si="19"/>
@@ -12635,31 +12761,29 @@
         <v>219</v>
       </c>
       <c r="F199">
-        <f t="shared" si="25"/>
-        <v>5475</v>
+        <f t="shared" si="34"/>
+        <v>6132</v>
       </c>
       <c r="G199">
-        <f t="shared" si="18"/>
-        <v>7008</v>
+        <f t="shared" si="35"/>
+        <v>14454</v>
       </c>
       <c r="H199" s="13">
         <v>10</v>
       </c>
       <c r="I199">
-        <f t="shared" si="31"/>
-        <v>591</v>
+        <f>INT($E199*2.95)</f>
+        <v>646</v>
       </c>
       <c r="J199">
-        <f t="shared" si="32"/>
-        <v>832</v>
+        <f>INT($E199*4)</f>
+        <v>876</v>
       </c>
       <c r="K199">
-        <f t="shared" si="33"/>
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="L199">
-        <f t="shared" si="34"/>
-        <v>832</v>
+        <v>0</v>
       </c>
       <c r="M199">
         <f t="shared" si="19"/>
@@ -12684,7 +12808,7 @@
         <v>263</v>
       </c>
       <c r="C200" s="17">
-        <f t="shared" ref="C200:C201" si="35">A200</f>
+        <f t="shared" ref="C200:C201" si="36">A200</f>
         <v>12015</v>
       </c>
       <c r="D200" s="16">
@@ -12694,31 +12818,29 @@
         <v>220</v>
       </c>
       <c r="F200">
-        <f t="shared" si="25"/>
-        <v>5500</v>
+        <f t="shared" si="34"/>
+        <v>6160</v>
       </c>
       <c r="G200">
-        <f t="shared" si="18"/>
-        <v>7040</v>
+        <f t="shared" si="35"/>
+        <v>14520</v>
       </c>
       <c r="H200" s="13">
         <v>10</v>
       </c>
       <c r="I200">
-        <f t="shared" si="31"/>
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="J200">
-        <f t="shared" si="32"/>
-        <v>836</v>
+        <v>0</v>
       </c>
       <c r="K200">
-        <f t="shared" si="33"/>
-        <v>594</v>
+        <f>INT($E200*2.95)</f>
+        <v>649</v>
       </c>
       <c r="L200">
-        <f t="shared" si="34"/>
-        <v>836</v>
+        <f>INT($E200*4)</f>
+        <v>880</v>
       </c>
       <c r="M200">
         <f t="shared" si="19"/>
@@ -12743,7 +12865,7 @@
         <v>264</v>
       </c>
       <c r="C201" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>12016</v>
       </c>
       <c r="D201" s="16">
@@ -12753,31 +12875,29 @@
         <v>216</v>
       </c>
       <c r="F201">
-        <f t="shared" si="25"/>
-        <v>5400</v>
+        <f t="shared" si="34"/>
+        <v>6048</v>
       </c>
       <c r="G201">
-        <f t="shared" si="18"/>
-        <v>6912</v>
+        <f t="shared" si="35"/>
+        <v>14256</v>
       </c>
       <c r="H201" s="13">
         <v>10</v>
       </c>
       <c r="I201">
-        <f t="shared" si="31"/>
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="J201">
-        <f t="shared" si="32"/>
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="K201">
-        <f t="shared" si="33"/>
-        <v>583</v>
+        <f>INT($E201*2.95)</f>
+        <v>637</v>
       </c>
       <c r="L201">
-        <f t="shared" si="34"/>
-        <v>820</v>
+        <f>INT($E201*4)</f>
+        <v>864</v>
       </c>
       <c r="M201">
         <f t="shared" si="19"/>
@@ -12812,31 +12932,29 @@
         <v>236</v>
       </c>
       <c r="F202">
-        <f t="shared" si="25"/>
-        <v>5900</v>
+        <f t="shared" si="34"/>
+        <v>6608</v>
       </c>
       <c r="G202">
-        <f t="shared" si="18"/>
-        <v>7552</v>
+        <f>E202*70</f>
+        <v>16520</v>
       </c>
       <c r="H202" s="13">
         <v>10</v>
       </c>
       <c r="I202">
-        <f>INT($E202*3)</f>
-        <v>708</v>
+        <v>0</v>
       </c>
       <c r="J202">
-        <f>INT($E202*4.1)</f>
-        <v>967</v>
+        <v>0</v>
       </c>
       <c r="K202">
-        <f>INT($E202*3)</f>
-        <v>708</v>
+        <f>INT($E202*3.3)</f>
+        <v>778</v>
       </c>
       <c r="L202">
-        <f>INT($E202*4.1)</f>
-        <v>967</v>
+        <f>INT($E202*4.35)</f>
+        <v>1026</v>
       </c>
       <c r="M202">
         <f t="shared" si="19"/>
@@ -12861,7 +12979,7 @@
         <v>244</v>
       </c>
       <c r="C203" s="17">
-        <f t="shared" ref="C203:C204" si="36">A203</f>
+        <f t="shared" ref="C203:C204" si="37">A203</f>
         <v>12018</v>
       </c>
       <c r="D203" s="16">
@@ -12871,38 +12989,36 @@
         <v>230</v>
       </c>
       <c r="F203">
-        <f t="shared" ref="F203:F223" si="37">E203*25</f>
-        <v>5750</v>
+        <f t="shared" si="34"/>
+        <v>6440</v>
       </c>
       <c r="G203">
-        <f t="shared" ref="G203:G223" si="38">E203*32</f>
-        <v>7360</v>
+        <f t="shared" ref="G203:G207" si="38">E203*70</f>
+        <v>16100</v>
       </c>
       <c r="H203" s="13">
         <v>10</v>
       </c>
       <c r="I203">
-        <f t="shared" ref="I203:I207" si="39">INT($E203*3)</f>
-        <v>690</v>
+        <f>INT($E203*3.3)</f>
+        <v>759</v>
       </c>
       <c r="J203">
-        <f t="shared" ref="J203:J207" si="40">INT($E203*4.1)</f>
-        <v>943</v>
+        <f>INT($E203*4.35)</f>
+        <v>1000</v>
       </c>
       <c r="K203">
-        <f t="shared" ref="K203:K207" si="41">INT($E203*3)</f>
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="L203">
-        <f t="shared" ref="L203:L207" si="42">INT($E203*4.1)</f>
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="M203">
-        <f t="shared" ref="M203:M223" si="43">INT(E203/3)</f>
+        <f t="shared" ref="M203:M223" si="39">INT(E203/3)</f>
         <v>76</v>
       </c>
       <c r="N203">
-        <f t="shared" ref="N203:N223" si="44">INT(E203/2.8)</f>
+        <f t="shared" ref="N203:N223" si="40">INT(E203/2.8)</f>
         <v>82</v>
       </c>
       <c r="O203">
@@ -12920,7 +13036,7 @@
         <v>245</v>
       </c>
       <c r="C204" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>12019</v>
       </c>
       <c r="D204" s="16">
@@ -12930,38 +13046,36 @@
         <v>232</v>
       </c>
       <c r="F204">
-        <f t="shared" si="37"/>
-        <v>5800</v>
+        <f t="shared" si="34"/>
+        <v>6496</v>
       </c>
       <c r="G204">
         <f t="shared" si="38"/>
-        <v>7424</v>
+        <v>16240</v>
       </c>
       <c r="H204" s="13">
         <v>10</v>
       </c>
       <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <f>INT($E204*3.3)</f>
+        <v>765</v>
+      </c>
+      <c r="L204">
+        <f>INT($E204*4.35)</f>
+        <v>1009</v>
+      </c>
+      <c r="M204">
         <f t="shared" si="39"/>
-        <v>696</v>
-      </c>
-      <c r="J204">
+        <v>77</v>
+      </c>
+      <c r="N204">
         <f t="shared" si="40"/>
-        <v>951</v>
-      </c>
-      <c r="K204">
-        <f t="shared" si="41"/>
-        <v>696</v>
-      </c>
-      <c r="L204">
-        <f t="shared" si="42"/>
-        <v>951</v>
-      </c>
-      <c r="M204">
-        <f t="shared" si="43"/>
-        <v>77</v>
-      </c>
-      <c r="N204">
-        <f t="shared" si="44"/>
         <v>82</v>
       </c>
       <c r="O204">
@@ -12989,38 +13103,36 @@
         <v>236</v>
       </c>
       <c r="F205">
-        <f t="shared" si="37"/>
-        <v>5900</v>
+        <f t="shared" si="34"/>
+        <v>6608</v>
       </c>
       <c r="G205">
         <f t="shared" si="38"/>
-        <v>7552</v>
+        <v>16520</v>
       </c>
       <c r="H205" s="13">
         <v>10</v>
       </c>
       <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <f>INT($E205*3.3)</f>
+        <v>778</v>
+      </c>
+      <c r="L205">
+        <f>INT($E205*4.35)</f>
+        <v>1026</v>
+      </c>
+      <c r="M205">
         <f t="shared" si="39"/>
-        <v>708</v>
-      </c>
-      <c r="J205">
+        <v>78</v>
+      </c>
+      <c r="N205">
         <f t="shared" si="40"/>
-        <v>967</v>
-      </c>
-      <c r="K205">
-        <f t="shared" si="41"/>
-        <v>708</v>
-      </c>
-      <c r="L205">
-        <f t="shared" si="42"/>
-        <v>967</v>
-      </c>
-      <c r="M205">
-        <f t="shared" si="43"/>
-        <v>78</v>
-      </c>
-      <c r="N205">
-        <f t="shared" si="44"/>
         <v>84</v>
       </c>
       <c r="O205">
@@ -13048,38 +13160,36 @@
         <v>230</v>
       </c>
       <c r="F206">
-        <f t="shared" si="37"/>
-        <v>5750</v>
+        <f t="shared" si="34"/>
+        <v>6440</v>
       </c>
       <c r="G206">
         <f t="shared" si="38"/>
-        <v>7360</v>
+        <v>16100</v>
       </c>
       <c r="H206" s="13">
         <v>10</v>
       </c>
       <c r="I206">
+        <f>INT($E206*3.3)</f>
+        <v>759</v>
+      </c>
+      <c r="J206">
+        <f>INT($E206*4.35)</f>
+        <v>1000</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
         <f t="shared" si="39"/>
-        <v>690</v>
-      </c>
-      <c r="J206">
+        <v>76</v>
+      </c>
+      <c r="N206">
         <f t="shared" si="40"/>
-        <v>943</v>
-      </c>
-      <c r="K206">
-        <f t="shared" si="41"/>
-        <v>690</v>
-      </c>
-      <c r="L206">
-        <f t="shared" si="42"/>
-        <v>943</v>
-      </c>
-      <c r="M206">
-        <f t="shared" si="43"/>
-        <v>76</v>
-      </c>
-      <c r="N206">
-        <f t="shared" si="44"/>
         <v>82</v>
       </c>
       <c r="O206">
@@ -13107,38 +13217,36 @@
         <v>232</v>
       </c>
       <c r="F207">
-        <f t="shared" si="37"/>
-        <v>5800</v>
+        <f t="shared" si="34"/>
+        <v>6496</v>
       </c>
       <c r="G207">
         <f t="shared" si="38"/>
-        <v>7424</v>
+        <v>16240</v>
       </c>
       <c r="H207" s="13">
         <v>10</v>
       </c>
       <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <f>INT($E207*3.3)</f>
+        <v>765</v>
+      </c>
+      <c r="L207">
+        <f>INT($E207*4.35)</f>
+        <v>1009</v>
+      </c>
+      <c r="M207">
         <f t="shared" si="39"/>
-        <v>696</v>
-      </c>
-      <c r="J207">
+        <v>77</v>
+      </c>
+      <c r="N207">
         <f t="shared" si="40"/>
-        <v>951</v>
-      </c>
-      <c r="K207">
-        <f t="shared" si="41"/>
-        <v>696</v>
-      </c>
-      <c r="L207">
-        <f t="shared" si="42"/>
-        <v>951</v>
-      </c>
-      <c r="M207">
-        <f t="shared" si="43"/>
-        <v>77</v>
-      </c>
-      <c r="N207">
-        <f t="shared" si="44"/>
         <v>82</v>
       </c>
       <c r="O207">
@@ -13166,38 +13274,36 @@
         <v>248</v>
       </c>
       <c r="F208">
-        <f t="shared" si="37"/>
-        <v>6200</v>
+        <f t="shared" si="34"/>
+        <v>6944</v>
       </c>
       <c r="G208">
-        <f t="shared" si="38"/>
-        <v>7936</v>
+        <f>E208*74</f>
+        <v>18352</v>
       </c>
       <c r="H208" s="13">
         <v>10</v>
       </c>
       <c r="I208">
-        <f>INT($E208*3.35)</f>
-        <v>830</v>
+        <f>INT($E208*3.55)</f>
+        <v>880</v>
       </c>
       <c r="J208">
         <f>INT($E208*4.45)</f>
         <v>1103</v>
       </c>
       <c r="K208">
-        <f>INT($E208*3.35)</f>
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="L208">
-        <f>INT($E208*4.45)</f>
-        <v>1103</v>
+        <v>0</v>
       </c>
       <c r="M208">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>82</v>
       </c>
       <c r="N208">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>88</v>
       </c>
       <c r="O208">
@@ -13225,38 +13331,36 @@
         <v>254</v>
       </c>
       <c r="F209">
-        <f t="shared" si="37"/>
-        <v>6350</v>
+        <f t="shared" si="34"/>
+        <v>7112</v>
       </c>
       <c r="G209">
-        <f t="shared" si="38"/>
-        <v>8128</v>
+        <f t="shared" ref="G209:G215" si="41">E209*74</f>
+        <v>18796</v>
       </c>
       <c r="H209" s="13">
         <v>10</v>
       </c>
       <c r="I209">
-        <f t="shared" ref="I209:I215" si="45">INT($E209*3.35)</f>
-        <v>850</v>
+        <f>INT($E209*3.55)</f>
+        <v>901</v>
       </c>
       <c r="J209">
-        <f t="shared" ref="J209:J215" si="46">INT($E209*4.45)</f>
+        <f>INT($E209*4.45)</f>
         <v>1130</v>
       </c>
       <c r="K209">
-        <f t="shared" ref="K209:K215" si="47">INT($E209*3.35)</f>
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="L209">
-        <f t="shared" ref="L209:L215" si="48">INT($E209*4.45)</f>
-        <v>1130</v>
+        <v>0</v>
       </c>
       <c r="M209">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>84</v>
       </c>
       <c r="N209">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>90</v>
       </c>
       <c r="O209">
@@ -13283,38 +13387,36 @@
         <v>247</v>
       </c>
       <c r="F210">
-        <f t="shared" si="37"/>
-        <v>6175</v>
+        <f t="shared" si="34"/>
+        <v>6916</v>
       </c>
       <c r="G210">
-        <f t="shared" si="38"/>
-        <v>7904</v>
+        <f t="shared" si="41"/>
+        <v>18278</v>
       </c>
       <c r="H210" s="13">
         <v>10</v>
       </c>
       <c r="I210">
-        <f t="shared" si="45"/>
-        <v>827</v>
+        <v>0</v>
       </c>
       <c r="J210">
-        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <f>INT($E210*3.55)</f>
+        <v>876</v>
+      </c>
+      <c r="L210">
+        <f>INT($E210*4.45)</f>
         <v>1099</v>
       </c>
-      <c r="K210">
-        <f t="shared" si="47"/>
-        <v>827</v>
-      </c>
-      <c r="L210">
-        <f t="shared" si="48"/>
-        <v>1099</v>
-      </c>
       <c r="M210">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>82</v>
       </c>
       <c r="N210">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>88</v>
       </c>
       <c r="O210">
@@ -13342,38 +13444,36 @@
         <v>250</v>
       </c>
       <c r="F211">
-        <f t="shared" si="37"/>
-        <v>6250</v>
+        <f t="shared" si="34"/>
+        <v>7000</v>
       </c>
       <c r="G211">
-        <f t="shared" si="38"/>
-        <v>8000</v>
+        <f t="shared" si="41"/>
+        <v>18500</v>
       </c>
       <c r="H211" s="13">
         <v>10</v>
       </c>
       <c r="I211">
-        <f t="shared" si="45"/>
-        <v>837</v>
+        <v>0</v>
       </c>
       <c r="J211">
-        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <f>INT($E211*3.55)</f>
+        <v>887</v>
+      </c>
+      <c r="L211">
+        <f>INT($E211*4.45)</f>
         <v>1112</v>
       </c>
-      <c r="K211">
-        <f t="shared" si="47"/>
-        <v>837</v>
-      </c>
-      <c r="L211">
-        <f t="shared" si="48"/>
-        <v>1112</v>
-      </c>
       <c r="M211">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>83</v>
       </c>
       <c r="N211">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>89</v>
       </c>
       <c r="O211">
@@ -13401,38 +13501,36 @@
         <v>248</v>
       </c>
       <c r="F212">
-        <f t="shared" si="37"/>
-        <v>6200</v>
+        <f t="shared" si="34"/>
+        <v>6944</v>
       </c>
       <c r="G212">
-        <f t="shared" si="38"/>
-        <v>7936</v>
+        <f t="shared" si="41"/>
+        <v>18352</v>
       </c>
       <c r="H212" s="13">
         <v>10</v>
       </c>
       <c r="I212">
-        <f t="shared" si="45"/>
-        <v>830</v>
+        <f>INT($E212*3.55)</f>
+        <v>880</v>
       </c>
       <c r="J212">
-        <f t="shared" si="46"/>
+        <f>INT($E212*4.45)</f>
         <v>1103</v>
       </c>
       <c r="K212">
-        <f t="shared" si="47"/>
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="L212">
-        <f t="shared" si="48"/>
-        <v>1103</v>
+        <v>0</v>
       </c>
       <c r="M212">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>82</v>
       </c>
       <c r="N212">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>88</v>
       </c>
       <c r="O212">
@@ -13460,38 +13558,36 @@
         <v>254</v>
       </c>
       <c r="F213">
-        <f t="shared" si="37"/>
-        <v>6350</v>
+        <f t="shared" si="34"/>
+        <v>7112</v>
       </c>
       <c r="G213">
-        <f t="shared" si="38"/>
-        <v>8128</v>
+        <f t="shared" si="41"/>
+        <v>18796</v>
       </c>
       <c r="H213" s="13">
         <v>10</v>
       </c>
       <c r="I213">
-        <f t="shared" si="45"/>
-        <v>850</v>
+        <f>INT($E213*3.55)</f>
+        <v>901</v>
       </c>
       <c r="J213">
-        <f t="shared" si="46"/>
+        <f>INT($E213*4.45)</f>
         <v>1130</v>
       </c>
       <c r="K213">
-        <f t="shared" si="47"/>
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="L213">
-        <f t="shared" si="48"/>
-        <v>1130</v>
+        <v>0</v>
       </c>
       <c r="M213">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>84</v>
       </c>
       <c r="N213">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>90</v>
       </c>
       <c r="O213">
@@ -13519,38 +13615,36 @@
         <v>247</v>
       </c>
       <c r="F214">
-        <f t="shared" si="37"/>
-        <v>6175</v>
+        <f t="shared" si="34"/>
+        <v>6916</v>
       </c>
       <c r="G214">
-        <f t="shared" si="38"/>
-        <v>7904</v>
+        <f t="shared" si="41"/>
+        <v>18278</v>
       </c>
       <c r="H214" s="13">
         <v>10</v>
       </c>
       <c r="I214">
-        <f t="shared" si="45"/>
-        <v>827</v>
+        <v>0</v>
       </c>
       <c r="J214">
-        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <f>INT($E214*3.55)</f>
+        <v>876</v>
+      </c>
+      <c r="L214">
+        <f>INT($E214*4.45)</f>
         <v>1099</v>
       </c>
-      <c r="K214">
-        <f t="shared" si="47"/>
-        <v>827</v>
-      </c>
-      <c r="L214">
-        <f t="shared" si="48"/>
-        <v>1099</v>
-      </c>
       <c r="M214">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>82</v>
       </c>
       <c r="N214">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>88</v>
       </c>
       <c r="O214">
@@ -13578,38 +13672,36 @@
         <v>250</v>
       </c>
       <c r="F215">
-        <f t="shared" si="37"/>
-        <v>6250</v>
+        <f t="shared" si="34"/>
+        <v>7000</v>
       </c>
       <c r="G215">
-        <f t="shared" si="38"/>
-        <v>8000</v>
+        <f t="shared" si="41"/>
+        <v>18500</v>
       </c>
       <c r="H215" s="13">
         <v>10</v>
       </c>
       <c r="I215">
-        <f t="shared" si="45"/>
-        <v>837</v>
+        <v>0</v>
       </c>
       <c r="J215">
-        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <f>INT($E215*3.55)</f>
+        <v>887</v>
+      </c>
+      <c r="L215">
+        <f>INT($E215*4.45)</f>
         <v>1112</v>
       </c>
-      <c r="K215">
-        <f t="shared" si="47"/>
-        <v>837</v>
-      </c>
-      <c r="L215">
-        <f t="shared" si="48"/>
-        <v>1112</v>
-      </c>
       <c r="M215">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>83</v>
       </c>
       <c r="N215">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>89</v>
       </c>
       <c r="O215">
@@ -13634,42 +13726,40 @@
         <v>0</v>
       </c>
       <c r="E216" s="13">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F216">
-        <f t="shared" si="37"/>
-        <v>6700</v>
+        <f>E216*30</f>
+        <v>7710</v>
       </c>
       <c r="G216">
-        <f t="shared" si="38"/>
-        <v>8576</v>
+        <f>E216*78</f>
+        <v>20046</v>
       </c>
       <c r="H216" s="13">
         <v>10</v>
       </c>
       <c r="I216">
         <f>INT($E216*3.7)</f>
-        <v>991</v>
+        <v>950</v>
       </c>
       <c r="J216">
         <f>INT($E216*4.9)</f>
-        <v>1313</v>
+        <v>1259</v>
       </c>
       <c r="K216">
-        <f>INT($E216*3.7)</f>
-        <v>991</v>
+        <v>0</v>
       </c>
       <c r="L216">
-        <f>INT($E216*4.9)</f>
-        <v>1313</v>
+        <v>0</v>
       </c>
       <c r="M216">
-        <f t="shared" si="43"/>
-        <v>89</v>
+        <f t="shared" si="39"/>
+        <v>85</v>
       </c>
       <c r="N216">
-        <f t="shared" si="44"/>
-        <v>95</v>
+        <f t="shared" si="40"/>
+        <v>91</v>
       </c>
       <c r="O216">
         <v>20</v>
@@ -13693,42 +13783,40 @@
         <v>0</v>
       </c>
       <c r="E217" s="13">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F217">
-        <f t="shared" si="37"/>
-        <v>6700</v>
+        <f t="shared" ref="F217:F223" si="42">E217*30</f>
+        <v>7890</v>
       </c>
       <c r="G217">
-        <f t="shared" si="38"/>
-        <v>8576</v>
+        <f t="shared" ref="G217:G223" si="43">E217*78</f>
+        <v>20514</v>
       </c>
       <c r="H217" s="13">
         <v>10</v>
       </c>
       <c r="I217">
-        <f t="shared" ref="I217:I223" si="49">INT($E217*3.7)</f>
-        <v>991</v>
+        <v>0</v>
       </c>
       <c r="J217">
-        <f t="shared" ref="J217:J223" si="50">INT($E217*4.9)</f>
-        <v>1313</v>
+        <v>0</v>
       </c>
       <c r="K217">
-        <f t="shared" ref="K217:K223" si="51">INT($E217*3.7)</f>
-        <v>991</v>
+        <f t="shared" ref="K217:K223" si="44">INT($E217*3.7)</f>
+        <v>973</v>
       </c>
       <c r="L217">
-        <f t="shared" ref="L217:L223" si="52">INT($E217*4.9)</f>
-        <v>1313</v>
+        <f t="shared" ref="L217:L223" si="45">INT($E217*4.9)</f>
+        <v>1288</v>
       </c>
       <c r="M217">
-        <f t="shared" si="43"/>
-        <v>89</v>
+        <f t="shared" si="39"/>
+        <v>87</v>
       </c>
       <c r="N217">
-        <f t="shared" si="44"/>
-        <v>95</v>
+        <f t="shared" si="40"/>
+        <v>93</v>
       </c>
       <c r="O217">
         <v>20</v>
@@ -13752,42 +13840,40 @@
         <v>0</v>
       </c>
       <c r="E218" s="13">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F218">
-        <f t="shared" si="37"/>
-        <v>6725</v>
+        <f t="shared" si="42"/>
+        <v>7980</v>
       </c>
       <c r="G218">
-        <f t="shared" si="38"/>
-        <v>8608</v>
+        <f t="shared" si="43"/>
+        <v>20748</v>
       </c>
       <c r="H218" s="13">
         <v>10</v>
       </c>
       <c r="I218">
-        <f t="shared" si="49"/>
-        <v>995</v>
+        <f t="shared" ref="I218:I222" si="46">INT($E218*3.7)</f>
+        <v>984</v>
       </c>
       <c r="J218">
-        <f t="shared" si="50"/>
-        <v>1318</v>
+        <f t="shared" ref="J218:J222" si="47">INT($E218*4.9)</f>
+        <v>1303</v>
       </c>
       <c r="K218">
-        <f t="shared" si="51"/>
-        <v>995</v>
+        <v>0</v>
       </c>
       <c r="L218">
-        <f t="shared" si="52"/>
-        <v>1318</v>
+        <v>0</v>
       </c>
       <c r="M218">
-        <f t="shared" si="43"/>
-        <v>89</v>
+        <f t="shared" si="39"/>
+        <v>88</v>
       </c>
       <c r="N218">
-        <f t="shared" si="44"/>
-        <v>96</v>
+        <f t="shared" si="40"/>
+        <v>95</v>
       </c>
       <c r="O218">
         <v>20</v>
@@ -13811,42 +13897,40 @@
         <v>0</v>
       </c>
       <c r="E219" s="13">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F219">
-        <f t="shared" si="37"/>
-        <v>6700</v>
+        <f t="shared" si="42"/>
+        <v>7770</v>
       </c>
       <c r="G219">
-        <f t="shared" si="38"/>
-        <v>8576</v>
+        <f t="shared" si="43"/>
+        <v>20202</v>
       </c>
       <c r="H219" s="13">
         <v>10</v>
       </c>
       <c r="I219">
-        <f t="shared" si="49"/>
-        <v>991</v>
+        <v>0</v>
       </c>
       <c r="J219">
-        <f t="shared" si="50"/>
-        <v>1313</v>
+        <v>0</v>
       </c>
       <c r="K219">
-        <f t="shared" si="51"/>
-        <v>991</v>
+        <f t="shared" si="44"/>
+        <v>958</v>
       </c>
       <c r="L219">
-        <f t="shared" si="52"/>
-        <v>1313</v>
+        <f t="shared" si="45"/>
+        <v>1269</v>
       </c>
       <c r="M219">
-        <f t="shared" si="43"/>
-        <v>89</v>
+        <f t="shared" si="39"/>
+        <v>86</v>
       </c>
       <c r="N219">
-        <f t="shared" si="44"/>
-        <v>95</v>
+        <f t="shared" si="40"/>
+        <v>92</v>
       </c>
       <c r="O219">
         <v>20</v>
@@ -13870,42 +13954,40 @@
         <v>0</v>
       </c>
       <c r="E220" s="13">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F220">
-        <f t="shared" si="37"/>
-        <v>6700</v>
+        <f t="shared" si="42"/>
+        <v>7770</v>
       </c>
       <c r="G220">
-        <f t="shared" si="38"/>
-        <v>8576</v>
+        <f t="shared" si="43"/>
+        <v>20202</v>
       </c>
       <c r="H220" s="13">
         <v>10</v>
       </c>
       <c r="I220">
-        <f t="shared" si="49"/>
-        <v>991</v>
+        <f t="shared" si="46"/>
+        <v>958</v>
       </c>
       <c r="J220">
-        <f t="shared" si="50"/>
-        <v>1313</v>
+        <f t="shared" si="47"/>
+        <v>1269</v>
       </c>
       <c r="K220">
-        <f t="shared" si="51"/>
-        <v>991</v>
+        <v>0</v>
       </c>
       <c r="L220">
-        <f t="shared" si="52"/>
-        <v>1313</v>
+        <v>0</v>
       </c>
       <c r="M220">
-        <f t="shared" si="43"/>
-        <v>89</v>
+        <f t="shared" si="39"/>
+        <v>86</v>
       </c>
       <c r="N220">
-        <f t="shared" si="44"/>
-        <v>95</v>
+        <f t="shared" si="40"/>
+        <v>92</v>
       </c>
       <c r="O220">
         <v>20</v>
@@ -13929,42 +14011,40 @@
         <v>0</v>
       </c>
       <c r="E221" s="13">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F221">
-        <f t="shared" si="37"/>
-        <v>6700</v>
+        <f t="shared" si="42"/>
+        <v>7740</v>
       </c>
       <c r="G221">
-        <f t="shared" si="38"/>
-        <v>8576</v>
+        <f t="shared" si="43"/>
+        <v>20124</v>
       </c>
       <c r="H221" s="13">
         <v>10</v>
       </c>
       <c r="I221">
-        <f t="shared" si="49"/>
-        <v>991</v>
+        <v>0</v>
       </c>
       <c r="J221">
-        <f t="shared" si="50"/>
-        <v>1313</v>
+        <v>0</v>
       </c>
       <c r="K221">
-        <f t="shared" si="51"/>
-        <v>991</v>
+        <f t="shared" si="44"/>
+        <v>954</v>
       </c>
       <c r="L221">
-        <f t="shared" si="52"/>
-        <v>1313</v>
+        <f t="shared" si="45"/>
+        <v>1264</v>
       </c>
       <c r="M221">
-        <f t="shared" si="43"/>
-        <v>89</v>
+        <f t="shared" si="39"/>
+        <v>86</v>
       </c>
       <c r="N221">
-        <f t="shared" si="44"/>
-        <v>95</v>
+        <f t="shared" si="40"/>
+        <v>92</v>
       </c>
       <c r="O221">
         <v>20</v>
@@ -13988,42 +14068,40 @@
         <v>0</v>
       </c>
       <c r="E222" s="13">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F222">
-        <f t="shared" si="37"/>
-        <v>6725</v>
+        <f t="shared" si="42"/>
+        <v>7830</v>
       </c>
       <c r="G222">
-        <f t="shared" si="38"/>
-        <v>8608</v>
+        <f t="shared" si="43"/>
+        <v>20358</v>
       </c>
       <c r="H222" s="13">
         <v>10</v>
       </c>
       <c r="I222">
-        <f t="shared" si="49"/>
-        <v>995</v>
+        <f t="shared" si="46"/>
+        <v>965</v>
       </c>
       <c r="J222">
-        <f t="shared" si="50"/>
-        <v>1318</v>
+        <f t="shared" si="47"/>
+        <v>1278</v>
       </c>
       <c r="K222">
-        <f t="shared" si="51"/>
-        <v>995</v>
+        <v>0</v>
       </c>
       <c r="L222">
-        <f t="shared" si="52"/>
-        <v>1318</v>
+        <v>0</v>
       </c>
       <c r="M222">
-        <f t="shared" si="43"/>
-        <v>89</v>
+        <f t="shared" si="39"/>
+        <v>87</v>
       </c>
       <c r="N222">
-        <f t="shared" si="44"/>
-        <v>96</v>
+        <f t="shared" si="40"/>
+        <v>93</v>
       </c>
       <c r="O222">
         <v>20</v>
@@ -14047,42 +14125,40 @@
         <v>0</v>
       </c>
       <c r="E223" s="13">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F223">
-        <f t="shared" si="37"/>
-        <v>6700</v>
+        <f t="shared" si="42"/>
+        <v>7890</v>
       </c>
       <c r="G223">
-        <f t="shared" si="38"/>
-        <v>8576</v>
+        <f t="shared" si="43"/>
+        <v>20514</v>
       </c>
       <c r="H223" s="13">
         <v>10</v>
       </c>
       <c r="I223">
-        <f t="shared" si="49"/>
-        <v>991</v>
+        <v>0</v>
       </c>
       <c r="J223">
-        <f t="shared" si="50"/>
-        <v>1313</v>
+        <v>0</v>
       </c>
       <c r="K223">
-        <f t="shared" si="51"/>
-        <v>991</v>
+        <f t="shared" si="44"/>
+        <v>973</v>
       </c>
       <c r="L223">
-        <f t="shared" si="52"/>
-        <v>1313</v>
+        <f t="shared" si="45"/>
+        <v>1288</v>
       </c>
       <c r="M223">
-        <f t="shared" si="43"/>
-        <v>89</v>
+        <f t="shared" si="39"/>
+        <v>87</v>
       </c>
       <c r="N223">
-        <f t="shared" si="44"/>
-        <v>95</v>
+        <f t="shared" si="40"/>
+        <v>93</v>
       </c>
       <c r="O223">
         <v>20</v>
@@ -14109,25 +14185,25 @@
         <v>28</v>
       </c>
       <c r="F224">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G224">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H224">
         <v>100</v>
       </c>
       <c r="I224">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J224">
         <v>16</v>
       </c>
       <c r="K224">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L224">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M224">
         <v>0</v>
@@ -14160,10 +14236,10 @@
         <v>49</v>
       </c>
       <c r="F225">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G225">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="H225">
         <v>100</v>
@@ -14175,10 +14251,10 @@
         <v>32</v>
       </c>
       <c r="K225">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L225">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M225">
         <v>388</v>
@@ -14201,35 +14277,35 @@
         <v>151</v>
       </c>
       <c r="C226" s="3">
-        <f t="shared" ref="C226:C253" si="53">A226</f>
+        <f t="shared" ref="C226:C253" si="48">A226</f>
         <v>20003</v>
       </c>
       <c r="D226" s="16">
         <v>1</v>
       </c>
       <c r="E226">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F226">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G226">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H226">
         <v>100</v>
       </c>
       <c r="I226">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J226">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K226">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L226">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M226">
         <v>5</v>
@@ -14252,20 +14328,20 @@
         <v>152</v>
       </c>
       <c r="C227" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20004</v>
       </c>
       <c r="D227" s="16">
         <v>1</v>
       </c>
       <c r="E227">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F227">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G227">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H227">
         <v>100</v>
@@ -14277,10 +14353,10 @@
         <v>18</v>
       </c>
       <c r="K227">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L227">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M227">
         <v>3</v>
@@ -14303,17 +14379,17 @@
         <v>153</v>
       </c>
       <c r="C228" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20005</v>
       </c>
       <c r="D228" s="16">
         <v>1</v>
       </c>
       <c r="E228">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F228">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="G228">
         <v>500</v>
@@ -14322,16 +14398,16 @@
         <v>100</v>
       </c>
       <c r="I228">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J228">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K228">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L228">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M228">
         <v>8</v>
@@ -14354,35 +14430,35 @@
         <v>48</v>
       </c>
       <c r="C229" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20006</v>
       </c>
       <c r="D229" s="16">
         <v>1</v>
       </c>
       <c r="E229">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F229">
-        <v>2500</v>
+        <v>650</v>
       </c>
       <c r="G229">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="H229">
         <v>100</v>
       </c>
       <c r="I229">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J229">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K229">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L229">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M229">
         <v>17</v>
@@ -14405,7 +14481,7 @@
         <v>187</v>
       </c>
       <c r="C230" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20007</v>
       </c>
       <c r="D230" s="16">
@@ -14418,7 +14494,7 @@
         <v>200</v>
       </c>
       <c r="G230">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="H230">
         <v>100</v>
@@ -14430,16 +14506,16 @@
         <v>15</v>
       </c>
       <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
         <v>7</v>
       </c>
-      <c r="L230">
-        <v>15</v>
-      </c>
-      <c r="M230">
-        <v>0</v>
-      </c>
       <c r="N230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O230">
         <v>12</v>
@@ -14469,7 +14545,7 @@
         <v>100</v>
       </c>
       <c r="G231">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="H231">
         <v>100</v>
@@ -14481,10 +14557,10 @@
         <v>32</v>
       </c>
       <c r="K231">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L231">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M231">
         <v>88</v>
@@ -14513,22 +14589,22 @@
         <v>1</v>
       </c>
       <c r="E232">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F232">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G232">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H232">
         <v>100</v>
       </c>
       <c r="I232">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J232">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K232">
         <v>15</v>
@@ -14557,17 +14633,17 @@
         <v>155</v>
       </c>
       <c r="C233" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20010</v>
       </c>
       <c r="D233" s="16">
         <v>1</v>
       </c>
       <c r="E233">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F233">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="G233">
         <v>500</v>
@@ -14576,16 +14652,16 @@
         <v>100</v>
       </c>
       <c r="I233">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J233">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="K233">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L233">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M233">
         <v>20</v>
@@ -14608,29 +14684,29 @@
         <v>49</v>
       </c>
       <c r="C234" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20011</v>
       </c>
       <c r="D234" s="16">
         <v>1</v>
       </c>
       <c r="E234">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F234">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="G234">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H234">
         <v>100</v>
       </c>
       <c r="I234">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J234">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K234">
         <v>20</v>
@@ -14639,7 +14715,7 @@
         <v>35</v>
       </c>
       <c r="M234">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N234">
         <v>2000</v>
@@ -14659,35 +14735,35 @@
         <v>156</v>
       </c>
       <c r="C235" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20012</v>
       </c>
       <c r="D235" s="16">
         <v>1</v>
       </c>
       <c r="E235">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F235">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="G235">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="H235">
         <v>100</v>
       </c>
       <c r="I235">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J235">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K235">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L235">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M235">
         <v>20</v>
@@ -14710,35 +14786,35 @@
         <v>50</v>
       </c>
       <c r="C236" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20013</v>
       </c>
       <c r="D236" s="16">
         <v>1</v>
       </c>
       <c r="E236">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F236">
-        <v>1600</v>
+        <v>550</v>
       </c>
       <c r="G236">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="H236">
         <v>100</v>
       </c>
       <c r="I236">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J236">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K236">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L236">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M236">
         <v>15</v>
@@ -14761,32 +14837,32 @@
         <v>105</v>
       </c>
       <c r="C237" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20014</v>
       </c>
       <c r="D237" s="16">
         <v>1</v>
       </c>
       <c r="E237">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F237">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="G237">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="H237">
         <v>100</v>
       </c>
       <c r="I237">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J237">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K237">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L237">
         <v>40</v>
@@ -14812,29 +14888,29 @@
         <v>157</v>
       </c>
       <c r="C238" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20015</v>
       </c>
       <c r="D238" s="16">
         <v>1</v>
       </c>
       <c r="E238">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F238">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G238">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H238">
         <v>100</v>
       </c>
       <c r="I238">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J238">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K238">
         <v>40</v>
@@ -14863,29 +14939,29 @@
         <v>158</v>
       </c>
       <c r="C239" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20016</v>
       </c>
       <c r="D239" s="16">
         <v>1</v>
       </c>
       <c r="E239">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F239">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G239">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="H239">
         <v>100</v>
       </c>
       <c r="I239">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J239">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K239">
         <v>30</v>
@@ -14914,20 +14990,20 @@
         <v>159</v>
       </c>
       <c r="C240" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20017</v>
       </c>
       <c r="D240" s="16">
         <v>1</v>
       </c>
       <c r="E240">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F240">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G240">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="H240">
         <v>100</v>
@@ -14939,10 +15015,10 @@
         <v>55</v>
       </c>
       <c r="K240">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L240">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M240">
         <v>20</v>
@@ -14965,32 +15041,32 @@
         <v>160</v>
       </c>
       <c r="C241" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20018</v>
       </c>
       <c r="D241" s="16">
         <v>1</v>
       </c>
       <c r="E241">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F241">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G241">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="H241">
         <v>100</v>
       </c>
       <c r="I241">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J241">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K241">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L241">
         <v>70</v>
@@ -15016,20 +15092,20 @@
         <v>166</v>
       </c>
       <c r="C242" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20019</v>
       </c>
       <c r="D242" s="16">
         <v>1</v>
       </c>
       <c r="E242">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F242">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G242">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="H242">
         <v>100</v>
@@ -15041,10 +15117,10 @@
         <v>70</v>
       </c>
       <c r="K242">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L242">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M242">
         <v>20</v>
@@ -15074,13 +15150,13 @@
         <v>1</v>
       </c>
       <c r="E243">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F243">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G243">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="H243">
         <v>100</v>
@@ -15092,10 +15168,10 @@
         <v>70</v>
       </c>
       <c r="K243">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L243">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M243">
         <v>20</v>
@@ -15118,7 +15194,7 @@
         <v>167</v>
       </c>
       <c r="C244" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20021</v>
       </c>
       <c r="D244" s="16">
@@ -15128,10 +15204,10 @@
         <v>60</v>
       </c>
       <c r="F244">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G244">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="H244">
         <v>100</v>
@@ -15143,10 +15219,10 @@
         <v>80</v>
       </c>
       <c r="K244">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L244">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M244">
         <v>20</v>
@@ -15169,7 +15245,7 @@
         <v>162</v>
       </c>
       <c r="C245" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20022</v>
       </c>
       <c r="D245" s="16">
@@ -15188,10 +15264,10 @@
         <v>100</v>
       </c>
       <c r="I245">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J245">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K245">
         <v>28</v>
@@ -15220,7 +15296,7 @@
         <v>163</v>
       </c>
       <c r="C246" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20023</v>
       </c>
       <c r="D246" s="16">
@@ -15233,7 +15309,7 @@
         <v>2000</v>
       </c>
       <c r="G246">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H246">
         <v>100</v>
@@ -15245,10 +15321,10 @@
         <v>36</v>
       </c>
       <c r="K246">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L246">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M246">
         <v>15</v>
@@ -15271,7 +15347,7 @@
         <v>164</v>
       </c>
       <c r="C247" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20024</v>
       </c>
       <c r="D247" s="16">
@@ -15281,10 +15357,10 @@
         <v>66</v>
       </c>
       <c r="F247">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="G247">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H247">
         <v>100</v>
@@ -15296,10 +15372,10 @@
         <v>70</v>
       </c>
       <c r="K247">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L247">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M247">
         <v>15</v>
@@ -15322,7 +15398,7 @@
         <v>161</v>
       </c>
       <c r="C248" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20025</v>
       </c>
       <c r="D248" s="16">
@@ -15335,16 +15411,16 @@
         <v>2000</v>
       </c>
       <c r="G248">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="H248">
         <v>100</v>
       </c>
       <c r="I248">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J248">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K248">
         <v>25</v>
@@ -15383,19 +15459,19 @@
         <v>70</v>
       </c>
       <c r="F249">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="G249">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="H249">
         <v>100</v>
       </c>
       <c r="I249">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J249">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K249">
         <v>50</v>
@@ -15424,7 +15500,7 @@
         <v>179</v>
       </c>
       <c r="C250" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20027</v>
       </c>
       <c r="D250" s="16">
@@ -15437,16 +15513,16 @@
         <v>1800</v>
       </c>
       <c r="G250">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="H250">
         <v>100</v>
       </c>
       <c r="I250">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J250">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K250">
         <v>55</v>
@@ -15475,7 +15551,7 @@
         <v>175</v>
       </c>
       <c r="C251" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20028</v>
       </c>
       <c r="D251" s="16">
@@ -15488,7 +15564,7 @@
         <v>1900</v>
       </c>
       <c r="G251">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="H251">
         <v>100</v>
@@ -15500,10 +15576,10 @@
         <v>95</v>
       </c>
       <c r="K251">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L251">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M251">
         <v>12</v>
@@ -15526,7 +15602,7 @@
         <v>176</v>
       </c>
       <c r="C252" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20029</v>
       </c>
       <c r="D252" s="16">
@@ -15539,7 +15615,7 @@
         <v>2000</v>
       </c>
       <c r="G252">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="H252">
         <v>100</v>
@@ -15551,10 +15627,10 @@
         <v>90</v>
       </c>
       <c r="K252">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L252">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M252">
         <v>12</v>
@@ -15577,7 +15653,7 @@
         <v>177</v>
       </c>
       <c r="C253" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>20030</v>
       </c>
       <c r="D253" s="16">
@@ -15587,19 +15663,19 @@
         <v>90</v>
       </c>
       <c r="F253">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="G253">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="H253">
         <v>100</v>
       </c>
       <c r="I253">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J253">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="K253">
         <v>70</v>
@@ -15638,19 +15714,19 @@
         <v>85</v>
       </c>
       <c r="F254">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="G254">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="H254">
         <v>100</v>
       </c>
       <c r="I254">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J254">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K254">
         <v>70</v>
@@ -15689,19 +15765,19 @@
         <v>60</v>
       </c>
       <c r="F255">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G255">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="H255">
         <v>100</v>
       </c>
       <c r="I255">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J255">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K255">
         <v>30</v>
@@ -15740,19 +15816,19 @@
         <v>50</v>
       </c>
       <c r="F256">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G256">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="H256">
         <v>100</v>
       </c>
       <c r="I256">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J256">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K256">
         <v>22</v>
@@ -15791,10 +15867,10 @@
         <v>50</v>
       </c>
       <c r="F257">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G257">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="H257">
         <v>100</v>
@@ -15806,10 +15882,10 @@
         <v>55</v>
       </c>
       <c r="K257">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L257">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M257">
         <v>20</v>
@@ -15842,19 +15918,19 @@
         <v>60</v>
       </c>
       <c r="F258">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G258">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="H258">
         <v>100</v>
       </c>
       <c r="I258">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J258">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K258">
         <v>40</v>
@@ -15893,10 +15969,10 @@
         <v>60</v>
       </c>
       <c r="F259">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G259">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="H259">
         <v>100</v>
@@ -15908,10 +15984,10 @@
         <v>70</v>
       </c>
       <c r="K259">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L259">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M259">
         <v>20</v>
@@ -15944,10 +16020,10 @@
         <v>66</v>
       </c>
       <c r="F260">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G260">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="H260">
         <v>100</v>
@@ -15959,10 +16035,10 @@
         <v>70</v>
       </c>
       <c r="K260">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L260">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M260">
         <v>15</v>
@@ -15995,19 +16071,19 @@
         <v>70</v>
       </c>
       <c r="F261">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="G261">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="H261">
         <v>100</v>
       </c>
       <c r="I261">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J261">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K261">
         <v>45</v>
@@ -16046,19 +16122,19 @@
         <v>92</v>
       </c>
       <c r="F262">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="G262">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="H262">
         <v>100</v>
       </c>
       <c r="I262">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J262">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="K262">
         <v>90</v>
@@ -16099,7 +16175,7 @@
         <v>8000</v>
       </c>
       <c r="G263">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="H263">
         <v>100</v>
@@ -16150,7 +16226,7 @@
         <v>18000</v>
       </c>
       <c r="G264" s="17">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="H264" s="17">
         <v>100</v>
@@ -16201,7 +16277,7 @@
         <v>21000</v>
       </c>
       <c r="G265" s="17">
-        <v>8500</v>
+        <v>17500</v>
       </c>
       <c r="H265" s="17">
         <v>100</v>
@@ -16251,7 +16327,7 @@
         <v>26000</v>
       </c>
       <c r="G266" s="17">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="H266" s="17">
         <v>100</v>
@@ -16302,7 +16378,7 @@
         <v>35000</v>
       </c>
       <c r="G267" s="17">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H267" s="17">
         <v>100</v>
@@ -17239,284 +17315,434 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E170:E175 I1:P137 I186:P223 I286:P928">
-    <cfRule type="expression" dxfId="55" priority="129">
+  <conditionalFormatting sqref="E170:E175 I1:P137 I286:P928 M189:P189 M193:P194 M196:P197 M199:P199 K223:P223 K202:P202 M203:P203 M206:P206 M208:P209 M212:P213 I216:J216 M216:P216 K217:P217 I218:J218 M218:P218 K219:P219 I220:J220 M220:P220 K221:P221 I222:J222 M222:P222 K186:P188 I189:J189 K190:P192 I193:J194 K195:P195 I196:J197 K198:P198 I199:J199 K200:P200 I201:P201 I203:J203 K204:P205 I206:J206 K207:P207 I208:J209 K210:P211 I212:J213 K214:P215">
+    <cfRule type="expression" dxfId="85" priority="159">
       <formula>E1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M138:P139 M142:P143 M147:P148 M150:P150 M152:P153 M155:P157 M160:P161 M164:P164 M166:P167 M169:P171 M173:P174 M176:P178 M181:P183 I138:J139 K140:P141 I142:J143 K144:P146 I147:J148 K149:P149 I150:J150 K151:P151 I152:J153 K154:P154 I155:J157 K158:P159 I160:J161 K162:P163 I164:J164 K165:P165 I166:J167 K168:P168 I169:J171 K172:P172 I173:J174 K175:P175 I176:J178 K179:P180 I181:J183 K184:P185">
-    <cfRule type="expression" dxfId="54" priority="55">
+    <cfRule type="expression" dxfId="84" priority="85">
       <formula>I138=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C170:C175">
-    <cfRule type="expression" dxfId="53" priority="54">
+    <cfRule type="expression" dxfId="83" priority="84">
       <formula>C170=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K138:L138">
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="82" priority="83">
       <formula>K138=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K139:L139">
-    <cfRule type="expression" dxfId="51" priority="52">
+    <cfRule type="expression" dxfId="81" priority="82">
       <formula>K139=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I140:J140">
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="80" priority="81">
       <formula>I140=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I141:J141">
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="79" priority="80">
       <formula>I141=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K142:L142">
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="78" priority="79">
       <formula>K142=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K143:L143">
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="77" priority="78">
       <formula>K143=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I144:J144">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="76" priority="77">
       <formula>I144=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145:J145">
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="75" priority="76">
       <formula>I145=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I146:J146">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="74" priority="75">
       <formula>I146=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K147:L147">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="73" priority="74">
       <formula>K147=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K148:L148">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="72" priority="73">
       <formula>K148=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I149:J149">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="71" priority="72">
       <formula>I149=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K150:L150">
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="70" priority="71">
       <formula>K150=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I151:J151">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="69" priority="70">
       <formula>I151=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K152:L152">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="68" priority="69">
       <formula>K152=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K153:L153">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="67" priority="68">
       <formula>K153=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I154:J154">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="66" priority="67">
       <formula>I154=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K155:L155">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="65" priority="66">
       <formula>K155=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K156:L156">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="64" priority="65">
       <formula>K156=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K157:L157">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="63" priority="64">
       <formula>K157=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I158:J158">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="62" priority="63">
       <formula>I158=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I159:J159">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="61" priority="62">
       <formula>I159=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K160:L160">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="60" priority="61">
       <formula>K160=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K161:L161">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="59" priority="60">
       <formula>K161=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I162:J162">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="58" priority="59">
       <formula>I162=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I163:J163">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="57" priority="58">
       <formula>I163=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K164:L164">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="56" priority="57">
       <formula>K164=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K167:L167">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="55" priority="56">
       <formula>K167=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I165:J165">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="54" priority="55">
       <formula>I165=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K166:L166">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="53" priority="54">
       <formula>K166=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I168:J168">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="52" priority="53">
       <formula>I168=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K169:L169">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="51" priority="52">
       <formula>K169=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I172:J172">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="50" priority="51">
       <formula>I172=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K170:L170">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="49" priority="50">
       <formula>K170=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K171:L171">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="48" priority="49">
       <formula>K171=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I175:J175">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="47" priority="48">
       <formula>I175=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K173:L173">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>K173=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K174:L174">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>K174=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K176:L176">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>K176=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K177:L177">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>K177=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K178:L178">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>K178=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I179:J179">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="41" priority="42">
       <formula>I179=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I180:J180">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="40" priority="41">
       <formula>I180=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K181:L181">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="39" priority="40">
       <formula>K181=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K182:L182">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="38" priority="39">
       <formula>K182=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K183:L183">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>K183=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I184:J184">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>I184=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I185:J185">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>I185=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J262:J263 I263 P263 I255:J261 M255:N261 I264:J267 M264:P267 M262:O263 I224:N254 I268:P285">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>I224=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K266:L267 K255:L261">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>K255=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L262">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>L262=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K263:L263">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>K263=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K264:L265">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>K264=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I186:J186">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>I186=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K189:L189">
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>K189=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I187:J188">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>I187=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I190:J192">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>I190=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K193:L193">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>K193=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K194:L194">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>K194=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I195:J195">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>I195=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K196:L196">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>K196=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K197:L197">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>K197=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I198:J198">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>I198=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K199:L199">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>K199=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I200:J200">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>I200=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I202:J202">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>I202=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K203:L203">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>K203=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I204:J204">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>I204=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I205:J205">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>I205=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K206:L206">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>K206=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I207:J207">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>I207=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K208:L209">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>K208=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I210:J211">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>I210=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K212:L213">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>K212=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I214:J215">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>I214=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K216:L216">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>K216=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I217:J217">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>I217=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K218:L218">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>K218=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I219:J219">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>I219=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K220:L220">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>K220=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I221:J221">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>I221=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K222:L222">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>K222=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I223:J223">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>K264=0</formula>
+      <formula>I223=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>

--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -1940,8 +1940,8 @@
   <dimension ref="A1:U285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G274" sqref="G274"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4693,10 +4693,10 @@
         <v>10</v>
       </c>
       <c r="I54">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J54">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K54" s="13">
         <v>0</v>
@@ -4744,10 +4744,10 @@
         <v>10</v>
       </c>
       <c r="I55">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J55">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K55" s="13">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L56">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M56" s="13">
         <v>9</v>
@@ -4846,10 +4846,10 @@
         <v>10</v>
       </c>
       <c r="I57">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J57">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K57" s="13">
         <v>0</v>
@@ -4903,10 +4903,10 @@
         <v>0</v>
       </c>
       <c r="K58" s="13">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="L58" s="14">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="M58" s="13">
         <v>9</v>
@@ -4948,10 +4948,10 @@
         <v>10</v>
       </c>
       <c r="I59">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J59">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K59" s="13">
         <v>0</v>
@@ -4999,10 +4999,10 @@
         <v>10</v>
       </c>
       <c r="I60">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J60">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="K60" s="13">
         <v>0</v>
@@ -5056,10 +5056,10 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="L61">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="M61" s="13">
         <v>10</v>
@@ -6166,7 +6166,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="13">
-        <v>240</v>
+        <v>740</v>
       </c>
       <c r="H83" s="13">
         <v>10</v>
@@ -6217,7 +6217,7 @@
         <v>100</v>
       </c>
       <c r="G84" s="13">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="H84" s="13">
         <v>10</v>
@@ -14952,7 +14952,7 @@
         <v>1300</v>
       </c>
       <c r="G239">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="H239">
         <v>100</v>
@@ -14964,10 +14964,10 @@
         <v>0</v>
       </c>
       <c r="K239">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L239">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="M239">
         <v>20</v>
@@ -15003,16 +15003,16 @@
         <v>1300</v>
       </c>
       <c r="G240">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="H240">
         <v>100</v>
       </c>
       <c r="I240">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J240">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -15054,7 +15054,7 @@
         <v>2000</v>
       </c>
       <c r="G241">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H241">
         <v>100</v>
@@ -15066,10 +15066,10 @@
         <v>0</v>
       </c>
       <c r="K241">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="L241">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M241">
         <v>18</v>
@@ -15105,7 +15105,7 @@
         <v>1500</v>
       </c>
       <c r="G242">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H242">
         <v>100</v>
@@ -15156,7 +15156,7 @@
         <v>1500</v>
       </c>
       <c r="G243">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H243">
         <v>100</v>
@@ -15207,7 +15207,7 @@
         <v>2000</v>
       </c>
       <c r="G244">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H244">
         <v>100</v>
@@ -15525,10 +15525,10 @@
         <v>0</v>
       </c>
       <c r="K250">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L250">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M250">
         <v>12</v>
@@ -15570,10 +15570,10 @@
         <v>100</v>
       </c>
       <c r="I251">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J251">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K251">
         <v>0</v>
@@ -15621,10 +15621,10 @@
         <v>100</v>
       </c>
       <c r="I252">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J252">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K252">
         <v>0</v>
@@ -15678,10 +15678,10 @@
         <v>0</v>
       </c>
       <c r="K253">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L253">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M253">
         <v>25</v>
@@ -15729,10 +15729,10 @@
         <v>0</v>
       </c>
       <c r="K254">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L254">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M254">
         <v>50</v>

--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="0" windowWidth="11595" windowHeight="9315"/>
+    <workbookView xWindow="-30" yWindow="-15" windowWidth="4200" windowHeight="9315"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="1" r:id="rId1"/>
@@ -1167,7 +1167,77 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="100">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -1940,8 +2010,8 @@
   <dimension ref="A1:U285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5803,10 +5873,10 @@
         <v>0</v>
       </c>
       <c r="E76" s="13">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F76" s="13">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G76" s="13">
         <v>1000</v>
@@ -5821,10 +5891,10 @@
         <v>0</v>
       </c>
       <c r="K76" s="13">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="L76" s="13">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="M76" s="13">
         <v>12</v>
@@ -5854,10 +5924,10 @@
         <v>0</v>
       </c>
       <c r="E77" s="13">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F77" s="13">
-        <v>1000</v>
+        <v>720</v>
       </c>
       <c r="G77" s="13">
         <v>1000</v>
@@ -5872,10 +5942,10 @@
         <v>0</v>
       </c>
       <c r="K77" s="13">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="L77" s="13">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="M77" s="13">
         <v>12</v>
@@ -5905,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="E78" s="13">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F78" s="13">
-        <v>1200</v>
+        <v>735</v>
       </c>
       <c r="G78" s="13">
         <v>1000</v>
@@ -5923,10 +5993,10 @@
         <v>0</v>
       </c>
       <c r="K78" s="13">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="L78" s="13">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="M78" s="13">
         <v>12</v>
@@ -5956,10 +6026,10 @@
         <v>0</v>
       </c>
       <c r="E79" s="13">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F79" s="13">
-        <v>1300</v>
+        <v>810</v>
       </c>
       <c r="G79" s="13">
         <v>1200</v>
@@ -5968,10 +6038,10 @@
         <v>10</v>
       </c>
       <c r="I79" s="13">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="J79" s="13">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="K79" s="13">
         <v>0</v>
@@ -6007,10 +6077,10 @@
         <v>0</v>
       </c>
       <c r="E80" s="13">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F80" s="13">
-        <v>1500</v>
+        <v>820</v>
       </c>
       <c r="G80" s="13">
         <v>1200</v>
@@ -6019,10 +6089,10 @@
         <v>10</v>
       </c>
       <c r="I80" s="13">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="J80" s="13">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K80" s="13">
         <v>0</v>
@@ -6058,10 +6128,10 @@
         <v>0</v>
       </c>
       <c r="E81" s="13">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F81" s="13">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="G81" s="13">
         <v>1000</v>
@@ -6076,10 +6146,10 @@
         <v>0</v>
       </c>
       <c r="K81" s="13">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="L81" s="13">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="M81" s="13">
         <v>12</v>
@@ -6673,8 +6743,8 @@
         <v>69</v>
       </c>
       <c r="F93">
-        <f>E93*25</f>
-        <v>1725</v>
+        <f>E93*20</f>
+        <v>1380</v>
       </c>
       <c r="G93">
         <f t="shared" ref="G93:G114" si="4">E93*32</f>
@@ -6698,12 +6768,12 @@
         <v>127</v>
       </c>
       <c r="M93">
-        <f>INT(E93/3)</f>
-        <v>23</v>
+        <f>INT(E93/(IF(J93=0,2.7,2.4)))</f>
+        <v>25</v>
       </c>
       <c r="N93">
-        <f>INT(E93/2.8)</f>
-        <v>24</v>
+        <f>INT(E93/(IF(J93&lt;&gt;0,2.7,2.4)))</f>
+        <v>28</v>
       </c>
       <c r="O93">
         <v>22</v>
@@ -6731,8 +6801,8 @@
         <v>65</v>
       </c>
       <c r="F94">
-        <f t="shared" ref="F94:F157" si="5">E94*25</f>
-        <v>1625</v>
+        <f t="shared" ref="F94:F157" si="5">E94*20</f>
+        <v>1300</v>
       </c>
       <c r="G94">
         <f t="shared" si="4"/>
@@ -6756,11 +6826,11 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <f t="shared" ref="M94:M115" si="6">INT(E94/3)</f>
-        <v>21</v>
+        <f t="shared" ref="M94:M98" si="6">INT(E94/(IF(J94=0,2.8,2.5)))</f>
+        <v>26</v>
       </c>
       <c r="N94">
-        <f t="shared" ref="N94:N115" si="7">INT(E94/2.8)</f>
+        <f t="shared" ref="N94:N98" si="7">INT(E94/(IF(J94&lt;&gt;0,2.8,2.5)))</f>
         <v>23</v>
       </c>
       <c r="O94">
@@ -6790,7 +6860,7 @@
       </c>
       <c r="F95">
         <f t="shared" si="5"/>
-        <v>1850</v>
+        <v>1480</v>
       </c>
       <c r="G95">
         <f t="shared" si="4"/>
@@ -6814,12 +6884,12 @@
         <v>136</v>
       </c>
       <c r="M95">
-        <f t="shared" si="6"/>
-        <v>24</v>
+        <f t="shared" ref="M95:M112" si="8">INT(E95/(IF(J95=0,2.8,2.5)))</f>
+        <v>26</v>
       </c>
       <c r="N95">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" ref="N95:N112" si="9">INT(E95/(IF(J95&lt;&gt;0,2.8,2.5)))</f>
+        <v>29</v>
       </c>
       <c r="O95">
         <v>24</v>
@@ -6848,7 +6918,7 @@
       </c>
       <c r="F96">
         <f t="shared" si="5"/>
-        <v>1825</v>
+        <v>1460</v>
       </c>
       <c r="G96">
         <f t="shared" si="4"/>
@@ -6872,12 +6942,12 @@
         <v>135</v>
       </c>
       <c r="M96">
-        <f t="shared" si="6"/>
-        <v>24</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="N96">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" si="9"/>
+        <v>29</v>
       </c>
       <c r="O96">
         <v>20</v>
@@ -6906,7 +6976,7 @@
       </c>
       <c r="F97">
         <f t="shared" si="5"/>
-        <v>1800</v>
+        <v>1440</v>
       </c>
       <c r="G97">
         <f t="shared" si="4"/>
@@ -6930,12 +7000,12 @@
         <v>133</v>
       </c>
       <c r="M97">
-        <f t="shared" si="6"/>
-        <v>24</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="N97">
-        <f t="shared" si="7"/>
-        <v>25</v>
+        <f t="shared" si="9"/>
+        <v>28</v>
       </c>
       <c r="O97">
         <v>20</v>
@@ -6964,7 +7034,7 @@
       </c>
       <c r="F98">
         <f t="shared" si="5"/>
-        <v>1625</v>
+        <v>1300</v>
       </c>
       <c r="G98">
         <f t="shared" si="4"/>
@@ -6988,12 +7058,12 @@
         <v>120</v>
       </c>
       <c r="M98">
-        <f t="shared" si="6"/>
-        <v>21</v>
+        <f t="shared" si="8"/>
+        <v>23</v>
       </c>
       <c r="N98">
-        <f t="shared" si="7"/>
-        <v>23</v>
+        <f t="shared" si="9"/>
+        <v>26</v>
       </c>
       <c r="O98">
         <v>20</v>
@@ -7022,7 +7092,7 @@
       </c>
       <c r="F99">
         <f t="shared" si="5"/>
-        <v>1750</v>
+        <v>1400</v>
       </c>
       <c r="G99">
         <f t="shared" si="4"/>
@@ -7046,11 +7116,11 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <f t="shared" si="6"/>
-        <v>23</v>
+        <f t="shared" si="8"/>
+        <v>28</v>
       </c>
       <c r="N99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="O99">
@@ -7080,7 +7150,7 @@
       </c>
       <c r="F100">
         <f t="shared" si="5"/>
-        <v>1725</v>
+        <v>1380</v>
       </c>
       <c r="G100">
         <f t="shared" si="4"/>
@@ -7104,11 +7174,11 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <f t="shared" si="6"/>
-        <v>23</v>
+        <f t="shared" si="8"/>
+        <v>27</v>
       </c>
       <c r="N100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="O100">
@@ -7138,7 +7208,7 @@
       </c>
       <c r="F101">
         <f t="shared" si="5"/>
-        <v>1725</v>
+        <v>1380</v>
       </c>
       <c r="G101">
         <f t="shared" si="4"/>
@@ -7162,11 +7232,11 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <f t="shared" si="6"/>
-        <v>23</v>
+        <f t="shared" si="8"/>
+        <v>27</v>
       </c>
       <c r="N101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="O101">
@@ -7196,7 +7266,7 @@
       </c>
       <c r="F102">
         <f t="shared" si="5"/>
-        <v>1850</v>
+        <v>1480</v>
       </c>
       <c r="G102">
         <f t="shared" si="4"/>
@@ -7220,12 +7290,12 @@
         <v>136</v>
       </c>
       <c r="M102">
-        <f t="shared" si="6"/>
-        <v>24</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="N102">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" si="9"/>
+        <v>29</v>
       </c>
       <c r="O102">
         <v>20</v>
@@ -7254,7 +7324,7 @@
       </c>
       <c r="F103">
         <f t="shared" si="5"/>
-        <v>1900</v>
+        <v>1520</v>
       </c>
       <c r="G103">
         <f t="shared" si="4"/>
@@ -7278,11 +7348,11 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f t="shared" si="8"/>
+        <v>30</v>
       </c>
       <c r="N103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="O103">
@@ -7312,7 +7382,7 @@
       </c>
       <c r="F104">
         <f t="shared" si="5"/>
-        <v>1900</v>
+        <v>1520</v>
       </c>
       <c r="G104">
         <f t="shared" si="4"/>
@@ -7336,11 +7406,11 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f t="shared" si="8"/>
+        <v>30</v>
       </c>
       <c r="N104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="O104">
@@ -7370,7 +7440,7 @@
       </c>
       <c r="F105">
         <f t="shared" si="5"/>
-        <v>1950</v>
+        <v>1560</v>
       </c>
       <c r="G105">
         <f t="shared" si="4"/>
@@ -7394,12 +7464,12 @@
         <v>144</v>
       </c>
       <c r="M105">
-        <f t="shared" si="6"/>
-        <v>26</v>
+        <f t="shared" si="8"/>
+        <v>27</v>
       </c>
       <c r="N105">
-        <f t="shared" si="7"/>
-        <v>27</v>
+        <f t="shared" si="9"/>
+        <v>31</v>
       </c>
       <c r="O105">
         <v>20</v>
@@ -7428,7 +7498,7 @@
       </c>
       <c r="F106">
         <f t="shared" si="5"/>
-        <v>1900</v>
+        <v>1520</v>
       </c>
       <c r="G106">
         <f t="shared" si="4"/>
@@ -7452,12 +7522,12 @@
         <v>140</v>
       </c>
       <c r="M106">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f t="shared" si="8"/>
+        <v>27</v>
       </c>
       <c r="N106">
-        <f t="shared" si="7"/>
-        <v>27</v>
+        <f t="shared" si="9"/>
+        <v>30</v>
       </c>
       <c r="O106">
         <v>20</v>
@@ -7486,7 +7556,7 @@
       </c>
       <c r="F107">
         <f t="shared" si="5"/>
-        <v>1975</v>
+        <v>1580</v>
       </c>
       <c r="G107">
         <f t="shared" si="4"/>
@@ -7510,11 +7580,11 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <f t="shared" si="6"/>
-        <v>26</v>
+        <f t="shared" si="8"/>
+        <v>31</v>
       </c>
       <c r="N107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="O107">
@@ -7544,7 +7614,7 @@
       </c>
       <c r="F108">
         <f t="shared" si="5"/>
-        <v>2100</v>
+        <v>1680</v>
       </c>
       <c r="G108">
         <f t="shared" si="4"/>
@@ -7568,12 +7638,12 @@
         <v>159</v>
       </c>
       <c r="M108">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>30</v>
       </c>
       <c r="N108">
-        <f t="shared" si="7"/>
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>33</v>
       </c>
       <c r="O108">
         <v>20</v>
@@ -7602,7 +7672,7 @@
       </c>
       <c r="F109">
         <f t="shared" si="5"/>
-        <v>2075</v>
+        <v>1660</v>
       </c>
       <c r="G109">
         <f t="shared" si="4"/>
@@ -7626,12 +7696,12 @@
         <v>157</v>
       </c>
       <c r="M109">
-        <f t="shared" si="6"/>
-        <v>27</v>
+        <f t="shared" si="8"/>
+        <v>29</v>
       </c>
       <c r="N109">
-        <f t="shared" si="7"/>
-        <v>29</v>
+        <f t="shared" si="9"/>
+        <v>33</v>
       </c>
       <c r="O109">
         <v>20</v>
@@ -7660,7 +7730,7 @@
       </c>
       <c r="F110">
         <f t="shared" si="5"/>
-        <v>2075</v>
+        <v>1660</v>
       </c>
       <c r="G110">
         <f t="shared" si="4"/>
@@ -7684,11 +7754,11 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <f t="shared" si="6"/>
-        <v>27</v>
+        <f t="shared" si="8"/>
+        <v>33</v>
       </c>
       <c r="N110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="O110">
@@ -7707,7 +7777,7 @@
         <v>124</v>
       </c>
       <c r="C111" s="16">
-        <f t="shared" ref="C111:C130" si="8">A111</f>
+        <f t="shared" ref="C111:C130" si="10">A111</f>
         <v>10110</v>
       </c>
       <c r="D111" s="16">
@@ -7718,7 +7788,7 @@
       </c>
       <c r="F111">
         <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="G111">
         <f t="shared" si="4"/>
@@ -7742,12 +7812,12 @@
         <v>152</v>
       </c>
       <c r="M111">
-        <f t="shared" si="6"/>
-        <v>26</v>
+        <f t="shared" si="8"/>
+        <v>28</v>
       </c>
       <c r="N111">
-        <f t="shared" si="7"/>
-        <v>28</v>
+        <f t="shared" si="9"/>
+        <v>32</v>
       </c>
       <c r="O111">
         <v>20</v>
@@ -7765,7 +7835,7 @@
         <v>125</v>
       </c>
       <c r="C112" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10111</v>
       </c>
       <c r="D112" s="16">
@@ -7775,8 +7845,8 @@
         <v>76</v>
       </c>
       <c r="F112">
-        <f>E112*25</f>
-        <v>1900</v>
+        <f t="shared" si="5"/>
+        <v>1520</v>
       </c>
       <c r="G112">
         <f t="shared" si="4"/>
@@ -7800,12 +7870,12 @@
         <v>144</v>
       </c>
       <c r="M112">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f t="shared" si="8"/>
+        <v>27</v>
       </c>
       <c r="N112">
-        <f t="shared" si="7"/>
-        <v>27</v>
+        <f t="shared" si="9"/>
+        <v>30</v>
       </c>
       <c r="O112">
         <v>20</v>
@@ -7823,7 +7893,7 @@
         <v>296</v>
       </c>
       <c r="C113" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10112</v>
       </c>
       <c r="D113" s="16">
@@ -7834,7 +7904,7 @@
       </c>
       <c r="F113">
         <f t="shared" si="5"/>
-        <v>1950</v>
+        <v>1560</v>
       </c>
       <c r="G113">
         <f t="shared" si="4"/>
@@ -7858,11 +7928,11 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <f t="shared" si="6"/>
-        <v>26</v>
+        <f t="shared" ref="M113:M176" si="11">INT(E113/(IF(J113=0,2.8,2.5)))</f>
+        <v>31</v>
       </c>
       <c r="N113">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N113:N176" si="12">INT(E113/(IF(J113&lt;&gt;0,2.8,2.5)))</f>
         <v>27</v>
       </c>
       <c r="O113">
@@ -7881,7 +7951,7 @@
         <v>126</v>
       </c>
       <c r="C114" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10113</v>
       </c>
       <c r="D114" s="16">
@@ -7892,7 +7962,7 @@
       </c>
       <c r="F114">
         <f t="shared" si="5"/>
-        <v>2025</v>
+        <v>1620</v>
       </c>
       <c r="G114">
         <f t="shared" si="4"/>
@@ -7916,12 +7986,12 @@
         <v>153</v>
       </c>
       <c r="M114">
-        <f t="shared" si="6"/>
-        <v>27</v>
+        <f t="shared" si="11"/>
+        <v>28</v>
       </c>
       <c r="N114">
-        <f t="shared" si="7"/>
-        <v>28</v>
+        <f t="shared" si="12"/>
+        <v>32</v>
       </c>
       <c r="O114">
         <v>20</v>
@@ -7939,7 +8009,7 @@
         <v>127</v>
       </c>
       <c r="C115" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10114</v>
       </c>
       <c r="D115" s="16">
@@ -7950,7 +8020,7 @@
       </c>
       <c r="F115">
         <f t="shared" si="5"/>
-        <v>2350</v>
+        <v>1880</v>
       </c>
       <c r="G115">
         <f>E115*35</f>
@@ -7974,11 +8044,11 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <f t="shared" si="6"/>
-        <v>31</v>
+        <f t="shared" si="11"/>
+        <v>37</v>
       </c>
       <c r="N115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
       <c r="O115">
@@ -7997,7 +8067,7 @@
         <v>128</v>
       </c>
       <c r="C116" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10115</v>
       </c>
       <c r="D116" s="16">
@@ -8008,10 +8078,10 @@
       </c>
       <c r="F116">
         <f t="shared" si="5"/>
-        <v>2250</v>
+        <v>1800</v>
       </c>
       <c r="G116">
-        <f t="shared" ref="G116:G127" si="9">E116*35</f>
+        <f t="shared" ref="G116:G127" si="13">E116*35</f>
         <v>3150</v>
       </c>
       <c r="H116" s="13">
@@ -8032,11 +8102,11 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <f>INT(E116/3)</f>
-        <v>30</v>
+        <f t="shared" si="11"/>
+        <v>36</v>
       </c>
       <c r="N116">
-        <f>INT(E116/2.8)</f>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="O116">
@@ -8055,7 +8125,7 @@
         <v>129</v>
       </c>
       <c r="C117" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10116</v>
       </c>
       <c r="D117" s="16">
@@ -8066,10 +8136,10 @@
       </c>
       <c r="F117">
         <f t="shared" si="5"/>
-        <v>2300</v>
+        <v>1840</v>
       </c>
       <c r="G117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3220</v>
       </c>
       <c r="H117" s="13">
@@ -8090,11 +8160,11 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <f t="shared" ref="M117:M126" si="10">INT(E117/3)</f>
-        <v>30</v>
+        <f t="shared" si="11"/>
+        <v>36</v>
       </c>
       <c r="N117">
-        <f t="shared" ref="N117:N126" si="11">INT(E117/2.8)</f>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="O117">
@@ -8113,7 +8183,7 @@
         <v>130</v>
       </c>
       <c r="C118" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10117</v>
       </c>
       <c r="D118" s="16">
@@ -8124,10 +8194,10 @@
       </c>
       <c r="F118">
         <f t="shared" si="5"/>
-        <v>2150</v>
+        <v>1720</v>
       </c>
       <c r="G118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3010</v>
       </c>
       <c r="H118" s="13">
@@ -8148,11 +8218,11 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <f t="shared" si="10"/>
-        <v>28</v>
+        <f t="shared" si="11"/>
+        <v>34</v>
       </c>
       <c r="N118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="O118">
@@ -8171,7 +8241,7 @@
         <v>131</v>
       </c>
       <c r="C119" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10118</v>
       </c>
       <c r="D119" s="16">
@@ -8182,10 +8252,10 @@
       </c>
       <c r="F119">
         <f t="shared" si="5"/>
-        <v>2350</v>
+        <v>1880</v>
       </c>
       <c r="G119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3290</v>
       </c>
       <c r="H119" s="13">
@@ -8206,12 +8276,12 @@
         <v>178</v>
       </c>
       <c r="M119">
-        <f t="shared" si="10"/>
-        <v>31</v>
-      </c>
-      <c r="N119">
         <f t="shared" si="11"/>
         <v>33</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="12"/>
+        <v>37</v>
       </c>
       <c r="O119">
         <v>20</v>
@@ -8229,7 +8299,7 @@
         <v>132</v>
       </c>
       <c r="C120" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10119</v>
       </c>
       <c r="D120" s="16">
@@ -8240,10 +8310,10 @@
       </c>
       <c r="F120">
         <f t="shared" si="5"/>
-        <v>2175</v>
+        <v>1740</v>
       </c>
       <c r="G120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3045</v>
       </c>
       <c r="H120" s="13">
@@ -8264,11 +8334,11 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <f t="shared" si="10"/>
-        <v>29</v>
+        <f t="shared" si="11"/>
+        <v>34</v>
       </c>
       <c r="N120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="O120">
@@ -8287,7 +8357,7 @@
         <v>133</v>
       </c>
       <c r="C121" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10120</v>
       </c>
       <c r="D121" s="16">
@@ -8298,10 +8368,10 @@
       </c>
       <c r="F121">
         <f t="shared" si="5"/>
-        <v>2125</v>
+        <v>1700</v>
       </c>
       <c r="G121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2975</v>
       </c>
       <c r="H121" s="13">
@@ -8322,11 +8392,11 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <f t="shared" si="10"/>
-        <v>28</v>
+        <f t="shared" si="11"/>
+        <v>34</v>
       </c>
       <c r="N121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="O121">
@@ -8345,7 +8415,7 @@
         <v>134</v>
       </c>
       <c r="C122" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10121</v>
       </c>
       <c r="D122" s="16">
@@ -8356,10 +8426,10 @@
       </c>
       <c r="F122">
         <f t="shared" si="5"/>
-        <v>2250</v>
+        <v>1800</v>
       </c>
       <c r="G122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3150</v>
       </c>
       <c r="H122" s="13">
@@ -8380,11 +8450,11 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <f t="shared" si="10"/>
-        <v>30</v>
+        <f t="shared" si="11"/>
+        <v>36</v>
       </c>
       <c r="N122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="O122">
@@ -8403,7 +8473,7 @@
         <v>135</v>
       </c>
       <c r="C123" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10122</v>
       </c>
       <c r="D123" s="16">
@@ -8413,11 +8483,11 @@
         <v>88</v>
       </c>
       <c r="F123">
-        <f>E123*25</f>
-        <v>2200</v>
+        <f t="shared" si="5"/>
+        <v>1760</v>
       </c>
       <c r="G123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3080</v>
       </c>
       <c r="H123" s="13">
@@ -8438,11 +8508,11 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <f t="shared" si="10"/>
-        <v>29</v>
+        <f t="shared" si="11"/>
+        <v>35</v>
       </c>
       <c r="N123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="O123">
@@ -8461,7 +8531,7 @@
         <v>136</v>
       </c>
       <c r="C124" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10123</v>
       </c>
       <c r="D124" s="16">
@@ -8472,10 +8542,10 @@
       </c>
       <c r="F124">
         <f t="shared" si="5"/>
-        <v>2150</v>
+        <v>1720</v>
       </c>
       <c r="G124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3010</v>
       </c>
       <c r="H124" s="13">
@@ -8496,12 +8566,12 @@
         <v>163</v>
       </c>
       <c r="M124">
-        <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="N124">
         <f t="shared" si="11"/>
         <v>30</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="12"/>
+        <v>34</v>
       </c>
       <c r="O124">
         <v>20</v>
@@ -8519,7 +8589,7 @@
         <v>137</v>
       </c>
       <c r="C125" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10124</v>
       </c>
       <c r="D125" s="16">
@@ -8530,10 +8600,10 @@
       </c>
       <c r="F125">
         <f t="shared" si="5"/>
-        <v>2300</v>
+        <v>1840</v>
       </c>
       <c r="G125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3220</v>
       </c>
       <c r="H125" s="13">
@@ -8554,12 +8624,12 @@
         <v>174</v>
       </c>
       <c r="M125">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="N125">
         <f t="shared" si="11"/>
         <v>32</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="12"/>
+        <v>36</v>
       </c>
       <c r="O125">
         <v>20</v>
@@ -8577,7 +8647,7 @@
         <v>138</v>
       </c>
       <c r="C126" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10125</v>
       </c>
       <c r="D126" s="16">
@@ -8588,10 +8658,10 @@
       </c>
       <c r="F126">
         <f t="shared" si="5"/>
-        <v>2225</v>
+        <v>1780</v>
       </c>
       <c r="G126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3115</v>
       </c>
       <c r="H126" s="13">
@@ -8612,12 +8682,12 @@
         <v>169</v>
       </c>
       <c r="M126">
-        <f t="shared" si="10"/>
-        <v>29</v>
-      </c>
-      <c r="N126">
         <f t="shared" si="11"/>
         <v>31</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="12"/>
+        <v>35</v>
       </c>
       <c r="O126">
         <v>20</v>
@@ -8635,7 +8705,7 @@
         <v>139</v>
       </c>
       <c r="C127" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10126</v>
       </c>
       <c r="D127" s="16">
@@ -8646,10 +8716,10 @@
       </c>
       <c r="F127">
         <f t="shared" si="5"/>
-        <v>2350</v>
+        <v>1880</v>
       </c>
       <c r="G127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3290</v>
       </c>
       <c r="H127" s="13">
@@ -8670,11 +8740,11 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <f>INT(E127/3)</f>
-        <v>31</v>
+        <f t="shared" si="11"/>
+        <v>37</v>
       </c>
       <c r="N127">
-        <f>INT(E127/2.8)</f>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
       <c r="O127">
@@ -8693,7 +8763,7 @@
         <v>297</v>
       </c>
       <c r="C128" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10127</v>
       </c>
       <c r="D128" s="16">
@@ -8704,7 +8774,7 @@
       </c>
       <c r="F128">
         <f t="shared" si="5"/>
-        <v>2450</v>
+        <v>1960</v>
       </c>
       <c r="G128">
         <f>E128*38</f>
@@ -8728,12 +8798,12 @@
         <v>210</v>
       </c>
       <c r="M128">
-        <f t="shared" ref="M128:M137" si="12">INT(E128/3)</f>
-        <v>32</v>
+        <f t="shared" si="11"/>
+        <v>35</v>
       </c>
       <c r="N128">
-        <f t="shared" ref="N128:N137" si="13">INT(E128/2.8)</f>
-        <v>35</v>
+        <f t="shared" si="12"/>
+        <v>39</v>
       </c>
       <c r="O128">
         <v>20</v>
@@ -8751,7 +8821,7 @@
         <v>298</v>
       </c>
       <c r="C129" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10128</v>
       </c>
       <c r="D129" s="16">
@@ -8762,7 +8832,7 @@
       </c>
       <c r="F129">
         <f t="shared" si="5"/>
-        <v>2550</v>
+        <v>2040</v>
       </c>
       <c r="G129">
         <f t="shared" ref="G129:G137" si="14">E129*38</f>
@@ -8786,12 +8856,12 @@
         <v>219</v>
       </c>
       <c r="M129">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="N129">
         <f t="shared" si="12"/>
-        <v>34</v>
-      </c>
-      <c r="N129">
-        <f t="shared" si="13"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O129">
         <v>20</v>
@@ -8809,7 +8879,7 @@
         <v>140</v>
       </c>
       <c r="C130" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10129</v>
       </c>
       <c r="D130" s="16">
@@ -8820,7 +8890,7 @@
       </c>
       <c r="F130">
         <f t="shared" si="5"/>
-        <v>2375</v>
+        <v>1900</v>
       </c>
       <c r="G130">
         <f t="shared" si="14"/>
@@ -8844,11 +8914,11 @@
         <v>0</v>
       </c>
       <c r="M130">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
+      <c r="N130">
         <f t="shared" si="12"/>
-        <v>31</v>
-      </c>
-      <c r="N130">
-        <f t="shared" si="13"/>
         <v>33</v>
       </c>
       <c r="O130">
@@ -8878,7 +8948,7 @@
       </c>
       <c r="F131">
         <f t="shared" si="5"/>
-        <v>2375</v>
+        <v>1900</v>
       </c>
       <c r="G131">
         <f t="shared" si="14"/>
@@ -8902,11 +8972,11 @@
         <v>0</v>
       </c>
       <c r="M131">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
+      <c r="N131">
         <f t="shared" si="12"/>
-        <v>31</v>
-      </c>
-      <c r="N131">
-        <f t="shared" si="13"/>
         <v>33</v>
       </c>
       <c r="O131">
@@ -8936,7 +9006,7 @@
       </c>
       <c r="F132">
         <f t="shared" si="5"/>
-        <v>2525</v>
+        <v>2020</v>
       </c>
       <c r="G132">
         <f t="shared" si="14"/>
@@ -8960,11 +9030,11 @@
         <v>0</v>
       </c>
       <c r="M132">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="N132">
         <f t="shared" si="12"/>
-        <v>33</v>
-      </c>
-      <c r="N132">
-        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="O132">
@@ -8994,7 +9064,7 @@
       </c>
       <c r="F133">
         <f t="shared" si="5"/>
-        <v>2475</v>
+        <v>1980</v>
       </c>
       <c r="G133">
         <f t="shared" si="14"/>
@@ -9018,12 +9088,12 @@
         <v>212</v>
       </c>
       <c r="M133">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="N133">
         <f t="shared" si="12"/>
-        <v>33</v>
-      </c>
-      <c r="N133">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O133">
         <v>20</v>
@@ -9052,7 +9122,7 @@
       </c>
       <c r="F134">
         <f t="shared" si="5"/>
-        <v>2525</v>
+        <v>2020</v>
       </c>
       <c r="G134">
         <f t="shared" si="14"/>
@@ -9076,12 +9146,12 @@
         <v>217</v>
       </c>
       <c r="M134">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="N134">
         <f t="shared" si="12"/>
-        <v>33</v>
-      </c>
-      <c r="N134">
-        <f t="shared" si="13"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O134">
         <v>20</v>
@@ -9110,7 +9180,7 @@
       </c>
       <c r="F135">
         <f t="shared" si="5"/>
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G135">
         <f t="shared" si="14"/>
@@ -9134,12 +9204,12 @@
         <v>215</v>
       </c>
       <c r="M135">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="N135">
         <f t="shared" si="12"/>
-        <v>33</v>
-      </c>
-      <c r="N135">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O135">
         <v>20</v>
@@ -9168,7 +9238,7 @@
       </c>
       <c r="F136">
         <f t="shared" si="5"/>
-        <v>2575</v>
+        <v>2060</v>
       </c>
       <c r="G136">
         <f t="shared" si="14"/>
@@ -9192,11 +9262,11 @@
         <v>0</v>
       </c>
       <c r="M136">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="N136">
         <f t="shared" si="12"/>
-        <v>34</v>
-      </c>
-      <c r="N136">
-        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="O136">
@@ -9226,7 +9296,7 @@
       </c>
       <c r="F137">
         <f t="shared" si="5"/>
-        <v>2450</v>
+        <v>1960</v>
       </c>
       <c r="G137">
         <f t="shared" si="14"/>
@@ -9250,11 +9320,11 @@
         <v>0</v>
       </c>
       <c r="M137">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="N137">
         <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-      <c r="N137">
-        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="O137">
@@ -9284,7 +9354,7 @@
       </c>
       <c r="F138">
         <f t="shared" si="5"/>
-        <v>2625</v>
+        <v>2100</v>
       </c>
       <c r="G138">
         <f>E138*41</f>
@@ -9308,11 +9378,11 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <f t="shared" ref="M138" si="15">INT(E138/3)</f>
-        <v>35</v>
+        <f t="shared" si="11"/>
+        <v>42</v>
       </c>
       <c r="N138">
-        <f t="shared" ref="N138" si="16">INT(E138/2.8)</f>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="O138">
@@ -9331,7 +9401,7 @@
         <v>191</v>
       </c>
       <c r="C139" s="17">
-        <f t="shared" ref="C139:C141" si="17">A139</f>
+        <f t="shared" ref="C139:C141" si="15">A139</f>
         <v>11002</v>
       </c>
       <c r="D139" s="16">
@@ -9342,10 +9412,10 @@
       </c>
       <c r="F139">
         <f t="shared" si="5"/>
-        <v>2775</v>
+        <v>2220</v>
       </c>
       <c r="G139">
-        <f t="shared" ref="G139:G145" si="18">E139*41</f>
+        <f t="shared" ref="G139:G145" si="16">E139*41</f>
         <v>4551</v>
       </c>
       <c r="H139" s="13">
@@ -9366,11 +9436,11 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <f t="shared" ref="M139:M202" si="19">INT(E139/3)</f>
-        <v>37</v>
+        <f t="shared" si="11"/>
+        <v>44</v>
       </c>
       <c r="N139">
-        <f t="shared" ref="N139:N202" si="20">INT(E139/2.8)</f>
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
       <c r="O139">
@@ -9388,7 +9458,7 @@
         <v>192</v>
       </c>
       <c r="C140" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>11003</v>
       </c>
       <c r="D140" s="16">
@@ -9399,10 +9469,10 @@
       </c>
       <c r="F140">
         <f t="shared" si="5"/>
-        <v>2625</v>
+        <v>2100</v>
       </c>
       <c r="G140">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4305</v>
       </c>
       <c r="H140" s="13">
@@ -9423,12 +9493,12 @@
         <v>257</v>
       </c>
       <c r="M140">
-        <f t="shared" si="19"/>
-        <v>35</v>
+        <f t="shared" si="11"/>
+        <v>37</v>
       </c>
       <c r="N140">
-        <f t="shared" si="20"/>
-        <v>37</v>
+        <f t="shared" si="12"/>
+        <v>42</v>
       </c>
       <c r="O140">
         <v>20</v>
@@ -9445,7 +9515,7 @@
         <v>193</v>
       </c>
       <c r="C141" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>11004</v>
       </c>
       <c r="D141" s="16">
@@ -9456,10 +9526,10 @@
       </c>
       <c r="F141">
         <f t="shared" si="5"/>
-        <v>2650</v>
+        <v>2120</v>
       </c>
       <c r="G141">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4346</v>
       </c>
       <c r="H141" s="13">
@@ -9480,12 +9550,12 @@
         <v>259</v>
       </c>
       <c r="M141">
-        <f t="shared" si="19"/>
-        <v>35</v>
+        <f t="shared" si="11"/>
+        <v>37</v>
       </c>
       <c r="N141">
-        <f t="shared" si="20"/>
-        <v>37</v>
+        <f t="shared" si="12"/>
+        <v>42</v>
       </c>
       <c r="O141">
         <v>20</v>
@@ -9513,10 +9583,10 @@
       </c>
       <c r="F142">
         <f t="shared" si="5"/>
-        <v>2625</v>
+        <v>2100</v>
       </c>
       <c r="G142">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4305</v>
       </c>
       <c r="H142" s="13">
@@ -9537,11 +9607,11 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <f t="shared" si="19"/>
-        <v>35</v>
+        <f t="shared" si="11"/>
+        <v>42</v>
       </c>
       <c r="N142">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="O142">
@@ -9570,10 +9640,10 @@
       </c>
       <c r="F143">
         <f t="shared" si="5"/>
-        <v>2775</v>
+        <v>2220</v>
       </c>
       <c r="G143">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4551</v>
       </c>
       <c r="H143" s="13">
@@ -9594,11 +9664,11 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <f t="shared" si="19"/>
-        <v>37</v>
+        <f t="shared" si="11"/>
+        <v>44</v>
       </c>
       <c r="N143">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
       <c r="O143">
@@ -9627,10 +9697,10 @@
       </c>
       <c r="F144">
         <f t="shared" si="5"/>
-        <v>2625</v>
+        <v>2100</v>
       </c>
       <c r="G144">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4305</v>
       </c>
       <c r="H144" s="13">
@@ -9651,12 +9721,12 @@
         <v>257</v>
       </c>
       <c r="M144">
-        <f t="shared" si="19"/>
-        <v>35</v>
+        <f t="shared" si="11"/>
+        <v>37</v>
       </c>
       <c r="N144">
-        <f t="shared" si="20"/>
-        <v>37</v>
+        <f t="shared" si="12"/>
+        <v>42</v>
       </c>
       <c r="O144">
         <v>20</v>
@@ -9684,10 +9754,10 @@
       </c>
       <c r="F145">
         <f t="shared" si="5"/>
-        <v>2650</v>
+        <v>2120</v>
       </c>
       <c r="G145">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4346</v>
       </c>
       <c r="H145" s="13">
@@ -9708,12 +9778,12 @@
         <v>259</v>
       </c>
       <c r="M145">
-        <f t="shared" si="19"/>
-        <v>35</v>
+        <f t="shared" si="11"/>
+        <v>37</v>
       </c>
       <c r="N145">
-        <f t="shared" si="20"/>
-        <v>37</v>
+        <f t="shared" si="12"/>
+        <v>42</v>
       </c>
       <c r="O145">
         <v>20</v>
@@ -9741,7 +9811,7 @@
       </c>
       <c r="F146">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="G146">
         <f>E146*44</f>
@@ -9765,12 +9835,12 @@
         <v>312</v>
       </c>
       <c r="M146">
-        <f t="shared" si="19"/>
-        <v>40</v>
+        <f t="shared" si="11"/>
+        <v>42</v>
       </c>
       <c r="N146">
-        <f t="shared" si="20"/>
-        <v>42</v>
+        <f t="shared" si="12"/>
+        <v>48</v>
       </c>
       <c r="O146">
         <v>20</v>
@@ -9787,7 +9857,7 @@
         <v>199</v>
       </c>
       <c r="C147" s="17">
-        <f t="shared" ref="C147:C150" si="21">A147</f>
+        <f t="shared" ref="C147:C150" si="17">A147</f>
         <v>11010</v>
       </c>
       <c r="D147" s="16">
@@ -9798,10 +9868,10 @@
       </c>
       <c r="F147">
         <f t="shared" si="5"/>
-        <v>2875</v>
+        <v>2300</v>
       </c>
       <c r="G147">
-        <f t="shared" ref="G147:G155" si="22">E147*44</f>
+        <f t="shared" ref="G147:G155" si="18">E147*44</f>
         <v>5060</v>
       </c>
       <c r="H147" s="13">
@@ -9822,11 +9892,11 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <f t="shared" si="19"/>
-        <v>38</v>
+        <f t="shared" si="11"/>
+        <v>46</v>
       </c>
       <c r="N147">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="O147">
@@ -9844,7 +9914,7 @@
         <v>200</v>
       </c>
       <c r="C148" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>11011</v>
       </c>
       <c r="D148" s="16">
@@ -9855,10 +9925,10 @@
       </c>
       <c r="F148">
         <f t="shared" si="5"/>
-        <v>3050</v>
+        <v>2440</v>
       </c>
       <c r="G148">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>5368</v>
       </c>
       <c r="H148" s="13">
@@ -9879,11 +9949,11 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <f t="shared" si="19"/>
-        <v>40</v>
+        <f t="shared" si="11"/>
+        <v>48</v>
       </c>
       <c r="N148">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="O148">
@@ -9901,7 +9971,7 @@
         <v>201</v>
       </c>
       <c r="C149" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>11012</v>
       </c>
       <c r="D149" s="16">
@@ -9912,10 +9982,10 @@
       </c>
       <c r="F149">
         <f t="shared" si="5"/>
-        <v>3100</v>
+        <v>2480</v>
       </c>
       <c r="G149">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>5456</v>
       </c>
       <c r="H149" s="13">
@@ -9936,12 +10006,12 @@
         <v>322</v>
       </c>
       <c r="M149">
-        <f t="shared" si="19"/>
-        <v>41</v>
+        <f t="shared" si="11"/>
+        <v>44</v>
       </c>
       <c r="N149">
-        <f t="shared" si="20"/>
-        <v>44</v>
+        <f t="shared" si="12"/>
+        <v>49</v>
       </c>
       <c r="O149">
         <v>20</v>
@@ -9958,7 +10028,7 @@
         <v>202</v>
       </c>
       <c r="C150" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>11013</v>
       </c>
       <c r="D150" s="16">
@@ -9969,10 +10039,10 @@
       </c>
       <c r="F150">
         <f t="shared" si="5"/>
-        <v>2950</v>
+        <v>2360</v>
       </c>
       <c r="G150">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>5192</v>
       </c>
       <c r="H150" s="13">
@@ -9993,11 +10063,11 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <f t="shared" si="19"/>
-        <v>39</v>
+        <f t="shared" si="11"/>
+        <v>47</v>
       </c>
       <c r="N150">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="O150">
@@ -10026,10 +10096,10 @@
       </c>
       <c r="F151">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="G151">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>5280</v>
       </c>
       <c r="H151" s="13">
@@ -10050,12 +10120,12 @@
         <v>312</v>
       </c>
       <c r="M151">
-        <f t="shared" si="19"/>
-        <v>40</v>
+        <f t="shared" si="11"/>
+        <v>42</v>
       </c>
       <c r="N151">
-        <f t="shared" si="20"/>
-        <v>42</v>
+        <f t="shared" si="12"/>
+        <v>48</v>
       </c>
       <c r="O151">
         <v>20</v>
@@ -10083,10 +10153,10 @@
       </c>
       <c r="F152">
         <f t="shared" si="5"/>
-        <v>2875</v>
+        <v>2300</v>
       </c>
       <c r="G152">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>5060</v>
       </c>
       <c r="H152" s="13">
@@ -10107,11 +10177,11 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <f t="shared" si="19"/>
-        <v>38</v>
+        <f t="shared" si="11"/>
+        <v>46</v>
       </c>
       <c r="N152">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="O152">
@@ -10140,10 +10210,10 @@
       </c>
       <c r="F153">
         <f t="shared" si="5"/>
-        <v>3050</v>
+        <v>2440</v>
       </c>
       <c r="G153">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>5368</v>
       </c>
       <c r="H153" s="13">
@@ -10164,11 +10234,11 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <f t="shared" si="19"/>
-        <v>40</v>
+        <f t="shared" si="11"/>
+        <v>48</v>
       </c>
       <c r="N153">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="O153">
@@ -10197,10 +10267,10 @@
       </c>
       <c r="F154">
         <f t="shared" si="5"/>
-        <v>3100</v>
+        <v>2480</v>
       </c>
       <c r="G154">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>5456</v>
       </c>
       <c r="H154" s="13">
@@ -10221,12 +10291,12 @@
         <v>322</v>
       </c>
       <c r="M154">
-        <f t="shared" si="19"/>
-        <v>41</v>
+        <f t="shared" si="11"/>
+        <v>44</v>
       </c>
       <c r="N154">
-        <f t="shared" si="20"/>
-        <v>44</v>
+        <f t="shared" si="12"/>
+        <v>49</v>
       </c>
       <c r="O154">
         <v>20</v>
@@ -10254,10 +10324,10 @@
       </c>
       <c r="F155">
         <f t="shared" si="5"/>
-        <v>2950</v>
+        <v>2360</v>
       </c>
       <c r="G155">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>5192</v>
       </c>
       <c r="H155" s="13">
@@ -10278,11 +10348,11 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <f t="shared" si="19"/>
-        <v>39</v>
+        <f t="shared" si="11"/>
+        <v>47</v>
       </c>
       <c r="N155">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="O155">
@@ -10311,7 +10381,7 @@
       </c>
       <c r="F156">
         <f t="shared" si="5"/>
-        <v>3300</v>
+        <v>2640</v>
       </c>
       <c r="G156">
         <f>E156*47</f>
@@ -10335,11 +10405,11 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <f t="shared" si="19"/>
-        <v>44</v>
+        <f t="shared" si="11"/>
+        <v>52</v>
       </c>
       <c r="N156">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
       <c r="O156">
@@ -10357,7 +10427,7 @@
         <v>212</v>
       </c>
       <c r="C157" s="17">
-        <f t="shared" ref="C157:C159" si="23">A157</f>
+        <f t="shared" ref="C157:C159" si="19">A157</f>
         <v>11020</v>
       </c>
       <c r="D157" s="16">
@@ -10368,10 +10438,10 @@
       </c>
       <c r="F157">
         <f t="shared" si="5"/>
-        <v>3425</v>
+        <v>2740</v>
       </c>
       <c r="G157">
-        <f t="shared" ref="G157:G163" si="24">E157*47</f>
+        <f t="shared" ref="G157:G163" si="20">E157*47</f>
         <v>6439</v>
       </c>
       <c r="H157" s="13">
@@ -10392,11 +10462,11 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <f t="shared" si="19"/>
-        <v>45</v>
+        <f t="shared" si="11"/>
+        <v>54</v>
       </c>
       <c r="N157">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
       <c r="O157">
@@ -10414,7 +10484,7 @@
         <v>213</v>
       </c>
       <c r="C158" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>11021</v>
       </c>
       <c r="D158" s="16">
@@ -10424,11 +10494,11 @@
         <v>135</v>
       </c>
       <c r="F158">
-        <f t="shared" ref="F158:F188" si="25">E158*25</f>
-        <v>3375</v>
+        <f t="shared" ref="F158:F221" si="21">E158*20</f>
+        <v>2700</v>
       </c>
       <c r="G158">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>6345</v>
       </c>
       <c r="H158" s="13">
@@ -10449,12 +10519,12 @@
         <v>351</v>
       </c>
       <c r="M158">
-        <f t="shared" si="19"/>
-        <v>45</v>
+        <f t="shared" si="11"/>
+        <v>48</v>
       </c>
       <c r="N158">
-        <f t="shared" si="20"/>
-        <v>48</v>
+        <f t="shared" si="12"/>
+        <v>54</v>
       </c>
       <c r="O158">
         <v>20</v>
@@ -10471,7 +10541,7 @@
         <v>214</v>
       </c>
       <c r="C159" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>11022</v>
       </c>
       <c r="D159" s="16">
@@ -10481,11 +10551,11 @@
         <v>138</v>
       </c>
       <c r="F159">
-        <f t="shared" si="25"/>
-        <v>3450</v>
+        <f t="shared" si="21"/>
+        <v>2760</v>
       </c>
       <c r="G159">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>6486</v>
       </c>
       <c r="H159" s="13">
@@ -10506,12 +10576,12 @@
         <v>358</v>
       </c>
       <c r="M159">
-        <f t="shared" si="19"/>
-        <v>46</v>
+        <f t="shared" si="11"/>
+        <v>49</v>
       </c>
       <c r="N159">
-        <f t="shared" si="20"/>
-        <v>49</v>
+        <f t="shared" si="12"/>
+        <v>55</v>
       </c>
       <c r="O159">
         <v>20</v>
@@ -10538,11 +10608,11 @@
         <v>132</v>
       </c>
       <c r="F160">
-        <f t="shared" si="25"/>
-        <v>3300</v>
+        <f t="shared" si="21"/>
+        <v>2640</v>
       </c>
       <c r="G160">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>6204</v>
       </c>
       <c r="H160" s="13">
@@ -10563,11 +10633,11 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <f t="shared" si="19"/>
-        <v>44</v>
+        <f t="shared" si="11"/>
+        <v>52</v>
       </c>
       <c r="N160">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
       <c r="O160">
@@ -10595,11 +10665,11 @@
         <v>137</v>
       </c>
       <c r="F161">
-        <f t="shared" si="25"/>
-        <v>3425</v>
+        <f t="shared" si="21"/>
+        <v>2740</v>
       </c>
       <c r="G161">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>6439</v>
       </c>
       <c r="H161" s="13">
@@ -10620,11 +10690,11 @@
         <v>0</v>
       </c>
       <c r="M161">
-        <f t="shared" si="19"/>
-        <v>45</v>
+        <f t="shared" si="11"/>
+        <v>54</v>
       </c>
       <c r="N161">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
       <c r="O161">
@@ -10652,11 +10722,11 @@
         <v>135</v>
       </c>
       <c r="F162">
-        <f t="shared" si="25"/>
-        <v>3375</v>
+        <f t="shared" si="21"/>
+        <v>2700</v>
       </c>
       <c r="G162">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>6345</v>
       </c>
       <c r="H162" s="13">
@@ -10677,12 +10747,12 @@
         <v>364</v>
       </c>
       <c r="M162">
-        <f t="shared" si="19"/>
-        <v>45</v>
+        <f t="shared" si="11"/>
+        <v>48</v>
       </c>
       <c r="N162">
-        <f t="shared" si="20"/>
-        <v>48</v>
+        <f t="shared" si="12"/>
+        <v>54</v>
       </c>
       <c r="O162">
         <v>20</v>
@@ -10709,11 +10779,11 @@
         <v>138</v>
       </c>
       <c r="F163">
-        <f t="shared" si="25"/>
-        <v>3450</v>
+        <f t="shared" si="21"/>
+        <v>2760</v>
       </c>
       <c r="G163">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>6486</v>
       </c>
       <c r="H163" s="13">
@@ -10734,12 +10804,12 @@
         <v>372</v>
       </c>
       <c r="M163">
-        <f t="shared" si="19"/>
-        <v>46</v>
+        <f t="shared" si="11"/>
+        <v>49</v>
       </c>
       <c r="N163">
-        <f t="shared" si="20"/>
-        <v>49</v>
+        <f t="shared" si="12"/>
+        <v>55</v>
       </c>
       <c r="O163">
         <v>20</v>
@@ -10766,8 +10836,8 @@
         <v>152</v>
       </c>
       <c r="F164">
-        <f t="shared" si="25"/>
-        <v>3800</v>
+        <f t="shared" si="21"/>
+        <v>3040</v>
       </c>
       <c r="G164">
         <f>E164*50</f>
@@ -10791,11 +10861,11 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <f t="shared" si="19"/>
-        <v>50</v>
+        <f t="shared" si="11"/>
+        <v>60</v>
       </c>
       <c r="N164">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="O164">
@@ -10823,11 +10893,11 @@
         <v>150</v>
       </c>
       <c r="F165">
-        <f t="shared" si="25"/>
-        <v>3750</v>
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
       <c r="G165">
-        <f t="shared" ref="G165:G169" si="26">E165*50</f>
+        <f t="shared" ref="G165:G169" si="22">E165*50</f>
         <v>7500</v>
       </c>
       <c r="H165" s="13">
@@ -10848,12 +10918,12 @@
         <v>427</v>
       </c>
       <c r="M165">
-        <f t="shared" si="19"/>
-        <v>50</v>
+        <f t="shared" si="11"/>
+        <v>53</v>
       </c>
       <c r="N165">
-        <f t="shared" si="20"/>
-        <v>53</v>
+        <f t="shared" si="12"/>
+        <v>60</v>
       </c>
       <c r="O165">
         <v>20</v>
@@ -10880,11 +10950,11 @@
         <v>149</v>
       </c>
       <c r="F166">
-        <f t="shared" si="25"/>
-        <v>3725</v>
+        <f t="shared" si="21"/>
+        <v>2980</v>
       </c>
       <c r="G166">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>7450</v>
       </c>
       <c r="H166" s="13">
@@ -10905,11 +10975,11 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <f t="shared" si="19"/>
-        <v>49</v>
+        <f t="shared" si="11"/>
+        <v>59</v>
       </c>
       <c r="N166">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>53</v>
       </c>
       <c r="O166">
@@ -10937,11 +11007,11 @@
         <v>152</v>
       </c>
       <c r="F167">
-        <f t="shared" si="25"/>
-        <v>3800</v>
+        <f t="shared" si="21"/>
+        <v>3040</v>
       </c>
       <c r="G167">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>7600</v>
       </c>
       <c r="H167" s="13">
@@ -10962,11 +11032,11 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <f t="shared" si="19"/>
-        <v>50</v>
+        <f t="shared" si="11"/>
+        <v>60</v>
       </c>
       <c r="N167">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="O167">
@@ -10994,11 +11064,11 @@
         <v>150</v>
       </c>
       <c r="F168">
-        <f t="shared" si="25"/>
-        <v>3750</v>
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
       <c r="G168">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>7500</v>
       </c>
       <c r="H168" s="13">
@@ -11019,12 +11089,12 @@
         <v>427</v>
       </c>
       <c r="M168">
-        <f t="shared" si="19"/>
-        <v>50</v>
+        <f t="shared" si="11"/>
+        <v>53</v>
       </c>
       <c r="N168">
-        <f t="shared" si="20"/>
-        <v>53</v>
+        <f t="shared" si="12"/>
+        <v>60</v>
       </c>
       <c r="O168">
         <v>20</v>
@@ -11051,11 +11121,11 @@
         <v>149</v>
       </c>
       <c r="F169">
-        <f t="shared" si="25"/>
-        <v>3725</v>
+        <f t="shared" si="21"/>
+        <v>2980</v>
       </c>
       <c r="G169">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>7450</v>
       </c>
       <c r="H169" s="13">
@@ -11076,11 +11146,11 @@
         <v>0</v>
       </c>
       <c r="M169">
-        <f t="shared" si="19"/>
-        <v>49</v>
+        <f t="shared" si="11"/>
+        <v>59</v>
       </c>
       <c r="N169">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>53</v>
       </c>
       <c r="O169">
@@ -11108,8 +11178,8 @@
         <v>161</v>
       </c>
       <c r="F170">
-        <f t="shared" si="25"/>
-        <v>4025</v>
+        <f t="shared" si="21"/>
+        <v>3220</v>
       </c>
       <c r="G170">
         <f>E170*54</f>
@@ -11133,11 +11203,11 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <f t="shared" si="19"/>
-        <v>53</v>
+        <f t="shared" si="11"/>
+        <v>64</v>
       </c>
       <c r="N170">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="O170">
@@ -11155,7 +11225,7 @@
         <v>230</v>
       </c>
       <c r="C171" s="17">
-        <f t="shared" ref="C171:C175" si="27">A171</f>
+        <f t="shared" ref="C171:C175" si="23">A171</f>
         <v>11034</v>
       </c>
       <c r="D171" s="16">
@@ -11165,11 +11235,11 @@
         <v>168</v>
       </c>
       <c r="F171">
-        <f t="shared" si="25"/>
-        <v>4200</v>
+        <f t="shared" si="21"/>
+        <v>3360</v>
       </c>
       <c r="G171">
-        <f t="shared" ref="G171:G175" si="28">E171*54</f>
+        <f t="shared" ref="G171:G175" si="24">E171*54</f>
         <v>9072</v>
       </c>
       <c r="H171" s="13">
@@ -11190,11 +11260,11 @@
         <v>0</v>
       </c>
       <c r="M171">
-        <f t="shared" si="19"/>
-        <v>56</v>
+        <f t="shared" si="11"/>
+        <v>67</v>
       </c>
       <c r="N171">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="O171">
@@ -11212,7 +11282,7 @@
         <v>231</v>
       </c>
       <c r="C172" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>11035</v>
       </c>
       <c r="D172" s="16">
@@ -11222,11 +11292,11 @@
         <v>167</v>
       </c>
       <c r="F172">
-        <f t="shared" si="25"/>
-        <v>4175</v>
+        <f t="shared" si="21"/>
+        <v>3340</v>
       </c>
       <c r="G172">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>9018</v>
       </c>
       <c r="H172" s="13">
@@ -11247,12 +11317,12 @@
         <v>517</v>
       </c>
       <c r="M172">
-        <f t="shared" si="19"/>
-        <v>55</v>
+        <f t="shared" si="11"/>
+        <v>59</v>
       </c>
       <c r="N172">
-        <f t="shared" si="20"/>
-        <v>59</v>
+        <f t="shared" si="12"/>
+        <v>66</v>
       </c>
       <c r="O172">
         <v>20</v>
@@ -11269,7 +11339,7 @@
         <v>232</v>
       </c>
       <c r="C173" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>11036</v>
       </c>
       <c r="D173" s="16">
@@ -11279,11 +11349,11 @@
         <v>162</v>
       </c>
       <c r="F173">
-        <f t="shared" si="25"/>
-        <v>4050</v>
+        <f t="shared" si="21"/>
+        <v>3240</v>
       </c>
       <c r="G173">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>8748</v>
       </c>
       <c r="H173" s="13">
@@ -11304,11 +11374,11 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <f t="shared" si="19"/>
-        <v>54</v>
+        <f t="shared" si="11"/>
+        <v>64</v>
       </c>
       <c r="N173">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="O173">
@@ -11326,7 +11396,7 @@
         <v>233</v>
       </c>
       <c r="C174" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>11037</v>
       </c>
       <c r="D174" s="16">
@@ -11336,11 +11406,11 @@
         <v>165</v>
       </c>
       <c r="F174">
-        <f t="shared" si="25"/>
-        <v>4125</v>
+        <f t="shared" si="21"/>
+        <v>3300</v>
       </c>
       <c r="G174">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>8910</v>
       </c>
       <c r="H174" s="13">
@@ -11361,11 +11431,11 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <f t="shared" si="19"/>
-        <v>55</v>
+        <f t="shared" si="11"/>
+        <v>66</v>
       </c>
       <c r="N174">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>58</v>
       </c>
       <c r="O174">
@@ -11383,7 +11453,7 @@
         <v>234</v>
       </c>
       <c r="C175" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>11038</v>
       </c>
       <c r="D175" s="16">
@@ -11393,11 +11463,11 @@
         <v>166</v>
       </c>
       <c r="F175">
-        <f t="shared" si="25"/>
-        <v>4150</v>
+        <f t="shared" si="21"/>
+        <v>3320</v>
       </c>
       <c r="G175">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>8964</v>
       </c>
       <c r="H175" s="13">
@@ -11418,12 +11488,12 @@
         <v>514</v>
       </c>
       <c r="M175">
-        <f t="shared" si="19"/>
-        <v>55</v>
+        <f t="shared" si="11"/>
+        <v>59</v>
       </c>
       <c r="N175">
-        <f t="shared" si="20"/>
-        <v>59</v>
+        <f t="shared" si="12"/>
+        <v>66</v>
       </c>
       <c r="O175">
         <v>20</v>
@@ -11450,8 +11520,8 @@
         <v>179</v>
       </c>
       <c r="F176">
-        <f t="shared" si="25"/>
-        <v>4475</v>
+        <f t="shared" si="21"/>
+        <v>3580</v>
       </c>
       <c r="G176">
         <f>E176*58</f>
@@ -11475,11 +11545,11 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <f t="shared" si="19"/>
-        <v>59</v>
+        <f t="shared" si="11"/>
+        <v>71</v>
       </c>
       <c r="N176">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>63</v>
       </c>
       <c r="O176">
@@ -11497,7 +11567,7 @@
         <v>220</v>
       </c>
       <c r="C177" s="17">
-        <f t="shared" ref="C177:C180" si="29">A177</f>
+        <f t="shared" ref="C177:C180" si="25">A177</f>
         <v>11040</v>
       </c>
       <c r="D177" s="16">
@@ -11507,11 +11577,11 @@
         <v>181</v>
       </c>
       <c r="F177">
-        <f t="shared" si="25"/>
-        <v>4525</v>
+        <f t="shared" si="21"/>
+        <v>3620</v>
       </c>
       <c r="G177">
-        <f t="shared" ref="G177:G185" si="30">E177*58</f>
+        <f t="shared" ref="G177:G185" si="26">E177*58</f>
         <v>10498</v>
       </c>
       <c r="H177" s="13">
@@ -11532,11 +11602,11 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <f t="shared" si="19"/>
-        <v>60</v>
+        <f t="shared" ref="M177:M188" si="27">INT(E177/(IF(J177=0,2.8,2.5)))</f>
+        <v>72</v>
       </c>
       <c r="N177">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="N177:N188" si="28">INT(E177/(IF(J177&lt;&gt;0,2.8,2.5)))</f>
         <v>64</v>
       </c>
       <c r="O177">
@@ -11554,7 +11624,7 @@
         <v>221</v>
       </c>
       <c r="C178" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>11041</v>
       </c>
       <c r="D178" s="16">
@@ -11564,11 +11634,11 @@
         <v>176</v>
       </c>
       <c r="F178">
-        <f t="shared" si="25"/>
-        <v>4400</v>
+        <f t="shared" si="21"/>
+        <v>3520</v>
       </c>
       <c r="G178">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>10208</v>
       </c>
       <c r="H178" s="13">
@@ -11589,11 +11659,11 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <f t="shared" si="19"/>
-        <v>58</v>
+        <f t="shared" si="27"/>
+        <v>70</v>
       </c>
       <c r="N178">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>62</v>
       </c>
       <c r="O178">
@@ -11611,7 +11681,7 @@
         <v>222</v>
       </c>
       <c r="C179" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>11042</v>
       </c>
       <c r="D179" s="16">
@@ -11621,11 +11691,11 @@
         <v>183</v>
       </c>
       <c r="F179">
-        <f t="shared" si="25"/>
-        <v>4575</v>
+        <f t="shared" si="21"/>
+        <v>3660</v>
       </c>
       <c r="G179">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>10614</v>
       </c>
       <c r="H179" s="13">
@@ -11646,12 +11716,12 @@
         <v>622</v>
       </c>
       <c r="M179">
-        <f t="shared" si="19"/>
-        <v>61</v>
+        <f t="shared" si="27"/>
+        <v>65</v>
       </c>
       <c r="N179">
-        <f t="shared" si="20"/>
-        <v>65</v>
+        <f t="shared" si="28"/>
+        <v>73</v>
       </c>
       <c r="O179">
         <v>20</v>
@@ -11668,7 +11738,7 @@
         <v>223</v>
       </c>
       <c r="C180" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>11043</v>
       </c>
       <c r="D180" s="16">
@@ -11678,11 +11748,11 @@
         <v>179</v>
       </c>
       <c r="F180">
-        <f t="shared" si="25"/>
-        <v>4475</v>
+        <f t="shared" si="21"/>
+        <v>3580</v>
       </c>
       <c r="G180">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>10382</v>
       </c>
       <c r="H180" s="13">
@@ -11703,12 +11773,12 @@
         <v>608</v>
       </c>
       <c r="M180">
-        <f t="shared" si="19"/>
-        <v>59</v>
+        <f t="shared" si="27"/>
+        <v>63</v>
       </c>
       <c r="N180">
-        <f t="shared" si="20"/>
-        <v>63</v>
+        <f t="shared" si="28"/>
+        <v>71</v>
       </c>
       <c r="O180">
         <v>20</v>
@@ -11735,11 +11805,11 @@
         <v>178</v>
       </c>
       <c r="F181">
-        <f t="shared" si="25"/>
-        <v>4450</v>
+        <f t="shared" si="21"/>
+        <v>3560</v>
       </c>
       <c r="G181">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>10324</v>
       </c>
       <c r="H181" s="13">
@@ -11760,11 +11830,11 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <f t="shared" si="19"/>
-        <v>59</v>
+        <f t="shared" si="27"/>
+        <v>71</v>
       </c>
       <c r="N181">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>63</v>
       </c>
       <c r="O181">
@@ -11792,11 +11862,11 @@
         <v>181</v>
       </c>
       <c r="F182">
-        <f t="shared" si="25"/>
-        <v>4525</v>
+        <f t="shared" si="21"/>
+        <v>3620</v>
       </c>
       <c r="G182">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>10498</v>
       </c>
       <c r="H182" s="13">
@@ -11817,11 +11887,11 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <f t="shared" si="19"/>
-        <v>60</v>
+        <f t="shared" si="27"/>
+        <v>72</v>
       </c>
       <c r="N182">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>64</v>
       </c>
       <c r="O182">
@@ -11849,11 +11919,11 @@
         <v>176</v>
       </c>
       <c r="F183">
-        <f t="shared" si="25"/>
-        <v>4400</v>
+        <f t="shared" si="21"/>
+        <v>3520</v>
       </c>
       <c r="G183">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>10208</v>
       </c>
       <c r="H183" s="13">
@@ -11874,11 +11944,11 @@
         <v>0</v>
       </c>
       <c r="M183">
-        <f t="shared" si="19"/>
-        <v>58</v>
+        <f t="shared" si="27"/>
+        <v>70</v>
       </c>
       <c r="N183">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>62</v>
       </c>
       <c r="O183">
@@ -11906,11 +11976,11 @@
         <v>180</v>
       </c>
       <c r="F184">
-        <f t="shared" si="25"/>
-        <v>4500</v>
+        <f t="shared" si="21"/>
+        <v>3600</v>
       </c>
       <c r="G184">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>10440</v>
       </c>
       <c r="H184" s="13">
@@ -11931,12 +12001,12 @@
         <v>612</v>
       </c>
       <c r="M184">
-        <f t="shared" si="19"/>
-        <v>60</v>
+        <f t="shared" si="27"/>
+        <v>64</v>
       </c>
       <c r="N184">
-        <f t="shared" si="20"/>
-        <v>64</v>
+        <f t="shared" si="28"/>
+        <v>72</v>
       </c>
       <c r="O184">
         <v>20</v>
@@ -11963,11 +12033,11 @@
         <v>175</v>
       </c>
       <c r="F185">
-        <f t="shared" si="25"/>
-        <v>4375</v>
+        <f t="shared" si="21"/>
+        <v>3500</v>
       </c>
       <c r="G185">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>10150</v>
       </c>
       <c r="H185" s="13">
@@ -11988,12 +12058,12 @@
         <v>595</v>
       </c>
       <c r="M185">
-        <f t="shared" si="19"/>
-        <v>58</v>
+        <f t="shared" si="27"/>
+        <v>62</v>
       </c>
       <c r="N185">
-        <f t="shared" si="20"/>
-        <v>62</v>
+        <f t="shared" si="28"/>
+        <v>70</v>
       </c>
       <c r="O185">
         <v>20</v>
@@ -12020,8 +12090,8 @@
         <v>204</v>
       </c>
       <c r="F186">
-        <f t="shared" si="25"/>
-        <v>5100</v>
+        <f t="shared" si="21"/>
+        <v>4080</v>
       </c>
       <c r="G186">
         <f>E186*62</f>
@@ -12045,12 +12115,12 @@
         <v>775</v>
       </c>
       <c r="M186">
-        <f t="shared" si="19"/>
-        <v>68</v>
+        <f t="shared" si="27"/>
+        <v>72</v>
       </c>
       <c r="N186">
-        <f t="shared" si="20"/>
-        <v>72</v>
+        <f t="shared" si="28"/>
+        <v>81</v>
       </c>
       <c r="O186">
         <v>20</v>
@@ -12077,11 +12147,11 @@
         <v>203</v>
       </c>
       <c r="F187">
-        <f t="shared" si="25"/>
-        <v>5075</v>
+        <f t="shared" si="21"/>
+        <v>4060</v>
       </c>
       <c r="G187">
-        <f t="shared" ref="G187:G193" si="31">E187*62</f>
+        <f t="shared" ref="G187:G193" si="29">E187*62</f>
         <v>12586</v>
       </c>
       <c r="H187" s="13">
@@ -12102,12 +12172,12 @@
         <v>771</v>
       </c>
       <c r="M187">
-        <f t="shared" si="19"/>
-        <v>67</v>
+        <f t="shared" si="27"/>
+        <v>72</v>
       </c>
       <c r="N187">
-        <f t="shared" si="20"/>
-        <v>72</v>
+        <f t="shared" si="28"/>
+        <v>81</v>
       </c>
       <c r="O187">
         <v>20</v>
@@ -12134,11 +12204,11 @@
         <v>203</v>
       </c>
       <c r="F188">
-        <f t="shared" si="25"/>
-        <v>5075</v>
+        <f t="shared" si="21"/>
+        <v>4060</v>
       </c>
       <c r="G188">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>12586</v>
       </c>
       <c r="H188" s="13">
@@ -12159,12 +12229,12 @@
         <v>771</v>
       </c>
       <c r="M188">
-        <f t="shared" si="19"/>
-        <v>67</v>
+        <f t="shared" si="27"/>
+        <v>72</v>
       </c>
       <c r="N188">
-        <f t="shared" si="20"/>
-        <v>72</v>
+        <f t="shared" si="28"/>
+        <v>81</v>
       </c>
       <c r="O188">
         <v>20</v>
@@ -12191,11 +12261,11 @@
         <v>207</v>
       </c>
       <c r="F189">
-        <f t="shared" ref="F189:F193" si="32">E189*25</f>
-        <v>5175</v>
+        <f t="shared" si="21"/>
+        <v>4140</v>
       </c>
       <c r="G189">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>12834</v>
       </c>
       <c r="H189" s="13">
@@ -12216,11 +12286,11 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <f t="shared" si="19"/>
-        <v>69</v>
+        <f t="shared" ref="M189:M209" si="30">INT(E189/(IF(J189=0,2.8,2.5)))</f>
+        <v>82</v>
       </c>
       <c r="N189">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="N189:N209" si="31">INT(E189/(IF(J189&lt;&gt;0,2.8,2.5)))</f>
         <v>73</v>
       </c>
       <c r="O189">
@@ -12248,11 +12318,11 @@
         <v>204</v>
       </c>
       <c r="F190">
-        <f t="shared" si="32"/>
-        <v>5100</v>
+        <f t="shared" si="21"/>
+        <v>4080</v>
       </c>
       <c r="G190">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>12648</v>
       </c>
       <c r="H190" s="13">
@@ -12273,12 +12343,12 @@
         <v>775</v>
       </c>
       <c r="M190">
-        <f t="shared" si="19"/>
-        <v>68</v>
+        <f t="shared" si="30"/>
+        <v>72</v>
       </c>
       <c r="N190">
-        <f t="shared" si="20"/>
-        <v>72</v>
+        <f t="shared" si="31"/>
+        <v>81</v>
       </c>
       <c r="O190">
         <v>20</v>
@@ -12305,11 +12375,11 @@
         <v>203</v>
       </c>
       <c r="F191">
-        <f t="shared" si="32"/>
-        <v>5075</v>
+        <f t="shared" si="21"/>
+        <v>4060</v>
       </c>
       <c r="G191">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>12586</v>
       </c>
       <c r="H191" s="13">
@@ -12330,12 +12400,12 @@
         <v>771</v>
       </c>
       <c r="M191">
-        <f t="shared" si="19"/>
-        <v>67</v>
+        <f t="shared" si="30"/>
+        <v>72</v>
       </c>
       <c r="N191">
-        <f t="shared" si="20"/>
-        <v>72</v>
+        <f t="shared" si="31"/>
+        <v>81</v>
       </c>
       <c r="O191">
         <v>20</v>
@@ -12362,11 +12432,11 @@
         <v>203</v>
       </c>
       <c r="F192">
-        <f t="shared" si="32"/>
-        <v>5075</v>
+        <f t="shared" si="21"/>
+        <v>4060</v>
       </c>
       <c r="G192">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>12586</v>
       </c>
       <c r="H192" s="13">
@@ -12387,12 +12457,12 @@
         <v>771</v>
       </c>
       <c r="M192">
-        <f t="shared" si="19"/>
-        <v>67</v>
+        <f t="shared" si="30"/>
+        <v>72</v>
       </c>
       <c r="N192">
-        <f t="shared" si="20"/>
-        <v>72</v>
+        <f t="shared" si="31"/>
+        <v>81</v>
       </c>
       <c r="O192">
         <v>20</v>
@@ -12419,11 +12489,11 @@
         <v>207</v>
       </c>
       <c r="F193">
-        <f t="shared" si="32"/>
-        <v>5175</v>
+        <f t="shared" si="21"/>
+        <v>4140</v>
       </c>
       <c r="G193">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>12834</v>
       </c>
       <c r="H193" s="13">
@@ -12444,11 +12514,11 @@
         <v>0</v>
       </c>
       <c r="M193">
-        <f t="shared" si="19"/>
-        <v>69</v>
+        <f t="shared" si="30"/>
+        <v>82</v>
       </c>
       <c r="N193">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>73</v>
       </c>
       <c r="O193">
@@ -12476,8 +12546,8 @@
         <v>219</v>
       </c>
       <c r="F194">
-        <f>E194*28</f>
-        <v>6132</v>
+        <f t="shared" si="21"/>
+        <v>4380</v>
       </c>
       <c r="G194">
         <f>E194*66</f>
@@ -12501,11 +12571,11 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <f t="shared" si="19"/>
-        <v>73</v>
+        <f t="shared" si="30"/>
+        <v>87</v>
       </c>
       <c r="N194">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>78</v>
       </c>
       <c r="O194">
@@ -12523,7 +12593,7 @@
         <v>258</v>
       </c>
       <c r="C195" s="17">
-        <f t="shared" ref="C195:C197" si="33">A195</f>
+        <f t="shared" ref="C195:C197" si="32">A195</f>
         <v>12010</v>
       </c>
       <c r="D195" s="16">
@@ -12533,11 +12603,11 @@
         <v>220</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F215" si="34">E195*28</f>
-        <v>6160</v>
+        <f t="shared" si="21"/>
+        <v>4400</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G201" si="35">E195*66</f>
+        <f t="shared" ref="G195:G201" si="33">E195*66</f>
         <v>14520</v>
       </c>
       <c r="H195" s="13">
@@ -12558,12 +12628,12 @@
         <v>880</v>
       </c>
       <c r="M195">
-        <f t="shared" si="19"/>
-        <v>73</v>
+        <f t="shared" si="30"/>
+        <v>78</v>
       </c>
       <c r="N195">
-        <f t="shared" si="20"/>
-        <v>78</v>
+        <f t="shared" si="31"/>
+        <v>88</v>
       </c>
       <c r="O195">
         <v>20</v>
@@ -12580,7 +12650,7 @@
         <v>259</v>
       </c>
       <c r="C196" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>12011</v>
       </c>
       <c r="D196" s="16">
@@ -12590,11 +12660,11 @@
         <v>223</v>
       </c>
       <c r="F196">
-        <f t="shared" si="34"/>
-        <v>6244</v>
+        <f t="shared" si="21"/>
+        <v>4460</v>
       </c>
       <c r="G196">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>14718</v>
       </c>
       <c r="H196" s="13">
@@ -12615,11 +12685,11 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <f t="shared" si="19"/>
-        <v>74</v>
+        <f t="shared" si="30"/>
+        <v>89</v>
       </c>
       <c r="N196">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>79</v>
       </c>
       <c r="O196">
@@ -12637,7 +12707,7 @@
         <v>260</v>
       </c>
       <c r="C197" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>12012</v>
       </c>
       <c r="D197" s="16">
@@ -12647,11 +12717,11 @@
         <v>215</v>
       </c>
       <c r="F197">
-        <f t="shared" si="34"/>
-        <v>6020</v>
+        <f t="shared" si="21"/>
+        <v>4300</v>
       </c>
       <c r="G197">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>14190</v>
       </c>
       <c r="H197" s="13">
@@ -12672,11 +12742,11 @@
         <v>0</v>
       </c>
       <c r="M197">
-        <f t="shared" si="19"/>
-        <v>71</v>
+        <f t="shared" si="30"/>
+        <v>86</v>
       </c>
       <c r="N197">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>76</v>
       </c>
       <c r="O197">
@@ -12704,11 +12774,11 @@
         <v>218</v>
       </c>
       <c r="F198">
-        <f t="shared" si="34"/>
-        <v>6104</v>
+        <f t="shared" si="21"/>
+        <v>4360</v>
       </c>
       <c r="G198">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>14388</v>
       </c>
       <c r="H198" s="13">
@@ -12729,12 +12799,12 @@
         <v>872</v>
       </c>
       <c r="M198">
-        <f t="shared" si="19"/>
-        <v>72</v>
+        <f t="shared" si="30"/>
+        <v>77</v>
       </c>
       <c r="N198">
-        <f t="shared" si="20"/>
-        <v>77</v>
+        <f t="shared" si="31"/>
+        <v>87</v>
       </c>
       <c r="O198">
         <v>20</v>
@@ -12761,11 +12831,11 @@
         <v>219</v>
       </c>
       <c r="F199">
-        <f t="shared" si="34"/>
-        <v>6132</v>
+        <f t="shared" si="21"/>
+        <v>4380</v>
       </c>
       <c r="G199">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>14454</v>
       </c>
       <c r="H199" s="13">
@@ -12786,11 +12856,11 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <f t="shared" si="19"/>
-        <v>73</v>
+        <f t="shared" si="30"/>
+        <v>87</v>
       </c>
       <c r="N199">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>78</v>
       </c>
       <c r="O199">
@@ -12808,7 +12878,7 @@
         <v>263</v>
       </c>
       <c r="C200" s="17">
-        <f t="shared" ref="C200:C201" si="36">A200</f>
+        <f t="shared" ref="C200:C201" si="34">A200</f>
         <v>12015</v>
       </c>
       <c r="D200" s="16">
@@ -12818,11 +12888,11 @@
         <v>220</v>
       </c>
       <c r="F200">
-        <f t="shared" si="34"/>
-        <v>6160</v>
+        <f t="shared" si="21"/>
+        <v>4400</v>
       </c>
       <c r="G200">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>14520</v>
       </c>
       <c r="H200" s="13">
@@ -12843,12 +12913,12 @@
         <v>880</v>
       </c>
       <c r="M200">
-        <f t="shared" si="19"/>
-        <v>73</v>
+        <f t="shared" si="30"/>
+        <v>78</v>
       </c>
       <c r="N200">
-        <f t="shared" si="20"/>
-        <v>78</v>
+        <f t="shared" si="31"/>
+        <v>88</v>
       </c>
       <c r="O200">
         <v>20</v>
@@ -12865,7 +12935,7 @@
         <v>264</v>
       </c>
       <c r="C201" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>12016</v>
       </c>
       <c r="D201" s="16">
@@ -12875,11 +12945,11 @@
         <v>216</v>
       </c>
       <c r="F201">
-        <f t="shared" si="34"/>
-        <v>6048</v>
+        <f t="shared" si="21"/>
+        <v>4320</v>
       </c>
       <c r="G201">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>14256</v>
       </c>
       <c r="H201" s="13">
@@ -12900,12 +12970,12 @@
         <v>864</v>
       </c>
       <c r="M201">
-        <f t="shared" si="19"/>
-        <v>72</v>
+        <f t="shared" si="30"/>
+        <v>77</v>
       </c>
       <c r="N201">
-        <f t="shared" si="20"/>
-        <v>77</v>
+        <f t="shared" si="31"/>
+        <v>86</v>
       </c>
       <c r="O201">
         <v>20</v>
@@ -12932,8 +13002,8 @@
         <v>236</v>
       </c>
       <c r="F202">
-        <f t="shared" si="34"/>
-        <v>6608</v>
+        <f t="shared" si="21"/>
+        <v>4720</v>
       </c>
       <c r="G202">
         <f>E202*70</f>
@@ -12957,12 +13027,12 @@
         <v>1026</v>
       </c>
       <c r="M202">
-        <f t="shared" si="19"/>
-        <v>78</v>
+        <f t="shared" si="30"/>
+        <v>84</v>
       </c>
       <c r="N202">
-        <f t="shared" si="20"/>
-        <v>84</v>
+        <f t="shared" si="31"/>
+        <v>94</v>
       </c>
       <c r="O202">
         <v>20</v>
@@ -12979,7 +13049,7 @@
         <v>244</v>
       </c>
       <c r="C203" s="17">
-        <f t="shared" ref="C203:C204" si="37">A203</f>
+        <f t="shared" ref="C203:C204" si="35">A203</f>
         <v>12018</v>
       </c>
       <c r="D203" s="16">
@@ -12989,11 +13059,11 @@
         <v>230</v>
       </c>
       <c r="F203">
-        <f t="shared" si="34"/>
-        <v>6440</v>
+        <f t="shared" si="21"/>
+        <v>4600</v>
       </c>
       <c r="G203">
-        <f t="shared" ref="G203:G207" si="38">E203*70</f>
+        <f t="shared" ref="G203:G207" si="36">E203*70</f>
         <v>16100</v>
       </c>
       <c r="H203" s="13">
@@ -13014,11 +13084,11 @@
         <v>0</v>
       </c>
       <c r="M203">
-        <f t="shared" ref="M203:M223" si="39">INT(E203/3)</f>
-        <v>76</v>
+        <f t="shared" si="30"/>
+        <v>92</v>
       </c>
       <c r="N203">
-        <f t="shared" ref="N203:N223" si="40">INT(E203/2.8)</f>
+        <f t="shared" si="31"/>
         <v>82</v>
       </c>
       <c r="O203">
@@ -13036,7 +13106,7 @@
         <v>245</v>
       </c>
       <c r="C204" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>12019</v>
       </c>
       <c r="D204" s="16">
@@ -13046,11 +13116,11 @@
         <v>232</v>
       </c>
       <c r="F204">
-        <f t="shared" si="34"/>
-        <v>6496</v>
+        <f t="shared" si="21"/>
+        <v>4640</v>
       </c>
       <c r="G204">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>16240</v>
       </c>
       <c r="H204" s="13">
@@ -13071,12 +13141,12 @@
         <v>1009</v>
       </c>
       <c r="M204">
-        <f t="shared" si="39"/>
-        <v>77</v>
+        <f t="shared" si="30"/>
+        <v>82</v>
       </c>
       <c r="N204">
-        <f t="shared" si="40"/>
-        <v>82</v>
+        <f t="shared" si="31"/>
+        <v>92</v>
       </c>
       <c r="O204">
         <v>20</v>
@@ -13103,11 +13173,11 @@
         <v>236</v>
       </c>
       <c r="F205">
-        <f t="shared" si="34"/>
-        <v>6608</v>
+        <f t="shared" si="21"/>
+        <v>4720</v>
       </c>
       <c r="G205">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>16520</v>
       </c>
       <c r="H205" s="13">
@@ -13128,12 +13198,12 @@
         <v>1026</v>
       </c>
       <c r="M205">
-        <f t="shared" si="39"/>
-        <v>78</v>
+        <f t="shared" si="30"/>
+        <v>84</v>
       </c>
       <c r="N205">
-        <f t="shared" si="40"/>
-        <v>84</v>
+        <f t="shared" si="31"/>
+        <v>94</v>
       </c>
       <c r="O205">
         <v>20</v>
@@ -13160,11 +13230,11 @@
         <v>230</v>
       </c>
       <c r="F206">
-        <f t="shared" si="34"/>
-        <v>6440</v>
+        <f t="shared" si="21"/>
+        <v>4600</v>
       </c>
       <c r="G206">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>16100</v>
       </c>
       <c r="H206" s="13">
@@ -13185,11 +13255,11 @@
         <v>0</v>
       </c>
       <c r="M206">
-        <f t="shared" si="39"/>
-        <v>76</v>
+        <f t="shared" si="30"/>
+        <v>92</v>
       </c>
       <c r="N206">
-        <f t="shared" si="40"/>
+        <f t="shared" si="31"/>
         <v>82</v>
       </c>
       <c r="O206">
@@ -13217,11 +13287,11 @@
         <v>232</v>
       </c>
       <c r="F207">
-        <f t="shared" si="34"/>
-        <v>6496</v>
+        <f t="shared" si="21"/>
+        <v>4640</v>
       </c>
       <c r="G207">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>16240</v>
       </c>
       <c r="H207" s="13">
@@ -13242,12 +13312,12 @@
         <v>1009</v>
       </c>
       <c r="M207">
-        <f t="shared" si="39"/>
-        <v>77</v>
+        <f t="shared" si="30"/>
+        <v>82</v>
       </c>
       <c r="N207">
-        <f t="shared" si="40"/>
-        <v>82</v>
+        <f t="shared" si="31"/>
+        <v>92</v>
       </c>
       <c r="O207">
         <v>20</v>
@@ -13274,8 +13344,8 @@
         <v>248</v>
       </c>
       <c r="F208">
-        <f t="shared" si="34"/>
-        <v>6944</v>
+        <f t="shared" si="21"/>
+        <v>4960</v>
       </c>
       <c r="G208">
         <f>E208*74</f>
@@ -13299,11 +13369,11 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <f t="shared" si="39"/>
-        <v>82</v>
+        <f t="shared" si="30"/>
+        <v>99</v>
       </c>
       <c r="N208">
-        <f t="shared" si="40"/>
+        <f t="shared" si="31"/>
         <v>88</v>
       </c>
       <c r="O208">
@@ -13331,11 +13401,11 @@
         <v>254</v>
       </c>
       <c r="F209">
-        <f t="shared" si="34"/>
-        <v>7112</v>
+        <f t="shared" si="21"/>
+        <v>5080</v>
       </c>
       <c r="G209">
-        <f t="shared" ref="G209:G215" si="41">E209*74</f>
+        <f t="shared" ref="G209:G215" si="37">E209*74</f>
         <v>18796</v>
       </c>
       <c r="H209" s="13">
@@ -13356,11 +13426,11 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <f t="shared" si="39"/>
-        <v>84</v>
+        <f t="shared" si="30"/>
+        <v>101</v>
       </c>
       <c r="N209">
-        <f t="shared" si="40"/>
+        <f t="shared" si="31"/>
         <v>90</v>
       </c>
       <c r="O209">
@@ -13387,11 +13457,11 @@
         <v>247</v>
       </c>
       <c r="F210">
-        <f t="shared" si="34"/>
-        <v>6916</v>
+        <f t="shared" si="21"/>
+        <v>4940</v>
       </c>
       <c r="G210">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>18278</v>
       </c>
       <c r="H210" s="13">
@@ -13412,12 +13482,12 @@
         <v>1099</v>
       </c>
       <c r="M210">
-        <f t="shared" si="39"/>
-        <v>82</v>
+        <f t="shared" ref="M210:M223" si="38">INT(E210/(IF(J210=0,2.8,2.5)))</f>
+        <v>88</v>
       </c>
       <c r="N210">
-        <f t="shared" si="40"/>
-        <v>88</v>
+        <f t="shared" ref="N210:N223" si="39">INT(E210/(IF(J210&lt;&gt;0,2.8,2.5)))</f>
+        <v>98</v>
       </c>
       <c r="O210">
         <v>20</v>
@@ -13444,11 +13514,11 @@
         <v>250</v>
       </c>
       <c r="F211">
-        <f t="shared" si="34"/>
-        <v>7000</v>
+        <f t="shared" si="21"/>
+        <v>5000</v>
       </c>
       <c r="G211">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>18500</v>
       </c>
       <c r="H211" s="13">
@@ -13469,12 +13539,12 @@
         <v>1112</v>
       </c>
       <c r="M211">
+        <f t="shared" si="38"/>
+        <v>89</v>
+      </c>
+      <c r="N211">
         <f t="shared" si="39"/>
-        <v>83</v>
-      </c>
-      <c r="N211">
-        <f t="shared" si="40"/>
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="O211">
         <v>20</v>
@@ -13501,11 +13571,11 @@
         <v>248</v>
       </c>
       <c r="F212">
-        <f t="shared" si="34"/>
-        <v>6944</v>
+        <f t="shared" si="21"/>
+        <v>4960</v>
       </c>
       <c r="G212">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>18352</v>
       </c>
       <c r="H212" s="13">
@@ -13526,11 +13596,11 @@
         <v>0</v>
       </c>
       <c r="M212">
+        <f t="shared" si="38"/>
+        <v>99</v>
+      </c>
+      <c r="N212">
         <f t="shared" si="39"/>
-        <v>82</v>
-      </c>
-      <c r="N212">
-        <f t="shared" si="40"/>
         <v>88</v>
       </c>
       <c r="O212">
@@ -13558,11 +13628,11 @@
         <v>254</v>
       </c>
       <c r="F213">
-        <f t="shared" si="34"/>
-        <v>7112</v>
+        <f t="shared" si="21"/>
+        <v>5080</v>
       </c>
       <c r="G213">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>18796</v>
       </c>
       <c r="H213" s="13">
@@ -13583,11 +13653,11 @@
         <v>0</v>
       </c>
       <c r="M213">
+        <f t="shared" si="38"/>
+        <v>101</v>
+      </c>
+      <c r="N213">
         <f t="shared" si="39"/>
-        <v>84</v>
-      </c>
-      <c r="N213">
-        <f t="shared" si="40"/>
         <v>90</v>
       </c>
       <c r="O213">
@@ -13615,11 +13685,11 @@
         <v>247</v>
       </c>
       <c r="F214">
-        <f t="shared" si="34"/>
-        <v>6916</v>
+        <f t="shared" si="21"/>
+        <v>4940</v>
       </c>
       <c r="G214">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>18278</v>
       </c>
       <c r="H214" s="13">
@@ -13640,12 +13710,12 @@
         <v>1099</v>
       </c>
       <c r="M214">
+        <f t="shared" si="38"/>
+        <v>88</v>
+      </c>
+      <c r="N214">
         <f t="shared" si="39"/>
-        <v>82</v>
-      </c>
-      <c r="N214">
-        <f t="shared" si="40"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="O214">
         <v>20</v>
@@ -13672,11 +13742,11 @@
         <v>250</v>
       </c>
       <c r="F215">
-        <f t="shared" si="34"/>
-        <v>7000</v>
+        <f t="shared" si="21"/>
+        <v>5000</v>
       </c>
       <c r="G215">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>18500</v>
       </c>
       <c r="H215" s="13">
@@ -13697,12 +13767,12 @@
         <v>1112</v>
       </c>
       <c r="M215">
+        <f t="shared" si="38"/>
+        <v>89</v>
+      </c>
+      <c r="N215">
         <f t="shared" si="39"/>
-        <v>83</v>
-      </c>
-      <c r="N215">
-        <f t="shared" si="40"/>
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="O215">
         <v>20</v>
@@ -13729,8 +13799,8 @@
         <v>257</v>
       </c>
       <c r="F216">
-        <f>E216*30</f>
-        <v>7710</v>
+        <f t="shared" si="21"/>
+        <v>5140</v>
       </c>
       <c r="G216">
         <f>E216*78</f>
@@ -13754,11 +13824,11 @@
         <v>0</v>
       </c>
       <c r="M216">
+        <f t="shared" si="38"/>
+        <v>102</v>
+      </c>
+      <c r="N216">
         <f t="shared" si="39"/>
-        <v>85</v>
-      </c>
-      <c r="N216">
-        <f t="shared" si="40"/>
         <v>91</v>
       </c>
       <c r="O216">
@@ -13786,11 +13856,11 @@
         <v>263</v>
       </c>
       <c r="F217">
-        <f t="shared" ref="F217:F223" si="42">E217*30</f>
-        <v>7890</v>
+        <f t="shared" si="21"/>
+        <v>5260</v>
       </c>
       <c r="G217">
-        <f t="shared" ref="G217:G223" si="43">E217*78</f>
+        <f t="shared" ref="G217:G223" si="40">E217*78</f>
         <v>20514</v>
       </c>
       <c r="H217" s="13">
@@ -13803,20 +13873,20 @@
         <v>0</v>
       </c>
       <c r="K217">
-        <f t="shared" ref="K217:K223" si="44">INT($E217*3.7)</f>
+        <f t="shared" ref="K217:K223" si="41">INT($E217*3.7)</f>
         <v>973</v>
       </c>
       <c r="L217">
-        <f t="shared" ref="L217:L223" si="45">INT($E217*4.9)</f>
+        <f t="shared" ref="L217:L223" si="42">INT($E217*4.9)</f>
         <v>1288</v>
       </c>
       <c r="M217">
+        <f t="shared" si="38"/>
+        <v>93</v>
+      </c>
+      <c r="N217">
         <f t="shared" si="39"/>
-        <v>87</v>
-      </c>
-      <c r="N217">
-        <f t="shared" si="40"/>
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="O217">
         <v>20</v>
@@ -13843,22 +13913,22 @@
         <v>266</v>
       </c>
       <c r="F218">
-        <f t="shared" si="42"/>
-        <v>7980</v>
+        <f t="shared" si="21"/>
+        <v>5320</v>
       </c>
       <c r="G218">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>20748</v>
       </c>
       <c r="H218" s="13">
         <v>10</v>
       </c>
       <c r="I218">
-        <f t="shared" ref="I218:I222" si="46">INT($E218*3.7)</f>
+        <f t="shared" ref="I218:I222" si="43">INT($E218*3.7)</f>
         <v>984</v>
       </c>
       <c r="J218">
-        <f t="shared" ref="J218:J222" si="47">INT($E218*4.9)</f>
+        <f t="shared" ref="J218:J222" si="44">INT($E218*4.9)</f>
         <v>1303</v>
       </c>
       <c r="K218">
@@ -13868,11 +13938,11 @@
         <v>0</v>
       </c>
       <c r="M218">
+        <f t="shared" si="38"/>
+        <v>106</v>
+      </c>
+      <c r="N218">
         <f t="shared" si="39"/>
-        <v>88</v>
-      </c>
-      <c r="N218">
-        <f t="shared" si="40"/>
         <v>95</v>
       </c>
       <c r="O218">
@@ -13900,37 +13970,37 @@
         <v>259</v>
       </c>
       <c r="F219">
+        <f t="shared" si="21"/>
+        <v>5180</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="40"/>
+        <v>20202</v>
+      </c>
+      <c r="H219" s="13">
+        <v>10</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <f t="shared" si="41"/>
+        <v>958</v>
+      </c>
+      <c r="L219">
         <f t="shared" si="42"/>
-        <v>7770</v>
-      </c>
-      <c r="G219">
-        <f t="shared" si="43"/>
-        <v>20202</v>
-      </c>
-      <c r="H219" s="13">
-        <v>10</v>
-      </c>
-      <c r="I219">
-        <v>0</v>
-      </c>
-      <c r="J219">
-        <v>0</v>
-      </c>
-      <c r="K219">
-        <f t="shared" si="44"/>
-        <v>958</v>
-      </c>
-      <c r="L219">
-        <f t="shared" si="45"/>
         <v>1269</v>
       </c>
       <c r="M219">
+        <f t="shared" si="38"/>
+        <v>92</v>
+      </c>
+      <c r="N219">
         <f t="shared" si="39"/>
-        <v>86</v>
-      </c>
-      <c r="N219">
-        <f t="shared" si="40"/>
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="O219">
         <v>20</v>
@@ -13957,22 +14027,22 @@
         <v>259</v>
       </c>
       <c r="F220">
-        <f t="shared" si="42"/>
-        <v>7770</v>
+        <f t="shared" si="21"/>
+        <v>5180</v>
       </c>
       <c r="G220">
+        <f t="shared" si="40"/>
+        <v>20202</v>
+      </c>
+      <c r="H220" s="13">
+        <v>10</v>
+      </c>
+      <c r="I220">
         <f t="shared" si="43"/>
-        <v>20202</v>
-      </c>
-      <c r="H220" s="13">
-        <v>10</v>
-      </c>
-      <c r="I220">
-        <f t="shared" si="46"/>
         <v>958</v>
       </c>
       <c r="J220">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>1269</v>
       </c>
       <c r="K220">
@@ -13982,11 +14052,11 @@
         <v>0</v>
       </c>
       <c r="M220">
+        <f t="shared" si="38"/>
+        <v>103</v>
+      </c>
+      <c r="N220">
         <f t="shared" si="39"/>
-        <v>86</v>
-      </c>
-      <c r="N220">
-        <f t="shared" si="40"/>
         <v>92</v>
       </c>
       <c r="O220">
@@ -14014,37 +14084,37 @@
         <v>258</v>
       </c>
       <c r="F221">
+        <f t="shared" si="21"/>
+        <v>5160</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="40"/>
+        <v>20124</v>
+      </c>
+      <c r="H221" s="13">
+        <v>10</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <f t="shared" si="41"/>
+        <v>954</v>
+      </c>
+      <c r="L221">
         <f t="shared" si="42"/>
-        <v>7740</v>
-      </c>
-      <c r="G221">
-        <f t="shared" si="43"/>
-        <v>20124</v>
-      </c>
-      <c r="H221" s="13">
-        <v>10</v>
-      </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
-      <c r="J221">
-        <v>0</v>
-      </c>
-      <c r="K221">
-        <f t="shared" si="44"/>
-        <v>954</v>
-      </c>
-      <c r="L221">
-        <f t="shared" si="45"/>
         <v>1264</v>
       </c>
       <c r="M221">
+        <f t="shared" si="38"/>
+        <v>92</v>
+      </c>
+      <c r="N221">
         <f t="shared" si="39"/>
-        <v>86</v>
-      </c>
-      <c r="N221">
-        <f t="shared" si="40"/>
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="O221">
         <v>20</v>
@@ -14071,22 +14141,22 @@
         <v>261</v>
       </c>
       <c r="F222">
-        <f t="shared" si="42"/>
-        <v>7830</v>
+        <f t="shared" ref="F222:F223" si="45">E222*20</f>
+        <v>5220</v>
       </c>
       <c r="G222">
+        <f t="shared" si="40"/>
+        <v>20358</v>
+      </c>
+      <c r="H222" s="13">
+        <v>10</v>
+      </c>
+      <c r="I222">
         <f t="shared" si="43"/>
-        <v>20358</v>
-      </c>
-      <c r="H222" s="13">
-        <v>10</v>
-      </c>
-      <c r="I222">
-        <f t="shared" si="46"/>
         <v>965</v>
       </c>
       <c r="J222">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>1278</v>
       </c>
       <c r="K222">
@@ -14096,11 +14166,11 @@
         <v>0</v>
       </c>
       <c r="M222">
+        <f t="shared" si="38"/>
+        <v>104</v>
+      </c>
+      <c r="N222">
         <f t="shared" si="39"/>
-        <v>87</v>
-      </c>
-      <c r="N222">
-        <f t="shared" si="40"/>
         <v>93</v>
       </c>
       <c r="O222">
@@ -14128,37 +14198,37 @@
         <v>263</v>
       </c>
       <c r="F223">
+        <f t="shared" si="45"/>
+        <v>5260</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="40"/>
+        <v>20514</v>
+      </c>
+      <c r="H223" s="13">
+        <v>10</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <f t="shared" si="41"/>
+        <v>973</v>
+      </c>
+      <c r="L223">
         <f t="shared" si="42"/>
-        <v>7890</v>
-      </c>
-      <c r="G223">
-        <f t="shared" si="43"/>
-        <v>20514</v>
-      </c>
-      <c r="H223" s="13">
-        <v>10</v>
-      </c>
-      <c r="I223">
-        <v>0</v>
-      </c>
-      <c r="J223">
-        <v>0</v>
-      </c>
-      <c r="K223">
-        <f t="shared" si="44"/>
-        <v>973</v>
-      </c>
-      <c r="L223">
-        <f t="shared" si="45"/>
         <v>1288</v>
       </c>
       <c r="M223">
+        <f t="shared" si="38"/>
+        <v>93</v>
+      </c>
+      <c r="N223">
         <f t="shared" si="39"/>
-        <v>87</v>
-      </c>
-      <c r="N223">
-        <f t="shared" si="40"/>
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="O223">
         <v>20</v>
@@ -14277,7 +14347,7 @@
         <v>151</v>
       </c>
       <c r="C226" s="3">
-        <f t="shared" ref="C226:C253" si="48">A226</f>
+        <f t="shared" ref="C226:C253" si="46">A226</f>
         <v>20003</v>
       </c>
       <c r="D226" s="16">
@@ -14328,7 +14398,7 @@
         <v>152</v>
       </c>
       <c r="C227" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20004</v>
       </c>
       <c r="D227" s="16">
@@ -14379,7 +14449,7 @@
         <v>153</v>
       </c>
       <c r="C228" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20005</v>
       </c>
       <c r="D228" s="16">
@@ -14430,7 +14500,7 @@
         <v>48</v>
       </c>
       <c r="C229" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20006</v>
       </c>
       <c r="D229" s="16">
@@ -14443,7 +14513,7 @@
         <v>650</v>
       </c>
       <c r="G229">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="H229">
         <v>100</v>
@@ -14481,7 +14551,7 @@
         <v>187</v>
       </c>
       <c r="C230" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20007</v>
       </c>
       <c r="D230" s="16">
@@ -14494,7 +14564,7 @@
         <v>200</v>
       </c>
       <c r="G230">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H230">
         <v>100</v>
@@ -14595,7 +14665,7 @@
         <v>300</v>
       </c>
       <c r="G232">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H232">
         <v>100</v>
@@ -14633,7 +14703,7 @@
         <v>155</v>
       </c>
       <c r="C233" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20010</v>
       </c>
       <c r="D233" s="16">
@@ -14646,7 +14716,7 @@
         <v>500</v>
       </c>
       <c r="G233">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H233">
         <v>100</v>
@@ -14684,7 +14754,7 @@
         <v>49</v>
       </c>
       <c r="C234" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20011</v>
       </c>
       <c r="D234" s="16">
@@ -14697,7 +14767,7 @@
         <v>600</v>
       </c>
       <c r="G234">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H234">
         <v>100</v>
@@ -14735,7 +14805,7 @@
         <v>156</v>
       </c>
       <c r="C235" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20012</v>
       </c>
       <c r="D235" s="16">
@@ -14786,7 +14856,7 @@
         <v>50</v>
       </c>
       <c r="C236" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20013</v>
       </c>
       <c r="D236" s="16">
@@ -14799,7 +14869,7 @@
         <v>550</v>
       </c>
       <c r="G236">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="H236">
         <v>100</v>
@@ -14837,7 +14907,7 @@
         <v>105</v>
       </c>
       <c r="C237" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20014</v>
       </c>
       <c r="D237" s="16">
@@ -14850,7 +14920,7 @@
         <v>700</v>
       </c>
       <c r="G237">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H237">
         <v>100</v>
@@ -14888,7 +14958,7 @@
         <v>157</v>
       </c>
       <c r="C238" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20015</v>
       </c>
       <c r="D238" s="16">
@@ -14901,7 +14971,7 @@
         <v>1000</v>
       </c>
       <c r="G238">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H238">
         <v>100</v>
@@ -14939,7 +15009,7 @@
         <v>158</v>
       </c>
       <c r="C239" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20016</v>
       </c>
       <c r="D239" s="16">
@@ -14952,7 +15022,7 @@
         <v>1300</v>
       </c>
       <c r="G239">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H239">
         <v>100</v>
@@ -14990,7 +15060,7 @@
         <v>159</v>
       </c>
       <c r="C240" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20017</v>
       </c>
       <c r="D240" s="16">
@@ -15003,7 +15073,7 @@
         <v>1300</v>
       </c>
       <c r="G240">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H240">
         <v>100</v>
@@ -15041,7 +15111,7 @@
         <v>160</v>
       </c>
       <c r="C241" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20018</v>
       </c>
       <c r="D241" s="16">
@@ -15054,7 +15124,7 @@
         <v>2000</v>
       </c>
       <c r="G241">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H241">
         <v>100</v>
@@ -15092,7 +15162,7 @@
         <v>166</v>
       </c>
       <c r="C242" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20019</v>
       </c>
       <c r="D242" s="16">
@@ -15105,7 +15175,7 @@
         <v>1500</v>
       </c>
       <c r="G242">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H242">
         <v>100</v>
@@ -15156,7 +15226,7 @@
         <v>1500</v>
       </c>
       <c r="G243">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H243">
         <v>100</v>
@@ -15194,7 +15264,7 @@
         <v>167</v>
       </c>
       <c r="C244" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20021</v>
       </c>
       <c r="D244" s="16">
@@ -15207,7 +15277,7 @@
         <v>2000</v>
       </c>
       <c r="G244">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H244">
         <v>100</v>
@@ -15245,7 +15315,7 @@
         <v>162</v>
       </c>
       <c r="C245" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20022</v>
       </c>
       <c r="D245" s="16">
@@ -15296,7 +15366,7 @@
         <v>163</v>
       </c>
       <c r="C246" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20023</v>
       </c>
       <c r="D246" s="16">
@@ -15347,7 +15417,7 @@
         <v>164</v>
       </c>
       <c r="C247" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20024</v>
       </c>
       <c r="D247" s="16">
@@ -15360,7 +15430,7 @@
         <v>2500</v>
       </c>
       <c r="G247">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="H247">
         <v>100</v>
@@ -15398,7 +15468,7 @@
         <v>161</v>
       </c>
       <c r="C248" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20025</v>
       </c>
       <c r="D248" s="16">
@@ -15411,7 +15481,7 @@
         <v>2000</v>
       </c>
       <c r="G248">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="H248">
         <v>100</v>
@@ -15500,7 +15570,7 @@
         <v>179</v>
       </c>
       <c r="C250" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20027</v>
       </c>
       <c r="D250" s="16">
@@ -15513,7 +15583,7 @@
         <v>1800</v>
       </c>
       <c r="G250">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="H250">
         <v>100</v>
@@ -15525,10 +15595,10 @@
         <v>0</v>
       </c>
       <c r="K250">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="L250">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="M250">
         <v>12</v>
@@ -15551,7 +15621,7 @@
         <v>175</v>
       </c>
       <c r="C251" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20028</v>
       </c>
       <c r="D251" s="16">
@@ -15564,16 +15634,16 @@
         <v>1900</v>
       </c>
       <c r="G251">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="H251">
         <v>100</v>
       </c>
       <c r="I251">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="J251">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="K251">
         <v>0</v>
@@ -15602,7 +15672,7 @@
         <v>176</v>
       </c>
       <c r="C252" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20029</v>
       </c>
       <c r="D252" s="16">
@@ -15615,16 +15685,16 @@
         <v>2000</v>
       </c>
       <c r="G252">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H252">
         <v>100</v>
       </c>
       <c r="I252">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="J252">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="K252">
         <v>0</v>
@@ -15653,7 +15723,7 @@
         <v>177</v>
       </c>
       <c r="C253" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>20030</v>
       </c>
       <c r="D253" s="16">
@@ -15678,10 +15748,10 @@
         <v>0</v>
       </c>
       <c r="K253">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="L253">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="M253">
         <v>25</v>
@@ -15729,10 +15799,10 @@
         <v>0</v>
       </c>
       <c r="K254">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="L254">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="M254">
         <v>50</v>
@@ -15768,7 +15838,7 @@
         <v>1500</v>
       </c>
       <c r="G255">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="H255">
         <v>100</v>
@@ -15780,10 +15850,10 @@
         <v>0</v>
       </c>
       <c r="K255">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L255">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="M255">
         <v>20</v>
@@ -15819,7 +15889,7 @@
         <v>1500</v>
       </c>
       <c r="G256">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="H256">
         <v>100</v>
@@ -15831,7 +15901,7 @@
         <v>0</v>
       </c>
       <c r="K256">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="L256">
         <v>70</v>
@@ -15870,16 +15940,16 @@
         <v>1500</v>
       </c>
       <c r="G257">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="H257">
         <v>100</v>
       </c>
       <c r="I257">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J257">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="K257">
         <v>0</v>
@@ -15921,7 +15991,7 @@
         <v>1500</v>
       </c>
       <c r="G258">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="H258">
         <v>100</v>
@@ -15972,7 +16042,7 @@
         <v>1500</v>
       </c>
       <c r="G259">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="H259">
         <v>100</v>
@@ -16023,7 +16093,7 @@
         <v>1500</v>
       </c>
       <c r="G260">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="H260">
         <v>100</v>
@@ -16137,10 +16207,10 @@
         <v>0</v>
       </c>
       <c r="K262">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="L262">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="M262">
         <v>18</v>
@@ -17315,433 +17385,433 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E170:E175 I1:P137 I286:P928 M189:P189 M193:P194 M196:P197 M199:P199 K223:P223 K202:P202 M203:P203 M206:P206 M208:P209 M212:P213 I216:J216 M216:P216 K217:P217 I218:J218 M218:P218 K219:P219 I220:J220 M220:P220 K221:P221 I222:J222 M222:P222 K186:P188 I189:J189 K190:P192 I193:J194 K195:P195 I196:J197 K198:P198 I199:J199 K200:P200 I201:P201 I203:J203 K204:P205 I206:J206 K207:P207 I208:J209 K210:P211 I212:J213 K214:P215">
-    <cfRule type="expression" dxfId="85" priority="159">
+  <conditionalFormatting sqref="E170:E175 I286:P928 K223:L223 K202:L202 I216:J216 K217:L217 I218:J218 K219:L219 I220:J220 K221:L221 I222:J222 K186:L188 I189:J189 K190:L192 I193:J194 K195:L195 I196:J197 K198:L198 I199:J199 K200:L200 I201:L201 I203:J203 K204:L205 I206:J206 K207:L207 I208:J209 K210:L211 I212:J213 K214:L215 I1:P126 I127:L137 O127:P137 O186:P223 M127:N223">
+    <cfRule type="expression" dxfId="99" priority="159">
       <formula>E1=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M138:P139 M142:P143 M147:P148 M150:P150 M152:P153 M155:P157 M160:P161 M164:P164 M166:P167 M169:P171 M173:P174 M176:P178 M181:P183 I138:J139 K140:P141 I142:J143 K144:P146 I147:J148 K149:P149 I150:J150 K151:P151 I152:J153 K154:P154 I155:J157 K158:P159 I160:J161 K162:P163 I164:J164 K165:P165 I166:J167 K168:P168 I169:J171 K172:P172 I173:J174 K175:P175 I176:J178 K179:P180 I181:J183 K184:P185">
-    <cfRule type="expression" dxfId="84" priority="85">
+  <conditionalFormatting sqref="I138:J139 I142:J143 K144:L146 I147:J148 K149:L149 I150:J150 K151:L151 I152:J153 K154:L154 I155:J157 K158:L159 I160:J161 K162:L163 I164:J164 K165:L165 I166:J167 K168:L168 I169:J171 K172:L172 I173:J174 K175:L175 I176:J178 K179:L180 I181:J183 K184:L185 K140:L141 O138:P185">
+    <cfRule type="expression" dxfId="98" priority="85">
       <formula>I138=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C170:C175">
-    <cfRule type="expression" dxfId="83" priority="84">
+    <cfRule type="expression" dxfId="97" priority="84">
       <formula>C170=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K138:L138">
-    <cfRule type="expression" dxfId="82" priority="83">
+    <cfRule type="expression" dxfId="96" priority="83">
       <formula>K138=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K139:L139">
-    <cfRule type="expression" dxfId="81" priority="82">
+    <cfRule type="expression" dxfId="95" priority="82">
       <formula>K139=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I140:J140">
-    <cfRule type="expression" dxfId="80" priority="81">
+    <cfRule type="expression" dxfId="94" priority="81">
       <formula>I140=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I141:J141">
-    <cfRule type="expression" dxfId="79" priority="80">
+    <cfRule type="expression" dxfId="93" priority="80">
       <formula>I141=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K142:L142">
-    <cfRule type="expression" dxfId="78" priority="79">
+    <cfRule type="expression" dxfId="92" priority="79">
       <formula>K142=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K143:L143">
-    <cfRule type="expression" dxfId="77" priority="78">
+    <cfRule type="expression" dxfId="91" priority="78">
       <formula>K143=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I144:J144">
-    <cfRule type="expression" dxfId="76" priority="77">
+    <cfRule type="expression" dxfId="90" priority="77">
       <formula>I144=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145:J145">
-    <cfRule type="expression" dxfId="75" priority="76">
+    <cfRule type="expression" dxfId="89" priority="76">
       <formula>I145=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I146:J146">
-    <cfRule type="expression" dxfId="74" priority="75">
+    <cfRule type="expression" dxfId="88" priority="75">
       <formula>I146=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K147:L147">
-    <cfRule type="expression" dxfId="73" priority="74">
+    <cfRule type="expression" dxfId="87" priority="74">
       <formula>K147=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K148:L148">
-    <cfRule type="expression" dxfId="72" priority="73">
+    <cfRule type="expression" dxfId="86" priority="73">
       <formula>K148=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I149:J149">
-    <cfRule type="expression" dxfId="71" priority="72">
+    <cfRule type="expression" dxfId="85" priority="72">
       <formula>I149=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K150:L150">
-    <cfRule type="expression" dxfId="70" priority="71">
+    <cfRule type="expression" dxfId="84" priority="71">
       <formula>K150=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I151:J151">
-    <cfRule type="expression" dxfId="69" priority="70">
+    <cfRule type="expression" dxfId="83" priority="70">
       <formula>I151=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K152:L152">
-    <cfRule type="expression" dxfId="68" priority="69">
+    <cfRule type="expression" dxfId="82" priority="69">
       <formula>K152=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K153:L153">
-    <cfRule type="expression" dxfId="67" priority="68">
+    <cfRule type="expression" dxfId="81" priority="68">
       <formula>K153=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I154:J154">
-    <cfRule type="expression" dxfId="66" priority="67">
+    <cfRule type="expression" dxfId="80" priority="67">
       <formula>I154=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K155:L155">
-    <cfRule type="expression" dxfId="65" priority="66">
+    <cfRule type="expression" dxfId="79" priority="66">
       <formula>K155=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K156:L156">
-    <cfRule type="expression" dxfId="64" priority="65">
+    <cfRule type="expression" dxfId="78" priority="65">
       <formula>K156=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K157:L157">
-    <cfRule type="expression" dxfId="63" priority="64">
+    <cfRule type="expression" dxfId="77" priority="64">
       <formula>K157=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I158:J158">
-    <cfRule type="expression" dxfId="62" priority="63">
+    <cfRule type="expression" dxfId="76" priority="63">
       <formula>I158=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I159:J159">
-    <cfRule type="expression" dxfId="61" priority="62">
+    <cfRule type="expression" dxfId="75" priority="62">
       <formula>I159=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K160:L160">
-    <cfRule type="expression" dxfId="60" priority="61">
+    <cfRule type="expression" dxfId="74" priority="61">
       <formula>K160=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K161:L161">
-    <cfRule type="expression" dxfId="59" priority="60">
+    <cfRule type="expression" dxfId="73" priority="60">
       <formula>K161=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I162:J162">
-    <cfRule type="expression" dxfId="58" priority="59">
+    <cfRule type="expression" dxfId="72" priority="59">
       <formula>I162=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I163:J163">
-    <cfRule type="expression" dxfId="57" priority="58">
+    <cfRule type="expression" dxfId="71" priority="58">
       <formula>I163=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K164:L164">
-    <cfRule type="expression" dxfId="56" priority="57">
+    <cfRule type="expression" dxfId="70" priority="57">
       <formula>K164=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K167:L167">
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="69" priority="56">
       <formula>K167=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I165:J165">
-    <cfRule type="expression" dxfId="54" priority="55">
+    <cfRule type="expression" dxfId="68" priority="55">
       <formula>I165=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K166:L166">
-    <cfRule type="expression" dxfId="53" priority="54">
+    <cfRule type="expression" dxfId="67" priority="54">
       <formula>K166=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I168:J168">
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="66" priority="53">
       <formula>I168=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K169:L169">
-    <cfRule type="expression" dxfId="51" priority="52">
+    <cfRule type="expression" dxfId="65" priority="52">
       <formula>K169=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I172:J172">
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="64" priority="51">
       <formula>I172=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K170:L170">
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="63" priority="50">
       <formula>K170=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K171:L171">
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="62" priority="49">
       <formula>K171=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I175:J175">
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="61" priority="48">
       <formula>I175=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K173:L173">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="60" priority="47">
       <formula>K173=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K174:L174">
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="59" priority="46">
       <formula>K174=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K176:L176">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="58" priority="45">
       <formula>K176=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K177:L177">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="57" priority="44">
       <formula>K177=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K178:L178">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="56" priority="43">
       <formula>K178=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I179:J179">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="55" priority="42">
       <formula>I179=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I180:J180">
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="54" priority="41">
       <formula>I180=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K181:L181">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="53" priority="40">
       <formula>K181=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K182:L182">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="52" priority="39">
       <formula>K182=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K183:L183">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="51" priority="38">
       <formula>K183=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I184:J184">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="50" priority="37">
       <formula>I184=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I185:J185">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="49" priority="36">
       <formula>I185=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J262:J263 I263 P263 I255:J261 M255:N261 I264:J267 M264:P267 M262:O263 I224:N254 I268:P285">
-    <cfRule type="expression" dxfId="34" priority="35">
+  <conditionalFormatting sqref="P263 M255:N261 M264:P267 M262:O263 I224:N254 I268:P285 I255:J267">
+    <cfRule type="expression" dxfId="48" priority="35">
       <formula>I224=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K266:L267 K255:L261">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="47" priority="34">
       <formula>K255=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L262">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="46" priority="33">
       <formula>L262=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K263:L263">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="45" priority="32">
       <formula>K263=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K264:L265">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="44" priority="31">
       <formula>K264=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I186:J186">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="43" priority="30">
       <formula>I186=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K189:L189">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="42" priority="29">
       <formula>K189=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I187:J188">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="41" priority="28">
       <formula>I187=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I190:J192">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="40" priority="27">
       <formula>I190=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K193:L193">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="39" priority="26">
       <formula>K193=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K194:L194">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="38" priority="25">
       <formula>K194=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I195:J195">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="37" priority="24">
       <formula>I195=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K196:L196">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="36" priority="23">
       <formula>K196=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K197:L197">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="35" priority="22">
       <formula>K197=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I198:J198">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="34" priority="21">
       <formula>I198=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199:L199">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="33" priority="20">
       <formula>K199=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I200:J200">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="32" priority="19">
       <formula>I200=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I202:J202">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="31" priority="18">
       <formula>I202=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203:L203">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="30" priority="17">
       <formula>K203=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I204:J204">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="29" priority="16">
       <formula>I204=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I205:J205">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="28" priority="15">
       <formula>I205=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K206:L206">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="27" priority="14">
       <formula>K206=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I207:J207">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="26" priority="13">
       <formula>I207=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K208:L209">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="25" priority="12">
       <formula>K208=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I210:J211">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="24" priority="11">
       <formula>I210=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K212:L213">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="23" priority="10">
       <formula>K212=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I214:J215">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="22" priority="9">
       <formula>I214=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K216:L216">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>K216=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I217:J217">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="20" priority="7">
       <formula>I217=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K218:L218">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>K218=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I219:J219">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>I219=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K220:L220">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>K220=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I221:J221">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>I221=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K222:L222">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>K222=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I223:J223">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>I223=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/documents/怪物属性表.xlsx
+++ b/documents/怪物属性表.xlsx
@@ -1167,77 +1167,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
+  <dxfs count="86">
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -2010,8 +1940,8 @@
   <dimension ref="A1:U285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
+      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S273" sqref="S273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6344,10 +6274,10 @@
         <v>10</v>
       </c>
       <c r="I85" s="13">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="J85" s="13">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="K85" s="13">
         <v>0</v>
@@ -6395,10 +6325,10 @@
         <v>10</v>
       </c>
       <c r="I86" s="13">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="J86" s="13">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K86" s="13">
         <v>0</v>
@@ -6452,10 +6382,10 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L87">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="M87" s="13">
         <v>15</v>
@@ -6503,10 +6433,10 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="L88">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="M88" s="13">
         <v>45</v>
@@ -6548,10 +6478,10 @@
         <v>10</v>
       </c>
       <c r="I89">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="J89">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="K89" s="13">
         <v>0</v>
@@ -6599,10 +6529,10 @@
         <v>10</v>
       </c>
       <c r="I90">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J90">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K90" s="13">
         <v>0</v>
@@ -6656,10 +6586,10 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="L91">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="M91" s="13">
         <v>10</v>
@@ -6707,10 +6637,10 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L92">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="M92" s="13">
         <v>10</v>
@@ -6768,12 +6698,12 @@
         <v>127</v>
       </c>
       <c r="M93">
-        <f>INT(E93/(IF(J93=0,2.7,2.4)))</f>
-        <v>25</v>
+        <f>INT(E93/(IF(J93=0,1.7,1.4)))</f>
+        <v>40</v>
       </c>
       <c r="N93">
-        <f>INT(E93/(IF(J93&lt;&gt;0,2.7,2.4)))</f>
-        <v>28</v>
+        <f>INT(E93/(IF(J93&lt;&gt;0,1.7,1.4)))</f>
+        <v>49</v>
       </c>
       <c r="O93">
         <v>22</v>
@@ -6826,12 +6756,12 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <f t="shared" ref="M94:M98" si="6">INT(E94/(IF(J94=0,2.8,2.5)))</f>
-        <v>26</v>
+        <f t="shared" ref="M94:M112" si="6">INT(E94/(IF(J94=0,1.7,1.4)))</f>
+        <v>46</v>
       </c>
       <c r="N94">
-        <f t="shared" ref="N94:N98" si="7">INT(E94/(IF(J94&lt;&gt;0,2.8,2.5)))</f>
-        <v>23</v>
+        <f t="shared" ref="N94:N112" si="7">INT(E94/(IF(J94&lt;&gt;0,1.7,1.4)))</f>
+        <v>38</v>
       </c>
       <c r="O94">
         <v>24</v>
@@ -6884,12 +6814,12 @@
         <v>136</v>
       </c>
       <c r="M95">
-        <f t="shared" ref="M95:M112" si="8">INT(E95/(IF(J95=0,2.8,2.5)))</f>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>43</v>
       </c>
       <c r="N95">
-        <f t="shared" ref="N95:N112" si="9">INT(E95/(IF(J95&lt;&gt;0,2.8,2.5)))</f>
-        <v>29</v>
+        <f t="shared" si="7"/>
+        <v>52</v>
       </c>
       <c r="O95">
         <v>24</v>
@@ -6942,12 +6872,12 @@
         <v>135</v>
       </c>
       <c r="M96">
-        <f t="shared" si="8"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>42</v>
       </c>
       <c r="N96">
-        <f t="shared" si="9"/>
-        <v>29</v>
+        <f t="shared" si="7"/>
+        <v>52</v>
       </c>
       <c r="O96">
         <v>20</v>
@@ -7000,12 +6930,12 @@
         <v>133</v>
       </c>
       <c r="M97">
-        <f t="shared" si="8"/>
-        <v>25</v>
+        <f t="shared" si="6"/>
+        <v>42</v>
       </c>
       <c r="N97">
-        <f t="shared" si="9"/>
-        <v>28</v>
+        <f t="shared" si="7"/>
+        <v>51</v>
       </c>
       <c r="O97">
         <v>20</v>
@@ -7058,12 +6988,12 @@
         <v>120</v>
       </c>
       <c r="M98">
-        <f t="shared" si="8"/>
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>38</v>
       </c>
       <c r="N98">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>46</v>
       </c>
       <c r="O98">
         <v>20</v>
@@ -7116,12 +7046,12 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <f t="shared" si="8"/>
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
       <c r="N99">
-        <f t="shared" si="9"/>
-        <v>25</v>
+        <f t="shared" si="7"/>
+        <v>41</v>
       </c>
       <c r="O99">
         <v>20</v>
@@ -7174,12 +7104,11 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <f t="shared" si="8"/>
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="N100">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>40</v>
       </c>
       <c r="O100">
         <v>20</v>
@@ -7232,12 +7161,12 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <f t="shared" si="8"/>
-        <v>27</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="N101">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>40</v>
       </c>
       <c r="O101">
         <v>20</v>
@@ -7290,12 +7219,12 @@
         <v>136</v>
       </c>
       <c r="M102">
-        <f t="shared" si="8"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>43</v>
       </c>
       <c r="N102">
-        <f t="shared" si="9"/>
-        <v>29</v>
+        <f t="shared" si="7"/>
+        <v>52</v>
       </c>
       <c r="O102">
         <v>20</v>
@@ -7348,12 +7277,12 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <f t="shared" si="8"/>
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>54</v>
       </c>
       <c r="N103">
-        <f t="shared" si="9"/>
-        <v>27</v>
+        <f t="shared" si="7"/>
+        <v>44</v>
       </c>
       <c r="O103">
         <v>20</v>
@@ -7406,12 +7335,12 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <f t="shared" si="8"/>
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>54</v>
       </c>
       <c r="N104">
-        <f t="shared" si="9"/>
-        <v>27</v>
+        <f t="shared" si="7"/>
+        <v>44</v>
       </c>
       <c r="O104">
         <v>20</v>
@@ -7464,12 +7393,12 @@
         <v>144</v>
       </c>
       <c r="M105">
-        <f t="shared" si="8"/>
-        <v>27</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
       <c r="N105">
-        <f t="shared" si="9"/>
-        <v>31</v>
+        <f t="shared" si="7"/>
+        <v>55</v>
       </c>
       <c r="O105">
         <v>20</v>
@@ -7522,12 +7451,12 @@
         <v>140</v>
       </c>
       <c r="M106">
-        <f t="shared" si="8"/>
-        <v>27</v>
+        <f t="shared" si="6"/>
+        <v>44</v>
       </c>
       <c r="N106">
-        <f t="shared" si="9"/>
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>54</v>
       </c>
       <c r="O106">
         <v>20</v>
@@ -7580,12 +7509,12 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f t="shared" si="6"/>
+        <v>56</v>
       </c>
       <c r="N107">
-        <f t="shared" si="9"/>
-        <v>28</v>
+        <f t="shared" si="7"/>
+        <v>46</v>
       </c>
       <c r="O107">
         <v>20</v>
@@ -7638,12 +7567,12 @@
         <v>159</v>
       </c>
       <c r="M108">
-        <f t="shared" si="8"/>
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="N108">
-        <f t="shared" si="9"/>
-        <v>33</v>
+        <f t="shared" si="7"/>
+        <v>60</v>
       </c>
       <c r="O108">
         <v>20</v>
@@ -7696,12 +7625,12 @@
         <v>157</v>
       </c>
       <c r="M109">
-        <f t="shared" si="8"/>
-        <v>29</v>
+        <f t="shared" si="6"/>
+        <v>48</v>
       </c>
       <c r="N109">
-        <f t="shared" si="9"/>
-        <v>33</v>
+        <f t="shared" si="7"/>
+        <v>59</v>
       </c>
       <c r="O109">
         <v>20</v>
@@ -7754,12 +7683,12 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <f t="shared" si="8"/>
-        <v>33</v>
+        <f t="shared" si="6"/>
+        <v>59</v>
       </c>
       <c r="N110">
-        <f t="shared" si="9"/>
-        <v>29</v>
+        <f t="shared" si="7"/>
+        <v>48</v>
       </c>
       <c r="O110">
         <v>20</v>
@@ -7777,7 +7706,7 @@
         <v>124</v>
       </c>
       <c r="C111" s="16">
-        <f t="shared" ref="C111:C130" si="10">A111</f>
+        <f t="shared" ref="C111:C130" si="8">A111</f>
         <v>10110</v>
       </c>
       <c r="D111" s="16">
@@ -7812,12 +7741,12 @@
         <v>152</v>
       </c>
       <c r="M111">
-        <f t="shared" si="8"/>
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>47</v>
       </c>
       <c r="N111">
-        <f t="shared" si="9"/>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>57</v>
       </c>
       <c r="O111">
         <v>20</v>
@@ -7835,7 +7764,7 @@
         <v>125</v>
       </c>
       <c r="C112" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10111</v>
       </c>
       <c r="D112" s="16">
@@ -7870,12 +7799,12 @@
         <v>144</v>
       </c>
       <c r="M112">
-        <f t="shared" si="8"/>
-        <v>27</v>
+        <f t="shared" si="6"/>
+        <v>44</v>
       </c>
       <c r="N112">
-        <f t="shared" si="9"/>
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>54</v>
       </c>
       <c r="O112">
         <v>20</v>
@@ -7893,7 +7822,7 @@
         <v>296</v>
       </c>
       <c r="C113" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10112</v>
       </c>
       <c r="D113" s="16">
@@ -7928,12 +7857,12 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <f t="shared" ref="M113:M176" si="11">INT(E113/(IF(J113=0,2.8,2.5)))</f>
-        <v>31</v>
+        <f>INT(E113/(IF(J113=0,1.7,1.4)))</f>
+        <v>55</v>
       </c>
       <c r="N113">
-        <f t="shared" ref="N113:N176" si="12">INT(E113/(IF(J113&lt;&gt;0,2.8,2.5)))</f>
-        <v>27</v>
+        <f>INT(E113/(IF(J113&lt;&gt;0,1.7,1.4)))</f>
+        <v>45</v>
       </c>
       <c r="O113">
         <v>20</v>
@@ -7951,7 +7880,7 @@
         <v>126</v>
       </c>
       <c r="C114" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10113</v>
       </c>
       <c r="D114" s="16">
@@ -7986,12 +7915,12 @@
         <v>153</v>
       </c>
       <c r="M114">
-        <f t="shared" si="11"/>
-        <v>28</v>
+        <f t="shared" ref="M114:M127" si="9">INT(E114/(IF(J114=0,1.7,1.4)))</f>
+        <v>47</v>
       </c>
       <c r="N114">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" ref="N114:N127" si="10">INT(E114/(IF(J114&lt;&gt;0,1.7,1.4)))</f>
+        <v>57</v>
       </c>
       <c r="O114">
         <v>20</v>
@@ -8009,7 +7938,7 @@
         <v>127</v>
       </c>
       <c r="C115" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10114</v>
       </c>
       <c r="D115" s="16">
@@ -8044,12 +7973,12 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <f t="shared" si="11"/>
-        <v>37</v>
+        <f t="shared" si="9"/>
+        <v>67</v>
       </c>
       <c r="N115">
-        <f t="shared" si="12"/>
-        <v>33</v>
+        <f t="shared" si="10"/>
+        <v>55</v>
       </c>
       <c r="O115">
         <v>20</v>
@@ -8067,7 +7996,7 @@
         <v>128</v>
       </c>
       <c r="C116" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10115</v>
       </c>
       <c r="D116" s="16">
@@ -8081,7 +8010,7 @@
         <v>1800</v>
       </c>
       <c r="G116">
-        <f t="shared" ref="G116:G127" si="13">E116*35</f>
+        <f t="shared" ref="G116:G127" si="11">E116*35</f>
         <v>3150</v>
       </c>
       <c r="H116" s="13">
@@ -8102,12 +8031,12 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <f t="shared" si="11"/>
-        <v>36</v>
+        <f t="shared" si="9"/>
+        <v>64</v>
       </c>
       <c r="N116">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="10"/>
+        <v>52</v>
       </c>
       <c r="O116">
         <v>20</v>
@@ -8125,7 +8054,7 @@
         <v>129</v>
       </c>
       <c r="C117" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10116</v>
       </c>
       <c r="D117" s="16">
@@ -8139,7 +8068,7 @@
         <v>1840</v>
       </c>
       <c r="G117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3220</v>
       </c>
       <c r="H117" s="13">
@@ -8160,12 +8089,12 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <f t="shared" si="11"/>
-        <v>36</v>
+        <f t="shared" si="9"/>
+        <v>65</v>
       </c>
       <c r="N117">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="10"/>
+        <v>54</v>
       </c>
       <c r="O117">
         <v>20</v>
@@ -8183,7 +8112,7 @@
         <v>130</v>
       </c>
       <c r="C118" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10117</v>
       </c>
       <c r="D118" s="16">
@@ -8197,7 +8126,7 @@
         <v>1720</v>
       </c>
       <c r="G118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3010</v>
       </c>
       <c r="H118" s="13">
@@ -8218,12 +8147,12 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <f t="shared" si="11"/>
-        <v>34</v>
+        <f t="shared" si="9"/>
+        <v>61</v>
       </c>
       <c r="N118">
-        <f t="shared" si="12"/>
-        <v>30</v>
+        <f t="shared" si="10"/>
+        <v>50</v>
       </c>
       <c r="O118">
         <v>20</v>
@@ -8241,7 +8170,7 @@
         <v>131</v>
       </c>
       <c r="C119" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10118</v>
       </c>
       <c r="D119" s="16">
@@ -8255,7 +8184,7 @@
         <v>1880</v>
       </c>
       <c r="G119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3290</v>
       </c>
       <c r="H119" s="13">
@@ -8276,12 +8205,12 @@
         <v>178</v>
       </c>
       <c r="M119">
-        <f t="shared" si="11"/>
-        <v>33</v>
+        <f t="shared" si="9"/>
+        <v>55</v>
       </c>
       <c r="N119">
-        <f t="shared" si="12"/>
-        <v>37</v>
+        <f t="shared" si="10"/>
+        <v>67</v>
       </c>
       <c r="O119">
         <v>20</v>
@@ -8299,7 +8228,7 @@
         <v>132</v>
       </c>
       <c r="C120" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10119</v>
       </c>
       <c r="D120" s="16">
@@ -8313,7 +8242,7 @@
         <v>1740</v>
       </c>
       <c r="G120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3045</v>
       </c>
       <c r="H120" s="13">
@@ -8334,12 +8263,12 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <f t="shared" si="11"/>
-        <v>34</v>
+        <f t="shared" si="9"/>
+        <v>62</v>
       </c>
       <c r="N120">
-        <f t="shared" si="12"/>
-        <v>31</v>
+        <f t="shared" si="10"/>
+        <v>51</v>
       </c>
       <c r="O120">
         <v>20</v>
@@ -8357,7 +8286,7 @@
         <v>133</v>
       </c>
       <c r="C121" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10120</v>
       </c>
       <c r="D121" s="16">
@@ -8371,7 +8300,7 @@
         <v>1700</v>
       </c>
       <c r="G121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2975</v>
       </c>
       <c r="H121" s="13">
@@ -8392,12 +8321,12 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <f t="shared" si="11"/>
-        <v>34</v>
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
       <c r="N121">
-        <f t="shared" si="12"/>
-        <v>30</v>
+        <f t="shared" si="10"/>
+        <v>50</v>
       </c>
       <c r="O121">
         <v>20</v>
@@ -8415,7 +8344,7 @@
         <v>134</v>
       </c>
       <c r="C122" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10121</v>
       </c>
       <c r="D122" s="16">
@@ -8429,7 +8358,7 @@
         <v>1800</v>
       </c>
       <c r="G122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3150</v>
       </c>
       <c r="H122" s="13">
@@ -8450,12 +8379,12 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <f t="shared" si="11"/>
-        <v>36</v>
+        <f t="shared" si="9"/>
+        <v>64</v>
       </c>
       <c r="N122">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="10"/>
+        <v>52</v>
       </c>
       <c r="O122">
         <v>20</v>
@@ -8473,7 +8402,7 @@
         <v>135</v>
       </c>
       <c r="C123" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10122</v>
       </c>
       <c r="D123" s="16">
@@ -8487,7 +8416,7 @@
         <v>1760</v>
       </c>
       <c r="G123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3080</v>
       </c>
       <c r="H123" s="13">
@@ -8508,12 +8437,12 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <f t="shared" si="11"/>
-        <v>35</v>
+        <f t="shared" si="9"/>
+        <v>62</v>
       </c>
       <c r="N123">
-        <f t="shared" si="12"/>
-        <v>31</v>
+        <f t="shared" si="10"/>
+        <v>51</v>
       </c>
       <c r="O123">
         <v>20</v>
@@ -8531,7 +8460,7 @@
         <v>136</v>
       </c>
       <c r="C124" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10123</v>
       </c>
       <c r="D124" s="16">
@@ -8545,7 +8474,7 @@
         <v>1720</v>
       </c>
       <c r="G124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3010</v>
       </c>
       <c r="H124" s="13">
@@ -8566,12 +8495,12 @@
         <v>163</v>
       </c>
       <c r="M124">
-        <f t="shared" si="11"/>
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>50</v>
       </c>
       <c r="N124">
-        <f t="shared" si="12"/>
-        <v>34</v>
+        <f t="shared" si="10"/>
+        <v>61</v>
       </c>
       <c r="O124">
         <v>20</v>
@@ -8589,7 +8518,7 @@
         <v>137</v>
       </c>
       <c r="C125" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10124</v>
       </c>
       <c r="D125" s="16">
@@ -8603,7 +8532,7 @@
         <v>1840</v>
       </c>
       <c r="G125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3220</v>
       </c>
       <c r="H125" s="13">
@@ -8624,12 +8553,12 @@
         <v>174</v>
       </c>
       <c r="M125">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" si="9"/>
+        <v>54</v>
       </c>
       <c r="N125">
-        <f t="shared" si="12"/>
-        <v>36</v>
+        <f t="shared" si="10"/>
+        <v>65</v>
       </c>
       <c r="O125">
         <v>20</v>
@@ -8647,7 +8576,7 @@
         <v>138</v>
       </c>
       <c r="C126" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10125</v>
       </c>
       <c r="D126" s="16">
@@ -8661,7 +8590,7 @@
         <v>1780</v>
       </c>
       <c r="G126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3115</v>
       </c>
       <c r="H126" s="13">
@@ -8682,12 +8611,12 @@
         <v>169</v>
       </c>
       <c r="M126">
-        <f t="shared" si="11"/>
-        <v>31</v>
+        <f t="shared" si="9"/>
+        <v>52</v>
       </c>
       <c r="N126">
-        <f t="shared" si="12"/>
-        <v>35</v>
+        <f t="shared" si="10"/>
+        <v>63</v>
       </c>
       <c r="O126">
         <v>20</v>
@@ -8705,7 +8634,7 @@
         <v>139</v>
       </c>
       <c r="C127" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10126</v>
       </c>
       <c r="D127" s="16">
@@ -8719,7 +8648,7 @@
         <v>1880</v>
       </c>
       <c r="G127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3290</v>
       </c>
       <c r="H127" s="13">
@@ -8740,12 +8669,12 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <f t="shared" si="11"/>
-        <v>37</v>
+        <f t="shared" si="9"/>
+        <v>67</v>
       </c>
       <c r="N127">
-        <f t="shared" si="12"/>
-        <v>33</v>
+        <f t="shared" si="10"/>
+        <v>55</v>
       </c>
       <c r="O127">
         <v>20</v>
@@ -8763,7 +8692,7 @@
         <v>297</v>
       </c>
       <c r="C128" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10127</v>
       </c>
       <c r="D128" s="16">
@@ -8798,12 +8727,12 @@
         <v>210</v>
       </c>
       <c r="M128">
-        <f t="shared" si="11"/>
-        <v>35</v>
+        <f>INT(E128/(IF(J128=0,1.7,1.4)))</f>
+        <v>57</v>
       </c>
       <c r="N128">
-        <f t="shared" si="12"/>
-        <v>39</v>
+        <f>INT(E128/(IF(J128&lt;&gt;0,1.7,1.4)))</f>
+        <v>70</v>
       </c>
       <c r="O128">
         <v>20</v>
@@ -8821,7 +8750,7 @@
         <v>298</v>
       </c>
       <c r="C129" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10128</v>
       </c>
       <c r="D129" s="16">
@@ -8835,7 +8764,7 @@
         <v>2040</v>
       </c>
       <c r="G129">
-        <f t="shared" ref="G129:G137" si="14">E129*38</f>
+        <f t="shared" ref="G129:G137" si="12">E129*38</f>
         <v>3876</v>
       </c>
       <c r="H129" s="13">
@@ -8856,12 +8785,12 @@
         <v>219</v>
       </c>
       <c r="M129">
-        <f t="shared" si="11"/>
-        <v>36</v>
+        <f t="shared" ref="M129:M147" si="13">INT(E129/(IF(J129=0,1.7,1.4)))</f>
+        <v>60</v>
       </c>
       <c r="N129">
-        <f t="shared" si="12"/>
-        <v>40</v>
+        <f t="shared" ref="N129:N147" si="14">INT(E129/(IF(J129&lt;&gt;0,1.7,1.4)))</f>
+        <v>72</v>
       </c>
       <c r="O129">
         <v>20</v>
@@ -8879,7 +8808,7 @@
         <v>140</v>
       </c>
       <c r="C130" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10129</v>
       </c>
       <c r="D130" s="16">
@@ -8893,7 +8822,7 @@
         <v>1900</v>
       </c>
       <c r="G130">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3610</v>
       </c>
       <c r="H130" s="13">
@@ -8914,12 +8843,12 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <f t="shared" si="11"/>
-        <v>38</v>
+        <f t="shared" si="13"/>
+        <v>67</v>
       </c>
       <c r="N130">
-        <f t="shared" si="12"/>
-        <v>33</v>
+        <f t="shared" si="14"/>
+        <v>55</v>
       </c>
       <c r="O130">
         <v>20</v>
@@ -8951,7 +8880,7 @@
         <v>1900</v>
       </c>
       <c r="G131">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3610</v>
       </c>
       <c r="H131" s="13">
@@ -8972,12 +8901,12 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <f t="shared" si="11"/>
-        <v>38</v>
+        <f t="shared" si="13"/>
+        <v>67</v>
       </c>
       <c r="N131">
-        <f t="shared" si="12"/>
-        <v>33</v>
+        <f t="shared" si="14"/>
+        <v>55</v>
       </c>
       <c r="O131">
         <v>20</v>
@@ -9009,7 +8938,7 @@
         <v>2020</v>
       </c>
       <c r="G132">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3838</v>
       </c>
       <c r="H132" s="13">
@@ -9030,12 +8959,12 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <f t="shared" si="11"/>
-        <v>40</v>
+        <f t="shared" si="13"/>
+        <v>72</v>
       </c>
       <c r="N132">
-        <f t="shared" si="12"/>
-        <v>36</v>
+        <f t="shared" si="14"/>
+        <v>59</v>
       </c>
       <c r="O132">
         <v>20</v>
@@ -9067,7 +8996,7 @@
         <v>1980</v>
       </c>
       <c r="G133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3762</v>
       </c>
       <c r="H133" s="13">
@@ -9088,12 +9017,12 @@
         <v>212</v>
       </c>
       <c r="M133">
-        <f t="shared" si="11"/>
-        <v>35</v>
+        <f t="shared" si="13"/>
+        <v>58</v>
       </c>
       <c r="N133">
-        <f t="shared" si="12"/>
-        <v>39</v>
+        <f t="shared" si="14"/>
+        <v>70</v>
       </c>
       <c r="O133">
         <v>20</v>
@@ -9125,7 +9054,7 @@
         <v>2020</v>
       </c>
       <c r="G134">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3838</v>
       </c>
       <c r="H134" s="13">
@@ -9146,12 +9075,12 @@
         <v>217</v>
       </c>
       <c r="M134">
-        <f t="shared" si="11"/>
-        <v>36</v>
+        <f t="shared" si="13"/>
+        <v>59</v>
       </c>
       <c r="N134">
-        <f t="shared" si="12"/>
-        <v>40</v>
+        <f t="shared" si="14"/>
+        <v>72</v>
       </c>
       <c r="O134">
         <v>20</v>
@@ -9183,7 +9112,7 @@
         <v>2000</v>
       </c>
       <c r="G135">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3800</v>
       </c>
       <c r="H135" s="13">
@@ -9204,12 +9133,12 @@
         <v>215</v>
       </c>
       <c r="M135">
-        <f t="shared" si="11"/>
-        <v>35</v>
+        <f t="shared" si="13"/>
+        <v>58</v>
       </c>
       <c r="N135">
-        <f t="shared" si="12"/>
-        <v>40</v>
+        <f t="shared" si="14"/>
+        <v>71</v>
       </c>
       <c r="O135">
         <v>20</v>
@@ -9241,7 +9170,7 @@
         <v>2060</v>
       </c>
       <c r="G136">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3914</v>
       </c>
       <c r="H136" s="13">
@@ -9262,12 +9191,12 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <f t="shared" si="11"/>
-        <v>41</v>
+        <f t="shared" si="13"/>
+        <v>73</v>
       </c>
       <c r="N136">
-        <f t="shared" si="12"/>
-        <v>36</v>
+        <f t="shared" si="14"/>
+        <v>60</v>
       </c>
       <c r="O136">
         <v>20</v>
@@ -9299,7 +9228,7 @@
         <v>1960</v>
       </c>
       <c r="G137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3724</v>
       </c>
       <c r="H137" s="13">
@@ -9320,12 +9249,12 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <f t="shared" si="11"/>
-        <v>39</v>
+        <f t="shared" si="13"/>
+        <v>70</v>
       </c>
       <c r="N137">
-        <f t="shared" si="12"/>
-        <v>35</v>
+        <f t="shared" si="14"/>
+        <v>57</v>
       </c>
       <c r="O137">
         <v>20</v>
@@ -9378,12 +9307,12 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <f t="shared" si="11"/>
-        <v>42</v>
+        <f t="shared" si="13"/>
+        <v>75</v>
       </c>
       <c r="N138">
-        <f t="shared" si="12"/>
-        <v>37</v>
+        <f t="shared" si="14"/>
+        <v>61</v>
       </c>
       <c r="O138">
         <v>20</v>
@@ -9436,12 +9365,12 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="13"/>
+        <v>79</v>
       </c>
       <c r="N139">
-        <f t="shared" si="12"/>
-        <v>39</v>
+        <f t="shared" si="14"/>
+        <v>65</v>
       </c>
       <c r="O139">
         <v>20</v>
@@ -9493,12 +9422,12 @@
         <v>257</v>
       </c>
       <c r="M140">
-        <f t="shared" si="11"/>
-        <v>37</v>
+        <f t="shared" si="13"/>
+        <v>61</v>
       </c>
       <c r="N140">
-        <f t="shared" si="12"/>
-        <v>42</v>
+        <f t="shared" si="14"/>
+        <v>75</v>
       </c>
       <c r="O140">
         <v>20</v>
@@ -9550,12 +9479,12 @@
         <v>259</v>
       </c>
       <c r="M141">
-        <f t="shared" si="11"/>
-        <v>37</v>
+        <f t="shared" si="13"/>
+        <v>62</v>
       </c>
       <c r="N141">
-        <f t="shared" si="12"/>
-        <v>42</v>
+        <f t="shared" si="14"/>
+        <v>75</v>
       </c>
       <c r="O141">
         <v>20</v>
@@ -9607,12 +9536,12 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <f t="shared" si="11"/>
-        <v>42</v>
+        <f t="shared" si="13"/>
+        <v>75</v>
       </c>
       <c r="N142">
-        <f t="shared" si="12"/>
-        <v>37</v>
+        <f t="shared" si="14"/>
+        <v>61</v>
       </c>
       <c r="O142">
         <v>20</v>
@@ -9664,12 +9593,12 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="13"/>
+        <v>79</v>
       </c>
       <c r="N143">
-        <f t="shared" si="12"/>
-        <v>39</v>
+        <f t="shared" si="14"/>
+        <v>65</v>
       </c>
       <c r="O143">
         <v>20</v>
@@ -9721,12 +9650,12 @@
         <v>257</v>
       </c>
       <c r="M144">
-        <f t="shared" si="11"/>
-        <v>37</v>
+        <f t="shared" si="13"/>
+        <v>61</v>
       </c>
       <c r="N144">
-        <f t="shared" si="12"/>
-        <v>42</v>
+        <f t="shared" si="14"/>
+        <v>75</v>
       </c>
       <c r="O144">
         <v>20</v>
@@ -9778,12 +9707,12 @@
         <v>259</v>
       </c>
       <c r="M145">
-        <f t="shared" si="11"/>
-        <v>37</v>
+        <f t="shared" si="13"/>
+        <v>62</v>
       </c>
       <c r="N145">
-        <f t="shared" si="12"/>
-        <v>42</v>
+        <f t="shared" si="14"/>
+        <v>75</v>
       </c>
       <c r="O145">
         <v>20</v>
@@ -9835,12 +9764,12 @@
         <v>312</v>
       </c>
       <c r="M146">
-        <f t="shared" si="11"/>
-        <v>42</v>
+        <f t="shared" si="13"/>
+        <v>70</v>
       </c>
       <c r="N146">
-        <f t="shared" si="12"/>
-        <v>48</v>
+        <f t="shared" si="14"/>
+        <v>85</v>
       </c>
       <c r="O146">
         <v>20</v>
@@ -9892,12 +9821,12 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <f t="shared" si="11"/>
-        <v>46</v>
+        <f t="shared" si="13"/>
+        <v>82</v>
       </c>
       <c r="N147">
-        <f t="shared" si="12"/>
-        <v>41</v>
+        <f t="shared" si="14"/>
+        <v>67</v>
       </c>
       <c r="O147">
         <v>20</v>
@@ -9949,12 +9878,12 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <f t="shared" si="11"/>
-        <v>48</v>
+        <f>INT(E148/(IF(J148=0,1.7,1.4)))</f>
+        <v>87</v>
       </c>
       <c r="N148">
-        <f t="shared" si="12"/>
-        <v>43</v>
+        <f>INT(E148/(IF(J148&lt;&gt;0,1.7,1.4)))</f>
+        <v>71</v>
       </c>
       <c r="O148">
         <v>20</v>
@@ -10006,12 +9935,12 @@
         <v>322</v>
       </c>
       <c r="M149">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f>INT(E149/(IF(J149=0,1.7,1.4)))</f>
+        <v>72</v>
       </c>
       <c r="N149">
-        <f t="shared" si="12"/>
-        <v>49</v>
+        <f>INT(E149/(IF(J149&lt;&gt;0,1.7,1.4)))</f>
+        <v>88</v>
       </c>
       <c r="O149">
         <v>20</v>
@@ -10063,12 +9992,12 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <f t="shared" si="11"/>
-        <v>47</v>
+        <f t="shared" ref="M150:M163" si="19">INT(E150/(IF(J150=0,1.7,1.4)))</f>
+        <v>84</v>
       </c>
       <c r="N150">
-        <f t="shared" si="12"/>
-        <v>42</v>
+        <f t="shared" ref="N150:N163" si="20">INT(E150/(IF(J150&lt;&gt;0,1.7,1.4)))</f>
+        <v>69</v>
       </c>
       <c r="O150">
         <v>20</v>
@@ -10120,12 +10049,12 @@
         <v>312</v>
       </c>
       <c r="M151">
-        <f t="shared" si="11"/>
-        <v>42</v>
+        <f t="shared" si="19"/>
+        <v>70</v>
       </c>
       <c r="N151">
-        <f t="shared" si="12"/>
-        <v>48</v>
+        <f t="shared" si="20"/>
+        <v>85</v>
       </c>
       <c r="O151">
         <v>20</v>
@@ -10177,12 +10106,12 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <f t="shared" si="11"/>
-        <v>46</v>
+        <f t="shared" si="19"/>
+        <v>82</v>
       </c>
       <c r="N152">
-        <f t="shared" si="12"/>
-        <v>41</v>
+        <f t="shared" si="20"/>
+        <v>67</v>
       </c>
       <c r="O152">
         <v>20</v>
@@ -10234,12 +10163,12 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <f t="shared" si="11"/>
-        <v>48</v>
+        <f t="shared" si="19"/>
+        <v>87</v>
       </c>
       <c r="N153">
-        <f t="shared" si="12"/>
-        <v>43</v>
+        <f t="shared" si="20"/>
+        <v>71</v>
       </c>
       <c r="O153">
         <v>20</v>
@@ -10291,12 +10220,12 @@
         <v>322</v>
       </c>
       <c r="M154">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="19"/>
+        <v>72</v>
       </c>
       <c r="N154">
-        <f t="shared" si="12"/>
-        <v>49</v>
+        <f t="shared" si="20"/>
+        <v>88</v>
       </c>
       <c r="O154">
         <v>20</v>
@@ -10348,12 +10277,12 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <f t="shared" si="11"/>
-        <v>47</v>
+        <f t="shared" si="19"/>
+        <v>84</v>
       </c>
       <c r="N155">
-        <f t="shared" si="12"/>
-        <v>42</v>
+        <f t="shared" si="20"/>
+        <v>69</v>
       </c>
       <c r="O155">
         <v>20</v>
@@ -10405,12 +10334,12 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <f t="shared" si="11"/>
-        <v>52</v>
+        <f t="shared" si="19"/>
+        <v>94</v>
       </c>
       <c r="N156">
-        <f t="shared" si="12"/>
-        <v>47</v>
+        <f t="shared" si="20"/>
+        <v>77</v>
       </c>
       <c r="O156">
         <v>20</v>
@@ -10427,7 +10356,7 @@
         <v>212</v>
       </c>
       <c r="C157" s="17">
-        <f t="shared" ref="C157:C159" si="19">A157</f>
+        <f t="shared" ref="C157:C159" si="21">A157</f>
         <v>11020</v>
       </c>
       <c r="D157" s="16">
@@ -10441,7 +10370,7 @@
         <v>2740</v>
       </c>
       <c r="G157">
-        <f t="shared" ref="G157:G163" si="20">E157*47</f>
+        <f t="shared" ref="G157:G163" si="22">E157*47</f>
         <v>6439</v>
       </c>
       <c r="H157" s="13">
@@ -10462,12 +10391,12 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <f t="shared" si="11"/>
-        <v>54</v>
+        <f t="shared" si="19"/>
+        <v>97</v>
       </c>
       <c r="N157">
-        <f t="shared" si="12"/>
-        <v>48</v>
+        <f t="shared" si="20"/>
+        <v>80</v>
       </c>
       <c r="O157">
         <v>20</v>
@@ -10484,7 +10413,7 @@
         <v>213</v>
       </c>
       <c r="C158" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>11021</v>
       </c>
       <c r="D158" s="16">
@@ -10494,11 +10423,11 @@
         <v>135</v>
       </c>
       <c r="F158">
-        <f t="shared" ref="F158:F221" si="21">E158*20</f>
+        <f t="shared" ref="F158:F221" si="23">E158*20</f>
         <v>2700</v>
       </c>
       <c r="G158">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6345</v>
       </c>
       <c r="H158" s="13">
@@ -10519,12 +10448,12 @@
         <v>351</v>
       </c>
       <c r="M158">
-        <f t="shared" si="11"/>
-        <v>48</v>
+        <f t="shared" si="19"/>
+        <v>79</v>
       </c>
       <c r="N158">
-        <f t="shared" si="12"/>
-        <v>54</v>
+        <f t="shared" si="20"/>
+        <v>96</v>
       </c>
       <c r="O158">
         <v>20</v>
@@ -10541,7 +10470,7 @@
         <v>214</v>
       </c>
       <c r="C159" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>11022</v>
       </c>
       <c r="D159" s="16">
@@ -10551,11 +10480,11 @@
         <v>138</v>
       </c>
       <c r="F159">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2760</v>
       </c>
       <c r="G159">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6486</v>
       </c>
       <c r="H159" s="13">
@@ -10576,12 +10505,12 @@
         <v>358</v>
       </c>
       <c r="M159">
-        <f t="shared" si="11"/>
-        <v>49</v>
+        <f t="shared" si="19"/>
+        <v>81</v>
       </c>
       <c r="N159">
-        <f t="shared" si="12"/>
-        <v>55</v>
+        <f t="shared" si="20"/>
+        <v>98</v>
       </c>
       <c r="O159">
         <v>20</v>
@@ -10608,11 +10537,11 @@
         <v>132</v>
       </c>
       <c r="F160">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2640</v>
       </c>
       <c r="G160">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6204</v>
       </c>
       <c r="H160" s="13">
@@ -10633,12 +10562,12 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <f t="shared" si="11"/>
-        <v>52</v>
+        <f t="shared" si="19"/>
+        <v>94</v>
       </c>
       <c r="N160">
-        <f t="shared" si="12"/>
-        <v>47</v>
+        <f t="shared" si="20"/>
+        <v>77</v>
       </c>
       <c r="O160">
         <v>20</v>
@@ -10665,11 +10594,11 @@
         <v>137</v>
       </c>
       <c r="F161">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2740</v>
       </c>
       <c r="G161">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6439</v>
       </c>
       <c r="H161" s="13">
@@ -10690,12 +10619,12 @@
         <v>0</v>
       </c>
       <c r="M161">
-        <f t="shared" si="11"/>
-        <v>54</v>
+        <f t="shared" si="19"/>
+        <v>97</v>
       </c>
       <c r="N161">
-        <f t="shared" si="12"/>
-        <v>48</v>
+        <f t="shared" si="20"/>
+        <v>80</v>
       </c>
       <c r="O161">
         <v>20</v>
@@ -10722,11 +10651,11 @@
         <v>135</v>
       </c>
       <c r="F162">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2700</v>
       </c>
       <c r="G162">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6345</v>
       </c>
       <c r="H162" s="13">
@@ -10747,12 +10676,12 @@
         <v>364</v>
       </c>
       <c r="M162">
-        <f t="shared" si="11"/>
-        <v>48</v>
+        <f t="shared" si="19"/>
+        <v>79</v>
       </c>
       <c r="N162">
-        <f t="shared" si="12"/>
-        <v>54</v>
+        <f t="shared" si="20"/>
+        <v>96</v>
       </c>
       <c r="O162">
         <v>20</v>
@@ -10779,11 +10708,11 @@
         <v>138</v>
       </c>
       <c r="F163">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2760</v>
       </c>
       <c r="G163">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6486</v>
       </c>
       <c r="H163" s="13">
@@ -10804,12 +10733,12 @@
         <v>372</v>
       </c>
       <c r="M163">
-        <f t="shared" si="11"/>
-        <v>49</v>
+        <f t="shared" si="19"/>
+        <v>81</v>
       </c>
       <c r="N163">
-        <f t="shared" si="12"/>
-        <v>55</v>
+        <f t="shared" si="20"/>
+        <v>98</v>
       </c>
       <c r="O163">
         <v>20</v>
@@ -10836,7 +10765,7 @@
         <v>152</v>
       </c>
       <c r="F164">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3040</v>
       </c>
       <c r="G164">
@@ -10861,12 +10790,12 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <f t="shared" si="11"/>
-        <v>60</v>
+        <f>INT(E164/(IF(J164=0,1.7,1.4)))</f>
+        <v>108</v>
       </c>
       <c r="N164">
-        <f t="shared" si="12"/>
-        <v>54</v>
+        <f>INT(E164/(IF(J164&lt;&gt;0,1.7,1.4)))</f>
+        <v>89</v>
       </c>
       <c r="O164">
         <v>20</v>
@@ -10893,11 +10822,11 @@
         <v>150</v>
       </c>
       <c r="F165">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3000</v>
       </c>
       <c r="G165">
-        <f t="shared" ref="G165:G169" si="22">E165*50</f>
+        <f t="shared" ref="G165:G169" si="24">E165*50</f>
         <v>7500</v>
       </c>
       <c r="H165" s="13">
@@ -10918,12 +10847,12 @@
         <v>427</v>
       </c>
       <c r="M165">
-        <f t="shared" si="11"/>
-        <v>53</v>
+        <f t="shared" ref="M165:M182" si="25">INT(E165/(IF(J165=0,1.7,1.4)))</f>
+        <v>88</v>
       </c>
       <c r="N165">
-        <f t="shared" si="12"/>
-        <v>60</v>
+        <f t="shared" ref="N165:N182" si="26">INT(E165/(IF(J165&lt;&gt;0,1.7,1.4)))</f>
+        <v>107</v>
       </c>
       <c r="O165">
         <v>20</v>
@@ -10950,11 +10879,11 @@
         <v>149</v>
       </c>
       <c r="F166">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2980</v>
       </c>
       <c r="G166">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7450</v>
       </c>
       <c r="H166" s="13">
@@ -10975,12 +10904,12 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <f t="shared" si="11"/>
-        <v>59</v>
+        <f t="shared" si="25"/>
+        <v>106</v>
       </c>
       <c r="N166">
-        <f t="shared" si="12"/>
-        <v>53</v>
+        <f t="shared" si="26"/>
+        <v>87</v>
       </c>
       <c r="O166">
         <v>20</v>
@@ -11007,11 +10936,11 @@
         <v>152</v>
       </c>
       <c r="F167">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3040</v>
       </c>
       <c r="G167">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7600</v>
       </c>
       <c r="H167" s="13">
@@ -11032,12 +10961,12 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <f t="shared" si="11"/>
-        <v>60</v>
+        <f t="shared" si="25"/>
+        <v>108</v>
       </c>
       <c r="N167">
-        <f t="shared" si="12"/>
-        <v>54</v>
+        <f t="shared" si="26"/>
+        <v>89</v>
       </c>
       <c r="O167">
         <v>20</v>
@@ -11064,11 +10993,11 @@
         <v>150</v>
       </c>
       <c r="F168">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3000</v>
       </c>
       <c r="G168">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="H168" s="13">
@@ -11089,12 +11018,12 @@
         <v>427</v>
       </c>
       <c r="M168">
-        <f t="shared" si="11"/>
-        <v>53</v>
+        <f t="shared" si="25"/>
+        <v>88</v>
       </c>
       <c r="N168">
-        <f t="shared" si="12"/>
-        <v>60</v>
+        <f t="shared" si="26"/>
+        <v>107</v>
       </c>
       <c r="O168">
         <v>20</v>
@@ -11121,11 +11050,11 @@
         <v>149</v>
       </c>
       <c r="F169">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2980</v>
       </c>
       <c r="G169">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7450</v>
       </c>
       <c r="H169" s="13">
@@ -11146,12 +11075,12 @@
         <v>0</v>
       </c>
       <c r="M169">
-        <f t="shared" si="11"/>
-        <v>59</v>
+        <f t="shared" si="25"/>
+        <v>106</v>
       </c>
       <c r="N169">
-        <f t="shared" si="12"/>
-        <v>53</v>
+        <f t="shared" si="26"/>
+        <v>87</v>
       </c>
       <c r="O169">
         <v>20</v>
@@ -11178,7 +11107,7 @@
         <v>161</v>
       </c>
       <c r="F170">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3220</v>
       </c>
       <c r="G170">
@@ -11203,12 +11132,12 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <f t="shared" si="11"/>
-        <v>64</v>
+        <f t="shared" si="25"/>
+        <v>115</v>
       </c>
       <c r="N170">
-        <f t="shared" si="12"/>
-        <v>57</v>
+        <f t="shared" si="26"/>
+        <v>94</v>
       </c>
       <c r="O170">
         <v>20</v>
@@ -11225,7 +11154,7 @@
         <v>230</v>
       </c>
       <c r="C171" s="17">
-        <f t="shared" ref="C171:C175" si="23">A171</f>
+        <f t="shared" ref="C171:C175" si="27">A171</f>
         <v>11034</v>
       </c>
       <c r="D171" s="16">
@@ -11235,11 +11164,11 @@
         <v>168</v>
       </c>
       <c r="F171">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3360</v>
       </c>
       <c r="G171">
-        <f t="shared" ref="G171:G175" si="24">E171*54</f>
+        <f t="shared" ref="G171:G175" si="28">E171*54</f>
         <v>9072</v>
       </c>
       <c r="H171" s="13">
@@ -11260,12 +11189,12 @@
         <v>0</v>
       </c>
       <c r="M171">
-        <f t="shared" si="11"/>
-        <v>67</v>
+        <f t="shared" si="25"/>
+        <v>120</v>
       </c>
       <c r="N171">
-        <f t="shared" si="12"/>
-        <v>60</v>
+        <f t="shared" si="26"/>
+        <v>98</v>
       </c>
       <c r="O171">
         <v>20</v>
@@ -11282,7 +11211,7 @@
         <v>231</v>
       </c>
       <c r="C172" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>11035</v>
       </c>
       <c r="D172" s="16">
@@ -11292,11 +11221,11 @@
         <v>167</v>
       </c>
       <c r="F172">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3340</v>
       </c>
       <c r="G172">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9018</v>
       </c>
       <c r="H172" s="13">
@@ -11317,12 +11246,12 @@
         <v>517</v>
       </c>
       <c r="M172">
-        <f t="shared" si="11"/>
-        <v>59</v>
+        <f t="shared" si="25"/>
+        <v>98</v>
       </c>
       <c r="N172">
-        <f t="shared" si="12"/>
-        <v>66</v>
+        <f t="shared" si="26"/>
+        <v>119</v>
       </c>
       <c r="O172">
         <v>20</v>
@@ -11339,7 +11268,7 @@
         <v>232</v>
       </c>
       <c r="C173" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>11036</v>
       </c>
       <c r="D173" s="16">
@@ -11349,11 +11278,11 @@
         <v>162</v>
       </c>
       <c r="F173">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3240</v>
       </c>
       <c r="G173">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>8748</v>
       </c>
       <c r="H173" s="13">
@@ -11374,12 +11303,12 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <f t="shared" si="11"/>
-        <v>64</v>
+        <f t="shared" si="25"/>
+        <v>115</v>
       </c>
       <c r="N173">
-        <f t="shared" si="12"/>
-        <v>57</v>
+        <f t="shared" si="26"/>
+        <v>95</v>
       </c>
       <c r="O173">
         <v>20</v>
@@ -11396,7 +11325,7 @@
         <v>233</v>
       </c>
       <c r="C174" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>11037</v>
       </c>
       <c r="D174" s="16">
@@ -11406,11 +11335,11 @@
         <v>165</v>
       </c>
       <c r="F174">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3300</v>
       </c>
       <c r="G174">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>8910</v>
       </c>
       <c r="H174" s="13">
@@ -11431,12 +11360,12 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <f t="shared" si="11"/>
-        <v>66</v>
+        <f t="shared" si="25"/>
+        <v>117</v>
       </c>
       <c r="N174">
-        <f t="shared" si="12"/>
-        <v>58</v>
+        <f t="shared" si="26"/>
+        <v>97</v>
       </c>
       <c r="O174">
         <v>20</v>
@@ -11453,7 +11382,7 @@
         <v>234</v>
       </c>
       <c r="C175" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>11038</v>
       </c>
       <c r="D175" s="16">
@@ -11463,11 +11392,11 @@
         <v>166</v>
       </c>
       <c r="F175">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3320</v>
       </c>
       <c r="G175">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>8964</v>
       </c>
       <c r="H175" s="13">
@@ -11488,12 +11417,12 @@
         <v>514</v>
       </c>
       <c r="M175">
-        <f t="shared" si="11"/>
-        <v>59</v>
+        <f t="shared" si="25"/>
+        <v>97</v>
       </c>
       <c r="N175">
-        <f t="shared" si="12"/>
-        <v>66</v>
+        <f t="shared" si="26"/>
+        <v>118</v>
       </c>
       <c r="O175">
         <v>20</v>
@@ -11520,7 +11449,7 @@
         <v>179</v>
       </c>
       <c r="F176">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3580</v>
       </c>
       <c r="G176">
@@ -11545,12 +11474,12 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <f t="shared" si="11"/>
-        <v>71</v>
+        <f t="shared" si="25"/>
+        <v>127</v>
       </c>
       <c r="N176">
-        <f t="shared" si="12"/>
-        <v>63</v>
+        <f t="shared" si="26"/>
+        <v>105</v>
       </c>
       <c r="O176">
         <v>20</v>
@@ -11567,7 +11496,7 @@
         <v>220</v>
       </c>
       <c r="C177" s="17">
-        <f t="shared" ref="C177:C180" si="25">A177</f>
+        <f t="shared" ref="C177:C180" si="29">A177</f>
         <v>11040</v>
       </c>
       <c r="D177" s="16">
@@ -11577,11 +11506,11 @@
         <v>181</v>
       </c>
       <c r="F177">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3620</v>
       </c>
       <c r="G177">
-        <f t="shared" ref="G177:G185" si="26">E177*58</f>
+        <f t="shared" ref="G177:G185" si="30">E177*58</f>
         <v>10498</v>
       </c>
       <c r="H177" s="13">
@@ -11602,12 +11531,12 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <f t="shared" ref="M177:M188" si="27">INT(E177/(IF(J177=0,2.8,2.5)))</f>
-        <v>72</v>
+        <f t="shared" si="25"/>
+        <v>129</v>
       </c>
       <c r="N177">
-        <f t="shared" ref="N177:N188" si="28">INT(E177/(IF(J177&lt;&gt;0,2.8,2.5)))</f>
-        <v>64</v>
+        <f t="shared" si="26"/>
+        <v>106</v>
       </c>
       <c r="O177">
         <v>20</v>
@@ -11624,7 +11553,7 @@
         <v>221</v>
       </c>
       <c r="C178" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11041</v>
       </c>
       <c r="D178" s="16">
@@ -11634,11 +11563,11 @@
         <v>176</v>
       </c>
       <c r="F178">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3520</v>
       </c>
       <c r="G178">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10208</v>
       </c>
       <c r="H178" s="13">
@@ -11659,12 +11588,12 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <f t="shared" si="27"/>
-        <v>70</v>
+        <f t="shared" si="25"/>
+        <v>125</v>
       </c>
       <c r="N178">
-        <f t="shared" si="28"/>
-        <v>62</v>
+        <f t="shared" si="26"/>
+        <v>103</v>
       </c>
       <c r="O178">
         <v>20</v>
@@ -11681,7 +11610,7 @@
         <v>222</v>
       </c>
       <c r="C179" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11042</v>
       </c>
       <c r="D179" s="16">
@@ -11691,11 +11620,11 @@
         <v>183</v>
       </c>
       <c r="F179">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3660</v>
       </c>
       <c r="G179">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10614</v>
       </c>
       <c r="H179" s="13">
@@ -11716,12 +11645,12 @@
         <v>622</v>
       </c>
       <c r="M179">
-        <f t="shared" si="27"/>
-        <v>65</v>
+        <f t="shared" si="25"/>
+        <v>107</v>
       </c>
       <c r="N179">
-        <f t="shared" si="28"/>
-        <v>73</v>
+        <f t="shared" si="26"/>
+        <v>130</v>
       </c>
       <c r="O179">
         <v>20</v>
@@ -11738,7 +11667,7 @@
         <v>223</v>
       </c>
       <c r="C180" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11043</v>
       </c>
       <c r="D180" s="16">
@@ -11748,11 +11677,11 @@
         <v>179</v>
       </c>
       <c r="F180">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3580</v>
       </c>
       <c r="G180">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10382</v>
       </c>
       <c r="H180" s="13">
@@ -11773,12 +11702,12 @@
         <v>608</v>
       </c>
       <c r="M180">
-        <f t="shared" si="27"/>
-        <v>63</v>
+        <f t="shared" si="25"/>
+        <v>105</v>
       </c>
       <c r="N180">
-        <f t="shared" si="28"/>
-        <v>71</v>
+        <f t="shared" si="26"/>
+        <v>127</v>
       </c>
       <c r="O180">
         <v>20</v>
@@ -11805,11 +11734,11 @@
         <v>178</v>
       </c>
       <c r="F181">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3560</v>
       </c>
       <c r="G181">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10324</v>
       </c>
       <c r="H181" s="13">
@@ -11830,12 +11759,12 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <f t="shared" si="27"/>
-        <v>71</v>
+        <f t="shared" si="25"/>
+        <v>127</v>
       </c>
       <c r="N181">
-        <f t="shared" si="28"/>
-        <v>63</v>
+        <f t="shared" si="26"/>
+        <v>104</v>
       </c>
       <c r="O181">
         <v>20</v>
@@ -11862,11 +11791,11 @@
         <v>181</v>
       </c>
       <c r="F182">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3620</v>
       </c>
       <c r="G182">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10498</v>
       </c>
       <c r="H182" s="13">
@@ -11887,12 +11816,12 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <f t="shared" si="27"/>
-        <v>72</v>
+        <f t="shared" si="25"/>
+        <v>129</v>
       </c>
       <c r="N182">
-        <f t="shared" si="28"/>
-        <v>64</v>
+        <f t="shared" si="26"/>
+        <v>106</v>
       </c>
       <c r="O182">
         <v>20</v>
@@ -11919,11 +11848,11 @@
         <v>176</v>
       </c>
       <c r="F183">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3520</v>
       </c>
       <c r="G183">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10208</v>
       </c>
       <c r="H183" s="13">
@@ -11944,12 +11873,12 @@
         <v>0</v>
       </c>
       <c r="M183">
-        <f t="shared" si="27"/>
-        <v>70</v>
+        <f>INT(E183/(IF(J183=0,1.7,1.4)))</f>
+        <v>125</v>
       </c>
       <c r="N183">
-        <f t="shared" si="28"/>
-        <v>62</v>
+        <f>INT(E183/(IF(J183&lt;&gt;0,1.7,1.4)))</f>
+        <v>103</v>
       </c>
       <c r="O183">
         <v>20</v>
@@ -11976,11 +11905,11 @@
         <v>180</v>
       </c>
       <c r="F184">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3600</v>
       </c>
       <c r="G184">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10440</v>
       </c>
       <c r="H184" s="13">
@@ -12001,12 +11930,12 @@
         <v>612</v>
       </c>
       <c r="M184">
-        <f t="shared" si="27"/>
-        <v>64</v>
+        <f t="shared" ref="M184:M202" si="31">INT(E184/(IF(J184=0,1.7,1.4)))</f>
+        <v>105</v>
       </c>
       <c r="N184">
-        <f t="shared" si="28"/>
-        <v>72</v>
+        <f t="shared" ref="N184:N202" si="32">INT(E184/(IF(J184&lt;&gt;0,1.7,1.4)))</f>
+        <v>128</v>
       </c>
       <c r="O184">
         <v>20</v>
@@ -12033,11 +11962,11 @@
         <v>175</v>
       </c>
       <c r="F185">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3500</v>
       </c>
       <c r="G185">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10150</v>
       </c>
       <c r="H185" s="13">
@@ -12058,12 +11987,12 @@
         <v>595</v>
       </c>
       <c r="M185">
-        <f t="shared" si="27"/>
-        <v>62</v>
+        <f t="shared" si="31"/>
+        <v>102</v>
       </c>
       <c r="N185">
-        <f t="shared" si="28"/>
-        <v>70</v>
+        <f t="shared" si="32"/>
+        <v>125</v>
       </c>
       <c r="O185">
         <v>20</v>
@@ -12090,7 +12019,7 @@
         <v>204</v>
       </c>
       <c r="F186">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4080</v>
       </c>
       <c r="G186">
@@ -12115,12 +12044,12 @@
         <v>775</v>
       </c>
       <c r="M186">
-        <f t="shared" si="27"/>
-        <v>72</v>
+        <f t="shared" si="31"/>
+        <v>120</v>
       </c>
       <c r="N186">
-        <f t="shared" si="28"/>
-        <v>81</v>
+        <f t="shared" si="32"/>
+        <v>145</v>
       </c>
       <c r="O186">
         <v>20</v>
@@ -12147,11 +12076,11 @@
         <v>203</v>
       </c>
       <c r="F187">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4060</v>
       </c>
       <c r="G187">
-        <f t="shared" ref="G187:G193" si="29">E187*62</f>
+        <f t="shared" ref="G187:G193" si="33">E187*62</f>
         <v>12586</v>
       </c>
       <c r="H187" s="13">
@@ -12172,12 +12101,12 @@
         <v>771</v>
       </c>
       <c r="M187">
-        <f t="shared" si="27"/>
-        <v>72</v>
+        <f t="shared" si="31"/>
+        <v>119</v>
       </c>
       <c r="N187">
-        <f t="shared" si="28"/>
-        <v>81</v>
+        <f t="shared" si="32"/>
+        <v>145</v>
       </c>
       <c r="O187">
         <v>20</v>
@@ -12204,11 +12133,11 @@
         <v>203</v>
       </c>
       <c r="F188">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4060</v>
       </c>
       <c r="G188">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12586</v>
       </c>
       <c r="H188" s="13">
@@ -12229,12 +12158,12 @@
         <v>771</v>
       </c>
       <c r="M188">
-        <f t="shared" si="27"/>
-        <v>72</v>
+        <f t="shared" si="31"/>
+        <v>119</v>
       </c>
       <c r="N188">
-        <f t="shared" si="28"/>
-        <v>81</v>
+        <f t="shared" si="32"/>
+        <v>145</v>
       </c>
       <c r="O188">
         <v>20</v>
@@ -12261,11 +12190,11 @@
         <v>207</v>
       </c>
       <c r="F189">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4140</v>
       </c>
       <c r="G189">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12834</v>
       </c>
       <c r="H189" s="13">
@@ -12286,12 +12215,12 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <f t="shared" ref="M189:M209" si="30">INT(E189/(IF(J189=0,2.8,2.5)))</f>
-        <v>82</v>
+        <f t="shared" si="31"/>
+        <v>147</v>
       </c>
       <c r="N189">
-        <f t="shared" ref="N189:N209" si="31">INT(E189/(IF(J189&lt;&gt;0,2.8,2.5)))</f>
-        <v>73</v>
+        <f t="shared" si="32"/>
+        <v>121</v>
       </c>
       <c r="O189">
         <v>20</v>
@@ -12318,11 +12247,11 @@
         <v>204</v>
       </c>
       <c r="F190">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4080</v>
       </c>
       <c r="G190">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12648</v>
       </c>
       <c r="H190" s="13">
@@ -12343,12 +12272,12 @@
         <v>775</v>
       </c>
       <c r="M190">
-        <f t="shared" si="30"/>
-        <v>72</v>
+        <f t="shared" si="31"/>
+        <v>120</v>
       </c>
       <c r="N190">
-        <f t="shared" si="31"/>
-        <v>81</v>
+        <f t="shared" si="32"/>
+        <v>145</v>
       </c>
       <c r="O190">
         <v>20</v>
@@ -12375,11 +12304,11 @@
         <v>203</v>
       </c>
       <c r="F191">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4060</v>
       </c>
       <c r="G191">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12586</v>
       </c>
       <c r="H191" s="13">
@@ -12400,12 +12329,12 @@
         <v>771</v>
       </c>
       <c r="M191">
-        <f t="shared" si="30"/>
-        <v>72</v>
+        <f t="shared" si="31"/>
+        <v>119</v>
       </c>
       <c r="N191">
-        <f t="shared" si="31"/>
-        <v>81</v>
+        <f t="shared" si="32"/>
+        <v>145</v>
       </c>
       <c r="O191">
         <v>20</v>
@@ -12432,11 +12361,11 @@
         <v>203</v>
       </c>
       <c r="F192">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4060</v>
       </c>
       <c r="G192">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12586</v>
       </c>
       <c r="H192" s="13">
@@ -12457,12 +12386,12 @@
         <v>771</v>
       </c>
       <c r="M192">
-        <f t="shared" si="30"/>
-        <v>72</v>
+        <f t="shared" si="31"/>
+        <v>119</v>
       </c>
       <c r="N192">
-        <f t="shared" si="31"/>
-        <v>81</v>
+        <f t="shared" si="32"/>
+        <v>145</v>
       </c>
       <c r="O192">
         <v>20</v>
@@ -12489,11 +12418,11 @@
         <v>207</v>
       </c>
       <c r="F193">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4140</v>
       </c>
       <c r="G193">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12834</v>
       </c>
       <c r="H193" s="13">
@@ -12514,12 +12443,12 @@
         <v>0</v>
       </c>
       <c r="M193">
-        <f t="shared" si="30"/>
-        <v>82</v>
+        <f t="shared" si="31"/>
+        <v>147</v>
       </c>
       <c r="N193">
-        <f t="shared" si="31"/>
-        <v>73</v>
+        <f t="shared" si="32"/>
+        <v>121</v>
       </c>
       <c r="O193">
         <v>20</v>
@@ -12546,7 +12475,7 @@
         <v>219</v>
       </c>
       <c r="F194">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4380</v>
       </c>
       <c r="G194">
@@ -12571,12 +12500,12 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <f t="shared" si="30"/>
-        <v>87</v>
+        <f t="shared" si="31"/>
+        <v>156</v>
       </c>
       <c r="N194">
-        <f t="shared" si="31"/>
-        <v>78</v>
+        <f t="shared" si="32"/>
+        <v>128</v>
       </c>
       <c r="O194">
         <v>20</v>
@@ -12593,7 +12522,7 @@
         <v>258</v>
       </c>
       <c r="C195" s="17">
-        <f t="shared" ref="C195:C197" si="32">A195</f>
+        <f t="shared" ref="C195:C197" si="34">A195</f>
         <v>12010</v>
       </c>
       <c r="D195" s="16">
@@ -12603,11 +12532,11 @@
         <v>220</v>
       </c>
       <c r="F195">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4400</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G201" si="33">E195*66</f>
+        <f t="shared" ref="G195:G201" si="35">E195*66</f>
         <v>14520</v>
       </c>
       <c r="H195" s="13">
@@ -12628,12 +12557,12 @@
         <v>880</v>
       </c>
       <c r="M195">
-        <f t="shared" si="30"/>
-        <v>78</v>
+        <f t="shared" si="31"/>
+        <v>129</v>
       </c>
       <c r="N195">
-        <f t="shared" si="31"/>
-        <v>88</v>
+        <f t="shared" si="32"/>
+        <v>157</v>
       </c>
       <c r="O195">
         <v>20</v>
@@ -12650,7 +12579,7 @@
         <v>259</v>
       </c>
       <c r="C196" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>12011</v>
       </c>
       <c r="D196" s="16">
@@ -12660,11 +12589,11 @@
         <v>223</v>
       </c>
       <c r="F196">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4460</v>
       </c>
       <c r="G196">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>14718</v>
       </c>
       <c r="H196" s="13">
@@ -12685,12 +12614,12 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <f t="shared" si="30"/>
-        <v>89</v>
+        <f t="shared" si="31"/>
+        <v>159</v>
       </c>
       <c r="N196">
-        <f t="shared" si="31"/>
-        <v>79</v>
+        <f t="shared" si="32"/>
+        <v>131</v>
       </c>
       <c r="O196">
         <v>20</v>
@@ -12707,7 +12636,7 @@
         <v>260</v>
       </c>
       <c r="C197" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>12012</v>
       </c>
       <c r="D197" s="16">
@@ -12717,11 +12646,11 @@
         <v>215</v>
       </c>
       <c r="F197">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4300</v>
       </c>
       <c r="G197">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>14190</v>
       </c>
       <c r="H197" s="13">
@@ -12742,12 +12671,12 @@
         <v>0</v>
       </c>
       <c r="M197">
-        <f t="shared" si="30"/>
-        <v>86</v>
+        <f t="shared" si="31"/>
+        <v>153</v>
       </c>
       <c r="N197">
-        <f t="shared" si="31"/>
-        <v>76</v>
+        <f t="shared" si="32"/>
+        <v>126</v>
       </c>
       <c r="O197">
         <v>20</v>
@@ -12774,11 +12703,11 @@
         <v>218</v>
       </c>
       <c r="F198">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4360</v>
       </c>
       <c r="G198">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>14388</v>
       </c>
       <c r="H198" s="13">
@@ -12799,12 +12728,12 @@
         <v>872</v>
       </c>
       <c r="M198">
-        <f t="shared" si="30"/>
-        <v>77</v>
+        <f t="shared" si="31"/>
+        <v>128</v>
       </c>
       <c r="N198">
-        <f t="shared" si="31"/>
-        <v>87</v>
+        <f t="shared" si="32"/>
+        <v>155</v>
       </c>
       <c r="O198">
         <v>20</v>
@@ -12831,11 +12760,11 @@
         <v>219</v>
       </c>
       <c r="F199">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4380</v>
       </c>
       <c r="G199">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>14454</v>
       </c>
       <c r="H199" s="13">
@@ -12856,12 +12785,12 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <f t="shared" si="30"/>
-        <v>87</v>
+        <f t="shared" si="31"/>
+        <v>156</v>
       </c>
       <c r="N199">
-        <f t="shared" si="31"/>
-        <v>78</v>
+        <f t="shared" si="32"/>
+        <v>128</v>
       </c>
       <c r="O199">
         <v>20</v>
@@ -12878,7 +12807,7 @@
         <v>263</v>
       </c>
       <c r="C200" s="17">
-        <f t="shared" ref="C200:C201" si="34">A200</f>
+        <f t="shared" ref="C200:C201" si="36">A200</f>
         <v>12015</v>
       </c>
       <c r="D200" s="16">
@@ -12888,11 +12817,11 @@
         <v>220</v>
       </c>
       <c r="F200">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4400</v>
       </c>
       <c r="G200">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>14520</v>
       </c>
       <c r="H200" s="13">
@@ -12913,12 +12842,12 @@
         <v>880</v>
       </c>
       <c r="M200">
-        <f t="shared" si="30"/>
-        <v>78</v>
+        <f t="shared" si="31"/>
+        <v>129</v>
       </c>
       <c r="N200">
-        <f t="shared" si="31"/>
-        <v>88</v>
+        <f t="shared" si="32"/>
+        <v>157</v>
       </c>
       <c r="O200">
         <v>20</v>
@@ -12935,7 +12864,7 @@
         <v>264</v>
       </c>
       <c r="C201" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>12016</v>
       </c>
       <c r="D201" s="16">
@@ -12945,11 +12874,11 @@
         <v>216</v>
       </c>
       <c r="F201">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4320</v>
       </c>
       <c r="G201">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>14256</v>
       </c>
       <c r="H201" s="13">
@@ -12970,12 +12899,12 @@
         <v>864</v>
       </c>
       <c r="M201">
-        <f t="shared" si="30"/>
-        <v>77</v>
+        <f t="shared" si="31"/>
+        <v>127</v>
       </c>
       <c r="N201">
-        <f t="shared" si="31"/>
-        <v>86</v>
+        <f t="shared" si="32"/>
+        <v>154</v>
       </c>
       <c r="O201">
         <v>20</v>
@@ -13002,7 +12931,7 @@
         <v>236</v>
       </c>
       <c r="F202">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4720</v>
       </c>
       <c r="G202">
@@ -13027,12 +12956,12 @@
         <v>1026</v>
       </c>
       <c r="M202">
-        <f t="shared" si="30"/>
-        <v>84</v>
+        <f t="shared" si="31"/>
+        <v>138</v>
       </c>
       <c r="N202">
-        <f t="shared" si="31"/>
-        <v>94</v>
+        <f t="shared" si="32"/>
+        <v>168</v>
       </c>
       <c r="O202">
         <v>20</v>
@@ -13049,7 +12978,7 @@
         <v>244</v>
       </c>
       <c r="C203" s="17">
-        <f t="shared" ref="C203:C204" si="35">A203</f>
+        <f t="shared" ref="C203:C204" si="37">A203</f>
         <v>12018</v>
       </c>
       <c r="D203" s="16">
@@ -13059,11 +12988,11 @@
         <v>230</v>
       </c>
       <c r="F203">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4600</v>
       </c>
       <c r="G203">
-        <f t="shared" ref="G203:G207" si="36">E203*70</f>
+        <f t="shared" ref="G203:G207" si="38">E203*70</f>
         <v>16100</v>
       </c>
       <c r="H203" s="13">
@@ -13084,12 +13013,12 @@
         <v>0</v>
       </c>
       <c r="M203">
-        <f t="shared" si="30"/>
-        <v>92</v>
+        <f>INT(E203/(IF(J203=0,1.7,1.4)))</f>
+        <v>164</v>
       </c>
       <c r="N203">
-        <f t="shared" si="31"/>
-        <v>82</v>
+        <f>INT(E203/(IF(J203&lt;&gt;0,1.7,1.4)))</f>
+        <v>135</v>
       </c>
       <c r="O203">
         <v>20</v>
@@ -13106,7 +13035,7 @@
         <v>245</v>
       </c>
       <c r="C204" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>12019</v>
       </c>
       <c r="D204" s="16">
@@ -13116,11 +13045,11 @@
         <v>232</v>
       </c>
       <c r="F204">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4640</v>
       </c>
       <c r="G204">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>16240</v>
       </c>
       <c r="H204" s="13">
@@ -13141,12 +13070,12 @@
         <v>1009</v>
       </c>
       <c r="M204">
-        <f t="shared" si="30"/>
-        <v>82</v>
+        <f>INT(E204/(IF(J204=0,1.7,1.4)))</f>
+        <v>136</v>
       </c>
       <c r="N204">
-        <f t="shared" si="31"/>
-        <v>92</v>
+        <f>INT(E204/(IF(J204&lt;&gt;0,1.7,1.4)))</f>
+        <v>165</v>
       </c>
       <c r="O204">
         <v>20</v>
@@ -13173,11 +13102,11 @@
         <v>236</v>
       </c>
       <c r="F205">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4720</v>
       </c>
       <c r="G205">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>16520</v>
       </c>
       <c r="H205" s="13">
@@ -13198,12 +13127,12 @@
         <v>1026</v>
       </c>
       <c r="M205">
-        <f t="shared" si="30"/>
-        <v>84</v>
+        <f t="shared" ref="M205:M223" si="39">INT(E205/(IF(J205=0,1.7,1.4)))</f>
+        <v>138</v>
       </c>
       <c r="N205">
-        <f t="shared" si="31"/>
-        <v>94</v>
+        <f t="shared" ref="N205:N223" si="40">INT(E205/(IF(J205&lt;&gt;0,1.7,1.4)))</f>
+        <v>168</v>
       </c>
       <c r="O205">
         <v>20</v>
@@ -13230,11 +13159,11 @@
         <v>230</v>
       </c>
       <c r="F206">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4600</v>
       </c>
       <c r="G206">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>16100</v>
       </c>
       <c r="H206" s="13">
@@ -13255,12 +13184,12 @@
         <v>0</v>
       </c>
       <c r="M206">
-        <f t="shared" si="30"/>
-        <v>92</v>
+        <f t="shared" si="39"/>
+        <v>164</v>
       </c>
       <c r="N206">
-        <f t="shared" si="31"/>
-        <v>82</v>
+        <f t="shared" si="40"/>
+        <v>135</v>
       </c>
       <c r="O206">
         <v>20</v>
@@ -13287,11 +13216,11 @@
         <v>232</v>
       </c>
       <c r="F207">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4640</v>
       </c>
       <c r="G207">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>16240</v>
       </c>
       <c r="H207" s="13">
@@ -13312,12 +13241,12 @@
         <v>1009</v>
       </c>
       <c r="M207">
-        <f t="shared" si="30"/>
-        <v>82</v>
+        <f t="shared" si="39"/>
+        <v>136</v>
       </c>
       <c r="N207">
-        <f t="shared" si="31"/>
-        <v>92</v>
+        <f t="shared" si="40"/>
+        <v>165</v>
       </c>
       <c r="O207">
         <v>20</v>
@@ -13344,7 +13273,7 @@
         <v>248</v>
       </c>
       <c r="F208">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4960</v>
       </c>
       <c r="G208">
@@ -13369,12 +13298,12 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <f t="shared" si="30"/>
-        <v>99</v>
+        <f t="shared" si="39"/>
+        <v>177</v>
       </c>
       <c r="N208">
-        <f t="shared" si="31"/>
-        <v>88</v>
+        <f t="shared" si="40"/>
+        <v>145</v>
       </c>
       <c r="O208">
         <v>20</v>
@@ -13401,11 +13330,11 @@
         <v>254</v>
       </c>
       <c r="F209">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5080</v>
       </c>
       <c r="G209">
-        <f t="shared" ref="G209:G215" si="37">E209*74</f>
+        <f t="shared" ref="G209:G215" si="41">E209*74</f>
         <v>18796</v>
       </c>
       <c r="H209" s="13">
@@ -13426,12 +13355,12 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <f t="shared" si="30"/>
-        <v>101</v>
+        <f t="shared" si="39"/>
+        <v>181</v>
       </c>
       <c r="N209">
-        <f t="shared" si="31"/>
-        <v>90</v>
+        <f t="shared" si="40"/>
+        <v>149</v>
       </c>
       <c r="O209">
         <v>20</v>
@@ -13457,11 +13386,11 @@
         <v>247</v>
       </c>
       <c r="F210">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4940</v>
       </c>
       <c r="G210">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>18278</v>
       </c>
       <c r="H210" s="13">
@@ -13482,12 +13411,12 @@
         <v>1099</v>
       </c>
       <c r="M210">
-        <f t="shared" ref="M210:M223" si="38">INT(E210/(IF(J210=0,2.8,2.5)))</f>
-        <v>88</v>
+        <f t="shared" si="39"/>
+        <v>145</v>
       </c>
       <c r="N210">
-        <f t="shared" ref="N210:N223" si="39">INT(E210/(IF(J210&lt;&gt;0,2.8,2.5)))</f>
-        <v>98</v>
+        <f t="shared" si="40"/>
+        <v>176</v>
       </c>
       <c r="O210">
         <v>20</v>
@@ -13514,11 +13443,11 @@
         <v>250</v>
       </c>
       <c r="F211">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5000</v>
       </c>
       <c r="G211">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>18500</v>
       </c>
       <c r="H211" s="13">
@@ -13539,12 +13468,12 @@
         <v>1112</v>
       </c>
       <c r="M211">
-        <f t="shared" si="38"/>
-        <v>89</v>
+        <f t="shared" si="39"/>
+        <v>147</v>
       </c>
       <c r="N211">
-        <f t="shared" si="39"/>
-        <v>100</v>
+        <f t="shared" si="40"/>
+        <v>178</v>
       </c>
       <c r="O211">
         <v>20</v>
@@ -13571,11 +13500,11 @@
         <v>248</v>
       </c>
       <c r="F212">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4960</v>
       </c>
       <c r="G212">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>18352</v>
       </c>
       <c r="H212" s="13">
@@ -13596,12 +13525,12 @@
         <v>0</v>
       </c>
       <c r="M212">
-        <f t="shared" si="38"/>
-        <v>99</v>
+        <f t="shared" si="39"/>
+        <v>177</v>
       </c>
       <c r="N212">
-        <f t="shared" si="39"/>
-        <v>88</v>
+        <f t="shared" si="40"/>
+        <v>145</v>
       </c>
       <c r="O212">
         <v>20</v>
@@ -13628,11 +13557,11 @@
         <v>254</v>
       </c>
       <c r="F213">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5080</v>
       </c>
       <c r="G213">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>18796</v>
       </c>
       <c r="H213" s="13">
@@ -13653,12 +13582,12 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <f t="shared" si="38"/>
-        <v>101</v>
+        <f t="shared" si="39"/>
+        <v>181</v>
       </c>
       <c r="N213">
-        <f t="shared" si="39"/>
-        <v>90</v>
+        <f t="shared" si="40"/>
+        <v>149</v>
       </c>
       <c r="O213">
         <v>20</v>
@@ -13685,11 +13614,11 @@
         <v>247</v>
       </c>
       <c r="F214">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4940</v>
       </c>
       <c r="G214">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>18278</v>
       </c>
       <c r="H214" s="13">
@@ -13710,12 +13639,12 @@
         <v>1099</v>
       </c>
       <c r="M214">
-        <f t="shared" si="38"/>
-        <v>88</v>
+        <f t="shared" si="39"/>
+        <v>145</v>
       </c>
       <c r="N214">
-        <f t="shared" si="39"/>
-        <v>98</v>
+        <f t="shared" si="40"/>
+        <v>176</v>
       </c>
       <c r="O214">
         <v>20</v>
@@ -13742,11 +13671,11 @@
         <v>250</v>
       </c>
       <c r="F215">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5000</v>
       </c>
       <c r="G215">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>18500</v>
       </c>
       <c r="H215" s="13">
@@ -13767,12 +13696,12 @@
         <v>1112</v>
       </c>
       <c r="M215">
-        <f t="shared" si="38"/>
-        <v>89</v>
+        <f t="shared" si="39"/>
+        <v>147</v>
       </c>
       <c r="N215">
-        <f t="shared" si="39"/>
-        <v>100</v>
+        <f t="shared" si="40"/>
+        <v>178</v>
       </c>
       <c r="O215">
         <v>20</v>
@@ -13799,7 +13728,7 @@
         <v>257</v>
       </c>
       <c r="F216">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5140</v>
       </c>
       <c r="G216">
@@ -13824,12 +13753,12 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <f t="shared" si="38"/>
-        <v>102</v>
+        <f t="shared" si="39"/>
+        <v>183</v>
       </c>
       <c r="N216">
-        <f t="shared" si="39"/>
-        <v>91</v>
+        <f t="shared" si="40"/>
+        <v>151</v>
       </c>
       <c r="O216">
         <v>20</v>
@@ -13856,11 +13785,11 @@
         <v>263</v>
       </c>
       <c r="F217">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5260</v>
       </c>
       <c r="G217">
-        <f t="shared" ref="G217:G223" si="40">E217*78</f>
+        <f t="shared" ref="G217:G223" si="42">E217*78</f>
         <v>20514</v>
       </c>
       <c r="H217" s="13">
@@ -13873,20 +13802,20 @@
         <v>0</v>
       </c>
       <c r="K217">
-        <f t="shared" ref="K217:K223" si="41">INT($E217*3.7)</f>
+        <f t="shared" ref="K217:K223" si="43">INT($E217*3.7)</f>
         <v>973</v>
       </c>
       <c r="L217">
-        <f t="shared" ref="L217:L223" si="42">INT($E217*4.9)</f>
+        <f t="shared" ref="L217:L223" si="44">INT($E217*4.9)</f>
         <v>1288</v>
       </c>
       <c r="M217">
-        <f t="shared" si="38"/>
-        <v>93</v>
+        <f t="shared" si="39"/>
+        <v>154</v>
       </c>
       <c r="N217">
-        <f t="shared" si="39"/>
-        <v>105</v>
+        <f t="shared" si="40"/>
+        <v>187</v>
       </c>
       <c r="O217">
         <v>20</v>
@@ -13913,37 +13842,37 @@
         <v>266</v>
       </c>
       <c r="F218">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5320</v>
       </c>
       <c r="G218">
+        <f t="shared" si="42"/>
+        <v>20748</v>
+      </c>
+      <c r="H218" s="13">
+        <v>10</v>
+      </c>
+      <c r="I218">
+        <f t="shared" ref="I218:I222" si="45">INT($E218*3.7)</f>
+        <v>984</v>
+      </c>
+      <c r="J218">
+        <f t="shared" ref="J218:J222" si="46">INT($E218*4.9)</f>
+        <v>1303</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <f t="shared" si="39"/>
+        <v>190</v>
+      </c>
+      <c r="N218">
         <f t="shared" si="40"/>
-        <v>20748</v>
-      </c>
-      <c r="H218" s="13">
-        <v>10</v>
-      </c>
-      <c r="I218">
-        <f t="shared" ref="I218:I222" si="43">INT($E218*3.7)</f>
-        <v>984</v>
-      </c>
-      <c r="J218">
-        <f t="shared" ref="J218:J222" si="44">INT($E218*4.9)</f>
-        <v>1303</v>
-      </c>
-      <c r="K218">
-        <v>0</v>
-      </c>
-      <c r="L218">
-        <v>0</v>
-      </c>
-      <c r="M218">
-        <f t="shared" si="38"/>
-        <v>106</v>
-      </c>
-      <c r="N218">
-        <f t="shared" si="39"/>
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="O218">
         <v>20</v>
@@ -13970,37 +13899,37 @@
         <v>259</v>
       </c>
       <c r="F219">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5180</v>
       </c>
       <c r="G219">
+        <f t="shared" si="42"/>
+        <v>20202</v>
+      </c>
+      <c r="H219" s="13">
+        <v>10</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <f t="shared" si="43"/>
+        <v>958</v>
+      </c>
+      <c r="L219">
+        <f t="shared" si="44"/>
+        <v>1269</v>
+      </c>
+      <c r="M219">
+        <f t="shared" si="39"/>
+        <v>152</v>
+      </c>
+      <c r="N219">
         <f t="shared" si="40"/>
-        <v>20202</v>
-      </c>
-      <c r="H219" s="13">
-        <v>10</v>
-      </c>
-      <c r="I219">
-        <v>0</v>
-      </c>
-      <c r="J219">
-        <v>0</v>
-      </c>
-      <c r="K219">
-        <f t="shared" si="41"/>
-        <v>958</v>
-      </c>
-      <c r="L219">
-        <f t="shared" si="42"/>
-        <v>1269</v>
-      </c>
-      <c r="M219">
-        <f t="shared" si="38"/>
-        <v>92</v>
-      </c>
-      <c r="N219">
-        <f t="shared" si="39"/>
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="O219">
         <v>20</v>
@@ -14027,37 +13956,37 @@
         <v>259</v>
       </c>
       <c r="F220">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5180</v>
       </c>
       <c r="G220">
+        <f t="shared" si="42"/>
+        <v>20202</v>
+      </c>
+      <c r="H220" s="13">
+        <v>10</v>
+      </c>
+      <c r="I220">
+        <f t="shared" si="45"/>
+        <v>958</v>
+      </c>
+      <c r="J220">
+        <f t="shared" si="46"/>
+        <v>1269</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <f t="shared" si="39"/>
+        <v>185</v>
+      </c>
+      <c r="N220">
         <f t="shared" si="40"/>
-        <v>20202</v>
-      </c>
-      <c r="H220" s="13">
-        <v>10</v>
-      </c>
-      <c r="I220">
-        <f t="shared" si="43"/>
-        <v>958</v>
-      </c>
-      <c r="J220">
-        <f t="shared" si="44"/>
-        <v>1269</v>
-      </c>
-      <c r="K220">
-        <v>0</v>
-      </c>
-      <c r="L220">
-        <v>0</v>
-      </c>
-      <c r="M220">
-        <f t="shared" si="38"/>
-        <v>103</v>
-      </c>
-      <c r="N220">
-        <f t="shared" si="39"/>
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="O220">
         <v>20</v>
@@ -14084,37 +14013,37 @@
         <v>258</v>
       </c>
       <c r="F221">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5160</v>
       </c>
       <c r="G221">
+        <f t="shared" si="42"/>
+        <v>20124</v>
+      </c>
+      <c r="H221" s="13">
+        <v>10</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <f t="shared" si="43"/>
+        <v>954</v>
+      </c>
+      <c r="L221">
+        <f t="shared" si="44"/>
+        <v>1264</v>
+      </c>
+      <c r="M221">
+        <f t="shared" si="39"/>
+        <v>151</v>
+      </c>
+      <c r="N221">
         <f t="shared" si="40"/>
-        <v>20124</v>
-      </c>
-      <c r="H221" s="13">
-        <v>10</v>
-      </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
-      <c r="J221">
-        <v>0</v>
-      </c>
-      <c r="K221">
-        <f t="shared" si="41"/>
-        <v>954</v>
-      </c>
-      <c r="L221">
-        <f t="shared" si="42"/>
-        <v>1264</v>
-      </c>
-      <c r="M221">
-        <f t="shared" si="38"/>
-        <v>92</v>
-      </c>
-      <c r="N221">
-        <f t="shared" si="39"/>
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="O221">
         <v>20</v>
@@ -14141,37 +14070,37 @@
         <v>261</v>
       </c>
       <c r="F222">
-        <f t="shared" ref="F222:F223" si="45">E222*20</f>
+        <f t="shared" ref="F222:F223" si="47">E222*20</f>
         <v>5220</v>
       </c>
       <c r="G222">
+        <f t="shared" si="42"/>
+        <v>20358</v>
+      </c>
+      <c r="H222" s="13">
+        <v>10</v>
+      </c>
+      <c r="I222">
+        <f t="shared" si="45"/>
+        <v>965</v>
+      </c>
+      <c r="J222">
+        <f t="shared" si="46"/>
+        <v>1278</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <f t="shared" si="39"/>
+        <v>186</v>
+      </c>
+      <c r="N222">
         <f t="shared" si="40"/>
-        <v>20358</v>
-      </c>
-      <c r="H222" s="13">
-        <v>10</v>
-      </c>
-      <c r="I222">
-        <f t="shared" si="43"/>
-        <v>965</v>
-      </c>
-      <c r="J222">
-        <f t="shared" si="44"/>
-        <v>1278</v>
-      </c>
-      <c r="K222">
-        <v>0</v>
-      </c>
-      <c r="L222">
-        <v>0</v>
-      </c>
-      <c r="M222">
-        <f t="shared" si="38"/>
-        <v>104</v>
-      </c>
-      <c r="N222">
-        <f t="shared" si="39"/>
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="O222">
         <v>20</v>
@@ -14198,37 +14127,37 @@
         <v>263</v>
       </c>
       <c r="F223">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>5260</v>
       </c>
       <c r="G223">
+        <f t="shared" si="42"/>
+        <v>20514</v>
+      </c>
+      <c r="H223" s="13">
+        <v>10</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <f t="shared" si="43"/>
+        <v>973</v>
+      </c>
+      <c r="L223">
+        <f t="shared" si="44"/>
+        <v>1288</v>
+      </c>
+      <c r="M223">
+        <f t="shared" si="39"/>
+        <v>154</v>
+      </c>
+      <c r="N223">
         <f t="shared" si="40"/>
-        <v>20514</v>
-      </c>
-      <c r="H223" s="13">
-        <v>10</v>
-      </c>
-      <c r="I223">
-        <v>0</v>
-      </c>
-      <c r="J223">
-        <v>0</v>
-      </c>
-      <c r="K223">
-        <f t="shared" si="41"/>
-        <v>973</v>
-      </c>
-      <c r="L223">
-        <f t="shared" si="42"/>
-        <v>1288</v>
-      </c>
-      <c r="M223">
-        <f t="shared" si="38"/>
-        <v>93</v>
-      </c>
-      <c r="N223">
-        <f t="shared" si="39"/>
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="O223">
         <v>20</v>
@@ -14347,7 +14276,7 @@
         <v>151</v>
       </c>
       <c r="C226" s="3">
-        <f t="shared" ref="C226:C253" si="46">A226</f>
+        <f t="shared" ref="C226:C253" si="48">A226</f>
         <v>20003</v>
       </c>
       <c r="D226" s="16">
@@ -14398,7 +14327,7 @@
         <v>152</v>
       </c>
       <c r="C227" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20004</v>
       </c>
       <c r="D227" s="16">
@@ -14449,7 +14378,7 @@
         <v>153</v>
       </c>
       <c r="C228" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20005</v>
       </c>
       <c r="D228" s="16">
@@ -14500,7 +14429,7 @@
         <v>48</v>
       </c>
       <c r="C229" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20006</v>
       </c>
       <c r="D229" s="16">
@@ -14551,7 +14480,7 @@
         <v>187</v>
       </c>
       <c r="C230" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20007</v>
       </c>
       <c r="D230" s="16">
@@ -14703,7 +14632,7 @@
         <v>155</v>
       </c>
       <c r="C233" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20010</v>
       </c>
       <c r="D233" s="16">
@@ -14754,7 +14683,7 @@
         <v>49</v>
       </c>
       <c r="C234" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20011</v>
       </c>
       <c r="D234" s="16">
@@ -14805,7 +14734,7 @@
         <v>156</v>
       </c>
       <c r="C235" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20012</v>
       </c>
       <c r="D235" s="16">
@@ -14856,7 +14785,7 @@
         <v>50</v>
       </c>
       <c r="C236" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20013</v>
       </c>
       <c r="D236" s="16">
@@ -14907,7 +14836,7 @@
         <v>105</v>
       </c>
       <c r="C237" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20014</v>
       </c>
       <c r="D237" s="16">
@@ -14958,7 +14887,7 @@
         <v>157</v>
       </c>
       <c r="C238" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20015</v>
       </c>
       <c r="D238" s="16">
@@ -15009,7 +14938,7 @@
         <v>158</v>
       </c>
       <c r="C239" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20016</v>
       </c>
       <c r="D239" s="16">
@@ -15060,7 +14989,7 @@
         <v>159</v>
       </c>
       <c r="C240" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20017</v>
       </c>
       <c r="D240" s="16">
@@ -15111,7 +15040,7 @@
         <v>160</v>
       </c>
       <c r="C241" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20018</v>
       </c>
       <c r="D241" s="16">
@@ -15162,7 +15091,7 @@
         <v>166</v>
       </c>
       <c r="C242" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20019</v>
       </c>
       <c r="D242" s="16">
@@ -15264,7 +15193,7 @@
         <v>167</v>
       </c>
       <c r="C244" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20021</v>
       </c>
       <c r="D244" s="16">
@@ -15315,7 +15244,7 @@
         <v>162</v>
       </c>
       <c r="C245" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20022</v>
       </c>
       <c r="D245" s="16">
@@ -15366,7 +15295,7 @@
         <v>163</v>
       </c>
       <c r="C246" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20023</v>
       </c>
       <c r="D246" s="16">
@@ -15417,7 +15346,7 @@
         <v>164</v>
       </c>
       <c r="C247" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20024</v>
       </c>
       <c r="D247" s="16">
@@ -15468,7 +15397,7 @@
         <v>161</v>
       </c>
       <c r="C248" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20025</v>
       </c>
       <c r="D248" s="16">
@@ -15570,7 +15499,7 @@
         <v>179</v>
       </c>
       <c r="C250" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20027</v>
       </c>
       <c r="D250" s="16">
@@ -15601,10 +15530,10 @@
         <v>116</v>
       </c>
       <c r="M250">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N250">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="O250">
         <v>15</v>
@@ -15621,7 +15550,7 @@
         <v>175</v>
       </c>
       <c r="C251" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20028</v>
       </c>
       <c r="D251" s="16">
@@ -15652,10 +15581,10 @@
         <v>0</v>
       </c>
       <c r="M251">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N251">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="O251">
         <v>15</v>
@@ -15672,7 +15601,7 @@
         <v>176</v>
       </c>
       <c r="C252" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20029</v>
       </c>
       <c r="D252" s="16">
@@ -15703,10 +15632,10 @@
         <v>0</v>
       </c>
       <c r="M252">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N252">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="O252">
         <v>15</v>
@@ -15723,7 +15652,7 @@
         <v>177</v>
       </c>
       <c r="C253" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20030</v>
       </c>
       <c r="D253" s="16">
@@ -15754,10 +15683,10 @@
         <v>136</v>
       </c>
       <c r="M253">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N253">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O253">
         <v>15</v>
@@ -16213,10 +16142,10 @@
         <v>165</v>
       </c>
       <c r="M262">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="N262">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="O262">
         <v>35</v>
@@ -16251,19 +16180,19 @@
         <v>100</v>
       </c>
       <c r="I263">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J263">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="K263">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L263">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="M263">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N263">
         <v>50</v>
@@ -17385,433 +17314,433 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E170:E175 I286:P928 K223:L223 K202:L202 I216:J216 K217:L217 I218:J218 K219:L219 I220:J220 K221:L221 I222:J222 K186:L188 I189:J189 K190:L192 I193:J194 K195:L195 I196:J197 K198:L198 I199:J199 K200:L200 I201:L201 I203:J203 K204:L205 I206:J206 K207:L207 I208:J209 K210:L211 I212:J213 K214:L215 I1:P126 I127:L137 O127:P137 O186:P223 M127:N223">
-    <cfRule type="expression" dxfId="99" priority="159">
+  <conditionalFormatting sqref="E170:E175 I286:P928 K223:L223 K202:L202 I216:J216 K217:L217 I218:J218 K219:L219 I220:J220 K221:L221 I222:J222 K186:L188 I189:J189 K190:L192 I193:J194 K195:L195 I196:J197 K198:L198 I199:J199 K200:L200 I201:L201 I203:J203 K204:L205 I206:J206 K207:L207 I208:J209 K210:L211 I212:J213 K214:L215 O186:P223 I1:P112 I113:L137 O113:P137 M113:N223">
+    <cfRule type="expression" dxfId="85" priority="159">
       <formula>E1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I138:J139 I142:J143 K144:L146 I147:J148 K149:L149 I150:J150 K151:L151 I152:J153 K154:L154 I155:J157 K158:L159 I160:J161 K162:L163 I164:J164 K165:L165 I166:J167 K168:L168 I169:J171 K172:L172 I173:J174 K175:L175 I176:J178 K179:L180 I181:J183 K184:L185 K140:L141 O138:P185">
-    <cfRule type="expression" dxfId="98" priority="85">
+    <cfRule type="expression" dxfId="84" priority="85">
       <formula>I138=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C170:C175">
-    <cfRule type="expression" dxfId="97" priority="84">
+    <cfRule type="expression" dxfId="83" priority="84">
       <formula>C170=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K138:L138">
-    <cfRule type="expression" dxfId="96" priority="83">
+    <cfRule type="expression" dxfId="82" priority="83">
       <formula>K138=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K139:L139">
-    <cfRule type="expression" dxfId="95" priority="82">
+    <cfRule type="expression" dxfId="81" priority="82">
       <formula>K139=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I140:J140">
-    <cfRule type="expression" dxfId="94" priority="81">
+    <cfRule type="expression" dxfId="80" priority="81">
       <formula>I140=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I141:J141">
-    <cfRule type="expression" dxfId="93" priority="80">
+    <cfRule type="expression" dxfId="79" priority="80">
       <formula>I141=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K142:L142">
-    <cfRule type="expression" dxfId="92" priority="79">
+    <cfRule type="expression" dxfId="78" priority="79">
       <formula>K142=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K143:L143">
-    <cfRule type="expression" dxfId="91" priority="78">
+    <cfRule type="expression" dxfId="77" priority="78">
       <formula>K143=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I144:J144">
-    <cfRule type="expression" dxfId="90" priority="77">
+    <cfRule type="expression" dxfId="76" priority="77">
       <formula>I144=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145:J145">
-    <cfRule type="expression" dxfId="89" priority="76">
+    <cfRule type="expression" dxfId="75" priority="76">
       <formula>I145=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I146:J146">
-    <cfRule type="expression" dxfId="88" priority="75">
+    <cfRule type="expression" dxfId="74" priority="75">
       <formula>I146=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K147:L147">
-    <cfRule type="expression" dxfId="87" priority="74">
+    <cfRule type="expression" dxfId="73" priority="74">
       <formula>K147=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K148:L148">
-    <cfRule type="expression" dxfId="86" priority="73">
+    <cfRule type="expression" dxfId="72" priority="73">
       <formula>K148=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I149:J149">
-    <cfRule type="expression" dxfId="85" priority="72">
+    <cfRule type="expression" dxfId="71" priority="72">
       <formula>I149=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K150:L150">
-    <cfRule type="expression" dxfId="84" priority="71">
+    <cfRule type="expression" dxfId="70" priority="71">
       <formula>K150=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I151:J151">
-    <cfRule type="expression" dxfId="83" priority="70">
+    <cfRule type="expression" dxfId="69" priority="70">
       <formula>I151=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K152:L152">
-    <cfRule type="expression" dxfId="82" priority="69">
+    <cfRule type="expression" dxfId="68" priority="69">
       <formula>K152=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K153:L153">
-    <cfRule type="expression" dxfId="81" priority="68">
+    <cfRule type="expression" dxfId="67" priority="68">
       <formula>K153=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I154:J154">
-    <cfRule type="expression" dxfId="80" priority="67">
+    <cfRule type="expression" dxfId="66" priority="67">
       <formula>I154=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K155:L155">
-    <cfRule type="expression" dxfId="79" priority="66">
+    <cfRule type="expression" dxfId="65" priority="66">
       <formula>K155=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K156:L156">
-    <cfRule type="expression" dxfId="78" priority="65">
+    <cfRule type="expression" dxfId="64" priority="65">
       <formula>K156=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K157:L157">
-    <cfRule type="expression" dxfId="77" priority="64">
+    <cfRule type="expression" dxfId="63" priority="64">
       <formula>K157=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I158:J158">
-    <cfRule type="expression" dxfId="76" priority="63">
+    <cfRule type="expression" dxfId="62" priority="63">
       <formula>I158=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I159:J159">
-    <cfRule type="expression" dxfId="75" priority="62">
+    <cfRule type="expression" dxfId="61" priority="62">
       <formula>I159=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K160:L160">
-    <cfRule type="expression" dxfId="74" priority="61">
+    <cfRule type="expression" dxfId="60" priority="61">
       <formula>K160=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K161:L161">
-    <cfRule type="expression" dxfId="73" priority="60">
+    <cfRule type="expression" dxfId="59" priority="60">
       <formula>K161=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I162:J162">
-    <cfRule type="expression" dxfId="72" priority="59">
+    <cfRule type="expression" dxfId="58" priority="59">
       <formula>I162=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I163:J163">
-    <cfRule type="expression" dxfId="71" priority="58">
+    <cfRule type="expression" dxfId="57" priority="58">
       <formula>I163=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K164:L164">
-    <cfRule type="expression" dxfId="70" priority="57">
+    <cfRule type="expression" dxfId="56" priority="57">
       <formula>K164=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K167:L167">
-    <cfRule type="expression" dxfId="69" priority="56">
+    <cfRule type="expression" dxfId="55" priority="56">
       <formula>K167=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I165:J165">
-    <cfRule type="expression" dxfId="68" priority="55">
+    <cfRule type="expression" dxfId="54" priority="55">
       <formula>I165=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K166:L166">
-    <cfRule type="expression" dxfId="67" priority="54">
+    <cfRule type="expression" dxfId="53" priority="54">
       <formula>K166=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I168:J168">
-    <cfRule type="expression" dxfId="66" priority="53">
+    <cfRule type="expression" dxfId="52" priority="53">
       <formula>I168=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K169:L169">
-    <cfRule type="expression" dxfId="65" priority="52">
+    <cfRule type="expression" dxfId="51" priority="52">
       <formula>K169=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I172:J172">
-    <cfRule type="expression" dxfId="64" priority="51">
+    <cfRule type="expression" dxfId="50" priority="51">
       <formula>I172=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K170:L170">
-    <cfRule type="expression" dxfId="63" priority="50">
+    <cfRule type="expression" dxfId="49" priority="50">
       <formula>K170=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K171:L171">
-    <cfRule type="expression" dxfId="62" priority="49">
+    <cfRule type="expression" dxfId="48" priority="49">
       <formula>K171=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I175:J175">
-    <cfRule type="expression" dxfId="61" priority="48">
+    <cfRule type="expression" dxfId="47" priority="48">
       <formula>I175=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K173:L173">
-    <cfRule type="expression" dxfId="60" priority="47">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>K173=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K174:L174">
-    <cfRule type="expression" dxfId="59" priority="46">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>K174=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K176:L176">
-    <cfRule type="expression" dxfId="58" priority="45">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>K176=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K177:L177">
-    <cfRule type="expression" dxfId="57" priority="44">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>K177=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K178:L178">
-    <cfRule type="expression" dxfId="56" priority="43">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>K178=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I179:J179">
-    <cfRule type="expression" dxfId="55" priority="42">
+    <cfRule type="expression" dxfId="41" priority="42">
       <formula>I179=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I180:J180">
-    <cfRule type="expression" dxfId="54" priority="41">
+    <cfRule type="expression" dxfId="40" priority="41">
       <formula>I180=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K181:L181">
-    <cfRule type="expression" dxfId="53" priority="40">
+    <cfRule type="expression" dxfId="39" priority="40">
       <formula>K181=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K182:L182">
-    <cfRule type="expression" dxfId="52" priority="39">
+    <cfRule type="expression" dxfId="38" priority="39">
       <formula>K182=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K183:L183">
-    <cfRule type="expression" dxfId="51" priority="38">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>K183=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I184:J184">
-    <cfRule type="expression" dxfId="50" priority="37">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>I184=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I185:J185">
-    <cfRule type="expression" dxfId="49" priority="36">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>I185=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P263 M255:N261 M264:P267 M262:O263 I224:N254 I268:P285 I255:J267">
-    <cfRule type="expression" dxfId="48" priority="35">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>I224=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K266:L267 K255:L261">
-    <cfRule type="expression" dxfId="47" priority="34">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>K255=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L262">
-    <cfRule type="expression" dxfId="46" priority="33">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>L262=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K263:L263">
-    <cfRule type="expression" dxfId="45" priority="32">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>K263=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K264:L265">
-    <cfRule type="expression" dxfId="44" priority="31">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>K264=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I186:J186">
-    <cfRule type="expression" dxfId="43" priority="30">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>I186=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K189:L189">
-    <cfRule type="expression" dxfId="42" priority="29">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>K189=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I187:J188">
-    <cfRule type="expression" dxfId="41" priority="28">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>I187=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I190:J192">
-    <cfRule type="expression" dxfId="40" priority="27">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>I190=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K193:L193">
-    <cfRule type="expression" dxfId="39" priority="26">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>K193=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K194:L194">
-    <cfRule type="expression" dxfId="38" priority="25">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>K194=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I195:J195">
-    <cfRule type="expression" dxfId="37" priority="24">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>I195=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K196:L196">
-    <cfRule type="expression" dxfId="36" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>K196=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K197:L197">
-    <cfRule type="expression" dxfId="35" priority="22">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>K197=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I198:J198">
-    <cfRule type="expression" dxfId="34" priority="21">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>I198=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199:L199">
-    <cfRule type="expression" dxfId="33" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>K199=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I200:J200">
-    <cfRule type="expression" dxfId="32" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>I200=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I202:J202">
-    <cfRule type="expression" dxfId="31" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>I202=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203:L203">
-    <cfRule type="expression" dxfId="30" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>K203=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I204:J204">
-    <cfRule type="expression" dxfId="29" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>I204=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I205:J205">
-    <cfRule type="expression" dxfId="28" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>I205=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K206:L206">
-    <cfRule type="expression" dxfId="27" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>K206=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I207:J207">
-    <cfRule type="expression" dxfId="26" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>I207=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K208:L209">
-    <cfRule type="expression" dxfId="25" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>K208=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I210:J211">
-    <cfRule type="expression" dxfId="24" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>I210=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K212:L213">
-    <cfRule type="expression" dxfId="23" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>K212=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I214:J215">
-    <cfRule type="expression" dxfId="22" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>I214=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K216:L216">
-    <cfRule type="expression" dxfId="21" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>K216=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I217:J217">
-    <cfRule type="expression" dxfId="20" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>I217=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K218:L218">
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>K218=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I219:J219">
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>I219=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K220:L220">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>K220=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I221:J221">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>I221=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K222:L222">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>K222=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I223:J223">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>I223=0</formula>
     </cfRule>
   </conditionalFormatting>
